--- a/django_AFL_ML/Data/Brisbane_stats.xlsx
+++ b/django_AFL_ML/Data/Brisbane_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HM102"/>
+  <dimension ref="A1:HN102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="GU76" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="HO90" sqref="HO90"/>
@@ -1022,6 +1022,9 @@
       <c r="HM1" t="n">
         <v>10332</v>
       </c>
+      <c r="HN1" t="n">
+        <v>10337</v>
+      </c>
     </row>
     <row r="2" ht="13.9" customHeight="1" s="1">
       <c r="A2" t="inlineStr">
@@ -1689,6 +1692,9 @@
       <c r="HM2" t="n">
         <v>2021</v>
       </c>
+      <c r="HN2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3" ht="13.9" customHeight="1" s="1">
       <c r="A3" t="inlineStr">
@@ -2356,6 +2362,9 @@
       <c r="HM3" t="n">
         <v>1</v>
       </c>
+      <c r="HN3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" ht="13.9" customHeight="1" s="1">
       <c r="A4" t="inlineStr">
@@ -3023,6 +3032,9 @@
       <c r="HM4" t="n">
         <v>0</v>
       </c>
+      <c r="HN4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" ht="13.9" customHeight="1" s="1">
       <c r="A5" t="inlineStr">
@@ -3690,6 +3702,9 @@
       <c r="HM5" t="n">
         <v>1</v>
       </c>
+      <c r="HN5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" ht="13.9" customHeight="1" s="1">
       <c r="A6" t="inlineStr">
@@ -4357,6 +4372,9 @@
       <c r="HM6" t="n">
         <v>94</v>
       </c>
+      <c r="HN6" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="7" ht="13.9" customHeight="1" s="1">
       <c r="A7" t="inlineStr">
@@ -5024,6 +5042,9 @@
       <c r="HM7" t="n">
         <v>125</v>
       </c>
+      <c r="HN7" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="8" ht="13.9" customHeight="1" s="1">
       <c r="A8" t="inlineStr">
@@ -5691,6 +5712,9 @@
       <c r="HM8" t="n">
         <v>-31</v>
       </c>
+      <c r="HN8" t="n">
+        <v>-1</v>
+      </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" s="1">
       <c r="A9" t="inlineStr">
@@ -6358,6 +6382,9 @@
       <c r="HM9" t="n">
         <v>0</v>
       </c>
+      <c r="HN9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" ht="13.9" customHeight="1" s="1">
       <c r="A10" t="inlineStr">
@@ -7025,6 +7052,9 @@
       <c r="HM10" t="n">
         <v>16</v>
       </c>
+      <c r="HN10" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" ht="13.9" customHeight="1" s="1">
       <c r="A11" t="inlineStr">
@@ -7692,6 +7722,9 @@
       <c r="HM11" t="n">
         <v>195</v>
       </c>
+      <c r="HN11" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="12" ht="13.9" customHeight="1" s="1">
       <c r="A12" t="inlineStr">
@@ -8359,6 +8392,9 @@
       <c r="HM12" t="n">
         <v>110</v>
       </c>
+      <c r="HN12" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="13" ht="13.9" customHeight="1" s="1">
       <c r="A13" t="inlineStr">
@@ -9026,6 +9062,9 @@
       <c r="HM13" t="n">
         <v>305</v>
       </c>
+      <c r="HN13" t="n">
+        <v>270</v>
+      </c>
     </row>
     <row r="14" ht="13.9" customHeight="1" s="1">
       <c r="A14" t="inlineStr">
@@ -9693,6 +9732,9 @@
       <c r="HM14" t="n">
         <v>1.77</v>
       </c>
+      <c r="HN14" t="n">
+        <v>2.21</v>
+      </c>
     </row>
     <row r="15" ht="13.9" customHeight="1" s="1">
       <c r="A15" t="inlineStr">
@@ -10360,6 +10402,9 @@
       <c r="HM15" t="n">
         <v>63</v>
       </c>
+      <c r="HN15" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="16" ht="13.9" customHeight="1" s="1">
       <c r="A16" t="inlineStr">
@@ -11027,6 +11072,9 @@
       <c r="HM16" t="n">
         <v>41</v>
       </c>
+      <c r="HN16" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="17" ht="13.9" customHeight="1" s="1">
       <c r="A17" t="inlineStr">
@@ -11694,6 +11742,9 @@
       <c r="HM17" t="n">
         <v>26</v>
       </c>
+      <c r="HN17" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="18" ht="13.9" customHeight="1" s="1">
       <c r="A18" t="inlineStr">
@@ -12361,6 +12412,9 @@
       <c r="HM18" t="n">
         <v>22</v>
       </c>
+      <c r="HN18" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="19" ht="13.9" customHeight="1" s="1">
       <c r="A19" t="inlineStr">
@@ -13028,6 +13082,9 @@
       <c r="HM19" t="n">
         <v>30</v>
       </c>
+      <c r="HN19" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="20" ht="13.9" customHeight="1" s="1">
       <c r="A20" t="inlineStr">
@@ -13695,6 +13752,9 @@
       <c r="HM20" t="n">
         <v>14</v>
       </c>
+      <c r="HN20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" ht="13.9" customHeight="1" s="1">
       <c r="A21" t="inlineStr">
@@ -14362,6 +14422,9 @@
       <c r="HM21" t="n">
         <v>11</v>
       </c>
+      <c r="HN21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" ht="13.9" customHeight="1" s="1">
       <c r="A22" t="inlineStr">
@@ -15029,6 +15092,9 @@
       <c r="HM22" t="n">
         <v>6</v>
       </c>
+      <c r="HN22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23" ht="13.9" customHeight="1" s="1">
       <c r="A23" t="inlineStr">
@@ -15696,6 +15762,9 @@
       <c r="HM23" t="n">
         <v>4</v>
       </c>
+      <c r="HN23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" ht="13.9" customHeight="1" s="1">
       <c r="A24" t="inlineStr">
@@ -16363,6 +16432,9 @@
       <c r="HM24" t="n">
         <v>24</v>
       </c>
+      <c r="HN24" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="25" ht="13.9" customHeight="1" s="1">
       <c r="A25" t="inlineStr">
@@ -17030,6 +17102,9 @@
       <c r="HM25" t="n">
         <v>58.3</v>
       </c>
+      <c r="HN25" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="26" ht="13.9" customHeight="1" s="1">
       <c r="A26" t="inlineStr">
@@ -17697,6 +17772,9 @@
       <c r="HM26" t="n">
         <v>21.79</v>
       </c>
+      <c r="HN26" t="n">
+        <v>24.55</v>
+      </c>
     </row>
     <row r="27" ht="13.9" customHeight="1" s="1">
       <c r="A27" t="inlineStr">
@@ -18364,6 +18442,9 @@
       <c r="HM27" t="n">
         <v>12.71</v>
       </c>
+      <c r="HN27" t="n">
+        <v>10.8</v>
+      </c>
     </row>
     <row r="28" ht="13.9" customHeight="1" s="1">
       <c r="A28" t="inlineStr">
@@ -19031,6 +19112,9 @@
       <c r="HM28" t="n">
         <v>32</v>
       </c>
+      <c r="HN28" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="29" ht="13.9" customHeight="1" s="1">
       <c r="A29" t="inlineStr">
@@ -19698,6 +19782,9 @@
       <c r="HM29" t="n">
         <v>65</v>
       </c>
+      <c r="HN29" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="30" ht="13.9" customHeight="1" s="1">
       <c r="A30" t="inlineStr">
@@ -20365,6 +20452,9 @@
       <c r="HM30" t="n">
         <v>38</v>
       </c>
+      <c r="HN30" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="31" ht="13.9" customHeight="1" s="1">
       <c r="A31" t="inlineStr">
@@ -21032,6 +21122,9 @@
       <c r="HM31" t="n">
         <v>57</v>
       </c>
+      <c r="HN31" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="32" ht="13.9" customHeight="1" s="1">
       <c r="A32" t="inlineStr">
@@ -21699,6 +21792,9 @@
       <c r="HM32" t="n">
         <v>2.38</v>
       </c>
+      <c r="HN32" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" ht="13.9" customHeight="1" s="1">
       <c r="A33" t="inlineStr">
@@ -22366,6 +22462,9 @@
       <c r="HM33" t="n">
         <v>4.07</v>
       </c>
+      <c r="HN33" t="n">
+        <v>4.55</v>
+      </c>
     </row>
     <row r="34" ht="13.9" customHeight="1" s="1">
       <c r="A34" t="inlineStr">
@@ -23033,6 +23132,9 @@
       <c r="HM34" t="n">
         <v>35.1</v>
       </c>
+      <c r="HN34" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="35" ht="13.9" customHeight="1" s="1">
       <c r="A35" t="inlineStr">
@@ -23700,6 +23802,9 @@
       <c r="HM35" t="n">
         <v>24.6</v>
       </c>
+      <c r="HN35" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="36" ht="13.9" customHeight="1" s="1">
       <c r="A36" t="inlineStr">
@@ -24367,6 +24472,9 @@
       <c r="HM36" t="n">
         <v>188.6</v>
       </c>
+      <c r="HN36" t="n">
+        <v>188.2</v>
+      </c>
     </row>
     <row r="37" ht="13.9" customHeight="1" s="1">
       <c r="A37" t="inlineStr">
@@ -25034,6 +25142,9 @@
       <c r="HM37" t="n">
         <v>86.90000000000001</v>
       </c>
+      <c r="HN37" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="38" ht="13.9" customHeight="1" s="1">
       <c r="A38" t="inlineStr">
@@ -25701,6 +25812,9 @@
       <c r="HM38" t="n">
         <v>25.66</v>
       </c>
+      <c r="HN38" t="n">
+        <v>25.33</v>
+      </c>
     </row>
     <row r="39" ht="13.9" customHeight="1" s="1">
       <c r="A39" t="inlineStr">
@@ -26368,6 +26482,9 @@
       <c r="HM39" t="n">
         <v>101.1</v>
       </c>
+      <c r="HN39" t="n">
+        <v>94.7</v>
+      </c>
     </row>
     <row r="40" ht="13.9" customHeight="1" s="1">
       <c r="A40" t="inlineStr">
@@ -27035,6 +27152,9 @@
       <c r="HM40" t="n">
         <v>6</v>
       </c>
+      <c r="HN40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41" ht="13.9" customHeight="1" s="1">
       <c r="A41" t="inlineStr">
@@ -27702,6 +27822,9 @@
       <c r="HM41" t="n">
         <v>6</v>
       </c>
+      <c r="HN41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42" ht="13.9" customHeight="1" s="1">
       <c r="A42" t="inlineStr">
@@ -28369,6 +28492,9 @@
       <c r="HM42" t="n">
         <v>5</v>
       </c>
+      <c r="HN42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43" ht="13.9" customHeight="1" s="1">
       <c r="A43" t="inlineStr">
@@ -29036,6 +29162,9 @@
       <c r="HM43" t="n">
         <v>5</v>
       </c>
+      <c r="HN43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44" ht="13.9" customHeight="1" s="1">
       <c r="A44" t="inlineStr">
@@ -29703,6 +29832,9 @@
       <c r="HM44" t="n">
         <v>138</v>
       </c>
+      <c r="HN44" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="45" ht="13.9" customHeight="1" s="1">
       <c r="A45" t="inlineStr">
@@ -30370,6 +30502,9 @@
       <c r="HM45" t="n">
         <v>155</v>
       </c>
+      <c r="HN45" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="46" ht="13.9" customHeight="1" s="1">
       <c r="A46" t="inlineStr">
@@ -31037,6 +31172,9 @@
       <c r="HM46" t="n">
         <v>207</v>
       </c>
+      <c r="HN46" t="n">
+        <v>185</v>
+      </c>
     </row>
     <row r="47" ht="13.9" customHeight="1" s="1">
       <c r="A47" t="inlineStr">
@@ -31704,6 +31842,9 @@
       <c r="HM47" t="n">
         <v>67.90000000000001</v>
       </c>
+      <c r="HN47" t="n">
+        <v>68.5</v>
+      </c>
     </row>
     <row r="48" ht="13.9" customHeight="1" s="1">
       <c r="A48" t="inlineStr">
@@ -32371,6 +32512,9 @@
       <c r="HM48" t="n">
         <v>65</v>
       </c>
+      <c r="HN48" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="49" ht="13.9" customHeight="1" s="1">
       <c r="A49" t="inlineStr">
@@ -33038,6 +33182,9 @@
       <c r="HM49" t="n">
         <v>9</v>
       </c>
+      <c r="HN49" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="50" ht="13.9" customHeight="1" s="1">
       <c r="A50" t="inlineStr">
@@ -33705,6 +33852,9 @@
       <c r="HM50" t="n">
         <v>5</v>
       </c>
+      <c r="HN50" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="51" ht="13.9" customHeight="1" s="1">
       <c r="A51" t="inlineStr">
@@ -34372,6 +34522,9 @@
       <c r="HM51" t="n">
         <v>32</v>
       </c>
+      <c r="HN51" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="52" ht="13.9" customHeight="1" s="1">
       <c r="A52" t="inlineStr">
@@ -35039,6 +35192,9 @@
       <c r="HM52" t="n">
         <v>38</v>
       </c>
+      <c r="HN52" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="53" ht="13.9" customHeight="1" s="1">
       <c r="A53" t="inlineStr">
@@ -35706,6 +35862,9 @@
       <c r="HM53" t="n">
         <v>56</v>
       </c>
+      <c r="HN53" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="54" ht="13.9" customHeight="1" s="1">
       <c r="A54" t="inlineStr">
@@ -36373,6 +36532,9 @@
       <c r="HM54" t="n">
         <v>1</v>
       </c>
+      <c r="HN54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55" ht="13.9" customHeight="1" s="1">
       <c r="A55" t="inlineStr">
@@ -37040,6 +37202,9 @@
       <c r="HM55" t="n">
         <v>11</v>
       </c>
+      <c r="HN55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56" ht="13.9" customHeight="1" s="1">
       <c r="A56" t="inlineStr">
@@ -37707,6 +37872,9 @@
       <c r="HM56" t="n">
         <v>78.59999999999999</v>
       </c>
+      <c r="HN56" t="n">
+        <v>45.5</v>
+      </c>
     </row>
     <row r="57" ht="13.9" customHeight="1" s="1">
       <c r="A57" t="inlineStr">
@@ -38374,6 +38542,9 @@
       <c r="HM57" t="n">
         <v>229</v>
       </c>
+      <c r="HN57" t="n">
+        <v>237</v>
+      </c>
     </row>
     <row r="58" ht="13.9" customHeight="1" s="1">
       <c r="A58" t="inlineStr">
@@ -39041,6 +39212,9 @@
       <c r="HM58" t="n">
         <v>139</v>
       </c>
+      <c r="HN58" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="59" ht="13.9" customHeight="1" s="1">
       <c r="A59" t="inlineStr">
@@ -39708,6 +39882,9 @@
       <c r="HM59" t="n">
         <v>368</v>
       </c>
+      <c r="HN59" t="n">
+        <v>379</v>
+      </c>
     </row>
     <row r="60" ht="13.9" customHeight="1" s="1">
       <c r="A60" t="inlineStr">
@@ -40375,6 +40552,9 @@
       <c r="HM60" t="n">
         <v>1.65</v>
       </c>
+      <c r="HN60" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="61" ht="13.9" customHeight="1" s="1">
       <c r="A61" t="inlineStr">
@@ -41042,6 +41222,9 @@
       <c r="HM61" t="n">
         <v>89</v>
       </c>
+      <c r="HN61" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="62" ht="13.9" customHeight="1" s="1">
       <c r="A62" t="inlineStr">
@@ -41709,6 +41892,9 @@
       <c r="HM62" t="n">
         <v>52</v>
       </c>
+      <c r="HN62" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="63" ht="13.9" customHeight="1" s="1">
       <c r="A63" t="inlineStr">
@@ -42376,6 +42562,9 @@
       <c r="HM63" t="n">
         <v>30</v>
       </c>
+      <c r="HN63" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="64" ht="13.9" customHeight="1" s="1">
       <c r="A64" t="inlineStr">
@@ -43043,6 +43232,9 @@
       <c r="HM64" t="n">
         <v>30</v>
       </c>
+      <c r="HN64" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="65" ht="13.9" customHeight="1" s="1">
       <c r="A65" t="inlineStr">
@@ -43710,6 +43902,9 @@
       <c r="HM65" t="n">
         <v>22</v>
       </c>
+      <c r="HN65" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="66" ht="13.9" customHeight="1" s="1">
       <c r="A66" t="inlineStr">
@@ -44377,6 +44572,9 @@
       <c r="HM66" t="n">
         <v>19</v>
       </c>
+      <c r="HN66" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="67" ht="13.9" customHeight="1" s="1">
       <c r="A67" t="inlineStr">
@@ -45044,6 +45242,9 @@
       <c r="HM67" t="n">
         <v>19</v>
       </c>
+      <c r="HN67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68" ht="13.9" customHeight="1" s="1">
       <c r="A68" t="inlineStr">
@@ -45711,6 +45912,9 @@
       <c r="HM68" t="n">
         <v>8</v>
       </c>
+      <c r="HN68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69" ht="13.9" customHeight="1" s="1">
       <c r="A69" t="inlineStr">
@@ -46378,6 +46582,9 @@
       <c r="HM69" t="n">
         <v>3</v>
       </c>
+      <c r="HN69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" ht="13.9" customHeight="1" s="1">
       <c r="A70" t="inlineStr">
@@ -47045,6 +47252,9 @@
       <c r="HM70" t="n">
         <v>30</v>
       </c>
+      <c r="HN70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71" ht="13.9" customHeight="1" s="1">
       <c r="A71" t="inlineStr">
@@ -47712,6 +47922,9 @@
       <c r="HM71" t="n">
         <v>63.3</v>
       </c>
+      <c r="HN71" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="72" ht="13.9" customHeight="1" s="1">
       <c r="A72" t="inlineStr">
@@ -48379,6 +48592,9 @@
       <c r="HM72" t="n">
         <v>19.37</v>
       </c>
+      <c r="HN72" t="n">
+        <v>31.58</v>
+      </c>
     </row>
     <row r="73" ht="13.9" customHeight="1" s="1">
       <c r="A73" t="inlineStr">
@@ -49046,6 +49262,9 @@
       <c r="HM73" t="n">
         <v>12.27</v>
       </c>
+      <c r="HN73" t="n">
+        <v>18.05</v>
+      </c>
     </row>
     <row r="74" ht="13.9" customHeight="1" s="1">
       <c r="A74" t="inlineStr">
@@ -49713,6 +49932,9 @@
       <c r="HM74" t="n">
         <v>30</v>
       </c>
+      <c r="HN74" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="75" ht="13.9" customHeight="1" s="1">
       <c r="A75" t="inlineStr">
@@ -50380,6 +50602,9 @@
       <c r="HM75" t="n">
         <v>63</v>
       </c>
+      <c r="HN75" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="76" ht="13.9" customHeight="1" s="1">
       <c r="A76" t="inlineStr">
@@ -51047,6 +51272,9 @@
       <c r="HM76" t="n">
         <v>42</v>
       </c>
+      <c r="HN76" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="77" ht="13.9" customHeight="1" s="1">
       <c r="A77" t="inlineStr">
@@ -51714,6 +51942,9 @@
       <c r="HM77" t="n">
         <v>59</v>
       </c>
+      <c r="HN77" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="78" ht="13.9" customHeight="1" s="1">
       <c r="A78" t="inlineStr">
@@ -52381,6 +52612,9 @@
       <c r="HM78" t="n">
         <v>1.97</v>
       </c>
+      <c r="HN78" t="n">
+        <v>2.24</v>
+      </c>
     </row>
     <row r="79" ht="13.9" customHeight="1" s="1">
       <c r="A79" t="inlineStr">
@@ -53048,6 +53282,9 @@
       <c r="HM79" t="n">
         <v>3.11</v>
       </c>
+      <c r="HN79" t="n">
+        <v>3.92</v>
+      </c>
     </row>
     <row r="80" ht="13.9" customHeight="1" s="1">
       <c r="A80" t="inlineStr">
@@ -53715,6 +53952,9 @@
       <c r="HM80" t="n">
         <v>45.8</v>
       </c>
+      <c r="HN80" t="n">
+        <v>44.7</v>
+      </c>
     </row>
     <row r="81" ht="13.9" customHeight="1" s="1">
       <c r="A81" t="inlineStr">
@@ -54382,6 +54622,9 @@
       <c r="HM81" t="n">
         <v>32.2</v>
       </c>
+      <c r="HN81" t="n">
+        <v>25.5</v>
+      </c>
     </row>
     <row r="82" ht="13.9" customHeight="1" s="1">
       <c r="A82" t="inlineStr">
@@ -55049,6 +55292,9 @@
       <c r="HM82" t="n">
         <v>187.3</v>
       </c>
+      <c r="HN82" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="83" ht="13.9" customHeight="1" s="1">
       <c r="A83" t="inlineStr">
@@ -55716,6 +55962,9 @@
       <c r="HM83" t="n">
         <v>83.90000000000001</v>
       </c>
+      <c r="HN83" t="n">
+        <v>88.2</v>
+      </c>
     </row>
     <row r="84" ht="13.9" customHeight="1" s="1">
       <c r="A84" t="inlineStr">
@@ -56383,6 +56632,9 @@
       <c r="HM84" t="n">
         <v>24.33</v>
       </c>
+      <c r="HN84" t="n">
+        <v>27.33</v>
+      </c>
     </row>
     <row r="85" ht="13.9" customHeight="1" s="1">
       <c r="A85" t="inlineStr">
@@ -57050,6 +57302,9 @@
       <c r="HM85" t="n">
         <v>83.7</v>
       </c>
+      <c r="HN85" t="n">
+        <v>132.1</v>
+      </c>
     </row>
     <row r="86" ht="13.9" customHeight="1" s="1">
       <c r="A86" t="inlineStr">
@@ -57717,6 +57972,9 @@
       <c r="HM86" t="n">
         <v>10</v>
       </c>
+      <c r="HN86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87" ht="13.9" customHeight="1" s="1">
       <c r="A87" t="inlineStr">
@@ -58384,6 +58642,9 @@
       <c r="HM87" t="n">
         <v>2</v>
       </c>
+      <c r="HN87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88" ht="13.9" customHeight="1" s="1">
       <c r="A88" t="inlineStr">
@@ -59051,6 +59312,9 @@
       <c r="HM88" t="n">
         <v>5</v>
       </c>
+      <c r="HN88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89" ht="13.9" customHeight="1" s="1">
       <c r="A89" t="inlineStr">
@@ -59718,6 +59982,9 @@
       <c r="HM89" t="n">
         <v>5</v>
       </c>
+      <c r="HN89" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="90" ht="13.9" customHeight="1" s="1">
       <c r="A90" t="inlineStr">
@@ -60385,6 +60652,9 @@
       <c r="HM90" t="n">
         <v>146</v>
       </c>
+      <c r="HN90" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="91" ht="13.9" customHeight="1" s="1">
       <c r="A91" t="inlineStr">
@@ -61052,6 +61322,9 @@
       <c r="HM91" t="n">
         <v>209</v>
       </c>
+      <c r="HN91" t="n">
+        <v>241</v>
+      </c>
     </row>
     <row r="92" ht="13.9" customHeight="1" s="1">
       <c r="A92" t="inlineStr">
@@ -61719,6 +61992,9 @@
       <c r="HM92" t="n">
         <v>278</v>
       </c>
+      <c r="HN92" t="n">
+        <v>285</v>
+      </c>
     </row>
     <row r="93" ht="13.9" customHeight="1" s="1">
       <c r="A93" t="inlineStr">
@@ -62386,6 +62662,9 @@
       <c r="HM93" t="n">
         <v>75.5</v>
       </c>
+      <c r="HN93" t="n">
+        <v>75.2</v>
+      </c>
     </row>
     <row r="94" ht="13.9" customHeight="1" s="1">
       <c r="A94" t="inlineStr">
@@ -63053,6 +63332,9 @@
       <c r="HM94" t="n">
         <v>63</v>
       </c>
+      <c r="HN94" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="95" ht="13.9" customHeight="1" s="1">
       <c r="A95" t="inlineStr">
@@ -63720,6 +64002,9 @@
       <c r="HM95" t="n">
         <v>11</v>
       </c>
+      <c r="HN95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96" ht="13.9" customHeight="1" s="1">
       <c r="A96" t="inlineStr">
@@ -64387,6 +64672,9 @@
       <c r="HM96" t="n">
         <v>23</v>
       </c>
+      <c r="HN96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97" ht="13.9" customHeight="1" s="1">
       <c r="A97" t="inlineStr">
@@ -65054,6 +65342,9 @@
       <c r="HM97" t="n">
         <v>30</v>
       </c>
+      <c r="HN97" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="98" ht="13.9" customHeight="1" s="1">
       <c r="A98" t="inlineStr">
@@ -65721,6 +66012,9 @@
       <c r="HM98" t="n">
         <v>42</v>
       </c>
+      <c r="HN98" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="99" ht="13.9" customHeight="1" s="1">
       <c r="A99" t="inlineStr">
@@ -66388,6 +66682,9 @@
       <c r="HM99" t="n">
         <v>55</v>
       </c>
+      <c r="HN99" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="100" ht="13.9" customHeight="1" s="1">
       <c r="A100" t="inlineStr">
@@ -67055,6 +67352,9 @@
       <c r="HM100" t="n">
         <v>6</v>
       </c>
+      <c r="HN100" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="101" ht="13.9" customHeight="1" s="1">
       <c r="A101" t="inlineStr">
@@ -67722,6 +68022,9 @@
       <c r="HM101" t="n">
         <v>19</v>
       </c>
+      <c r="HN101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102" ht="13.9" customHeight="1" s="1">
       <c r="A102" t="inlineStr">
@@ -68389,6 +68692,9 @@
       <c r="HM102" t="n">
         <v>100</v>
       </c>
+      <c r="HN102" t="n">
+        <v>83.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/django_AFL_ML/Data/Brisbane_stats.xlsx
+++ b/django_AFL_ML/Data/Brisbane_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HN102"/>
+  <dimension ref="A1:HO102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="GU76" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="HO90" sqref="HO90"/>
@@ -1025,6 +1025,9 @@
       <c r="HN1" t="n">
         <v>10337</v>
       </c>
+      <c r="HO1" t="n">
+        <v>10525</v>
+      </c>
     </row>
     <row r="2" ht="13.9" customHeight="1" s="1">
       <c r="A2" t="inlineStr">
@@ -1695,6 +1698,9 @@
       <c r="HN2" t="n">
         <v>2021</v>
       </c>
+      <c r="HO2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3" ht="13.9" customHeight="1" s="1">
       <c r="A3" t="inlineStr">
@@ -2365,6 +2371,9 @@
       <c r="HN3" t="n">
         <v>2</v>
       </c>
+      <c r="HO3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" ht="13.9" customHeight="1" s="1">
       <c r="A4" t="inlineStr">
@@ -3035,6 +3044,9 @@
       <c r="HN4" t="n">
         <v>1</v>
       </c>
+      <c r="HO4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" ht="13.9" customHeight="1" s="1">
       <c r="A5" t="inlineStr">
@@ -3705,6 +3717,9 @@
       <c r="HN5" t="n">
         <v>0</v>
       </c>
+      <c r="HO5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" ht="13.9" customHeight="1" s="1">
       <c r="A6" t="inlineStr">
@@ -4375,6 +4390,9 @@
       <c r="HN6" t="n">
         <v>80</v>
       </c>
+      <c r="HO6" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="7" ht="13.9" customHeight="1" s="1">
       <c r="A7" t="inlineStr">
@@ -5045,6 +5063,9 @@
       <c r="HN7" t="n">
         <v>81</v>
       </c>
+      <c r="HO7" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="8" ht="13.9" customHeight="1" s="1">
       <c r="A8" t="inlineStr">
@@ -5715,6 +5736,9 @@
       <c r="HN8" t="n">
         <v>-1</v>
       </c>
+      <c r="HO8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" s="1">
       <c r="A9" t="inlineStr">
@@ -6385,6 +6409,9 @@
       <c r="HN9" t="n">
         <v>0</v>
       </c>
+      <c r="HO9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" ht="13.9" customHeight="1" s="1">
       <c r="A10" t="inlineStr">
@@ -7055,6 +7082,9 @@
       <c r="HN10" t="n">
         <v>7</v>
       </c>
+      <c r="HO10" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" ht="13.9" customHeight="1" s="1">
       <c r="A11" t="inlineStr">
@@ -7725,6 +7755,9 @@
       <c r="HN11" t="n">
         <v>186</v>
       </c>
+      <c r="HO11" t="n">
+        <v>258</v>
+      </c>
     </row>
     <row r="12" ht="13.9" customHeight="1" s="1">
       <c r="A12" t="inlineStr">
@@ -8395,6 +8428,9 @@
       <c r="HN12" t="n">
         <v>84</v>
       </c>
+      <c r="HO12" t="n">
+        <v>123</v>
+      </c>
     </row>
     <row r="13" ht="13.9" customHeight="1" s="1">
       <c r="A13" t="inlineStr">
@@ -9065,6 +9101,9 @@
       <c r="HN13" t="n">
         <v>270</v>
       </c>
+      <c r="HO13" t="n">
+        <v>381</v>
+      </c>
     </row>
     <row r="14" ht="13.9" customHeight="1" s="1">
       <c r="A14" t="inlineStr">
@@ -9735,6 +9774,9 @@
       <c r="HN14" t="n">
         <v>2.21</v>
       </c>
+      <c r="HO14" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="15" ht="13.9" customHeight="1" s="1">
       <c r="A15" t="inlineStr">
@@ -10405,6 +10447,9 @@
       <c r="HN15" t="n">
         <v>72</v>
       </c>
+      <c r="HO15" t="n">
+        <v>131</v>
+      </c>
     </row>
     <row r="16" ht="13.9" customHeight="1" s="1">
       <c r="A16" t="inlineStr">
@@ -11075,6 +11120,9 @@
       <c r="HN16" t="n">
         <v>57</v>
       </c>
+      <c r="HO16" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="17" ht="13.9" customHeight="1" s="1">
       <c r="A17" t="inlineStr">
@@ -11745,6 +11793,9 @@
       <c r="HN17" t="n">
         <v>25</v>
       </c>
+      <c r="HO17" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="18" ht="13.9" customHeight="1" s="1">
       <c r="A18" t="inlineStr">
@@ -12415,6 +12466,9 @@
       <c r="HN18" t="n">
         <v>23</v>
       </c>
+      <c r="HO18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19" ht="13.9" customHeight="1" s="1">
       <c r="A19" t="inlineStr">
@@ -13085,6 +13139,9 @@
       <c r="HN19" t="n">
         <v>21</v>
       </c>
+      <c r="HO19" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" ht="13.9" customHeight="1" s="1">
       <c r="A20" t="inlineStr">
@@ -13755,6 +13812,9 @@
       <c r="HN20" t="n">
         <v>11</v>
       </c>
+      <c r="HO20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" ht="13.9" customHeight="1" s="1">
       <c r="A21" t="inlineStr">
@@ -14425,6 +14485,9 @@
       <c r="HN21" t="n">
         <v>5</v>
       </c>
+      <c r="HO21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" ht="13.9" customHeight="1" s="1">
       <c r="A22" t="inlineStr">
@@ -15095,6 +15158,9 @@
       <c r="HN22" t="n">
         <v>11</v>
       </c>
+      <c r="HO22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" ht="13.9" customHeight="1" s="1">
       <c r="A23" t="inlineStr">
@@ -15765,6 +15831,9 @@
       <c r="HN23" t="n">
         <v>3</v>
       </c>
+      <c r="HO23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" ht="13.9" customHeight="1" s="1">
       <c r="A24" t="inlineStr">
@@ -16435,6 +16504,9 @@
       <c r="HN24" t="n">
         <v>25</v>
       </c>
+      <c r="HO24" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="25" ht="13.9" customHeight="1" s="1">
       <c r="A25" t="inlineStr">
@@ -17105,6 +17177,9 @@
       <c r="HN25" t="n">
         <v>44</v>
       </c>
+      <c r="HO25" t="n">
+        <v>61.1</v>
+      </c>
     </row>
     <row r="26" ht="13.9" customHeight="1" s="1">
       <c r="A26" t="inlineStr">
@@ -17775,6 +17850,9 @@
       <c r="HN26" t="n">
         <v>24.55</v>
       </c>
+      <c r="HO26" t="n">
+        <v>34.64</v>
+      </c>
     </row>
     <row r="27" ht="13.9" customHeight="1" s="1">
       <c r="A27" t="inlineStr">
@@ -18445,6 +18523,9 @@
       <c r="HN27" t="n">
         <v>10.8</v>
       </c>
+      <c r="HO27" t="n">
+        <v>21.17</v>
+      </c>
     </row>
     <row r="28" ht="13.9" customHeight="1" s="1">
       <c r="A28" t="inlineStr">
@@ -19115,6 +19196,9 @@
       <c r="HN28" t="n">
         <v>32</v>
       </c>
+      <c r="HO28" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="29" ht="13.9" customHeight="1" s="1">
       <c r="A29" t="inlineStr">
@@ -19785,6 +19869,9 @@
       <c r="HN29" t="n">
         <v>58</v>
       </c>
+      <c r="HO29" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="30" ht="13.9" customHeight="1" s="1">
       <c r="A30" t="inlineStr">
@@ -20455,6 +20542,9 @@
       <c r="HN30" t="n">
         <v>33</v>
       </c>
+      <c r="HO30" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="31" ht="13.9" customHeight="1" s="1">
       <c r="A31" t="inlineStr">
@@ -21125,6 +21215,9 @@
       <c r="HN31" t="n">
         <v>50</v>
       </c>
+      <c r="HO31" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="32" ht="13.9" customHeight="1" s="1">
       <c r="A32" t="inlineStr">
@@ -21795,6 +21888,9 @@
       <c r="HN32" t="n">
         <v>2</v>
       </c>
+      <c r="HO32" t="n">
+        <v>3.22</v>
+      </c>
     </row>
     <row r="33" ht="13.9" customHeight="1" s="1">
       <c r="A33" t="inlineStr">
@@ -22465,6 +22561,9 @@
       <c r="HN33" t="n">
         <v>4.55</v>
       </c>
+      <c r="HO33" t="n">
+        <v>5.27</v>
+      </c>
     </row>
     <row r="34" ht="13.9" customHeight="1" s="1">
       <c r="A34" t="inlineStr">
@@ -23135,6 +23234,9 @@
       <c r="HN34" t="n">
         <v>44</v>
       </c>
+      <c r="HO34" t="n">
+        <v>29.3</v>
+      </c>
     </row>
     <row r="35" ht="13.9" customHeight="1" s="1">
       <c r="A35" t="inlineStr">
@@ -23805,6 +23907,9 @@
       <c r="HN35" t="n">
         <v>22</v>
       </c>
+      <c r="HO35" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="36" ht="13.9" customHeight="1" s="1">
       <c r="A36" t="inlineStr">
@@ -24475,6 +24580,9 @@
       <c r="HN36" t="n">
         <v>188.2</v>
       </c>
+      <c r="HO36" t="n">
+        <v>188.4</v>
+      </c>
     </row>
     <row r="37" ht="13.9" customHeight="1" s="1">
       <c r="A37" t="inlineStr">
@@ -25145,6 +25253,9 @@
       <c r="HN37" t="n">
         <v>86</v>
       </c>
+      <c r="HO37" t="n">
+        <v>87.40000000000001</v>
+      </c>
     </row>
     <row r="38" ht="13.9" customHeight="1" s="1">
       <c r="A38" t="inlineStr">
@@ -25815,6 +25926,9 @@
       <c r="HN38" t="n">
         <v>25.33</v>
       </c>
+      <c r="HO38" t="n">
+        <v>25.74</v>
+      </c>
     </row>
     <row r="39" ht="13.9" customHeight="1" s="1">
       <c r="A39" t="inlineStr">
@@ -26485,6 +26599,9 @@
       <c r="HN39" t="n">
         <v>94.7</v>
       </c>
+      <c r="HO39" t="n">
+        <v>98.8</v>
+      </c>
     </row>
     <row r="40" ht="13.9" customHeight="1" s="1">
       <c r="A40" t="inlineStr">
@@ -27155,6 +27272,9 @@
       <c r="HN40" t="n">
         <v>8</v>
       </c>
+      <c r="HO40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41" ht="13.9" customHeight="1" s="1">
       <c r="A41" t="inlineStr">
@@ -27825,6 +27945,9 @@
       <c r="HN41" t="n">
         <v>5</v>
       </c>
+      <c r="HO41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42" ht="13.9" customHeight="1" s="1">
       <c r="A42" t="inlineStr">
@@ -28495,6 +28618,9 @@
       <c r="HN42" t="n">
         <v>5</v>
       </c>
+      <c r="HO42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43" ht="13.9" customHeight="1" s="1">
       <c r="A43" t="inlineStr">
@@ -29165,6 +29291,9 @@
       <c r="HN43" t="n">
         <v>5</v>
       </c>
+      <c r="HO43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44" ht="13.9" customHeight="1" s="1">
       <c r="A44" t="inlineStr">
@@ -29835,6 +29964,9 @@
       <c r="HN44" t="n">
         <v>121</v>
       </c>
+      <c r="HO44" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="45" ht="13.9" customHeight="1" s="1">
       <c r="A45" t="inlineStr">
@@ -30505,6 +30637,9 @@
       <c r="HN45" t="n">
         <v>140</v>
       </c>
+      <c r="HO45" t="n">
+        <v>241</v>
+      </c>
     </row>
     <row r="46" ht="13.9" customHeight="1" s="1">
       <c r="A46" t="inlineStr">
@@ -31175,6 +31310,9 @@
       <c r="HN46" t="n">
         <v>185</v>
       </c>
+      <c r="HO46" t="n">
+        <v>286</v>
+      </c>
     </row>
     <row r="47" ht="13.9" customHeight="1" s="1">
       <c r="A47" t="inlineStr">
@@ -31845,6 +31983,9 @@
       <c r="HN47" t="n">
         <v>68.5</v>
       </c>
+      <c r="HO47" t="n">
+        <v>75.09999999999999</v>
+      </c>
     </row>
     <row r="48" ht="13.9" customHeight="1" s="1">
       <c r="A48" t="inlineStr">
@@ -32515,6 +32656,9 @@
       <c r="HN48" t="n">
         <v>58</v>
       </c>
+      <c r="HO48" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="49" ht="13.9" customHeight="1" s="1">
       <c r="A49" t="inlineStr">
@@ -33185,6 +33329,9 @@
       <c r="HN49" t="n">
         <v>8</v>
       </c>
+      <c r="HO49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50" ht="13.9" customHeight="1" s="1">
       <c r="A50" t="inlineStr">
@@ -33855,6 +34002,9 @@
       <c r="HN50" t="n">
         <v>7</v>
       </c>
+      <c r="HO50" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="51" ht="13.9" customHeight="1" s="1">
       <c r="A51" t="inlineStr">
@@ -34525,6 +34675,9 @@
       <c r="HN51" t="n">
         <v>32</v>
       </c>
+      <c r="HO51" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="52" ht="13.9" customHeight="1" s="1">
       <c r="A52" t="inlineStr">
@@ -35195,6 +35348,9 @@
       <c r="HN52" t="n">
         <v>33</v>
       </c>
+      <c r="HO52" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="53" ht="13.9" customHeight="1" s="1">
       <c r="A53" t="inlineStr">
@@ -35865,6 +36021,9 @@
       <c r="HN53" t="n">
         <v>44</v>
       </c>
+      <c r="HO53" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="54" ht="13.9" customHeight="1" s="1">
       <c r="A54" t="inlineStr">
@@ -36535,6 +36694,9 @@
       <c r="HN54" t="n">
         <v>2</v>
       </c>
+      <c r="HO54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55" ht="13.9" customHeight="1" s="1">
       <c r="A55" t="inlineStr">
@@ -37205,6 +37367,9 @@
       <c r="HN55" t="n">
         <v>5</v>
       </c>
+      <c r="HO55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56" ht="13.9" customHeight="1" s="1">
       <c r="A56" t="inlineStr">
@@ -37875,6 +38040,9 @@
       <c r="HN56" t="n">
         <v>45.5</v>
       </c>
+      <c r="HO56" t="n">
+        <v>81.8</v>
+      </c>
     </row>
     <row r="57" ht="13.9" customHeight="1" s="1">
       <c r="A57" t="inlineStr">
@@ -38545,6 +38713,9 @@
       <c r="HN57" t="n">
         <v>237</v>
       </c>
+      <c r="HO57" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="58" ht="13.9" customHeight="1" s="1">
       <c r="A58" t="inlineStr">
@@ -39215,6 +39386,9 @@
       <c r="HN58" t="n">
         <v>142</v>
       </c>
+      <c r="HO58" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="59" ht="13.9" customHeight="1" s="1">
       <c r="A59" t="inlineStr">
@@ -39885,6 +40059,9 @@
       <c r="HN59" t="n">
         <v>379</v>
       </c>
+      <c r="HO59" t="n">
+        <v>398</v>
+      </c>
     </row>
     <row r="60" ht="13.9" customHeight="1" s="1">
       <c r="A60" t="inlineStr">
@@ -40555,6 +40732,9 @@
       <c r="HN60" t="n">
         <v>1.67</v>
       </c>
+      <c r="HO60" t="n">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="61" ht="13.9" customHeight="1" s="1">
       <c r="A61" t="inlineStr">
@@ -41225,6 +41405,9 @@
       <c r="HN61" t="n">
         <v>118</v>
       </c>
+      <c r="HO61" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="62" ht="13.9" customHeight="1" s="1">
       <c r="A62" t="inlineStr">
@@ -41895,6 +42078,9 @@
       <c r="HN62" t="n">
         <v>57</v>
       </c>
+      <c r="HO62" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="63" ht="13.9" customHeight="1" s="1">
       <c r="A63" t="inlineStr">
@@ -42565,6 +42751,9 @@
       <c r="HN63" t="n">
         <v>35</v>
       </c>
+      <c r="HO63" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="64" ht="13.9" customHeight="1" s="1">
       <c r="A64" t="inlineStr">
@@ -43235,6 +43424,9 @@
       <c r="HN64" t="n">
         <v>21</v>
       </c>
+      <c r="HO64" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="65" ht="13.9" customHeight="1" s="1">
       <c r="A65" t="inlineStr">
@@ -43905,6 +44097,9 @@
       <c r="HN65" t="n">
         <v>22</v>
       </c>
+      <c r="HO65" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="66" ht="13.9" customHeight="1" s="1">
       <c r="A66" t="inlineStr">
@@ -44575,6 +44770,9 @@
       <c r="HN66" t="n">
         <v>12</v>
       </c>
+      <c r="HO66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67" ht="13.9" customHeight="1" s="1">
       <c r="A67" t="inlineStr">
@@ -45245,6 +45443,9 @@
       <c r="HN67" t="n">
         <v>10</v>
       </c>
+      <c r="HO67" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="68" ht="13.9" customHeight="1" s="1">
       <c r="A68" t="inlineStr">
@@ -45915,6 +46116,9 @@
       <c r="HN68" t="n">
         <v>9</v>
       </c>
+      <c r="HO68" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="69" ht="13.9" customHeight="1" s="1">
       <c r="A69" t="inlineStr">
@@ -46585,6 +46789,9 @@
       <c r="HN69" t="n">
         <v>0</v>
       </c>
+      <c r="HO69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" ht="13.9" customHeight="1" s="1">
       <c r="A70" t="inlineStr">
@@ -47255,6 +47462,9 @@
       <c r="HN70" t="n">
         <v>21</v>
       </c>
+      <c r="HO70" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="71" ht="13.9" customHeight="1" s="1">
       <c r="A71" t="inlineStr">
@@ -47925,6 +48135,9 @@
       <c r="HN71" t="n">
         <v>57.1</v>
       </c>
+      <c r="HO71" t="n">
+        <v>64.7</v>
+      </c>
     </row>
     <row r="72" ht="13.9" customHeight="1" s="1">
       <c r="A72" t="inlineStr">
@@ -48595,6 +48808,9 @@
       <c r="HN72" t="n">
         <v>31.58</v>
       </c>
+      <c r="HO72" t="n">
+        <v>36.18</v>
+      </c>
     </row>
     <row r="73" ht="13.9" customHeight="1" s="1">
       <c r="A73" t="inlineStr">
@@ -49265,6 +49481,9 @@
       <c r="HN73" t="n">
         <v>18.05</v>
       </c>
+      <c r="HO73" t="n">
+        <v>23.41</v>
+      </c>
     </row>
     <row r="74" ht="13.9" customHeight="1" s="1">
       <c r="A74" t="inlineStr">
@@ -49935,6 +50154,9 @@
       <c r="HN74" t="n">
         <v>45</v>
       </c>
+      <c r="HO74" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="75" ht="13.9" customHeight="1" s="1">
       <c r="A75" t="inlineStr">
@@ -50605,6 +50827,9 @@
       <c r="HN75" t="n">
         <v>60</v>
       </c>
+      <c r="HO75" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="76" ht="13.9" customHeight="1" s="1">
       <c r="A76" t="inlineStr">
@@ -51275,6 +51500,9 @@
       <c r="HN76" t="n">
         <v>38</v>
       </c>
+      <c r="HO76" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="77" ht="13.9" customHeight="1" s="1">
       <c r="A77" t="inlineStr">
@@ -51945,6 +52173,9 @@
       <c r="HN77" t="n">
         <v>47</v>
       </c>
+      <c r="HO77" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="78" ht="13.9" customHeight="1" s="1">
       <c r="A78" t="inlineStr">
@@ -52615,6 +52846,9 @@
       <c r="HN78" t="n">
         <v>2.24</v>
       </c>
+      <c r="HO78" t="n">
+        <v>3.12</v>
+      </c>
     </row>
     <row r="79" ht="13.9" customHeight="1" s="1">
       <c r="A79" t="inlineStr">
@@ -53285,6 +53519,9 @@
       <c r="HN79" t="n">
         <v>3.92</v>
       </c>
+      <c r="HO79" t="n">
+        <v>4.82</v>
+      </c>
     </row>
     <row r="80" ht="13.9" customHeight="1" s="1">
       <c r="A80" t="inlineStr">
@@ -53955,6 +54192,9 @@
       <c r="HN80" t="n">
         <v>44.7</v>
       </c>
+      <c r="HO80" t="n">
+        <v>30.2</v>
+      </c>
     </row>
     <row r="81" ht="13.9" customHeight="1" s="1">
       <c r="A81" t="inlineStr">
@@ -54625,6 +54865,9 @@
       <c r="HN81" t="n">
         <v>25.5</v>
       </c>
+      <c r="HO81" t="n">
+        <v>20.8</v>
+      </c>
     </row>
     <row r="82" ht="13.9" customHeight="1" s="1">
       <c r="A82" t="inlineStr">
@@ -55295,6 +55538,9 @@
       <c r="HN82" t="n">
         <v>188</v>
       </c>
+      <c r="HO82" t="n">
+        <v>189.1</v>
+      </c>
     </row>
     <row r="83" ht="13.9" customHeight="1" s="1">
       <c r="A83" t="inlineStr">
@@ -55965,6 +56211,9 @@
       <c r="HN83" t="n">
         <v>88.2</v>
       </c>
+      <c r="HO83" t="n">
+        <v>87.90000000000001</v>
+      </c>
     </row>
     <row r="84" ht="13.9" customHeight="1" s="1">
       <c r="A84" t="inlineStr">
@@ -56635,6 +56884,9 @@
       <c r="HN84" t="n">
         <v>27.33</v>
       </c>
+      <c r="HO84" t="n">
+        <v>26.91</v>
+      </c>
     </row>
     <row r="85" ht="13.9" customHeight="1" s="1">
       <c r="A85" t="inlineStr">
@@ -57305,6 +57557,9 @@
       <c r="HN85" t="n">
         <v>132.1</v>
       </c>
+      <c r="HO85" t="n">
+        <v>114.3</v>
+      </c>
     </row>
     <row r="86" ht="13.9" customHeight="1" s="1">
       <c r="A86" t="inlineStr">
@@ -57975,6 +58230,9 @@
       <c r="HN86" t="n">
         <v>5</v>
       </c>
+      <c r="HO86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87" ht="13.9" customHeight="1" s="1">
       <c r="A87" t="inlineStr">
@@ -58645,6 +58903,9 @@
       <c r="HN87" t="n">
         <v>4</v>
       </c>
+      <c r="HO87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88" ht="13.9" customHeight="1" s="1">
       <c r="A88" t="inlineStr">
@@ -59315,6 +59576,9 @@
       <c r="HN88" t="n">
         <v>4</v>
       </c>
+      <c r="HO88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89" ht="13.9" customHeight="1" s="1">
       <c r="A89" t="inlineStr">
@@ -59985,6 +60249,9 @@
       <c r="HN89" t="n">
         <v>9</v>
       </c>
+      <c r="HO89" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="90" ht="13.9" customHeight="1" s="1">
       <c r="A90" t="inlineStr">
@@ -60655,6 +60922,9 @@
       <c r="HN90" t="n">
         <v>130</v>
       </c>
+      <c r="HO90" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="91" ht="13.9" customHeight="1" s="1">
       <c r="A91" t="inlineStr">
@@ -61325,6 +61595,9 @@
       <c r="HN91" t="n">
         <v>241</v>
       </c>
+      <c r="HO91" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="92" ht="13.9" customHeight="1" s="1">
       <c r="A92" t="inlineStr">
@@ -61995,6 +62268,9 @@
       <c r="HN92" t="n">
         <v>285</v>
       </c>
+      <c r="HO92" t="n">
+        <v>289</v>
+      </c>
     </row>
     <row r="93" ht="13.9" customHeight="1" s="1">
       <c r="A93" t="inlineStr">
@@ -62665,6 +62941,9 @@
       <c r="HN93" t="n">
         <v>75.2</v>
       </c>
+      <c r="HO93" t="n">
+        <v>72.59999999999999</v>
+      </c>
     </row>
     <row r="94" ht="13.9" customHeight="1" s="1">
       <c r="A94" t="inlineStr">
@@ -63335,6 +63614,9 @@
       <c r="HN94" t="n">
         <v>60</v>
       </c>
+      <c r="HO94" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="95" ht="13.9" customHeight="1" s="1">
       <c r="A95" t="inlineStr">
@@ -64005,6 +64287,9 @@
       <c r="HN95" t="n">
         <v>12</v>
       </c>
+      <c r="HO95" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="96" ht="13.9" customHeight="1" s="1">
       <c r="A96" t="inlineStr">
@@ -64675,6 +64960,9 @@
       <c r="HN96" t="n">
         <v>11</v>
       </c>
+      <c r="HO96" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="97" ht="13.9" customHeight="1" s="1">
       <c r="A97" t="inlineStr">
@@ -65345,6 +65633,9 @@
       <c r="HN97" t="n">
         <v>45</v>
       </c>
+      <c r="HO97" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="98" ht="13.9" customHeight="1" s="1">
       <c r="A98" t="inlineStr">
@@ -66015,6 +66306,9 @@
       <c r="HN98" t="n">
         <v>38</v>
       </c>
+      <c r="HO98" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="99" ht="13.9" customHeight="1" s="1">
       <c r="A99" t="inlineStr">
@@ -66685,6 +66979,9 @@
       <c r="HN99" t="n">
         <v>37</v>
       </c>
+      <c r="HO99" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="100" ht="13.9" customHeight="1" s="1">
       <c r="A100" t="inlineStr">
@@ -67355,6 +67652,9 @@
       <c r="HN100" t="n">
         <v>6</v>
       </c>
+      <c r="HO100" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="101" ht="13.9" customHeight="1" s="1">
       <c r="A101" t="inlineStr">
@@ -68025,6 +68325,9 @@
       <c r="HN101" t="n">
         <v>10</v>
       </c>
+      <c r="HO101" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="102" ht="13.9" customHeight="1" s="1">
       <c r="A102" t="inlineStr">
@@ -68695,6 +68998,9 @@
       <c r="HN102" t="n">
         <v>83.3</v>
       </c>
+      <c r="HO102" t="n">
+        <v>63.6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/django_AFL_ML/Data/Brisbane_stats.xlsx
+++ b/django_AFL_ML/Data/Brisbane_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HO102"/>
+  <dimension ref="A1:HQ102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="GU76" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="HO90" sqref="HO90"/>
@@ -1028,6 +1028,12 @@
       <c r="HO1" t="n">
         <v>10525</v>
       </c>
+      <c r="HP1" t="n">
+        <v>10525</v>
+      </c>
+      <c r="HQ1" t="n">
+        <v>10356</v>
+      </c>
     </row>
     <row r="2" ht="13.9" customHeight="1" s="1">
       <c r="A2" t="inlineStr">
@@ -1701,6 +1707,12 @@
       <c r="HO2" t="n">
         <v>2021</v>
       </c>
+      <c r="HP2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3" ht="13.9" customHeight="1" s="1">
       <c r="A3" t="inlineStr">
@@ -2374,6 +2386,12 @@
       <c r="HO3" t="n">
         <v>3</v>
       </c>
+      <c r="HP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" ht="13.9" customHeight="1" s="1">
       <c r="A4" t="inlineStr">
@@ -3047,6 +3065,12 @@
       <c r="HO4" t="n">
         <v>1</v>
       </c>
+      <c r="HP4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" ht="13.9" customHeight="1" s="1">
       <c r="A5" t="inlineStr">
@@ -3720,6 +3744,12 @@
       <c r="HO5" t="n">
         <v>1</v>
       </c>
+      <c r="HP5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HQ5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" ht="13.9" customHeight="1" s="1">
       <c r="A6" t="inlineStr">
@@ -4393,6 +4423,12 @@
       <c r="HO6" t="n">
         <v>73</v>
       </c>
+      <c r="HP6" t="n">
+        <v>73</v>
+      </c>
+      <c r="HQ6" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="7" ht="13.9" customHeight="1" s="1">
       <c r="A7" t="inlineStr">
@@ -5066,6 +5102,12 @@
       <c r="HO7" t="n">
         <v>72</v>
       </c>
+      <c r="HP7" t="n">
+        <v>72</v>
+      </c>
+      <c r="HQ7" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="8" ht="13.9" customHeight="1" s="1">
       <c r="A8" t="inlineStr">
@@ -5739,6 +5781,12 @@
       <c r="HO8" t="n">
         <v>1</v>
       </c>
+      <c r="HP8" t="n">
+        <v>1</v>
+      </c>
+      <c r="HQ8" t="n">
+        <v>-19</v>
+      </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" s="1">
       <c r="A9" t="inlineStr">
@@ -6412,6 +6460,12 @@
       <c r="HO9" t="n">
         <v>1</v>
       </c>
+      <c r="HP9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HQ9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" ht="13.9" customHeight="1" s="1">
       <c r="A10" t="inlineStr">
@@ -7085,6 +7139,12 @@
       <c r="HO10" t="n">
         <v>4</v>
       </c>
+      <c r="HP10" t="n">
+        <v>4</v>
+      </c>
+      <c r="HQ10" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" ht="13.9" customHeight="1" s="1">
       <c r="A11" t="inlineStr">
@@ -7758,6 +7818,12 @@
       <c r="HO11" t="n">
         <v>258</v>
       </c>
+      <c r="HP11" t="n">
+        <v>258</v>
+      </c>
+      <c r="HQ11" t="n">
+        <v>232</v>
+      </c>
     </row>
     <row r="12" ht="13.9" customHeight="1" s="1">
       <c r="A12" t="inlineStr">
@@ -8431,6 +8497,12 @@
       <c r="HO12" t="n">
         <v>123</v>
       </c>
+      <c r="HP12" t="n">
+        <v>123</v>
+      </c>
+      <c r="HQ12" t="n">
+        <v>129</v>
+      </c>
     </row>
     <row r="13" ht="13.9" customHeight="1" s="1">
       <c r="A13" t="inlineStr">
@@ -9104,6 +9176,12 @@
       <c r="HO13" t="n">
         <v>381</v>
       </c>
+      <c r="HP13" t="n">
+        <v>381</v>
+      </c>
+      <c r="HQ13" t="n">
+        <v>361</v>
+      </c>
     </row>
     <row r="14" ht="13.9" customHeight="1" s="1">
       <c r="A14" t="inlineStr">
@@ -9777,6 +9855,12 @@
       <c r="HO14" t="n">
         <v>2.1</v>
       </c>
+      <c r="HP14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="HQ14" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="15" ht="13.9" customHeight="1" s="1">
       <c r="A15" t="inlineStr">
@@ -10450,6 +10534,12 @@
       <c r="HO15" t="n">
         <v>131</v>
       </c>
+      <c r="HP15" t="n">
+        <v>131</v>
+      </c>
+      <c r="HQ15" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="16" ht="13.9" customHeight="1" s="1">
       <c r="A16" t="inlineStr">
@@ -11123,6 +11213,12 @@
       <c r="HO16" t="n">
         <v>70</v>
       </c>
+      <c r="HP16" t="n">
+        <v>70</v>
+      </c>
+      <c r="HQ16" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="17" ht="13.9" customHeight="1" s="1">
       <c r="A17" t="inlineStr">
@@ -11796,6 +11892,12 @@
       <c r="HO17" t="n">
         <v>4</v>
       </c>
+      <c r="HP17" t="n">
+        <v>4</v>
+      </c>
+      <c r="HQ17" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" ht="13.9" customHeight="1" s="1">
       <c r="A18" t="inlineStr">
@@ -12469,6 +12571,12 @@
       <c r="HO18" t="n">
         <v>17</v>
       </c>
+      <c r="HP18" t="n">
+        <v>17</v>
+      </c>
+      <c r="HQ18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" ht="13.9" customHeight="1" s="1">
       <c r="A19" t="inlineStr">
@@ -13142,6 +13250,12 @@
       <c r="HO19" t="n">
         <v>17</v>
       </c>
+      <c r="HP19" t="n">
+        <v>17</v>
+      </c>
+      <c r="HQ19" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" ht="13.9" customHeight="1" s="1">
       <c r="A20" t="inlineStr">
@@ -13815,6 +13929,12 @@
       <c r="HO20" t="n">
         <v>11</v>
       </c>
+      <c r="HP20" t="n">
+        <v>11</v>
+      </c>
+      <c r="HQ20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" ht="13.9" customHeight="1" s="1">
       <c r="A21" t="inlineStr">
@@ -14488,6 +14608,12 @@
       <c r="HO21" t="n">
         <v>9</v>
       </c>
+      <c r="HP21" t="n">
+        <v>9</v>
+      </c>
+      <c r="HQ21" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="22" ht="13.9" customHeight="1" s="1">
       <c r="A22" t="inlineStr">
@@ -15161,6 +15287,12 @@
       <c r="HO22" t="n">
         <v>6</v>
       </c>
+      <c r="HP22" t="n">
+        <v>6</v>
+      </c>
+      <c r="HQ22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23" ht="13.9" customHeight="1" s="1">
       <c r="A23" t="inlineStr">
@@ -15834,6 +15966,12 @@
       <c r="HO23" t="n">
         <v>1</v>
       </c>
+      <c r="HP23" t="n">
+        <v>1</v>
+      </c>
+      <c r="HQ23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" ht="13.9" customHeight="1" s="1">
       <c r="A24" t="inlineStr">
@@ -16507,6 +16645,12 @@
       <c r="HO24" t="n">
         <v>18</v>
       </c>
+      <c r="HP24" t="n">
+        <v>18</v>
+      </c>
+      <c r="HQ24" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" ht="13.9" customHeight="1" s="1">
       <c r="A25" t="inlineStr">
@@ -17180,6 +17324,12 @@
       <c r="HO25" t="n">
         <v>61.1</v>
       </c>
+      <c r="HP25" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="HQ25" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="26" ht="13.9" customHeight="1" s="1">
       <c r="A26" t="inlineStr">
@@ -17853,6 +18003,12 @@
       <c r="HO26" t="n">
         <v>34.64</v>
       </c>
+      <c r="HP26" t="n">
+        <v>34.64</v>
+      </c>
+      <c r="HQ26" t="n">
+        <v>45.12</v>
+      </c>
     </row>
     <row r="27" ht="13.9" customHeight="1" s="1">
       <c r="A27" t="inlineStr">
@@ -18526,6 +18682,12 @@
       <c r="HO27" t="n">
         <v>21.17</v>
       </c>
+      <c r="HP27" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="HQ27" t="n">
+        <v>25.79</v>
+      </c>
     </row>
     <row r="28" ht="13.9" customHeight="1" s="1">
       <c r="A28" t="inlineStr">
@@ -19199,6 +19361,12 @@
       <c r="HO28" t="n">
         <v>30</v>
       </c>
+      <c r="HP28" t="n">
+        <v>30</v>
+      </c>
+      <c r="HQ28" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="29" ht="13.9" customHeight="1" s="1">
       <c r="A29" t="inlineStr">
@@ -19872,6 +20040,12 @@
       <c r="HO29" t="n">
         <v>56</v>
       </c>
+      <c r="HP29" t="n">
+        <v>56</v>
+      </c>
+      <c r="HQ29" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="30" ht="13.9" customHeight="1" s="1">
       <c r="A30" t="inlineStr">
@@ -20545,6 +20719,12 @@
       <c r="HO30" t="n">
         <v>41</v>
       </c>
+      <c r="HP30" t="n">
+        <v>41</v>
+      </c>
+      <c r="HQ30" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="31" ht="13.9" customHeight="1" s="1">
       <c r="A31" t="inlineStr">
@@ -21218,6 +21398,12 @@
       <c r="HO31" t="n">
         <v>58</v>
       </c>
+      <c r="HP31" t="n">
+        <v>58</v>
+      </c>
+      <c r="HQ31" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="32" ht="13.9" customHeight="1" s="1">
       <c r="A32" t="inlineStr">
@@ -21891,6 +22077,12 @@
       <c r="HO32" t="n">
         <v>3.22</v>
       </c>
+      <c r="HP32" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="HQ32" t="n">
+        <v>3.14</v>
+      </c>
     </row>
     <row r="33" ht="13.9" customHeight="1" s="1">
       <c r="A33" t="inlineStr">
@@ -22564,6 +22756,12 @@
       <c r="HO33" t="n">
         <v>5.27</v>
       </c>
+      <c r="HP33" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="HQ33" t="n">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="34" ht="13.9" customHeight="1" s="1">
       <c r="A34" t="inlineStr">
@@ -23237,6 +23435,12 @@
       <c r="HO34" t="n">
         <v>29.3</v>
       </c>
+      <c r="HP34" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="HQ34" t="n">
+        <v>29.5</v>
+      </c>
     </row>
     <row r="35" ht="13.9" customHeight="1" s="1">
       <c r="A35" t="inlineStr">
@@ -23910,6 +24114,12 @@
       <c r="HO35" t="n">
         <v>19</v>
       </c>
+      <c r="HP35" t="n">
+        <v>19</v>
+      </c>
+      <c r="HQ35" t="n">
+        <v>18.2</v>
+      </c>
     </row>
     <row r="36" ht="13.9" customHeight="1" s="1">
       <c r="A36" t="inlineStr">
@@ -24583,6 +24793,12 @@
       <c r="HO36" t="n">
         <v>188.4</v>
       </c>
+      <c r="HP36" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="HQ36" t="n">
+        <v>188.9</v>
+      </c>
     </row>
     <row r="37" ht="13.9" customHeight="1" s="1">
       <c r="A37" t="inlineStr">
@@ -25256,6 +25472,12 @@
       <c r="HO37" t="n">
         <v>87.40000000000001</v>
       </c>
+      <c r="HP37" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="HQ37" t="n">
+        <v>87.7</v>
+      </c>
     </row>
     <row r="38" ht="13.9" customHeight="1" s="1">
       <c r="A38" t="inlineStr">
@@ -25929,6 +26151,12 @@
       <c r="HO38" t="n">
         <v>25.74</v>
       </c>
+      <c r="HP38" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="HQ38" t="n">
+        <v>26.16</v>
+      </c>
     </row>
     <row r="39" ht="13.9" customHeight="1" s="1">
       <c r="A39" t="inlineStr">
@@ -26602,6 +26830,12 @@
       <c r="HO39" t="n">
         <v>98.8</v>
       </c>
+      <c r="HP39" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="HQ39" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="40" ht="13.9" customHeight="1" s="1">
       <c r="A40" t="inlineStr">
@@ -27275,6 +27509,12 @@
       <c r="HO40" t="n">
         <v>8</v>
       </c>
+      <c r="HP40" t="n">
+        <v>8</v>
+      </c>
+      <c r="HQ40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" ht="13.9" customHeight="1" s="1">
       <c r="A41" t="inlineStr">
@@ -27948,6 +28188,12 @@
       <c r="HO41" t="n">
         <v>4</v>
       </c>
+      <c r="HP41" t="n">
+        <v>4</v>
+      </c>
+      <c r="HQ41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" ht="13.9" customHeight="1" s="1">
       <c r="A42" t="inlineStr">
@@ -28621,6 +28867,12 @@
       <c r="HO42" t="n">
         <v>5</v>
       </c>
+      <c r="HP42" t="n">
+        <v>5</v>
+      </c>
+      <c r="HQ42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" ht="13.9" customHeight="1" s="1">
       <c r="A43" t="inlineStr">
@@ -29294,6 +29546,12 @@
       <c r="HO43" t="n">
         <v>5</v>
       </c>
+      <c r="HP43" t="n">
+        <v>5</v>
+      </c>
+      <c r="HQ43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44" ht="13.9" customHeight="1" s="1">
       <c r="A44" t="inlineStr">
@@ -29967,6 +30225,12 @@
       <c r="HO44" t="n">
         <v>140</v>
       </c>
+      <c r="HP44" t="n">
+        <v>140</v>
+      </c>
+      <c r="HQ44" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="45" ht="13.9" customHeight="1" s="1">
       <c r="A45" t="inlineStr">
@@ -30640,6 +30904,12 @@
       <c r="HO45" t="n">
         <v>241</v>
       </c>
+      <c r="HP45" t="n">
+        <v>241</v>
+      </c>
+      <c r="HQ45" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="46" ht="13.9" customHeight="1" s="1">
       <c r="A46" t="inlineStr">
@@ -31313,6 +31583,12 @@
       <c r="HO46" t="n">
         <v>286</v>
       </c>
+      <c r="HP46" t="n">
+        <v>286</v>
+      </c>
+      <c r="HQ46" t="n">
+        <v>257</v>
+      </c>
     </row>
     <row r="47" ht="13.9" customHeight="1" s="1">
       <c r="A47" t="inlineStr">
@@ -31986,6 +32262,12 @@
       <c r="HO47" t="n">
         <v>75.09999999999999</v>
       </c>
+      <c r="HP47" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="HQ47" t="n">
+        <v>71.2</v>
+      </c>
     </row>
     <row r="48" ht="13.9" customHeight="1" s="1">
       <c r="A48" t="inlineStr">
@@ -32659,6 +32941,12 @@
       <c r="HO48" t="n">
         <v>56</v>
       </c>
+      <c r="HP48" t="n">
+        <v>56</v>
+      </c>
+      <c r="HQ48" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="49" ht="13.9" customHeight="1" s="1">
       <c r="A49" t="inlineStr">
@@ -33332,6 +33620,12 @@
       <c r="HO49" t="n">
         <v>12</v>
       </c>
+      <c r="HP49" t="n">
+        <v>12</v>
+      </c>
+      <c r="HQ49" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="50" ht="13.9" customHeight="1" s="1">
       <c r="A50" t="inlineStr">
@@ -34005,6 +34299,12 @@
       <c r="HO50" t="n">
         <v>11</v>
       </c>
+      <c r="HP50" t="n">
+        <v>11</v>
+      </c>
+      <c r="HQ50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51" ht="13.9" customHeight="1" s="1">
       <c r="A51" t="inlineStr">
@@ -34678,6 +34978,12 @@
       <c r="HO51" t="n">
         <v>30</v>
       </c>
+      <c r="HP51" t="n">
+        <v>30</v>
+      </c>
+      <c r="HQ51" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="52" ht="13.9" customHeight="1" s="1">
       <c r="A52" t="inlineStr">
@@ -35351,6 +35657,12 @@
       <c r="HO52" t="n">
         <v>41</v>
       </c>
+      <c r="HP52" t="n">
+        <v>41</v>
+      </c>
+      <c r="HQ52" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="53" ht="13.9" customHeight="1" s="1">
       <c r="A53" t="inlineStr">
@@ -36024,6 +36336,12 @@
       <c r="HO53" t="n">
         <v>48</v>
       </c>
+      <c r="HP53" t="n">
+        <v>48</v>
+      </c>
+      <c r="HQ53" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="54" ht="13.9" customHeight="1" s="1">
       <c r="A54" t="inlineStr">
@@ -36697,6 +37015,12 @@
       <c r="HO54" t="n">
         <v>2</v>
       </c>
+      <c r="HP54" t="n">
+        <v>2</v>
+      </c>
+      <c r="HQ54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" ht="13.9" customHeight="1" s="1">
       <c r="A55" t="inlineStr">
@@ -37370,6 +37694,12 @@
       <c r="HO55" t="n">
         <v>9</v>
       </c>
+      <c r="HP55" t="n">
+        <v>9</v>
+      </c>
+      <c r="HQ55" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="56" ht="13.9" customHeight="1" s="1">
       <c r="A56" t="inlineStr">
@@ -38043,6 +38373,12 @@
       <c r="HO56" t="n">
         <v>81.8</v>
       </c>
+      <c r="HP56" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="HQ56" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="57" ht="13.9" customHeight="1" s="1">
       <c r="A57" t="inlineStr">
@@ -38716,6 +39052,12 @@
       <c r="HO57" t="n">
         <v>242</v>
       </c>
+      <c r="HP57" t="n">
+        <v>242</v>
+      </c>
+      <c r="HQ57" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="58" ht="13.9" customHeight="1" s="1">
       <c r="A58" t="inlineStr">
@@ -39389,6 +39731,12 @@
       <c r="HO58" t="n">
         <v>156</v>
       </c>
+      <c r="HP58" t="n">
+        <v>156</v>
+      </c>
+      <c r="HQ58" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="59" ht="13.9" customHeight="1" s="1">
       <c r="A59" t="inlineStr">
@@ -40062,6 +40410,12 @@
       <c r="HO59" t="n">
         <v>398</v>
       </c>
+      <c r="HP59" t="n">
+        <v>398</v>
+      </c>
+      <c r="HQ59" t="n">
+        <v>347</v>
+      </c>
     </row>
     <row r="60" ht="13.9" customHeight="1" s="1">
       <c r="A60" t="inlineStr">
@@ -40735,6 +41089,12 @@
       <c r="HO60" t="n">
         <v>1.55</v>
       </c>
+      <c r="HP60" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="HQ60" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="61" ht="13.9" customHeight="1" s="1">
       <c r="A61" t="inlineStr">
@@ -41408,6 +41768,12 @@
       <c r="HO61" t="n">
         <v>108</v>
       </c>
+      <c r="HP61" t="n">
+        <v>108</v>
+      </c>
+      <c r="HQ61" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="62" ht="13.9" customHeight="1" s="1">
       <c r="A62" t="inlineStr">
@@ -42081,6 +42447,12 @@
       <c r="HO62" t="n">
         <v>56</v>
       </c>
+      <c r="HP62" t="n">
+        <v>56</v>
+      </c>
+      <c r="HQ62" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="63" ht="13.9" customHeight="1" s="1">
       <c r="A63" t="inlineStr">
@@ -42754,6 +43126,12 @@
       <c r="HO63" t="n">
         <v>63</v>
       </c>
+      <c r="HP63" t="n">
+        <v>63</v>
+      </c>
+      <c r="HQ63" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="64" ht="13.9" customHeight="1" s="1">
       <c r="A64" t="inlineStr">
@@ -43427,6 +43805,12 @@
       <c r="HO64" t="n">
         <v>17</v>
       </c>
+      <c r="HP64" t="n">
+        <v>17</v>
+      </c>
+      <c r="HQ64" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="65" ht="13.9" customHeight="1" s="1">
       <c r="A65" t="inlineStr">
@@ -44100,6 +44484,12 @@
       <c r="HO65" t="n">
         <v>17</v>
       </c>
+      <c r="HP65" t="n">
+        <v>17</v>
+      </c>
+      <c r="HQ65" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="66" ht="13.9" customHeight="1" s="1">
       <c r="A66" t="inlineStr">
@@ -44773,6 +45163,12 @@
       <c r="HO66" t="n">
         <v>11</v>
       </c>
+      <c r="HP66" t="n">
+        <v>11</v>
+      </c>
+      <c r="HQ66" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="67" ht="13.9" customHeight="1" s="1">
       <c r="A67" t="inlineStr">
@@ -45446,6 +45842,12 @@
       <c r="HO67" t="n">
         <v>7</v>
       </c>
+      <c r="HP67" t="n">
+        <v>7</v>
+      </c>
+      <c r="HQ67" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="68" ht="13.9" customHeight="1" s="1">
       <c r="A68" t="inlineStr">
@@ -46119,6 +46521,12 @@
       <c r="HO68" t="n">
         <v>5</v>
       </c>
+      <c r="HP68" t="n">
+        <v>5</v>
+      </c>
+      <c r="HQ68" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="69" ht="13.9" customHeight="1" s="1">
       <c r="A69" t="inlineStr">
@@ -46792,6 +47200,12 @@
       <c r="HO69" t="n">
         <v>1</v>
       </c>
+      <c r="HP69" t="n">
+        <v>1</v>
+      </c>
+      <c r="HQ69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" ht="13.9" customHeight="1" s="1">
       <c r="A70" t="inlineStr">
@@ -47465,6 +47879,12 @@
       <c r="HO70" t="n">
         <v>17</v>
       </c>
+      <c r="HP70" t="n">
+        <v>17</v>
+      </c>
+      <c r="HQ70" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="71" ht="13.9" customHeight="1" s="1">
       <c r="A71" t="inlineStr">
@@ -48138,6 +48558,12 @@
       <c r="HO71" t="n">
         <v>64.7</v>
       </c>
+      <c r="HP71" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="HQ71" t="n">
+        <v>43.5</v>
+      </c>
     </row>
     <row r="72" ht="13.9" customHeight="1" s="1">
       <c r="A72" t="inlineStr">
@@ -48811,6 +49237,12 @@
       <c r="HO72" t="n">
         <v>36.18</v>
       </c>
+      <c r="HP72" t="n">
+        <v>36.18</v>
+      </c>
+      <c r="HQ72" t="n">
+        <v>34.7</v>
+      </c>
     </row>
     <row r="73" ht="13.9" customHeight="1" s="1">
       <c r="A73" t="inlineStr">
@@ -49484,6 +49916,12 @@
       <c r="HO73" t="n">
         <v>23.41</v>
       </c>
+      <c r="HP73" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="HQ73" t="n">
+        <v>15.09</v>
+      </c>
     </row>
     <row r="74" ht="13.9" customHeight="1" s="1">
       <c r="A74" t="inlineStr">
@@ -50157,6 +50595,12 @@
       <c r="HO74" t="n">
         <v>35</v>
       </c>
+      <c r="HP74" t="n">
+        <v>35</v>
+      </c>
+      <c r="HQ74" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="75" ht="13.9" customHeight="1" s="1">
       <c r="A75" t="inlineStr">
@@ -50830,6 +51274,12 @@
       <c r="HO75" t="n">
         <v>61</v>
       </c>
+      <c r="HP75" t="n">
+        <v>61</v>
+      </c>
+      <c r="HQ75" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="76" ht="13.9" customHeight="1" s="1">
       <c r="A76" t="inlineStr">
@@ -51503,6 +51953,12 @@
       <c r="HO76" t="n">
         <v>47</v>
       </c>
+      <c r="HP76" t="n">
+        <v>47</v>
+      </c>
+      <c r="HQ76" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="77" ht="13.9" customHeight="1" s="1">
       <c r="A77" t="inlineStr">
@@ -52176,6 +52632,12 @@
       <c r="HO77" t="n">
         <v>53</v>
       </c>
+      <c r="HP77" t="n">
+        <v>53</v>
+      </c>
+      <c r="HQ77" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="78" ht="13.9" customHeight="1" s="1">
       <c r="A78" t="inlineStr">
@@ -52849,6 +53311,12 @@
       <c r="HO78" t="n">
         <v>3.12</v>
       </c>
+      <c r="HP78" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="HQ78" t="n">
+        <v>2.65</v>
+      </c>
     </row>
     <row r="79" ht="13.9" customHeight="1" s="1">
       <c r="A79" t="inlineStr">
@@ -53522,6 +53990,12 @@
       <c r="HO79" t="n">
         <v>4.82</v>
       </c>
+      <c r="HP79" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="HQ79" t="n">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="80" ht="13.9" customHeight="1" s="1">
       <c r="A80" t="inlineStr">
@@ -54195,6 +54669,12 @@
       <c r="HO80" t="n">
         <v>30.2</v>
       </c>
+      <c r="HP80" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="HQ80" t="n">
+        <v>37.7</v>
+      </c>
     </row>
     <row r="81" ht="13.9" customHeight="1" s="1">
       <c r="A81" t="inlineStr">
@@ -54868,6 +55348,12 @@
       <c r="HO81" t="n">
         <v>20.8</v>
       </c>
+      <c r="HP81" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="HQ81" t="n">
+        <v>16.4</v>
+      </c>
     </row>
     <row r="82" ht="13.9" customHeight="1" s="1">
       <c r="A82" t="inlineStr">
@@ -55541,6 +56027,12 @@
       <c r="HO82" t="n">
         <v>189.1</v>
       </c>
+      <c r="HP82" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="HQ82" t="n">
+        <v>187.4</v>
+      </c>
     </row>
     <row r="83" ht="13.9" customHeight="1" s="1">
       <c r="A83" t="inlineStr">
@@ -56214,6 +56706,12 @@
       <c r="HO83" t="n">
         <v>87.90000000000001</v>
       </c>
+      <c r="HP83" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="HQ83" t="n">
+        <v>86.2</v>
+      </c>
     </row>
     <row r="84" ht="13.9" customHeight="1" s="1">
       <c r="A84" t="inlineStr">
@@ -56887,6 +57385,12 @@
       <c r="HO84" t="n">
         <v>26.91</v>
       </c>
+      <c r="HP84" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="HQ84" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="85" ht="13.9" customHeight="1" s="1">
       <c r="A85" t="inlineStr">
@@ -57560,6 +58064,12 @@
       <c r="HO85" t="n">
         <v>114.3</v>
       </c>
+      <c r="HP85" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="HQ85" t="n">
+        <v>97.09999999999999</v>
+      </c>
     </row>
     <row r="86" ht="13.9" customHeight="1" s="1">
       <c r="A86" t="inlineStr">
@@ -58233,6 +58743,12 @@
       <c r="HO86" t="n">
         <v>6</v>
       </c>
+      <c r="HP86" t="n">
+        <v>6</v>
+      </c>
+      <c r="HQ86" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="87" ht="13.9" customHeight="1" s="1">
       <c r="A87" t="inlineStr">
@@ -58906,6 +59422,12 @@
       <c r="HO87" t="n">
         <v>4</v>
       </c>
+      <c r="HP87" t="n">
+        <v>4</v>
+      </c>
+      <c r="HQ87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88" ht="13.9" customHeight="1" s="1">
       <c r="A88" t="inlineStr">
@@ -59579,6 +60101,12 @@
       <c r="HO88" t="n">
         <v>4</v>
       </c>
+      <c r="HP88" t="n">
+        <v>4</v>
+      </c>
+      <c r="HQ88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89" ht="13.9" customHeight="1" s="1">
       <c r="A89" t="inlineStr">
@@ -60252,6 +60780,12 @@
       <c r="HO89" t="n">
         <v>8</v>
       </c>
+      <c r="HP89" t="n">
+        <v>8</v>
+      </c>
+      <c r="HQ89" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="90" ht="13.9" customHeight="1" s="1">
       <c r="A90" t="inlineStr">
@@ -60925,6 +61459,12 @@
       <c r="HO90" t="n">
         <v>155</v>
       </c>
+      <c r="HP90" t="n">
+        <v>155</v>
+      </c>
+      <c r="HQ90" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="91" ht="13.9" customHeight="1" s="1">
       <c r="A91" t="inlineStr">
@@ -61598,6 +62138,12 @@
       <c r="HO91" t="n">
         <v>239</v>
       </c>
+      <c r="HP91" t="n">
+        <v>239</v>
+      </c>
+      <c r="HQ91" t="n">
+        <v>192</v>
+      </c>
     </row>
     <row r="92" ht="13.9" customHeight="1" s="1">
       <c r="A92" t="inlineStr">
@@ -62271,6 +62817,12 @@
       <c r="HO92" t="n">
         <v>289</v>
       </c>
+      <c r="HP92" t="n">
+        <v>289</v>
+      </c>
+      <c r="HQ92" t="n">
+        <v>249</v>
+      </c>
     </row>
     <row r="93" ht="13.9" customHeight="1" s="1">
       <c r="A93" t="inlineStr">
@@ -62944,6 +63496,12 @@
       <c r="HO93" t="n">
         <v>72.59999999999999</v>
       </c>
+      <c r="HP93" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="HQ93" t="n">
+        <v>71.8</v>
+      </c>
     </row>
     <row r="94" ht="13.9" customHeight="1" s="1">
       <c r="A94" t="inlineStr">
@@ -63617,6 +64175,12 @@
       <c r="HO94" t="n">
         <v>61</v>
       </c>
+      <c r="HP94" t="n">
+        <v>61</v>
+      </c>
+      <c r="HQ94" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="95" ht="13.9" customHeight="1" s="1">
       <c r="A95" t="inlineStr">
@@ -64290,6 +64854,12 @@
       <c r="HO95" t="n">
         <v>12</v>
       </c>
+      <c r="HP95" t="n">
+        <v>12</v>
+      </c>
+      <c r="HQ95" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="96" ht="13.9" customHeight="1" s="1">
       <c r="A96" t="inlineStr">
@@ -64963,6 +65533,12 @@
       <c r="HO96" t="n">
         <v>7</v>
       </c>
+      <c r="HP96" t="n">
+        <v>7</v>
+      </c>
+      <c r="HQ96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97" ht="13.9" customHeight="1" s="1">
       <c r="A97" t="inlineStr">
@@ -65636,6 +66212,12 @@
       <c r="HO97" t="n">
         <v>35</v>
       </c>
+      <c r="HP97" t="n">
+        <v>35</v>
+      </c>
+      <c r="HQ97" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="98" ht="13.9" customHeight="1" s="1">
       <c r="A98" t="inlineStr">
@@ -66309,6 +66891,12 @@
       <c r="HO98" t="n">
         <v>47</v>
       </c>
+      <c r="HP98" t="n">
+        <v>47</v>
+      </c>
+      <c r="HQ98" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="99" ht="13.9" customHeight="1" s="1">
       <c r="A99" t="inlineStr">
@@ -66982,6 +67570,12 @@
       <c r="HO99" t="n">
         <v>38</v>
       </c>
+      <c r="HP99" t="n">
+        <v>38</v>
+      </c>
+      <c r="HQ99" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="100" ht="13.9" customHeight="1" s="1">
       <c r="A100" t="inlineStr">
@@ -67655,6 +68249,12 @@
       <c r="HO100" t="n">
         <v>6</v>
       </c>
+      <c r="HP100" t="n">
+        <v>6</v>
+      </c>
+      <c r="HQ100" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="101" ht="13.9" customHeight="1" s="1">
       <c r="A101" t="inlineStr">
@@ -68328,6 +68928,12 @@
       <c r="HO101" t="n">
         <v>7</v>
       </c>
+      <c r="HP101" t="n">
+        <v>7</v>
+      </c>
+      <c r="HQ101" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="102" ht="13.9" customHeight="1" s="1">
       <c r="A102" t="inlineStr">
@@ -69001,6 +69607,12 @@
       <c r="HO102" t="n">
         <v>63.6</v>
       </c>
+      <c r="HP102" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="HQ102" t="n">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/django_AFL_ML/Data/Brisbane_stats.xlsx
+++ b/django_AFL_ML/Data/Brisbane_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HQ102"/>
+  <dimension ref="A1:HS102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="GU76" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="HO90" sqref="HO90"/>
@@ -1034,6 +1034,12 @@
       <c r="HQ1" t="n">
         <v>10356</v>
       </c>
+      <c r="HR1" t="n">
+        <v>10525</v>
+      </c>
+      <c r="HS1" t="n">
+        <v>10368</v>
+      </c>
     </row>
     <row r="2" ht="13.9" customHeight="1" s="1">
       <c r="A2" t="inlineStr">
@@ -1713,6 +1719,12 @@
       <c r="HQ2" t="n">
         <v>2021</v>
       </c>
+      <c r="HR2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3" ht="13.9" customHeight="1" s="1">
       <c r="A3" t="inlineStr">
@@ -2392,6 +2404,12 @@
       <c r="HQ3" t="n">
         <v>4</v>
       </c>
+      <c r="HR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" ht="13.9" customHeight="1" s="1">
       <c r="A4" t="inlineStr">
@@ -3071,6 +3089,12 @@
       <c r="HQ4" t="n">
         <v>1</v>
       </c>
+      <c r="HR4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" ht="13.9" customHeight="1" s="1">
       <c r="A5" t="inlineStr">
@@ -3750,6 +3774,12 @@
       <c r="HQ5" t="n">
         <v>0</v>
       </c>
+      <c r="HR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" ht="13.9" customHeight="1" s="1">
       <c r="A6" t="inlineStr">
@@ -4429,6 +4459,12 @@
       <c r="HQ6" t="n">
         <v>54</v>
       </c>
+      <c r="HR6" t="n">
+        <v>73</v>
+      </c>
+      <c r="HS6" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="7" ht="13.9" customHeight="1" s="1">
       <c r="A7" t="inlineStr">
@@ -5108,6 +5144,12 @@
       <c r="HQ7" t="n">
         <v>73</v>
       </c>
+      <c r="HR7" t="n">
+        <v>72</v>
+      </c>
+      <c r="HS7" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="8" ht="13.9" customHeight="1" s="1">
       <c r="A8" t="inlineStr">
@@ -5787,6 +5829,12 @@
       <c r="HQ8" t="n">
         <v>-19</v>
       </c>
+      <c r="HR8" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS8" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" s="1">
       <c r="A9" t="inlineStr">
@@ -6466,6 +6514,12 @@
       <c r="HQ9" t="n">
         <v>0</v>
       </c>
+      <c r="HR9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" ht="13.9" customHeight="1" s="1">
       <c r="A10" t="inlineStr">
@@ -7145,6 +7199,12 @@
       <c r="HQ10" t="n">
         <v>18</v>
       </c>
+      <c r="HR10" t="n">
+        <v>4</v>
+      </c>
+      <c r="HS10" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="11" ht="13.9" customHeight="1" s="1">
       <c r="A11" t="inlineStr">
@@ -7824,6 +7884,12 @@
       <c r="HQ11" t="n">
         <v>232</v>
       </c>
+      <c r="HR11" t="n">
+        <v>258</v>
+      </c>
+      <c r="HS11" t="n">
+        <v>252</v>
+      </c>
     </row>
     <row r="12" ht="13.9" customHeight="1" s="1">
       <c r="A12" t="inlineStr">
@@ -8503,6 +8569,12 @@
       <c r="HQ12" t="n">
         <v>129</v>
       </c>
+      <c r="HR12" t="n">
+        <v>123</v>
+      </c>
+      <c r="HS12" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="13" ht="13.9" customHeight="1" s="1">
       <c r="A13" t="inlineStr">
@@ -9182,6 +9254,12 @@
       <c r="HQ13" t="n">
         <v>361</v>
       </c>
+      <c r="HR13" t="n">
+        <v>381</v>
+      </c>
+      <c r="HS13" t="n">
+        <v>384</v>
+      </c>
     </row>
     <row r="14" ht="13.9" customHeight="1" s="1">
       <c r="A14" t="inlineStr">
@@ -9861,6 +9939,12 @@
       <c r="HQ14" t="n">
         <v>1.8</v>
       </c>
+      <c r="HR14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="HS14" t="n">
+        <v>1.91</v>
+      </c>
     </row>
     <row r="15" ht="13.9" customHeight="1" s="1">
       <c r="A15" t="inlineStr">
@@ -10540,6 +10624,12 @@
       <c r="HQ15" t="n">
         <v>111</v>
       </c>
+      <c r="HR15" t="n">
+        <v>131</v>
+      </c>
+      <c r="HS15" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="16" ht="13.9" customHeight="1" s="1">
       <c r="A16" t="inlineStr">
@@ -11219,6 +11309,12 @@
       <c r="HQ16" t="n">
         <v>50</v>
       </c>
+      <c r="HR16" t="n">
+        <v>70</v>
+      </c>
+      <c r="HS16" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="17" ht="13.9" customHeight="1" s="1">
       <c r="A17" t="inlineStr">
@@ -11898,6 +11994,12 @@
       <c r="HQ17" t="n">
         <v>35</v>
       </c>
+      <c r="HR17" t="n">
+        <v>4</v>
+      </c>
+      <c r="HS17" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="18" ht="13.9" customHeight="1" s="1">
       <c r="A18" t="inlineStr">
@@ -12577,6 +12679,12 @@
       <c r="HQ18" t="n">
         <v>16</v>
       </c>
+      <c r="HR18" t="n">
+        <v>17</v>
+      </c>
+      <c r="HS18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" ht="13.9" customHeight="1" s="1">
       <c r="A19" t="inlineStr">
@@ -13256,6 +13364,12 @@
       <c r="HQ19" t="n">
         <v>30</v>
       </c>
+      <c r="HR19" t="n">
+        <v>17</v>
+      </c>
+      <c r="HS19" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="20" ht="13.9" customHeight="1" s="1">
       <c r="A20" t="inlineStr">
@@ -13935,6 +14049,12 @@
       <c r="HQ20" t="n">
         <v>8</v>
       </c>
+      <c r="HR20" t="n">
+        <v>11</v>
+      </c>
+      <c r="HS20" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" ht="13.9" customHeight="1" s="1">
       <c r="A21" t="inlineStr">
@@ -14614,6 +14734,12 @@
       <c r="HQ21" t="n">
         <v>6</v>
       </c>
+      <c r="HR21" t="n">
+        <v>9</v>
+      </c>
+      <c r="HS21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" ht="13.9" customHeight="1" s="1">
       <c r="A22" t="inlineStr">
@@ -15293,6 +15419,12 @@
       <c r="HQ22" t="n">
         <v>5</v>
       </c>
+      <c r="HR22" t="n">
+        <v>6</v>
+      </c>
+      <c r="HS22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" ht="13.9" customHeight="1" s="1">
       <c r="A23" t="inlineStr">
@@ -15972,6 +16104,12 @@
       <c r="HQ23" t="n">
         <v>1</v>
       </c>
+      <c r="HR23" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" ht="13.9" customHeight="1" s="1">
       <c r="A24" t="inlineStr">
@@ -16651,6 +16789,12 @@
       <c r="HQ24" t="n">
         <v>14</v>
       </c>
+      <c r="HR24" t="n">
+        <v>18</v>
+      </c>
+      <c r="HS24" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="25" ht="13.9" customHeight="1" s="1">
       <c r="A25" t="inlineStr">
@@ -17330,6 +17474,12 @@
       <c r="HQ25" t="n">
         <v>57.1</v>
       </c>
+      <c r="HR25" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="HS25" t="n">
+        <v>55.6</v>
+      </c>
     </row>
     <row r="26" ht="13.9" customHeight="1" s="1">
       <c r="A26" t="inlineStr">
@@ -18009,6 +18159,12 @@
       <c r="HQ26" t="n">
         <v>45.12</v>
       </c>
+      <c r="HR26" t="n">
+        <v>34.64</v>
+      </c>
+      <c r="HS26" t="n">
+        <v>25.6</v>
+      </c>
     </row>
     <row r="27" ht="13.9" customHeight="1" s="1">
       <c r="A27" t="inlineStr">
@@ -18688,6 +18844,12 @@
       <c r="HQ27" t="n">
         <v>25.79</v>
       </c>
+      <c r="HR27" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="HS27" t="n">
+        <v>14.22</v>
+      </c>
     </row>
     <row r="28" ht="13.9" customHeight="1" s="1">
       <c r="A28" t="inlineStr">
@@ -19367,6 +19529,12 @@
       <c r="HQ28" t="n">
         <v>44</v>
       </c>
+      <c r="HR28" t="n">
+        <v>30</v>
+      </c>
+      <c r="HS28" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="29" ht="13.9" customHeight="1" s="1">
       <c r="A29" t="inlineStr">
@@ -20046,6 +20214,12 @@
       <c r="HQ29" t="n">
         <v>80</v>
       </c>
+      <c r="HR29" t="n">
+        <v>56</v>
+      </c>
+      <c r="HS29" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="30" ht="13.9" customHeight="1" s="1">
       <c r="A30" t="inlineStr">
@@ -20725,6 +20899,12 @@
       <c r="HQ30" t="n">
         <v>51</v>
       </c>
+      <c r="HR30" t="n">
+        <v>41</v>
+      </c>
+      <c r="HS30" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="31" ht="13.9" customHeight="1" s="1">
       <c r="A31" t="inlineStr">
@@ -21404,6 +21584,12 @@
       <c r="HQ31" t="n">
         <v>44</v>
       </c>
+      <c r="HR31" t="n">
+        <v>58</v>
+      </c>
+      <c r="HS31" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="32" ht="13.9" customHeight="1" s="1">
       <c r="A32" t="inlineStr">
@@ -22083,6 +22269,12 @@
       <c r="HQ32" t="n">
         <v>3.14</v>
       </c>
+      <c r="HR32" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="HS32" t="n">
+        <v>2.48</v>
+      </c>
     </row>
     <row r="33" ht="13.9" customHeight="1" s="1">
       <c r="A33" t="inlineStr">
@@ -22762,6 +22954,12 @@
       <c r="HQ33" t="n">
         <v>5.5</v>
       </c>
+      <c r="HR33" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="HS33" t="n">
+        <v>4.47</v>
+      </c>
     </row>
     <row r="34" ht="13.9" customHeight="1" s="1">
       <c r="A34" t="inlineStr">
@@ -23441,6 +23639,12 @@
       <c r="HQ34" t="n">
         <v>29.5</v>
       </c>
+      <c r="HR34" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="HS34" t="n">
+        <v>37.3</v>
+      </c>
     </row>
     <row r="35" ht="13.9" customHeight="1" s="1">
       <c r="A35" t="inlineStr">
@@ -24120,6 +24324,12 @@
       <c r="HQ35" t="n">
         <v>18.2</v>
       </c>
+      <c r="HR35" t="n">
+        <v>19</v>
+      </c>
+      <c r="HS35" t="n">
+        <v>22.4</v>
+      </c>
     </row>
     <row r="36" ht="13.9" customHeight="1" s="1">
       <c r="A36" t="inlineStr">
@@ -24799,6 +25009,12 @@
       <c r="HQ36" t="n">
         <v>188.9</v>
       </c>
+      <c r="HR36" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="HS36" t="n">
+        <v>188.7</v>
+      </c>
     </row>
     <row r="37" ht="13.9" customHeight="1" s="1">
       <c r="A37" t="inlineStr">
@@ -25478,6 +25694,12 @@
       <c r="HQ37" t="n">
         <v>87.7</v>
       </c>
+      <c r="HR37" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="HS37" t="n">
+        <v>87.59999999999999</v>
+      </c>
     </row>
     <row r="38" ht="13.9" customHeight="1" s="1">
       <c r="A38" t="inlineStr">
@@ -26157,6 +26379,12 @@
       <c r="HQ38" t="n">
         <v>26.16</v>
       </c>
+      <c r="HR38" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="HS38" t="n">
+        <v>26.16</v>
+      </c>
     </row>
     <row r="39" ht="13.9" customHeight="1" s="1">
       <c r="A39" t="inlineStr">
@@ -26836,6 +27064,12 @@
       <c r="HQ39" t="n">
         <v>108</v>
       </c>
+      <c r="HR39" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="HS39" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="40" ht="13.9" customHeight="1" s="1">
       <c r="A40" t="inlineStr">
@@ -27515,6 +27749,12 @@
       <c r="HQ40" t="n">
         <v>5</v>
       </c>
+      <c r="HR40" t="n">
+        <v>8</v>
+      </c>
+      <c r="HS40" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41" ht="13.9" customHeight="1" s="1">
       <c r="A41" t="inlineStr">
@@ -28194,6 +28434,12 @@
       <c r="HQ41" t="n">
         <v>6</v>
       </c>
+      <c r="HR41" t="n">
+        <v>4</v>
+      </c>
+      <c r="HS41" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="42" ht="13.9" customHeight="1" s="1">
       <c r="A42" t="inlineStr">
@@ -28873,6 +29119,12 @@
       <c r="HQ42" t="n">
         <v>6</v>
       </c>
+      <c r="HR42" t="n">
+        <v>5</v>
+      </c>
+      <c r="HS42" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="43" ht="13.9" customHeight="1" s="1">
       <c r="A43" t="inlineStr">
@@ -29552,6 +29804,12 @@
       <c r="HQ43" t="n">
         <v>5</v>
       </c>
+      <c r="HR43" t="n">
+        <v>5</v>
+      </c>
+      <c r="HS43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44" ht="13.9" customHeight="1" s="1">
       <c r="A44" t="inlineStr">
@@ -30231,6 +30489,12 @@
       <c r="HQ44" t="n">
         <v>151</v>
       </c>
+      <c r="HR44" t="n">
+        <v>140</v>
+      </c>
+      <c r="HS44" t="n">
+        <v>168</v>
+      </c>
     </row>
     <row r="45" ht="13.9" customHeight="1" s="1">
       <c r="A45" t="inlineStr">
@@ -30910,6 +31174,12 @@
       <c r="HQ45" t="n">
         <v>215</v>
       </c>
+      <c r="HR45" t="n">
+        <v>241</v>
+      </c>
+      <c r="HS45" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="46" ht="13.9" customHeight="1" s="1">
       <c r="A46" t="inlineStr">
@@ -31589,6 +31859,12 @@
       <c r="HQ46" t="n">
         <v>257</v>
       </c>
+      <c r="HR46" t="n">
+        <v>286</v>
+      </c>
+      <c r="HS46" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="47" ht="13.9" customHeight="1" s="1">
       <c r="A47" t="inlineStr">
@@ -32268,6 +32544,12 @@
       <c r="HQ47" t="n">
         <v>71.2</v>
       </c>
+      <c r="HR47" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="HS47" t="n">
+        <v>64.59999999999999</v>
+      </c>
     </row>
     <row r="48" ht="13.9" customHeight="1" s="1">
       <c r="A48" t="inlineStr">
@@ -32947,6 +33229,12 @@
       <c r="HQ48" t="n">
         <v>80</v>
       </c>
+      <c r="HR48" t="n">
+        <v>56</v>
+      </c>
+      <c r="HS48" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="49" ht="13.9" customHeight="1" s="1">
       <c r="A49" t="inlineStr">
@@ -33626,6 +33914,12 @@
       <c r="HQ49" t="n">
         <v>20</v>
       </c>
+      <c r="HR49" t="n">
+        <v>12</v>
+      </c>
+      <c r="HS49" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="50" ht="13.9" customHeight="1" s="1">
       <c r="A50" t="inlineStr">
@@ -34305,6 +34599,12 @@
       <c r="HQ50" t="n">
         <v>9</v>
       </c>
+      <c r="HR50" t="n">
+        <v>11</v>
+      </c>
+      <c r="HS50" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="51" ht="13.9" customHeight="1" s="1">
       <c r="A51" t="inlineStr">
@@ -34984,6 +35284,12 @@
       <c r="HQ51" t="n">
         <v>44</v>
       </c>
+      <c r="HR51" t="n">
+        <v>30</v>
+      </c>
+      <c r="HS51" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="52" ht="13.9" customHeight="1" s="1">
       <c r="A52" t="inlineStr">
@@ -35663,6 +35969,12 @@
       <c r="HQ52" t="n">
         <v>51</v>
       </c>
+      <c r="HR52" t="n">
+        <v>41</v>
+      </c>
+      <c r="HS52" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="53" ht="13.9" customHeight="1" s="1">
       <c r="A53" t="inlineStr">
@@ -36342,6 +36654,12 @@
       <c r="HQ53" t="n">
         <v>54</v>
       </c>
+      <c r="HR53" t="n">
+        <v>48</v>
+      </c>
+      <c r="HS53" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="54" ht="13.9" customHeight="1" s="1">
       <c r="A54" t="inlineStr">
@@ -37021,6 +37339,12 @@
       <c r="HQ54" t="n">
         <v>1</v>
       </c>
+      <c r="HR54" t="n">
+        <v>2</v>
+      </c>
+      <c r="HS54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55" ht="13.9" customHeight="1" s="1">
       <c r="A55" t="inlineStr">
@@ -37700,6 +38024,12 @@
       <c r="HQ55" t="n">
         <v>6</v>
       </c>
+      <c r="HR55" t="n">
+        <v>9</v>
+      </c>
+      <c r="HS55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56" ht="13.9" customHeight="1" s="1">
       <c r="A56" t="inlineStr">
@@ -38379,6 +38709,12 @@
       <c r="HQ56" t="n">
         <v>75</v>
       </c>
+      <c r="HR56" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="HS56" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="57" ht="13.9" customHeight="1" s="1">
       <c r="A57" t="inlineStr">
@@ -39058,6 +39394,12 @@
       <c r="HQ57" t="n">
         <v>193</v>
       </c>
+      <c r="HR57" t="n">
+        <v>242</v>
+      </c>
+      <c r="HS57" t="n">
+        <v>199</v>
+      </c>
     </row>
     <row r="58" ht="13.9" customHeight="1" s="1">
       <c r="A58" t="inlineStr">
@@ -39737,6 +40079,12 @@
       <c r="HQ58" t="n">
         <v>154</v>
       </c>
+      <c r="HR58" t="n">
+        <v>156</v>
+      </c>
+      <c r="HS58" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="59" ht="13.9" customHeight="1" s="1">
       <c r="A59" t="inlineStr">
@@ -40416,6 +40764,12 @@
       <c r="HQ59" t="n">
         <v>347</v>
       </c>
+      <c r="HR59" t="n">
+        <v>398</v>
+      </c>
+      <c r="HS59" t="n">
+        <v>358</v>
+      </c>
     </row>
     <row r="60" ht="13.9" customHeight="1" s="1">
       <c r="A60" t="inlineStr">
@@ -41095,6 +41449,12 @@
       <c r="HQ60" t="n">
         <v>1.25</v>
       </c>
+      <c r="HR60" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="HS60" t="n">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="61" ht="13.9" customHeight="1" s="1">
       <c r="A61" t="inlineStr">
@@ -41774,6 +42134,12 @@
       <c r="HQ61" t="n">
         <v>63</v>
       </c>
+      <c r="HR61" t="n">
+        <v>108</v>
+      </c>
+      <c r="HS61" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="62" ht="13.9" customHeight="1" s="1">
       <c r="A62" t="inlineStr">
@@ -42453,6 +42819,12 @@
       <c r="HQ62" t="n">
         <v>81</v>
       </c>
+      <c r="HR62" t="n">
+        <v>56</v>
+      </c>
+      <c r="HS62" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="63" ht="13.9" customHeight="1" s="1">
       <c r="A63" t="inlineStr">
@@ -43132,6 +43504,12 @@
       <c r="HQ63" t="n">
         <v>40</v>
       </c>
+      <c r="HR63" t="n">
+        <v>63</v>
+      </c>
+      <c r="HS63" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="64" ht="13.9" customHeight="1" s="1">
       <c r="A64" t="inlineStr">
@@ -43811,6 +44189,12 @@
       <c r="HQ64" t="n">
         <v>30</v>
       </c>
+      <c r="HR64" t="n">
+        <v>17</v>
+      </c>
+      <c r="HS64" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="65" ht="13.9" customHeight="1" s="1">
       <c r="A65" t="inlineStr">
@@ -44490,6 +44874,12 @@
       <c r="HQ65" t="n">
         <v>16</v>
       </c>
+      <c r="HR65" t="n">
+        <v>17</v>
+      </c>
+      <c r="HS65" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="66" ht="13.9" customHeight="1" s="1">
       <c r="A66" t="inlineStr">
@@ -45169,6 +45559,12 @@
       <c r="HQ66" t="n">
         <v>10</v>
       </c>
+      <c r="HR66" t="n">
+        <v>11</v>
+      </c>
+      <c r="HS66" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="67" ht="13.9" customHeight="1" s="1">
       <c r="A67" t="inlineStr">
@@ -45848,6 +46244,12 @@
       <c r="HQ67" t="n">
         <v>6</v>
       </c>
+      <c r="HR67" t="n">
+        <v>7</v>
+      </c>
+      <c r="HS67" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68" ht="13.9" customHeight="1" s="1">
       <c r="A68" t="inlineStr">
@@ -46527,6 +46929,12 @@
       <c r="HQ68" t="n">
         <v>13</v>
       </c>
+      <c r="HR68" t="n">
+        <v>5</v>
+      </c>
+      <c r="HS68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69" ht="13.9" customHeight="1" s="1">
       <c r="A69" t="inlineStr">
@@ -47206,6 +47614,12 @@
       <c r="HQ69" t="n">
         <v>0</v>
       </c>
+      <c r="HR69" t="n">
+        <v>1</v>
+      </c>
+      <c r="HS69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70" ht="13.9" customHeight="1" s="1">
       <c r="A70" t="inlineStr">
@@ -47885,6 +48299,12 @@
       <c r="HQ70" t="n">
         <v>23</v>
       </c>
+      <c r="HR70" t="n">
+        <v>17</v>
+      </c>
+      <c r="HS70" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="71" ht="13.9" customHeight="1" s="1">
       <c r="A71" t="inlineStr">
@@ -48564,6 +48984,12 @@
       <c r="HQ71" t="n">
         <v>43.5</v>
       </c>
+      <c r="HR71" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="HS71" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="72" ht="13.9" customHeight="1" s="1">
       <c r="A72" t="inlineStr">
@@ -49243,6 +49669,12 @@
       <c r="HQ72" t="n">
         <v>34.7</v>
       </c>
+      <c r="HR72" t="n">
+        <v>36.18</v>
+      </c>
+      <c r="HS72" t="n">
+        <v>59.67</v>
+      </c>
     </row>
     <row r="73" ht="13.9" customHeight="1" s="1">
       <c r="A73" t="inlineStr">
@@ -49922,6 +50354,12 @@
       <c r="HQ73" t="n">
         <v>15.09</v>
       </c>
+      <c r="HR73" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="HS73" t="n">
+        <v>23.87</v>
+      </c>
     </row>
     <row r="74" ht="13.9" customHeight="1" s="1">
       <c r="A74" t="inlineStr">
@@ -50601,6 +51039,12 @@
       <c r="HQ74" t="n">
         <v>40</v>
       </c>
+      <c r="HR74" t="n">
+        <v>35</v>
+      </c>
+      <c r="HS74" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="75" ht="13.9" customHeight="1" s="1">
       <c r="A75" t="inlineStr">
@@ -51280,6 +51724,12 @@
       <c r="HQ75" t="n">
         <v>46</v>
       </c>
+      <c r="HR75" t="n">
+        <v>61</v>
+      </c>
+      <c r="HS75" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="76" ht="13.9" customHeight="1" s="1">
       <c r="A76" t="inlineStr">
@@ -51959,6 +52409,12 @@
       <c r="HQ76" t="n">
         <v>33</v>
       </c>
+      <c r="HR76" t="n">
+        <v>47</v>
+      </c>
+      <c r="HS76" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="77" ht="13.9" customHeight="1" s="1">
       <c r="A77" t="inlineStr">
@@ -52638,6 +53094,12 @@
       <c r="HQ77" t="n">
         <v>61</v>
       </c>
+      <c r="HR77" t="n">
+        <v>53</v>
+      </c>
+      <c r="HS77" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="78" ht="13.9" customHeight="1" s="1">
       <c r="A78" t="inlineStr">
@@ -53317,6 +53779,12 @@
       <c r="HQ78" t="n">
         <v>2.65</v>
       </c>
+      <c r="HR78" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="HS78" t="n">
+        <v>2.73</v>
+      </c>
     </row>
     <row r="79" ht="13.9" customHeight="1" s="1">
       <c r="A79" t="inlineStr">
@@ -53996,6 +54464,12 @@
       <c r="HQ79" t="n">
         <v>6.1</v>
       </c>
+      <c r="HR79" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="HS79" t="n">
+        <v>6.83</v>
+      </c>
     </row>
     <row r="80" ht="13.9" customHeight="1" s="1">
       <c r="A80" t="inlineStr">
@@ -54675,6 +55149,12 @@
       <c r="HQ80" t="n">
         <v>37.7</v>
       </c>
+      <c r="HR80" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="HS80" t="n">
+        <v>31.7</v>
+      </c>
     </row>
     <row r="81" ht="13.9" customHeight="1" s="1">
       <c r="A81" t="inlineStr">
@@ -55354,6 +55834,12 @@
       <c r="HQ81" t="n">
         <v>16.4</v>
       </c>
+      <c r="HR81" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="HS81" t="n">
+        <v>14.6</v>
+      </c>
     </row>
     <row r="82" ht="13.9" customHeight="1" s="1">
       <c r="A82" t="inlineStr">
@@ -56033,6 +56519,12 @@
       <c r="HQ82" t="n">
         <v>187.4</v>
       </c>
+      <c r="HR82" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="HS82" t="n">
+        <v>187</v>
+      </c>
     </row>
     <row r="83" ht="13.9" customHeight="1" s="1">
       <c r="A83" t="inlineStr">
@@ -56712,6 +57204,12 @@
       <c r="HQ83" t="n">
         <v>86.2</v>
       </c>
+      <c r="HR83" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="HS83" t="n">
+        <v>84.3</v>
+      </c>
     </row>
     <row r="84" ht="13.9" customHeight="1" s="1">
       <c r="A84" t="inlineStr">
@@ -57391,6 +57889,12 @@
       <c r="HQ84" t="n">
         <v>26</v>
       </c>
+      <c r="HR84" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="HS84" t="n">
+        <v>24.24</v>
+      </c>
     </row>
     <row r="85" ht="13.9" customHeight="1" s="1">
       <c r="A85" t="inlineStr">
@@ -58070,6 +58574,12 @@
       <c r="HQ85" t="n">
         <v>97.09999999999999</v>
       </c>
+      <c r="HR85" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="HS85" t="n">
+        <v>68.59999999999999</v>
+      </c>
     </row>
     <row r="86" ht="13.9" customHeight="1" s="1">
       <c r="A86" t="inlineStr">
@@ -58749,6 +59259,12 @@
       <c r="HQ86" t="n">
         <v>5</v>
       </c>
+      <c r="HR86" t="n">
+        <v>6</v>
+      </c>
+      <c r="HS86" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="87" ht="13.9" customHeight="1" s="1">
       <c r="A87" t="inlineStr">
@@ -59428,6 +59944,12 @@
       <c r="HQ87" t="n">
         <v>6</v>
       </c>
+      <c r="HR87" t="n">
+        <v>4</v>
+      </c>
+      <c r="HS87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88" ht="13.9" customHeight="1" s="1">
       <c r="A88" t="inlineStr">
@@ -60107,6 +60629,12 @@
       <c r="HQ88" t="n">
         <v>6</v>
       </c>
+      <c r="HR88" t="n">
+        <v>4</v>
+      </c>
+      <c r="HS88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89" ht="13.9" customHeight="1" s="1">
       <c r="A89" t="inlineStr">
@@ -60786,6 +61314,12 @@
       <c r="HQ89" t="n">
         <v>5</v>
       </c>
+      <c r="HR89" t="n">
+        <v>8</v>
+      </c>
+      <c r="HS89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90" ht="13.9" customHeight="1" s="1">
       <c r="A90" t="inlineStr">
@@ -61465,6 +61999,12 @@
       <c r="HQ90" t="n">
         <v>156</v>
       </c>
+      <c r="HR90" t="n">
+        <v>155</v>
+      </c>
+      <c r="HS90" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="91" ht="13.9" customHeight="1" s="1">
       <c r="A91" t="inlineStr">
@@ -62144,6 +62684,12 @@
       <c r="HQ91" t="n">
         <v>192</v>
       </c>
+      <c r="HR91" t="n">
+        <v>239</v>
+      </c>
+      <c r="HS91" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="92" ht="13.9" customHeight="1" s="1">
       <c r="A92" t="inlineStr">
@@ -62823,6 +63369,12 @@
       <c r="HQ92" t="n">
         <v>249</v>
       </c>
+      <c r="HR92" t="n">
+        <v>289</v>
+      </c>
+      <c r="HS92" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="93" ht="13.9" customHeight="1" s="1">
       <c r="A93" t="inlineStr">
@@ -63502,6 +64054,12 @@
       <c r="HQ93" t="n">
         <v>71.8</v>
       </c>
+      <c r="HR93" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="HS93" t="n">
+        <v>61.5</v>
+      </c>
     </row>
     <row r="94" ht="13.9" customHeight="1" s="1">
       <c r="A94" t="inlineStr">
@@ -64181,6 +64739,12 @@
       <c r="HQ94" t="n">
         <v>46</v>
       </c>
+      <c r="HR94" t="n">
+        <v>61</v>
+      </c>
+      <c r="HS94" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="95" ht="13.9" customHeight="1" s="1">
       <c r="A95" t="inlineStr">
@@ -64860,6 +65424,12 @@
       <c r="HQ95" t="n">
         <v>15</v>
       </c>
+      <c r="HR95" t="n">
+        <v>12</v>
+      </c>
+      <c r="HS95" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="96" ht="13.9" customHeight="1" s="1">
       <c r="A96" t="inlineStr">
@@ -65539,6 +66109,12 @@
       <c r="HQ96" t="n">
         <v>11</v>
       </c>
+      <c r="HR96" t="n">
+        <v>7</v>
+      </c>
+      <c r="HS96" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="97" ht="13.9" customHeight="1" s="1">
       <c r="A97" t="inlineStr">
@@ -66218,6 +66794,12 @@
       <c r="HQ97" t="n">
         <v>40</v>
       </c>
+      <c r="HR97" t="n">
+        <v>35</v>
+      </c>
+      <c r="HS97" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="98" ht="13.9" customHeight="1" s="1">
       <c r="A98" t="inlineStr">
@@ -66897,6 +67479,12 @@
       <c r="HQ98" t="n">
         <v>33</v>
       </c>
+      <c r="HR98" t="n">
+        <v>47</v>
+      </c>
+      <c r="HS98" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="99" ht="13.9" customHeight="1" s="1">
       <c r="A99" t="inlineStr">
@@ -67576,6 +68164,12 @@
       <c r="HQ99" t="n">
         <v>37</v>
       </c>
+      <c r="HR99" t="n">
+        <v>38</v>
+      </c>
+      <c r="HS99" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="100" ht="13.9" customHeight="1" s="1">
       <c r="A100" t="inlineStr">
@@ -68255,6 +68849,12 @@
       <c r="HQ100" t="n">
         <v>6</v>
       </c>
+      <c r="HR100" t="n">
+        <v>6</v>
+      </c>
+      <c r="HS100" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="101" ht="13.9" customHeight="1" s="1">
       <c r="A101" t="inlineStr">
@@ -68934,6 +69534,12 @@
       <c r="HQ101" t="n">
         <v>6</v>
       </c>
+      <c r="HR101" t="n">
+        <v>7</v>
+      </c>
+      <c r="HS101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102" ht="13.9" customHeight="1" s="1">
       <c r="A102" t="inlineStr">
@@ -69613,6 +70219,12 @@
       <c r="HQ102" t="n">
         <v>60</v>
       </c>
+      <c r="HR102" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="HS102" t="n">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/django_AFL_ML/Data/Brisbane_stats.xlsx
+++ b/django_AFL_ML/Data/Brisbane_stats.xlsx
@@ -53,74 +53,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -413,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HU102"/>
+  <dimension ref="A1:HW102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="GU76" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="HO90" sqref="HO90"/>
@@ -1114,6 +1046,12 @@
       <c r="HU1" t="n">
         <v>10375</v>
       </c>
+      <c r="HV1" t="n">
+        <v>10525</v>
+      </c>
+      <c r="HW1" t="n">
+        <v>10381</v>
+      </c>
     </row>
     <row r="2" ht="13.9" customHeight="1" s="1">
       <c r="A2" t="inlineStr">
@@ -1805,6 +1743,12 @@
       <c r="HU2" t="n">
         <v>2021</v>
       </c>
+      <c r="HV2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3" ht="13.9" customHeight="1" s="1">
       <c r="A3" t="inlineStr">
@@ -2496,6 +2440,12 @@
       <c r="HU3" t="n">
         <v>6</v>
       </c>
+      <c r="HV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" ht="13.9" customHeight="1" s="1">
       <c r="A4" t="inlineStr">
@@ -3187,6 +3137,12 @@
       <c r="HU4" t="n">
         <v>1</v>
       </c>
+      <c r="HV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" ht="13.9" customHeight="1" s="1">
       <c r="A5" t="inlineStr">
@@ -3878,6 +3834,12 @@
       <c r="HU5" t="n">
         <v>1</v>
       </c>
+      <c r="HV5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" ht="13.9" customHeight="1" s="1">
       <c r="A6" t="inlineStr">
@@ -4569,6 +4531,12 @@
       <c r="HU6" t="n">
         <v>103</v>
       </c>
+      <c r="HV6" t="n">
+        <v>73</v>
+      </c>
+      <c r="HW6" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="7" ht="13.9" customHeight="1" s="1">
       <c r="A7" t="inlineStr">
@@ -5260,6 +5228,12 @@
       <c r="HU7" t="n">
         <v>85</v>
       </c>
+      <c r="HV7" t="n">
+        <v>72</v>
+      </c>
+      <c r="HW7" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="8" ht="13.9" customHeight="1" s="1">
       <c r="A8" t="inlineStr">
@@ -5951,6 +5925,12 @@
       <c r="HU8" t="n">
         <v>18</v>
       </c>
+      <c r="HV8" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW8" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" s="1">
       <c r="A9" t="inlineStr">
@@ -6642,6 +6622,12 @@
       <c r="HU9" t="n">
         <v>1</v>
       </c>
+      <c r="HV9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" ht="13.9" customHeight="1" s="1">
       <c r="A10" t="inlineStr">
@@ -7333,6 +7319,12 @@
       <c r="HU10" t="n">
         <v>3</v>
       </c>
+      <c r="HV10" t="n">
+        <v>4</v>
+      </c>
+      <c r="HW10" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" ht="13.9" customHeight="1" s="1">
       <c r="A11" t="inlineStr">
@@ -8024,6 +8016,12 @@
       <c r="HU11" t="n">
         <v>222</v>
       </c>
+      <c r="HV11" t="n">
+        <v>258</v>
+      </c>
+      <c r="HW11" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="12" ht="13.9" customHeight="1" s="1">
       <c r="A12" t="inlineStr">
@@ -8715,6 +8713,12 @@
       <c r="HU12" t="n">
         <v>131</v>
       </c>
+      <c r="HV12" t="n">
+        <v>123</v>
+      </c>
+      <c r="HW12" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="13" ht="13.9" customHeight="1" s="1">
       <c r="A13" t="inlineStr">
@@ -9406,6 +9410,12 @@
       <c r="HU13" t="n">
         <v>353</v>
       </c>
+      <c r="HV13" t="n">
+        <v>381</v>
+      </c>
+      <c r="HW13" t="n">
+        <v>359</v>
+      </c>
     </row>
     <row r="14" ht="13.9" customHeight="1" s="1">
       <c r="A14" t="inlineStr">
@@ -10097,6 +10107,12 @@
       <c r="HU14" t="n">
         <v>1.69</v>
       </c>
+      <c r="HV14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="HW14" t="n">
+        <v>1.87</v>
+      </c>
     </row>
     <row r="15" ht="13.9" customHeight="1" s="1">
       <c r="A15" t="inlineStr">
@@ -10788,6 +10804,12 @@
       <c r="HU15" t="n">
         <v>72</v>
       </c>
+      <c r="HV15" t="n">
+        <v>131</v>
+      </c>
+      <c r="HW15" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="16" ht="13.9" customHeight="1" s="1">
       <c r="A16" t="inlineStr">
@@ -11479,6 +11501,12 @@
       <c r="HU16" t="n">
         <v>71</v>
       </c>
+      <c r="HV16" t="n">
+        <v>70</v>
+      </c>
+      <c r="HW16" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="17" ht="13.9" customHeight="1" s="1">
       <c r="A17" t="inlineStr">
@@ -12170,6 +12198,12 @@
       <c r="HU17" t="n">
         <v>42</v>
       </c>
+      <c r="HV17" t="n">
+        <v>4</v>
+      </c>
+      <c r="HW17" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="18" ht="13.9" customHeight="1" s="1">
       <c r="A18" t="inlineStr">
@@ -12861,6 +12895,12 @@
       <c r="HU18" t="n">
         <v>20</v>
       </c>
+      <c r="HV18" t="n">
+        <v>17</v>
+      </c>
+      <c r="HW18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" ht="13.9" customHeight="1" s="1">
       <c r="A19" t="inlineStr">
@@ -13552,6 +13592,12 @@
       <c r="HU19" t="n">
         <v>25</v>
       </c>
+      <c r="HV19" t="n">
+        <v>17</v>
+      </c>
+      <c r="HW19" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="20" ht="13.9" customHeight="1" s="1">
       <c r="A20" t="inlineStr">
@@ -14243,6 +14289,12 @@
       <c r="HU20" t="n">
         <v>15</v>
       </c>
+      <c r="HV20" t="n">
+        <v>11</v>
+      </c>
+      <c r="HW20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21" ht="13.9" customHeight="1" s="1">
       <c r="A21" t="inlineStr">
@@ -14934,6 +14986,12 @@
       <c r="HU21" t="n">
         <v>12</v>
       </c>
+      <c r="HV21" t="n">
+        <v>9</v>
+      </c>
+      <c r="HW21" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" ht="13.9" customHeight="1" s="1">
       <c r="A22" t="inlineStr">
@@ -15625,6 +15683,12 @@
       <c r="HU22" t="n">
         <v>11</v>
       </c>
+      <c r="HV22" t="n">
+        <v>6</v>
+      </c>
+      <c r="HW22" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="23" ht="13.9" customHeight="1" s="1">
       <c r="A23" t="inlineStr">
@@ -16316,6 +16380,12 @@
       <c r="HU23" t="n">
         <v>2</v>
       </c>
+      <c r="HV23" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" ht="13.9" customHeight="1" s="1">
       <c r="A24" t="inlineStr">
@@ -17007,6 +17077,12 @@
       <c r="HU24" t="n">
         <v>28</v>
       </c>
+      <c r="HV24" t="n">
+        <v>18</v>
+      </c>
+      <c r="HW24" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="25" ht="13.9" customHeight="1" s="1">
       <c r="A25" t="inlineStr">
@@ -17698,6 +17774,12 @@
       <c r="HU25" t="n">
         <v>53.6</v>
       </c>
+      <c r="HV25" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="HW25" t="n">
+        <v>46.4</v>
+      </c>
     </row>
     <row r="26" ht="13.9" customHeight="1" s="1">
       <c r="A26" t="inlineStr">
@@ -18389,6 +18471,12 @@
       <c r="HU26" t="n">
         <v>23.53</v>
       </c>
+      <c r="HV26" t="n">
+        <v>34.64</v>
+      </c>
+      <c r="HW26" t="n">
+        <v>27.62</v>
+      </c>
     </row>
     <row r="27" ht="13.9" customHeight="1" s="1">
       <c r="A27" t="inlineStr">
@@ -19080,6 +19168,12 @@
       <c r="HU27" t="n">
         <v>12.61</v>
       </c>
+      <c r="HV27" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="HW27" t="n">
+        <v>12.82</v>
+      </c>
     </row>
     <row r="28" ht="13.9" customHeight="1" s="1">
       <c r="A28" t="inlineStr">
@@ -19771,6 +19865,12 @@
       <c r="HU28" t="n">
         <v>44</v>
       </c>
+      <c r="HV28" t="n">
+        <v>30</v>
+      </c>
+      <c r="HW28" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="29" ht="13.9" customHeight="1" s="1">
       <c r="A29" t="inlineStr">
@@ -20462,6 +20562,12 @@
       <c r="HU29" t="n">
         <v>65</v>
       </c>
+      <c r="HV29" t="n">
+        <v>56</v>
+      </c>
+      <c r="HW29" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="30" ht="13.9" customHeight="1" s="1">
       <c r="A30" t="inlineStr">
@@ -21153,6 +21259,12 @@
       <c r="HU30" t="n">
         <v>45</v>
       </c>
+      <c r="HV30" t="n">
+        <v>41</v>
+      </c>
+      <c r="HW30" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="31" ht="13.9" customHeight="1" s="1">
       <c r="A31" t="inlineStr">
@@ -21844,6 +21956,12 @@
       <c r="HU31" t="n">
         <v>61</v>
       </c>
+      <c r="HV31" t="n">
+        <v>58</v>
+      </c>
+      <c r="HW31" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="32" ht="13.9" customHeight="1" s="1">
       <c r="A32" t="inlineStr">
@@ -22535,6 +22653,12 @@
       <c r="HU32" t="n">
         <v>2.18</v>
       </c>
+      <c r="HV32" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="HW32" t="n">
+        <v>1.96</v>
+      </c>
     </row>
     <row r="33" ht="13.9" customHeight="1" s="1">
       <c r="A33" t="inlineStr">
@@ -23226,6 +23350,12 @@
       <c r="HU33" t="n">
         <v>4.07</v>
       </c>
+      <c r="HV33" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="HW33" t="n">
+        <v>4.23</v>
+      </c>
     </row>
     <row r="34" ht="13.9" customHeight="1" s="1">
       <c r="A34" t="inlineStr">
@@ -23917,6 +24047,12 @@
       <c r="HU34" t="n">
         <v>42.6</v>
       </c>
+      <c r="HV34" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="HW34" t="n">
+        <v>45.5</v>
+      </c>
     </row>
     <row r="35" ht="13.9" customHeight="1" s="1">
       <c r="A35" t="inlineStr">
@@ -24608,6 +24744,12 @@
       <c r="HU35" t="n">
         <v>24.6</v>
       </c>
+      <c r="HV35" t="n">
+        <v>19</v>
+      </c>
+      <c r="HW35" t="n">
+        <v>23.6</v>
+      </c>
     </row>
     <row r="36" ht="13.9" customHeight="1" s="1">
       <c r="A36" t="inlineStr">
@@ -25299,6 +25441,12 @@
       <c r="HU36" t="n">
         <v>188.2</v>
       </c>
+      <c r="HV36" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="HW36" t="n">
+        <v>188.5</v>
+      </c>
     </row>
     <row r="37" ht="13.9" customHeight="1" s="1">
       <c r="A37" t="inlineStr">
@@ -25990,6 +26138,12 @@
       <c r="HU37" t="n">
         <v>87.2</v>
       </c>
+      <c r="HV37" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="HW37" t="n">
+        <v>87.5</v>
+      </c>
     </row>
     <row r="38" ht="13.9" customHeight="1" s="1">
       <c r="A38" t="inlineStr">
@@ -26681,6 +26835,12 @@
       <c r="HU38" t="n">
         <v>26.8</v>
       </c>
+      <c r="HV38" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="HW38" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="39" ht="13.9" customHeight="1" s="1">
       <c r="A39" t="inlineStr">
@@ -27372,6 +27532,12 @@
       <c r="HU39" t="n">
         <v>109.8</v>
       </c>
+      <c r="HV39" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="HW39" t="n">
+        <v>103.3</v>
+      </c>
     </row>
     <row r="40" ht="13.9" customHeight="1" s="1">
       <c r="A40" t="inlineStr">
@@ -28063,6 +28229,12 @@
       <c r="HU40" t="n">
         <v>5</v>
       </c>
+      <c r="HV40" t="n">
+        <v>8</v>
+      </c>
+      <c r="HW40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" ht="13.9" customHeight="1" s="1">
       <c r="A41" t="inlineStr">
@@ -28754,6 +28926,12 @@
       <c r="HU41" t="n">
         <v>5</v>
       </c>
+      <c r="HV41" t="n">
+        <v>4</v>
+      </c>
+      <c r="HW41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42" ht="13.9" customHeight="1" s="1">
       <c r="A42" t="inlineStr">
@@ -29445,6 +29623,12 @@
       <c r="HU42" t="n">
         <v>8</v>
       </c>
+      <c r="HV42" t="n">
+        <v>5</v>
+      </c>
+      <c r="HW42" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="43" ht="13.9" customHeight="1" s="1">
       <c r="A43" t="inlineStr">
@@ -30136,6 +30320,12 @@
       <c r="HU43" t="n">
         <v>5</v>
       </c>
+      <c r="HV43" t="n">
+        <v>5</v>
+      </c>
+      <c r="HW43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44" ht="13.9" customHeight="1" s="1">
       <c r="A44" t="inlineStr">
@@ -30827,6 +31017,12 @@
       <c r="HU44" t="n">
         <v>160</v>
       </c>
+      <c r="HV44" t="n">
+        <v>140</v>
+      </c>
+      <c r="HW44" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="45" ht="13.9" customHeight="1" s="1">
       <c r="A45" t="inlineStr">
@@ -31518,6 +31714,12 @@
       <c r="HU45" t="n">
         <v>197</v>
       </c>
+      <c r="HV45" t="n">
+        <v>241</v>
+      </c>
+      <c r="HW45" t="n">
+        <v>194</v>
+      </c>
     </row>
     <row r="46" ht="13.9" customHeight="1" s="1">
       <c r="A46" t="inlineStr">
@@ -32209,6 +32411,12 @@
       <c r="HU46" t="n">
         <v>253</v>
       </c>
+      <c r="HV46" t="n">
+        <v>286</v>
+      </c>
+      <c r="HW46" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="47" ht="13.9" customHeight="1" s="1">
       <c r="A47" t="inlineStr">
@@ -32900,6 +33108,12 @@
       <c r="HU47" t="n">
         <v>71.7</v>
       </c>
+      <c r="HV47" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="HW47" t="n">
+        <v>66.3</v>
+      </c>
     </row>
     <row r="48" ht="13.9" customHeight="1" s="1">
       <c r="A48" t="inlineStr">
@@ -33591,6 +33805,12 @@
       <c r="HU48" t="n">
         <v>65</v>
       </c>
+      <c r="HV48" t="n">
+        <v>56</v>
+      </c>
+      <c r="HW48" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="49" ht="13.9" customHeight="1" s="1">
       <c r="A49" t="inlineStr">
@@ -34282,6 +34502,12 @@
       <c r="HU49" t="n">
         <v>8</v>
       </c>
+      <c r="HV49" t="n">
+        <v>12</v>
+      </c>
+      <c r="HW49" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="50" ht="13.9" customHeight="1" s="1">
       <c r="A50" t="inlineStr">
@@ -34973,6 +35199,12 @@
       <c r="HU50" t="n">
         <v>10</v>
       </c>
+      <c r="HV50" t="n">
+        <v>11</v>
+      </c>
+      <c r="HW50" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="51" ht="13.9" customHeight="1" s="1">
       <c r="A51" t="inlineStr">
@@ -35664,6 +35896,12 @@
       <c r="HU51" t="n">
         <v>44</v>
       </c>
+      <c r="HV51" t="n">
+        <v>30</v>
+      </c>
+      <c r="HW51" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="52" ht="13.9" customHeight="1" s="1">
       <c r="A52" t="inlineStr">
@@ -36355,6 +36593,12 @@
       <c r="HU52" t="n">
         <v>45</v>
       </c>
+      <c r="HV52" t="n">
+        <v>41</v>
+      </c>
+      <c r="HW52" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="53" ht="13.9" customHeight="1" s="1">
       <c r="A53" t="inlineStr">
@@ -37046,6 +37290,12 @@
       <c r="HU53" t="n">
         <v>48</v>
       </c>
+      <c r="HV53" t="n">
+        <v>48</v>
+      </c>
+      <c r="HW53" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="54" ht="13.9" customHeight="1" s="1">
       <c r="A54" t="inlineStr">
@@ -37737,6 +37987,12 @@
       <c r="HU54" t="n">
         <v>1</v>
       </c>
+      <c r="HV54" t="n">
+        <v>2</v>
+      </c>
+      <c r="HW54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" ht="13.9" customHeight="1" s="1">
       <c r="A55" t="inlineStr">
@@ -38428,6 +38684,12 @@
       <c r="HU55" t="n">
         <v>12</v>
       </c>
+      <c r="HV55" t="n">
+        <v>9</v>
+      </c>
+      <c r="HW55" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="56" ht="13.9" customHeight="1" s="1">
       <c r="A56" t="inlineStr">
@@ -39119,6 +39381,12 @@
       <c r="HU56" t="n">
         <v>80</v>
       </c>
+      <c r="HV56" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="HW56" t="n">
+        <v>76.90000000000001</v>
+      </c>
     </row>
     <row r="57" ht="13.9" customHeight="1" s="1">
       <c r="A57" t="inlineStr">
@@ -39810,6 +40078,12 @@
       <c r="HU57" t="n">
         <v>223</v>
       </c>
+      <c r="HV57" t="n">
+        <v>242</v>
+      </c>
+      <c r="HW57" t="n">
+        <v>204</v>
+      </c>
     </row>
     <row r="58" ht="13.9" customHeight="1" s="1">
       <c r="A58" t="inlineStr">
@@ -40501,6 +40775,12 @@
       <c r="HU58" t="n">
         <v>133</v>
       </c>
+      <c r="HV58" t="n">
+        <v>156</v>
+      </c>
+      <c r="HW58" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="59" ht="13.9" customHeight="1" s="1">
       <c r="A59" t="inlineStr">
@@ -41192,6 +41472,12 @@
       <c r="HU59" t="n">
         <v>356</v>
       </c>
+      <c r="HV59" t="n">
+        <v>398</v>
+      </c>
+      <c r="HW59" t="n">
+        <v>362</v>
+      </c>
     </row>
     <row r="60" ht="13.9" customHeight="1" s="1">
       <c r="A60" t="inlineStr">
@@ -41883,6 +42169,12 @@
       <c r="HU60" t="n">
         <v>1.68</v>
       </c>
+      <c r="HV60" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="HW60" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="61" ht="13.9" customHeight="1" s="1">
       <c r="A61" t="inlineStr">
@@ -42574,6 +42866,12 @@
       <c r="HU61" t="n">
         <v>90</v>
       </c>
+      <c r="HV61" t="n">
+        <v>108</v>
+      </c>
+      <c r="HW61" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="62" ht="13.9" customHeight="1" s="1">
       <c r="A62" t="inlineStr">
@@ -43265,6 +43563,12 @@
       <c r="HU62" t="n">
         <v>64</v>
       </c>
+      <c r="HV62" t="n">
+        <v>56</v>
+      </c>
+      <c r="HW62" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="63" ht="13.9" customHeight="1" s="1">
       <c r="A63" t="inlineStr">
@@ -43956,6 +44260,12 @@
       <c r="HU63" t="n">
         <v>47</v>
       </c>
+      <c r="HV63" t="n">
+        <v>63</v>
+      </c>
+      <c r="HW63" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="64" ht="13.9" customHeight="1" s="1">
       <c r="A64" t="inlineStr">
@@ -44647,6 +44957,12 @@
       <c r="HU64" t="n">
         <v>25</v>
       </c>
+      <c r="HV64" t="n">
+        <v>17</v>
+      </c>
+      <c r="HW64" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="65" ht="13.9" customHeight="1" s="1">
       <c r="A65" t="inlineStr">
@@ -45338,6 +45654,12 @@
       <c r="HU65" t="n">
         <v>20</v>
       </c>
+      <c r="HV65" t="n">
+        <v>17</v>
+      </c>
+      <c r="HW65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66" ht="13.9" customHeight="1" s="1">
       <c r="A66" t="inlineStr">
@@ -46029,6 +46351,12 @@
       <c r="HU66" t="n">
         <v>12</v>
       </c>
+      <c r="HV66" t="n">
+        <v>11</v>
+      </c>
+      <c r="HW66" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="67" ht="13.9" customHeight="1" s="1">
       <c r="A67" t="inlineStr">
@@ -46720,6 +47048,12 @@
       <c r="HU67" t="n">
         <v>12</v>
       </c>
+      <c r="HV67" t="n">
+        <v>7</v>
+      </c>
+      <c r="HW67" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="68" ht="13.9" customHeight="1" s="1">
       <c r="A68" t="inlineStr">
@@ -47411,6 +47745,12 @@
       <c r="HU68" t="n">
         <v>12</v>
       </c>
+      <c r="HV68" t="n">
+        <v>5</v>
+      </c>
+      <c r="HW68" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="69" ht="13.9" customHeight="1" s="1">
       <c r="A69" t="inlineStr">
@@ -48102,6 +48442,12 @@
       <c r="HU69" t="n">
         <v>1</v>
       </c>
+      <c r="HV69" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" ht="13.9" customHeight="1" s="1">
       <c r="A70" t="inlineStr">
@@ -48793,6 +49139,12 @@
       <c r="HU70" t="n">
         <v>25</v>
       </c>
+      <c r="HV70" t="n">
+        <v>17</v>
+      </c>
+      <c r="HW70" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="71" ht="13.9" customHeight="1" s="1">
       <c r="A71" t="inlineStr">
@@ -49484,6 +49836,12 @@
       <c r="HU71" t="n">
         <v>48</v>
       </c>
+      <c r="HV71" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="HW71" t="n">
+        <v>26.3</v>
+      </c>
     </row>
     <row r="72" ht="13.9" customHeight="1" s="1">
       <c r="A72" t="inlineStr">
@@ -50175,6 +50533,12 @@
       <c r="HU72" t="n">
         <v>29.67</v>
       </c>
+      <c r="HV72" t="n">
+        <v>36.18</v>
+      </c>
+      <c r="HW72" t="n">
+        <v>72.40000000000001</v>
+      </c>
     </row>
     <row r="73" ht="13.9" customHeight="1" s="1">
       <c r="A73" t="inlineStr">
@@ -50866,6 +51230,12 @@
       <c r="HU73" t="n">
         <v>14.24</v>
       </c>
+      <c r="HV73" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="HW73" t="n">
+        <v>19.05</v>
+      </c>
     </row>
     <row r="74" ht="13.9" customHeight="1" s="1">
       <c r="A74" t="inlineStr">
@@ -51557,6 +51927,12 @@
       <c r="HU74" t="n">
         <v>43</v>
       </c>
+      <c r="HV74" t="n">
+        <v>35</v>
+      </c>
+      <c r="HW74" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="75" ht="13.9" customHeight="1" s="1">
       <c r="A75" t="inlineStr">
@@ -52248,6 +52624,12 @@
       <c r="HU75" t="n">
         <v>67</v>
       </c>
+      <c r="HV75" t="n">
+        <v>61</v>
+      </c>
+      <c r="HW75" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="76" ht="13.9" customHeight="1" s="1">
       <c r="A76" t="inlineStr">
@@ -52939,6 +53321,12 @@
       <c r="HU76" t="n">
         <v>44</v>
       </c>
+      <c r="HV76" t="n">
+        <v>47</v>
+      </c>
+      <c r="HW76" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="77" ht="13.9" customHeight="1" s="1">
       <c r="A77" t="inlineStr">
@@ -53630,6 +54018,12 @@
       <c r="HU77" t="n">
         <v>58</v>
       </c>
+      <c r="HV77" t="n">
+        <v>53</v>
+      </c>
+      <c r="HW77" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="78" ht="13.9" customHeight="1" s="1">
       <c r="A78" t="inlineStr">
@@ -54321,6 +54715,12 @@
       <c r="HU78" t="n">
         <v>2.32</v>
       </c>
+      <c r="HV78" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="HW78" t="n">
+        <v>3.05</v>
+      </c>
     </row>
     <row r="79" ht="13.9" customHeight="1" s="1">
       <c r="A79" t="inlineStr">
@@ -55012,6 +55412,12 @@
       <c r="HU79" t="n">
         <v>4.83</v>
       </c>
+      <c r="HV79" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="HW79" t="n">
+        <v>11.6</v>
+      </c>
     </row>
     <row r="80" ht="13.9" customHeight="1" s="1">
       <c r="A80" t="inlineStr">
@@ -55703,6 +56109,12 @@
       <c r="HU80" t="n">
         <v>41.4</v>
       </c>
+      <c r="HV80" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="HW80" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="81" ht="13.9" customHeight="1" s="1">
       <c r="A81" t="inlineStr">
@@ -56394,6 +56806,12 @@
       <c r="HU81" t="n">
         <v>20.7</v>
       </c>
+      <c r="HV81" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="HW81" t="n">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="82" ht="13.9" customHeight="1" s="1">
       <c r="A82" t="inlineStr">
@@ -57085,6 +57503,12 @@
       <c r="HU82" t="n">
         <v>187.4</v>
       </c>
+      <c r="HV82" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="HW82" t="n">
+        <v>187.5</v>
+      </c>
     </row>
     <row r="83" ht="13.9" customHeight="1" s="1">
       <c r="A83" t="inlineStr">
@@ -57776,6 +58200,12 @@
       <c r="HU83" t="n">
         <v>86.09999999999999</v>
       </c>
+      <c r="HV83" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="HW83" t="n">
+        <v>83.59999999999999</v>
+      </c>
     </row>
     <row r="84" ht="13.9" customHeight="1" s="1">
       <c r="A84" t="inlineStr">
@@ -58467,6 +58897,12 @@
       <c r="HU84" t="n">
         <v>26.33</v>
       </c>
+      <c r="HV84" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="HW84" t="n">
+        <v>25.49</v>
+      </c>
     </row>
     <row r="85" ht="13.9" customHeight="1" s="1">
       <c r="A85" t="inlineStr">
@@ -59158,6 +59594,12 @@
       <c r="HU85" t="n">
         <v>108.4</v>
       </c>
+      <c r="HV85" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="HW85" t="n">
+        <v>94.2</v>
+      </c>
     </row>
     <row r="86" ht="13.9" customHeight="1" s="1">
       <c r="A86" t="inlineStr">
@@ -59849,6 +60291,12 @@
       <c r="HU86" t="n">
         <v>7</v>
       </c>
+      <c r="HV86" t="n">
+        <v>6</v>
+      </c>
+      <c r="HW86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87" ht="13.9" customHeight="1" s="1">
       <c r="A87" t="inlineStr">
@@ -60540,6 +60988,12 @@
       <c r="HU87" t="n">
         <v>4</v>
       </c>
+      <c r="HV87" t="n">
+        <v>4</v>
+      </c>
+      <c r="HW87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88" ht="13.9" customHeight="1" s="1">
       <c r="A88" t="inlineStr">
@@ -61231,6 +61685,12 @@
       <c r="HU88" t="n">
         <v>7</v>
       </c>
+      <c r="HV88" t="n">
+        <v>4</v>
+      </c>
+      <c r="HW88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89" ht="13.9" customHeight="1" s="1">
       <c r="A89" t="inlineStr">
@@ -61922,6 +62382,12 @@
       <c r="HU89" t="n">
         <v>4</v>
       </c>
+      <c r="HV89" t="n">
+        <v>8</v>
+      </c>
+      <c r="HW89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90" ht="13.9" customHeight="1" s="1">
       <c r="A90" t="inlineStr">
@@ -62613,6 +63079,12 @@
       <c r="HU90" t="n">
         <v>149</v>
       </c>
+      <c r="HV90" t="n">
+        <v>155</v>
+      </c>
+      <c r="HW90" t="n">
+        <v>133</v>
+      </c>
     </row>
     <row r="91" ht="13.9" customHeight="1" s="1">
       <c r="A91" t="inlineStr">
@@ -63304,6 +63776,12 @@
       <c r="HU91" t="n">
         <v>194</v>
       </c>
+      <c r="HV91" t="n">
+        <v>239</v>
+      </c>
+      <c r="HW91" t="n">
+        <v>220</v>
+      </c>
     </row>
     <row r="92" ht="13.9" customHeight="1" s="1">
       <c r="A92" t="inlineStr">
@@ -63995,6 +64473,12 @@
       <c r="HU92" t="n">
         <v>255</v>
       </c>
+      <c r="HV92" t="n">
+        <v>289</v>
+      </c>
+      <c r="HW92" t="n">
+        <v>262</v>
+      </c>
     </row>
     <row r="93" ht="13.9" customHeight="1" s="1">
       <c r="A93" t="inlineStr">
@@ -64686,6 +65170,12 @@
       <c r="HU93" t="n">
         <v>71.59999999999999</v>
       </c>
+      <c r="HV93" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="HW93" t="n">
+        <v>72.40000000000001</v>
+      </c>
     </row>
     <row r="94" ht="13.9" customHeight="1" s="1">
       <c r="A94" t="inlineStr">
@@ -65377,6 +65867,12 @@
       <c r="HU94" t="n">
         <v>67</v>
       </c>
+      <c r="HV94" t="n">
+        <v>61</v>
+      </c>
+      <c r="HW94" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="95" ht="13.9" customHeight="1" s="1">
       <c r="A95" t="inlineStr">
@@ -66068,6 +66564,12 @@
       <c r="HU95" t="n">
         <v>19</v>
       </c>
+      <c r="HV95" t="n">
+        <v>12</v>
+      </c>
+      <c r="HW95" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="96" ht="13.9" customHeight="1" s="1">
       <c r="A96" t="inlineStr">
@@ -66759,6 +67261,12 @@
       <c r="HU96" t="n">
         <v>12</v>
       </c>
+      <c r="HV96" t="n">
+        <v>7</v>
+      </c>
+      <c r="HW96" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="97" ht="13.9" customHeight="1" s="1">
       <c r="A97" t="inlineStr">
@@ -67450,6 +67958,12 @@
       <c r="HU97" t="n">
         <v>43</v>
       </c>
+      <c r="HV97" t="n">
+        <v>35</v>
+      </c>
+      <c r="HW97" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="98" ht="13.9" customHeight="1" s="1">
       <c r="A98" t="inlineStr">
@@ -68141,6 +68655,12 @@
       <c r="HU98" t="n">
         <v>44</v>
       </c>
+      <c r="HV98" t="n">
+        <v>47</v>
+      </c>
+      <c r="HW98" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="99" ht="13.9" customHeight="1" s="1">
       <c r="A99" t="inlineStr">
@@ -68832,6 +69352,12 @@
       <c r="HU99" t="n">
         <v>53</v>
       </c>
+      <c r="HV99" t="n">
+        <v>38</v>
+      </c>
+      <c r="HW99" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="100" ht="13.9" customHeight="1" s="1">
       <c r="A100" t="inlineStr">
@@ -69523,6 +70049,12 @@
       <c r="HU100" t="n">
         <v>9</v>
       </c>
+      <c r="HV100" t="n">
+        <v>6</v>
+      </c>
+      <c r="HW100" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="101" ht="13.9" customHeight="1" s="1">
       <c r="A101" t="inlineStr">
@@ -70214,6 +70746,12 @@
       <c r="HU101" t="n">
         <v>12</v>
       </c>
+      <c r="HV101" t="n">
+        <v>7</v>
+      </c>
+      <c r="HW101" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="102" ht="13.9" customHeight="1" s="1">
       <c r="A102" t="inlineStr">
@@ -70905,6 +71443,12 @@
       <c r="HU102" t="n">
         <v>100</v>
       </c>
+      <c r="HV102" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="HW102" t="n">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/django_AFL_ML/Data/Brisbane_stats.xlsx
+++ b/django_AFL_ML/Data/Brisbane_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HW102"/>
+  <dimension ref="A1:HY102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="GU76" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="HO90" sqref="HO90"/>
@@ -1052,6 +1052,12 @@
       <c r="HW1" t="n">
         <v>10381</v>
       </c>
+      <c r="HX1" t="n">
+        <v>10525</v>
+      </c>
+      <c r="HY1" t="n">
+        <v>10527</v>
+      </c>
     </row>
     <row r="2" ht="13.9" customHeight="1" s="1">
       <c r="A2" t="inlineStr">
@@ -1749,6 +1755,12 @@
       <c r="HW2" t="n">
         <v>2021</v>
       </c>
+      <c r="HX2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3" ht="13.9" customHeight="1" s="1">
       <c r="A3" t="inlineStr">
@@ -2446,6 +2458,12 @@
       <c r="HW3" t="n">
         <v>7</v>
       </c>
+      <c r="HX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" ht="13.9" customHeight="1" s="1">
       <c r="A4" t="inlineStr">
@@ -3143,6 +3161,12 @@
       <c r="HW4" t="n">
         <v>0</v>
       </c>
+      <c r="HX4" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" ht="13.9" customHeight="1" s="1">
       <c r="A5" t="inlineStr">
@@ -3840,6 +3864,12 @@
       <c r="HW5" t="n">
         <v>0</v>
       </c>
+      <c r="HX5" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" ht="13.9" customHeight="1" s="1">
       <c r="A6" t="inlineStr">
@@ -4537,6 +4567,12 @@
       <c r="HW6" t="n">
         <v>93</v>
       </c>
+      <c r="HX6" t="n">
+        <v>73</v>
+      </c>
+      <c r="HY6" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="7" ht="13.9" customHeight="1" s="1">
       <c r="A7" t="inlineStr">
@@ -5234,6 +5270,12 @@
       <c r="HW7" t="n">
         <v>44</v>
       </c>
+      <c r="HX7" t="n">
+        <v>72</v>
+      </c>
+      <c r="HY7" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="8" ht="13.9" customHeight="1" s="1">
       <c r="A8" t="inlineStr">
@@ -5931,6 +5973,12 @@
       <c r="HW8" t="n">
         <v>49</v>
       </c>
+      <c r="HX8" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY8" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" s="1">
       <c r="A9" t="inlineStr">
@@ -6628,6 +6676,12 @@
       <c r="HW9" t="n">
         <v>1</v>
       </c>
+      <c r="HX9" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" ht="13.9" customHeight="1" s="1">
       <c r="A10" t="inlineStr">
@@ -7325,6 +7379,12 @@
       <c r="HW10" t="n">
         <v>13</v>
       </c>
+      <c r="HX10" t="n">
+        <v>4</v>
+      </c>
+      <c r="HY10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" ht="13.9" customHeight="1" s="1">
       <c r="A11" t="inlineStr">
@@ -8022,6 +8082,12 @@
       <c r="HW11" t="n">
         <v>234</v>
       </c>
+      <c r="HX11" t="n">
+        <v>258</v>
+      </c>
+      <c r="HY11" t="n">
+        <v>243</v>
+      </c>
     </row>
     <row r="12" ht="13.9" customHeight="1" s="1">
       <c r="A12" t="inlineStr">
@@ -8719,6 +8785,12 @@
       <c r="HW12" t="n">
         <v>125</v>
       </c>
+      <c r="HX12" t="n">
+        <v>123</v>
+      </c>
+      <c r="HY12" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="13" ht="13.9" customHeight="1" s="1">
       <c r="A13" t="inlineStr">
@@ -9416,6 +9488,12 @@
       <c r="HW13" t="n">
         <v>359</v>
       </c>
+      <c r="HX13" t="n">
+        <v>381</v>
+      </c>
+      <c r="HY13" t="n">
+        <v>360</v>
+      </c>
     </row>
     <row r="14" ht="13.9" customHeight="1" s="1">
       <c r="A14" t="inlineStr">
@@ -10113,6 +10191,12 @@
       <c r="HW14" t="n">
         <v>1.87</v>
       </c>
+      <c r="HX14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="HY14" t="n">
+        <v>2.08</v>
+      </c>
     </row>
     <row r="15" ht="13.9" customHeight="1" s="1">
       <c r="A15" t="inlineStr">
@@ -10810,6 +10894,12 @@
       <c r="HW15" t="n">
         <v>93</v>
       </c>
+      <c r="HX15" t="n">
+        <v>131</v>
+      </c>
+      <c r="HY15" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="16" ht="13.9" customHeight="1" s="1">
       <c r="A16" t="inlineStr">
@@ -11507,6 +11597,12 @@
       <c r="HW16" t="n">
         <v>56</v>
       </c>
+      <c r="HX16" t="n">
+        <v>70</v>
+      </c>
+      <c r="HY16" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="17" ht="13.9" customHeight="1" s="1">
       <c r="A17" t="inlineStr">
@@ -12204,6 +12300,12 @@
       <c r="HW17" t="n">
         <v>24</v>
       </c>
+      <c r="HX17" t="n">
+        <v>4</v>
+      </c>
+      <c r="HY17" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="18" ht="13.9" customHeight="1" s="1">
       <c r="A18" t="inlineStr">
@@ -12901,6 +13003,12 @@
       <c r="HW18" t="n">
         <v>18</v>
       </c>
+      <c r="HX18" t="n">
+        <v>17</v>
+      </c>
+      <c r="HY18" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="19" ht="13.9" customHeight="1" s="1">
       <c r="A19" t="inlineStr">
@@ -13598,6 +13706,12 @@
       <c r="HW19" t="n">
         <v>22</v>
       </c>
+      <c r="HX19" t="n">
+        <v>17</v>
+      </c>
+      <c r="HY19" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="20" ht="13.9" customHeight="1" s="1">
       <c r="A20" t="inlineStr">
@@ -14295,6 +14409,12 @@
       <c r="HW20" t="n">
         <v>13</v>
       </c>
+      <c r="HX20" t="n">
+        <v>11</v>
+      </c>
+      <c r="HY20" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" ht="13.9" customHeight="1" s="1">
       <c r="A21" t="inlineStr">
@@ -14992,6 +15112,12 @@
       <c r="HW21" t="n">
         <v>10</v>
       </c>
+      <c r="HX21" t="n">
+        <v>9</v>
+      </c>
+      <c r="HY21" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="22" ht="13.9" customHeight="1" s="1">
       <c r="A22" t="inlineStr">
@@ -15689,6 +15815,12 @@
       <c r="HW22" t="n">
         <v>12</v>
       </c>
+      <c r="HX22" t="n">
+        <v>6</v>
+      </c>
+      <c r="HY22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" ht="13.9" customHeight="1" s="1">
       <c r="A23" t="inlineStr">
@@ -16386,6 +16518,12 @@
       <c r="HW23" t="n">
         <v>3</v>
       </c>
+      <c r="HX23" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" ht="13.9" customHeight="1" s="1">
       <c r="A24" t="inlineStr">
@@ -17083,6 +17221,12 @@
       <c r="HW24" t="n">
         <v>28</v>
       </c>
+      <c r="HX24" t="n">
+        <v>18</v>
+      </c>
+      <c r="HY24" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="25" ht="13.9" customHeight="1" s="1">
       <c r="A25" t="inlineStr">
@@ -17780,6 +17924,12 @@
       <c r="HW25" t="n">
         <v>46.4</v>
       </c>
+      <c r="HX25" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="HY25" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="26" ht="13.9" customHeight="1" s="1">
       <c r="A26" t="inlineStr">
@@ -18477,6 +18627,12 @@
       <c r="HW26" t="n">
         <v>27.62</v>
       </c>
+      <c r="HX26" t="n">
+        <v>34.64</v>
+      </c>
+      <c r="HY26" t="n">
+        <v>25.71</v>
+      </c>
     </row>
     <row r="27" ht="13.9" customHeight="1" s="1">
       <c r="A27" t="inlineStr">
@@ -19174,6 +19330,12 @@
       <c r="HW27" t="n">
         <v>12.82</v>
       </c>
+      <c r="HX27" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="HY27" t="n">
+        <v>14.4</v>
+      </c>
     </row>
     <row r="28" ht="13.9" customHeight="1" s="1">
       <c r="A28" t="inlineStr">
@@ -19871,6 +20033,12 @@
       <c r="HW28" t="n">
         <v>32</v>
       </c>
+      <c r="HX28" t="n">
+        <v>30</v>
+      </c>
+      <c r="HY28" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="29" ht="13.9" customHeight="1" s="1">
       <c r="A29" t="inlineStr">
@@ -20568,6 +20736,12 @@
       <c r="HW29" t="n">
         <v>63</v>
       </c>
+      <c r="HX29" t="n">
+        <v>56</v>
+      </c>
+      <c r="HY29" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="30" ht="13.9" customHeight="1" s="1">
       <c r="A30" t="inlineStr">
@@ -21265,6 +21439,12 @@
       <c r="HW30" t="n">
         <v>50</v>
       </c>
+      <c r="HX30" t="n">
+        <v>41</v>
+      </c>
+      <c r="HY30" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="31" ht="13.9" customHeight="1" s="1">
       <c r="A31" t="inlineStr">
@@ -21962,6 +22142,12 @@
       <c r="HW31" t="n">
         <v>55</v>
       </c>
+      <c r="HX31" t="n">
+        <v>58</v>
+      </c>
+      <c r="HY31" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="32" ht="13.9" customHeight="1" s="1">
       <c r="A32" t="inlineStr">
@@ -22659,6 +22845,12 @@
       <c r="HW32" t="n">
         <v>1.96</v>
       </c>
+      <c r="HX32" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="HY32" t="n">
+        <v>1.96</v>
+      </c>
     </row>
     <row r="33" ht="13.9" customHeight="1" s="1">
       <c r="A33" t="inlineStr">
@@ -23356,6 +23548,12 @@
       <c r="HW33" t="n">
         <v>4.23</v>
       </c>
+      <c r="HX33" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="HY33" t="n">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="34" ht="13.9" customHeight="1" s="1">
       <c r="A34" t="inlineStr">
@@ -24053,6 +24251,12 @@
       <c r="HW34" t="n">
         <v>45.5</v>
       </c>
+      <c r="HX34" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="HY34" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="35" ht="13.9" customHeight="1" s="1">
       <c r="A35" t="inlineStr">
@@ -24750,6 +24954,12 @@
       <c r="HW35" t="n">
         <v>23.6</v>
       </c>
+      <c r="HX35" t="n">
+        <v>19</v>
+      </c>
+      <c r="HY35" t="n">
+        <v>28.6</v>
+      </c>
     </row>
     <row r="36" ht="13.9" customHeight="1" s="1">
       <c r="A36" t="inlineStr">
@@ -25447,6 +25657,12 @@
       <c r="HW36" t="n">
         <v>188.5</v>
       </c>
+      <c r="HX36" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="HY36" t="n">
+        <v>188.9</v>
+      </c>
     </row>
     <row r="37" ht="13.9" customHeight="1" s="1">
       <c r="A37" t="inlineStr">
@@ -26144,6 +26360,12 @@
       <c r="HW37" t="n">
         <v>87.5</v>
       </c>
+      <c r="HX37" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="HY37" t="n">
+        <v>87.8</v>
+      </c>
     </row>
     <row r="38" ht="13.9" customHeight="1" s="1">
       <c r="A38" t="inlineStr">
@@ -26841,6 +27063,12 @@
       <c r="HW38" t="n">
         <v>26</v>
       </c>
+      <c r="HX38" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="HY38" t="n">
+        <v>26.16</v>
+      </c>
     </row>
     <row r="39" ht="13.9" customHeight="1" s="1">
       <c r="A39" t="inlineStr">
@@ -27538,6 +27766,12 @@
       <c r="HW39" t="n">
         <v>103.3</v>
       </c>
+      <c r="HX39" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="HY39" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="40" ht="13.9" customHeight="1" s="1">
       <c r="A40" t="inlineStr">
@@ -28235,6 +28469,12 @@
       <c r="HW40" t="n">
         <v>6</v>
       </c>
+      <c r="HX40" t="n">
+        <v>8</v>
+      </c>
+      <c r="HY40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" ht="13.9" customHeight="1" s="1">
       <c r="A41" t="inlineStr">
@@ -28932,6 +29172,12 @@
       <c r="HW41" t="n">
         <v>5</v>
       </c>
+      <c r="HX41" t="n">
+        <v>4</v>
+      </c>
+      <c r="HY41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42" ht="13.9" customHeight="1" s="1">
       <c r="A42" t="inlineStr">
@@ -29629,6 +29875,12 @@
       <c r="HW42" t="n">
         <v>7</v>
       </c>
+      <c r="HX42" t="n">
+        <v>5</v>
+      </c>
+      <c r="HY42" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="43" ht="13.9" customHeight="1" s="1">
       <c r="A43" t="inlineStr">
@@ -30326,6 +30578,12 @@
       <c r="HW43" t="n">
         <v>4</v>
       </c>
+      <c r="HX43" t="n">
+        <v>5</v>
+      </c>
+      <c r="HY43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44" ht="13.9" customHeight="1" s="1">
       <c r="A44" t="inlineStr">
@@ -31023,6 +31281,12 @@
       <c r="HW44" t="n">
         <v>154</v>
       </c>
+      <c r="HX44" t="n">
+        <v>140</v>
+      </c>
+      <c r="HY44" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="45" ht="13.9" customHeight="1" s="1">
       <c r="A45" t="inlineStr">
@@ -31720,6 +31984,12 @@
       <c r="HW45" t="n">
         <v>194</v>
       </c>
+      <c r="HX45" t="n">
+        <v>241</v>
+      </c>
+      <c r="HY45" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="46" ht="13.9" customHeight="1" s="1">
       <c r="A46" t="inlineStr">
@@ -32417,6 +32687,12 @@
       <c r="HW46" t="n">
         <v>238</v>
       </c>
+      <c r="HX46" t="n">
+        <v>286</v>
+      </c>
+      <c r="HY46" t="n">
+        <v>262</v>
+      </c>
     </row>
     <row r="47" ht="13.9" customHeight="1" s="1">
       <c r="A47" t="inlineStr">
@@ -33114,6 +33390,12 @@
       <c r="HW47" t="n">
         <v>66.3</v>
       </c>
+      <c r="HX47" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="HY47" t="n">
+        <v>72.8</v>
+      </c>
     </row>
     <row r="48" ht="13.9" customHeight="1" s="1">
       <c r="A48" t="inlineStr">
@@ -33811,6 +34093,12 @@
       <c r="HW48" t="n">
         <v>63</v>
       </c>
+      <c r="HX48" t="n">
+        <v>56</v>
+      </c>
+      <c r="HY48" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="49" ht="13.9" customHeight="1" s="1">
       <c r="A49" t="inlineStr">
@@ -34508,6 +34796,12 @@
       <c r="HW49" t="n">
         <v>10</v>
       </c>
+      <c r="HX49" t="n">
+        <v>12</v>
+      </c>
+      <c r="HY49" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="50" ht="13.9" customHeight="1" s="1">
       <c r="A50" t="inlineStr">
@@ -35205,6 +35499,12 @@
       <c r="HW50" t="n">
         <v>14</v>
       </c>
+      <c r="HX50" t="n">
+        <v>11</v>
+      </c>
+      <c r="HY50" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="51" ht="13.9" customHeight="1" s="1">
       <c r="A51" t="inlineStr">
@@ -35902,6 +36202,12 @@
       <c r="HW51" t="n">
         <v>32</v>
       </c>
+      <c r="HX51" t="n">
+        <v>30</v>
+      </c>
+      <c r="HY51" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="52" ht="13.9" customHeight="1" s="1">
       <c r="A52" t="inlineStr">
@@ -36599,6 +36905,12 @@
       <c r="HW52" t="n">
         <v>50</v>
       </c>
+      <c r="HX52" t="n">
+        <v>41</v>
+      </c>
+      <c r="HY52" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="53" ht="13.9" customHeight="1" s="1">
       <c r="A53" t="inlineStr">
@@ -37296,6 +37608,12 @@
       <c r="HW53" t="n">
         <v>56</v>
       </c>
+      <c r="HX53" t="n">
+        <v>48</v>
+      </c>
+      <c r="HY53" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="54" ht="13.9" customHeight="1" s="1">
       <c r="A54" t="inlineStr">
@@ -37993,6 +38311,12 @@
       <c r="HW54" t="n">
         <v>3</v>
       </c>
+      <c r="HX54" t="n">
+        <v>2</v>
+      </c>
+      <c r="HY54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" ht="13.9" customHeight="1" s="1">
       <c r="A55" t="inlineStr">
@@ -38690,6 +39014,12 @@
       <c r="HW55" t="n">
         <v>10</v>
       </c>
+      <c r="HX55" t="n">
+        <v>9</v>
+      </c>
+      <c r="HY55" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="56" ht="13.9" customHeight="1" s="1">
       <c r="A56" t="inlineStr">
@@ -39387,6 +39717,12 @@
       <c r="HW56" t="n">
         <v>76.90000000000001</v>
       </c>
+      <c r="HX56" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="HY56" t="n">
+        <v>85.7</v>
+      </c>
     </row>
     <row r="57" ht="13.9" customHeight="1" s="1">
       <c r="A57" t="inlineStr">
@@ -40084,6 +40420,12 @@
       <c r="HW57" t="n">
         <v>204</v>
       </c>
+      <c r="HX57" t="n">
+        <v>242</v>
+      </c>
+      <c r="HY57" t="n">
+        <v>184</v>
+      </c>
     </row>
     <row r="58" ht="13.9" customHeight="1" s="1">
       <c r="A58" t="inlineStr">
@@ -40781,6 +41123,12 @@
       <c r="HW58" t="n">
         <v>158</v>
       </c>
+      <c r="HX58" t="n">
+        <v>156</v>
+      </c>
+      <c r="HY58" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="59" ht="13.9" customHeight="1" s="1">
       <c r="A59" t="inlineStr">
@@ -41478,6 +41826,12 @@
       <c r="HW59" t="n">
         <v>362</v>
       </c>
+      <c r="HX59" t="n">
+        <v>398</v>
+      </c>
+      <c r="HY59" t="n">
+        <v>343</v>
+      </c>
     </row>
     <row r="60" ht="13.9" customHeight="1" s="1">
       <c r="A60" t="inlineStr">
@@ -42175,6 +42529,12 @@
       <c r="HW60" t="n">
         <v>1.29</v>
       </c>
+      <c r="HX60" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="HY60" t="n">
+        <v>1.16</v>
+      </c>
     </row>
     <row r="61" ht="13.9" customHeight="1" s="1">
       <c r="A61" t="inlineStr">
@@ -42872,6 +43232,12 @@
       <c r="HW61" t="n">
         <v>88</v>
       </c>
+      <c r="HX61" t="n">
+        <v>108</v>
+      </c>
+      <c r="HY61" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="62" ht="13.9" customHeight="1" s="1">
       <c r="A62" t="inlineStr">
@@ -43569,6 +43935,12 @@
       <c r="HW62" t="n">
         <v>50</v>
       </c>
+      <c r="HX62" t="n">
+        <v>56</v>
+      </c>
+      <c r="HY62" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="63" ht="13.9" customHeight="1" s="1">
       <c r="A63" t="inlineStr">
@@ -44266,6 +44638,12 @@
       <c r="HW63" t="n">
         <v>33</v>
       </c>
+      <c r="HX63" t="n">
+        <v>63</v>
+      </c>
+      <c r="HY63" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="64" ht="13.9" customHeight="1" s="1">
       <c r="A64" t="inlineStr">
@@ -44963,6 +45341,12 @@
       <c r="HW64" t="n">
         <v>22</v>
       </c>
+      <c r="HX64" t="n">
+        <v>17</v>
+      </c>
+      <c r="HY64" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="65" ht="13.9" customHeight="1" s="1">
       <c r="A65" t="inlineStr">
@@ -45660,6 +46044,12 @@
       <c r="HW65" t="n">
         <v>18</v>
       </c>
+      <c r="HX65" t="n">
+        <v>17</v>
+      </c>
+      <c r="HY65" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="66" ht="13.9" customHeight="1" s="1">
       <c r="A66" t="inlineStr">
@@ -46357,6 +46747,12 @@
       <c r="HW66" t="n">
         <v>5</v>
       </c>
+      <c r="HX66" t="n">
+        <v>11</v>
+      </c>
+      <c r="HY66" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="67" ht="13.9" customHeight="1" s="1">
       <c r="A67" t="inlineStr">
@@ -47054,6 +47450,12 @@
       <c r="HW67" t="n">
         <v>5</v>
       </c>
+      <c r="HX67" t="n">
+        <v>7</v>
+      </c>
+      <c r="HY67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68" ht="13.9" customHeight="1" s="1">
       <c r="A68" t="inlineStr">
@@ -47751,6 +48153,12 @@
       <c r="HW68" t="n">
         <v>13</v>
       </c>
+      <c r="HX68" t="n">
+        <v>5</v>
+      </c>
+      <c r="HY68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69" ht="13.9" customHeight="1" s="1">
       <c r="A69" t="inlineStr">
@@ -48448,6 +48856,12 @@
       <c r="HW69" t="n">
         <v>1</v>
       </c>
+      <c r="HX69" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70" ht="13.9" customHeight="1" s="1">
       <c r="A70" t="inlineStr">
@@ -49145,6 +49559,12 @@
       <c r="HW70" t="n">
         <v>19</v>
       </c>
+      <c r="HX70" t="n">
+        <v>17</v>
+      </c>
+      <c r="HY70" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="71" ht="13.9" customHeight="1" s="1">
       <c r="A71" t="inlineStr">
@@ -49842,6 +50262,12 @@
       <c r="HW71" t="n">
         <v>26.3</v>
       </c>
+      <c r="HX71" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="HY71" t="n">
+        <v>47.6</v>
+      </c>
     </row>
     <row r="72" ht="13.9" customHeight="1" s="1">
       <c r="A72" t="inlineStr">
@@ -50539,6 +50965,12 @@
       <c r="HW72" t="n">
         <v>72.40000000000001</v>
       </c>
+      <c r="HX72" t="n">
+        <v>36.18</v>
+      </c>
+      <c r="HY72" t="n">
+        <v>34.3</v>
+      </c>
     </row>
     <row r="73" ht="13.9" customHeight="1" s="1">
       <c r="A73" t="inlineStr">
@@ -51236,6 +51668,12 @@
       <c r="HW73" t="n">
         <v>19.05</v>
       </c>
+      <c r="HX73" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="HY73" t="n">
+        <v>16.33</v>
+      </c>
     </row>
     <row r="74" ht="13.9" customHeight="1" s="1">
       <c r="A74" t="inlineStr">
@@ -51933,6 +52371,12 @@
       <c r="HW74" t="n">
         <v>29</v>
       </c>
+      <c r="HX74" t="n">
+        <v>35</v>
+      </c>
+      <c r="HY74" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="75" ht="13.9" customHeight="1" s="1">
       <c r="A75" t="inlineStr">
@@ -52630,6 +53074,12 @@
       <c r="HW75" t="n">
         <v>62</v>
       </c>
+      <c r="HX75" t="n">
+        <v>61</v>
+      </c>
+      <c r="HY75" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="76" ht="13.9" customHeight="1" s="1">
       <c r="A76" t="inlineStr">
@@ -53327,6 +53777,12 @@
       <c r="HW76" t="n">
         <v>39</v>
       </c>
+      <c r="HX76" t="n">
+        <v>47</v>
+      </c>
+      <c r="HY76" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="77" ht="13.9" customHeight="1" s="1">
       <c r="A77" t="inlineStr">
@@ -54024,6 +54480,12 @@
       <c r="HW77" t="n">
         <v>58</v>
       </c>
+      <c r="HX77" t="n">
+        <v>53</v>
+      </c>
+      <c r="HY77" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="78" ht="13.9" customHeight="1" s="1">
       <c r="A78" t="inlineStr">
@@ -54721,6 +55183,12 @@
       <c r="HW78" t="n">
         <v>3.05</v>
       </c>
+      <c r="HX78" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="HY78" t="n">
+        <v>2.48</v>
+      </c>
     </row>
     <row r="79" ht="13.9" customHeight="1" s="1">
       <c r="A79" t="inlineStr">
@@ -55418,6 +55886,12 @@
       <c r="HW79" t="n">
         <v>11.6</v>
       </c>
+      <c r="HX79" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="HY79" t="n">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="80" ht="13.9" customHeight="1" s="1">
       <c r="A80" t="inlineStr">
@@ -56115,6 +56589,12 @@
       <c r="HW80" t="n">
         <v>31</v>
       </c>
+      <c r="HX80" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="HY80" t="n">
+        <v>36.5</v>
+      </c>
     </row>
     <row r="81" ht="13.9" customHeight="1" s="1">
       <c r="A81" t="inlineStr">
@@ -56812,6 +57292,12 @@
       <c r="HW81" t="n">
         <v>8.6</v>
       </c>
+      <c r="HX81" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="HY81" t="n">
+        <v>19.2</v>
+      </c>
     </row>
     <row r="82" ht="13.9" customHeight="1" s="1">
       <c r="A82" t="inlineStr">
@@ -57509,6 +57995,12 @@
       <c r="HW82" t="n">
         <v>187.5</v>
       </c>
+      <c r="HX82" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="HY82" t="n">
+        <v>187.2</v>
+      </c>
     </row>
     <row r="83" ht="13.9" customHeight="1" s="1">
       <c r="A83" t="inlineStr">
@@ -58206,6 +58698,12 @@
       <c r="HW83" t="n">
         <v>83.59999999999999</v>
       </c>
+      <c r="HX83" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="HY83" t="n">
+        <v>87.09999999999999</v>
+      </c>
     </row>
     <row r="84" ht="13.9" customHeight="1" s="1">
       <c r="A84" t="inlineStr">
@@ -58903,6 +59401,12 @@
       <c r="HW84" t="n">
         <v>25.49</v>
       </c>
+      <c r="HX84" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="HY84" t="n">
+        <v>25.33</v>
+      </c>
     </row>
     <row r="85" ht="13.9" customHeight="1" s="1">
       <c r="A85" t="inlineStr">
@@ -59600,6 +60104,12 @@
       <c r="HW85" t="n">
         <v>94.2</v>
       </c>
+      <c r="HX85" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="HY85" t="n">
+        <v>87.2</v>
+      </c>
     </row>
     <row r="86" ht="13.9" customHeight="1" s="1">
       <c r="A86" t="inlineStr">
@@ -60297,6 +60807,12 @@
       <c r="HW86" t="n">
         <v>7</v>
       </c>
+      <c r="HX86" t="n">
+        <v>6</v>
+      </c>
+      <c r="HY86" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="87" ht="13.9" customHeight="1" s="1">
       <c r="A87" t="inlineStr">
@@ -60994,6 +61510,12 @@
       <c r="HW87" t="n">
         <v>6</v>
       </c>
+      <c r="HX87" t="n">
+        <v>4</v>
+      </c>
+      <c r="HY87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88" ht="13.9" customHeight="1" s="1">
       <c r="A88" t="inlineStr">
@@ -61691,6 +62213,12 @@
       <c r="HW88" t="n">
         <v>4</v>
       </c>
+      <c r="HX88" t="n">
+        <v>4</v>
+      </c>
+      <c r="HY88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89" ht="13.9" customHeight="1" s="1">
       <c r="A89" t="inlineStr">
@@ -62388,6 +62916,12 @@
       <c r="HW89" t="n">
         <v>6</v>
       </c>
+      <c r="HX89" t="n">
+        <v>8</v>
+      </c>
+      <c r="HY89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90" ht="13.9" customHeight="1" s="1">
       <c r="A90" t="inlineStr">
@@ -63085,6 +63619,12 @@
       <c r="HW90" t="n">
         <v>133</v>
       </c>
+      <c r="HX90" t="n">
+        <v>155</v>
+      </c>
+      <c r="HY90" t="n">
+        <v>121</v>
+      </c>
     </row>
     <row r="91" ht="13.9" customHeight="1" s="1">
       <c r="A91" t="inlineStr">
@@ -63782,6 +64322,12 @@
       <c r="HW91" t="n">
         <v>220</v>
       </c>
+      <c r="HX91" t="n">
+        <v>239</v>
+      </c>
+      <c r="HY91" t="n">
+        <v>215</v>
+      </c>
     </row>
     <row r="92" ht="13.9" customHeight="1" s="1">
       <c r="A92" t="inlineStr">
@@ -64479,6 +65025,12 @@
       <c r="HW92" t="n">
         <v>262</v>
       </c>
+      <c r="HX92" t="n">
+        <v>289</v>
+      </c>
+      <c r="HY92" t="n">
+        <v>258</v>
+      </c>
     </row>
     <row r="93" ht="13.9" customHeight="1" s="1">
       <c r="A93" t="inlineStr">
@@ -65176,6 +65728,12 @@
       <c r="HW93" t="n">
         <v>72.40000000000001</v>
       </c>
+      <c r="HX93" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="HY93" t="n">
+        <v>75.2</v>
+      </c>
     </row>
     <row r="94" ht="13.9" customHeight="1" s="1">
       <c r="A94" t="inlineStr">
@@ -65873,6 +66431,12 @@
       <c r="HW94" t="n">
         <v>62</v>
       </c>
+      <c r="HX94" t="n">
+        <v>61</v>
+      </c>
+      <c r="HY94" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="95" ht="13.9" customHeight="1" s="1">
       <c r="A95" t="inlineStr">
@@ -66570,6 +67134,12 @@
       <c r="HW95" t="n">
         <v>13</v>
       </c>
+      <c r="HX95" t="n">
+        <v>12</v>
+      </c>
+      <c r="HY95" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="96" ht="13.9" customHeight="1" s="1">
       <c r="A96" t="inlineStr">
@@ -67267,6 +67837,12 @@
       <c r="HW96" t="n">
         <v>14</v>
       </c>
+      <c r="HX96" t="n">
+        <v>7</v>
+      </c>
+      <c r="HY96" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="97" ht="13.9" customHeight="1" s="1">
       <c r="A97" t="inlineStr">
@@ -67964,6 +68540,12 @@
       <c r="HW97" t="n">
         <v>29</v>
       </c>
+      <c r="HX97" t="n">
+        <v>35</v>
+      </c>
+      <c r="HY97" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="98" ht="13.9" customHeight="1" s="1">
       <c r="A98" t="inlineStr">
@@ -68661,6 +69243,12 @@
       <c r="HW98" t="n">
         <v>39</v>
       </c>
+      <c r="HX98" t="n">
+        <v>47</v>
+      </c>
+      <c r="HY98" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="99" ht="13.9" customHeight="1" s="1">
       <c r="A99" t="inlineStr">
@@ -69358,6 +69946,12 @@
       <c r="HW99" t="n">
         <v>41</v>
       </c>
+      <c r="HX99" t="n">
+        <v>38</v>
+      </c>
+      <c r="HY99" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="100" ht="13.9" customHeight="1" s="1">
       <c r="A100" t="inlineStr">
@@ -70055,6 +70649,12 @@
       <c r="HW100" t="n">
         <v>1</v>
       </c>
+      <c r="HX100" t="n">
+        <v>6</v>
+      </c>
+      <c r="HY100" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="101" ht="13.9" customHeight="1" s="1">
       <c r="A101" t="inlineStr">
@@ -70752,6 +71352,12 @@
       <c r="HW101" t="n">
         <v>5</v>
       </c>
+      <c r="HX101" t="n">
+        <v>7</v>
+      </c>
+      <c r="HY101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102" ht="13.9" customHeight="1" s="1">
       <c r="A102" t="inlineStr">
@@ -71449,6 +72055,12 @@
       <c r="HW102" t="n">
         <v>100</v>
       </c>
+      <c r="HX102" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="HY102" t="n">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/django_AFL_ML/Data/Brisbane_stats.xlsx
+++ b/django_AFL_ML/Data/Brisbane_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HY102"/>
+  <dimension ref="A1:IB102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="GU76" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="HO90" sqref="HO90"/>
@@ -1058,6 +1058,15 @@
       <c r="HY1" t="n">
         <v>10527</v>
       </c>
+      <c r="HZ1" t="n">
+        <v>10525</v>
+      </c>
+      <c r="IA1" t="n">
+        <v>10527</v>
+      </c>
+      <c r="IB1" t="n">
+        <v>10400</v>
+      </c>
     </row>
     <row r="2" ht="13.9" customHeight="1" s="1">
       <c r="A2" t="inlineStr">
@@ -1761,6 +1770,15 @@
       <c r="HY2" t="n">
         <v>2021</v>
       </c>
+      <c r="HZ2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3" ht="13.9" customHeight="1" s="1">
       <c r="A3" t="inlineStr">
@@ -2464,6 +2482,15 @@
       <c r="HY3" t="n">
         <v>8</v>
       </c>
+      <c r="HZ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>8</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" ht="13.9" customHeight="1" s="1">
       <c r="A4" t="inlineStr">
@@ -3167,6 +3194,15 @@
       <c r="HY4" t="n">
         <v>0</v>
       </c>
+      <c r="HZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" ht="13.9" customHeight="1" s="1">
       <c r="A5" t="inlineStr">
@@ -3870,6 +3906,15 @@
       <c r="HY5" t="n">
         <v>0</v>
       </c>
+      <c r="HZ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="IA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" ht="13.9" customHeight="1" s="1">
       <c r="A6" t="inlineStr">
@@ -4573,6 +4618,15 @@
       <c r="HY6" t="n">
         <v>95</v>
       </c>
+      <c r="HZ6" t="n">
+        <v>73</v>
+      </c>
+      <c r="IA6" t="n">
+        <v>95</v>
+      </c>
+      <c r="IB6" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="7" ht="13.9" customHeight="1" s="1">
       <c r="A7" t="inlineStr">
@@ -5276,6 +5330,15 @@
       <c r="HY7" t="n">
         <v>71</v>
       </c>
+      <c r="HZ7" t="n">
+        <v>72</v>
+      </c>
+      <c r="IA7" t="n">
+        <v>71</v>
+      </c>
+      <c r="IB7" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" ht="13.9" customHeight="1" s="1">
       <c r="A8" t="inlineStr">
@@ -5979,6 +6042,15 @@
       <c r="HY8" t="n">
         <v>24</v>
       </c>
+      <c r="HZ8" t="n">
+        <v>1</v>
+      </c>
+      <c r="IA8" t="n">
+        <v>24</v>
+      </c>
+      <c r="IB8" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" s="1">
       <c r="A9" t="inlineStr">
@@ -6682,6 +6754,15 @@
       <c r="HY9" t="n">
         <v>1</v>
       </c>
+      <c r="HZ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="IA9" t="n">
+        <v>1</v>
+      </c>
+      <c r="IB9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" ht="13.9" customHeight="1" s="1">
       <c r="A10" t="inlineStr">
@@ -7385,6 +7466,15 @@
       <c r="HY10" t="n">
         <v>6</v>
       </c>
+      <c r="HZ10" t="n">
+        <v>4</v>
+      </c>
+      <c r="IA10" t="n">
+        <v>6</v>
+      </c>
+      <c r="IB10" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" ht="13.9" customHeight="1" s="1">
       <c r="A11" t="inlineStr">
@@ -8088,6 +8178,15 @@
       <c r="HY11" t="n">
         <v>243</v>
       </c>
+      <c r="HZ11" t="n">
+        <v>258</v>
+      </c>
+      <c r="IA11" t="n">
+        <v>243</v>
+      </c>
+      <c r="IB11" t="n">
+        <v>263</v>
+      </c>
     </row>
     <row r="12" ht="13.9" customHeight="1" s="1">
       <c r="A12" t="inlineStr">
@@ -8791,6 +8890,15 @@
       <c r="HY12" t="n">
         <v>117</v>
       </c>
+      <c r="HZ12" t="n">
+        <v>123</v>
+      </c>
+      <c r="IA12" t="n">
+        <v>117</v>
+      </c>
+      <c r="IB12" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="13" ht="13.9" customHeight="1" s="1">
       <c r="A13" t="inlineStr">
@@ -9494,6 +9602,15 @@
       <c r="HY13" t="n">
         <v>360</v>
       </c>
+      <c r="HZ13" t="n">
+        <v>381</v>
+      </c>
+      <c r="IA13" t="n">
+        <v>360</v>
+      </c>
+      <c r="IB13" t="n">
+        <v>414</v>
+      </c>
     </row>
     <row r="14" ht="13.9" customHeight="1" s="1">
       <c r="A14" t="inlineStr">
@@ -10197,6 +10314,15 @@
       <c r="HY14" t="n">
         <v>2.08</v>
       </c>
+      <c r="HZ14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="IA14" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="IB14" t="n">
+        <v>1.74</v>
+      </c>
     </row>
     <row r="15" ht="13.9" customHeight="1" s="1">
       <c r="A15" t="inlineStr">
@@ -10900,6 +11026,15 @@
       <c r="HY15" t="n">
         <v>119</v>
       </c>
+      <c r="HZ15" t="n">
+        <v>131</v>
+      </c>
+      <c r="IA15" t="n">
+        <v>119</v>
+      </c>
+      <c r="IB15" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="16" ht="13.9" customHeight="1" s="1">
       <c r="A16" t="inlineStr">
@@ -11603,6 +11738,15 @@
       <c r="HY16" t="n">
         <v>44</v>
       </c>
+      <c r="HZ16" t="n">
+        <v>70</v>
+      </c>
+      <c r="IA16" t="n">
+        <v>44</v>
+      </c>
+      <c r="IB16" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" ht="13.9" customHeight="1" s="1">
       <c r="A17" t="inlineStr">
@@ -12306,6 +12450,15 @@
       <c r="HY17" t="n">
         <v>18</v>
       </c>
+      <c r="HZ17" t="n">
+        <v>4</v>
+      </c>
+      <c r="IA17" t="n">
+        <v>18</v>
+      </c>
+      <c r="IB17" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="18" ht="13.9" customHeight="1" s="1">
       <c r="A18" t="inlineStr">
@@ -13009,6 +13162,15 @@
       <c r="HY18" t="n">
         <v>16</v>
       </c>
+      <c r="HZ18" t="n">
+        <v>17</v>
+      </c>
+      <c r="IA18" t="n">
+        <v>16</v>
+      </c>
+      <c r="IB18" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" ht="13.9" customHeight="1" s="1">
       <c r="A19" t="inlineStr">
@@ -13712,6 +13874,15 @@
       <c r="HY19" t="n">
         <v>11</v>
       </c>
+      <c r="HZ19" t="n">
+        <v>17</v>
+      </c>
+      <c r="IA19" t="n">
+        <v>11</v>
+      </c>
+      <c r="IB19" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="20" ht="13.9" customHeight="1" s="1">
       <c r="A20" t="inlineStr">
@@ -14415,6 +14586,15 @@
       <c r="HY20" t="n">
         <v>14</v>
       </c>
+      <c r="HZ20" t="n">
+        <v>11</v>
+      </c>
+      <c r="IA20" t="n">
+        <v>14</v>
+      </c>
+      <c r="IB20" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" ht="13.9" customHeight="1" s="1">
       <c r="A21" t="inlineStr">
@@ -15118,6 +15298,15 @@
       <c r="HY21" t="n">
         <v>12</v>
       </c>
+      <c r="HZ21" t="n">
+        <v>9</v>
+      </c>
+      <c r="IA21" t="n">
+        <v>12</v>
+      </c>
+      <c r="IB21" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="22" ht="13.9" customHeight="1" s="1">
       <c r="A22" t="inlineStr">
@@ -15821,6 +16010,15 @@
       <c r="HY22" t="n">
         <v>10</v>
       </c>
+      <c r="HZ22" t="n">
+        <v>6</v>
+      </c>
+      <c r="IA22" t="n">
+        <v>10</v>
+      </c>
+      <c r="IB22" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="23" ht="13.9" customHeight="1" s="1">
       <c r="A23" t="inlineStr">
@@ -16524,6 +16722,15 @@
       <c r="HY23" t="n">
         <v>1</v>
       </c>
+      <c r="HZ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="IA23" t="n">
+        <v>1</v>
+      </c>
+      <c r="IB23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" ht="13.9" customHeight="1" s="1">
       <c r="A24" t="inlineStr">
@@ -17227,6 +17434,15 @@
       <c r="HY24" t="n">
         <v>25</v>
       </c>
+      <c r="HZ24" t="n">
+        <v>18</v>
+      </c>
+      <c r="IA24" t="n">
+        <v>25</v>
+      </c>
+      <c r="IB24" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="25" ht="13.9" customHeight="1" s="1">
       <c r="A25" t="inlineStr">
@@ -17930,6 +18146,15 @@
       <c r="HY25" t="n">
         <v>56</v>
       </c>
+      <c r="HZ25" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="IA25" t="n">
+        <v>56</v>
+      </c>
+      <c r="IB25" t="n">
+        <v>65.5</v>
+      </c>
     </row>
     <row r="26" ht="13.9" customHeight="1" s="1">
       <c r="A26" t="inlineStr">
@@ -18633,6 +18858,15 @@
       <c r="HY26" t="n">
         <v>25.71</v>
       </c>
+      <c r="HZ26" t="n">
+        <v>34.64</v>
+      </c>
+      <c r="IA26" t="n">
+        <v>25.71</v>
+      </c>
+      <c r="IB26" t="n">
+        <v>21.79</v>
+      </c>
     </row>
     <row r="27" ht="13.9" customHeight="1" s="1">
       <c r="A27" t="inlineStr">
@@ -19336,6 +19570,15 @@
       <c r="HY27" t="n">
         <v>14.4</v>
       </c>
+      <c r="HZ27" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="IA27" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="IB27" t="n">
+        <v>14.28</v>
+      </c>
     </row>
     <row r="28" ht="13.9" customHeight="1" s="1">
       <c r="A28" t="inlineStr">
@@ -20039,6 +20282,15 @@
       <c r="HY28" t="n">
         <v>34</v>
       </c>
+      <c r="HZ28" t="n">
+        <v>30</v>
+      </c>
+      <c r="IA28" t="n">
+        <v>34</v>
+      </c>
+      <c r="IB28" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="29" ht="13.9" customHeight="1" s="1">
       <c r="A29" t="inlineStr">
@@ -20742,6 +20994,15 @@
       <c r="HY29" t="n">
         <v>43</v>
       </c>
+      <c r="HZ29" t="n">
+        <v>56</v>
+      </c>
+      <c r="IA29" t="n">
+        <v>43</v>
+      </c>
+      <c r="IB29" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="30" ht="13.9" customHeight="1" s="1">
       <c r="A30" t="inlineStr">
@@ -21445,6 +21706,15 @@
       <c r="HY30" t="n">
         <v>40</v>
       </c>
+      <c r="HZ30" t="n">
+        <v>41</v>
+      </c>
+      <c r="IA30" t="n">
+        <v>40</v>
+      </c>
+      <c r="IB30" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="31" ht="13.9" customHeight="1" s="1">
       <c r="A31" t="inlineStr">
@@ -22148,6 +22418,15 @@
       <c r="HY31" t="n">
         <v>49</v>
       </c>
+      <c r="HZ31" t="n">
+        <v>58</v>
+      </c>
+      <c r="IA31" t="n">
+        <v>49</v>
+      </c>
+      <c r="IB31" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="32" ht="13.9" customHeight="1" s="1">
       <c r="A32" t="inlineStr">
@@ -22851,6 +23130,15 @@
       <c r="HY32" t="n">
         <v>1.96</v>
       </c>
+      <c r="HZ32" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="IA32" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="IB32" t="n">
+        <v>2.21</v>
+      </c>
     </row>
     <row r="33" ht="13.9" customHeight="1" s="1">
       <c r="A33" t="inlineStr">
@@ -23554,6 +23842,15 @@
       <c r="HY33" t="n">
         <v>3.5</v>
       </c>
+      <c r="HZ33" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="IA33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="IB33" t="n">
+        <v>3.37</v>
+      </c>
     </row>
     <row r="34" ht="13.9" customHeight="1" s="1">
       <c r="A34" t="inlineStr">
@@ -24257,6 +24554,15 @@
       <c r="HY34" t="n">
         <v>49</v>
       </c>
+      <c r="HZ34" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="IA34" t="n">
+        <v>49</v>
+      </c>
+      <c r="IB34" t="n">
+        <v>40.6</v>
+      </c>
     </row>
     <row r="35" ht="13.9" customHeight="1" s="1">
       <c r="A35" t="inlineStr">
@@ -24960,6 +25266,15 @@
       <c r="HY35" t="n">
         <v>28.6</v>
       </c>
+      <c r="HZ35" t="n">
+        <v>19</v>
+      </c>
+      <c r="IA35" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="IB35" t="n">
+        <v>29.7</v>
+      </c>
     </row>
     <row r="36" ht="13.9" customHeight="1" s="1">
       <c r="A36" t="inlineStr">
@@ -25663,6 +25978,15 @@
       <c r="HY36" t="n">
         <v>188.9</v>
       </c>
+      <c r="HZ36" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="IA36" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="IB36" t="n">
+        <v>188.6</v>
+      </c>
     </row>
     <row r="37" ht="13.9" customHeight="1" s="1">
       <c r="A37" t="inlineStr">
@@ -26366,6 +26690,15 @@
       <c r="HY37" t="n">
         <v>87.8</v>
       </c>
+      <c r="HZ37" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="IA37" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="IB37" t="n">
+        <v>87.3</v>
+      </c>
     </row>
     <row r="38" ht="13.9" customHeight="1" s="1">
       <c r="A38" t="inlineStr">
@@ -27069,6 +27402,15 @@
       <c r="HY38" t="n">
         <v>26.16</v>
       </c>
+      <c r="HZ38" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="IA38" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="IB38" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="39" ht="13.9" customHeight="1" s="1">
       <c r="A39" t="inlineStr">
@@ -27772,6 +28114,15 @@
       <c r="HY39" t="n">
         <v>110</v>
       </c>
+      <c r="HZ39" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="IA39" t="n">
+        <v>110</v>
+      </c>
+      <c r="IB39" t="n">
+        <v>106.6</v>
+      </c>
     </row>
     <row r="40" ht="13.9" customHeight="1" s="1">
       <c r="A40" t="inlineStr">
@@ -28475,6 +28826,15 @@
       <c r="HY40" t="n">
         <v>5</v>
       </c>
+      <c r="HZ40" t="n">
+        <v>8</v>
+      </c>
+      <c r="IA40" t="n">
+        <v>5</v>
+      </c>
+      <c r="IB40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41" ht="13.9" customHeight="1" s="1">
       <c r="A41" t="inlineStr">
@@ -29178,6 +29538,15 @@
       <c r="HY41" t="n">
         <v>5</v>
       </c>
+      <c r="HZ41" t="n">
+        <v>4</v>
+      </c>
+      <c r="IA41" t="n">
+        <v>5</v>
+      </c>
+      <c r="IB41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" ht="13.9" customHeight="1" s="1">
       <c r="A42" t="inlineStr">
@@ -29881,6 +30250,15 @@
       <c r="HY42" t="n">
         <v>8</v>
       </c>
+      <c r="HZ42" t="n">
+        <v>5</v>
+      </c>
+      <c r="IA42" t="n">
+        <v>8</v>
+      </c>
+      <c r="IB42" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="43" ht="13.9" customHeight="1" s="1">
       <c r="A43" t="inlineStr">
@@ -30584,6 +30962,15 @@
       <c r="HY43" t="n">
         <v>4</v>
       </c>
+      <c r="HZ43" t="n">
+        <v>5</v>
+      </c>
+      <c r="IA43" t="n">
+        <v>4</v>
+      </c>
+      <c r="IB43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44" ht="13.9" customHeight="1" s="1">
       <c r="A44" t="inlineStr">
@@ -31287,6 +31674,15 @@
       <c r="HY44" t="n">
         <v>135</v>
       </c>
+      <c r="HZ44" t="n">
+        <v>140</v>
+      </c>
+      <c r="IA44" t="n">
+        <v>135</v>
+      </c>
+      <c r="IB44" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="45" ht="13.9" customHeight="1" s="1">
       <c r="A45" t="inlineStr">
@@ -31990,6 +32386,15 @@
       <c r="HY45" t="n">
         <v>218</v>
       </c>
+      <c r="HZ45" t="n">
+        <v>241</v>
+      </c>
+      <c r="IA45" t="n">
+        <v>218</v>
+      </c>
+      <c r="IB45" t="n">
+        <v>279</v>
+      </c>
     </row>
     <row r="46" ht="13.9" customHeight="1" s="1">
       <c r="A46" t="inlineStr">
@@ -32693,6 +33098,15 @@
       <c r="HY46" t="n">
         <v>262</v>
       </c>
+      <c r="HZ46" t="n">
+        <v>286</v>
+      </c>
+      <c r="IA46" t="n">
+        <v>262</v>
+      </c>
+      <c r="IB46" t="n">
+        <v>327</v>
+      </c>
     </row>
     <row r="47" ht="13.9" customHeight="1" s="1">
       <c r="A47" t="inlineStr">
@@ -33396,6 +33810,15 @@
       <c r="HY47" t="n">
         <v>72.8</v>
       </c>
+      <c r="HZ47" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="IA47" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="IB47" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="48" ht="13.9" customHeight="1" s="1">
       <c r="A48" t="inlineStr">
@@ -34099,6 +34522,15 @@
       <c r="HY48" t="n">
         <v>43</v>
       </c>
+      <c r="HZ48" t="n">
+        <v>56</v>
+      </c>
+      <c r="IA48" t="n">
+        <v>43</v>
+      </c>
+      <c r="IB48" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="49" ht="13.9" customHeight="1" s="1">
       <c r="A49" t="inlineStr">
@@ -34802,6 +35234,15 @@
       <c r="HY49" t="n">
         <v>18</v>
       </c>
+      <c r="HZ49" t="n">
+        <v>12</v>
+      </c>
+      <c r="IA49" t="n">
+        <v>18</v>
+      </c>
+      <c r="IB49" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="50" ht="13.9" customHeight="1" s="1">
       <c r="A50" t="inlineStr">
@@ -35505,6 +35946,15 @@
       <c r="HY50" t="n">
         <v>22</v>
       </c>
+      <c r="HZ50" t="n">
+        <v>11</v>
+      </c>
+      <c r="IA50" t="n">
+        <v>22</v>
+      </c>
+      <c r="IB50" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="51" ht="13.9" customHeight="1" s="1">
       <c r="A51" t="inlineStr">
@@ -36208,6 +36658,15 @@
       <c r="HY51" t="n">
         <v>34</v>
       </c>
+      <c r="HZ51" t="n">
+        <v>30</v>
+      </c>
+      <c r="IA51" t="n">
+        <v>34</v>
+      </c>
+      <c r="IB51" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="52" ht="13.9" customHeight="1" s="1">
       <c r="A52" t="inlineStr">
@@ -36911,6 +37370,15 @@
       <c r="HY52" t="n">
         <v>40</v>
       </c>
+      <c r="HZ52" t="n">
+        <v>41</v>
+      </c>
+      <c r="IA52" t="n">
+        <v>40</v>
+      </c>
+      <c r="IB52" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="53" ht="13.9" customHeight="1" s="1">
       <c r="A53" t="inlineStr">
@@ -37614,6 +38082,15 @@
       <c r="HY53" t="n">
         <v>39</v>
       </c>
+      <c r="HZ53" t="n">
+        <v>48</v>
+      </c>
+      <c r="IA53" t="n">
+        <v>39</v>
+      </c>
+      <c r="IB53" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="54" ht="13.9" customHeight="1" s="1">
       <c r="A54" t="inlineStr">
@@ -38317,6 +38794,15 @@
       <c r="HY54" t="n">
         <v>1</v>
       </c>
+      <c r="HZ54" t="n">
+        <v>2</v>
+      </c>
+      <c r="IA54" t="n">
+        <v>1</v>
+      </c>
+      <c r="IB54" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" ht="13.9" customHeight="1" s="1">
       <c r="A55" t="inlineStr">
@@ -39020,6 +39506,15 @@
       <c r="HY55" t="n">
         <v>12</v>
       </c>
+      <c r="HZ55" t="n">
+        <v>9</v>
+      </c>
+      <c r="IA55" t="n">
+        <v>12</v>
+      </c>
+      <c r="IB55" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="56" ht="13.9" customHeight="1" s="1">
       <c r="A56" t="inlineStr">
@@ -39723,6 +40218,15 @@
       <c r="HY56" t="n">
         <v>85.7</v>
       </c>
+      <c r="HZ56" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="IA56" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="IB56" t="n">
+        <v>68.40000000000001</v>
+      </c>
     </row>
     <row r="57" ht="13.9" customHeight="1" s="1">
       <c r="A57" t="inlineStr">
@@ -40426,6 +40930,15 @@
       <c r="HY57" t="n">
         <v>184</v>
       </c>
+      <c r="HZ57" t="n">
+        <v>242</v>
+      </c>
+      <c r="IA57" t="n">
+        <v>184</v>
+      </c>
+      <c r="IB57" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="58" ht="13.9" customHeight="1" s="1">
       <c r="A58" t="inlineStr">
@@ -41129,6 +41642,15 @@
       <c r="HY58" t="n">
         <v>159</v>
       </c>
+      <c r="HZ58" t="n">
+        <v>156</v>
+      </c>
+      <c r="IA58" t="n">
+        <v>159</v>
+      </c>
+      <c r="IB58" t="n">
+        <v>118</v>
+      </c>
     </row>
     <row r="59" ht="13.9" customHeight="1" s="1">
       <c r="A59" t="inlineStr">
@@ -41832,6 +42354,15 @@
       <c r="HY59" t="n">
         <v>343</v>
       </c>
+      <c r="HZ59" t="n">
+        <v>398</v>
+      </c>
+      <c r="IA59" t="n">
+        <v>343</v>
+      </c>
+      <c r="IB59" t="n">
+        <v>295</v>
+      </c>
     </row>
     <row r="60" ht="13.9" customHeight="1" s="1">
       <c r="A60" t="inlineStr">
@@ -42535,6 +43066,15 @@
       <c r="HY60" t="n">
         <v>1.16</v>
       </c>
+      <c r="HZ60" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="IA60" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="IB60" t="n">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="61" ht="13.9" customHeight="1" s="1">
       <c r="A61" t="inlineStr">
@@ -43238,6 +43778,15 @@
       <c r="HY61" t="n">
         <v>74</v>
       </c>
+      <c r="HZ61" t="n">
+        <v>108</v>
+      </c>
+      <c r="IA61" t="n">
+        <v>74</v>
+      </c>
+      <c r="IB61" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="62" ht="13.9" customHeight="1" s="1">
       <c r="A62" t="inlineStr">
@@ -43941,6 +44490,15 @@
       <c r="HY62" t="n">
         <v>40</v>
       </c>
+      <c r="HZ62" t="n">
+        <v>56</v>
+      </c>
+      <c r="IA62" t="n">
+        <v>40</v>
+      </c>
+      <c r="IB62" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="63" ht="13.9" customHeight="1" s="1">
       <c r="A63" t="inlineStr">
@@ -44644,6 +45202,15 @@
       <c r="HY63" t="n">
         <v>52</v>
       </c>
+      <c r="HZ63" t="n">
+        <v>63</v>
+      </c>
+      <c r="IA63" t="n">
+        <v>52</v>
+      </c>
+      <c r="IB63" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="64" ht="13.9" customHeight="1" s="1">
       <c r="A64" t="inlineStr">
@@ -45347,6 +45914,15 @@
       <c r="HY64" t="n">
         <v>11</v>
       </c>
+      <c r="HZ64" t="n">
+        <v>17</v>
+      </c>
+      <c r="IA64" t="n">
+        <v>11</v>
+      </c>
+      <c r="IB64" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="65" ht="13.9" customHeight="1" s="1">
       <c r="A65" t="inlineStr">
@@ -46050,6 +46626,15 @@
       <c r="HY65" t="n">
         <v>16</v>
       </c>
+      <c r="HZ65" t="n">
+        <v>17</v>
+      </c>
+      <c r="IA65" t="n">
+        <v>16</v>
+      </c>
+      <c r="IB65" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="66" ht="13.9" customHeight="1" s="1">
       <c r="A66" t="inlineStr">
@@ -46753,6 +47338,15 @@
       <c r="HY66" t="n">
         <v>10</v>
       </c>
+      <c r="HZ66" t="n">
+        <v>11</v>
+      </c>
+      <c r="IA66" t="n">
+        <v>10</v>
+      </c>
+      <c r="IB66" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="67" ht="13.9" customHeight="1" s="1">
       <c r="A67" t="inlineStr">
@@ -47456,6 +48050,15 @@
       <c r="HY67" t="n">
         <v>9</v>
       </c>
+      <c r="HZ67" t="n">
+        <v>7</v>
+      </c>
+      <c r="IA67" t="n">
+        <v>9</v>
+      </c>
+      <c r="IB67" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="68" ht="13.9" customHeight="1" s="1">
       <c r="A68" t="inlineStr">
@@ -48159,6 +48762,15 @@
       <c r="HY68" t="n">
         <v>9</v>
       </c>
+      <c r="HZ68" t="n">
+        <v>5</v>
+      </c>
+      <c r="IA68" t="n">
+        <v>9</v>
+      </c>
+      <c r="IB68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69" ht="13.9" customHeight="1" s="1">
       <c r="A69" t="inlineStr">
@@ -48862,6 +49474,15 @@
       <c r="HY69" t="n">
         <v>2</v>
       </c>
+      <c r="HZ69" t="n">
+        <v>1</v>
+      </c>
+      <c r="IA69" t="n">
+        <v>2</v>
+      </c>
+      <c r="IB69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70" ht="13.9" customHeight="1" s="1">
       <c r="A70" t="inlineStr">
@@ -49565,6 +50186,15 @@
       <c r="HY70" t="n">
         <v>21</v>
       </c>
+      <c r="HZ70" t="n">
+        <v>17</v>
+      </c>
+      <c r="IA70" t="n">
+        <v>21</v>
+      </c>
+      <c r="IB70" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="71" ht="13.9" customHeight="1" s="1">
       <c r="A71" t="inlineStr">
@@ -50268,6 +50898,15 @@
       <c r="HY71" t="n">
         <v>47.6</v>
       </c>
+      <c r="HZ71" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="IA71" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="IB71" t="n">
+        <v>43.8</v>
+      </c>
     </row>
     <row r="72" ht="13.9" customHeight="1" s="1">
       <c r="A72" t="inlineStr">
@@ -50971,6 +51610,15 @@
       <c r="HY72" t="n">
         <v>34.3</v>
       </c>
+      <c r="HZ72" t="n">
+        <v>36.18</v>
+      </c>
+      <c r="IA72" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="IB72" t="n">
+        <v>42.14</v>
+      </c>
     </row>
     <row r="73" ht="13.9" customHeight="1" s="1">
       <c r="A73" t="inlineStr">
@@ -51674,6 +52322,15 @@
       <c r="HY73" t="n">
         <v>16.33</v>
       </c>
+      <c r="HZ73" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="IA73" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="IB73" t="n">
+        <v>18.44</v>
+      </c>
     </row>
     <row r="74" ht="13.9" customHeight="1" s="1">
       <c r="A74" t="inlineStr">
@@ -52377,6 +53034,15 @@
       <c r="HY74" t="n">
         <v>33</v>
       </c>
+      <c r="HZ74" t="n">
+        <v>35</v>
+      </c>
+      <c r="IA74" t="n">
+        <v>33</v>
+      </c>
+      <c r="IB74" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="75" ht="13.9" customHeight="1" s="1">
       <c r="A75" t="inlineStr">
@@ -53080,6 +53746,15 @@
       <c r="HY75" t="n">
         <v>50</v>
       </c>
+      <c r="HZ75" t="n">
+        <v>61</v>
+      </c>
+      <c r="IA75" t="n">
+        <v>50</v>
+      </c>
+      <c r="IB75" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="76" ht="13.9" customHeight="1" s="1">
       <c r="A76" t="inlineStr">
@@ -53783,6 +54458,15 @@
       <c r="HY76" t="n">
         <v>33</v>
       </c>
+      <c r="HZ76" t="n">
+        <v>47</v>
+      </c>
+      <c r="IA76" t="n">
+        <v>33</v>
+      </c>
+      <c r="IB76" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="77" ht="13.9" customHeight="1" s="1">
       <c r="A77" t="inlineStr">
@@ -54486,6 +55170,15 @@
       <c r="HY77" t="n">
         <v>52</v>
       </c>
+      <c r="HZ77" t="n">
+        <v>53</v>
+      </c>
+      <c r="IA77" t="n">
+        <v>52</v>
+      </c>
+      <c r="IB77" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="78" ht="13.9" customHeight="1" s="1">
       <c r="A78" t="inlineStr">
@@ -55189,6 +55882,15 @@
       <c r="HY78" t="n">
         <v>2.48</v>
       </c>
+      <c r="HZ78" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="IA78" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="IB78" t="n">
+        <v>2.44</v>
+      </c>
     </row>
     <row r="79" ht="13.9" customHeight="1" s="1">
       <c r="A79" t="inlineStr">
@@ -55892,6 +56594,15 @@
       <c r="HY79" t="n">
         <v>5.2</v>
       </c>
+      <c r="HZ79" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="IA79" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="IB79" t="n">
+        <v>5.57</v>
+      </c>
     </row>
     <row r="80" ht="13.9" customHeight="1" s="1">
       <c r="A80" t="inlineStr">
@@ -56595,6 +57306,15 @@
       <c r="HY80" t="n">
         <v>36.5</v>
       </c>
+      <c r="HZ80" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="IA80" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="IB80" t="n">
+        <v>35.9</v>
+      </c>
     </row>
     <row r="81" ht="13.9" customHeight="1" s="1">
       <c r="A81" t="inlineStr">
@@ -57298,6 +58018,15 @@
       <c r="HY81" t="n">
         <v>19.2</v>
       </c>
+      <c r="HZ81" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="IA81" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="IB81" t="n">
+        <v>17.9</v>
+      </c>
     </row>
     <row r="82" ht="13.9" customHeight="1" s="1">
       <c r="A82" t="inlineStr">
@@ -58001,6 +58730,15 @@
       <c r="HY82" t="n">
         <v>187.2</v>
       </c>
+      <c r="HZ82" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="IA82" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="IB82" t="n">
+        <v>186.8</v>
+      </c>
     </row>
     <row r="83" ht="13.9" customHeight="1" s="1">
       <c r="A83" t="inlineStr">
@@ -58704,6 +59442,15 @@
       <c r="HY83" t="n">
         <v>87.09999999999999</v>
       </c>
+      <c r="HZ83" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="IA83" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="IB83" t="n">
+        <v>83.7</v>
+      </c>
     </row>
     <row r="84" ht="13.9" customHeight="1" s="1">
       <c r="A84" t="inlineStr">
@@ -59407,6 +60154,15 @@
       <c r="HY84" t="n">
         <v>25.33</v>
       </c>
+      <c r="HZ84" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="IA84" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="IB84" t="n">
+        <v>23.58</v>
+      </c>
     </row>
     <row r="85" ht="13.9" customHeight="1" s="1">
       <c r="A85" t="inlineStr">
@@ -60110,6 +60866,15 @@
       <c r="HY85" t="n">
         <v>87.2</v>
       </c>
+      <c r="HZ85" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="IA85" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="IB85" t="n">
+        <v>58.1</v>
+      </c>
     </row>
     <row r="86" ht="13.9" customHeight="1" s="1">
       <c r="A86" t="inlineStr">
@@ -60813,6 +61578,15 @@
       <c r="HY86" t="n">
         <v>9</v>
       </c>
+      <c r="HZ86" t="n">
+        <v>6</v>
+      </c>
+      <c r="IA86" t="n">
+        <v>9</v>
+      </c>
+      <c r="IB86" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="87" ht="13.9" customHeight="1" s="1">
       <c r="A87" t="inlineStr">
@@ -61516,6 +62290,15 @@
       <c r="HY87" t="n">
         <v>6</v>
       </c>
+      <c r="HZ87" t="n">
+        <v>4</v>
+      </c>
+      <c r="IA87" t="n">
+        <v>6</v>
+      </c>
+      <c r="IB87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88" ht="13.9" customHeight="1" s="1">
       <c r="A88" t="inlineStr">
@@ -62219,6 +63002,15 @@
       <c r="HY88" t="n">
         <v>5</v>
       </c>
+      <c r="HZ88" t="n">
+        <v>4</v>
+      </c>
+      <c r="IA88" t="n">
+        <v>5</v>
+      </c>
+      <c r="IB88" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="89" ht="13.9" customHeight="1" s="1">
       <c r="A89" t="inlineStr">
@@ -62922,6 +63714,15 @@
       <c r="HY89" t="n">
         <v>3</v>
       </c>
+      <c r="HZ89" t="n">
+        <v>8</v>
+      </c>
+      <c r="IA89" t="n">
+        <v>3</v>
+      </c>
+      <c r="IB89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90" ht="13.9" customHeight="1" s="1">
       <c r="A90" t="inlineStr">
@@ -63625,6 +64426,15 @@
       <c r="HY90" t="n">
         <v>121</v>
       </c>
+      <c r="HZ90" t="n">
+        <v>155</v>
+      </c>
+      <c r="IA90" t="n">
+        <v>121</v>
+      </c>
+      <c r="IB90" t="n">
+        <v>111</v>
+      </c>
     </row>
     <row r="91" ht="13.9" customHeight="1" s="1">
       <c r="A91" t="inlineStr">
@@ -64328,6 +65138,15 @@
       <c r="HY91" t="n">
         <v>215</v>
       </c>
+      <c r="HZ91" t="n">
+        <v>239</v>
+      </c>
+      <c r="IA91" t="n">
+        <v>215</v>
+      </c>
+      <c r="IB91" t="n">
+        <v>189</v>
+      </c>
     </row>
     <row r="92" ht="13.9" customHeight="1" s="1">
       <c r="A92" t="inlineStr">
@@ -65031,6 +65850,15 @@
       <c r="HY92" t="n">
         <v>258</v>
       </c>
+      <c r="HZ92" t="n">
+        <v>289</v>
+      </c>
+      <c r="IA92" t="n">
+        <v>258</v>
+      </c>
+      <c r="IB92" t="n">
+        <v>214</v>
+      </c>
     </row>
     <row r="93" ht="13.9" customHeight="1" s="1">
       <c r="A93" t="inlineStr">
@@ -65734,6 +66562,15 @@
       <c r="HY93" t="n">
         <v>75.2</v>
       </c>
+      <c r="HZ93" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="IA93" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="IB93" t="n">
+        <v>72.5</v>
+      </c>
     </row>
     <row r="94" ht="13.9" customHeight="1" s="1">
       <c r="A94" t="inlineStr">
@@ -66437,6 +67274,15 @@
       <c r="HY94" t="n">
         <v>50</v>
       </c>
+      <c r="HZ94" t="n">
+        <v>61</v>
+      </c>
+      <c r="IA94" t="n">
+        <v>50</v>
+      </c>
+      <c r="IB94" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="95" ht="13.9" customHeight="1" s="1">
       <c r="A95" t="inlineStr">
@@ -67140,6 +67986,15 @@
       <c r="HY95" t="n">
         <v>8</v>
       </c>
+      <c r="HZ95" t="n">
+        <v>12</v>
+      </c>
+      <c r="IA95" t="n">
+        <v>8</v>
+      </c>
+      <c r="IB95" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="96" ht="13.9" customHeight="1" s="1">
       <c r="A96" t="inlineStr">
@@ -67843,6 +68698,15 @@
       <c r="HY96" t="n">
         <v>18</v>
       </c>
+      <c r="HZ96" t="n">
+        <v>7</v>
+      </c>
+      <c r="IA96" t="n">
+        <v>18</v>
+      </c>
+      <c r="IB96" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="97" ht="13.9" customHeight="1" s="1">
       <c r="A97" t="inlineStr">
@@ -68546,6 +69410,15 @@
       <c r="HY97" t="n">
         <v>33</v>
       </c>
+      <c r="HZ97" t="n">
+        <v>35</v>
+      </c>
+      <c r="IA97" t="n">
+        <v>33</v>
+      </c>
+      <c r="IB97" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="98" ht="13.9" customHeight="1" s="1">
       <c r="A98" t="inlineStr">
@@ -69249,6 +70122,15 @@
       <c r="HY98" t="n">
         <v>33</v>
       </c>
+      <c r="HZ98" t="n">
+        <v>47</v>
+      </c>
+      <c r="IA98" t="n">
+        <v>33</v>
+      </c>
+      <c r="IB98" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="99" ht="13.9" customHeight="1" s="1">
       <c r="A99" t="inlineStr">
@@ -69952,6 +70834,15 @@
       <c r="HY99" t="n">
         <v>46</v>
       </c>
+      <c r="HZ99" t="n">
+        <v>38</v>
+      </c>
+      <c r="IA99" t="n">
+        <v>46</v>
+      </c>
+      <c r="IB99" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="100" ht="13.9" customHeight="1" s="1">
       <c r="A100" t="inlineStr">
@@ -70655,6 +71546,15 @@
       <c r="HY100" t="n">
         <v>11</v>
       </c>
+      <c r="HZ100" t="n">
+        <v>6</v>
+      </c>
+      <c r="IA100" t="n">
+        <v>11</v>
+      </c>
+      <c r="IB100" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="101" ht="13.9" customHeight="1" s="1">
       <c r="A101" t="inlineStr">
@@ -71358,6 +72258,15 @@
       <c r="HY101" t="n">
         <v>9</v>
       </c>
+      <c r="HZ101" t="n">
+        <v>7</v>
+      </c>
+      <c r="IA101" t="n">
+        <v>9</v>
+      </c>
+      <c r="IB101" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="102" ht="13.9" customHeight="1" s="1">
       <c r="A102" t="inlineStr">
@@ -72061,6 +72970,15 @@
       <c r="HY102" t="n">
         <v>90</v>
       </c>
+      <c r="HZ102" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="IA102" t="n">
+        <v>90</v>
+      </c>
+      <c r="IB102" t="n">
+        <v>42.9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/django_AFL_ML/Data/Brisbane_stats.xlsx
+++ b/django_AFL_ML/Data/Brisbane_stats.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IB102"/>
+  <dimension ref="A1:IE102"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="GU76" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="HO90" sqref="HO90"/>
@@ -1067,6 +1067,15 @@
       <c r="IB1" t="n">
         <v>10400</v>
       </c>
+      <c r="IC1" t="n">
+        <v>10525</v>
+      </c>
+      <c r="ID1" t="n">
+        <v>10527</v>
+      </c>
+      <c r="IE1" t="n">
+        <v>10408</v>
+      </c>
     </row>
     <row r="2" ht="13.9" customHeight="1" s="1">
       <c r="A2" t="inlineStr">
@@ -1779,6 +1788,15 @@
       <c r="IB2" t="n">
         <v>2021</v>
       </c>
+      <c r="IC2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>2021</v>
+      </c>
     </row>
     <row r="3" ht="13.9" customHeight="1" s="1">
       <c r="A3" t="inlineStr">
@@ -2491,6 +2509,15 @@
       <c r="IB3" t="n">
         <v>9</v>
       </c>
+      <c r="IC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>8</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" ht="13.9" customHeight="1" s="1">
       <c r="A4" t="inlineStr">
@@ -3203,6 +3230,15 @@
       <c r="IB4" t="n">
         <v>1</v>
       </c>
+      <c r="IC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" ht="13.9" customHeight="1" s="1">
       <c r="A5" t="inlineStr">
@@ -3915,6 +3951,15 @@
       <c r="IB5" t="n">
         <v>1</v>
       </c>
+      <c r="IC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID5" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" ht="13.9" customHeight="1" s="1">
       <c r="A6" t="inlineStr">
@@ -4627,6 +4672,15 @@
       <c r="IB6" t="n">
         <v>124</v>
       </c>
+      <c r="IC6" t="n">
+        <v>73</v>
+      </c>
+      <c r="ID6" t="n">
+        <v>95</v>
+      </c>
+      <c r="IE6" t="n">
+        <v>102</v>
+      </c>
     </row>
     <row r="7" ht="13.9" customHeight="1" s="1">
       <c r="A7" t="inlineStr">
@@ -5339,6 +5393,15 @@
       <c r="IB7" t="n">
         <v>51</v>
       </c>
+      <c r="IC7" t="n">
+        <v>72</v>
+      </c>
+      <c r="ID7" t="n">
+        <v>71</v>
+      </c>
+      <c r="IE7" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="8" ht="13.9" customHeight="1" s="1">
       <c r="A8" t="inlineStr">
@@ -6051,6 +6114,15 @@
       <c r="IB8" t="n">
         <v>73</v>
       </c>
+      <c r="IC8" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID8" t="n">
+        <v>24</v>
+      </c>
+      <c r="IE8" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" s="1">
       <c r="A9" t="inlineStr">
@@ -6763,6 +6835,15 @@
       <c r="IB9" t="n">
         <v>1</v>
       </c>
+      <c r="IC9" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID9" t="n">
+        <v>1</v>
+      </c>
+      <c r="IE9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" ht="13.9" customHeight="1" s="1">
       <c r="A10" t="inlineStr">
@@ -7475,6 +7556,15 @@
       <c r="IB10" t="n">
         <v>8</v>
       </c>
+      <c r="IC10" t="n">
+        <v>4</v>
+      </c>
+      <c r="ID10" t="n">
+        <v>6</v>
+      </c>
+      <c r="IE10" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" ht="13.9" customHeight="1" s="1">
       <c r="A11" t="inlineStr">
@@ -8187,6 +8277,15 @@
       <c r="IB11" t="n">
         <v>263</v>
       </c>
+      <c r="IC11" t="n">
+        <v>258</v>
+      </c>
+      <c r="ID11" t="n">
+        <v>243</v>
+      </c>
+      <c r="IE11" t="n">
+        <v>229</v>
+      </c>
     </row>
     <row r="12" ht="13.9" customHeight="1" s="1">
       <c r="A12" t="inlineStr">
@@ -8899,6 +8998,15 @@
       <c r="IB12" t="n">
         <v>151</v>
       </c>
+      <c r="IC12" t="n">
+        <v>123</v>
+      </c>
+      <c r="ID12" t="n">
+        <v>117</v>
+      </c>
+      <c r="IE12" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="13" ht="13.9" customHeight="1" s="1">
       <c r="A13" t="inlineStr">
@@ -9611,6 +9719,15 @@
       <c r="IB13" t="n">
         <v>414</v>
       </c>
+      <c r="IC13" t="n">
+        <v>381</v>
+      </c>
+      <c r="ID13" t="n">
+        <v>360</v>
+      </c>
+      <c r="IE13" t="n">
+        <v>349</v>
+      </c>
     </row>
     <row r="14" ht="13.9" customHeight="1" s="1">
       <c r="A14" t="inlineStr">
@@ -10323,6 +10440,15 @@
       <c r="IB14" t="n">
         <v>1.74</v>
       </c>
+      <c r="IC14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="ID14" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="IE14" t="n">
+        <v>1.91</v>
+      </c>
     </row>
     <row r="15" ht="13.9" customHeight="1" s="1">
       <c r="A15" t="inlineStr">
@@ -11035,6 +11161,15 @@
       <c r="IB15" t="n">
         <v>138</v>
       </c>
+      <c r="IC15" t="n">
+        <v>131</v>
+      </c>
+      <c r="ID15" t="n">
+        <v>119</v>
+      </c>
+      <c r="IE15" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="16" ht="13.9" customHeight="1" s="1">
       <c r="A16" t="inlineStr">
@@ -11747,6 +11882,15 @@
       <c r="IB16" t="n">
         <v>39</v>
       </c>
+      <c r="IC16" t="n">
+        <v>70</v>
+      </c>
+      <c r="ID16" t="n">
+        <v>44</v>
+      </c>
+      <c r="IE16" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="17" ht="13.9" customHeight="1" s="1">
       <c r="A17" t="inlineStr">
@@ -12459,6 +12603,15 @@
       <c r="IB17" t="n">
         <v>42</v>
       </c>
+      <c r="IC17" t="n">
+        <v>4</v>
+      </c>
+      <c r="ID17" t="n">
+        <v>18</v>
+      </c>
+      <c r="IE17" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="18" ht="13.9" customHeight="1" s="1">
       <c r="A18" t="inlineStr">
@@ -13171,6 +13324,15 @@
       <c r="IB18" t="n">
         <v>21</v>
       </c>
+      <c r="IC18" t="n">
+        <v>17</v>
+      </c>
+      <c r="ID18" t="n">
+        <v>16</v>
+      </c>
+      <c r="IE18" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" ht="13.9" customHeight="1" s="1">
       <c r="A19" t="inlineStr">
@@ -13883,6 +14045,15 @@
       <c r="IB19" t="n">
         <v>11</v>
       </c>
+      <c r="IC19" t="n">
+        <v>17</v>
+      </c>
+      <c r="ID19" t="n">
+        <v>11</v>
+      </c>
+      <c r="IE19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" ht="13.9" customHeight="1" s="1">
       <c r="A20" t="inlineStr">
@@ -14595,6 +14766,15 @@
       <c r="IB20" t="n">
         <v>19</v>
       </c>
+      <c r="IC20" t="n">
+        <v>11</v>
+      </c>
+      <c r="ID20" t="n">
+        <v>14</v>
+      </c>
+      <c r="IE20" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="21" ht="13.9" customHeight="1" s="1">
       <c r="A21" t="inlineStr">
@@ -15307,6 +15487,15 @@
       <c r="IB21" t="n">
         <v>13</v>
       </c>
+      <c r="IC21" t="n">
+        <v>9</v>
+      </c>
+      <c r="ID21" t="n">
+        <v>12</v>
+      </c>
+      <c r="IE21" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="22" ht="13.9" customHeight="1" s="1">
       <c r="A22" t="inlineStr">
@@ -16019,6 +16208,15 @@
       <c r="IB22" t="n">
         <v>7</v>
       </c>
+      <c r="IC22" t="n">
+        <v>6</v>
+      </c>
+      <c r="ID22" t="n">
+        <v>10</v>
+      </c>
+      <c r="IE22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" ht="13.9" customHeight="1" s="1">
       <c r="A23" t="inlineStr">
@@ -16731,6 +16929,15 @@
       <c r="IB23" t="n">
         <v>3</v>
       </c>
+      <c r="IC23" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID23" t="n">
+        <v>1</v>
+      </c>
+      <c r="IE23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" ht="13.9" customHeight="1" s="1">
       <c r="A24" t="inlineStr">
@@ -17443,6 +17650,15 @@
       <c r="IB24" t="n">
         <v>29</v>
       </c>
+      <c r="IC24" t="n">
+        <v>18</v>
+      </c>
+      <c r="ID24" t="n">
+        <v>25</v>
+      </c>
+      <c r="IE24" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="25" ht="13.9" customHeight="1" s="1">
       <c r="A25" t="inlineStr">
@@ -18155,6 +18371,15 @@
       <c r="IB25" t="n">
         <v>65.5</v>
       </c>
+      <c r="IC25" t="n">
+        <v>61.1</v>
+      </c>
+      <c r="ID25" t="n">
+        <v>56</v>
+      </c>
+      <c r="IE25" t="n">
+        <v>55.6</v>
+      </c>
     </row>
     <row r="26" ht="13.9" customHeight="1" s="1">
       <c r="A26" t="inlineStr">
@@ -18867,6 +19092,15 @@
       <c r="IB26" t="n">
         <v>21.79</v>
       </c>
+      <c r="IC26" t="n">
+        <v>34.64</v>
+      </c>
+      <c r="ID26" t="n">
+        <v>25.71</v>
+      </c>
+      <c r="IE26" t="n">
+        <v>23.27</v>
+      </c>
     </row>
     <row r="27" ht="13.9" customHeight="1" s="1">
       <c r="A27" t="inlineStr">
@@ -19579,6 +19813,15 @@
       <c r="IB27" t="n">
         <v>14.28</v>
       </c>
+      <c r="IC27" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="ID27" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="IE27" t="n">
+        <v>12.93</v>
+      </c>
     </row>
     <row r="28" ht="13.9" customHeight="1" s="1">
       <c r="A28" t="inlineStr">
@@ -20291,6 +20534,15 @@
       <c r="IB28" t="n">
         <v>41</v>
       </c>
+      <c r="IC28" t="n">
+        <v>30</v>
+      </c>
+      <c r="ID28" t="n">
+        <v>34</v>
+      </c>
+      <c r="IE28" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="29" ht="13.9" customHeight="1" s="1">
       <c r="A29" t="inlineStr">
@@ -21003,6 +21255,15 @@
       <c r="IB29" t="n">
         <v>42</v>
       </c>
+      <c r="IC29" t="n">
+        <v>56</v>
+      </c>
+      <c r="ID29" t="n">
+        <v>43</v>
+      </c>
+      <c r="IE29" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="30" ht="13.9" customHeight="1" s="1">
       <c r="A30" t="inlineStr">
@@ -21715,6 +21976,15 @@
       <c r="IB30" t="n">
         <v>32</v>
       </c>
+      <c r="IC30" t="n">
+        <v>41</v>
+      </c>
+      <c r="ID30" t="n">
+        <v>40</v>
+      </c>
+      <c r="IE30" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="31" ht="13.9" customHeight="1" s="1">
       <c r="A31" t="inlineStr">
@@ -22427,6 +22697,15 @@
       <c r="IB31" t="n">
         <v>64</v>
       </c>
+      <c r="IC31" t="n">
+        <v>58</v>
+      </c>
+      <c r="ID31" t="n">
+        <v>49</v>
+      </c>
+      <c r="IE31" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="32" ht="13.9" customHeight="1" s="1">
       <c r="A32" t="inlineStr">
@@ -23139,6 +23418,15 @@
       <c r="IB32" t="n">
         <v>2.21</v>
       </c>
+      <c r="IC32" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="ID32" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="IE32" t="n">
+        <v>2.11</v>
+      </c>
     </row>
     <row r="33" ht="13.9" customHeight="1" s="1">
       <c r="A33" t="inlineStr">
@@ -23851,6 +24139,15 @@
       <c r="IB33" t="n">
         <v>3.37</v>
       </c>
+      <c r="IC33" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="ID33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="IE33" t="n">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="34" ht="13.9" customHeight="1" s="1">
       <c r="A34" t="inlineStr">
@@ -24563,6 +24860,15 @@
       <c r="IB34" t="n">
         <v>40.6</v>
       </c>
+      <c r="IC34" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="ID34" t="n">
+        <v>49</v>
+      </c>
+      <c r="IE34" t="n">
+        <v>43.9</v>
+      </c>
     </row>
     <row r="35" ht="13.9" customHeight="1" s="1">
       <c r="A35" t="inlineStr">
@@ -25275,6 +25581,15 @@
       <c r="IB35" t="n">
         <v>29.7</v>
       </c>
+      <c r="IC35" t="n">
+        <v>19</v>
+      </c>
+      <c r="ID35" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="IE35" t="n">
+        <v>26.3</v>
+      </c>
     </row>
     <row r="36" ht="13.9" customHeight="1" s="1">
       <c r="A36" t="inlineStr">
@@ -25987,6 +26302,15 @@
       <c r="IB36" t="n">
         <v>188.6</v>
       </c>
+      <c r="IC36" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="ID36" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="IE36" t="n">
+        <v>188.1</v>
+      </c>
     </row>
     <row r="37" ht="13.9" customHeight="1" s="1">
       <c r="A37" t="inlineStr">
@@ -26699,6 +27023,15 @@
       <c r="IB37" t="n">
         <v>87.3</v>
       </c>
+      <c r="IC37" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="ID37" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="IE37" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="38" ht="13.9" customHeight="1" s="1">
       <c r="A38" t="inlineStr">
@@ -27411,6 +27744,15 @@
       <c r="IB38" t="n">
         <v>26</v>
       </c>
+      <c r="IC38" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="ID38" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="IE38" t="n">
+        <v>25.66</v>
+      </c>
     </row>
     <row r="39" ht="13.9" customHeight="1" s="1">
       <c r="A39" t="inlineStr">
@@ -28123,6 +28465,15 @@
       <c r="IB39" t="n">
         <v>106.6</v>
       </c>
+      <c r="IC39" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="ID39" t="n">
+        <v>110</v>
+      </c>
+      <c r="IE39" t="n">
+        <v>99.8</v>
+      </c>
     </row>
     <row r="40" ht="13.9" customHeight="1" s="1">
       <c r="A40" t="inlineStr">
@@ -28835,6 +29186,15 @@
       <c r="IB40" t="n">
         <v>5</v>
       </c>
+      <c r="IC40" t="n">
+        <v>8</v>
+      </c>
+      <c r="ID40" t="n">
+        <v>5</v>
+      </c>
+      <c r="IE40" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" ht="13.9" customHeight="1" s="1">
       <c r="A41" t="inlineStr">
@@ -29547,6 +29907,15 @@
       <c r="IB41" t="n">
         <v>6</v>
       </c>
+      <c r="IC41" t="n">
+        <v>4</v>
+      </c>
+      <c r="ID41" t="n">
+        <v>5</v>
+      </c>
+      <c r="IE41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42" ht="13.9" customHeight="1" s="1">
       <c r="A42" t="inlineStr">
@@ -30259,6 +30628,15 @@
       <c r="IB42" t="n">
         <v>7</v>
       </c>
+      <c r="IC42" t="n">
+        <v>5</v>
+      </c>
+      <c r="ID42" t="n">
+        <v>8</v>
+      </c>
+      <c r="IE42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" ht="13.9" customHeight="1" s="1">
       <c r="A43" t="inlineStr">
@@ -30971,6 +31349,15 @@
       <c r="IB43" t="n">
         <v>5</v>
       </c>
+      <c r="IC43" t="n">
+        <v>5</v>
+      </c>
+      <c r="ID43" t="n">
+        <v>4</v>
+      </c>
+      <c r="IE43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44" ht="13.9" customHeight="1" s="1">
       <c r="A44" t="inlineStr">
@@ -31683,6 +32070,15 @@
       <c r="IB44" t="n">
         <v>135</v>
       </c>
+      <c r="IC44" t="n">
+        <v>140</v>
+      </c>
+      <c r="ID44" t="n">
+        <v>135</v>
+      </c>
+      <c r="IE44" t="n">
+        <v>165</v>
+      </c>
     </row>
     <row r="45" ht="13.9" customHeight="1" s="1">
       <c r="A45" t="inlineStr">
@@ -32395,6 +32791,15 @@
       <c r="IB45" t="n">
         <v>279</v>
       </c>
+      <c r="IC45" t="n">
+        <v>241</v>
+      </c>
+      <c r="ID45" t="n">
+        <v>218</v>
+      </c>
+      <c r="IE45" t="n">
+        <v>176</v>
+      </c>
     </row>
     <row r="46" ht="13.9" customHeight="1" s="1">
       <c r="A46" t="inlineStr">
@@ -33107,6 +33512,15 @@
       <c r="IB46" t="n">
         <v>327</v>
       </c>
+      <c r="IC46" t="n">
+        <v>286</v>
+      </c>
+      <c r="ID46" t="n">
+        <v>262</v>
+      </c>
+      <c r="IE46" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="47" ht="13.9" customHeight="1" s="1">
       <c r="A47" t="inlineStr">
@@ -33819,6 +34233,15 @@
       <c r="IB47" t="n">
         <v>79</v>
       </c>
+      <c r="IC47" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="ID47" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="IE47" t="n">
+        <v>66.2</v>
+      </c>
     </row>
     <row r="48" ht="13.9" customHeight="1" s="1">
       <c r="A48" t="inlineStr">
@@ -34531,6 +34954,15 @@
       <c r="IB48" t="n">
         <v>42</v>
       </c>
+      <c r="IC48" t="n">
+        <v>56</v>
+      </c>
+      <c r="ID48" t="n">
+        <v>43</v>
+      </c>
+      <c r="IE48" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="49" ht="13.9" customHeight="1" s="1">
       <c r="A49" t="inlineStr">
@@ -35243,6 +35675,15 @@
       <c r="IB49" t="n">
         <v>20</v>
       </c>
+      <c r="IC49" t="n">
+        <v>12</v>
+      </c>
+      <c r="ID49" t="n">
+        <v>18</v>
+      </c>
+      <c r="IE49" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="50" ht="13.9" customHeight="1" s="1">
       <c r="A50" t="inlineStr">
@@ -35955,6 +36396,15 @@
       <c r="IB50" t="n">
         <v>16</v>
       </c>
+      <c r="IC50" t="n">
+        <v>11</v>
+      </c>
+      <c r="ID50" t="n">
+        <v>22</v>
+      </c>
+      <c r="IE50" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="51" ht="13.9" customHeight="1" s="1">
       <c r="A51" t="inlineStr">
@@ -36667,6 +37117,15 @@
       <c r="IB51" t="n">
         <v>41</v>
       </c>
+      <c r="IC51" t="n">
+        <v>30</v>
+      </c>
+      <c r="ID51" t="n">
+        <v>34</v>
+      </c>
+      <c r="IE51" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="52" ht="13.9" customHeight="1" s="1">
       <c r="A52" t="inlineStr">
@@ -37379,6 +37838,15 @@
       <c r="IB52" t="n">
         <v>32</v>
       </c>
+      <c r="IC52" t="n">
+        <v>41</v>
+      </c>
+      <c r="ID52" t="n">
+        <v>40</v>
+      </c>
+      <c r="IE52" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="53" ht="13.9" customHeight="1" s="1">
       <c r="A53" t="inlineStr">
@@ -38091,6 +38559,15 @@
       <c r="IB53" t="n">
         <v>44</v>
       </c>
+      <c r="IC53" t="n">
+        <v>48</v>
+      </c>
+      <c r="ID53" t="n">
+        <v>39</v>
+      </c>
+      <c r="IE53" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="54" ht="13.9" customHeight="1" s="1">
       <c r="A54" t="inlineStr">
@@ -38803,6 +39280,15 @@
       <c r="IB54" t="n">
         <v>3</v>
       </c>
+      <c r="IC54" t="n">
+        <v>2</v>
+      </c>
+      <c r="ID54" t="n">
+        <v>1</v>
+      </c>
+      <c r="IE54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55" ht="13.9" customHeight="1" s="1">
       <c r="A55" t="inlineStr">
@@ -39515,6 +40001,15 @@
       <c r="IB55" t="n">
         <v>13</v>
       </c>
+      <c r="IC55" t="n">
+        <v>9</v>
+      </c>
+      <c r="ID55" t="n">
+        <v>12</v>
+      </c>
+      <c r="IE55" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="56" ht="13.9" customHeight="1" s="1">
       <c r="A56" t="inlineStr">
@@ -40227,6 +40722,15 @@
       <c r="IB56" t="n">
         <v>68.40000000000001</v>
       </c>
+      <c r="IC56" t="n">
+        <v>81.8</v>
+      </c>
+      <c r="ID56" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="IE56" t="n">
+        <v>73.3</v>
+      </c>
     </row>
     <row r="57" ht="13.9" customHeight="1" s="1">
       <c r="A57" t="inlineStr">
@@ -40939,6 +41443,15 @@
       <c r="IB57" t="n">
         <v>177</v>
       </c>
+      <c r="IC57" t="n">
+        <v>242</v>
+      </c>
+      <c r="ID57" t="n">
+        <v>184</v>
+      </c>
+      <c r="IE57" t="n">
+        <v>176</v>
+      </c>
     </row>
     <row r="58" ht="13.9" customHeight="1" s="1">
       <c r="A58" t="inlineStr">
@@ -41651,6 +42164,15 @@
       <c r="IB58" t="n">
         <v>118</v>
       </c>
+      <c r="IC58" t="n">
+        <v>156</v>
+      </c>
+      <c r="ID58" t="n">
+        <v>159</v>
+      </c>
+      <c r="IE58" t="n">
+        <v>153</v>
+      </c>
     </row>
     <row r="59" ht="13.9" customHeight="1" s="1">
       <c r="A59" t="inlineStr">
@@ -42363,6 +42885,15 @@
       <c r="IB59" t="n">
         <v>295</v>
       </c>
+      <c r="IC59" t="n">
+        <v>398</v>
+      </c>
+      <c r="ID59" t="n">
+        <v>343</v>
+      </c>
+      <c r="IE59" t="n">
+        <v>329</v>
+      </c>
     </row>
     <row r="60" ht="13.9" customHeight="1" s="1">
       <c r="A60" t="inlineStr">
@@ -43075,6 +43606,15 @@
       <c r="IB60" t="n">
         <v>1.5</v>
       </c>
+      <c r="IC60" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="ID60" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="IE60" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="61" ht="13.9" customHeight="1" s="1">
       <c r="A61" t="inlineStr">
@@ -43787,6 +44327,15 @@
       <c r="IB61" t="n">
         <v>81</v>
       </c>
+      <c r="IC61" t="n">
+        <v>108</v>
+      </c>
+      <c r="ID61" t="n">
+        <v>74</v>
+      </c>
+      <c r="IE61" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="62" ht="13.9" customHeight="1" s="1">
       <c r="A62" t="inlineStr">
@@ -44499,6 +45048,15 @@
       <c r="IB62" t="n">
         <v>43</v>
       </c>
+      <c r="IC62" t="n">
+        <v>56</v>
+      </c>
+      <c r="ID62" t="n">
+        <v>40</v>
+      </c>
+      <c r="IE62" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="63" ht="13.9" customHeight="1" s="1">
       <c r="A63" t="inlineStr">
@@ -45211,6 +45769,15 @@
       <c r="IB63" t="n">
         <v>17</v>
       </c>
+      <c r="IC63" t="n">
+        <v>63</v>
+      </c>
+      <c r="ID63" t="n">
+        <v>52</v>
+      </c>
+      <c r="IE63" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="64" ht="13.9" customHeight="1" s="1">
       <c r="A64" t="inlineStr">
@@ -45923,6 +46490,15 @@
       <c r="IB64" t="n">
         <v>11</v>
       </c>
+      <c r="IC64" t="n">
+        <v>17</v>
+      </c>
+      <c r="ID64" t="n">
+        <v>11</v>
+      </c>
+      <c r="IE64" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="65" ht="13.9" customHeight="1" s="1">
       <c r="A65" t="inlineStr">
@@ -46635,6 +47211,15 @@
       <c r="IB65" t="n">
         <v>21</v>
       </c>
+      <c r="IC65" t="n">
+        <v>17</v>
+      </c>
+      <c r="ID65" t="n">
+        <v>16</v>
+      </c>
+      <c r="IE65" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="66" ht="13.9" customHeight="1" s="1">
       <c r="A66" t="inlineStr">
@@ -47347,6 +47932,15 @@
       <c r="IB66" t="n">
         <v>7</v>
       </c>
+      <c r="IC66" t="n">
+        <v>11</v>
+      </c>
+      <c r="ID66" t="n">
+        <v>10</v>
+      </c>
+      <c r="IE66" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="67" ht="13.9" customHeight="1" s="1">
       <c r="A67" t="inlineStr">
@@ -48059,6 +48653,15 @@
       <c r="IB67" t="n">
         <v>3</v>
       </c>
+      <c r="IC67" t="n">
+        <v>7</v>
+      </c>
+      <c r="ID67" t="n">
+        <v>9</v>
+      </c>
+      <c r="IE67" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="68" ht="13.9" customHeight="1" s="1">
       <c r="A68" t="inlineStr">
@@ -48771,6 +49374,15 @@
       <c r="IB68" t="n">
         <v>7</v>
       </c>
+      <c r="IC68" t="n">
+        <v>5</v>
+      </c>
+      <c r="ID68" t="n">
+        <v>9</v>
+      </c>
+      <c r="IE68" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="69" ht="13.9" customHeight="1" s="1">
       <c r="A69" t="inlineStr">
@@ -49483,6 +50095,15 @@
       <c r="IB69" t="n">
         <v>2</v>
       </c>
+      <c r="IC69" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID69" t="n">
+        <v>2</v>
+      </c>
+      <c r="IE69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70" ht="13.9" customHeight="1" s="1">
       <c r="A70" t="inlineStr">
@@ -50195,6 +50816,15 @@
       <c r="IB70" t="n">
         <v>16</v>
       </c>
+      <c r="IC70" t="n">
+        <v>17</v>
+      </c>
+      <c r="ID70" t="n">
+        <v>21</v>
+      </c>
+      <c r="IE70" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="71" ht="13.9" customHeight="1" s="1">
       <c r="A71" t="inlineStr">
@@ -50907,6 +51537,15 @@
       <c r="IB71" t="n">
         <v>43.8</v>
       </c>
+      <c r="IC71" t="n">
+        <v>64.7</v>
+      </c>
+      <c r="ID71" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="IE71" t="n">
+        <v>57.9</v>
+      </c>
     </row>
     <row r="72" ht="13.9" customHeight="1" s="1">
       <c r="A72" t="inlineStr">
@@ -51619,6 +52258,15 @@
       <c r="IB72" t="n">
         <v>42.14</v>
       </c>
+      <c r="IC72" t="n">
+        <v>36.18</v>
+      </c>
+      <c r="ID72" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="IE72" t="n">
+        <v>29.91</v>
+      </c>
     </row>
     <row r="73" ht="13.9" customHeight="1" s="1">
       <c r="A73" t="inlineStr">
@@ -52331,6 +52979,15 @@
       <c r="IB73" t="n">
         <v>18.44</v>
       </c>
+      <c r="IC73" t="n">
+        <v>23.41</v>
+      </c>
+      <c r="ID73" t="n">
+        <v>16.33</v>
+      </c>
+      <c r="IE73" t="n">
+        <v>17.32</v>
+      </c>
     </row>
     <row r="74" ht="13.9" customHeight="1" s="1">
       <c r="A74" t="inlineStr">
@@ -53043,6 +53700,15 @@
       <c r="IB74" t="n">
         <v>24</v>
       </c>
+      <c r="IC74" t="n">
+        <v>35</v>
+      </c>
+      <c r="ID74" t="n">
+        <v>33</v>
+      </c>
+      <c r="IE74" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="75" ht="13.9" customHeight="1" s="1">
       <c r="A75" t="inlineStr">
@@ -53755,6 +54421,15 @@
       <c r="IB75" t="n">
         <v>49</v>
       </c>
+      <c r="IC75" t="n">
+        <v>61</v>
+      </c>
+      <c r="ID75" t="n">
+        <v>50</v>
+      </c>
+      <c r="IE75" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="76" ht="13.9" customHeight="1" s="1">
       <c r="A76" t="inlineStr">
@@ -54467,6 +55142,15 @@
       <c r="IB76" t="n">
         <v>40</v>
       </c>
+      <c r="IC76" t="n">
+        <v>47</v>
+      </c>
+      <c r="ID76" t="n">
+        <v>33</v>
+      </c>
+      <c r="IE76" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="77" ht="13.9" customHeight="1" s="1">
       <c r="A77" t="inlineStr">
@@ -55179,6 +55863,15 @@
       <c r="IB77" t="n">
         <v>39</v>
       </c>
+      <c r="IC77" t="n">
+        <v>53</v>
+      </c>
+      <c r="ID77" t="n">
+        <v>52</v>
+      </c>
+      <c r="IE77" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="78" ht="13.9" customHeight="1" s="1">
       <c r="A78" t="inlineStr">
@@ -55891,6 +56584,15 @@
       <c r="IB78" t="n">
         <v>2.44</v>
       </c>
+      <c r="IC78" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="ID78" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="IE78" t="n">
+        <v>2.37</v>
+      </c>
     </row>
     <row r="79" ht="13.9" customHeight="1" s="1">
       <c r="A79" t="inlineStr">
@@ -56603,6 +57305,15 @@
       <c r="IB79" t="n">
         <v>5.57</v>
       </c>
+      <c r="IC79" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="ID79" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="IE79" t="n">
+        <v>4.09</v>
+      </c>
     </row>
     <row r="80" ht="13.9" customHeight="1" s="1">
       <c r="A80" t="inlineStr">
@@ -57315,6 +58026,15 @@
       <c r="IB80" t="n">
         <v>35.9</v>
       </c>
+      <c r="IC80" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="ID80" t="n">
+        <v>36.5</v>
+      </c>
+      <c r="IE80" t="n">
+        <v>37.8</v>
+      </c>
     </row>
     <row r="81" ht="13.9" customHeight="1" s="1">
       <c r="A81" t="inlineStr">
@@ -58027,6 +58747,15 @@
       <c r="IB81" t="n">
         <v>17.9</v>
       </c>
+      <c r="IC81" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="ID81" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="IE81" t="n">
+        <v>24.4</v>
+      </c>
     </row>
     <row r="82" ht="13.9" customHeight="1" s="1">
       <c r="A82" t="inlineStr">
@@ -58739,6 +59468,15 @@
       <c r="IB82" t="n">
         <v>186.8</v>
       </c>
+      <c r="IC82" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="ID82" t="n">
+        <v>187.2</v>
+      </c>
+      <c r="IE82" t="n">
+        <v>186.7</v>
+      </c>
     </row>
     <row r="83" ht="13.9" customHeight="1" s="1">
       <c r="A83" t="inlineStr">
@@ -59451,6 +60189,15 @@
       <c r="IB83" t="n">
         <v>83.7</v>
       </c>
+      <c r="IC83" t="n">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="ID83" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="IE83" t="n">
+        <v>85.90000000000001</v>
+      </c>
     </row>
     <row r="84" ht="13.9" customHeight="1" s="1">
       <c r="A84" t="inlineStr">
@@ -60163,6 +60910,15 @@
       <c r="IB84" t="n">
         <v>23.58</v>
       </c>
+      <c r="IC84" t="n">
+        <v>26.91</v>
+      </c>
+      <c r="ID84" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="IE84" t="n">
+        <v>26.16</v>
+      </c>
     </row>
     <row r="85" ht="13.9" customHeight="1" s="1">
       <c r="A85" t="inlineStr">
@@ -60875,6 +61631,15 @@
       <c r="IB85" t="n">
         <v>58.1</v>
       </c>
+      <c r="IC85" t="n">
+        <v>114.3</v>
+      </c>
+      <c r="ID85" t="n">
+        <v>87.2</v>
+      </c>
+      <c r="IE85" t="n">
+        <v>104.4</v>
+      </c>
     </row>
     <row r="86" ht="13.9" customHeight="1" s="1">
       <c r="A86" t="inlineStr">
@@ -61587,6 +62352,15 @@
       <c r="IB86" t="n">
         <v>13</v>
       </c>
+      <c r="IC86" t="n">
+        <v>6</v>
+      </c>
+      <c r="ID86" t="n">
+        <v>9</v>
+      </c>
+      <c r="IE86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87" ht="13.9" customHeight="1" s="1">
       <c r="A87" t="inlineStr">
@@ -62299,6 +63073,15 @@
       <c r="IB87" t="n">
         <v>5</v>
       </c>
+      <c r="IC87" t="n">
+        <v>4</v>
+      </c>
+      <c r="ID87" t="n">
+        <v>6</v>
+      </c>
+      <c r="IE87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88" ht="13.9" customHeight="1" s="1">
       <c r="A88" t="inlineStr">
@@ -63011,6 +63794,15 @@
       <c r="IB88" t="n">
         <v>3</v>
       </c>
+      <c r="IC88" t="n">
+        <v>4</v>
+      </c>
+      <c r="ID88" t="n">
+        <v>5</v>
+      </c>
+      <c r="IE88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89" ht="13.9" customHeight="1" s="1">
       <c r="A89" t="inlineStr">
@@ -63723,6 +64515,15 @@
       <c r="IB89" t="n">
         <v>2</v>
       </c>
+      <c r="IC89" t="n">
+        <v>8</v>
+      </c>
+      <c r="ID89" t="n">
+        <v>3</v>
+      </c>
+      <c r="IE89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90" ht="13.9" customHeight="1" s="1">
       <c r="A90" t="inlineStr">
@@ -64435,6 +65236,15 @@
       <c r="IB90" t="n">
         <v>111</v>
       </c>
+      <c r="IC90" t="n">
+        <v>155</v>
+      </c>
+      <c r="ID90" t="n">
+        <v>121</v>
+      </c>
+      <c r="IE90" t="n">
+        <v>138</v>
+      </c>
     </row>
     <row r="91" ht="13.9" customHeight="1" s="1">
       <c r="A91" t="inlineStr">
@@ -65147,6 +65957,15 @@
       <c r="IB91" t="n">
         <v>189</v>
       </c>
+      <c r="IC91" t="n">
+        <v>239</v>
+      </c>
+      <c r="ID91" t="n">
+        <v>215</v>
+      </c>
+      <c r="IE91" t="n">
+        <v>193</v>
+      </c>
     </row>
     <row r="92" ht="13.9" customHeight="1" s="1">
       <c r="A92" t="inlineStr">
@@ -65859,6 +66678,15 @@
       <c r="IB92" t="n">
         <v>214</v>
       </c>
+      <c r="IC92" t="n">
+        <v>289</v>
+      </c>
+      <c r="ID92" t="n">
+        <v>258</v>
+      </c>
+      <c r="IE92" t="n">
+        <v>233</v>
+      </c>
     </row>
     <row r="93" ht="13.9" customHeight="1" s="1">
       <c r="A93" t="inlineStr">
@@ -66571,6 +67399,15 @@
       <c r="IB93" t="n">
         <v>72.5</v>
       </c>
+      <c r="IC93" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="ID93" t="n">
+        <v>75.2</v>
+      </c>
+      <c r="IE93" t="n">
+        <v>70.8</v>
+      </c>
     </row>
     <row r="94" ht="13.9" customHeight="1" s="1">
       <c r="A94" t="inlineStr">
@@ -67283,6 +68120,15 @@
       <c r="IB94" t="n">
         <v>49</v>
       </c>
+      <c r="IC94" t="n">
+        <v>61</v>
+      </c>
+      <c r="ID94" t="n">
+        <v>50</v>
+      </c>
+      <c r="IE94" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="95" ht="13.9" customHeight="1" s="1">
       <c r="A95" t="inlineStr">
@@ -67995,6 +68841,15 @@
       <c r="IB95" t="n">
         <v>10</v>
       </c>
+      <c r="IC95" t="n">
+        <v>12</v>
+      </c>
+      <c r="ID95" t="n">
+        <v>8</v>
+      </c>
+      <c r="IE95" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="96" ht="13.9" customHeight="1" s="1">
       <c r="A96" t="inlineStr">
@@ -68707,6 +69562,15 @@
       <c r="IB96" t="n">
         <v>6</v>
       </c>
+      <c r="IC96" t="n">
+        <v>7</v>
+      </c>
+      <c r="ID96" t="n">
+        <v>18</v>
+      </c>
+      <c r="IE96" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="97" ht="13.9" customHeight="1" s="1">
       <c r="A97" t="inlineStr">
@@ -69419,6 +70283,15 @@
       <c r="IB97" t="n">
         <v>24</v>
       </c>
+      <c r="IC97" t="n">
+        <v>35</v>
+      </c>
+      <c r="ID97" t="n">
+        <v>33</v>
+      </c>
+      <c r="IE97" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="98" ht="13.9" customHeight="1" s="1">
       <c r="A98" t="inlineStr">
@@ -70131,6 +71004,15 @@
       <c r="IB98" t="n">
         <v>40</v>
       </c>
+      <c r="IC98" t="n">
+        <v>47</v>
+      </c>
+      <c r="ID98" t="n">
+        <v>33</v>
+      </c>
+      <c r="IE98" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="99" ht="13.9" customHeight="1" s="1">
       <c r="A99" t="inlineStr">
@@ -70843,6 +71725,15 @@
       <c r="IB99" t="n">
         <v>51</v>
       </c>
+      <c r="IC99" t="n">
+        <v>38</v>
+      </c>
+      <c r="ID99" t="n">
+        <v>46</v>
+      </c>
+      <c r="IE99" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="100" ht="13.9" customHeight="1" s="1">
       <c r="A100" t="inlineStr">
@@ -71555,6 +72446,15 @@
       <c r="IB100" t="n">
         <v>12</v>
       </c>
+      <c r="IC100" t="n">
+        <v>6</v>
+      </c>
+      <c r="ID100" t="n">
+        <v>11</v>
+      </c>
+      <c r="IE100" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="101" ht="13.9" customHeight="1" s="1">
       <c r="A101" t="inlineStr">
@@ -72267,6 +73167,15 @@
       <c r="IB101" t="n">
         <v>3</v>
       </c>
+      <c r="IC101" t="n">
+        <v>7</v>
+      </c>
+      <c r="ID101" t="n">
+        <v>9</v>
+      </c>
+      <c r="IE101" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="102" ht="13.9" customHeight="1" s="1">
       <c r="A102" t="inlineStr">
@@ -72979,6 +73888,15 @@
       <c r="IB102" t="n">
         <v>42.9</v>
       </c>
+      <c r="IC102" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="ID102" t="n">
+        <v>90</v>
+      </c>
+      <c r="IE102" t="n">
+        <v>81.8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/django_AFL_ML/Data/Brisbane_stats.xlsx
+++ b/django_AFL_ML/Data/Brisbane_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HX102"/>
+  <dimension ref="A1:HY102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HG1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HQ11" activeCellId="0" sqref="HQ11"/>
@@ -1085,8 +1085,11 @@
       <c r="HW1" s="1" t="n">
         <v>10417</v>
       </c>
-      <c r="HX1" t="n">
+      <c r="HX1" s="1" t="n">
         <v>10430</v>
+      </c>
+      <c r="HY1" t="n">
+        <v>10442</v>
       </c>
     </row>
     <row r="2" ht="13.9" customHeight="1" s="2">
@@ -1785,7 +1788,10 @@
       <c r="HW2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="HX2" t="n">
+      <c r="HX2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="HY2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2485,8 +2491,11 @@
       <c r="HW3" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HX3" t="n">
+      <c r="HX3" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="13.9" customHeight="1" s="2">
@@ -3185,7 +3194,10 @@
       <c r="HW4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HX4" t="n">
+      <c r="HX4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3885,8 +3897,11 @@
       <c r="HW5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="HX5" t="n">
+      <c r="HX5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HY5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.9" customHeight="1" s="2">
@@ -4585,8 +4600,11 @@
       <c r="HW6" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="HX6" t="n">
+      <c r="HX6" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="HY6" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="7" ht="13.9" customHeight="1" s="2">
@@ -5285,8 +5303,11 @@
       <c r="HW7" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="HX7" t="n">
+      <c r="HX7" s="1" t="n">
         <v>97</v>
+      </c>
+      <c r="HY7" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="8" ht="13.9" customHeight="1" s="2">
@@ -5985,8 +6006,11 @@
       <c r="HW8" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="HX8" t="n">
+      <c r="HX8" s="1" t="n">
         <v>-22</v>
+      </c>
+      <c r="HY8" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" s="2">
@@ -6685,8 +6709,11 @@
       <c r="HW9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HX9" t="n">
+      <c r="HX9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="HY9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.9" customHeight="1" s="2">
@@ -7385,8 +7412,11 @@
       <c r="HW10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HX10" t="n">
+      <c r="HX10" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HY10" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="13.9" customHeight="1" s="2">
@@ -8085,8 +8115,11 @@
       <c r="HW11" s="1" t="n">
         <v>242</v>
       </c>
-      <c r="HX11" t="n">
+      <c r="HX11" s="1" t="n">
         <v>233</v>
+      </c>
+      <c r="HY11" t="n">
+        <v>226</v>
       </c>
     </row>
     <row r="12" ht="13.9" customHeight="1" s="2">
@@ -8785,8 +8818,11 @@
       <c r="HW12" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="HX12" t="n">
+      <c r="HX12" s="1" t="n">
         <v>113</v>
+      </c>
+      <c r="HY12" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="13" ht="13.9" customHeight="1" s="2">
@@ -9485,8 +9521,11 @@
       <c r="HW13" s="1" t="n">
         <v>373</v>
       </c>
-      <c r="HX13" t="n">
+      <c r="HX13" s="1" t="n">
         <v>346</v>
+      </c>
+      <c r="HY13" t="n">
+        <v>355</v>
       </c>
     </row>
     <row r="14" ht="13.9" customHeight="1" s="2">
@@ -10185,8 +10224,11 @@
       <c r="HW14" s="1" t="n">
         <v>1.85</v>
       </c>
-      <c r="HX14" t="n">
+      <c r="HX14" s="1" t="n">
         <v>2.06</v>
+      </c>
+      <c r="HY14" t="n">
+        <v>1.75</v>
       </c>
     </row>
     <row r="15" ht="13.9" customHeight="1" s="2">
@@ -10885,8 +10927,11 @@
       <c r="HW15" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="HX15" t="n">
+      <c r="HX15" s="1" t="n">
         <v>105</v>
+      </c>
+      <c r="HY15" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="16" ht="13.9" customHeight="1" s="2">
@@ -11585,8 +11630,11 @@
       <c r="HW16" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HX16" t="n">
+      <c r="HX16" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="HY16" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="17" ht="13.9" customHeight="1" s="2">
@@ -12285,8 +12333,11 @@
       <c r="HW17" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="HX17" t="n">
+      <c r="HX17" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="HY17" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="13.9" customHeight="1" s="2">
@@ -12985,8 +13036,11 @@
       <c r="HW18" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="HX18" t="n">
+      <c r="HX18" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="HY18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="13.9" customHeight="1" s="2">
@@ -13685,8 +13739,11 @@
       <c r="HW19" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HX19" t="n">
+      <c r="HX19" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="HY19" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="13.9" customHeight="1" s="2">
@@ -14385,8 +14442,11 @@
       <c r="HW20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="HX20" t="n">
+      <c r="HX20" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="HY20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.9" customHeight="1" s="2">
@@ -15085,8 +15145,11 @@
       <c r="HW21" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HX21" t="n">
+      <c r="HX21" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HY21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22" ht="13.9" customHeight="1" s="2">
@@ -15785,8 +15848,11 @@
       <c r="HW22" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HX22" t="n">
+      <c r="HX22" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HY22" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="23" ht="13.9" customHeight="1" s="2">
@@ -16485,8 +16551,11 @@
       <c r="HW23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HX23" t="n">
+      <c r="HX23" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HY23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.9" customHeight="1" s="2">
@@ -17185,8 +17254,11 @@
       <c r="HW24" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="HX24" t="n">
+      <c r="HX24" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="HY24" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="13.9" customHeight="1" s="2">
@@ -17885,8 +17957,11 @@
       <c r="HW25" s="1" t="n">
         <v>55.9</v>
       </c>
-      <c r="HX25" t="n">
+      <c r="HX25" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="HY25" t="n">
+        <v>39.1</v>
       </c>
     </row>
     <row r="26" ht="13.9" customHeight="1" s="2">
@@ -18585,8 +18660,11 @@
       <c r="HW26" s="1" t="n">
         <v>19.63</v>
       </c>
-      <c r="HX26" t="n">
+      <c r="HX26" s="1" t="n">
         <v>31.45</v>
+      </c>
+      <c r="HY26" t="n">
+        <v>39.44</v>
       </c>
     </row>
     <row r="27" ht="13.9" customHeight="1" s="2">
@@ -19285,8 +19363,11 @@
       <c r="HW27" s="1" t="n">
         <v>10.97</v>
       </c>
-      <c r="HX27" t="n">
+      <c r="HX27" s="1" t="n">
         <v>17.3</v>
+      </c>
+      <c r="HY27" t="n">
+        <v>15.43</v>
       </c>
     </row>
     <row r="28" ht="13.9" customHeight="1" s="2">
@@ -19985,8 +20066,11 @@
       <c r="HW28" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="HX28" t="n">
+      <c r="HX28" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="HY28" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="29" ht="13.9" customHeight="1" s="2">
@@ -20685,8 +20769,11 @@
       <c r="HW29" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="HX29" t="n">
+      <c r="HX29" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="HY29" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="30" ht="13.9" customHeight="1" s="2">
@@ -21385,8 +21472,11 @@
       <c r="HW30" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="HX30" t="n">
+      <c r="HX30" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="HY30" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="31" ht="13.9" customHeight="1" s="2">
@@ -22085,8 +22175,11 @@
       <c r="HW31" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="HX31" t="n">
+      <c r="HX31" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="HY31" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="32" ht="13.9" customHeight="1" s="2">
@@ -22785,8 +22878,11 @@
       <c r="HW32" s="1" t="n">
         <v>1.65</v>
       </c>
-      <c r="HX32" t="n">
+      <c r="HX32" s="1" t="n">
         <v>2.45</v>
+      </c>
+      <c r="HY32" t="n">
+        <v>2.96</v>
       </c>
     </row>
     <row r="33" ht="13.9" customHeight="1" s="2">
@@ -23485,8 +23581,11 @@
       <c r="HW33" s="1" t="n">
         <v>2.95</v>
       </c>
-      <c r="HX33" t="n">
+      <c r="HX33" s="1" t="n">
         <v>4.45</v>
+      </c>
+      <c r="HY33" t="n">
+        <v>7.56</v>
       </c>
     </row>
     <row r="34" ht="13.9" customHeight="1" s="2">
@@ -24185,8 +24284,11 @@
       <c r="HW34" s="1" t="n">
         <v>55.4</v>
       </c>
-      <c r="HX34" t="n">
+      <c r="HX34" s="1" t="n">
         <v>36.7</v>
+      </c>
+      <c r="HY34" t="n">
+        <v>32.4</v>
       </c>
     </row>
     <row r="35" ht="13.9" customHeight="1" s="2">
@@ -24885,8 +24987,11 @@
       <c r="HW35" s="1" t="n">
         <v>33.9</v>
       </c>
-      <c r="HX35" t="n">
+      <c r="HX35" s="1" t="n">
         <v>22.4</v>
+      </c>
+      <c r="HY35" t="n">
+        <v>13.2</v>
       </c>
     </row>
     <row r="36" ht="13.9" customHeight="1" s="2">
@@ -25585,8 +25690,11 @@
       <c r="HW36" s="1" t="n">
         <v>188.1</v>
       </c>
-      <c r="HX36" t="n">
+      <c r="HX36" s="1" t="n">
         <v>187.9</v>
+      </c>
+      <c r="HY36" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="37" ht="13.9" customHeight="1" s="2">
@@ -26285,8 +26393,11 @@
       <c r="HW37" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="HX37" t="n">
+      <c r="HX37" s="1" t="n">
         <v>87</v>
+      </c>
+      <c r="HY37" t="n">
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.9" customHeight="1" s="2">
@@ -26985,8 +27096,11 @@
       <c r="HW38" s="1" t="n">
         <v>25.66</v>
       </c>
-      <c r="HX38" t="n">
+      <c r="HX38" s="1" t="n">
         <v>26.16</v>
+      </c>
+      <c r="HY38" t="n">
+        <v>25.58</v>
       </c>
     </row>
     <row r="39" ht="13.9" customHeight="1" s="2">
@@ -27685,8 +27799,11 @@
       <c r="HW39" s="1" t="n">
         <v>100.8</v>
       </c>
-      <c r="HX39" t="n">
+      <c r="HX39" s="1" t="n">
         <v>111.8</v>
+      </c>
+      <c r="HY39" t="n">
+        <v>102.2</v>
       </c>
     </row>
     <row r="40" ht="13.9" customHeight="1" s="2">
@@ -28385,8 +28502,11 @@
       <c r="HW40" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HX40" t="n">
+      <c r="HX40" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="HY40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.9" customHeight="1" s="2">
@@ -29085,7 +29205,10 @@
       <c r="HW41" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HX41" t="n">
+      <c r="HX41" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HY41" t="n">
         <v>6</v>
       </c>
     </row>
@@ -29785,7 +29908,10 @@
       <c r="HW42" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HX42" t="n">
+      <c r="HX42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="HY42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -30485,8 +30611,11 @@
       <c r="HW43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HX43" t="n">
+      <c r="HX43" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HY43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.9" customHeight="1" s="2">
@@ -31185,8 +31314,11 @@
       <c r="HW44" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="HX44" t="n">
+      <c r="HX44" s="1" t="n">
         <v>133</v>
+      </c>
+      <c r="HY44" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="45" ht="13.9" customHeight="1" s="2">
@@ -31885,8 +32017,11 @@
       <c r="HW45" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="HX45" t="n">
+      <c r="HX45" s="1" t="n">
         <v>197</v>
+      </c>
+      <c r="HY45" t="n">
+        <v>192</v>
       </c>
     </row>
     <row r="46" ht="13.9" customHeight="1" s="2">
@@ -32585,8 +32720,11 @@
       <c r="HW46" s="1" t="n">
         <v>266</v>
       </c>
-      <c r="HX46" t="n">
+      <c r="HX46" s="1" t="n">
         <v>257</v>
+      </c>
+      <c r="HY46" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="47" ht="13.9" customHeight="1" s="2">
@@ -33285,8 +33423,11 @@
       <c r="HW47" s="1" t="n">
         <v>71.3</v>
       </c>
-      <c r="HX47" t="n">
+      <c r="HX47" s="1" t="n">
         <v>74.3</v>
+      </c>
+      <c r="HY47" t="n">
+        <v>65.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.9" customHeight="1" s="2">
@@ -33985,8 +34126,11 @@
       <c r="HW48" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="HX48" t="n">
+      <c r="HX48" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="HY48" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="49" ht="13.9" customHeight="1" s="2">
@@ -34685,8 +34829,11 @@
       <c r="HW49" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HX49" t="n">
+      <c r="HX49" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="HY49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.9" customHeight="1" s="2">
@@ -35385,8 +35532,11 @@
       <c r="HW50" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HX50" t="n">
+      <c r="HX50" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="HY50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.9" customHeight="1" s="2">
@@ -36085,8 +36235,11 @@
       <c r="HW51" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="HX51" t="n">
+      <c r="HX51" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="HY51" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="52" ht="13.9" customHeight="1" s="2">
@@ -36785,8 +36938,11 @@
       <c r="HW52" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="HX52" t="n">
+      <c r="HX52" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="HY52" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="53" ht="13.9" customHeight="1" s="2">
@@ -37485,8 +37641,11 @@
       <c r="HW53" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="HX53" t="n">
+      <c r="HX53" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="HY53" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="54" ht="13.9" customHeight="1" s="2">
@@ -38185,7 +38344,10 @@
       <c r="HW54" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HX54" t="n">
+      <c r="HX54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="HY54" t="n">
         <v>2</v>
       </c>
     </row>
@@ -38885,8 +39047,11 @@
       <c r="HW55" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HX55" t="n">
+      <c r="HX55" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HY55" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="56" ht="13.9" customHeight="1" s="2">
@@ -39585,8 +39750,11 @@
       <c r="HW56" s="1" t="n">
         <v>63.2</v>
       </c>
-      <c r="HX56" t="n">
+      <c r="HX56" s="1" t="n">
         <v>36.4</v>
+      </c>
+      <c r="HY56" t="n">
+        <v>22.2</v>
       </c>
     </row>
     <row r="57" ht="13.9" customHeight="1" s="2">
@@ -40285,8 +40453,11 @@
       <c r="HW57" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="HX57" t="n">
+      <c r="HX57" s="1" t="n">
         <v>192</v>
+      </c>
+      <c r="HY57" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="58" ht="13.9" customHeight="1" s="2">
@@ -40985,8 +41156,11 @@
       <c r="HW58" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="HX58" t="n">
+      <c r="HX58" s="1" t="n">
         <v>122</v>
+      </c>
+      <c r="HY58" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="59" ht="13.9" customHeight="1" s="2">
@@ -41685,8 +41859,11 @@
       <c r="HW59" s="1" t="n">
         <v>369</v>
       </c>
-      <c r="HX59" t="n">
+      <c r="HX59" s="1" t="n">
         <v>314</v>
+      </c>
+      <c r="HY59" t="n">
+        <v>337</v>
       </c>
     </row>
     <row r="60" ht="13.9" customHeight="1" s="2">
@@ -42385,8 +42562,11 @@
       <c r="HW60" s="1" t="n">
         <v>1.53</v>
       </c>
-      <c r="HX60" t="n">
+      <c r="HX60" s="1" t="n">
         <v>1.57</v>
+      </c>
+      <c r="HY60" t="n">
+        <v>1.65</v>
       </c>
     </row>
     <row r="61" ht="13.9" customHeight="1" s="2">
@@ -43085,8 +43265,11 @@
       <c r="HW61" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="HX61" t="n">
+      <c r="HX61" s="1" t="n">
         <v>79</v>
+      </c>
+      <c r="HY61" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="62" ht="13.9" customHeight="1" s="2">
@@ -43785,8 +43968,11 @@
       <c r="HW62" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="HX62" t="n">
+      <c r="HX62" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="HY62" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="63" ht="13.9" customHeight="1" s="2">
@@ -44485,8 +44671,11 @@
       <c r="HW63" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HX63" t="n">
+      <c r="HX63" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="HY63" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="64" ht="13.9" customHeight="1" s="2">
@@ -45185,8 +45374,11 @@
       <c r="HW64" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="HX64" t="n">
+      <c r="HX64" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="HY64" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="13.9" customHeight="1" s="2">
@@ -45885,8 +46077,11 @@
       <c r="HW65" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="HX65" t="n">
+      <c r="HX65" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="HY65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.9" customHeight="1" s="2">
@@ -46585,8 +46780,11 @@
       <c r="HW66" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HX66" t="n">
+      <c r="HX66" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="HY66" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="67" ht="13.9" customHeight="1" s="2">
@@ -47285,8 +47483,11 @@
       <c r="HW67" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HX67" t="n">
+      <c r="HX67" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HY67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="13.9" customHeight="1" s="2">
@@ -47985,8 +48186,11 @@
       <c r="HW68" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HX68" t="n">
+      <c r="HX68" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HY68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.9" customHeight="1" s="2">
@@ -48685,7 +48889,10 @@
       <c r="HW69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HX69" t="n">
+      <c r="HX69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -49385,8 +49592,11 @@
       <c r="HW70" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HX70" t="n">
+      <c r="HX70" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="HY70" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="71" ht="13.9" customHeight="1" s="2">
@@ -50085,8 +50295,11 @@
       <c r="HW71" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="HX71" t="n">
+      <c r="HX71" s="1" t="n">
         <v>51.9</v>
+      </c>
+      <c r="HY71" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="72" ht="13.9" customHeight="1" s="2">
@@ -50785,8 +50998,11 @@
       <c r="HW72" s="1" t="n">
         <v>36.9</v>
       </c>
-      <c r="HX72" t="n">
+      <c r="HX72" s="1" t="n">
         <v>22.43</v>
+      </c>
+      <c r="HY72" t="n">
+        <v>56.17</v>
       </c>
     </row>
     <row r="73" ht="13.9" customHeight="1" s="2">
@@ -51485,8 +51701,11 @@
       <c r="HW73" s="1" t="n">
         <v>24.6</v>
       </c>
-      <c r="HX73" t="n">
+      <c r="HX73" s="1" t="n">
         <v>11.63</v>
+      </c>
+      <c r="HY73" t="n">
+        <v>22.47</v>
       </c>
     </row>
     <row r="74" ht="13.9" customHeight="1" s="2">
@@ -52185,7 +52404,10 @@
       <c r="HW74" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="HX74" t="n">
+      <c r="HX74" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="HY74" t="n">
         <v>37</v>
       </c>
     </row>
@@ -52885,8 +53107,11 @@
       <c r="HW75" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="HX75" t="n">
+      <c r="HX75" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="HY75" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="76" ht="13.9" customHeight="1" s="2">
@@ -53585,8 +53810,11 @@
       <c r="HW76" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HX76" t="n">
+      <c r="HX76" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="HY76" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="77" ht="13.9" customHeight="1" s="2">
@@ -54285,8 +54513,11 @@
       <c r="HW77" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="HX77" t="n">
+      <c r="HX77" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="HY77" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="78" ht="13.9" customHeight="1" s="2">
@@ -54985,8 +55216,11 @@
       <c r="HW78" s="1" t="n">
         <v>2.87</v>
       </c>
-      <c r="HX78" t="n">
+      <c r="HX78" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="HY78" t="n">
+        <v>2.93</v>
       </c>
     </row>
     <row r="79" ht="13.9" customHeight="1" s="2">
@@ -55685,8 +55919,11 @@
       <c r="HW79" s="1" t="n">
         <v>4.3</v>
       </c>
-      <c r="HX79" t="n">
+      <c r="HX79" s="1" t="n">
         <v>3.86</v>
+      </c>
+      <c r="HY79" t="n">
+        <v>7.33</v>
       </c>
     </row>
     <row r="80" ht="13.9" customHeight="1" s="2">
@@ -56385,8 +56622,11 @@
       <c r="HW80" s="1" t="n">
         <v>32.6</v>
       </c>
-      <c r="HX80" t="n">
+      <c r="HX80" s="1" t="n">
         <v>48.1</v>
+      </c>
+      <c r="HY80" t="n">
+        <v>31.8</v>
       </c>
     </row>
     <row r="81" ht="13.9" customHeight="1" s="2">
@@ -57085,8 +57325,11 @@
       <c r="HW81" s="1" t="n">
         <v>23.3</v>
       </c>
-      <c r="HX81" t="n">
+      <c r="HX81" s="1" t="n">
         <v>25.9</v>
+      </c>
+      <c r="HY81" t="n">
+        <v>13.6</v>
       </c>
     </row>
     <row r="82" ht="13.9" customHeight="1" s="2">
@@ -57785,8 +58028,11 @@
       <c r="HW82" s="1" t="n">
         <v>189.6</v>
       </c>
-      <c r="HX82" t="n">
+      <c r="HX82" s="1" t="n">
         <v>188</v>
+      </c>
+      <c r="HY82" t="n">
+        <v>189.3</v>
       </c>
     </row>
     <row r="83" ht="13.9" customHeight="1" s="2">
@@ -58485,8 +58731,11 @@
       <c r="HW83" s="1" t="n">
         <v>87.2</v>
       </c>
-      <c r="HX83" t="n">
+      <c r="HX83" s="1" t="n">
         <v>86.5</v>
+      </c>
+      <c r="HY83" t="n">
+        <v>85.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.9" customHeight="1" s="2">
@@ -59185,8 +59434,11 @@
       <c r="HW84" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="HX84" t="n">
+      <c r="HX84" s="1" t="n">
         <v>24.74</v>
+      </c>
+      <c r="HY84" t="n">
+        <v>25.16</v>
       </c>
     </row>
     <row r="85" ht="13.9" customHeight="1" s="2">
@@ -59885,8 +60137,11 @@
       <c r="HW85" s="1" t="n">
         <v>72.2</v>
       </c>
-      <c r="HX85" t="n">
+      <c r="HX85" s="1" t="n">
         <v>88.90000000000001</v>
+      </c>
+      <c r="HY85" t="n">
+        <v>96.7</v>
       </c>
     </row>
     <row r="86" ht="13.9" customHeight="1" s="2">
@@ -60585,8 +60840,11 @@
       <c r="HW86" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="HX86" t="n">
+      <c r="HX86" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="HY86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.9" customHeight="1" s="2">
@@ -61285,8 +61543,11 @@
       <c r="HW87" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="HX87" t="n">
+      <c r="HX87" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="HY87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.9" customHeight="1" s="2">
@@ -61985,8 +62246,11 @@
       <c r="HW88" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HX88" t="n">
+      <c r="HX88" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HY88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.9" customHeight="1" s="2">
@@ -62685,8 +62949,11 @@
       <c r="HW89" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HX89" t="n">
+      <c r="HX89" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="HY89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.9" customHeight="1" s="2">
@@ -63385,8 +63652,11 @@
       <c r="HW90" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="HX90" t="n">
+      <c r="HX90" s="1" t="n">
         <v>138</v>
+      </c>
+      <c r="HY90" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="91" ht="13.9" customHeight="1" s="2">
@@ -64085,7 +64355,10 @@
       <c r="HW91" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="HX91" t="n">
+      <c r="HX91" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="HY91" t="n">
         <v>180</v>
       </c>
     </row>
@@ -64785,8 +65058,11 @@
       <c r="HW92" s="1" t="n">
         <v>263</v>
       </c>
-      <c r="HX92" t="n">
+      <c r="HX92" s="1" t="n">
         <v>232</v>
+      </c>
+      <c r="HY92" t="n">
+        <v>226</v>
       </c>
     </row>
     <row r="93" ht="13.9" customHeight="1" s="2">
@@ -65485,8 +65761,11 @@
       <c r="HW93" s="1" t="n">
         <v>71.3</v>
       </c>
-      <c r="HX93" t="n">
+      <c r="HX93" s="1" t="n">
         <v>73.90000000000001</v>
+      </c>
+      <c r="HY93" t="n">
+        <v>67.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.9" customHeight="1" s="2">
@@ -66185,8 +66464,11 @@
       <c r="HW94" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="HX94" t="n">
+      <c r="HX94" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="HY94" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="95" ht="13.9" customHeight="1" s="2">
@@ -66885,8 +67167,11 @@
       <c r="HW95" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HX95" t="n">
+      <c r="HX95" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="HY95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="13.9" customHeight="1" s="2">
@@ -67585,8 +67870,11 @@
       <c r="HW96" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HX96" t="n">
+      <c r="HX96" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="HY96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.9" customHeight="1" s="2">
@@ -68285,7 +68573,10 @@
       <c r="HW97" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="HX97" t="n">
+      <c r="HX97" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="HY97" t="n">
         <v>37</v>
       </c>
     </row>
@@ -68985,8 +69276,11 @@
       <c r="HW98" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HX98" t="n">
+      <c r="HX98" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="HY98" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="99" ht="13.9" customHeight="1" s="2">
@@ -69685,8 +69979,11 @@
       <c r="HW99" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="HX99" t="n">
+      <c r="HX99" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="HY99" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="100" ht="13.9" customHeight="1" s="2">
@@ -70385,8 +70682,11 @@
       <c r="HW100" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HX100" t="n">
+      <c r="HX100" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="HY100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.9" customHeight="1" s="2">
@@ -71085,8 +71385,11 @@
       <c r="HW101" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HX101" t="n">
+      <c r="HX101" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="HY101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="13.9" customHeight="1" s="2">
@@ -71785,8 +72088,11 @@
       <c r="HW102" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="HX102" t="n">
+      <c r="HX102" s="1" t="n">
         <v>42.9</v>
+      </c>
+      <c r="HY102" t="n">
+        <v>83.3</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Brisbane_stats.xlsx
+++ b/django_AFL_ML/Data/Brisbane_stats.xlsx
@@ -4,13 +4,13 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="500" visibility="visible" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1" iterate="0" iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
@@ -59,31 +59,31 @@
     </border>
   </borders>
   <cellStyleXfs count="6">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" name="Comma" xfId="1"/>
-    <cellStyle builtinId="6" name="Comma [0]" xfId="2"/>
-    <cellStyle builtinId="4" name="Currency" xfId="3"/>
-    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
-    <cellStyle builtinId="5" name="Percent" xfId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -377,19 +377,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:HZ102"/>
+  <dimension ref="A1:IA102"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="HG1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="HQ11" activeCellId="0" pane="topLeft" sqref="HQ11"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HG1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="HQ11" activeCellId="0" sqref="HQ11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelRow="0" zeroHeight="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col customWidth="1" max="1013" min="1" style="1" width="8.57"/>
-    <col customWidth="1" max="1025" min="1014" style="1" width="9.140000000000001"/>
+    <col width="8.57" customWidth="1" style="1" min="1" max="1013"/>
+    <col width="9.140000000000001" customWidth="1" style="1" min="1014" max="1025"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="13.9" r="1" s="2">
+    <row r="1" ht="13.9" customHeight="1" s="2">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Match_ID</t>
@@ -1091,11 +1091,14 @@
       <c r="HY1" s="1" t="n">
         <v>10442</v>
       </c>
-      <c r="HZ1" t="n">
+      <c r="HZ1" s="1" t="n">
         <v>10444</v>
       </c>
+      <c r="IA1" t="n">
+        <v>10460</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="2" s="2">
+    <row r="2" ht="13.9" customHeight="1" s="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
           <t>Year</t>
@@ -1797,11 +1800,14 @@
       <c r="HY2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="HZ2" t="n">
+      <c r="HZ2" s="1" t="n">
         <v>2021</v>
       </c>
+      <c r="IA2" t="n">
+        <v>2021</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="3" s="2">
+    <row r="3" ht="13.9" customHeight="1" s="2">
       <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Round</t>
@@ -2503,11 +2509,14 @@
       <c r="HY3" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="HZ3" t="n">
+      <c r="HZ3" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="IA3" t="n">
+        <v>16</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="4" s="2">
+    <row r="4" ht="13.9" customHeight="1" s="2">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>H/A?</t>
@@ -3209,11 +3218,14 @@
       <c r="HY4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HZ4" t="n">
+      <c r="HZ4" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="IA4" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="5" s="2">
+    <row r="5" ht="13.9" customHeight="1" s="2">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>H/A Win?</t>
@@ -3915,11 +3927,14 @@
       <c r="HY5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HZ5" t="n">
+      <c r="HZ5" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="IA5" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="6" s="2">
+    <row r="6" ht="13.9" customHeight="1" s="2">
       <c r="A6" s="1" t="inlineStr">
         <is>
           <t>Points For</t>
@@ -4621,11 +4636,14 @@
       <c r="HY6" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="HZ6" t="n">
+      <c r="HZ6" s="1" t="n">
         <v>94</v>
       </c>
+      <c r="IA6" t="n">
+        <v>111</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="7" s="2">
+    <row r="7" ht="13.9" customHeight="1" s="2">
       <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Points Against</t>
@@ -5327,11 +5345,14 @@
       <c r="HY7" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="HZ7" t="n">
+      <c r="HZ7" s="1" t="n">
         <v>50</v>
       </c>
+      <c r="IA7" t="n">
+        <v>59</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="8" s="2">
+    <row r="8" ht="13.9" customHeight="1" s="2">
       <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Margin</t>
@@ -6033,11 +6054,14 @@
       <c r="HY8" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="HZ8" t="n">
+      <c r="HZ8" s="1" t="n">
         <v>44</v>
       </c>
+      <c r="IA8" t="n">
+        <v>52</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="9" s="2">
+    <row r="9" ht="13.9" customHeight="1" s="2">
       <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Team Won? (1=W, 0=L)</t>
@@ -6739,11 +6763,14 @@
       <c r="HY9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HZ9" t="n">
+      <c r="HZ9" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="IA9" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="10" s="2">
+    <row r="10" ht="13.9" customHeight="1" s="2">
       <c r="A10" s="1" t="inlineStr">
         <is>
           <t>Team_against_ID</t>
@@ -7445,11 +7472,14 @@
       <c r="HY10" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="HZ10" t="n">
+      <c r="HZ10" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="IA10" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="11" s="2">
+    <row r="11" ht="13.9" customHeight="1" s="2">
       <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Kicks</t>
@@ -8151,11 +8181,14 @@
       <c r="HY11" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="HZ11" t="n">
+      <c r="HZ11" s="1" t="n">
         <v>212</v>
       </c>
+      <c r="IA11" t="n">
+        <v>217</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="12" s="2">
+    <row r="12" ht="13.9" customHeight="1" s="2">
       <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Handballs</t>
@@ -8857,11 +8890,14 @@
       <c r="HY12" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="HZ12" t="n">
+      <c r="HZ12" s="1" t="n">
         <v>83</v>
       </c>
+      <c r="IA12" t="n">
+        <v>133</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="13" s="2">
+    <row r="13" ht="13.9" customHeight="1" s="2">
       <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Disposals</t>
@@ -9563,11 +9599,14 @@
       <c r="HY13" s="1" t="n">
         <v>355</v>
       </c>
-      <c r="HZ13" t="n">
+      <c r="HZ13" s="1" t="n">
         <v>295</v>
       </c>
+      <c r="IA13" t="n">
+        <v>350</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="14" s="2">
+    <row r="14" ht="13.9" customHeight="1" s="2">
       <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio</t>
@@ -10269,11 +10308,14 @@
       <c r="HY14" s="1" t="n">
         <v>1.75</v>
       </c>
-      <c r="HZ14" t="n">
+      <c r="HZ14" s="1" t="n">
         <v>2.55</v>
       </c>
+      <c r="IA14" t="n">
+        <v>1.63</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="15" s="2">
+    <row r="15" ht="13.9" customHeight="1" s="2">
       <c r="A15" s="1" t="inlineStr">
         <is>
           <t>Marks</t>
@@ -10975,11 +11017,14 @@
       <c r="HY15" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="HZ15" t="n">
+      <c r="HZ15" s="1" t="n">
         <v>92</v>
       </c>
+      <c r="IA15" t="n">
+        <v>69</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="16" s="2">
+    <row r="16" ht="13.9" customHeight="1" s="2">
       <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Tackles</t>
@@ -11681,11 +11726,14 @@
       <c r="HY16" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="HZ16" t="n">
+      <c r="HZ16" s="1" t="n">
         <v>67</v>
       </c>
+      <c r="IA16" t="n">
+        <v>77</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="17" s="2">
+    <row r="17" ht="13.9" customHeight="1" s="2">
       <c r="A17" s="1" t="inlineStr">
         <is>
           <t>Hitouts</t>
@@ -12387,11 +12435,14 @@
       <c r="HY17" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="HZ17" t="n">
+      <c r="HZ17" s="1" t="n">
         <v>36</v>
       </c>
+      <c r="IA17" t="n">
+        <v>31</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="18" s="2">
+    <row r="18" ht="13.9" customHeight="1" s="2">
       <c r="A18" s="1" t="inlineStr">
         <is>
           <t>Frees For</t>
@@ -13093,11 +13144,14 @@
       <c r="HY18" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HZ18" t="n">
+      <c r="HZ18" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="IA18" t="n">
+        <v>20</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="19" s="2">
+    <row r="19" ht="13.9" customHeight="1" s="2">
       <c r="A19" s="1" t="inlineStr">
         <is>
           <t>Frees Against</t>
@@ -13799,11 +13853,14 @@
       <c r="HY19" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="HZ19" t="n">
+      <c r="HZ19" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="IA19" t="n">
+        <v>18</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="20" s="2">
+    <row r="20" ht="13.9" customHeight="1" s="2">
       <c r="A20" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked</t>
@@ -14505,11 +14562,14 @@
       <c r="HY20" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HZ20" t="n">
+      <c r="HZ20" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="IA20" t="n">
+        <v>17</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="21" s="2">
+    <row r="21" ht="13.9" customHeight="1" s="2">
       <c r="A21" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1</t>
@@ -15211,11 +15271,14 @@
       <c r="HY21" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HZ21" t="n">
+      <c r="HZ21" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="IA21" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="22" s="2">
+    <row r="22" ht="13.9" customHeight="1" s="2">
       <c r="A22" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked</t>
@@ -15917,11 +15980,14 @@
       <c r="HY22" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HZ22" t="n">
+      <c r="HZ22" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="IA22" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="23" s="2">
+    <row r="23" ht="13.9" customHeight="1" s="2">
       <c r="A23" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds</t>
@@ -16623,11 +16689,14 @@
       <c r="HY23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HZ23" t="n">
+      <c r="HZ23" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="IA23" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="24" s="2">
+    <row r="24" ht="13.9" customHeight="1" s="2">
       <c r="A24" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots</t>
@@ -17329,11 +17398,14 @@
       <c r="HY24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="HZ24" t="n">
+      <c r="HZ24" s="1" t="n">
         <v>29</v>
       </c>
+      <c r="IA24" t="n">
+        <v>26</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="25" s="2">
+    <row r="25" ht="13.9" customHeight="1" s="2">
       <c r="A25" s="1" t="inlineStr">
         <is>
           <t>Conversion %</t>
@@ -18035,11 +18107,14 @@
       <c r="HY25" s="1" t="n">
         <v>39.1</v>
       </c>
-      <c r="HZ25" t="n">
+      <c r="HZ25" s="1" t="n">
         <v>44.8</v>
       </c>
+      <c r="IA25" t="n">
+        <v>65.40000000000001</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="26" s="2">
+    <row r="26" ht="13.9" customHeight="1" s="2">
       <c r="A26" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal</t>
@@ -18741,11 +18816,14 @@
       <c r="HY26" s="1" t="n">
         <v>39.44</v>
       </c>
-      <c r="HZ26" t="n">
+      <c r="HZ26" s="1" t="n">
         <v>22.69</v>
       </c>
+      <c r="IA26" t="n">
+        <v>20.59</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="27" s="2">
+    <row r="27" ht="13.9" customHeight="1" s="2">
       <c r="A27" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot</t>
@@ -19447,11 +19525,14 @@
       <c r="HY27" s="1" t="n">
         <v>15.43</v>
       </c>
-      <c r="HZ27" t="n">
+      <c r="HZ27" s="1" t="n">
         <v>10.17</v>
       </c>
+      <c r="IA27" t="n">
+        <v>13.46</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="28" s="2">
+    <row r="28" ht="13.9" customHeight="1" s="2">
       <c r="A28" s="1" t="inlineStr">
         <is>
           <t>Clearances1</t>
@@ -20153,11 +20234,14 @@
       <c r="HY28" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="HZ28" t="n">
+      <c r="HZ28" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="IA28" t="n">
+        <v>53</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="29" s="2">
+    <row r="29" ht="13.9" customHeight="1" s="2">
       <c r="A29" s="1" t="inlineStr">
         <is>
           <t>Clangers1</t>
@@ -20859,11 +20943,14 @@
       <c r="HY29" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="HZ29" t="n">
+      <c r="HZ29" s="1" t="n">
         <v>59</v>
       </c>
+      <c r="IA29" t="n">
+        <v>47</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="30" s="2">
+    <row r="30" ht="13.9" customHeight="1" s="2">
       <c r="A30" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1</t>
@@ -21565,11 +21652,14 @@
       <c r="HY30" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HZ30" t="n">
+      <c r="HZ30" s="1" t="n">
         <v>43</v>
       </c>
+      <c r="IA30" t="n">
+        <v>35</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="31" s="2">
+    <row r="31" ht="13.9" customHeight="1" s="2">
       <c r="A31" s="1" t="inlineStr">
         <is>
           <t>Inside 50s</t>
@@ -22271,11 +22361,14 @@
       <c r="HY31" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="HZ31" t="n">
+      <c r="HZ31" s="1" t="n">
         <v>55</v>
       </c>
+      <c r="IA31" t="n">
+        <v>62</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="32" s="2">
+    <row r="32" ht="13.9" customHeight="1" s="2">
       <c r="A32" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot</t>
@@ -22977,11 +23070,14 @@
       <c r="HY32" s="1" t="n">
         <v>2.96</v>
       </c>
-      <c r="HZ32" t="n">
+      <c r="HZ32" s="1" t="n">
         <v>1.9</v>
       </c>
+      <c r="IA32" t="n">
+        <v>2.38</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="33" s="2">
+    <row r="33" ht="13.9" customHeight="1" s="2">
       <c r="A33" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal</t>
@@ -23683,11 +23779,14 @@
       <c r="HY33" s="1" t="n">
         <v>7.56</v>
       </c>
-      <c r="HZ33" t="n">
+      <c r="HZ33" s="1" t="n">
         <v>4.23</v>
       </c>
+      <c r="IA33" t="n">
+        <v>3.65</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="34" s="2">
+    <row r="34" ht="13.9" customHeight="1" s="2">
       <c r="A34" s="1" t="inlineStr">
         <is>
           <t>% In50s Score</t>
@@ -24389,11 +24488,14 @@
       <c r="HY34" s="1" t="n">
         <v>32.4</v>
       </c>
-      <c r="HZ34" t="n">
+      <c r="HZ34" s="1" t="n">
         <v>43.6</v>
       </c>
+      <c r="IA34" t="n">
+        <v>38.7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="35" s="2">
+    <row r="35" ht="13.9" customHeight="1" s="2">
       <c r="A35" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal</t>
@@ -25095,11 +25197,14 @@
       <c r="HY35" s="1" t="n">
         <v>13.2</v>
       </c>
-      <c r="HZ35" t="n">
+      <c r="HZ35" s="1" t="n">
         <v>23.6</v>
       </c>
+      <c r="IA35" t="n">
+        <v>27.4</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="36" s="2">
+    <row r="36" ht="13.9" customHeight="1" s="2">
       <c r="A36" s="1" t="inlineStr">
         <is>
           <t>Height</t>
@@ -25801,11 +25906,14 @@
       <c r="HY36" s="1" t="n">
         <v>188.2</v>
       </c>
-      <c r="HZ36" t="n">
+      <c r="HZ36" s="1" t="n">
         <v>187.8</v>
       </c>
+      <c r="IA36" t="n">
+        <v>188.9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="37" s="2">
+    <row r="37" ht="13.9" customHeight="1" s="2">
       <c r="A37" s="1" t="inlineStr">
         <is>
           <t>Weight</t>
@@ -26507,11 +26615,14 @@
       <c r="HY37" s="1" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="HZ37" t="n">
+      <c r="HZ37" s="1" t="n">
         <v>87.5</v>
       </c>
+      <c r="IA37" t="n">
+        <v>88.2</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="38" s="2">
+    <row r="38" ht="13.9" customHeight="1" s="2">
       <c r="A38" s="1" t="inlineStr">
         <is>
           <t>Age</t>
@@ -27213,11 +27324,14 @@
       <c r="HY38" s="1" t="n">
         <v>25.58</v>
       </c>
-      <c r="HZ38" t="n">
+      <c r="HZ38" s="1" t="n">
         <v>25.41</v>
       </c>
+      <c r="IA38" t="n">
+        <v>25.91</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="39" s="2">
+    <row r="39" ht="13.9" customHeight="1" s="2">
       <c r="A39" s="1" t="inlineStr">
         <is>
           <t>Av Games</t>
@@ -27919,11 +28033,14 @@
       <c r="HY39" s="1" t="n">
         <v>102.2</v>
       </c>
-      <c r="HZ39" t="n">
+      <c r="HZ39" s="1" t="n">
         <v>97.5</v>
       </c>
+      <c r="IA39" t="n">
+        <v>107.8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="40" s="2">
+    <row r="40" ht="13.9" customHeight="1" s="2">
       <c r="A40" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games</t>
@@ -28625,11 +28742,14 @@
       <c r="HY40" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HZ40" t="n">
+      <c r="HZ40" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="IA40" t="n">
+        <v>4</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="41" s="2">
+    <row r="41" ht="13.9" customHeight="1" s="2">
       <c r="A41" s="1" t="inlineStr">
         <is>
           <t>50-99 Games</t>
@@ -29331,11 +29451,14 @@
       <c r="HY41" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HZ41" t="n">
+      <c r="HZ41" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="IA41" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="42" s="2">
+    <row r="42" ht="13.9" customHeight="1" s="2">
       <c r="A42" s="1" t="inlineStr">
         <is>
           <t>100-149 Games</t>
@@ -30037,11 +30160,14 @@
       <c r="HY42" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HZ42" t="n">
+      <c r="HZ42" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="IA42" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="43" s="2">
+    <row r="43" ht="13.9" customHeight="1" s="2">
       <c r="A43" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games</t>
@@ -30743,11 +30869,14 @@
       <c r="HY43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HZ43" t="n">
+      <c r="HZ43" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="IA43" t="n">
+        <v>5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="44" s="2">
+    <row r="44" ht="13.9" customHeight="1" s="2">
       <c r="A44" s="1" t="inlineStr">
         <is>
           <t>Contested Poss</t>
@@ -31449,11 +31578,14 @@
       <c r="HY44" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="HZ44" t="n">
+      <c r="HZ44" s="1" t="n">
         <v>124</v>
       </c>
+      <c r="IA44" t="n">
+        <v>166</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="45" s="2">
+    <row r="45" ht="13.9" customHeight="1" s="2">
       <c r="A45" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss</t>
@@ -32155,11 +32287,14 @@
       <c r="HY45" s="1" t="n">
         <v>192</v>
       </c>
-      <c r="HZ45" t="n">
+      <c r="HZ45" s="1" t="n">
         <v>163</v>
       </c>
+      <c r="IA45" t="n">
+        <v>179</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="46" s="2">
+    <row r="46" ht="13.9" customHeight="1" s="2">
       <c r="A46" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals</t>
@@ -32861,11 +32996,14 @@
       <c r="HY46" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="HZ46" t="n">
+      <c r="HZ46" s="1" t="n">
         <v>204</v>
       </c>
+      <c r="IA46" t="n">
+        <v>240</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="47" s="2">
+    <row r="47" ht="13.9" customHeight="1" s="2">
       <c r="A47" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency</t>
@@ -33567,11 +33705,14 @@
       <c r="HY47" s="1" t="n">
         <v>65.09999999999999</v>
       </c>
-      <c r="HZ47" t="n">
+      <c r="HZ47" s="1" t="n">
         <v>69.2</v>
       </c>
+      <c r="IA47" t="n">
+        <v>68.59999999999999</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="48" s="2">
+    <row r="48" ht="13.9" customHeight="1" s="2">
       <c r="A48" s="1" t="inlineStr">
         <is>
           <t>Clangers2</t>
@@ -34273,11 +34414,14 @@
       <c r="HY48" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="HZ48" t="n">
+      <c r="HZ48" s="1" t="n">
         <v>59</v>
       </c>
+      <c r="IA48" t="n">
+        <v>47</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="49" s="2">
+    <row r="49" ht="13.9" customHeight="1" s="2">
       <c r="A49" s="1" t="inlineStr">
         <is>
           <t>Contested Marks</t>
@@ -34979,11 +35123,14 @@
       <c r="HY49" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HZ49" t="n">
+      <c r="HZ49" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="IA49" t="n">
+        <v>12</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="50" s="2">
+    <row r="50" ht="13.9" customHeight="1" s="2">
       <c r="A50" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50</t>
@@ -35685,11 +35832,14 @@
       <c r="HY50" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="HZ50" t="n">
+      <c r="HZ50" s="1" t="n">
         <v>17</v>
       </c>
+      <c r="IA50" t="n">
+        <v>9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="51" s="2">
+    <row r="51" ht="13.9" customHeight="1" s="2">
       <c r="A51" s="1" t="inlineStr">
         <is>
           <t>Clearances2</t>
@@ -36391,11 +36541,14 @@
       <c r="HY51" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="HZ51" t="n">
+      <c r="HZ51" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="IA51" t="n">
+        <v>53</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="52" s="2">
+    <row r="52" ht="13.9" customHeight="1" s="2">
       <c r="A52" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2</t>
@@ -37097,11 +37250,14 @@
       <c r="HY52" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="HZ52" t="n">
+      <c r="HZ52" s="1" t="n">
         <v>43</v>
       </c>
+      <c r="IA52" t="n">
+        <v>35</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="53" s="2">
+    <row r="53" ht="13.9" customHeight="1" s="2">
       <c r="A53" s="1" t="inlineStr">
         <is>
           <t>1%ers</t>
@@ -37803,11 +37959,14 @@
       <c r="HY53" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="HZ53" t="n">
+      <c r="HZ53" s="1" t="n">
         <v>53</v>
       </c>
+      <c r="IA53" t="n">
+        <v>55</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="54" s="2">
+    <row r="54" ht="13.9" customHeight="1" s="2">
       <c r="A54" s="1" t="inlineStr">
         <is>
           <t>Bounces</t>
@@ -38509,11 +38668,14 @@
       <c r="HY54" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HZ54" t="n">
+      <c r="HZ54" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="IA54" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="55" s="2">
+    <row r="55" ht="13.9" customHeight="1" s="2">
       <c r="A55" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2</t>
@@ -39215,11 +39377,14 @@
       <c r="HY55" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="HZ55" t="n">
+      <c r="HZ55" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="IA55" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="56" s="2">
+    <row r="56" ht="13.9" customHeight="1" s="2">
       <c r="A56" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %</t>
@@ -39921,11 +40086,14 @@
       <c r="HY56" s="1" t="n">
         <v>22.2</v>
       </c>
-      <c r="HZ56" t="n">
+      <c r="HZ56" s="1" t="n">
         <v>76.90000000000001</v>
       </c>
+      <c r="IA56" t="n">
+        <v>58.8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="57" s="2">
+    <row r="57" ht="13.9" customHeight="1" s="2">
       <c r="A57" s="1" t="inlineStr">
         <is>
           <t>Kicks (O)</t>
@@ -40627,11 +40795,14 @@
       <c r="HY57" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="HZ57" t="n">
+      <c r="HZ57" s="1" t="n">
         <v>198</v>
       </c>
+      <c r="IA57" t="n">
+        <v>212</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="58" s="2">
+    <row r="58" ht="13.9" customHeight="1" s="2">
       <c r="A58" s="1" t="inlineStr">
         <is>
           <t>Handballs (O)</t>
@@ -41333,11 +41504,14 @@
       <c r="HY58" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="HZ58" t="n">
+      <c r="HZ58" s="1" t="n">
         <v>149</v>
       </c>
+      <c r="IA58" t="n">
+        <v>144</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="59" s="2">
+    <row r="59" ht="13.9" customHeight="1" s="2">
       <c r="A59" s="1" t="inlineStr">
         <is>
           <t>Disposals (O)</t>
@@ -42039,11 +42213,14 @@
       <c r="HY59" s="1" t="n">
         <v>337</v>
       </c>
-      <c r="HZ59" t="n">
+      <c r="HZ59" s="1" t="n">
         <v>347</v>
       </c>
+      <c r="IA59" t="n">
+        <v>356</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="60" s="2">
+    <row r="60" ht="13.9" customHeight="1" s="2">
       <c r="A60" s="1" t="inlineStr">
         <is>
           <t>Kick to HB Ratio (O)</t>
@@ -42745,11 +42922,14 @@
       <c r="HY60" s="1" t="n">
         <v>1.65</v>
       </c>
-      <c r="HZ60" t="n">
+      <c r="HZ60" s="1" t="n">
         <v>1.33</v>
       </c>
+      <c r="IA60" t="n">
+        <v>1.47</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="61" s="2">
+    <row r="61" ht="13.9" customHeight="1" s="2">
       <c r="A61" s="1" t="inlineStr">
         <is>
           <t>Marks (O)</t>
@@ -43451,11 +43631,14 @@
       <c r="HY61" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="HZ61" t="n">
+      <c r="HZ61" s="1" t="n">
         <v>81</v>
       </c>
+      <c r="IA61" t="n">
+        <v>54</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="62" s="2">
+    <row r="62" ht="13.9" customHeight="1" s="2">
       <c r="A62" s="1" t="inlineStr">
         <is>
           <t>Tackles(O)</t>
@@ -44157,11 +44340,14 @@
       <c r="HY62" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="HZ62" t="n">
+      <c r="HZ62" s="1" t="n">
         <v>47</v>
       </c>
+      <c r="IA62" t="n">
+        <v>61</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="63" s="2">
+    <row r="63" ht="13.9" customHeight="1" s="2">
       <c r="A63" s="1" t="inlineStr">
         <is>
           <t>Hitouts(O)</t>
@@ -44863,11 +45049,14 @@
       <c r="HY63" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="HZ63" t="n">
+      <c r="HZ63" s="1" t="n">
         <v>38</v>
       </c>
+      <c r="IA63" t="n">
+        <v>45</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="64" s="2">
+    <row r="64" ht="13.9" customHeight="1" s="2">
       <c r="A64" s="1" t="inlineStr">
         <is>
           <t>Frees For(O)</t>
@@ -45569,11 +45758,14 @@
       <c r="HY64" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="HZ64" t="n">
+      <c r="HZ64" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="IA64" t="n">
+        <v>18</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="65" s="2">
+    <row r="65" ht="13.9" customHeight="1" s="2">
       <c r="A65" s="1" t="inlineStr">
         <is>
           <t>Frees Against(O)</t>
@@ -46275,11 +46467,14 @@
       <c r="HY65" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="HZ65" t="n">
+      <c r="HZ65" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="IA65" t="n">
+        <v>20</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="66" s="2">
+    <row r="66" ht="13.9" customHeight="1" s="2">
       <c r="A66" s="1" t="inlineStr">
         <is>
           <t>Goals Kicked(O)</t>
@@ -46981,11 +47176,14 @@
       <c r="HY66" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="HZ66" t="n">
+      <c r="HZ66" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="IA66" t="n">
+        <v>8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="67" s="2">
+    <row r="67" ht="13.9" customHeight="1" s="2">
       <c r="A67" s="1" t="inlineStr">
         <is>
           <t>Goal Assists1(O)</t>
@@ -47687,11 +47885,14 @@
       <c r="HY67" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HZ67" t="n">
+      <c r="HZ67" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="IA67" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="68" s="2">
+    <row r="68" ht="13.9" customHeight="1" s="2">
       <c r="A68" s="1" t="inlineStr">
         <is>
           <t>Behinds Kicked(O)</t>
@@ -48393,11 +48594,14 @@
       <c r="HY68" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HZ68" t="n">
+      <c r="HZ68" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="IA68" t="n">
+        <v>10</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="69" s="2">
+    <row r="69" ht="13.9" customHeight="1" s="2">
       <c r="A69" s="1" t="inlineStr">
         <is>
           <t>Rushed Behinds(O)</t>
@@ -49099,11 +49303,14 @@
       <c r="HY69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="HZ69" t="n">
+      <c r="HZ69" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="IA69" t="n">
+        <v>1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="70" s="2">
+    <row r="70" ht="13.9" customHeight="1" s="2">
       <c r="A70" s="1" t="inlineStr">
         <is>
           <t>Scoring Shots(O)</t>
@@ -49805,11 +50012,14 @@
       <c r="HY70" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="HZ70" t="n">
+      <c r="HZ70" s="1" t="n">
         <v>15</v>
       </c>
+      <c r="IA70" t="n">
+        <v>19</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="71" s="2">
+    <row r="71" ht="13.9" customHeight="1" s="2">
       <c r="A71" s="1" t="inlineStr">
         <is>
           <t>Conversion %(O)</t>
@@ -50511,11 +50721,14 @@
       <c r="HY71" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="HZ71" t="n">
+      <c r="HZ71" s="1" t="n">
         <v>46.7</v>
       </c>
+      <c r="IA71" t="n">
+        <v>42.1</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="72" s="2">
+    <row r="72" ht="13.9" customHeight="1" s="2">
       <c r="A72" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Goal(O)</t>
@@ -51217,11 +51430,14 @@
       <c r="HY72" s="1" t="n">
         <v>56.17</v>
       </c>
-      <c r="HZ72" t="n">
+      <c r="HZ72" s="1" t="n">
         <v>49.57</v>
       </c>
+      <c r="IA72" t="n">
+        <v>44.5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="73" s="2">
+    <row r="73" ht="13.9" customHeight="1" s="2">
       <c r="A73" s="1" t="inlineStr">
         <is>
           <t>Disposals Per Scoring Shot(O)</t>
@@ -51923,11 +52139,14 @@
       <c r="HY73" s="1" t="n">
         <v>22.47</v>
       </c>
-      <c r="HZ73" t="n">
+      <c r="HZ73" s="1" t="n">
         <v>23.13</v>
       </c>
+      <c r="IA73" t="n">
+        <v>18.74</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="74" s="2">
+    <row r="74" ht="13.9" customHeight="1" s="2">
       <c r="A74" s="1" t="inlineStr">
         <is>
           <t>Clearances1(O)</t>
@@ -52629,11 +52848,14 @@
       <c r="HY74" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HZ74" t="n">
+      <c r="HZ74" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="IA74" t="n">
+        <v>41</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="75" s="2">
+    <row r="75" ht="13.9" customHeight="1" s="2">
       <c r="A75" s="1" t="inlineStr">
         <is>
           <t>Clangers1(O)</t>
@@ -53335,11 +53557,14 @@
       <c r="HY75" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="HZ75" t="n">
+      <c r="HZ75" s="1" t="n">
         <v>66</v>
       </c>
+      <c r="IA75" t="n">
+        <v>60</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="76" s="2">
+    <row r="76" ht="13.9" customHeight="1" s="2">
       <c r="A76" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s1(O)</t>
@@ -54041,11 +54266,14 @@
       <c r="HY76" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="HZ76" t="n">
+      <c r="HZ76" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="IA76" t="n">
+        <v>43</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="77" s="2">
+    <row r="77" ht="13.9" customHeight="1" s="2">
       <c r="A77" s="1" t="inlineStr">
         <is>
           <t>Inside 50s(O)</t>
@@ -54747,11 +54975,14 @@
       <c r="HY77" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="HZ77" t="n">
+      <c r="HZ77" s="1" t="n">
         <v>50</v>
       </c>
+      <c r="IA77" t="n">
+        <v>45</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="78" s="2">
+    <row r="78" ht="13.9" customHeight="1" s="2">
       <c r="A78" s="1" t="inlineStr">
         <is>
           <t>In50s Per Scoring Shot(O)</t>
@@ -55453,11 +55684,14 @@
       <c r="HY78" s="1" t="n">
         <v>2.93</v>
       </c>
-      <c r="HZ78" t="n">
+      <c r="HZ78" s="1" t="n">
         <v>3.33</v>
       </c>
+      <c r="IA78" t="n">
+        <v>2.37</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="79" s="2">
+    <row r="79" ht="13.9" customHeight="1" s="2">
       <c r="A79" s="1" t="inlineStr">
         <is>
           <t>In50s Per Goal(O)</t>
@@ -56159,11 +56393,14 @@
       <c r="HY79" s="1" t="n">
         <v>7.33</v>
       </c>
-      <c r="HZ79" t="n">
+      <c r="HZ79" s="1" t="n">
         <v>7.14</v>
       </c>
+      <c r="IA79" t="n">
+        <v>5.62</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="80" s="2">
+    <row r="80" ht="13.9" customHeight="1" s="2">
       <c r="A80" s="1" t="inlineStr">
         <is>
           <t>% In50s Score(O)</t>
@@ -56865,11 +57102,14 @@
       <c r="HY80" s="1" t="n">
         <v>31.8</v>
       </c>
-      <c r="HZ80" t="n">
+      <c r="HZ80" s="1" t="n">
         <v>28</v>
       </c>
+      <c r="IA80" t="n">
+        <v>40</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="81" s="2">
+    <row r="81" ht="13.9" customHeight="1" s="2">
       <c r="A81" s="1" t="inlineStr">
         <is>
           <t>% In50s Goal(O)</t>
@@ -57571,11 +57811,14 @@
       <c r="HY81" s="1" t="n">
         <v>13.6</v>
       </c>
-      <c r="HZ81" t="n">
+      <c r="HZ81" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="IA81" t="n">
+        <v>17.8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="82" s="2">
+    <row r="82" ht="13.9" customHeight="1" s="2">
       <c r="A82" s="1" t="inlineStr">
         <is>
           <t>Height(O)</t>
@@ -58277,11 +58520,14 @@
       <c r="HY82" s="1" t="n">
         <v>189.3</v>
       </c>
-      <c r="HZ82" t="n">
+      <c r="HZ82" s="1" t="n">
         <v>188.7</v>
       </c>
+      <c r="IA82" t="n">
+        <v>187</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="83" s="2">
+    <row r="83" ht="13.9" customHeight="1" s="2">
       <c r="A83" s="1" t="inlineStr">
         <is>
           <t>Weight(O)</t>
@@ -58983,11 +59229,14 @@
       <c r="HY83" s="1" t="n">
         <v>85.40000000000001</v>
       </c>
-      <c r="HZ83" t="n">
+      <c r="HZ83" s="1" t="n">
         <v>89.40000000000001</v>
       </c>
+      <c r="IA83" t="n">
+        <v>84.8</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="84" s="2">
+    <row r="84" ht="13.9" customHeight="1" s="2">
       <c r="A84" s="1" t="inlineStr">
         <is>
           <t>Age(O)</t>
@@ -59689,11 +59938,14 @@
       <c r="HY84" s="1" t="n">
         <v>25.16</v>
       </c>
-      <c r="HZ84" t="n">
+      <c r="HZ84" s="1" t="n">
         <v>28.41</v>
       </c>
+      <c r="IA84" t="n">
+        <v>24.41</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="85" s="2">
+    <row r="85" ht="13.9" customHeight="1" s="2">
       <c r="A85" s="1" t="inlineStr">
         <is>
           <t>Av Games(O)</t>
@@ -60395,11 +60647,14 @@
       <c r="HY85" s="1" t="n">
         <v>96.7</v>
       </c>
-      <c r="HZ85" t="n">
+      <c r="HZ85" s="1" t="n">
         <v>158.1</v>
       </c>
+      <c r="IA85" t="n">
+        <v>78.5</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="86" s="2">
+    <row r="86" ht="13.9" customHeight="1" s="2">
       <c r="A86" s="1" t="inlineStr">
         <is>
           <t>&lt;50 Games(O)</t>
@@ -61101,11 +61356,14 @@
       <c r="HY86" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="HZ86" t="n">
+      <c r="HZ86" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="IA86" t="n">
+        <v>13</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="87" s="2">
+    <row r="87" ht="13.9" customHeight="1" s="2">
       <c r="A87" s="1" t="inlineStr">
         <is>
           <t>50-99 Games(O)</t>
@@ -61807,11 +62065,14 @@
       <c r="HY87" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HZ87" t="n">
+      <c r="HZ87" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="IA87" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="88" s="2">
+    <row r="88" ht="13.9" customHeight="1" s="2">
       <c r="A88" s="1" t="inlineStr">
         <is>
           <t>100-149 Games(O)</t>
@@ -62513,11 +62774,14 @@
       <c r="HY88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="HZ88" t="n">
+      <c r="HZ88" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="IA88" t="n">
+        <v>2</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="89" s="2">
+    <row r="89" ht="13.9" customHeight="1" s="2">
       <c r="A89" s="1" t="inlineStr">
         <is>
           <t>&gt;150 Games(O)</t>
@@ -63219,11 +63483,14 @@
       <c r="HY89" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HZ89" t="n">
+      <c r="HZ89" s="1" t="n">
         <v>12</v>
       </c>
+      <c r="IA89" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="90" s="2">
+    <row r="90" ht="13.9" customHeight="1" s="2">
       <c r="A90" s="1" t="inlineStr">
         <is>
           <t>Contested Poss(O)</t>
@@ -63925,11 +64192,14 @@
       <c r="HY90" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="HZ90" t="n">
+      <c r="HZ90" s="1" t="n">
         <v>135</v>
       </c>
+      <c r="IA90" t="n">
+        <v>167</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="91" s="2">
+    <row r="91" ht="13.9" customHeight="1" s="2">
       <c r="A91" s="1" t="inlineStr">
         <is>
           <t>Uncontested Poss(O)</t>
@@ -64631,11 +64901,14 @@
       <c r="HY91" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="HZ91" t="n">
+      <c r="HZ91" s="1" t="n">
         <v>204</v>
       </c>
+      <c r="IA91" t="n">
+        <v>181</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="92" s="2">
+    <row r="92" ht="13.9" customHeight="1" s="2">
       <c r="A92" s="1" t="inlineStr">
         <is>
           <t>Effective Disposals(O)</t>
@@ -65337,11 +65610,14 @@
       <c r="HY92" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="HZ92" t="n">
+      <c r="HZ92" s="1" t="n">
         <v>247</v>
       </c>
+      <c r="IA92" t="n">
+        <v>224</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="93" s="2">
+    <row r="93" ht="13.9" customHeight="1" s="2">
       <c r="A93" s="1" t="inlineStr">
         <is>
           <t>Disposal Efficiency(O)</t>
@@ -66043,11 +66319,14 @@
       <c r="HY93" s="1" t="n">
         <v>67.09999999999999</v>
       </c>
-      <c r="HZ93" t="n">
+      <c r="HZ93" s="1" t="n">
         <v>71.2</v>
       </c>
+      <c r="IA93" t="n">
+        <v>62.9</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="94" s="2">
+    <row r="94" ht="13.9" customHeight="1" s="2">
       <c r="A94" s="1" t="inlineStr">
         <is>
           <t>Clangers2(O)</t>
@@ -66749,11 +67028,14 @@
       <c r="HY94" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="HZ94" t="n">
+      <c r="HZ94" s="1" t="n">
         <v>66</v>
       </c>
+      <c r="IA94" t="n">
+        <v>60</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="95" s="2">
+    <row r="95" ht="13.9" customHeight="1" s="2">
       <c r="A95" s="1" t="inlineStr">
         <is>
           <t>Contested Marks(O)</t>
@@ -67455,11 +67737,14 @@
       <c r="HY95" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="HZ95" t="n">
+      <c r="HZ95" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="IA95" t="n">
+        <v>11</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="96" s="2">
+    <row r="96" ht="13.9" customHeight="1" s="2">
       <c r="A96" s="1" t="inlineStr">
         <is>
           <t>Marks Inside 50(O)</t>
@@ -68161,11 +68446,14 @@
       <c r="HY96" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="HZ96" t="n">
+      <c r="HZ96" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="IA96" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="97" s="2">
+    <row r="97" ht="13.9" customHeight="1" s="2">
       <c r="A97" s="1" t="inlineStr">
         <is>
           <t>Clearances2(O)</t>
@@ -68867,11 +69155,14 @@
       <c r="HY97" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="HZ97" t="n">
+      <c r="HZ97" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="IA97" t="n">
+        <v>41</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="98" s="2">
+    <row r="98" ht="13.9" customHeight="1" s="2">
       <c r="A98" s="1" t="inlineStr">
         <is>
           <t>Rebound 50s2(O)</t>
@@ -69573,11 +69864,14 @@
       <c r="HY98" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="HZ98" t="n">
+      <c r="HZ98" s="1" t="n">
         <v>41</v>
       </c>
+      <c r="IA98" t="n">
+        <v>43</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="99" s="2">
+    <row r="99" ht="13.9" customHeight="1" s="2">
       <c r="A99" s="1" t="inlineStr">
         <is>
           <t>1%ers(O)</t>
@@ -70279,11 +70573,14 @@
       <c r="HY99" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="HZ99" t="n">
+      <c r="HZ99" s="1" t="n">
         <v>39</v>
       </c>
+      <c r="IA99" t="n">
+        <v>63</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="100" s="2">
+    <row r="100" ht="13.9" customHeight="1" s="2">
       <c r="A100" s="1" t="inlineStr">
         <is>
           <t>Bounces(O)</t>
@@ -70985,11 +71282,14 @@
       <c r="HY100" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="HZ100" t="n">
+      <c r="HZ100" s="1" t="n">
         <v>8</v>
       </c>
+      <c r="IA100" t="n">
+        <v>6</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="101" s="2">
+    <row r="101" ht="13.9" customHeight="1" s="2">
       <c r="A101" s="1" t="inlineStr">
         <is>
           <t>Goals Assists2(O)</t>
@@ -71691,11 +71991,14 @@
       <c r="HY101" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="HZ101" t="n">
+      <c r="HZ101" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="IA101" t="n">
+        <v>7</v>
+      </c>
     </row>
-    <row customHeight="1" ht="13.9" r="102" s="2">
+    <row r="102" ht="13.9" customHeight="1" s="2">
       <c r="A102" s="1" t="inlineStr">
         <is>
           <t>Goal Assist %(O)</t>
@@ -72397,13 +72700,16 @@
       <c r="HY102" s="1" t="n">
         <v>83.3</v>
       </c>
-      <c r="HZ102" t="n">
+      <c r="HZ102" s="1" t="n">
         <v>85.7</v>
+      </c>
+      <c r="IA102" t="n">
+        <v>87.5</v>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" gridLinesSet="1" headings="0" horizontalCentered="0" verticalCentered="0"/>
-  <pageMargins bottom="1" footer="0.511805555555555" header="0.511805555555555" left="0.75" right="0.75" top="1"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" verticalDpi="300"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
--- a/django_AFL_ML/Data/Brisbane_stats.xlsx
+++ b/django_AFL_ML/Data/Brisbane_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IA102"/>
+  <dimension ref="A1:IB102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HG1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HQ11" activeCellId="0" sqref="HQ11"/>
@@ -1094,8 +1094,11 @@
       <c r="HZ1" s="1" t="n">
         <v>10444</v>
       </c>
-      <c r="IA1" t="n">
+      <c r="IA1" s="1" t="n">
         <v>10460</v>
+      </c>
+      <c r="IB1" t="n">
+        <v>10462</v>
       </c>
     </row>
     <row r="2" ht="13.9" customHeight="1" s="2">
@@ -1803,7 +1806,10 @@
       <c r="HZ2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="IA2" t="n">
+      <c r="IA2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IB2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2512,8 +2518,11 @@
       <c r="HZ3" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IA3" t="n">
+      <c r="IA3" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="13.9" customHeight="1" s="2">
@@ -3221,8 +3230,11 @@
       <c r="HZ4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IA4" t="n">
+      <c r="IA4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.9" customHeight="1" s="2">
@@ -3930,7 +3942,10 @@
       <c r="HZ5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IA5" t="n">
+      <c r="IA5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IB5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4639,8 +4654,11 @@
       <c r="HZ6" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="IA6" t="n">
+      <c r="IA6" s="1" t="n">
         <v>111</v>
+      </c>
+      <c r="IB6" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="7" ht="13.9" customHeight="1" s="2">
@@ -5348,8 +5366,11 @@
       <c r="HZ7" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IA7" t="n">
+      <c r="IA7" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="IB7" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="8" ht="13.9" customHeight="1" s="2">
@@ -6057,8 +6078,11 @@
       <c r="HZ8" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="IA8" t="n">
+      <c r="IA8" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IB8" t="n">
+        <v>-32</v>
       </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" s="2">
@@ -6766,8 +6790,11 @@
       <c r="HZ9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IA9" t="n">
+      <c r="IA9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IB9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.9" customHeight="1" s="2">
@@ -7475,8 +7502,11 @@
       <c r="HZ10" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IA10" t="n">
+      <c r="IA10" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IB10" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="13.9" customHeight="1" s="2">
@@ -8184,8 +8214,11 @@
       <c r="HZ11" s="1" t="n">
         <v>212</v>
       </c>
-      <c r="IA11" t="n">
+      <c r="IA11" s="1" t="n">
         <v>217</v>
+      </c>
+      <c r="IB11" t="n">
+        <v>186</v>
       </c>
     </row>
     <row r="12" ht="13.9" customHeight="1" s="2">
@@ -8893,8 +8926,11 @@
       <c r="HZ12" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="IA12" t="n">
+      <c r="IA12" s="1" t="n">
         <v>133</v>
+      </c>
+      <c r="IB12" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="13" ht="13.9" customHeight="1" s="2">
@@ -9602,8 +9638,11 @@
       <c r="HZ13" s="1" t="n">
         <v>295</v>
       </c>
-      <c r="IA13" t="n">
+      <c r="IA13" s="1" t="n">
         <v>350</v>
+      </c>
+      <c r="IB13" t="n">
+        <v>311</v>
       </c>
     </row>
     <row r="14" ht="13.9" customHeight="1" s="2">
@@ -10311,8 +10350,11 @@
       <c r="HZ14" s="1" t="n">
         <v>2.55</v>
       </c>
-      <c r="IA14" t="n">
+      <c r="IA14" s="1" t="n">
         <v>1.63</v>
+      </c>
+      <c r="IB14" t="n">
+        <v>1.49</v>
       </c>
     </row>
     <row r="15" ht="13.9" customHeight="1" s="2">
@@ -11020,8 +11062,11 @@
       <c r="HZ15" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="IA15" t="n">
+      <c r="IA15" s="1" t="n">
         <v>69</v>
+      </c>
+      <c r="IB15" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="16" ht="13.9" customHeight="1" s="2">
@@ -11729,8 +11774,11 @@
       <c r="HZ16" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="IA16" t="n">
+      <c r="IA16" s="1" t="n">
         <v>77</v>
+      </c>
+      <c r="IB16" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="17" ht="13.9" customHeight="1" s="2">
@@ -12438,8 +12486,11 @@
       <c r="HZ17" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IA17" t="n">
+      <c r="IA17" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="IB17" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="13.9" customHeight="1" s="2">
@@ -13147,8 +13198,11 @@
       <c r="HZ18" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="IA18" t="n">
+      <c r="IA18" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IB18" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="19" ht="13.9" customHeight="1" s="2">
@@ -13856,7 +13910,10 @@
       <c r="HZ19" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IA19" t="n">
+      <c r="IA19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="IB19" t="n">
         <v>18</v>
       </c>
     </row>
@@ -14565,8 +14622,11 @@
       <c r="HZ20" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IA20" t="n">
+      <c r="IA20" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IB20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="13.9" customHeight="1" s="2">
@@ -15274,8 +15334,11 @@
       <c r="HZ21" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IA21" t="n">
+      <c r="IA21" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IB21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22" ht="13.9" customHeight="1" s="2">
@@ -15983,8 +16046,11 @@
       <c r="HZ22" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IA22" t="n">
+      <c r="IA22" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IB22" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="23" ht="13.9" customHeight="1" s="2">
@@ -16692,7 +16758,10 @@
       <c r="HZ23" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IA23" t="n">
+      <c r="IA23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IB23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -17401,8 +17470,11 @@
       <c r="HZ24" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="IA24" t="n">
+      <c r="IA24" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="IB24" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="13.9" customHeight="1" s="2">
@@ -18110,8 +18182,11 @@
       <c r="HZ25" s="1" t="n">
         <v>44.8</v>
       </c>
-      <c r="IA25" t="n">
+      <c r="IA25" s="1" t="n">
         <v>65.40000000000001</v>
+      </c>
+      <c r="IB25" t="n">
+        <v>34.8</v>
       </c>
     </row>
     <row r="26" ht="13.9" customHeight="1" s="2">
@@ -18819,8 +18894,11 @@
       <c r="HZ26" s="1" t="n">
         <v>22.69</v>
       </c>
-      <c r="IA26" t="n">
+      <c r="IA26" s="1" t="n">
         <v>20.59</v>
+      </c>
+      <c r="IB26" t="n">
+        <v>38.88</v>
       </c>
     </row>
     <row r="27" ht="13.9" customHeight="1" s="2">
@@ -19528,8 +19606,11 @@
       <c r="HZ27" s="1" t="n">
         <v>10.17</v>
       </c>
-      <c r="IA27" t="n">
+      <c r="IA27" s="1" t="n">
         <v>13.46</v>
+      </c>
+      <c r="IB27" t="n">
+        <v>13.52</v>
       </c>
     </row>
     <row r="28" ht="13.9" customHeight="1" s="2">
@@ -20237,8 +20318,11 @@
       <c r="HZ28" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IA28" t="n">
+      <c r="IA28" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="IB28" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="29" ht="13.9" customHeight="1" s="2">
@@ -20946,8 +21030,11 @@
       <c r="HZ29" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="IA29" t="n">
+      <c r="IA29" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="IB29" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="30" ht="13.9" customHeight="1" s="2">
@@ -21655,8 +21742,11 @@
       <c r="HZ30" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="IA30" t="n">
+      <c r="IA30" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="IB30" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="31" ht="13.9" customHeight="1" s="2">
@@ -22364,8 +22454,11 @@
       <c r="HZ31" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="IA31" t="n">
+      <c r="IA31" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="IB31" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="32" ht="13.9" customHeight="1" s="2">
@@ -23073,8 +23166,11 @@
       <c r="HZ32" s="1" t="n">
         <v>1.9</v>
       </c>
-      <c r="IA32" t="n">
+      <c r="IA32" s="1" t="n">
         <v>2.38</v>
+      </c>
+      <c r="IB32" t="n">
+        <v>1.87</v>
       </c>
     </row>
     <row r="33" ht="13.9" customHeight="1" s="2">
@@ -23782,8 +23878,11 @@
       <c r="HZ33" s="1" t="n">
         <v>4.23</v>
       </c>
-      <c r="IA33" t="n">
+      <c r="IA33" s="1" t="n">
         <v>3.65</v>
+      </c>
+      <c r="IB33" t="n">
+        <v>5.38</v>
       </c>
     </row>
     <row r="34" ht="13.9" customHeight="1" s="2">
@@ -24491,8 +24590,11 @@
       <c r="HZ34" s="1" t="n">
         <v>43.6</v>
       </c>
-      <c r="IA34" t="n">
+      <c r="IA34" s="1" t="n">
         <v>38.7</v>
+      </c>
+      <c r="IB34" t="n">
+        <v>48.8</v>
       </c>
     </row>
     <row r="35" ht="13.9" customHeight="1" s="2">
@@ -25200,8 +25302,11 @@
       <c r="HZ35" s="1" t="n">
         <v>23.6</v>
       </c>
-      <c r="IA35" t="n">
+      <c r="IA35" s="1" t="n">
         <v>27.4</v>
+      </c>
+      <c r="IB35" t="n">
+        <v>18.6</v>
       </c>
     </row>
     <row r="36" ht="13.9" customHeight="1" s="2">
@@ -25909,8 +26014,11 @@
       <c r="HZ36" s="1" t="n">
         <v>187.8</v>
       </c>
-      <c r="IA36" t="n">
+      <c r="IA36" s="1" t="n">
         <v>188.9</v>
+      </c>
+      <c r="IB36" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="37" ht="13.9" customHeight="1" s="2">
@@ -26618,8 +26726,11 @@
       <c r="HZ37" s="1" t="n">
         <v>87.5</v>
       </c>
-      <c r="IA37" t="n">
+      <c r="IA37" s="1" t="n">
         <v>88.2</v>
+      </c>
+      <c r="IB37" t="n">
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.9" customHeight="1" s="2">
@@ -27327,8 +27438,11 @@
       <c r="HZ38" s="1" t="n">
         <v>25.41</v>
       </c>
-      <c r="IA38" t="n">
+      <c r="IA38" s="1" t="n">
         <v>25.91</v>
+      </c>
+      <c r="IB38" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="13.9" customHeight="1" s="2">
@@ -28036,8 +28150,11 @@
       <c r="HZ39" s="1" t="n">
         <v>97.5</v>
       </c>
-      <c r="IA39" t="n">
+      <c r="IA39" s="1" t="n">
         <v>107.8</v>
+      </c>
+      <c r="IB39" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="40" ht="13.9" customHeight="1" s="2">
@@ -28745,8 +28862,11 @@
       <c r="HZ40" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IA40" t="n">
+      <c r="IA40" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IB40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41" ht="13.9" customHeight="1" s="2">
@@ -29454,8 +29574,11 @@
       <c r="HZ41" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IA41" t="n">
+      <c r="IA41" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IB41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.9" customHeight="1" s="2">
@@ -30163,7 +30286,10 @@
       <c r="HZ42" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IA42" t="n">
+      <c r="IA42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IB42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -30872,8 +30998,11 @@
       <c r="HZ43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IA43" t="n">
+      <c r="IA43" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IB43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.9" customHeight="1" s="2">
@@ -31581,8 +31710,11 @@
       <c r="HZ44" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="IA44" t="n">
+      <c r="IA44" s="1" t="n">
         <v>166</v>
+      </c>
+      <c r="IB44" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="45" ht="13.9" customHeight="1" s="2">
@@ -32290,8 +32422,11 @@
       <c r="HZ45" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="IA45" t="n">
+      <c r="IA45" s="1" t="n">
         <v>179</v>
+      </c>
+      <c r="IB45" t="n">
+        <v>186</v>
       </c>
     </row>
     <row r="46" ht="13.9" customHeight="1" s="2">
@@ -32999,8 +33134,11 @@
       <c r="HZ46" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="IA46" t="n">
+      <c r="IA46" s="1" t="n">
         <v>240</v>
+      </c>
+      <c r="IB46" t="n">
+        <v>229</v>
       </c>
     </row>
     <row r="47" ht="13.9" customHeight="1" s="2">
@@ -33708,8 +33846,11 @@
       <c r="HZ47" s="1" t="n">
         <v>69.2</v>
       </c>
-      <c r="IA47" t="n">
+      <c r="IA47" s="1" t="n">
         <v>68.59999999999999</v>
+      </c>
+      <c r="IB47" t="n">
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.9" customHeight="1" s="2">
@@ -34417,8 +34558,11 @@
       <c r="HZ48" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="IA48" t="n">
+      <c r="IA48" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="IB48" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="49" ht="13.9" customHeight="1" s="2">
@@ -35126,7 +35270,10 @@
       <c r="HZ49" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IA49" t="n">
+      <c r="IA49" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="IB49" t="n">
         <v>12</v>
       </c>
     </row>
@@ -35835,8 +35982,11 @@
       <c r="HZ50" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IA50" t="n">
+      <c r="IA50" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IB50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="13.9" customHeight="1" s="2">
@@ -36544,8 +36694,11 @@
       <c r="HZ51" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IA51" t="n">
+      <c r="IA51" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="IB51" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="52" ht="13.9" customHeight="1" s="2">
@@ -37253,8 +37406,11 @@
       <c r="HZ52" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="IA52" t="n">
+      <c r="IA52" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="IB52" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="53" ht="13.9" customHeight="1" s="2">
@@ -37962,8 +38118,11 @@
       <c r="HZ53" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="IA53" t="n">
+      <c r="IA53" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="IB53" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="54" ht="13.9" customHeight="1" s="2">
@@ -38671,7 +38830,10 @@
       <c r="HZ54" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IA54" t="n">
+      <c r="IA54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IB54" t="n">
         <v>2</v>
       </c>
     </row>
@@ -39380,8 +39542,11 @@
       <c r="HZ55" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IA55" t="n">
+      <c r="IA55" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IB55" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="56" ht="13.9" customHeight="1" s="2">
@@ -40089,8 +40254,11 @@
       <c r="HZ56" s="1" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="IA56" t="n">
+      <c r="IA56" s="1" t="n">
         <v>58.8</v>
+      </c>
+      <c r="IB56" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="13.9" customHeight="1" s="2">
@@ -40798,8 +40966,11 @@
       <c r="HZ57" s="1" t="n">
         <v>198</v>
       </c>
-      <c r="IA57" t="n">
+      <c r="IA57" s="1" t="n">
         <v>212</v>
+      </c>
+      <c r="IB57" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="58" ht="13.9" customHeight="1" s="2">
@@ -41507,8 +41678,11 @@
       <c r="HZ58" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="IA58" t="n">
+      <c r="IA58" s="1" t="n">
         <v>144</v>
+      </c>
+      <c r="IB58" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="59" ht="13.9" customHeight="1" s="2">
@@ -42216,8 +42390,11 @@
       <c r="HZ59" s="1" t="n">
         <v>347</v>
       </c>
-      <c r="IA59" t="n">
+      <c r="IA59" s="1" t="n">
         <v>356</v>
+      </c>
+      <c r="IB59" t="n">
+        <v>406</v>
       </c>
     </row>
     <row r="60" ht="13.9" customHeight="1" s="2">
@@ -42925,8 +43102,11 @@
       <c r="HZ60" s="1" t="n">
         <v>1.33</v>
       </c>
-      <c r="IA60" t="n">
+      <c r="IA60" s="1" t="n">
         <v>1.47</v>
+      </c>
+      <c r="IB60" t="n">
+        <v>1.48</v>
       </c>
     </row>
     <row r="61" ht="13.9" customHeight="1" s="2">
@@ -43634,8 +43814,11 @@
       <c r="HZ61" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="IA61" t="n">
+      <c r="IA61" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="IB61" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="62" ht="13.9" customHeight="1" s="2">
@@ -44343,8 +44526,11 @@
       <c r="HZ62" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="IA62" t="n">
+      <c r="IA62" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="IB62" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="63" ht="13.9" customHeight="1" s="2">
@@ -45052,8 +45238,11 @@
       <c r="HZ63" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="IA63" t="n">
+      <c r="IA63" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="IB63" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="64" ht="13.9" customHeight="1" s="2">
@@ -45761,7 +45950,10 @@
       <c r="HZ64" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IA64" t="n">
+      <c r="IA64" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="IB64" t="n">
         <v>18</v>
       </c>
     </row>
@@ -46470,8 +46662,11 @@
       <c r="HZ65" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="IA65" t="n">
+      <c r="IA65" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IB65" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="66" ht="13.9" customHeight="1" s="2">
@@ -47179,8 +47374,11 @@
       <c r="HZ66" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IA66" t="n">
+      <c r="IA66" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IB66" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="67" ht="13.9" customHeight="1" s="2">
@@ -47888,8 +48086,11 @@
       <c r="HZ67" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IA67" t="n">
+      <c r="IA67" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IB67" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="13.9" customHeight="1" s="2">
@@ -48597,8 +48798,11 @@
       <c r="HZ68" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IA68" t="n">
+      <c r="IA68" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IB68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.9" customHeight="1" s="2">
@@ -49306,8 +49510,11 @@
       <c r="HZ69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IA69" t="n">
+      <c r="IA69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IB69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70" ht="13.9" customHeight="1" s="2">
@@ -50015,8 +50222,11 @@
       <c r="HZ70" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IA70" t="n">
+      <c r="IA70" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="IB70" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="13.9" customHeight="1" s="2">
@@ -50724,8 +50934,11 @@
       <c r="HZ71" s="1" t="n">
         <v>46.7</v>
       </c>
-      <c r="IA71" t="n">
+      <c r="IA71" s="1" t="n">
         <v>42.1</v>
+      </c>
+      <c r="IB71" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="72" ht="13.9" customHeight="1" s="2">
@@ -51433,8 +51646,11 @@
       <c r="HZ72" s="1" t="n">
         <v>49.57</v>
       </c>
-      <c r="IA72" t="n">
+      <c r="IA72" s="1" t="n">
         <v>44.5</v>
+      </c>
+      <c r="IB72" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="73" ht="13.9" customHeight="1" s="2">
@@ -52142,8 +52358,11 @@
       <c r="HZ73" s="1" t="n">
         <v>23.13</v>
       </c>
-      <c r="IA73" t="n">
+      <c r="IA73" s="1" t="n">
         <v>18.74</v>
+      </c>
+      <c r="IB73" t="n">
+        <v>16.24</v>
       </c>
     </row>
     <row r="74" ht="13.9" customHeight="1" s="2">
@@ -52851,8 +53070,11 @@
       <c r="HZ74" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="IA74" t="n">
+      <c r="IA74" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="IB74" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="13.9" customHeight="1" s="2">
@@ -53560,8 +53782,11 @@
       <c r="HZ75" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="IA75" t="n">
+      <c r="IA75" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="IB75" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="76" ht="13.9" customHeight="1" s="2">
@@ -54269,8 +54494,11 @@
       <c r="HZ76" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IA76" t="n">
+      <c r="IA76" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="IB76" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="13.9" customHeight="1" s="2">
@@ -54978,8 +55206,11 @@
       <c r="HZ77" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IA77" t="n">
+      <c r="IA77" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="IB77" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="78" ht="13.9" customHeight="1" s="2">
@@ -55687,8 +55918,11 @@
       <c r="HZ78" s="1" t="n">
         <v>3.33</v>
       </c>
-      <c r="IA78" t="n">
+      <c r="IA78" s="1" t="n">
         <v>2.37</v>
+      </c>
+      <c r="IB78" t="n">
+        <v>2.16</v>
       </c>
     </row>
     <row r="79" ht="13.9" customHeight="1" s="2">
@@ -56396,8 +56630,11 @@
       <c r="HZ79" s="1" t="n">
         <v>7.14</v>
       </c>
-      <c r="IA79" t="n">
+      <c r="IA79" s="1" t="n">
         <v>5.62</v>
+      </c>
+      <c r="IB79" t="n">
+        <v>3.86</v>
       </c>
     </row>
     <row r="80" ht="13.9" customHeight="1" s="2">
@@ -57105,8 +57342,11 @@
       <c r="HZ80" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IA80" t="n">
+      <c r="IA80" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="IB80" t="n">
+        <v>38.9</v>
       </c>
     </row>
     <row r="81" ht="13.9" customHeight="1" s="2">
@@ -57814,8 +58054,11 @@
       <c r="HZ81" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IA81" t="n">
+      <c r="IA81" s="1" t="n">
         <v>17.8</v>
+      </c>
+      <c r="IB81" t="n">
+        <v>25.9</v>
       </c>
     </row>
     <row r="82" ht="13.9" customHeight="1" s="2">
@@ -58523,8 +58766,11 @@
       <c r="HZ82" s="1" t="n">
         <v>188.7</v>
       </c>
-      <c r="IA82" t="n">
+      <c r="IA82" s="1" t="n">
         <v>187</v>
+      </c>
+      <c r="IB82" t="n">
+        <v>187.5</v>
       </c>
     </row>
     <row r="83" ht="13.9" customHeight="1" s="2">
@@ -59232,8 +59478,11 @@
       <c r="HZ83" s="1" t="n">
         <v>89.40000000000001</v>
       </c>
-      <c r="IA83" t="n">
+      <c r="IA83" s="1" t="n">
         <v>84.8</v>
+      </c>
+      <c r="IB83" t="n">
+        <v>85.2</v>
       </c>
     </row>
     <row r="84" ht="13.9" customHeight="1" s="2">
@@ -59941,8 +60190,11 @@
       <c r="HZ84" s="1" t="n">
         <v>28.41</v>
       </c>
-      <c r="IA84" t="n">
+      <c r="IA84" s="1" t="n">
         <v>24.41</v>
+      </c>
+      <c r="IB84" t="n">
+        <v>25.66</v>
       </c>
     </row>
     <row r="85" ht="13.9" customHeight="1" s="2">
@@ -60650,8 +60902,11 @@
       <c r="HZ85" s="1" t="n">
         <v>158.1</v>
       </c>
-      <c r="IA85" t="n">
+      <c r="IA85" s="1" t="n">
         <v>78.5</v>
+      </c>
+      <c r="IB85" t="n">
+        <v>94.3</v>
       </c>
     </row>
     <row r="86" ht="13.9" customHeight="1" s="2">
@@ -61359,8 +61614,11 @@
       <c r="HZ86" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IA86" t="n">
+      <c r="IA86" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IB86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87" ht="13.9" customHeight="1" s="2">
@@ -62068,8 +62326,11 @@
       <c r="HZ87" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IA87" t="n">
+      <c r="IA87" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IB87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.9" customHeight="1" s="2">
@@ -62777,8 +63038,11 @@
       <c r="HZ88" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IA88" t="n">
+      <c r="IA88" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IB88" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="89" ht="13.9" customHeight="1" s="2">
@@ -63486,8 +63750,11 @@
       <c r="HZ89" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IA89" t="n">
+      <c r="IA89" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IB89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.9" customHeight="1" s="2">
@@ -64195,8 +64462,11 @@
       <c r="HZ90" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="IA90" t="n">
+      <c r="IA90" s="1" t="n">
         <v>167</v>
+      </c>
+      <c r="IB90" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="91" ht="13.9" customHeight="1" s="2">
@@ -64904,8 +65174,11 @@
       <c r="HZ91" s="1" t="n">
         <v>204</v>
       </c>
-      <c r="IA91" t="n">
+      <c r="IA91" s="1" t="n">
         <v>181</v>
+      </c>
+      <c r="IB91" t="n">
+        <v>277</v>
       </c>
     </row>
     <row r="92" ht="13.9" customHeight="1" s="2">
@@ -65613,8 +65886,11 @@
       <c r="HZ92" s="1" t="n">
         <v>247</v>
       </c>
-      <c r="IA92" t="n">
+      <c r="IA92" s="1" t="n">
         <v>224</v>
+      </c>
+      <c r="IB92" t="n">
+        <v>319</v>
       </c>
     </row>
     <row r="93" ht="13.9" customHeight="1" s="2">
@@ -66322,8 +66598,11 @@
       <c r="HZ93" s="1" t="n">
         <v>71.2</v>
       </c>
-      <c r="IA93" t="n">
+      <c r="IA93" s="1" t="n">
         <v>62.9</v>
+      </c>
+      <c r="IB93" t="n">
+        <v>78.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.9" customHeight="1" s="2">
@@ -67031,8 +67310,11 @@
       <c r="HZ94" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="IA94" t="n">
+      <c r="IA94" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="IB94" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="95" ht="13.9" customHeight="1" s="2">
@@ -67740,8 +68022,11 @@
       <c r="HZ95" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IA95" t="n">
+      <c r="IA95" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IB95" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="96" ht="13.9" customHeight="1" s="2">
@@ -68449,8 +68734,11 @@
       <c r="HZ96" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IA96" t="n">
+      <c r="IA96" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IB96" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="97" ht="13.9" customHeight="1" s="2">
@@ -69158,8 +69446,11 @@
       <c r="HZ97" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="IA97" t="n">
+      <c r="IA97" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="IB97" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="13.9" customHeight="1" s="2">
@@ -69867,8 +70158,11 @@
       <c r="HZ98" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IA98" t="n">
+      <c r="IA98" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="IB98" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="99" ht="13.9" customHeight="1" s="2">
@@ -70576,8 +70870,11 @@
       <c r="HZ99" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="IA99" t="n">
+      <c r="IA99" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="IB99" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="100" ht="13.9" customHeight="1" s="2">
@@ -71285,8 +71582,11 @@
       <c r="HZ100" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IA100" t="n">
+      <c r="IA100" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IB100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.9" customHeight="1" s="2">
@@ -71994,8 +72294,11 @@
       <c r="HZ101" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IA101" t="n">
+      <c r="IA101" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IB101" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="13.9" customHeight="1" s="2">
@@ -72703,8 +73006,11 @@
       <c r="HZ102" s="1" t="n">
         <v>85.7</v>
       </c>
-      <c r="IA102" t="n">
+      <c r="IA102" s="1" t="n">
         <v>87.5</v>
+      </c>
+      <c r="IB102" t="n">
+        <v>85.7</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Brisbane_stats.xlsx
+++ b/django_AFL_ML/Data/Brisbane_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:ID102"/>
+  <dimension ref="A1:IE102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HG1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HQ11" activeCellId="0" sqref="HQ11"/>
@@ -1103,8 +1103,11 @@
       <c r="IC1" s="1" t="n">
         <v>10476</v>
       </c>
-      <c r="ID1" t="n">
+      <c r="ID1" s="1" t="n">
         <v>10489</v>
+      </c>
+      <c r="IE1" t="n">
+        <v>10533</v>
       </c>
     </row>
     <row r="2" ht="13.9" customHeight="1" s="2">
@@ -1821,7 +1824,10 @@
       <c r="IC2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="ID2" t="n">
+      <c r="ID2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IE2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2539,8 +2545,11 @@
       <c r="IC3" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="ID3" t="n">
+      <c r="ID3" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="13.9" customHeight="1" s="2">
@@ -3257,8 +3266,11 @@
       <c r="IC4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="ID4" t="n">
+      <c r="ID4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.9" customHeight="1" s="2">
@@ -3975,7 +3987,10 @@
       <c r="IC5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="ID5" t="n">
+      <c r="ID5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4693,8 +4708,11 @@
       <c r="IC6" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="ID6" t="n">
+      <c r="ID6" s="1" t="n">
         <v>120</v>
+      </c>
+      <c r="IE6" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="7" ht="13.9" customHeight="1" s="2">
@@ -5411,8 +5429,11 @@
       <c r="IC7" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="ID7" t="n">
+      <c r="ID7" s="1" t="n">
         <v>71</v>
+      </c>
+      <c r="IE7" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="8" ht="13.9" customHeight="1" s="2">
@@ -6129,8 +6150,11 @@
       <c r="IC8" s="1" t="n">
         <v>-20</v>
       </c>
-      <c r="ID8" t="n">
+      <c r="ID8" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="IE8" t="n">
+        <v>-12</v>
       </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" s="2">
@@ -6847,8 +6871,11 @@
       <c r="IC9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="ID9" t="n">
+      <c r="ID9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IE9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.9" customHeight="1" s="2">
@@ -7565,8 +7592,11 @@
       <c r="IC10" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="ID10" t="n">
+      <c r="ID10" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IE10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="13.9" customHeight="1" s="2">
@@ -8283,8 +8313,11 @@
       <c r="IC11" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="ID11" t="n">
+      <c r="ID11" s="1" t="n">
         <v>254</v>
+      </c>
+      <c r="IE11" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="12" ht="13.9" customHeight="1" s="2">
@@ -9001,8 +9034,11 @@
       <c r="IC12" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="ID12" t="n">
+      <c r="ID12" s="1" t="n">
         <v>119</v>
+      </c>
+      <c r="IE12" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="13" ht="13.9" customHeight="1" s="2">
@@ -9719,8 +9755,11 @@
       <c r="IC13" s="1" t="n">
         <v>342</v>
       </c>
-      <c r="ID13" t="n">
+      <c r="ID13" s="1" t="n">
         <v>373</v>
+      </c>
+      <c r="IE13" t="n">
+        <v>379</v>
       </c>
     </row>
     <row r="14" ht="13.9" customHeight="1" s="2">
@@ -10437,8 +10476,11 @@
       <c r="IC14" s="1" t="n">
         <v>1.87</v>
       </c>
-      <c r="ID14" t="n">
+      <c r="ID14" s="1" t="n">
         <v>2.13</v>
+      </c>
+      <c r="IE14" t="n">
+        <v>1.54</v>
       </c>
     </row>
     <row r="15" ht="13.9" customHeight="1" s="2">
@@ -11155,8 +11197,11 @@
       <c r="IC15" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="ID15" t="n">
+      <c r="ID15" s="1" t="n">
         <v>108</v>
+      </c>
+      <c r="IE15" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="16" ht="13.9" customHeight="1" s="2">
@@ -11873,8 +11918,11 @@
       <c r="IC16" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="ID16" t="n">
+      <c r="ID16" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="IE16" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="17" ht="13.9" customHeight="1" s="2">
@@ -12591,8 +12639,11 @@
       <c r="IC17" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="ID17" t="n">
+      <c r="ID17" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="IE17" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="18" ht="13.9" customHeight="1" s="2">
@@ -13309,8 +13360,11 @@
       <c r="IC18" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="ID18" t="n">
+      <c r="ID18" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IE18" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="19" ht="13.9" customHeight="1" s="2">
@@ -14027,8 +14081,11 @@
       <c r="IC19" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="ID19" t="n">
+      <c r="ID19" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IE19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="13.9" customHeight="1" s="2">
@@ -14745,8 +14802,11 @@
       <c r="IC20" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="ID20" t="n">
+      <c r="ID20" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IE20" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="13.9" customHeight="1" s="2">
@@ -15463,8 +15523,11 @@
       <c r="IC21" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="ID21" t="n">
+      <c r="ID21" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IE21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.9" customHeight="1" s="2">
@@ -16181,8 +16244,11 @@
       <c r="IC22" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="ID22" t="n">
+      <c r="ID22" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IE22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.9" customHeight="1" s="2">
@@ -16899,7 +16965,10 @@
       <c r="IC23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="ID23" t="n">
+      <c r="ID23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IE23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -17617,8 +17686,11 @@
       <c r="IC24" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="ID24" t="n">
+      <c r="ID24" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="IE24" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="13.9" customHeight="1" s="2">
@@ -18335,8 +18407,11 @@
       <c r="IC25" s="1" t="n">
         <v>61.9</v>
       </c>
-      <c r="ID25" t="n">
+      <c r="ID25" s="1" t="n">
         <v>48.6</v>
+      </c>
+      <c r="IE25" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="26" ht="13.9" customHeight="1" s="2">
@@ -19053,8 +19128,11 @@
       <c r="IC26" s="1" t="n">
         <v>26.31</v>
       </c>
-      <c r="ID26" t="n">
+      <c r="ID26" s="1" t="n">
         <v>21.94</v>
+      </c>
+      <c r="IE26" t="n">
+        <v>31.58</v>
       </c>
     </row>
     <row r="27" ht="13.9" customHeight="1" s="2">
@@ -19771,8 +19849,11 @@
       <c r="IC27" s="1" t="n">
         <v>16.29</v>
       </c>
-      <c r="ID27" t="n">
+      <c r="ID27" s="1" t="n">
         <v>10.66</v>
+      </c>
+      <c r="IE27" t="n">
+        <v>18.95</v>
       </c>
     </row>
     <row r="28" ht="13.9" customHeight="1" s="2">
@@ -20489,8 +20570,11 @@
       <c r="IC28" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="ID28" t="n">
+      <c r="ID28" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="IE28" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="29" ht="13.9" customHeight="1" s="2">
@@ -21207,8 +21291,11 @@
       <c r="IC29" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="ID29" t="n">
+      <c r="ID29" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="IE29" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="30" ht="13.9" customHeight="1" s="2">
@@ -21925,8 +22012,11 @@
       <c r="IC30" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="ID30" t="n">
+      <c r="ID30" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="IE30" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="31" ht="13.9" customHeight="1" s="2">
@@ -22643,8 +22733,11 @@
       <c r="IC31" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="ID31" t="n">
+      <c r="ID31" s="1" t="n">
         <v>72</v>
+      </c>
+      <c r="IE31" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="32" ht="13.9" customHeight="1" s="2">
@@ -23361,8 +23454,11 @@
       <c r="IC32" s="1" t="n">
         <v>2.52</v>
       </c>
-      <c r="ID32" t="n">
+      <c r="ID32" s="1" t="n">
         <v>2.06</v>
+      </c>
+      <c r="IE32" t="n">
+        <v>2.05</v>
       </c>
     </row>
     <row r="33" ht="13.9" customHeight="1" s="2">
@@ -24079,8 +24175,11 @@
       <c r="IC33" s="1" t="n">
         <v>4.08</v>
       </c>
-      <c r="ID33" t="n">
+      <c r="ID33" s="1" t="n">
         <v>4.24</v>
+      </c>
+      <c r="IE33" t="n">
+        <v>3.42</v>
       </c>
     </row>
     <row r="34" ht="13.9" customHeight="1" s="2">
@@ -24797,8 +24896,11 @@
       <c r="IC34" s="1" t="n">
         <v>37.7</v>
       </c>
-      <c r="ID34" t="n">
+      <c r="ID34" s="1" t="n">
         <v>45.8</v>
+      </c>
+      <c r="IE34" t="n">
+        <v>43.9</v>
       </c>
     </row>
     <row r="35" ht="13.9" customHeight="1" s="2">
@@ -25515,8 +25617,11 @@
       <c r="IC35" s="1" t="n">
         <v>24.5</v>
       </c>
-      <c r="ID35" t="n">
+      <c r="ID35" s="1" t="n">
         <v>23.6</v>
+      </c>
+      <c r="IE35" t="n">
+        <v>29.3</v>
       </c>
     </row>
     <row r="36" ht="13.9" customHeight="1" s="2">
@@ -26233,8 +26338,11 @@
       <c r="IC36" s="1" t="n">
         <v>188.1</v>
       </c>
-      <c r="ID36" t="n">
+      <c r="ID36" s="1" t="n">
         <v>188.3</v>
+      </c>
+      <c r="IE36" t="n">
+        <v>188.5</v>
       </c>
     </row>
     <row r="37" ht="13.9" customHeight="1" s="2">
@@ -26951,8 +27059,11 @@
       <c r="IC37" s="1" t="n">
         <v>87.7</v>
       </c>
-      <c r="ID37" t="n">
+      <c r="ID37" s="1" t="n">
         <v>88.3</v>
+      </c>
+      <c r="IE37" t="n">
+        <v>88.8</v>
       </c>
     </row>
     <row r="38" ht="13.9" customHeight="1" s="2">
@@ -27669,8 +27780,11 @@
       <c r="IC38" s="1" t="n">
         <v>25.91</v>
       </c>
-      <c r="ID38" t="n">
+      <c r="ID38" s="1" t="n">
         <v>26.16</v>
+      </c>
+      <c r="IE38" t="n">
+        <v>26.41</v>
       </c>
     </row>
     <row r="39" ht="13.9" customHeight="1" s="2">
@@ -28387,8 +28501,11 @@
       <c r="IC39" s="1" t="n">
         <v>109.2</v>
       </c>
-      <c r="ID39" t="n">
+      <c r="ID39" s="1" t="n">
         <v>116</v>
+      </c>
+      <c r="IE39" t="n">
+        <v>117.8</v>
       </c>
     </row>
     <row r="40" ht="13.9" customHeight="1" s="2">
@@ -29105,7 +29222,10 @@
       <c r="IC40" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="ID40" t="n">
+      <c r="ID40" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IE40" t="n">
         <v>5</v>
       </c>
     </row>
@@ -29823,7 +29943,10 @@
       <c r="IC41" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="ID41" t="n">
+      <c r="ID41" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IE41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -30541,7 +30664,10 @@
       <c r="IC42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="ID42" t="n">
+      <c r="ID42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IE42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -31259,7 +31385,10 @@
       <c r="IC43" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="ID43" t="n">
+      <c r="ID43" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="IE43" t="n">
         <v>7</v>
       </c>
     </row>
@@ -31977,7 +32106,10 @@
       <c r="IC44" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="ID44" t="n">
+      <c r="ID44" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="IE44" t="n">
         <v>148</v>
       </c>
     </row>
@@ -32695,8 +32827,11 @@
       <c r="IC45" s="1" t="n">
         <v>202</v>
       </c>
-      <c r="ID45" t="n">
+      <c r="ID45" s="1" t="n">
         <v>211</v>
+      </c>
+      <c r="IE45" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="46" ht="13.9" customHeight="1" s="2">
@@ -33413,8 +33548,11 @@
       <c r="IC46" s="1" t="n">
         <v>239</v>
       </c>
-      <c r="ID46" t="n">
+      <c r="ID46" s="1" t="n">
         <v>261</v>
+      </c>
+      <c r="IE46" t="n">
+        <v>259</v>
       </c>
     </row>
     <row r="47" ht="13.9" customHeight="1" s="2">
@@ -34131,8 +34269,11 @@
       <c r="IC47" s="1" t="n">
         <v>69.90000000000001</v>
       </c>
-      <c r="ID47" t="n">
+      <c r="ID47" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="IE47" t="n">
+        <v>68.3</v>
       </c>
     </row>
     <row r="48" ht="13.9" customHeight="1" s="2">
@@ -34849,8 +34990,11 @@
       <c r="IC48" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="ID48" t="n">
+      <c r="ID48" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="IE48" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="49" ht="13.9" customHeight="1" s="2">
@@ -35567,8 +35711,11 @@
       <c r="IC49" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="ID49" t="n">
+      <c r="ID49" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="IE49" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="13.9" customHeight="1" s="2">
@@ -36285,8 +36432,11 @@
       <c r="IC50" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="ID50" t="n">
+      <c r="ID50" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IE50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="13.9" customHeight="1" s="2">
@@ -37003,8 +37153,11 @@
       <c r="IC51" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="ID51" t="n">
+      <c r="ID51" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="IE51" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="52" ht="13.9" customHeight="1" s="2">
@@ -37721,8 +37874,11 @@
       <c r="IC52" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="ID52" t="n">
+      <c r="ID52" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="IE52" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="53" ht="13.9" customHeight="1" s="2">
@@ -38439,8 +38595,11 @@
       <c r="IC53" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="ID53" t="n">
+      <c r="ID53" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IE53" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="13.9" customHeight="1" s="2">
@@ -39157,8 +39316,11 @@
       <c r="IC54" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="ID54" t="n">
+      <c r="ID54" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IE54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.9" customHeight="1" s="2">
@@ -39875,8 +40037,11 @@
       <c r="IC55" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="ID55" t="n">
+      <c r="ID55" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IE55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.9" customHeight="1" s="2">
@@ -40593,8 +40758,11 @@
       <c r="IC56" s="1" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="ID56" t="n">
+      <c r="ID56" s="1" t="n">
         <v>58.8</v>
+      </c>
+      <c r="IE56" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="57" ht="13.9" customHeight="1" s="2">
@@ -41311,8 +41479,11 @@
       <c r="IC57" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="ID57" t="n">
+      <c r="ID57" s="1" t="n">
         <v>215</v>
+      </c>
+      <c r="IE57" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="58" ht="13.9" customHeight="1" s="2">
@@ -42029,8 +42200,11 @@
       <c r="IC58" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="ID58" t="n">
+      <c r="ID58" s="1" t="n">
         <v>149</v>
+      </c>
+      <c r="IE58" t="n">
+        <v>163</v>
       </c>
     </row>
     <row r="59" ht="13.9" customHeight="1" s="2">
@@ -42747,8 +42921,11 @@
       <c r="IC59" s="1" t="n">
         <v>340</v>
       </c>
-      <c r="ID59" t="n">
+      <c r="ID59" s="1" t="n">
         <v>364</v>
+      </c>
+      <c r="IE59" t="n">
+        <v>379</v>
       </c>
     </row>
     <row r="60" ht="13.9" customHeight="1" s="2">
@@ -43465,8 +43642,11 @@
       <c r="IC60" s="1" t="n">
         <v>1.43</v>
       </c>
-      <c r="ID60" t="n">
+      <c r="ID60" s="1" t="n">
         <v>1.44</v>
+      </c>
+      <c r="IE60" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row r="61" ht="13.9" customHeight="1" s="2">
@@ -44183,8 +44363,11 @@
       <c r="IC61" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="ID61" t="n">
+      <c r="ID61" s="1" t="n">
         <v>105</v>
+      </c>
+      <c r="IE61" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="62" ht="13.9" customHeight="1" s="2">
@@ -44901,8 +45084,11 @@
       <c r="IC62" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="ID62" t="n">
+      <c r="ID62" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="IE62" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="63" ht="13.9" customHeight="1" s="2">
@@ -45619,8 +45805,11 @@
       <c r="IC63" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="ID63" t="n">
+      <c r="ID63" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IE63" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="64" ht="13.9" customHeight="1" s="2">
@@ -46337,8 +46526,11 @@
       <c r="IC64" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="ID64" t="n">
+      <c r="ID64" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IE64" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="13.9" customHeight="1" s="2">
@@ -47055,8 +47247,11 @@
       <c r="IC65" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="ID65" t="n">
+      <c r="ID65" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IE65" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="66" ht="13.9" customHeight="1" s="2">
@@ -47773,8 +47968,11 @@
       <c r="IC66" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="ID66" t="n">
+      <c r="ID66" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IE66" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="67" ht="13.9" customHeight="1" s="2">
@@ -48491,8 +48689,11 @@
       <c r="IC67" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="ID67" t="n">
+      <c r="ID67" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IE67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.9" customHeight="1" s="2">
@@ -49209,8 +49410,11 @@
       <c r="IC68" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="ID68" t="n">
+      <c r="ID68" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IE68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.9" customHeight="1" s="2">
@@ -49927,8 +50131,11 @@
       <c r="IC69" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="ID69" t="n">
+      <c r="ID69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IE69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.9" customHeight="1" s="2">
@@ -50645,8 +50852,11 @@
       <c r="IC70" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="ID70" t="n">
+      <c r="ID70" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IE70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.9" customHeight="1" s="2">
@@ -51363,8 +51573,11 @@
       <c r="IC71" s="1" t="n">
         <v>61.5</v>
       </c>
-      <c r="ID71" t="n">
+      <c r="ID71" s="1" t="n">
         <v>47.6</v>
+      </c>
+      <c r="IE71" t="n">
+        <v>63.6</v>
       </c>
     </row>
     <row r="72" ht="13.9" customHeight="1" s="2">
@@ -52081,8 +52294,11 @@
       <c r="IC72" s="1" t="n">
         <v>21.25</v>
       </c>
-      <c r="ID72" t="n">
+      <c r="ID72" s="1" t="n">
         <v>36.4</v>
+      </c>
+      <c r="IE72" t="n">
+        <v>27.07</v>
       </c>
     </row>
     <row r="73" ht="13.9" customHeight="1" s="2">
@@ -52799,8 +53015,11 @@
       <c r="IC73" s="1" t="n">
         <v>13.08</v>
       </c>
-      <c r="ID73" t="n">
+      <c r="ID73" s="1" t="n">
         <v>17.33</v>
+      </c>
+      <c r="IE73" t="n">
+        <v>17.23</v>
       </c>
     </row>
     <row r="74" ht="13.9" customHeight="1" s="2">
@@ -53517,8 +53736,11 @@
       <c r="IC74" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="ID74" t="n">
+      <c r="ID74" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="IE74" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="75" ht="13.9" customHeight="1" s="2">
@@ -54235,8 +54457,11 @@
       <c r="IC75" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="ID75" t="n">
+      <c r="ID75" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="IE75" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="76" ht="13.9" customHeight="1" s="2">
@@ -54953,8 +55178,11 @@
       <c r="IC76" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="ID76" t="n">
+      <c r="ID76" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IE76" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="13.9" customHeight="1" s="2">
@@ -55671,8 +55899,11 @@
       <c r="IC77" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="ID77" t="n">
+      <c r="ID77" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="IE77" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="78" ht="13.9" customHeight="1" s="2">
@@ -56389,8 +56620,11 @@
       <c r="IC78" s="1" t="n">
         <v>2.35</v>
       </c>
-      <c r="ID78" t="n">
+      <c r="ID78" s="1" t="n">
         <v>1.9</v>
+      </c>
+      <c r="IE78" t="n">
+        <v>2.73</v>
       </c>
     </row>
     <row r="79" ht="13.9" customHeight="1" s="2">
@@ -57107,8 +57341,11 @@
       <c r="IC79" s="1" t="n">
         <v>3.81</v>
       </c>
-      <c r="ID79" t="n">
+      <c r="ID79" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IE79" t="n">
+        <v>4.29</v>
       </c>
     </row>
     <row r="80" ht="13.9" customHeight="1" s="2">
@@ -57825,8 +58062,11 @@
       <c r="IC80" s="1" t="n">
         <v>36.1</v>
       </c>
-      <c r="ID80" t="n">
+      <c r="ID80" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="IE80" t="n">
+        <v>36.7</v>
       </c>
     </row>
     <row r="81" ht="13.9" customHeight="1" s="2">
@@ -58543,8 +58783,11 @@
       <c r="IC81" s="1" t="n">
         <v>26.2</v>
       </c>
-      <c r="ID81" t="n">
+      <c r="ID81" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="IE81" t="n">
+        <v>23.3</v>
       </c>
     </row>
     <row r="82" ht="13.9" customHeight="1" s="2">
@@ -59261,8 +59504,11 @@
       <c r="IC82" s="1" t="n">
         <v>185.9</v>
       </c>
-      <c r="ID82" t="n">
+      <c r="ID82" s="1" t="n">
         <v>187.3</v>
+      </c>
+      <c r="IE82" t="n">
+        <v>188.8</v>
       </c>
     </row>
     <row r="83" ht="13.9" customHeight="1" s="2">
@@ -59979,8 +60225,11 @@
       <c r="IC83" s="1" t="n">
         <v>84.09999999999999</v>
       </c>
-      <c r="ID83" t="n">
+      <c r="ID83" s="1" t="n">
         <v>84</v>
+      </c>
+      <c r="IE83" t="n">
+        <v>85.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.9" customHeight="1" s="2">
@@ -60697,8 +60946,11 @@
       <c r="IC84" s="1" t="n">
         <v>26.24</v>
       </c>
-      <c r="ID84" t="n">
+      <c r="ID84" s="1" t="n">
         <v>23.49</v>
+      </c>
+      <c r="IE84" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="85" ht="13.9" customHeight="1" s="2">
@@ -61415,8 +61667,11 @@
       <c r="IC85" s="1" t="n">
         <v>104.4</v>
       </c>
-      <c r="ID85" t="n">
+      <c r="ID85" s="1" t="n">
         <v>60.6</v>
+      </c>
+      <c r="IE85" t="n">
+        <v>106.5</v>
       </c>
     </row>
     <row r="86" ht="13.9" customHeight="1" s="2">
@@ -62133,8 +62388,11 @@
       <c r="IC86" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="ID86" t="n">
+      <c r="ID86" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IE86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.9" customHeight="1" s="2">
@@ -62851,8 +63109,11 @@
       <c r="IC87" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="ID87" t="n">
+      <c r="ID87" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IE87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.9" customHeight="1" s="2">
@@ -63569,8 +63830,11 @@
       <c r="IC88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="ID88" t="n">
+      <c r="ID88" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IE88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.9" customHeight="1" s="2">
@@ -64287,8 +64551,11 @@
       <c r="IC89" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="ID89" t="n">
+      <c r="ID89" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IE89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.9" customHeight="1" s="2">
@@ -65005,8 +65272,11 @@
       <c r="IC90" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="ID90" t="n">
+      <c r="ID90" s="1" t="n">
         <v>116</v>
+      </c>
+      <c r="IE90" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="91" ht="13.9" customHeight="1" s="2">
@@ -65723,8 +65993,11 @@
       <c r="IC91" s="1" t="n">
         <v>203</v>
       </c>
-      <c r="ID91" t="n">
+      <c r="ID91" s="1" t="n">
         <v>241</v>
+      </c>
+      <c r="IE91" t="n">
+        <v>229</v>
       </c>
     </row>
     <row r="92" ht="13.9" customHeight="1" s="2">
@@ -66441,8 +66714,11 @@
       <c r="IC92" s="1" t="n">
         <v>244</v>
       </c>
-      <c r="ID92" t="n">
+      <c r="ID92" s="1" t="n">
         <v>270</v>
+      </c>
+      <c r="IE92" t="n">
+        <v>277</v>
       </c>
     </row>
     <row r="93" ht="13.9" customHeight="1" s="2">
@@ -67159,8 +67435,11 @@
       <c r="IC93" s="1" t="n">
         <v>71.8</v>
       </c>
-      <c r="ID93" t="n">
+      <c r="ID93" s="1" t="n">
         <v>74.2</v>
+      </c>
+      <c r="IE93" t="n">
+        <v>73.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.9" customHeight="1" s="2">
@@ -67877,8 +68156,11 @@
       <c r="IC94" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="ID94" t="n">
+      <c r="ID94" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="IE94" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="95" ht="13.9" customHeight="1" s="2">
@@ -68595,8 +68877,11 @@
       <c r="IC95" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="ID95" t="n">
+      <c r="ID95" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IE95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.9" customHeight="1" s="2">
@@ -69313,8 +69598,11 @@
       <c r="IC96" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="ID96" t="n">
+      <c r="ID96" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IE96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="13.9" customHeight="1" s="2">
@@ -70031,8 +70319,11 @@
       <c r="IC97" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="ID97" t="n">
+      <c r="ID97" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="IE97" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="98" ht="13.9" customHeight="1" s="2">
@@ -70749,8 +71040,11 @@
       <c r="IC98" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="ID98" t="n">
+      <c r="ID98" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IE98" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="99" ht="13.9" customHeight="1" s="2">
@@ -71467,8 +71761,11 @@
       <c r="IC99" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="ID99" t="n">
+      <c r="ID99" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="IE99" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="100" ht="13.9" customHeight="1" s="2">
@@ -72185,8 +72482,11 @@
       <c r="IC100" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="ID100" t="n">
+      <c r="ID100" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IE100" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="101" ht="13.9" customHeight="1" s="2">
@@ -72903,8 +73203,11 @@
       <c r="IC101" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="ID101" t="n">
+      <c r="ID101" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IE101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.9" customHeight="1" s="2">
@@ -73621,8 +73924,11 @@
       <c r="IC102" s="1" t="n">
         <v>56.2</v>
       </c>
-      <c r="ID102" t="n">
+      <c r="ID102" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="IE102" t="n">
+        <v>64.3</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Brisbane_stats.xlsx
+++ b/django_AFL_ML/Data/Brisbane_stats.xlsx
@@ -377,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IE102"/>
+  <dimension ref="A1:IF102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HG1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HQ11" activeCellId="0" sqref="HQ11"/>
@@ -1106,8 +1106,11 @@
       <c r="ID1" s="1" t="n">
         <v>10489</v>
       </c>
-      <c r="IE1" t="n">
+      <c r="IE1" s="1" t="n">
         <v>10533</v>
+      </c>
+      <c r="IF1" t="n">
+        <v>10530</v>
       </c>
     </row>
     <row r="2" ht="13.9" customHeight="1" s="2">
@@ -1827,7 +1830,10 @@
       <c r="ID2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="IE2" t="n">
+      <c r="IE2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IF2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2548,8 +2554,11 @@
       <c r="ID3" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="IE3" t="n">
+      <c r="IE3" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="13.9" customHeight="1" s="2">
@@ -3269,7 +3278,10 @@
       <c r="ID4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IE4" t="n">
+      <c r="IE4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3990,8 +4002,11 @@
       <c r="ID5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IE5" t="n">
+      <c r="IE5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IF5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.9" customHeight="1" s="2">
@@ -4711,8 +4726,11 @@
       <c r="ID6" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="IE6" t="n">
+      <c r="IE6" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="IF6" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="7" ht="13.9" customHeight="1" s="2">
@@ -5432,8 +5450,11 @@
       <c r="ID7" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="IE7" t="n">
+      <c r="IE7" s="1" t="n">
         <v>92</v>
+      </c>
+      <c r="IF7" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="8" ht="13.9" customHeight="1" s="2">
@@ -6153,8 +6174,11 @@
       <c r="ID8" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="IE8" t="n">
+      <c r="IE8" s="1" t="n">
         <v>-12</v>
+      </c>
+      <c r="IF8" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" s="2">
@@ -6874,8 +6898,11 @@
       <c r="ID9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IE9" t="n">
+      <c r="IE9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IF9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.9" customHeight="1" s="2">
@@ -7595,8 +7622,11 @@
       <c r="ID10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IE10" t="n">
+      <c r="IE10" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IF10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11" ht="13.9" customHeight="1" s="2">
@@ -8316,8 +8346,11 @@
       <c r="ID11" s="1" t="n">
         <v>254</v>
       </c>
-      <c r="IE11" t="n">
+      <c r="IE11" s="1" t="n">
         <v>230</v>
+      </c>
+      <c r="IF11" t="n">
+        <v>222</v>
       </c>
     </row>
     <row r="12" ht="13.9" customHeight="1" s="2">
@@ -9037,8 +9070,11 @@
       <c r="ID12" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="IE12" t="n">
+      <c r="IE12" s="1" t="n">
         <v>149</v>
+      </c>
+      <c r="IF12" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="13" ht="13.9" customHeight="1" s="2">
@@ -9758,8 +9794,11 @@
       <c r="ID13" s="1" t="n">
         <v>373</v>
       </c>
-      <c r="IE13" t="n">
+      <c r="IE13" s="1" t="n">
         <v>379</v>
+      </c>
+      <c r="IF13" t="n">
+        <v>372</v>
       </c>
     </row>
     <row r="14" ht="13.9" customHeight="1" s="2">
@@ -10479,8 +10518,11 @@
       <c r="ID14" s="1" t="n">
         <v>2.13</v>
       </c>
-      <c r="IE14" t="n">
+      <c r="IE14" s="1" t="n">
         <v>1.54</v>
+      </c>
+      <c r="IF14" t="n">
+        <v>1.48</v>
       </c>
     </row>
     <row r="15" ht="13.9" customHeight="1" s="2">
@@ -11200,8 +11242,11 @@
       <c r="ID15" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="IE15" t="n">
+      <c r="IE15" s="1" t="n">
         <v>111</v>
+      </c>
+      <c r="IF15" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="16" ht="13.9" customHeight="1" s="2">
@@ -11921,8 +11966,11 @@
       <c r="ID16" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IE16" t="n">
+      <c r="IE16" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="IF16" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="17" ht="13.9" customHeight="1" s="2">
@@ -12642,8 +12690,11 @@
       <c r="ID17" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="IE17" t="n">
+      <c r="IE17" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="IF17" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="13.9" customHeight="1" s="2">
@@ -13363,8 +13414,11 @@
       <c r="ID18" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="IE18" t="n">
+      <c r="IE18" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IF18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="13.9" customHeight="1" s="2">
@@ -14084,8 +14138,11 @@
       <c r="ID19" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IE19" t="n">
+      <c r="IE19" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IF19" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="13.9" customHeight="1" s="2">
@@ -14805,8 +14862,11 @@
       <c r="ID20" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IE20" t="n">
+      <c r="IE20" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IF20" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="13.9" customHeight="1" s="2">
@@ -15526,8 +15586,11 @@
       <c r="ID21" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IE21" t="n">
+      <c r="IE21" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IF21" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="13.9" customHeight="1" s="2">
@@ -16247,8 +16310,11 @@
       <c r="ID22" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="IE22" t="n">
+      <c r="IE22" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IF22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="13.9" customHeight="1" s="2">
@@ -16968,8 +17034,11 @@
       <c r="ID23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IE23" t="n">
+      <c r="IE23" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IF23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.9" customHeight="1" s="2">
@@ -17689,8 +17758,11 @@
       <c r="ID24" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IE24" t="n">
+      <c r="IE24" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IF24" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="13.9" customHeight="1" s="2">
@@ -18410,8 +18482,11 @@
       <c r="ID25" s="1" t="n">
         <v>48.6</v>
       </c>
-      <c r="IE25" t="n">
+      <c r="IE25" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="IF25" t="n">
+        <v>64.3</v>
       </c>
     </row>
     <row r="26" ht="13.9" customHeight="1" s="2">
@@ -19131,8 +19206,11 @@
       <c r="ID26" s="1" t="n">
         <v>21.94</v>
       </c>
-      <c r="IE26" t="n">
+      <c r="IE26" s="1" t="n">
         <v>31.58</v>
+      </c>
+      <c r="IF26" t="n">
+        <v>20.67</v>
       </c>
     </row>
     <row r="27" ht="13.9" customHeight="1" s="2">
@@ -19852,8 +19930,11 @@
       <c r="ID27" s="1" t="n">
         <v>10.66</v>
       </c>
-      <c r="IE27" t="n">
+      <c r="IE27" s="1" t="n">
         <v>18.95</v>
+      </c>
+      <c r="IF27" t="n">
+        <v>13.29</v>
       </c>
     </row>
     <row r="28" ht="13.9" customHeight="1" s="2">
@@ -20573,8 +20654,11 @@
       <c r="ID28" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="IE28" t="n">
+      <c r="IE28" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="IF28" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="13.9" customHeight="1" s="2">
@@ -21294,8 +21378,11 @@
       <c r="ID29" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="IE29" t="n">
+      <c r="IE29" s="1" t="n">
         <v>67</v>
+      </c>
+      <c r="IF29" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="30" ht="13.9" customHeight="1" s="2">
@@ -22015,8 +22102,11 @@
       <c r="ID30" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IE30" t="n">
+      <c r="IE30" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="IF30" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="13.9" customHeight="1" s="2">
@@ -22736,8 +22826,11 @@
       <c r="ID31" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="IE31" t="n">
+      <c r="IE31" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="IF31" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="32" ht="13.9" customHeight="1" s="2">
@@ -23457,8 +23550,11 @@
       <c r="ID32" s="1" t="n">
         <v>2.06</v>
       </c>
-      <c r="IE32" t="n">
+      <c r="IE32" s="1" t="n">
         <v>2.05</v>
+      </c>
+      <c r="IF32" t="n">
+        <v>1.86</v>
       </c>
     </row>
     <row r="33" ht="13.9" customHeight="1" s="2">
@@ -24178,8 +24274,11 @@
       <c r="ID33" s="1" t="n">
         <v>4.24</v>
       </c>
-      <c r="IE33" t="n">
+      <c r="IE33" s="1" t="n">
         <v>3.42</v>
+      </c>
+      <c r="IF33" t="n">
+        <v>2.89</v>
       </c>
     </row>
     <row r="34" ht="13.9" customHeight="1" s="2">
@@ -24899,8 +24998,11 @@
       <c r="ID34" s="1" t="n">
         <v>45.8</v>
       </c>
-      <c r="IE34" t="n">
+      <c r="IE34" s="1" t="n">
         <v>43.9</v>
+      </c>
+      <c r="IF34" t="n">
+        <v>51.9</v>
       </c>
     </row>
     <row r="35" ht="13.9" customHeight="1" s="2">
@@ -25620,8 +25722,11 @@
       <c r="ID35" s="1" t="n">
         <v>23.6</v>
       </c>
-      <c r="IE35" t="n">
+      <c r="IE35" s="1" t="n">
         <v>29.3</v>
+      </c>
+      <c r="IF35" t="n">
+        <v>34.6</v>
       </c>
     </row>
     <row r="36" ht="13.9" customHeight="1" s="2">
@@ -26341,8 +26446,11 @@
       <c r="ID36" s="1" t="n">
         <v>188.3</v>
       </c>
-      <c r="IE36" t="n">
+      <c r="IE36" s="1" t="n">
         <v>188.5</v>
+      </c>
+      <c r="IF36" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="37" ht="13.9" customHeight="1" s="2">
@@ -27062,8 +27170,11 @@
       <c r="ID37" s="1" t="n">
         <v>88.3</v>
       </c>
-      <c r="IE37" t="n">
+      <c r="IE37" s="1" t="n">
         <v>88.8</v>
+      </c>
+      <c r="IF37" t="n">
+        <v>86.90000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.9" customHeight="1" s="2">
@@ -27783,8 +27894,11 @@
       <c r="ID38" s="1" t="n">
         <v>26.16</v>
       </c>
-      <c r="IE38" t="n">
+      <c r="IE38" s="1" t="n">
         <v>26.41</v>
+      </c>
+      <c r="IF38" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="39" ht="13.9" customHeight="1" s="2">
@@ -28504,8 +28618,11 @@
       <c r="ID39" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="IE39" t="n">
+      <c r="IE39" s="1" t="n">
         <v>117.8</v>
+      </c>
+      <c r="IF39" t="n">
+        <v>108.5</v>
       </c>
     </row>
     <row r="40" ht="13.9" customHeight="1" s="2">
@@ -29225,8 +29342,11 @@
       <c r="ID40" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IE40" t="n">
+      <c r="IE40" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IF40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.9" customHeight="1" s="2">
@@ -29946,8 +30066,11 @@
       <c r="ID41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IE41" t="n">
+      <c r="IE41" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IF41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.9" customHeight="1" s="2">
@@ -30667,7 +30790,10 @@
       <c r="ID42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IE42" t="n">
+      <c r="IE42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IF42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -31388,8 +31514,11 @@
       <c r="ID43" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IE43" t="n">
+      <c r="IE43" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IF43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.9" customHeight="1" s="2">
@@ -32109,8 +32238,11 @@
       <c r="ID44" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="IE44" t="n">
+      <c r="IE44" s="1" t="n">
         <v>148</v>
+      </c>
+      <c r="IF44" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="45" ht="13.9" customHeight="1" s="2">
@@ -32830,8 +32962,11 @@
       <c r="ID45" s="1" t="n">
         <v>211</v>
       </c>
-      <c r="IE45" t="n">
+      <c r="IE45" s="1" t="n">
         <v>223</v>
+      </c>
+      <c r="IF45" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="46" ht="13.9" customHeight="1" s="2">
@@ -33551,8 +33686,11 @@
       <c r="ID46" s="1" t="n">
         <v>261</v>
       </c>
-      <c r="IE46" t="n">
+      <c r="IE46" s="1" t="n">
         <v>259</v>
+      </c>
+      <c r="IF46" t="n">
+        <v>274</v>
       </c>
     </row>
     <row r="47" ht="13.9" customHeight="1" s="2">
@@ -34272,8 +34410,11 @@
       <c r="ID47" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="IE47" t="n">
+      <c r="IE47" s="1" t="n">
         <v>68.3</v>
+      </c>
+      <c r="IF47" t="n">
+        <v>73.7</v>
       </c>
     </row>
     <row r="48" ht="13.9" customHeight="1" s="2">
@@ -34993,8 +35134,11 @@
       <c r="ID48" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="IE48" t="n">
+      <c r="IE48" s="1" t="n">
         <v>67</v>
+      </c>
+      <c r="IF48" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="49" ht="13.9" customHeight="1" s="2">
@@ -35714,8 +35858,11 @@
       <c r="ID49" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="IE49" t="n">
+      <c r="IE49" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="IF49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="13.9" customHeight="1" s="2">
@@ -36435,8 +36582,11 @@
       <c r="ID50" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IE50" t="n">
+      <c r="IE50" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IF50" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="13.9" customHeight="1" s="2">
@@ -37156,8 +37306,11 @@
       <c r="ID51" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="IE51" t="n">
+      <c r="IE51" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="IF51" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="13.9" customHeight="1" s="2">
@@ -37877,8 +38030,11 @@
       <c r="ID52" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="IE52" t="n">
+      <c r="IE52" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="IF52" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="53" ht="13.9" customHeight="1" s="2">
@@ -38598,8 +38754,11 @@
       <c r="ID53" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IE53" t="n">
+      <c r="IE53" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="IF53" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="54" ht="13.9" customHeight="1" s="2">
@@ -39319,7 +39478,10 @@
       <c r="ID54" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IE54" t="n">
+      <c r="IE54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="IF54" t="n">
         <v>2</v>
       </c>
     </row>
@@ -40040,8 +40202,11 @@
       <c r="ID55" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IE55" t="n">
+      <c r="IE55" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IF55" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="56" ht="13.9" customHeight="1" s="2">
@@ -40761,8 +40926,11 @@
       <c r="ID56" s="1" t="n">
         <v>58.8</v>
       </c>
-      <c r="IE56" t="n">
+      <c r="IE56" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="IF56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="13.9" customHeight="1" s="2">
@@ -41482,8 +41650,11 @@
       <c r="ID57" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="IE57" t="n">
+      <c r="IE57" s="1" t="n">
         <v>216</v>
+      </c>
+      <c r="IF57" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="58" ht="13.9" customHeight="1" s="2">
@@ -42203,8 +42374,11 @@
       <c r="ID58" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="IE58" t="n">
+      <c r="IE58" s="1" t="n">
         <v>163</v>
+      </c>
+      <c r="IF58" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="59" ht="13.9" customHeight="1" s="2">
@@ -42924,8 +43098,11 @@
       <c r="ID59" s="1" t="n">
         <v>364</v>
       </c>
-      <c r="IE59" t="n">
+      <c r="IE59" s="1" t="n">
         <v>379</v>
+      </c>
+      <c r="IF59" t="n">
+        <v>338</v>
       </c>
     </row>
     <row r="60" ht="13.9" customHeight="1" s="2">
@@ -43645,8 +43822,11 @@
       <c r="ID60" s="1" t="n">
         <v>1.44</v>
       </c>
-      <c r="IE60" t="n">
+      <c r="IE60" s="1" t="n">
         <v>1.33</v>
+      </c>
+      <c r="IF60" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="61" ht="13.9" customHeight="1" s="2">
@@ -44366,8 +44546,11 @@
       <c r="ID61" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="IE61" t="n">
+      <c r="IE61" s="1" t="n">
         <v>83</v>
+      </c>
+      <c r="IF61" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="62" ht="13.9" customHeight="1" s="2">
@@ -45087,8 +45270,11 @@
       <c r="ID62" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="IE62" t="n">
+      <c r="IE62" s="1" t="n">
         <v>84</v>
+      </c>
+      <c r="IF62" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="63" ht="13.9" customHeight="1" s="2">
@@ -45808,8 +45994,11 @@
       <c r="ID63" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IE63" t="n">
+      <c r="IE63" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="IF63" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="64" ht="13.9" customHeight="1" s="2">
@@ -46529,8 +46718,11 @@
       <c r="ID64" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IE64" t="n">
+      <c r="IE64" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="IF64" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="13.9" customHeight="1" s="2">
@@ -47250,8 +47442,11 @@
       <c r="ID65" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IE65" t="n">
+      <c r="IE65" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IF65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.9" customHeight="1" s="2">
@@ -47971,8 +48166,11 @@
       <c r="ID66" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IE66" t="n">
+      <c r="IE66" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IF66" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="13.9" customHeight="1" s="2">
@@ -48692,8 +48890,11 @@
       <c r="ID67" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IE67" t="n">
+      <c r="IE67" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IF67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.9" customHeight="1" s="2">
@@ -49413,8 +49614,11 @@
       <c r="ID68" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IE68" t="n">
+      <c r="IE68" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IF68" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="69" ht="13.9" customHeight="1" s="2">
@@ -50134,8 +50338,11 @@
       <c r="ID69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IE69" t="n">
+      <c r="IE69" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="IF69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.9" customHeight="1" s="2">
@@ -50855,8 +51062,11 @@
       <c r="ID70" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="IE70" t="n">
+      <c r="IE70" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="IF70" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="71" ht="13.9" customHeight="1" s="2">
@@ -51576,8 +51786,11 @@
       <c r="ID71" s="1" t="n">
         <v>47.6</v>
       </c>
-      <c r="IE71" t="n">
+      <c r="IE71" s="1" t="n">
         <v>63.6</v>
+      </c>
+      <c r="IF71" t="n">
+        <v>57.1</v>
       </c>
     </row>
     <row r="72" ht="13.9" customHeight="1" s="2">
@@ -52297,8 +52510,11 @@
       <c r="ID72" s="1" t="n">
         <v>36.4</v>
       </c>
-      <c r="IE72" t="n">
+      <c r="IE72" s="1" t="n">
         <v>27.07</v>
+      </c>
+      <c r="IF72" t="n">
+        <v>42.25</v>
       </c>
     </row>
     <row r="73" ht="13.9" customHeight="1" s="2">
@@ -53018,8 +53234,11 @@
       <c r="ID73" s="1" t="n">
         <v>17.33</v>
       </c>
-      <c r="IE73" t="n">
+      <c r="IE73" s="1" t="n">
         <v>17.23</v>
+      </c>
+      <c r="IF73" t="n">
+        <v>24.14</v>
       </c>
     </row>
     <row r="74" ht="13.9" customHeight="1" s="2">
@@ -53739,8 +53958,11 @@
       <c r="ID74" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="IE74" t="n">
+      <c r="IE74" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="IF74" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="13.9" customHeight="1" s="2">
@@ -54460,8 +54682,11 @@
       <c r="ID75" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="IE75" t="n">
+      <c r="IE75" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IF75" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="76" ht="13.9" customHeight="1" s="2">
@@ -55181,8 +55406,11 @@
       <c r="ID76" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="IE76" t="n">
+      <c r="IE76" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="IF76" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="13.9" customHeight="1" s="2">
@@ -55902,8 +56130,11 @@
       <c r="ID77" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="IE77" t="n">
+      <c r="IE77" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="IF77" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="78" ht="13.9" customHeight="1" s="2">
@@ -56623,8 +56854,11 @@
       <c r="ID78" s="1" t="n">
         <v>1.9</v>
       </c>
-      <c r="IE78" t="n">
+      <c r="IE78" s="1" t="n">
         <v>2.73</v>
+      </c>
+      <c r="IF78" t="n">
+        <v>3.79</v>
       </c>
     </row>
     <row r="79" ht="13.9" customHeight="1" s="2">
@@ -57344,8 +57578,11 @@
       <c r="ID79" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IE79" t="n">
+      <c r="IE79" s="1" t="n">
         <v>4.29</v>
+      </c>
+      <c r="IF79" t="n">
+        <v>6.62</v>
       </c>
     </row>
     <row r="80" ht="13.9" customHeight="1" s="2">
@@ -58065,8 +58302,11 @@
       <c r="ID80" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IE80" t="n">
+      <c r="IE80" s="1" t="n">
         <v>36.7</v>
+      </c>
+      <c r="IF80" t="n">
+        <v>20.8</v>
       </c>
     </row>
     <row r="81" ht="13.9" customHeight="1" s="2">
@@ -58786,8 +59026,11 @@
       <c r="ID81" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="IE81" t="n">
+      <c r="IE81" s="1" t="n">
         <v>23.3</v>
+      </c>
+      <c r="IF81" t="n">
+        <v>15.1</v>
       </c>
     </row>
     <row r="82" ht="13.9" customHeight="1" s="2">
@@ -59507,8 +59750,11 @@
       <c r="ID82" s="1" t="n">
         <v>187.3</v>
       </c>
-      <c r="IE82" t="n">
+      <c r="IE82" s="1" t="n">
         <v>188.8</v>
+      </c>
+      <c r="IF82" t="n">
+        <v>186.8</v>
       </c>
     </row>
     <row r="83" ht="13.9" customHeight="1" s="2">
@@ -60228,8 +60474,11 @@
       <c r="ID83" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="IE83" t="n">
+      <c r="IE83" s="1" t="n">
         <v>85.59999999999999</v>
+      </c>
+      <c r="IF83" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.9" customHeight="1" s="2">
@@ -60949,8 +61198,11 @@
       <c r="ID84" s="1" t="n">
         <v>23.49</v>
       </c>
-      <c r="IE84" t="n">
+      <c r="IE84" s="1" t="n">
         <v>25.8</v>
+      </c>
+      <c r="IF84" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="85" ht="13.9" customHeight="1" s="2">
@@ -61670,8 +61922,11 @@
       <c r="ID85" s="1" t="n">
         <v>60.6</v>
       </c>
-      <c r="IE85" t="n">
+      <c r="IE85" s="1" t="n">
         <v>106.5</v>
+      </c>
+      <c r="IF85" t="n">
+        <v>69.8</v>
       </c>
     </row>
     <row r="86" ht="13.9" customHeight="1" s="2">
@@ -62391,8 +62646,11 @@
       <c r="ID86" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IE86" t="n">
+      <c r="IE86" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IF86" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="13.9" customHeight="1" s="2">
@@ -63112,8 +63370,11 @@
       <c r="ID87" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IE87" t="n">
+      <c r="IE87" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IF87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.9" customHeight="1" s="2">
@@ -63833,8 +64094,11 @@
       <c r="ID88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IE88" t="n">
+      <c r="IE88" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IF88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.9" customHeight="1" s="2">
@@ -64554,8 +64818,11 @@
       <c r="ID89" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IE89" t="n">
+      <c r="IE89" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IF89" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="90" ht="13.9" customHeight="1" s="2">
@@ -65275,8 +65542,11 @@
       <c r="ID90" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="IE90" t="n">
+      <c r="IE90" s="1" t="n">
         <v>148</v>
+      </c>
+      <c r="IF90" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="91" ht="13.9" customHeight="1" s="2">
@@ -65996,8 +66266,11 @@
       <c r="ID91" s="1" t="n">
         <v>241</v>
       </c>
-      <c r="IE91" t="n">
+      <c r="IE91" s="1" t="n">
         <v>229</v>
+      </c>
+      <c r="IF91" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="92" ht="13.9" customHeight="1" s="2">
@@ -66717,8 +66990,11 @@
       <c r="ID92" s="1" t="n">
         <v>270</v>
       </c>
-      <c r="IE92" t="n">
+      <c r="IE92" s="1" t="n">
         <v>277</v>
+      </c>
+      <c r="IF92" t="n">
+        <v>254</v>
       </c>
     </row>
     <row r="93" ht="13.9" customHeight="1" s="2">
@@ -67438,8 +67714,11 @@
       <c r="ID93" s="1" t="n">
         <v>74.2</v>
       </c>
-      <c r="IE93" t="n">
+      <c r="IE93" s="1" t="n">
         <v>73.09999999999999</v>
+      </c>
+      <c r="IF93" t="n">
+        <v>75.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.9" customHeight="1" s="2">
@@ -68159,8 +68438,11 @@
       <c r="ID94" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="IE94" t="n">
+      <c r="IE94" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IF94" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="95" ht="13.9" customHeight="1" s="2">
@@ -68880,8 +69162,11 @@
       <c r="ID95" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IE95" t="n">
+      <c r="IE95" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IF95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="13.9" customHeight="1" s="2">
@@ -69601,8 +69886,11 @@
       <c r="ID96" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IE96" t="n">
+      <c r="IE96" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IF96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="13.9" customHeight="1" s="2">
@@ -70322,8 +70610,11 @@
       <c r="ID97" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="IE97" t="n">
+      <c r="IE97" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="IF97" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="98" ht="13.9" customHeight="1" s="2">
@@ -71043,8 +71334,11 @@
       <c r="ID98" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="IE98" t="n">
+      <c r="IE98" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="IF98" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="99" ht="13.9" customHeight="1" s="2">
@@ -71764,8 +72058,11 @@
       <c r="ID99" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="IE99" t="n">
+      <c r="IE99" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IF99" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="100" ht="13.9" customHeight="1" s="2">
@@ -72485,8 +72782,11 @@
       <c r="ID100" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IE100" t="n">
+      <c r="IE100" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IF100" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="101" ht="13.9" customHeight="1" s="2">
@@ -73206,8 +73506,11 @@
       <c r="ID101" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IE101" t="n">
+      <c r="IE101" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="IF101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.9" customHeight="1" s="2">
@@ -73927,8 +74230,11 @@
       <c r="ID102" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="IE102" t="n">
+      <c r="IE102" s="1" t="n">
         <v>64.3</v>
+      </c>
+      <c r="IF102" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Brisbane_stats.xlsx
+++ b/django_AFL_ML/Data/Brisbane_stats.xlsx
@@ -85,6 +85,74 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -377,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IF102"/>
+  <dimension ref="A1:IG102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HG1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HQ11" activeCellId="0" sqref="HQ11"/>
@@ -1109,8 +1177,11 @@
       <c r="IE1" s="1" t="n">
         <v>10533</v>
       </c>
-      <c r="IF1" t="n">
+      <c r="IF1" s="1" t="n">
         <v>10530</v>
+      </c>
+      <c r="IG1" t="n">
+        <v>10526</v>
       </c>
     </row>
     <row r="2" ht="13.9" customHeight="1" s="2">
@@ -1833,7 +1904,10 @@
       <c r="IE2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="IF2" t="n">
+      <c r="IF2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IG2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2557,8 +2631,11 @@
       <c r="IE3" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IF3" t="n">
+      <c r="IF3" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="13.9" customHeight="1" s="2">
@@ -3281,8 +3358,11 @@
       <c r="IE4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IF4" t="n">
+      <c r="IF4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.9" customHeight="1" s="2">
@@ -4005,8 +4085,11 @@
       <c r="IE5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IF5" t="n">
+      <c r="IF5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IG5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.9" customHeight="1" s="2">
@@ -4729,8 +4812,11 @@
       <c r="IE6" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="IF6" t="n">
+      <c r="IF6" s="1" t="n">
         <v>118</v>
+      </c>
+      <c r="IG6" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="7" ht="13.9" customHeight="1" s="2">
@@ -5453,8 +5539,11 @@
       <c r="IE7" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="IF7" t="n">
+      <c r="IF7" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="IG7" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="8" ht="13.9" customHeight="1" s="2">
@@ -6177,8 +6266,11 @@
       <c r="IE8" s="1" t="n">
         <v>-12</v>
       </c>
-      <c r="IF8" t="n">
+      <c r="IF8" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="IG8" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" s="2">
@@ -6901,7 +6993,10 @@
       <c r="IE9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IF9" t="n">
+      <c r="IF9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7625,8 +7720,11 @@
       <c r="IE10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IF10" t="n">
+      <c r="IF10" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IG10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11" ht="13.9" customHeight="1" s="2">
@@ -8349,8 +8447,11 @@
       <c r="IE11" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="IF11" t="n">
+      <c r="IF11" s="1" t="n">
         <v>222</v>
+      </c>
+      <c r="IG11" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="12" ht="13.9" customHeight="1" s="2">
@@ -9073,8 +9174,11 @@
       <c r="IE12" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="IF12" t="n">
+      <c r="IF12" s="1" t="n">
         <v>150</v>
+      </c>
+      <c r="IG12" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="13" ht="13.9" customHeight="1" s="2">
@@ -9797,8 +9901,11 @@
       <c r="IE13" s="1" t="n">
         <v>379</v>
       </c>
-      <c r="IF13" t="n">
+      <c r="IF13" s="1" t="n">
         <v>372</v>
+      </c>
+      <c r="IG13" t="n">
+        <v>375</v>
       </c>
     </row>
     <row r="14" ht="13.9" customHeight="1" s="2">
@@ -10521,8 +10628,11 @@
       <c r="IE14" s="1" t="n">
         <v>1.54</v>
       </c>
-      <c r="IF14" t="n">
+      <c r="IF14" s="1" t="n">
         <v>1.48</v>
+      </c>
+      <c r="IG14" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="15" ht="13.9" customHeight="1" s="2">
@@ -11245,8 +11355,11 @@
       <c r="IE15" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="IF15" t="n">
+      <c r="IF15" s="1" t="n">
         <v>88</v>
+      </c>
+      <c r="IG15" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="16" ht="13.9" customHeight="1" s="2">
@@ -11969,8 +12082,11 @@
       <c r="IE16" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="IF16" t="n">
+      <c r="IF16" s="1" t="n">
         <v>71</v>
+      </c>
+      <c r="IG16" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="17" ht="13.9" customHeight="1" s="2">
@@ -12693,8 +12809,11 @@
       <c r="IE17" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="IF17" t="n">
+      <c r="IF17" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="IG17" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="18" ht="13.9" customHeight="1" s="2">
@@ -13417,8 +13536,11 @@
       <c r="IE18" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IF18" t="n">
+      <c r="IF18" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IG18" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="19" ht="13.9" customHeight="1" s="2">
@@ -14141,8 +14263,11 @@
       <c r="IE19" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="IF19" t="n">
+      <c r="IF19" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="IG19" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="13.9" customHeight="1" s="2">
@@ -14865,8 +14990,11 @@
       <c r="IE20" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IF20" t="n">
+      <c r="IF20" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="IG20" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="13.9" customHeight="1" s="2">
@@ -15589,8 +15717,11 @@
       <c r="IE21" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IF21" t="n">
+      <c r="IF21" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IG21" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="22" ht="13.9" customHeight="1" s="2">
@@ -16313,7 +16444,10 @@
       <c r="IE22" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IF22" t="n">
+      <c r="IF22" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IG22" t="n">
         <v>9</v>
       </c>
     </row>
@@ -17037,7 +17171,10 @@
       <c r="IE23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IF23" t="n">
+      <c r="IF23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -17761,8 +17898,11 @@
       <c r="IE24" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IF24" t="n">
+      <c r="IF24" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="IG24" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="13.9" customHeight="1" s="2">
@@ -18485,8 +18625,11 @@
       <c r="IE25" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="IF25" t="n">
+      <c r="IF25" s="1" t="n">
         <v>64.3</v>
+      </c>
+      <c r="IG25" t="n">
+        <v>68.8</v>
       </c>
     </row>
     <row r="26" ht="13.9" customHeight="1" s="2">
@@ -19209,8 +19352,11 @@
       <c r="IE26" s="1" t="n">
         <v>31.58</v>
       </c>
-      <c r="IF26" t="n">
+      <c r="IF26" s="1" t="n">
         <v>20.67</v>
+      </c>
+      <c r="IG26" t="n">
+        <v>17.05</v>
       </c>
     </row>
     <row r="27" ht="13.9" customHeight="1" s="2">
@@ -19933,8 +20079,11 @@
       <c r="IE27" s="1" t="n">
         <v>18.95</v>
       </c>
-      <c r="IF27" t="n">
+      <c r="IF27" s="1" t="n">
         <v>13.29</v>
+      </c>
+      <c r="IG27" t="n">
+        <v>11.72</v>
       </c>
     </row>
     <row r="28" ht="13.9" customHeight="1" s="2">
@@ -20657,8 +20806,11 @@
       <c r="IE28" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="IF28" t="n">
+      <c r="IF28" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="IG28" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="13.9" customHeight="1" s="2">
@@ -21381,8 +21533,11 @@
       <c r="IE29" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="IF29" t="n">
+      <c r="IF29" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="IG29" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="30" ht="13.9" customHeight="1" s="2">
@@ -22105,8 +22260,11 @@
       <c r="IE30" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="IF30" t="n">
+      <c r="IF30" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="IG30" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="13.9" customHeight="1" s="2">
@@ -22829,8 +22987,11 @@
       <c r="IE31" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IF31" t="n">
+      <c r="IF31" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="IG31" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="32" ht="13.9" customHeight="1" s="2">
@@ -23553,8 +23714,11 @@
       <c r="IE32" s="1" t="n">
         <v>2.05</v>
       </c>
-      <c r="IF32" t="n">
+      <c r="IF32" s="1" t="n">
         <v>1.86</v>
+      </c>
+      <c r="IG32" t="n">
+        <v>2.19</v>
       </c>
     </row>
     <row r="33" ht="13.9" customHeight="1" s="2">
@@ -24277,8 +24441,11 @@
       <c r="IE33" s="1" t="n">
         <v>3.42</v>
       </c>
-      <c r="IF33" t="n">
+      <c r="IF33" s="1" t="n">
         <v>2.89</v>
+      </c>
+      <c r="IG33" t="n">
+        <v>3.18</v>
       </c>
     </row>
     <row r="34" ht="13.9" customHeight="1" s="2">
@@ -25001,8 +25168,11 @@
       <c r="IE34" s="1" t="n">
         <v>43.9</v>
       </c>
-      <c r="IF34" t="n">
+      <c r="IF34" s="1" t="n">
         <v>51.9</v>
+      </c>
+      <c r="IG34" t="n">
+        <v>44.3</v>
       </c>
     </row>
     <row r="35" ht="13.9" customHeight="1" s="2">
@@ -25725,8 +25895,11 @@
       <c r="IE35" s="1" t="n">
         <v>29.3</v>
       </c>
-      <c r="IF35" t="n">
+      <c r="IF35" s="1" t="n">
         <v>34.6</v>
+      </c>
+      <c r="IG35" t="n">
+        <v>31.4</v>
       </c>
     </row>
     <row r="36" ht="13.9" customHeight="1" s="2">
@@ -26449,7 +26622,10 @@
       <c r="IE36" s="1" t="n">
         <v>188.5</v>
       </c>
-      <c r="IF36" t="n">
+      <c r="IF36" s="1" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="IG36" t="n">
         <v>188.3</v>
       </c>
     </row>
@@ -27173,8 +27349,11 @@
       <c r="IE37" s="1" t="n">
         <v>88.8</v>
       </c>
-      <c r="IF37" t="n">
+      <c r="IF37" s="1" t="n">
         <v>86.90000000000001</v>
+      </c>
+      <c r="IG37" t="n">
+        <v>87.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.9" customHeight="1" s="2">
@@ -27897,8 +28076,11 @@
       <c r="IE38" s="1" t="n">
         <v>26.41</v>
       </c>
-      <c r="IF38" t="n">
+      <c r="IF38" s="1" t="n">
         <v>25.91</v>
+      </c>
+      <c r="IG38" t="n">
+        <v>26.8</v>
       </c>
     </row>
     <row r="39" ht="13.9" customHeight="1" s="2">
@@ -28621,8 +28803,11 @@
       <c r="IE39" s="1" t="n">
         <v>117.8</v>
       </c>
-      <c r="IF39" t="n">
+      <c r="IF39" s="1" t="n">
         <v>108.5</v>
+      </c>
+      <c r="IG39" t="n">
+        <v>115.4</v>
       </c>
     </row>
     <row r="40" ht="13.9" customHeight="1" s="2">
@@ -29345,8 +29530,11 @@
       <c r="IE40" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IF40" t="n">
+      <c r="IF40" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IG40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41" ht="13.9" customHeight="1" s="2">
@@ -30069,8 +30257,11 @@
       <c r="IE41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IF41" t="n">
+      <c r="IF41" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IG41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.9" customHeight="1" s="2">
@@ -30793,8 +30984,11 @@
       <c r="IE42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IF42" t="n">
+      <c r="IF42" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IG42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43" ht="13.9" customHeight="1" s="2">
@@ -31517,7 +31711,10 @@
       <c r="IE43" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IF43" t="n">
+      <c r="IF43" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IG43" t="n">
         <v>6</v>
       </c>
     </row>
@@ -32241,8 +32438,11 @@
       <c r="IE44" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="IF44" t="n">
+      <c r="IF44" s="1" t="n">
         <v>133</v>
+      </c>
+      <c r="IG44" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="45" ht="13.9" customHeight="1" s="2">
@@ -32965,8 +33165,11 @@
       <c r="IE45" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="IF45" t="n">
+      <c r="IF45" s="1" t="n">
         <v>227</v>
+      </c>
+      <c r="IG45" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="46" ht="13.9" customHeight="1" s="2">
@@ -33689,8 +33892,11 @@
       <c r="IE46" s="1" t="n">
         <v>259</v>
       </c>
-      <c r="IF46" t="n">
+      <c r="IF46" s="1" t="n">
         <v>274</v>
+      </c>
+      <c r="IG46" t="n">
+        <v>278</v>
       </c>
     </row>
     <row r="47" ht="13.9" customHeight="1" s="2">
@@ -34413,8 +34619,11 @@
       <c r="IE47" s="1" t="n">
         <v>68.3</v>
       </c>
-      <c r="IF47" t="n">
+      <c r="IF47" s="1" t="n">
         <v>73.7</v>
+      </c>
+      <c r="IG47" t="n">
+        <v>74.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.9" customHeight="1" s="2">
@@ -35137,8 +35346,11 @@
       <c r="IE48" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="IF48" t="n">
+      <c r="IF48" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="IG48" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="49" ht="13.9" customHeight="1" s="2">
@@ -35861,8 +36073,11 @@
       <c r="IE49" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="IF49" t="n">
+      <c r="IF49" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IG49" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="50" ht="13.9" customHeight="1" s="2">
@@ -36585,8 +36800,11 @@
       <c r="IE50" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IF50" t="n">
+      <c r="IF50" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IG50" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="51" ht="13.9" customHeight="1" s="2">
@@ -37309,8 +37527,11 @@
       <c r="IE51" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="IF51" t="n">
+      <c r="IF51" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="IG51" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="52" ht="13.9" customHeight="1" s="2">
@@ -38033,8 +38254,11 @@
       <c r="IE52" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="IF52" t="n">
+      <c r="IF52" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="IG52" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="13.9" customHeight="1" s="2">
@@ -38757,8 +38981,11 @@
       <c r="IE53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="IF53" t="n">
+      <c r="IF53" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="IG53" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="54" ht="13.9" customHeight="1" s="2">
@@ -39481,8 +39708,11 @@
       <c r="IE54" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IF54" t="n">
+      <c r="IF54" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IG54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.9" customHeight="1" s="2">
@@ -40205,8 +40435,11 @@
       <c r="IE55" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IF55" t="n">
+      <c r="IF55" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="IG55" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="56" ht="13.9" customHeight="1" s="2">
@@ -40929,8 +41162,11 @@
       <c r="IE56" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="IF56" t="n">
+      <c r="IF56" s="1" t="n">
         <v>66.7</v>
+      </c>
+      <c r="IG56" t="n">
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.9" customHeight="1" s="2">
@@ -41653,8 +41889,11 @@
       <c r="IE57" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="IF57" t="n">
+      <c r="IF57" s="1" t="n">
         <v>191</v>
+      </c>
+      <c r="IG57" t="n">
+        <v>209</v>
       </c>
     </row>
     <row r="58" ht="13.9" customHeight="1" s="2">
@@ -42377,8 +42616,11 @@
       <c r="IE58" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="IF58" t="n">
+      <c r="IF58" s="1" t="n">
         <v>147</v>
+      </c>
+      <c r="IG58" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="59" ht="13.9" customHeight="1" s="2">
@@ -43101,8 +43343,11 @@
       <c r="IE59" s="1" t="n">
         <v>379</v>
       </c>
-      <c r="IF59" t="n">
+      <c r="IF59" s="1" t="n">
         <v>338</v>
+      </c>
+      <c r="IG59" t="n">
+        <v>373</v>
       </c>
     </row>
     <row r="60" ht="13.9" customHeight="1" s="2">
@@ -43825,8 +44070,11 @@
       <c r="IE60" s="1" t="n">
         <v>1.33</v>
       </c>
-      <c r="IF60" t="n">
+      <c r="IF60" s="1" t="n">
         <v>1.3</v>
+      </c>
+      <c r="IG60" t="n">
+        <v>1.27</v>
       </c>
     </row>
     <row r="61" ht="13.9" customHeight="1" s="2">
@@ -44549,8 +44797,11 @@
       <c r="IE61" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="IF61" t="n">
+      <c r="IF61" s="1" t="n">
         <v>95</v>
+      </c>
+      <c r="IG61" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="62" ht="13.9" customHeight="1" s="2">
@@ -45273,8 +45524,11 @@
       <c r="IE62" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="IF62" t="n">
+      <c r="IF62" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="IG62" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="63" ht="13.9" customHeight="1" s="2">
@@ -45997,8 +46251,11 @@
       <c r="IE63" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="IF63" t="n">
+      <c r="IF63" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IG63" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="64" ht="13.9" customHeight="1" s="2">
@@ -46721,8 +46978,11 @@
       <c r="IE64" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="IF64" t="n">
+      <c r="IF64" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="IG64" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="65" ht="13.9" customHeight="1" s="2">
@@ -47445,8 +47705,11 @@
       <c r="IE65" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IF65" t="n">
+      <c r="IF65" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="IG65" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="66" ht="13.9" customHeight="1" s="2">
@@ -48169,7 +48432,10 @@
       <c r="IE66" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IF66" t="n">
+      <c r="IF66" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="IG66" t="n">
         <v>8</v>
       </c>
     </row>
@@ -48893,8 +49159,11 @@
       <c r="IE67" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IF67" t="n">
+      <c r="IF67" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IG67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="13.9" customHeight="1" s="2">
@@ -49617,8 +49886,11 @@
       <c r="IE68" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IF68" t="n">
+      <c r="IF68" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IG68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.9" customHeight="1" s="2">
@@ -50341,8 +50613,11 @@
       <c r="IE69" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IF69" t="n">
+      <c r="IF69" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="IG69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.9" customHeight="1" s="2">
@@ -51065,8 +51340,11 @@
       <c r="IE70" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IF70" t="n">
+      <c r="IF70" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IG70" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="13.9" customHeight="1" s="2">
@@ -51789,8 +52067,11 @@
       <c r="IE71" s="1" t="n">
         <v>63.6</v>
       </c>
-      <c r="IF71" t="n">
+      <c r="IF71" s="1" t="n">
         <v>57.1</v>
+      </c>
+      <c r="IG71" t="n">
+        <v>47.1</v>
       </c>
     </row>
     <row r="72" ht="13.9" customHeight="1" s="2">
@@ -52513,8 +52794,11 @@
       <c r="IE72" s="1" t="n">
         <v>27.07</v>
       </c>
-      <c r="IF72" t="n">
+      <c r="IF72" s="1" t="n">
         <v>42.25</v>
+      </c>
+      <c r="IG72" t="n">
+        <v>46.62</v>
       </c>
     </row>
     <row r="73" ht="13.9" customHeight="1" s="2">
@@ -53237,8 +53521,11 @@
       <c r="IE73" s="1" t="n">
         <v>17.23</v>
       </c>
-      <c r="IF73" t="n">
+      <c r="IF73" s="1" t="n">
         <v>24.14</v>
+      </c>
+      <c r="IG73" t="n">
+        <v>21.94</v>
       </c>
     </row>
     <row r="74" ht="13.9" customHeight="1" s="2">
@@ -53961,8 +54248,11 @@
       <c r="IE74" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="IF74" t="n">
+      <c r="IF74" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IG74" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="75" ht="13.9" customHeight="1" s="2">
@@ -54685,8 +54975,11 @@
       <c r="IE75" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="IF75" t="n">
+      <c r="IF75" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="IG75" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="76" ht="13.9" customHeight="1" s="2">
@@ -55409,8 +55702,11 @@
       <c r="IE76" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="IF76" t="n">
+      <c r="IF76" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="IG76" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="77" ht="13.9" customHeight="1" s="2">
@@ -56133,8 +56429,11 @@
       <c r="IE77" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="IF77" t="n">
+      <c r="IF77" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="IG77" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="78" ht="13.9" customHeight="1" s="2">
@@ -56857,8 +57156,11 @@
       <c r="IE78" s="1" t="n">
         <v>2.73</v>
       </c>
-      <c r="IF78" t="n">
+      <c r="IF78" s="1" t="n">
         <v>3.79</v>
+      </c>
+      <c r="IG78" t="n">
+        <v>2.47</v>
       </c>
     </row>
     <row r="79" ht="13.9" customHeight="1" s="2">
@@ -57581,8 +57883,11 @@
       <c r="IE79" s="1" t="n">
         <v>4.29</v>
       </c>
-      <c r="IF79" t="n">
+      <c r="IF79" s="1" t="n">
         <v>6.62</v>
+      </c>
+      <c r="IG79" t="n">
+        <v>5.25</v>
       </c>
     </row>
     <row r="80" ht="13.9" customHeight="1" s="2">
@@ -58305,8 +58610,11 @@
       <c r="IE80" s="1" t="n">
         <v>36.7</v>
       </c>
-      <c r="IF80" t="n">
+      <c r="IF80" s="1" t="n">
         <v>20.8</v>
+      </c>
+      <c r="IG80" t="n">
+        <v>38.1</v>
       </c>
     </row>
     <row r="81" ht="13.9" customHeight="1" s="2">
@@ -59029,8 +59337,11 @@
       <c r="IE81" s="1" t="n">
         <v>23.3</v>
       </c>
-      <c r="IF81" t="n">
+      <c r="IF81" s="1" t="n">
         <v>15.1</v>
+      </c>
+      <c r="IG81" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="82" ht="13.9" customHeight="1" s="2">
@@ -59753,8 +60064,11 @@
       <c r="IE82" s="1" t="n">
         <v>188.8</v>
       </c>
-      <c r="IF82" t="n">
+      <c r="IF82" s="1" t="n">
         <v>186.8</v>
+      </c>
+      <c r="IG82" t="n">
+        <v>187.4</v>
       </c>
     </row>
     <row r="83" ht="13.9" customHeight="1" s="2">
@@ -60477,8 +60791,11 @@
       <c r="IE83" s="1" t="n">
         <v>85.59999999999999</v>
       </c>
-      <c r="IF83" t="n">
+      <c r="IF83" s="1" t="n">
         <v>87.09999999999999</v>
+      </c>
+      <c r="IG83" t="n">
+        <v>85.40000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.9" customHeight="1" s="2">
@@ -61201,8 +61518,11 @@
       <c r="IE84" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="IF84" t="n">
+      <c r="IF84" s="1" t="n">
         <v>24.8</v>
+      </c>
+      <c r="IG84" t="n">
+        <v>25.41</v>
       </c>
     </row>
     <row r="85" ht="13.9" customHeight="1" s="2">
@@ -61925,8 +62245,11 @@
       <c r="IE85" s="1" t="n">
         <v>106.5</v>
       </c>
-      <c r="IF85" t="n">
+      <c r="IF85" s="1" t="n">
         <v>69.8</v>
+      </c>
+      <c r="IG85" t="n">
+        <v>95.3</v>
       </c>
     </row>
     <row r="86" ht="13.9" customHeight="1" s="2">
@@ -62649,8 +62972,11 @@
       <c r="IE86" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IF86" t="n">
+      <c r="IF86" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IG86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="13.9" customHeight="1" s="2">
@@ -63373,8 +63699,11 @@
       <c r="IE87" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IF87" t="n">
+      <c r="IF87" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IG87" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="88" ht="13.9" customHeight="1" s="2">
@@ -64097,7 +64426,10 @@
       <c r="IE88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IF88" t="n">
+      <c r="IF88" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="IG88" t="n">
         <v>4</v>
       </c>
     </row>
@@ -64821,8 +65153,11 @@
       <c r="IE89" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IF89" t="n">
+      <c r="IF89" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IG89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.9" customHeight="1" s="2">
@@ -65545,8 +65880,11 @@
       <c r="IE90" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="IF90" t="n">
+      <c r="IF90" s="1" t="n">
         <v>127</v>
+      </c>
+      <c r="IG90" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="91" ht="13.9" customHeight="1" s="2">
@@ -66269,8 +66607,11 @@
       <c r="IE91" s="1" t="n">
         <v>229</v>
       </c>
-      <c r="IF91" t="n">
+      <c r="IF91" s="1" t="n">
         <v>208</v>
+      </c>
+      <c r="IG91" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="92" ht="13.9" customHeight="1" s="2">
@@ -66993,8 +67334,11 @@
       <c r="IE92" s="1" t="n">
         <v>277</v>
       </c>
-      <c r="IF92" t="n">
+      <c r="IF92" s="1" t="n">
         <v>254</v>
+      </c>
+      <c r="IG92" t="n">
+        <v>266</v>
       </c>
     </row>
     <row r="93" ht="13.9" customHeight="1" s="2">
@@ -67717,8 +68061,11 @@
       <c r="IE93" s="1" t="n">
         <v>73.09999999999999</v>
       </c>
-      <c r="IF93" t="n">
+      <c r="IF93" s="1" t="n">
         <v>75.09999999999999</v>
+      </c>
+      <c r="IG93" t="n">
+        <v>71.3</v>
       </c>
     </row>
     <row r="94" ht="13.9" customHeight="1" s="2">
@@ -68441,8 +68788,11 @@
       <c r="IE94" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="IF94" t="n">
+      <c r="IF94" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="IG94" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="95" ht="13.9" customHeight="1" s="2">
@@ -69165,8 +69515,11 @@
       <c r="IE95" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IF95" t="n">
+      <c r="IF95" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="IG95" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="96" ht="13.9" customHeight="1" s="2">
@@ -69889,8 +70242,11 @@
       <c r="IE96" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IF96" t="n">
+      <c r="IF96" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="IG96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="13.9" customHeight="1" s="2">
@@ -70613,8 +70969,11 @@
       <c r="IE97" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="IF97" t="n">
+      <c r="IF97" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IG97" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="98" ht="13.9" customHeight="1" s="2">
@@ -71337,8 +71696,11 @@
       <c r="IE98" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="IF98" t="n">
+      <c r="IF98" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="IG98" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="99" ht="13.9" customHeight="1" s="2">
@@ -72061,8 +72423,11 @@
       <c r="IE99" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="IF99" t="n">
+      <c r="IF99" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="IG99" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="100" ht="13.9" customHeight="1" s="2">
@@ -72785,8 +73150,11 @@
       <c r="IE100" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IF100" t="n">
+      <c r="IF100" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IG100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.9" customHeight="1" s="2">
@@ -73509,8 +73877,11 @@
       <c r="IE101" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IF101" t="n">
+      <c r="IF101" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IG101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="13.9" customHeight="1" s="2">
@@ -74233,8 +74604,11 @@
       <c r="IE102" s="1" t="n">
         <v>64.3</v>
       </c>
-      <c r="IF102" t="n">
+      <c r="IF102" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="IG102" t="n">
+        <v>62.5</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Brisbane_stats.xlsx
+++ b/django_AFL_ML/Data/Brisbane_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IG102"/>
+  <dimension ref="A1:IH102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HG1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HQ11" activeCellId="0" sqref="HQ11"/>
@@ -1180,8 +1180,11 @@
       <c r="IF1" s="1" t="n">
         <v>10530</v>
       </c>
-      <c r="IG1" t="n">
+      <c r="IG1" s="1" t="n">
         <v>10526</v>
+      </c>
+      <c r="IH1" t="n">
+        <v>10516</v>
       </c>
     </row>
     <row r="2" ht="13.9" customHeight="1" s="2">
@@ -1907,7 +1910,10 @@
       <c r="IF2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="IG2" t="n">
+      <c r="IG2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="IH2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2634,8 +2640,11 @@
       <c r="IF3" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="IG3" t="n">
+      <c r="IG3" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="13.9" customHeight="1" s="2">
@@ -3361,7 +3370,10 @@
       <c r="IF4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IG4" t="n">
+      <c r="IG4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4088,7 +4100,10 @@
       <c r="IF5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IG5" t="n">
+      <c r="IG5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4815,8 +4830,11 @@
       <c r="IF6" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="IG6" t="n">
+      <c r="IG6" s="1" t="n">
         <v>142</v>
+      </c>
+      <c r="IH6" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="7" ht="13.9" customHeight="1" s="2">
@@ -5542,8 +5560,11 @@
       <c r="IF7" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="IG7" t="n">
+      <c r="IG7" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="IH7" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="8" ht="13.9" customHeight="1" s="2">
@@ -6269,8 +6290,11 @@
       <c r="IF8" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="IG8" t="n">
+      <c r="IG8" s="1" t="n">
         <v>85</v>
+      </c>
+      <c r="IH8" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" s="2">
@@ -6996,7 +7020,10 @@
       <c r="IF9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IG9" t="n">
+      <c r="IG9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="IH9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7723,8 +7750,11 @@
       <c r="IF10" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IG10" t="n">
+      <c r="IG10" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IH10" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="13.9" customHeight="1" s="2">
@@ -8450,8 +8480,11 @@
       <c r="IF11" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="IG11" t="n">
+      <c r="IG11" s="1" t="n">
         <v>220</v>
+      </c>
+      <c r="IH11" t="n">
+        <v>204</v>
       </c>
     </row>
     <row r="12" ht="13.9" customHeight="1" s="2">
@@ -9177,8 +9210,11 @@
       <c r="IF12" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="IG12" t="n">
+      <c r="IG12" s="1" t="n">
         <v>155</v>
+      </c>
+      <c r="IH12" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="13" ht="13.9" customHeight="1" s="2">
@@ -9904,8 +9940,11 @@
       <c r="IF13" s="1" t="n">
         <v>372</v>
       </c>
-      <c r="IG13" t="n">
+      <c r="IG13" s="1" t="n">
         <v>375</v>
+      </c>
+      <c r="IH13" t="n">
+        <v>340</v>
       </c>
     </row>
     <row r="14" ht="13.9" customHeight="1" s="2">
@@ -10631,8 +10670,11 @@
       <c r="IF14" s="1" t="n">
         <v>1.48</v>
       </c>
-      <c r="IG14" t="n">
+      <c r="IG14" s="1" t="n">
         <v>1.42</v>
+      </c>
+      <c r="IH14" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="15" ht="13.9" customHeight="1" s="2">
@@ -11358,8 +11400,11 @@
       <c r="IF15" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="IG15" t="n">
+      <c r="IG15" s="1" t="n">
         <v>86</v>
+      </c>
+      <c r="IH15" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="16" ht="13.9" customHeight="1" s="2">
@@ -12085,8 +12130,11 @@
       <c r="IF16" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="IG16" t="n">
+      <c r="IG16" s="1" t="n">
         <v>65</v>
+      </c>
+      <c r="IH16" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="17" ht="13.9" customHeight="1" s="2">
@@ -12812,8 +12860,11 @@
       <c r="IF17" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="IG17" t="n">
+      <c r="IG17" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="IH17" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="13.9" customHeight="1" s="2">
@@ -13539,8 +13590,11 @@
       <c r="IF18" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IG18" t="n">
+      <c r="IG18" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IH18" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="13.9" customHeight="1" s="2">
@@ -14266,8 +14320,11 @@
       <c r="IF19" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IG19" t="n">
+      <c r="IG19" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IH19" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="13.9" customHeight="1" s="2">
@@ -14993,8 +15050,11 @@
       <c r="IF20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="IG20" t="n">
+      <c r="IG20" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="IH20" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="21" ht="13.9" customHeight="1" s="2">
@@ -15720,8 +15780,11 @@
       <c r="IF21" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IG21" t="n">
+      <c r="IG21" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="IH21" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="22" ht="13.9" customHeight="1" s="2">
@@ -16447,7 +16510,10 @@
       <c r="IF22" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IG22" t="n">
+      <c r="IG22" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="IH22" t="n">
         <v>9</v>
       </c>
     </row>
@@ -17174,8 +17240,11 @@
       <c r="IF23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IG23" t="n">
+      <c r="IG23" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IH23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.9" customHeight="1" s="2">
@@ -17901,8 +17970,11 @@
       <c r="IF24" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="IG24" t="n">
+      <c r="IG24" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="IH24" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="13.9" customHeight="1" s="2">
@@ -18628,8 +18700,11 @@
       <c r="IF25" s="1" t="n">
         <v>64.3</v>
       </c>
-      <c r="IG25" t="n">
+      <c r="IG25" s="1" t="n">
         <v>68.8</v>
+      </c>
+      <c r="IH25" t="n">
+        <v>63.3</v>
       </c>
     </row>
     <row r="26" ht="13.9" customHeight="1" s="2">
@@ -19355,8 +19430,11 @@
       <c r="IF26" s="1" t="n">
         <v>20.67</v>
       </c>
-      <c r="IG26" t="n">
+      <c r="IG26" s="1" t="n">
         <v>17.05</v>
+      </c>
+      <c r="IH26" t="n">
+        <v>17.89</v>
       </c>
     </row>
     <row r="27" ht="13.9" customHeight="1" s="2">
@@ -20082,8 +20160,11 @@
       <c r="IF27" s="1" t="n">
         <v>13.29</v>
       </c>
-      <c r="IG27" t="n">
+      <c r="IG27" s="1" t="n">
         <v>11.72</v>
+      </c>
+      <c r="IH27" t="n">
+        <v>11.33</v>
       </c>
     </row>
     <row r="28" ht="13.9" customHeight="1" s="2">
@@ -20809,8 +20890,11 @@
       <c r="IF28" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="IG28" t="n">
+      <c r="IG28" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="IH28" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="13.9" customHeight="1" s="2">
@@ -21536,8 +21620,11 @@
       <c r="IF29" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="IG29" t="n">
+      <c r="IG29" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="IH29" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="30" ht="13.9" customHeight="1" s="2">
@@ -22263,8 +22350,11 @@
       <c r="IF30" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="IG30" t="n">
+      <c r="IG30" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="IH30" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="31" ht="13.9" customHeight="1" s="2">
@@ -22990,8 +23080,11 @@
       <c r="IF31" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="IG31" t="n">
+      <c r="IG31" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="IH31" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="32" ht="13.9" customHeight="1" s="2">
@@ -23717,8 +23810,11 @@
       <c r="IF32" s="1" t="n">
         <v>1.86</v>
       </c>
-      <c r="IG32" t="n">
+      <c r="IG32" s="1" t="n">
         <v>2.19</v>
+      </c>
+      <c r="IH32" t="n">
+        <v>2.03</v>
       </c>
     </row>
     <row r="33" ht="13.9" customHeight="1" s="2">
@@ -24444,8 +24540,11 @@
       <c r="IF33" s="1" t="n">
         <v>2.89</v>
       </c>
-      <c r="IG33" t="n">
+      <c r="IG33" s="1" t="n">
         <v>3.18</v>
+      </c>
+      <c r="IH33" t="n">
+        <v>3.21</v>
       </c>
     </row>
     <row r="34" ht="13.9" customHeight="1" s="2">
@@ -25171,8 +25270,11 @@
       <c r="IF34" s="1" t="n">
         <v>51.9</v>
       </c>
-      <c r="IG34" t="n">
+      <c r="IG34" s="1" t="n">
         <v>44.3</v>
+      </c>
+      <c r="IH34" t="n">
+        <v>45.9</v>
       </c>
     </row>
     <row r="35" ht="13.9" customHeight="1" s="2">
@@ -25898,8 +26000,11 @@
       <c r="IF35" s="1" t="n">
         <v>34.6</v>
       </c>
-      <c r="IG35" t="n">
+      <c r="IG35" s="1" t="n">
         <v>31.4</v>
+      </c>
+      <c r="IH35" t="n">
+        <v>31.1</v>
       </c>
     </row>
     <row r="36" ht="13.9" customHeight="1" s="2">
@@ -26625,8 +26730,11 @@
       <c r="IF36" s="1" t="n">
         <v>188.3</v>
       </c>
-      <c r="IG36" t="n">
+      <c r="IG36" s="1" t="n">
         <v>188.3</v>
+      </c>
+      <c r="IH36" t="n">
+        <v>187.9</v>
       </c>
     </row>
     <row r="37" ht="13.9" customHeight="1" s="2">
@@ -27352,8 +27460,11 @@
       <c r="IF37" s="1" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="IG37" t="n">
+      <c r="IG37" s="1" t="n">
         <v>87.40000000000001</v>
+      </c>
+      <c r="IH37" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.9" customHeight="1" s="2">
@@ -28079,8 +28190,11 @@
       <c r="IF38" s="1" t="n">
         <v>25.91</v>
       </c>
-      <c r="IG38" t="n">
+      <c r="IG38" s="1" t="n">
         <v>26.8</v>
+      </c>
+      <c r="IH38" t="n">
+        <v>26.24</v>
       </c>
     </row>
     <row r="39" ht="13.9" customHeight="1" s="2">
@@ -28806,8 +28920,11 @@
       <c r="IF39" s="1" t="n">
         <v>108.5</v>
       </c>
-      <c r="IG39" t="n">
+      <c r="IG39" s="1" t="n">
         <v>115.4</v>
+      </c>
+      <c r="IH39" t="n">
+        <v>112.7</v>
       </c>
     </row>
     <row r="40" ht="13.9" customHeight="1" s="2">
@@ -29533,7 +29650,10 @@
       <c r="IF40" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IG40" t="n">
+      <c r="IG40" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="IH40" t="n">
         <v>5</v>
       </c>
     </row>
@@ -30260,8 +30380,11 @@
       <c r="IF41" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IG41" t="n">
+      <c r="IG41" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IH41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.9" customHeight="1" s="2">
@@ -30987,8 +31110,11 @@
       <c r="IF42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IG42" t="n">
+      <c r="IG42" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="IH42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="13.9" customHeight="1" s="2">
@@ -31714,7 +31840,10 @@
       <c r="IF43" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IG43" t="n">
+      <c r="IG43" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="IH43" t="n">
         <v>6</v>
       </c>
     </row>
@@ -32441,8 +32570,11 @@
       <c r="IF44" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="IG44" t="n">
+      <c r="IG44" s="1" t="n">
         <v>141</v>
+      </c>
+      <c r="IH44" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="45" ht="13.9" customHeight="1" s="2">
@@ -33168,8 +33300,11 @@
       <c r="IF45" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="IG45" t="n">
+      <c r="IG45" s="1" t="n">
         <v>224</v>
+      </c>
+      <c r="IH45" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="46" ht="13.9" customHeight="1" s="2">
@@ -33895,8 +34030,11 @@
       <c r="IF46" s="1" t="n">
         <v>274</v>
       </c>
-      <c r="IG46" t="n">
+      <c r="IG46" s="1" t="n">
         <v>278</v>
+      </c>
+      <c r="IH46" t="n">
+        <v>260</v>
       </c>
     </row>
     <row r="47" ht="13.9" customHeight="1" s="2">
@@ -34622,8 +34760,11 @@
       <c r="IF47" s="1" t="n">
         <v>73.7</v>
       </c>
-      <c r="IG47" t="n">
+      <c r="IG47" s="1" t="n">
         <v>74.09999999999999</v>
+      </c>
+      <c r="IH47" t="n">
+        <v>76.5</v>
       </c>
     </row>
     <row r="48" ht="13.9" customHeight="1" s="2">
@@ -35349,8 +35490,11 @@
       <c r="IF48" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="IG48" t="n">
+      <c r="IG48" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="IH48" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="49" ht="13.9" customHeight="1" s="2">
@@ -36076,8 +36220,11 @@
       <c r="IF49" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IG49" t="n">
+      <c r="IG49" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IH49" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="50" ht="13.9" customHeight="1" s="2">
@@ -36803,8 +36950,11 @@
       <c r="IF50" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IG50" t="n">
+      <c r="IG50" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="IH50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.9" customHeight="1" s="2">
@@ -37530,8 +37680,11 @@
       <c r="IF51" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="IG51" t="n">
+      <c r="IG51" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="IH51" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="13.9" customHeight="1" s="2">
@@ -38257,8 +38410,11 @@
       <c r="IF52" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="IG52" t="n">
+      <c r="IG52" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="IH52" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="53" ht="13.9" customHeight="1" s="2">
@@ -38984,8 +39140,11 @@
       <c r="IF53" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="IG53" t="n">
+      <c r="IG53" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="IH53" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="54" ht="13.9" customHeight="1" s="2">
@@ -39711,8 +39870,11 @@
       <c r="IF54" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IG54" t="n">
+      <c r="IG54" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IH54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.9" customHeight="1" s="2">
@@ -40438,8 +40600,11 @@
       <c r="IF55" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="IG55" t="n">
+      <c r="IG55" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="IH55" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="56" ht="13.9" customHeight="1" s="2">
@@ -41165,8 +41330,11 @@
       <c r="IF56" s="1" t="n">
         <v>66.7</v>
       </c>
-      <c r="IG56" t="n">
+      <c r="IG56" s="1" t="n">
         <v>86.40000000000001</v>
+      </c>
+      <c r="IH56" t="n">
+        <v>78.90000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.9" customHeight="1" s="2">
@@ -41892,8 +42060,11 @@
       <c r="IF57" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="IG57" t="n">
+      <c r="IG57" s="1" t="n">
         <v>209</v>
+      </c>
+      <c r="IH57" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="58" ht="13.9" customHeight="1" s="2">
@@ -42619,8 +42790,11 @@
       <c r="IF58" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="IG58" t="n">
+      <c r="IG58" s="1" t="n">
         <v>164</v>
+      </c>
+      <c r="IH58" t="n">
+        <v>115</v>
       </c>
     </row>
     <row r="59" ht="13.9" customHeight="1" s="2">
@@ -43346,8 +43520,11 @@
       <c r="IF59" s="1" t="n">
         <v>338</v>
       </c>
-      <c r="IG59" t="n">
+      <c r="IG59" s="1" t="n">
         <v>373</v>
+      </c>
+      <c r="IH59" t="n">
+        <v>323</v>
       </c>
     </row>
     <row r="60" ht="13.9" customHeight="1" s="2">
@@ -44073,8 +44250,11 @@
       <c r="IF60" s="1" t="n">
         <v>1.3</v>
       </c>
-      <c r="IG60" t="n">
+      <c r="IG60" s="1" t="n">
         <v>1.27</v>
+      </c>
+      <c r="IH60" t="n">
+        <v>1.81</v>
       </c>
     </row>
     <row r="61" ht="13.9" customHeight="1" s="2">
@@ -44800,8 +44980,11 @@
       <c r="IF61" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="IG61" t="n">
+      <c r="IG61" s="1" t="n">
         <v>86</v>
+      </c>
+      <c r="IH61" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="62" ht="13.9" customHeight="1" s="2">
@@ -45527,8 +45710,11 @@
       <c r="IF62" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="IG62" t="n">
+      <c r="IG62" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="IH62" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="63" ht="13.9" customHeight="1" s="2">
@@ -46254,8 +46440,11 @@
       <c r="IF63" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IG63" t="n">
+      <c r="IG63" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="IH63" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="64" ht="13.9" customHeight="1" s="2">
@@ -46981,8 +47170,11 @@
       <c r="IF64" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IG64" t="n">
+      <c r="IG64" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="IH64" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="13.9" customHeight="1" s="2">
@@ -47708,8 +47900,11 @@
       <c r="IF65" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="IG65" t="n">
+      <c r="IG65" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="IH65" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="66" ht="13.9" customHeight="1" s="2">
@@ -48435,8 +48630,11 @@
       <c r="IF66" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IG66" t="n">
+      <c r="IG66" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IH66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.9" customHeight="1" s="2">
@@ -49162,8 +49360,11 @@
       <c r="IF67" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IG67" t="n">
+      <c r="IG67" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IH67" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="13.9" customHeight="1" s="2">
@@ -49889,8 +50090,11 @@
       <c r="IF68" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IG68" t="n">
+      <c r="IG68" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IH68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="13.9" customHeight="1" s="2">
@@ -50616,8 +50820,11 @@
       <c r="IF69" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="IG69" t="n">
+      <c r="IG69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IH69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.9" customHeight="1" s="2">
@@ -51343,8 +51550,11 @@
       <c r="IF70" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IG70" t="n">
+      <c r="IG70" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="IH70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.9" customHeight="1" s="2">
@@ -52070,8 +52280,11 @@
       <c r="IF71" s="1" t="n">
         <v>57.1</v>
       </c>
-      <c r="IG71" t="n">
+      <c r="IG71" s="1" t="n">
         <v>47.1</v>
+      </c>
+      <c r="IH71" t="n">
+        <v>59.1</v>
       </c>
     </row>
     <row r="72" ht="13.9" customHeight="1" s="2">
@@ -52797,8 +53010,11 @@
       <c r="IF72" s="1" t="n">
         <v>42.25</v>
       </c>
-      <c r="IG72" t="n">
+      <c r="IG72" s="1" t="n">
         <v>46.62</v>
+      </c>
+      <c r="IH72" t="n">
+        <v>24.85</v>
       </c>
     </row>
     <row r="73" ht="13.9" customHeight="1" s="2">
@@ -53524,8 +53740,11 @@
       <c r="IF73" s="1" t="n">
         <v>24.14</v>
       </c>
-      <c r="IG73" t="n">
+      <c r="IG73" s="1" t="n">
         <v>21.94</v>
+      </c>
+      <c r="IH73" t="n">
+        <v>14.68</v>
       </c>
     </row>
     <row r="74" ht="13.9" customHeight="1" s="2">
@@ -54251,8 +54470,11 @@
       <c r="IF74" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IG74" t="n">
+      <c r="IG74" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="IH74" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="75" ht="13.9" customHeight="1" s="2">
@@ -54978,8 +55200,11 @@
       <c r="IF75" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="IG75" t="n">
+      <c r="IG75" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="IH75" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="76" ht="13.9" customHeight="1" s="2">
@@ -55705,8 +55930,11 @@
       <c r="IF76" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="IG76" t="n">
+      <c r="IG76" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="IH76" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="77" ht="13.9" customHeight="1" s="2">
@@ -56432,8 +56660,11 @@
       <c r="IF77" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="IG77" t="n">
+      <c r="IG77" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="IH77" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="78" ht="13.9" customHeight="1" s="2">
@@ -57159,8 +57390,11 @@
       <c r="IF78" s="1" t="n">
         <v>3.79</v>
       </c>
-      <c r="IG78" t="n">
+      <c r="IG78" s="1" t="n">
         <v>2.47</v>
+      </c>
+      <c r="IH78" t="n">
+        <v>2.59</v>
       </c>
     </row>
     <row r="79" ht="13.9" customHeight="1" s="2">
@@ -57886,8 +58120,11 @@
       <c r="IF79" s="1" t="n">
         <v>6.62</v>
       </c>
-      <c r="IG79" t="n">
+      <c r="IG79" s="1" t="n">
         <v>5.25</v>
+      </c>
+      <c r="IH79" t="n">
+        <v>4.38</v>
       </c>
     </row>
     <row r="80" ht="13.9" customHeight="1" s="2">
@@ -58613,8 +58850,11 @@
       <c r="IF80" s="1" t="n">
         <v>20.8</v>
       </c>
-      <c r="IG80" t="n">
+      <c r="IG80" s="1" t="n">
         <v>38.1</v>
+      </c>
+      <c r="IH80" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="81" ht="13.9" customHeight="1" s="2">
@@ -59340,8 +59580,11 @@
       <c r="IF81" s="1" t="n">
         <v>15.1</v>
       </c>
-      <c r="IG81" t="n">
+      <c r="IG81" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="IH81" t="n">
+        <v>22.8</v>
       </c>
     </row>
     <row r="82" ht="13.9" customHeight="1" s="2">
@@ -60067,8 +60310,11 @@
       <c r="IF82" s="1" t="n">
         <v>186.8</v>
       </c>
-      <c r="IG82" t="n">
+      <c r="IG82" s="1" t="n">
         <v>187.4</v>
+      </c>
+      <c r="IH82" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="83" ht="13.9" customHeight="1" s="2">
@@ -60794,8 +61040,11 @@
       <c r="IF83" s="1" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="IG83" t="n">
+      <c r="IG83" s="1" t="n">
         <v>85.40000000000001</v>
+      </c>
+      <c r="IH83" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="84" ht="13.9" customHeight="1" s="2">
@@ -61521,8 +61770,11 @@
       <c r="IF84" s="1" t="n">
         <v>24.8</v>
       </c>
-      <c r="IG84" t="n">
+      <c r="IG84" s="1" t="n">
         <v>25.41</v>
+      </c>
+      <c r="IH84" t="n">
+        <v>25.66</v>
       </c>
     </row>
     <row r="85" ht="13.9" customHeight="1" s="2">
@@ -62248,8 +62500,11 @@
       <c r="IF85" s="1" t="n">
         <v>69.8</v>
       </c>
-      <c r="IG85" t="n">
+      <c r="IG85" s="1" t="n">
         <v>95.3</v>
+      </c>
+      <c r="IH85" t="n">
+        <v>98.7</v>
       </c>
     </row>
     <row r="86" ht="13.9" customHeight="1" s="2">
@@ -62975,8 +63230,11 @@
       <c r="IF86" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IG86" t="n">
+      <c r="IG86" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IH86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.9" customHeight="1" s="2">
@@ -63702,8 +63960,11 @@
       <c r="IF87" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IG87" t="n">
+      <c r="IG87" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="IH87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="13.9" customHeight="1" s="2">
@@ -64429,8 +64690,11 @@
       <c r="IF88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IG88" t="n">
+      <c r="IG88" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="IH88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.9" customHeight="1" s="2">
@@ -65156,8 +65420,11 @@
       <c r="IF89" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IG89" t="n">
+      <c r="IG89" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="IH89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.9" customHeight="1" s="2">
@@ -65883,8 +66150,11 @@
       <c r="IF90" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="IG90" t="n">
+      <c r="IG90" s="1" t="n">
         <v>138</v>
+      </c>
+      <c r="IH90" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="91" ht="13.9" customHeight="1" s="2">
@@ -66610,8 +66880,11 @@
       <c r="IF91" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="IG91" t="n">
+      <c r="IG91" s="1" t="n">
         <v>230</v>
+      </c>
+      <c r="IH91" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="92" ht="13.9" customHeight="1" s="2">
@@ -67337,8 +67610,11 @@
       <c r="IF92" s="1" t="n">
         <v>254</v>
       </c>
-      <c r="IG92" t="n">
+      <c r="IG92" s="1" t="n">
         <v>266</v>
+      </c>
+      <c r="IH92" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="93" ht="13.9" customHeight="1" s="2">
@@ -68064,8 +68340,11 @@
       <c r="IF93" s="1" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="IG93" t="n">
+      <c r="IG93" s="1" t="n">
         <v>71.3</v>
+      </c>
+      <c r="IH93" t="n">
+        <v>68.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.9" customHeight="1" s="2">
@@ -68791,8 +69070,11 @@
       <c r="IF94" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="IG94" t="n">
+      <c r="IG94" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="IH94" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="95" ht="13.9" customHeight="1" s="2">
@@ -69518,8 +69800,11 @@
       <c r="IF95" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="IG95" t="n">
+      <c r="IG95" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="IH95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.9" customHeight="1" s="2">
@@ -70245,8 +70530,11 @@
       <c r="IF96" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="IG96" t="n">
+      <c r="IG96" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="IH96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="13.9" customHeight="1" s="2">
@@ -70972,8 +71260,11 @@
       <c r="IF97" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IG97" t="n">
+      <c r="IG97" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="IH97" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="98" ht="13.9" customHeight="1" s="2">
@@ -71699,8 +71990,11 @@
       <c r="IF98" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="IG98" t="n">
+      <c r="IG98" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="IH98" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="99" ht="13.9" customHeight="1" s="2">
@@ -72426,8 +72720,11 @@
       <c r="IF99" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="IG99" t="n">
+      <c r="IG99" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="IH99" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="100" ht="13.9" customHeight="1" s="2">
@@ -73153,8 +73450,11 @@
       <c r="IF100" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IG100" t="n">
+      <c r="IG100" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="IH100" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="101" ht="13.9" customHeight="1" s="2">
@@ -73880,8 +74180,11 @@
       <c r="IF101" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IG101" t="n">
+      <c r="IG101" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="IH101" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="13.9" customHeight="1" s="2">
@@ -74607,8 +74910,11 @@
       <c r="IF102" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="IG102" t="n">
+      <c r="IG102" s="1" t="n">
         <v>62.5</v>
+      </c>
+      <c r="IH102" t="n">
+        <v>84.59999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Brisbane_stats.xlsx
+++ b/django_AFL_ML/Data/Brisbane_stats.xlsx
@@ -85,74 +85,6 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -445,7 +377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IH102"/>
+  <dimension ref="A1:II102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HG1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HQ11" activeCellId="0" sqref="HQ11"/>
@@ -1183,8 +1115,11 @@
       <c r="IG1" s="1" t="n">
         <v>10526</v>
       </c>
-      <c r="IH1" t="n">
+      <c r="IH1" s="1" t="n">
         <v>10516</v>
+      </c>
+      <c r="II1" t="n">
+        <v>10537</v>
       </c>
     </row>
     <row r="2" ht="13.9" customHeight="1" s="2">
@@ -1913,7 +1848,10 @@
       <c r="IG2" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="IH2" t="n">
+      <c r="IH2" s="1" t="n">
+        <v>2021</v>
+      </c>
+      <c r="II2" t="n">
         <v>2021</v>
       </c>
     </row>
@@ -2643,8 +2581,11 @@
       <c r="IG3" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IH3" t="n">
+      <c r="IH3" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="II3" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="4" ht="13.9" customHeight="1" s="2">
@@ -3373,8 +3314,11 @@
       <c r="IG4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IH4" t="n">
+      <c r="IH4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="II4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.9" customHeight="1" s="2">
@@ -4103,7 +4047,10 @@
       <c r="IG5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="IH5" t="n">
+      <c r="IH5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4833,8 +4780,11 @@
       <c r="IG6" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="IH6" t="n">
+      <c r="IH6" s="1" t="n">
         <v>125</v>
+      </c>
+      <c r="II6" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="7" ht="13.9" customHeight="1" s="2">
@@ -5563,8 +5513,11 @@
       <c r="IG7" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="IH7" t="n">
+      <c r="IH7" s="1" t="n">
         <v>87</v>
+      </c>
+      <c r="II7" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="8" ht="13.9" customHeight="1" s="2">
@@ -6293,8 +6246,11 @@
       <c r="IG8" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="IH8" t="n">
+      <c r="IH8" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="II8" t="n">
+        <v>-33</v>
       </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" s="2">
@@ -7023,8 +6979,11 @@
       <c r="IG9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IH9" t="n">
+      <c r="IH9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="II9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.9" customHeight="1" s="2">
@@ -7753,8 +7712,11 @@
       <c r="IG10" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IH10" t="n">
+      <c r="IH10" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="II10" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="13.9" customHeight="1" s="2">
@@ -8483,8 +8445,11 @@
       <c r="IG11" s="1" t="n">
         <v>220</v>
       </c>
-      <c r="IH11" t="n">
+      <c r="IH11" s="1" t="n">
         <v>204</v>
+      </c>
+      <c r="II11" t="n">
+        <v>212</v>
       </c>
     </row>
     <row r="12" ht="13.9" customHeight="1" s="2">
@@ -9213,8 +9178,11 @@
       <c r="IG12" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="IH12" t="n">
+      <c r="IH12" s="1" t="n">
         <v>136</v>
+      </c>
+      <c r="II12" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="13" ht="13.9" customHeight="1" s="2">
@@ -9943,8 +9911,11 @@
       <c r="IG13" s="1" t="n">
         <v>375</v>
       </c>
-      <c r="IH13" t="n">
+      <c r="IH13" s="1" t="n">
         <v>340</v>
+      </c>
+      <c r="II13" t="n">
+        <v>341</v>
       </c>
     </row>
     <row r="14" ht="13.9" customHeight="1" s="2">
@@ -10673,8 +10644,11 @@
       <c r="IG14" s="1" t="n">
         <v>1.42</v>
       </c>
-      <c r="IH14" t="n">
+      <c r="IH14" s="1" t="n">
         <v>1.5</v>
+      </c>
+      <c r="II14" t="n">
+        <v>1.64</v>
       </c>
     </row>
     <row r="15" ht="13.9" customHeight="1" s="2">
@@ -11403,8 +11377,11 @@
       <c r="IG15" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="IH15" t="n">
+      <c r="IH15" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="II15" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="16" ht="13.9" customHeight="1" s="2">
@@ -12133,8 +12110,11 @@
       <c r="IG16" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="IH16" t="n">
+      <c r="IH16" s="1" t="n">
         <v>82</v>
+      </c>
+      <c r="II16" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="13.9" customHeight="1" s="2">
@@ -12863,8 +12843,11 @@
       <c r="IG17" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="IH17" t="n">
+      <c r="IH17" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="II17" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="13.9" customHeight="1" s="2">
@@ -13593,8 +13576,11 @@
       <c r="IG18" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IH18" t="n">
+      <c r="IH18" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="II18" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="19" ht="13.9" customHeight="1" s="2">
@@ -14323,7 +14309,10 @@
       <c r="IG19" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IH19" t="n">
+      <c r="IH19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="II19" t="n">
         <v>18</v>
       </c>
     </row>
@@ -15053,8 +15042,11 @@
       <c r="IG20" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="IH20" t="n">
+      <c r="IH20" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="II20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.9" customHeight="1" s="2">
@@ -15783,8 +15775,11 @@
       <c r="IG21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="IH21" t="n">
+      <c r="IH21" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="II21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22" ht="13.9" customHeight="1" s="2">
@@ -16513,8 +16508,11 @@
       <c r="IG22" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="IH22" t="n">
+      <c r="IH22" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="II22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="13.9" customHeight="1" s="2">
@@ -17243,8 +17241,11 @@
       <c r="IG23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IH23" t="n">
+      <c r="IH23" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="II23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.9" customHeight="1" s="2">
@@ -17973,8 +17974,11 @@
       <c r="IG24" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="IH24" t="n">
+      <c r="IH24" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="II24" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="25" ht="13.9" customHeight="1" s="2">
@@ -18703,8 +18707,11 @@
       <c r="IG25" s="1" t="n">
         <v>68.8</v>
       </c>
-      <c r="IH25" t="n">
+      <c r="IH25" s="1" t="n">
         <v>63.3</v>
+      </c>
+      <c r="II25" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="26" ht="13.9" customHeight="1" s="2">
@@ -19433,8 +19440,11 @@
       <c r="IG26" s="1" t="n">
         <v>17.05</v>
       </c>
-      <c r="IH26" t="n">
+      <c r="IH26" s="1" t="n">
         <v>17.89</v>
+      </c>
+      <c r="II26" t="n">
+        <v>37.89</v>
       </c>
     </row>
     <row r="27" ht="13.9" customHeight="1" s="2">
@@ -20163,8 +20173,11 @@
       <c r="IG27" s="1" t="n">
         <v>11.72</v>
       </c>
-      <c r="IH27" t="n">
+      <c r="IH27" s="1" t="n">
         <v>11.33</v>
+      </c>
+      <c r="II27" t="n">
+        <v>22.73</v>
       </c>
     </row>
     <row r="28" ht="13.9" customHeight="1" s="2">
@@ -20893,8 +20906,11 @@
       <c r="IG28" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="IH28" t="n">
+      <c r="IH28" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="II28" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="29" ht="13.9" customHeight="1" s="2">
@@ -21623,8 +21639,11 @@
       <c r="IG29" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="IH29" t="n">
+      <c r="IH29" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="II29" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="30" ht="13.9" customHeight="1" s="2">
@@ -22353,8 +22372,11 @@
       <c r="IG30" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="IH30" t="n">
+      <c r="IH30" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="II30" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="31" ht="13.9" customHeight="1" s="2">
@@ -23083,8 +23105,11 @@
       <c r="IG31" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="IH31" t="n">
+      <c r="IH31" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="II31" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="32" ht="13.9" customHeight="1" s="2">
@@ -23813,8 +23838,11 @@
       <c r="IG32" s="1" t="n">
         <v>2.19</v>
       </c>
-      <c r="IH32" t="n">
+      <c r="IH32" s="1" t="n">
         <v>2.03</v>
+      </c>
+      <c r="II32" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="33" ht="13.9" customHeight="1" s="2">
@@ -24543,8 +24571,11 @@
       <c r="IG33" s="1" t="n">
         <v>3.18</v>
       </c>
-      <c r="IH33" t="n">
+      <c r="IH33" s="1" t="n">
         <v>3.21</v>
+      </c>
+      <c r="II33" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="34" ht="13.9" customHeight="1" s="2">
@@ -25273,8 +25304,11 @@
       <c r="IG34" s="1" t="n">
         <v>44.3</v>
       </c>
-      <c r="IH34" t="n">
+      <c r="IH34" s="1" t="n">
         <v>45.9</v>
+      </c>
+      <c r="II34" t="n">
+        <v>31.1</v>
       </c>
     </row>
     <row r="35" ht="13.9" customHeight="1" s="2">
@@ -26003,8 +26037,11 @@
       <c r="IG35" s="1" t="n">
         <v>31.4</v>
       </c>
-      <c r="IH35" t="n">
+      <c r="IH35" s="1" t="n">
         <v>31.1</v>
+      </c>
+      <c r="II35" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="13.9" customHeight="1" s="2">
@@ -26733,8 +26770,11 @@
       <c r="IG36" s="1" t="n">
         <v>188.3</v>
       </c>
-      <c r="IH36" t="n">
+      <c r="IH36" s="1" t="n">
         <v>187.9</v>
+      </c>
+      <c r="II36" t="n">
+        <v>188.4</v>
       </c>
     </row>
     <row r="37" ht="13.9" customHeight="1" s="2">
@@ -27463,8 +27503,11 @@
       <c r="IG37" s="1" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="IH37" t="n">
+      <c r="IH37" s="1" t="n">
         <v>87.09999999999999</v>
+      </c>
+      <c r="II37" t="n">
+        <v>88.3</v>
       </c>
     </row>
     <row r="38" ht="13.9" customHeight="1" s="2">
@@ -28193,8 +28236,11 @@
       <c r="IG38" s="1" t="n">
         <v>26.8</v>
       </c>
-      <c r="IH38" t="n">
+      <c r="IH38" s="1" t="n">
         <v>26.24</v>
+      </c>
+      <c r="II38" t="n">
+        <v>26.33</v>
       </c>
     </row>
     <row r="39" ht="13.9" customHeight="1" s="2">
@@ -28923,8 +28969,11 @@
       <c r="IG39" s="1" t="n">
         <v>115.4</v>
       </c>
-      <c r="IH39" t="n">
+      <c r="IH39" s="1" t="n">
         <v>112.7</v>
+      </c>
+      <c r="II39" t="n">
+        <v>116.7</v>
       </c>
     </row>
     <row r="40" ht="13.9" customHeight="1" s="2">
@@ -29653,7 +29702,10 @@
       <c r="IG40" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IH40" t="n">
+      <c r="IH40" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="II40" t="n">
         <v>5</v>
       </c>
     </row>
@@ -30383,7 +30435,10 @@
       <c r="IG41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IH41" t="n">
+      <c r="IH41" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="II41" t="n">
         <v>6</v>
       </c>
     </row>
@@ -31113,7 +31168,10 @@
       <c r="IG42" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IH42" t="n">
+      <c r="IH42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="II42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -31843,8 +31901,11 @@
       <c r="IG43" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="IH43" t="n">
+      <c r="IH43" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="II43" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="44" ht="13.9" customHeight="1" s="2">
@@ -32573,8 +32634,11 @@
       <c r="IG44" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="IH44" t="n">
+      <c r="IH44" s="1" t="n">
         <v>142</v>
+      </c>
+      <c r="II44" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="45" ht="13.9" customHeight="1" s="2">
@@ -33303,8 +33367,11 @@
       <c r="IG45" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="IH45" t="n">
+      <c r="IH45" s="1" t="n">
         <v>189</v>
+      </c>
+      <c r="II45" t="n">
+        <v>190</v>
       </c>
     </row>
     <row r="46" ht="13.9" customHeight="1" s="2">
@@ -34033,8 +34100,11 @@
       <c r="IG46" s="1" t="n">
         <v>278</v>
       </c>
-      <c r="IH46" t="n">
+      <c r="IH46" s="1" t="n">
         <v>260</v>
+      </c>
+      <c r="II46" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="47" ht="13.9" customHeight="1" s="2">
@@ -34763,8 +34833,11 @@
       <c r="IG47" s="1" t="n">
         <v>74.09999999999999</v>
       </c>
-      <c r="IH47" t="n">
+      <c r="IH47" s="1" t="n">
         <v>76.5</v>
+      </c>
+      <c r="II47" t="n">
+        <v>65.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.9" customHeight="1" s="2">
@@ -35493,8 +35566,11 @@
       <c r="IG48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="IH48" t="n">
+      <c r="IH48" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="II48" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="49" ht="13.9" customHeight="1" s="2">
@@ -36223,8 +36299,11 @@
       <c r="IG49" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IH49" t="n">
+      <c r="IH49" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="II49" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="50" ht="13.9" customHeight="1" s="2">
@@ -36953,8 +37032,11 @@
       <c r="IG50" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="IH50" t="n">
+      <c r="IH50" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="II50" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="51" ht="13.9" customHeight="1" s="2">
@@ -37683,8 +37765,11 @@
       <c r="IG51" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="IH51" t="n">
+      <c r="IH51" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="II51" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="52" ht="13.9" customHeight="1" s="2">
@@ -38413,8 +38498,11 @@
       <c r="IG52" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="IH52" t="n">
+      <c r="IH52" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="II52" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="53" ht="13.9" customHeight="1" s="2">
@@ -39143,8 +39231,11 @@
       <c r="IG53" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="IH53" t="n">
+      <c r="IH53" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="II53" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="54" ht="13.9" customHeight="1" s="2">
@@ -39873,8 +39964,11 @@
       <c r="IG54" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IH54" t="n">
+      <c r="IH54" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="II54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.9" customHeight="1" s="2">
@@ -40603,8 +40697,11 @@
       <c r="IG55" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="IH55" t="n">
+      <c r="IH55" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="II55" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="56" ht="13.9" customHeight="1" s="2">
@@ -41333,8 +41430,11 @@
       <c r="IG56" s="1" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="IH56" t="n">
+      <c r="IH56" s="1" t="n">
         <v>78.90000000000001</v>
+      </c>
+      <c r="II56" t="n">
+        <v>55.6</v>
       </c>
     </row>
     <row r="57" ht="13.9" customHeight="1" s="2">
@@ -42063,8 +42163,11 @@
       <c r="IG57" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="IH57" t="n">
+      <c r="IH57" s="1" t="n">
         <v>208</v>
+      </c>
+      <c r="II57" t="n">
+        <v>228</v>
       </c>
     </row>
     <row r="58" ht="13.9" customHeight="1" s="2">
@@ -42793,8 +42896,11 @@
       <c r="IG58" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="IH58" t="n">
+      <c r="IH58" s="1" t="n">
         <v>115</v>
+      </c>
+      <c r="II58" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="59" ht="13.9" customHeight="1" s="2">
@@ -43523,8 +43629,11 @@
       <c r="IG59" s="1" t="n">
         <v>373</v>
       </c>
-      <c r="IH59" t="n">
+      <c r="IH59" s="1" t="n">
         <v>323</v>
+      </c>
+      <c r="II59" t="n">
+        <v>372</v>
       </c>
     </row>
     <row r="60" ht="13.9" customHeight="1" s="2">
@@ -44253,8 +44362,11 @@
       <c r="IG60" s="1" t="n">
         <v>1.27</v>
       </c>
-      <c r="IH60" t="n">
+      <c r="IH60" s="1" t="n">
         <v>1.81</v>
+      </c>
+      <c r="II60" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="61" ht="13.9" customHeight="1" s="2">
@@ -44983,8 +45095,11 @@
       <c r="IG61" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="IH61" t="n">
+      <c r="IH61" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="II61" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="62" ht="13.9" customHeight="1" s="2">
@@ -45713,8 +45828,11 @@
       <c r="IG62" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="IH62" t="n">
+      <c r="IH62" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="II62" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="63" ht="13.9" customHeight="1" s="2">
@@ -46443,8 +46561,11 @@
       <c r="IG63" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="IH63" t="n">
+      <c r="IH63" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="II63" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="64" ht="13.9" customHeight="1" s="2">
@@ -47173,7 +47294,10 @@
       <c r="IG64" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="IH64" t="n">
+      <c r="IH64" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="II64" t="n">
         <v>18</v>
       </c>
     </row>
@@ -47903,8 +48027,11 @@
       <c r="IG65" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="IH65" t="n">
+      <c r="IH65" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="II65" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="66" ht="13.9" customHeight="1" s="2">
@@ -48633,7 +48760,10 @@
       <c r="IG66" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IH66" t="n">
+      <c r="IH66" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="II66" t="n">
         <v>13</v>
       </c>
     </row>
@@ -49363,8 +49493,11 @@
       <c r="IG67" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IH67" t="n">
+      <c r="IH67" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="II67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.9" customHeight="1" s="2">
@@ -50093,8 +50226,11 @@
       <c r="IG68" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IH68" t="n">
+      <c r="IH68" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="II68" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="69" ht="13.9" customHeight="1" s="2">
@@ -50823,8 +50959,11 @@
       <c r="IG69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IH69" t="n">
+      <c r="IH69" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="II69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.9" customHeight="1" s="2">
@@ -51553,8 +51692,11 @@
       <c r="IG70" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="IH70" t="n">
+      <c r="IH70" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="II70" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="13.9" customHeight="1" s="2">
@@ -52283,8 +52425,11 @@
       <c r="IG71" s="1" t="n">
         <v>47.1</v>
       </c>
-      <c r="IH71" t="n">
+      <c r="IH71" s="1" t="n">
         <v>59.1</v>
+      </c>
+      <c r="II71" t="n">
+        <v>46.4</v>
       </c>
     </row>
     <row r="72" ht="13.9" customHeight="1" s="2">
@@ -53013,8 +53158,11 @@
       <c r="IG72" s="1" t="n">
         <v>46.62</v>
       </c>
-      <c r="IH72" t="n">
+      <c r="IH72" s="1" t="n">
         <v>24.85</v>
+      </c>
+      <c r="II72" t="n">
+        <v>28.62</v>
       </c>
     </row>
     <row r="73" ht="13.9" customHeight="1" s="2">
@@ -53743,8 +53891,11 @@
       <c r="IG73" s="1" t="n">
         <v>21.94</v>
       </c>
-      <c r="IH73" t="n">
+      <c r="IH73" s="1" t="n">
         <v>14.68</v>
+      </c>
+      <c r="II73" t="n">
+        <v>13.29</v>
       </c>
     </row>
     <row r="74" ht="13.9" customHeight="1" s="2">
@@ -54473,8 +54624,11 @@
       <c r="IG74" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IH74" t="n">
+      <c r="IH74" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="II74" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="75" ht="13.9" customHeight="1" s="2">
@@ -55203,8 +55357,11 @@
       <c r="IG75" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="IH75" t="n">
+      <c r="IH75" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="II75" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="76" ht="13.9" customHeight="1" s="2">
@@ -55933,8 +56090,11 @@
       <c r="IG76" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="IH76" t="n">
+      <c r="IH76" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="II76" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="13.9" customHeight="1" s="2">
@@ -56663,8 +56823,11 @@
       <c r="IG77" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="IH77" t="n">
+      <c r="IH77" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="II77" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="78" ht="13.9" customHeight="1" s="2">
@@ -57393,8 +57556,11 @@
       <c r="IG78" s="1" t="n">
         <v>2.47</v>
       </c>
-      <c r="IH78" t="n">
+      <c r="IH78" s="1" t="n">
         <v>2.59</v>
+      </c>
+      <c r="II78" t="n">
+        <v>2.43</v>
       </c>
     </row>
     <row r="79" ht="13.9" customHeight="1" s="2">
@@ -58123,8 +58289,11 @@
       <c r="IG79" s="1" t="n">
         <v>5.25</v>
       </c>
-      <c r="IH79" t="n">
+      <c r="IH79" s="1" t="n">
         <v>4.38</v>
+      </c>
+      <c r="II79" t="n">
+        <v>5.23</v>
       </c>
     </row>
     <row r="80" ht="13.9" customHeight="1" s="2">
@@ -58853,8 +59022,11 @@
       <c r="IG80" s="1" t="n">
         <v>38.1</v>
       </c>
-      <c r="IH80" t="n">
+      <c r="IH80" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="II80" t="n">
+        <v>38.2</v>
       </c>
     </row>
     <row r="81" ht="13.9" customHeight="1" s="2">
@@ -59583,8 +59755,11 @@
       <c r="IG81" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="IH81" t="n">
+      <c r="IH81" s="1" t="n">
         <v>22.8</v>
+      </c>
+      <c r="II81" t="n">
+        <v>19.1</v>
       </c>
     </row>
     <row r="82" ht="13.9" customHeight="1" s="2">
@@ -60313,8 +60488,11 @@
       <c r="IG82" s="1" t="n">
         <v>187.4</v>
       </c>
-      <c r="IH82" t="n">
+      <c r="IH82" s="1" t="n">
         <v>188.7</v>
+      </c>
+      <c r="II82" t="n">
+        <v>187.4</v>
       </c>
     </row>
     <row r="83" ht="13.9" customHeight="1" s="2">
@@ -61043,8 +61221,11 @@
       <c r="IG83" s="1" t="n">
         <v>85.40000000000001</v>
       </c>
-      <c r="IH83" t="n">
+      <c r="IH83" s="1" t="n">
         <v>87</v>
+      </c>
+      <c r="II83" t="n">
+        <v>85.8</v>
       </c>
     </row>
     <row r="84" ht="13.9" customHeight="1" s="2">
@@ -61773,8 +61954,11 @@
       <c r="IG84" s="1" t="n">
         <v>25.41</v>
       </c>
-      <c r="IH84" t="n">
+      <c r="IH84" s="1" t="n">
         <v>25.66</v>
+      </c>
+      <c r="II84" t="n">
+        <v>24.66</v>
       </c>
     </row>
     <row r="85" ht="13.9" customHeight="1" s="2">
@@ -62503,8 +62687,11 @@
       <c r="IG85" s="1" t="n">
         <v>95.3</v>
       </c>
-      <c r="IH85" t="n">
+      <c r="IH85" s="1" t="n">
         <v>98.7</v>
+      </c>
+      <c r="II85" t="n">
+        <v>93.40000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.9" customHeight="1" s="2">
@@ -63233,7 +63420,10 @@
       <c r="IG86" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IH86" t="n">
+      <c r="IH86" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="II86" t="n">
         <v>7</v>
       </c>
     </row>
@@ -63963,8 +64153,11 @@
       <c r="IG87" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="IH87" t="n">
+      <c r="IH87" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="II87" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="88" ht="13.9" customHeight="1" s="2">
@@ -64693,8 +64886,11 @@
       <c r="IG88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="IH88" t="n">
+      <c r="IH88" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="II88" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="89" ht="13.9" customHeight="1" s="2">
@@ -65423,8 +65619,11 @@
       <c r="IG89" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="IH89" t="n">
+      <c r="IH89" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="II89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.9" customHeight="1" s="2">
@@ -66153,8 +66352,11 @@
       <c r="IG90" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="IH90" t="n">
+      <c r="IH90" s="1" t="n">
         <v>141</v>
+      </c>
+      <c r="II90" t="n">
+        <v>163</v>
       </c>
     </row>
     <row r="91" ht="13.9" customHeight="1" s="2">
@@ -66883,8 +67085,11 @@
       <c r="IG91" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="IH91" t="n">
+      <c r="IH91" s="1" t="n">
         <v>168</v>
+      </c>
+      <c r="II91" t="n">
+        <v>198</v>
       </c>
     </row>
     <row r="92" ht="13.9" customHeight="1" s="2">
@@ -67613,8 +67818,11 @@
       <c r="IG92" s="1" t="n">
         <v>266</v>
       </c>
-      <c r="IH92" t="n">
+      <c r="IH92" s="1" t="n">
         <v>220</v>
+      </c>
+      <c r="II92" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="93" ht="13.9" customHeight="1" s="2">
@@ -68343,8 +68551,11 @@
       <c r="IG93" s="1" t="n">
         <v>71.3</v>
       </c>
-      <c r="IH93" t="n">
+      <c r="IH93" s="1" t="n">
         <v>68.09999999999999</v>
+      </c>
+      <c r="II93" t="n">
+        <v>67.2</v>
       </c>
     </row>
     <row r="94" ht="13.9" customHeight="1" s="2">
@@ -69073,8 +69284,11 @@
       <c r="IG94" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="IH94" t="n">
+      <c r="IH94" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="II94" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="95" ht="13.9" customHeight="1" s="2">
@@ -69803,7 +70017,10 @@
       <c r="IG95" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="IH95" t="n">
+      <c r="IH95" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="II95" t="n">
         <v>12</v>
       </c>
     </row>
@@ -70533,8 +70750,11 @@
       <c r="IG96" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="IH96" t="n">
+      <c r="IH96" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="II96" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="97" ht="13.9" customHeight="1" s="2">
@@ -71263,8 +71483,11 @@
       <c r="IG97" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="IH97" t="n">
+      <c r="IH97" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="II97" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="98" ht="13.9" customHeight="1" s="2">
@@ -71993,8 +72216,11 @@
       <c r="IG98" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="IH98" t="n">
+      <c r="IH98" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="II98" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="99" ht="13.9" customHeight="1" s="2">
@@ -72723,8 +72949,11 @@
       <c r="IG99" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="IH99" t="n">
+      <c r="IH99" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="II99" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="100" ht="13.9" customHeight="1" s="2">
@@ -73453,8 +73682,11 @@
       <c r="IG100" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="IH100" t="n">
+      <c r="IH100" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="II100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101" ht="13.9" customHeight="1" s="2">
@@ -74183,8 +74415,11 @@
       <c r="IG101" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="IH101" t="n">
+      <c r="IH101" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="II101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.9" customHeight="1" s="2">
@@ -74913,8 +75148,11 @@
       <c r="IG102" s="1" t="n">
         <v>62.5</v>
       </c>
-      <c r="IH102" t="n">
+      <c r="IH102" s="1" t="n">
         <v>84.59999999999999</v>
+      </c>
+      <c r="II102" t="n">
+        <v>46.2</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Brisbane_stats.xlsx
+++ b/django_AFL_ML/Data/Brisbane_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IJ102"/>
+  <dimension ref="A1:IK102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL36" activeCellId="0" sqref="IL36"/>
@@ -1192,8 +1192,11 @@
       <c r="II1" s="2" t="n">
         <v>10537</v>
       </c>
-      <c r="IJ1" t="n">
+      <c r="IJ1" s="2" t="n">
         <v>10540</v>
+      </c>
+      <c r="IK1" t="n">
+        <v>10549</v>
       </c>
     </row>
     <row r="2" ht="13.9" customHeight="1" s="3">
@@ -1928,8 +1931,11 @@
       <c r="II2" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="IJ2" t="n">
+      <c r="IJ2" s="2" t="n">
         <v>2021</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>2022</v>
       </c>
     </row>
     <row r="3" ht="13.9" customHeight="1" s="3">
@@ -2664,8 +2670,11 @@
       <c r="II3" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IJ3" t="n">
+      <c r="IJ3" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.9" customHeight="1" s="3">
@@ -3400,7 +3409,10 @@
       <c r="II4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IJ4" t="n">
+      <c r="IJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4136,8 +4148,11 @@
       <c r="II5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IJ5" t="n">
+      <c r="IJ5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IK5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.9" customHeight="1" s="3">
@@ -4872,8 +4887,11 @@
       <c r="II6" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IJ6" t="n">
+      <c r="IJ6" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="IK6" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="7" ht="13.9" customHeight="1" s="3">
@@ -5608,8 +5626,11 @@
       <c r="II7" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="IJ7" t="n">
+      <c r="IJ7" s="2" t="n">
         <v>79</v>
+      </c>
+      <c r="IK7" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="8" ht="13.9" customHeight="1" s="3">
@@ -6344,8 +6365,11 @@
       <c r="II8" s="2" t="n">
         <v>-33</v>
       </c>
-      <c r="IJ8" t="n">
+      <c r="IJ8" s="2" t="n">
         <v>-1</v>
+      </c>
+      <c r="IK8" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" s="3">
@@ -7080,8 +7104,11 @@
       <c r="II9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IJ9" t="n">
+      <c r="IJ9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IK9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.9" customHeight="1" s="3">
@@ -7816,8 +7843,11 @@
       <c r="II10" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IJ10" t="n">
+      <c r="IJ10" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IK10" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="13.9" customHeight="1" s="3">
@@ -8552,8 +8582,11 @@
       <c r="II11" s="2" t="n">
         <v>212</v>
       </c>
-      <c r="IJ11" t="n">
+      <c r="IJ11" s="2" t="n">
         <v>211</v>
+      </c>
+      <c r="IK11" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="12" ht="13.9" customHeight="1" s="3">
@@ -9288,8 +9321,11 @@
       <c r="II12" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="IJ12" t="n">
+      <c r="IJ12" s="2" t="n">
         <v>140</v>
+      </c>
+      <c r="IK12" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="13" ht="13.9" customHeight="1" s="3">
@@ -10024,8 +10060,11 @@
       <c r="II13" s="2" t="n">
         <v>341</v>
       </c>
-      <c r="IJ13" t="n">
+      <c r="IJ13" s="2" t="n">
         <v>351</v>
+      </c>
+      <c r="IK13" t="n">
+        <v>329</v>
       </c>
     </row>
     <row r="14" ht="13.9" customHeight="1" s="3">
@@ -10760,8 +10799,11 @@
       <c r="II14" s="2" t="n">
         <v>1.64</v>
       </c>
-      <c r="IJ14" t="n">
+      <c r="IJ14" s="2" t="n">
         <v>1.51</v>
+      </c>
+      <c r="IK14" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row r="15" ht="13.9" customHeight="1" s="3">
@@ -11496,8 +11538,11 @@
       <c r="II15" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="IJ15" t="n">
+      <c r="IJ15" s="2" t="n">
         <v>79</v>
+      </c>
+      <c r="IK15" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="16" ht="13.9" customHeight="1" s="3">
@@ -12232,8 +12277,11 @@
       <c r="II16" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="IJ16" t="n">
+      <c r="IJ16" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="IK16" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="13.9" customHeight="1" s="3">
@@ -12968,8 +13016,11 @@
       <c r="II17" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="IJ17" t="n">
+      <c r="IJ17" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IK17" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="18" ht="13.9" customHeight="1" s="3">
@@ -13704,8 +13755,11 @@
       <c r="II18" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IJ18" t="n">
+      <c r="IJ18" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IK18" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="13.9" customHeight="1" s="3">
@@ -14440,8 +14494,11 @@
       <c r="II19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IJ19" t="n">
+      <c r="IJ19" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="IK19" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="13.9" customHeight="1" s="3">
@@ -15176,7 +15233,10 @@
       <c r="II20" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IJ20" t="n">
+      <c r="IJ20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IK20" t="n">
         <v>11</v>
       </c>
     </row>
@@ -15912,8 +15972,11 @@
       <c r="II21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IJ21" t="n">
+      <c r="IJ21" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IK21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.9" customHeight="1" s="3">
@@ -16648,8 +16711,11 @@
       <c r="II22" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IJ22" t="n">
+      <c r="IJ22" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IK22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.9" customHeight="1" s="3">
@@ -17384,8 +17450,11 @@
       <c r="II23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IJ23" t="n">
+      <c r="IJ23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IK23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.9" customHeight="1" s="3">
@@ -18120,8 +18189,11 @@
       <c r="II24" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IJ24" t="n">
+      <c r="IJ24" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="IK24" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="13.9" customHeight="1" s="3">
@@ -18856,8 +18928,11 @@
       <c r="II25" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IJ25" t="n">
+      <c r="IJ25" s="2" t="n">
         <v>47.8</v>
+      </c>
+      <c r="IK25" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="26" ht="13.9" customHeight="1" s="3">
@@ -19592,8 +19667,11 @@
       <c r="II26" s="2" t="n">
         <v>37.89</v>
       </c>
-      <c r="IJ26" t="n">
+      <c r="IJ26" s="2" t="n">
         <v>31.91</v>
+      </c>
+      <c r="IK26" t="n">
+        <v>29.91</v>
       </c>
     </row>
     <row r="27" ht="13.9" customHeight="1" s="3">
@@ -20328,8 +20406,11 @@
       <c r="II27" s="2" t="n">
         <v>22.73</v>
       </c>
-      <c r="IJ27" t="n">
+      <c r="IJ27" s="2" t="n">
         <v>15.26</v>
+      </c>
+      <c r="IK27" t="n">
+        <v>13.16</v>
       </c>
     </row>
     <row r="28" ht="13.9" customHeight="1" s="3">
@@ -21064,8 +21145,11 @@
       <c r="II28" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IJ28" t="n">
+      <c r="IJ28" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IK28" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="29" ht="13.9" customHeight="1" s="3">
@@ -21800,8 +21884,11 @@
       <c r="II29" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="IJ29" t="n">
+      <c r="IJ29" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="IK29" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="30" ht="13.9" customHeight="1" s="3">
@@ -22536,8 +22623,11 @@
       <c r="II30" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IJ30" t="n">
+      <c r="IJ30" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IK30" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="13.9" customHeight="1" s="3">
@@ -23272,8 +23362,11 @@
       <c r="II31" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IJ31" t="n">
+      <c r="IJ31" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="IK31" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="32" ht="13.9" customHeight="1" s="3">
@@ -24008,8 +24101,11 @@
       <c r="II32" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IJ32" t="n">
+      <c r="IJ32" s="2" t="n">
         <v>2.96</v>
+      </c>
+      <c r="IK32" t="n">
+        <v>2.08</v>
       </c>
     </row>
     <row r="33" ht="13.9" customHeight="1" s="3">
@@ -24744,8 +24840,11 @@
       <c r="II33" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IJ33" t="n">
+      <c r="IJ33" s="2" t="n">
         <v>6.18</v>
+      </c>
+      <c r="IK33" t="n">
+        <v>4.73</v>
       </c>
     </row>
     <row r="34" ht="13.9" customHeight="1" s="3">
@@ -25480,8 +25579,11 @@
       <c r="II34" s="2" t="n">
         <v>31.1</v>
       </c>
-      <c r="IJ34" t="n">
+      <c r="IJ34" s="2" t="n">
         <v>30.9</v>
+      </c>
+      <c r="IK34" t="n">
+        <v>42.3</v>
       </c>
     </row>
     <row r="35" ht="13.9" customHeight="1" s="3">
@@ -26216,8 +26318,11 @@
       <c r="II35" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IJ35" t="n">
+      <c r="IJ35" s="2" t="n">
         <v>16.2</v>
+      </c>
+      <c r="IK35" t="n">
+        <v>21.2</v>
       </c>
     </row>
     <row r="36" ht="13.9" customHeight="1" s="3">
@@ -26952,8 +27057,11 @@
       <c r="II36" s="2" t="n">
         <v>188.4</v>
       </c>
-      <c r="IJ36" t="n">
+      <c r="IJ36" s="2" t="n">
         <v>188.4</v>
+      </c>
+      <c r="IK36" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="37" ht="13.9" customHeight="1" s="3">
@@ -27688,8 +27796,11 @@
       <c r="II37" s="2" t="n">
         <v>88.3</v>
       </c>
-      <c r="IJ37" t="n">
+      <c r="IJ37" s="2" t="n">
         <v>88.3</v>
+      </c>
+      <c r="IK37" t="n">
+        <v>88.7</v>
       </c>
     </row>
     <row r="38" ht="13.9" customHeight="1" s="3">
@@ -28424,8 +28535,11 @@
       <c r="II38" s="2" t="n">
         <v>26.33</v>
       </c>
-      <c r="IJ38" t="n">
+      <c r="IJ38" s="2" t="n">
         <v>26.41</v>
+      </c>
+      <c r="IK38" t="n">
+        <v>26.58</v>
       </c>
     </row>
     <row r="39" ht="13.9" customHeight="1" s="3">
@@ -29160,8 +29274,11 @@
       <c r="II39" s="2" t="n">
         <v>116.7</v>
       </c>
-      <c r="IJ39" t="n">
+      <c r="IJ39" s="2" t="n">
         <v>116.5</v>
+      </c>
+      <c r="IK39" t="n">
+        <v>109.3</v>
       </c>
     </row>
     <row r="40" ht="13.9" customHeight="1" s="3">
@@ -29896,8 +30013,11 @@
       <c r="II40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IJ40" t="n">
+      <c r="IJ40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IK40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41" ht="13.9" customHeight="1" s="3">
@@ -30632,8 +30752,11 @@
       <c r="II41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IJ41" t="n">
+      <c r="IJ41" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IK41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.9" customHeight="1" s="3">
@@ -31368,8 +31491,11 @@
       <c r="II42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IJ42" t="n">
+      <c r="IJ42" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IK42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="13.9" customHeight="1" s="3">
@@ -32104,8 +32230,11 @@
       <c r="II43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IJ43" t="n">
+      <c r="IJ43" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IK43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.9" customHeight="1" s="3">
@@ -32840,8 +32969,11 @@
       <c r="II44" s="2" t="n">
         <v>141</v>
       </c>
-      <c r="IJ44" t="n">
+      <c r="IJ44" s="2" t="n">
         <v>145</v>
+      </c>
+      <c r="IK44" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="45" ht="13.9" customHeight="1" s="3">
@@ -33576,8 +33708,11 @@
       <c r="II45" s="2" t="n">
         <v>190</v>
       </c>
-      <c r="IJ45" t="n">
+      <c r="IJ45" s="2" t="n">
         <v>207</v>
+      </c>
+      <c r="IK45" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="46" ht="13.9" customHeight="1" s="3">
@@ -34312,8 +34447,11 @@
       <c r="II46" s="2" t="n">
         <v>223</v>
       </c>
-      <c r="IJ46" t="n">
+      <c r="IJ46" s="2" t="n">
         <v>247</v>
+      </c>
+      <c r="IK46" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="47" ht="13.9" customHeight="1" s="3">
@@ -35048,8 +35186,11 @@
       <c r="II47" s="2" t="n">
         <v>65.40000000000001</v>
       </c>
-      <c r="IJ47" t="n">
+      <c r="IJ47" s="2" t="n">
         <v>70.40000000000001</v>
+      </c>
+      <c r="IK47" t="n">
+        <v>68.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.9" customHeight="1" s="3">
@@ -35784,8 +35925,11 @@
       <c r="II48" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="IJ48" t="n">
+      <c r="IJ48" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="IK48" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="49" ht="13.9" customHeight="1" s="3">
@@ -36520,8 +36664,11 @@
       <c r="II49" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IJ49" t="n">
+      <c r="IJ49" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IK49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.9" customHeight="1" s="3">
@@ -37256,7 +37403,10 @@
       <c r="II50" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IJ50" t="n">
+      <c r="IJ50" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IK50" t="n">
         <v>12</v>
       </c>
     </row>
@@ -37992,8 +38142,11 @@
       <c r="II51" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IJ51" t="n">
+      <c r="IJ51" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IK51" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="52" ht="13.9" customHeight="1" s="3">
@@ -38728,8 +38881,11 @@
       <c r="II52" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IJ52" t="n">
+      <c r="IJ52" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IK52" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="53" ht="13.9" customHeight="1" s="3">
@@ -39464,8 +39620,11 @@
       <c r="II53" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="IJ53" t="n">
+      <c r="IJ53" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="IK53" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="54" ht="13.9" customHeight="1" s="3">
@@ -40200,8 +40359,11 @@
       <c r="II54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IJ54" t="n">
+      <c r="IJ54" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IK54" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="13.9" customHeight="1" s="3">
@@ -40936,8 +41098,11 @@
       <c r="II55" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IJ55" t="n">
+      <c r="IJ55" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IK55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.9" customHeight="1" s="3">
@@ -41672,8 +41837,11 @@
       <c r="II56" s="2" t="n">
         <v>55.6</v>
       </c>
-      <c r="IJ56" t="n">
+      <c r="IJ56" s="2" t="n">
         <v>90.90000000000001</v>
+      </c>
+      <c r="IK56" t="n">
+        <v>81.8</v>
       </c>
     </row>
     <row r="57" ht="13.9" customHeight="1" s="3">
@@ -42408,8 +42576,11 @@
       <c r="II57" s="2" t="n">
         <v>228</v>
       </c>
-      <c r="IJ57" t="n">
+      <c r="IJ57" s="2" t="n">
         <v>223</v>
+      </c>
+      <c r="IK57" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="58" ht="13.9" customHeight="1" s="3">
@@ -43144,8 +43315,11 @@
       <c r="II58" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="IJ58" t="n">
+      <c r="IJ58" s="2" t="n">
         <v>129</v>
+      </c>
+      <c r="IK58" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="59" ht="13.9" customHeight="1" s="3">
@@ -43880,8 +44054,11 @@
       <c r="II59" s="2" t="n">
         <v>372</v>
       </c>
-      <c r="IJ59" t="n">
+      <c r="IJ59" s="2" t="n">
         <v>352</v>
+      </c>
+      <c r="IK59" t="n">
+        <v>357</v>
       </c>
     </row>
     <row r="60" ht="13.9" customHeight="1" s="3">
@@ -44616,8 +44793,11 @@
       <c r="II60" s="2" t="n">
         <v>1.58</v>
       </c>
-      <c r="IJ60" t="n">
+      <c r="IJ60" s="2" t="n">
         <v>1.73</v>
+      </c>
+      <c r="IK60" t="n">
+        <v>1.53</v>
       </c>
     </row>
     <row r="61" ht="13.9" customHeight="1" s="3">
@@ -45352,8 +45532,11 @@
       <c r="II61" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="IJ61" t="n">
+      <c r="IJ61" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="IK61" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="62" ht="13.9" customHeight="1" s="3">
@@ -46088,8 +46271,11 @@
       <c r="II62" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IJ62" t="n">
+      <c r="IJ62" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="IK62" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="63" ht="13.9" customHeight="1" s="3">
@@ -46824,8 +47010,11 @@
       <c r="II63" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IJ63" t="n">
+      <c r="IJ63" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IK63" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="13.9" customHeight="1" s="3">
@@ -47560,8 +47749,11 @@
       <c r="II64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IJ64" t="n">
+      <c r="IJ64" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="IK64" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="13.9" customHeight="1" s="3">
@@ -48296,8 +48488,11 @@
       <c r="II65" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IJ65" t="n">
+      <c r="IJ65" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IK65" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="13.9" customHeight="1" s="3">
@@ -49032,8 +49227,11 @@
       <c r="II66" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IJ66" t="n">
+      <c r="IJ66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IK66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67" ht="13.9" customHeight="1" s="3">
@@ -49768,8 +49966,11 @@
       <c r="II67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IJ67" t="n">
+      <c r="IJ67" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IK67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.9" customHeight="1" s="3">
@@ -50504,8 +50705,11 @@
       <c r="II68" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IJ68" t="n">
+      <c r="IJ68" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IK68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.9" customHeight="1" s="3">
@@ -51240,8 +51444,11 @@
       <c r="II69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IJ69" t="n">
+      <c r="IJ69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IK69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.9" customHeight="1" s="3">
@@ -51976,8 +52183,11 @@
       <c r="II70" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="IJ70" t="n">
+      <c r="IJ70" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IK70" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="71" ht="13.9" customHeight="1" s="3">
@@ -52712,8 +52922,11 @@
       <c r="II71" s="2" t="n">
         <v>46.4</v>
       </c>
-      <c r="IJ71" t="n">
+      <c r="IJ71" s="2" t="n">
         <v>45.8</v>
+      </c>
+      <c r="IK71" t="n">
+        <v>52.6</v>
       </c>
     </row>
     <row r="72" ht="13.9" customHeight="1" s="3">
@@ -53448,8 +53661,11 @@
       <c r="II72" s="2" t="n">
         <v>28.62</v>
       </c>
-      <c r="IJ72" t="n">
+      <c r="IJ72" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IK72" t="n">
+        <v>35.7</v>
       </c>
     </row>
     <row r="73" ht="13.9" customHeight="1" s="3">
@@ -54184,8 +54400,11 @@
       <c r="II73" s="2" t="n">
         <v>13.29</v>
       </c>
-      <c r="IJ73" t="n">
+      <c r="IJ73" s="2" t="n">
         <v>14.67</v>
+      </c>
+      <c r="IK73" t="n">
+        <v>18.79</v>
       </c>
     </row>
     <row r="74" ht="13.9" customHeight="1" s="3">
@@ -54920,8 +55139,11 @@
       <c r="II74" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IJ74" t="n">
+      <c r="IJ74" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="IK74" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="75" ht="13.9" customHeight="1" s="3">
@@ -55656,8 +55878,11 @@
       <c r="II75" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="IJ75" t="n">
+      <c r="IJ75" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="IK75" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="76" ht="13.9" customHeight="1" s="3">
@@ -56392,8 +56617,11 @@
       <c r="II76" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IJ76" t="n">
+      <c r="IJ76" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="IK76" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="77" ht="13.9" customHeight="1" s="3">
@@ -57128,8 +57356,11 @@
       <c r="II77" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="IJ77" t="n">
+      <c r="IJ77" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="IK77" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="78" ht="13.9" customHeight="1" s="3">
@@ -57864,8 +58095,11 @@
       <c r="II78" s="2" t="n">
         <v>2.43</v>
       </c>
-      <c r="IJ78" t="n">
+      <c r="IJ78" s="2" t="n">
         <v>2.25</v>
+      </c>
+      <c r="IK78" t="n">
+        <v>2.89</v>
       </c>
     </row>
     <row r="79" ht="13.9" customHeight="1" s="3">
@@ -58600,8 +58834,11 @@
       <c r="II79" s="2" t="n">
         <v>5.23</v>
       </c>
-      <c r="IJ79" t="n">
+      <c r="IJ79" s="2" t="n">
         <v>4.91</v>
+      </c>
+      <c r="IK79" t="n">
+        <v>5.5</v>
       </c>
     </row>
     <row r="80" ht="13.9" customHeight="1" s="3">
@@ -59336,8 +59573,11 @@
       <c r="II80" s="2" t="n">
         <v>38.2</v>
       </c>
-      <c r="IJ80" t="n">
+      <c r="IJ80" s="2" t="n">
         <v>40.7</v>
+      </c>
+      <c r="IK80" t="n">
+        <v>32.7</v>
       </c>
     </row>
     <row r="81" ht="13.9" customHeight="1" s="3">
@@ -60072,8 +60312,11 @@
       <c r="II81" s="2" t="n">
         <v>19.1</v>
       </c>
-      <c r="IJ81" t="n">
+      <c r="IJ81" s="2" t="n">
         <v>20.4</v>
+      </c>
+      <c r="IK81" t="n">
+        <v>18.2</v>
       </c>
     </row>
     <row r="82" ht="13.9" customHeight="1" s="3">
@@ -60808,8 +61051,11 @@
       <c r="II82" s="2" t="n">
         <v>187.4</v>
       </c>
-      <c r="IJ82" t="n">
+      <c r="IJ82" s="2" t="n">
         <v>187.3</v>
+      </c>
+      <c r="IK82" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="83" ht="13.9" customHeight="1" s="3">
@@ -61544,8 +61790,11 @@
       <c r="II83" s="2" t="n">
         <v>85.8</v>
       </c>
-      <c r="IJ83" t="n">
+      <c r="IJ83" s="2" t="n">
         <v>85.3</v>
+      </c>
+      <c r="IK83" t="n">
+        <v>87.2</v>
       </c>
     </row>
     <row r="84" ht="13.9" customHeight="1" s="3">
@@ -62280,8 +62529,11 @@
       <c r="II84" s="2" t="n">
         <v>24.66</v>
       </c>
-      <c r="IJ84" t="n">
+      <c r="IJ84" s="2" t="n">
         <v>25.66</v>
+      </c>
+      <c r="IK84" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="85" ht="13.9" customHeight="1" s="3">
@@ -63016,8 +63268,11 @@
       <c r="II85" s="2" t="n">
         <v>93.40000000000001</v>
       </c>
-      <c r="IJ85" t="n">
+      <c r="IJ85" s="2" t="n">
         <v>99.5</v>
+      </c>
+      <c r="IK85" t="n">
+        <v>105.7</v>
       </c>
     </row>
     <row r="86" ht="13.9" customHeight="1" s="3">
@@ -63752,8 +64007,11 @@
       <c r="II86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IJ86" t="n">
+      <c r="IJ86" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IK86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.9" customHeight="1" s="3">
@@ -64488,8 +64746,11 @@
       <c r="II87" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IJ87" t="n">
+      <c r="IJ87" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IK87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.9" customHeight="1" s="3">
@@ -65224,8 +65485,11 @@
       <c r="II88" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IJ88" t="n">
+      <c r="IJ88" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IK88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.9" customHeight="1" s="3">
@@ -65960,8 +66224,11 @@
       <c r="II89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IJ89" t="n">
+      <c r="IJ89" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IK89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.9" customHeight="1" s="3">
@@ -66696,8 +66963,11 @@
       <c r="II90" s="2" t="n">
         <v>163</v>
       </c>
-      <c r="IJ90" t="n">
+      <c r="IJ90" s="2" t="n">
         <v>155</v>
+      </c>
+      <c r="IK90" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="91" ht="13.9" customHeight="1" s="3">
@@ -67432,8 +67702,11 @@
       <c r="II91" s="2" t="n">
         <v>198</v>
       </c>
-      <c r="IJ91" t="n">
+      <c r="IJ91" s="2" t="n">
         <v>189</v>
+      </c>
+      <c r="IK91" t="n">
+        <v>206</v>
       </c>
     </row>
     <row r="92" ht="13.9" customHeight="1" s="3">
@@ -68168,8 +68441,11 @@
       <c r="II92" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="IJ92" t="n">
+      <c r="IJ92" s="2" t="n">
         <v>242</v>
+      </c>
+      <c r="IK92" t="n">
+        <v>251</v>
       </c>
     </row>
     <row r="93" ht="13.9" customHeight="1" s="3">
@@ -68904,8 +69180,11 @@
       <c r="II93" s="2" t="n">
         <v>67.2</v>
       </c>
-      <c r="IJ93" t="n">
+      <c r="IJ93" s="2" t="n">
         <v>68.8</v>
+      </c>
+      <c r="IK93" t="n">
+        <v>70.3</v>
       </c>
     </row>
     <row r="94" ht="13.9" customHeight="1" s="3">
@@ -69640,8 +69919,11 @@
       <c r="II94" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="IJ94" t="n">
+      <c r="IJ94" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="IK94" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="95" ht="13.9" customHeight="1" s="3">
@@ -70376,7 +70658,10 @@
       <c r="II95" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IJ95" t="n">
+      <c r="IJ95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IK95" t="n">
         <v>8</v>
       </c>
     </row>
@@ -71112,7 +71397,10 @@
       <c r="II96" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IJ96" t="n">
+      <c r="IJ96" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IK96" t="n">
         <v>6</v>
       </c>
     </row>
@@ -71848,8 +72136,11 @@
       <c r="II97" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IJ97" t="n">
+      <c r="IJ97" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="IK97" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="98" ht="13.9" customHeight="1" s="3">
@@ -72584,8 +72875,11 @@
       <c r="II98" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IJ98" t="n">
+      <c r="IJ98" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="IK98" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="99" ht="13.9" customHeight="1" s="3">
@@ -73320,8 +73614,11 @@
       <c r="II99" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="IJ99" t="n">
+      <c r="IJ99" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="IK99" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="100" ht="13.9" customHeight="1" s="3">
@@ -74056,8 +74353,11 @@
       <c r="II100" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IJ100" t="n">
+      <c r="IJ100" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IK100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.9" customHeight="1" s="3">
@@ -74792,8 +75092,11 @@
       <c r="II101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IJ101" t="n">
+      <c r="IJ101" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IK101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.9" customHeight="1" s="3">
@@ -75528,8 +75831,11 @@
       <c r="II102" s="2" t="n">
         <v>46.2</v>
       </c>
-      <c r="IJ102" t="n">
+      <c r="IJ102" s="2" t="n">
         <v>63.6</v>
+      </c>
+      <c r="IK102" t="n">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Brisbane_stats.xlsx
+++ b/django_AFL_ML/Data/Brisbane_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IK102"/>
+  <dimension ref="A1:IL102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL36" activeCellId="0" sqref="IL36"/>
@@ -1195,8 +1195,11 @@
       <c r="IJ1" s="2" t="n">
         <v>10540</v>
       </c>
-      <c r="IK1" t="n">
+      <c r="IK1" s="2" t="n">
         <v>10549</v>
+      </c>
+      <c r="IL1" t="n">
+        <v>10556</v>
       </c>
     </row>
     <row r="2" ht="13.9" customHeight="1" s="3">
@@ -1934,7 +1937,10 @@
       <c r="IJ2" s="2" t="n">
         <v>2021</v>
       </c>
-      <c r="IK2" t="n">
+      <c r="IK2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IL2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2673,8 +2679,11 @@
       <c r="IJ3" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IK3" t="n">
+      <c r="IK3" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="13.9" customHeight="1" s="3">
@@ -3412,8 +3421,11 @@
       <c r="IJ4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IK4" t="n">
+      <c r="IK4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.9" customHeight="1" s="3">
@@ -4151,8 +4163,11 @@
       <c r="IJ5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IK5" t="n">
+      <c r="IK5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IL5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.9" customHeight="1" s="3">
@@ -4890,8 +4905,11 @@
       <c r="IJ6" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="IK6" t="n">
+      <c r="IK6" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="IL6" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="7" ht="13.9" customHeight="1" s="3">
@@ -5629,8 +5647,11 @@
       <c r="IJ7" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="IK7" t="n">
+      <c r="IK7" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="IL7" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="8" ht="13.9" customHeight="1" s="3">
@@ -6368,8 +6389,11 @@
       <c r="IJ8" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="IK8" t="n">
+      <c r="IK8" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IL8" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" s="3">
@@ -7107,7 +7131,10 @@
       <c r="IJ9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IK9" t="n">
+      <c r="IK9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7846,8 +7873,11 @@
       <c r="IJ10" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IK10" t="n">
+      <c r="IK10" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IL10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11" ht="13.9" customHeight="1" s="3">
@@ -8585,8 +8615,11 @@
       <c r="IJ11" s="2" t="n">
         <v>211</v>
       </c>
-      <c r="IK11" t="n">
+      <c r="IK11" s="2" t="n">
         <v>206</v>
+      </c>
+      <c r="IL11" t="n">
+        <v>226</v>
       </c>
     </row>
     <row r="12" ht="13.9" customHeight="1" s="3">
@@ -9324,8 +9357,11 @@
       <c r="IJ12" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="IK12" t="n">
+      <c r="IK12" s="2" t="n">
         <v>123</v>
+      </c>
+      <c r="IL12" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="13" ht="13.9" customHeight="1" s="3">
@@ -10063,8 +10099,11 @@
       <c r="IJ13" s="2" t="n">
         <v>351</v>
       </c>
-      <c r="IK13" t="n">
+      <c r="IK13" s="2" t="n">
         <v>329</v>
+      </c>
+      <c r="IL13" t="n">
+        <v>351</v>
       </c>
     </row>
     <row r="14" ht="13.9" customHeight="1" s="3">
@@ -10802,8 +10841,11 @@
       <c r="IJ14" s="2" t="n">
         <v>1.51</v>
       </c>
-      <c r="IK14" t="n">
+      <c r="IK14" s="2" t="n">
         <v>1.67</v>
+      </c>
+      <c r="IL14" t="n">
+        <v>1.81</v>
       </c>
     </row>
     <row r="15" ht="13.9" customHeight="1" s="3">
@@ -11541,8 +11583,11 @@
       <c r="IJ15" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="IK15" t="n">
+      <c r="IK15" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="IL15" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="16" ht="13.9" customHeight="1" s="3">
@@ -12280,8 +12325,11 @@
       <c r="IJ16" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="IK16" t="n">
+      <c r="IK16" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="IL16" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="17" ht="13.9" customHeight="1" s="3">
@@ -13019,8 +13067,11 @@
       <c r="IJ17" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IK17" t="n">
+      <c r="IK17" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="IL17" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="13.9" customHeight="1" s="3">
@@ -13758,8 +13809,11 @@
       <c r="IJ18" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IK18" t="n">
+      <c r="IK18" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IL18" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="13.9" customHeight="1" s="3">
@@ -14497,8 +14551,11 @@
       <c r="IJ19" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="IK19" t="n">
+      <c r="IK19" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IL19" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="13.9" customHeight="1" s="3">
@@ -15236,8 +15293,11 @@
       <c r="IJ20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IK20" t="n">
+      <c r="IK20" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IL20" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="13.9" customHeight="1" s="3">
@@ -15975,8 +16035,11 @@
       <c r="IJ21" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IK21" t="n">
+      <c r="IK21" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IL21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.9" customHeight="1" s="3">
@@ -16714,8 +16777,11 @@
       <c r="IJ22" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IK22" t="n">
+      <c r="IK22" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IL22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.9" customHeight="1" s="3">
@@ -17453,8 +17519,11 @@
       <c r="IJ23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IK23" t="n">
+      <c r="IK23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IL23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.9" customHeight="1" s="3">
@@ -18192,8 +18261,11 @@
       <c r="IJ24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="IK24" t="n">
+      <c r="IK24" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IL24" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="13.9" customHeight="1" s="3">
@@ -18931,8 +19003,11 @@
       <c r="IJ25" s="2" t="n">
         <v>47.8</v>
       </c>
-      <c r="IK25" t="n">
+      <c r="IK25" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IL25" t="n">
+        <v>68.2</v>
       </c>
     </row>
     <row r="26" ht="13.9" customHeight="1" s="3">
@@ -19670,8 +19745,11 @@
       <c r="IJ26" s="2" t="n">
         <v>31.91</v>
       </c>
-      <c r="IK26" t="n">
+      <c r="IK26" s="2" t="n">
         <v>29.91</v>
+      </c>
+      <c r="IL26" t="n">
+        <v>23.4</v>
       </c>
     </row>
     <row r="27" ht="13.9" customHeight="1" s="3">
@@ -20409,8 +20487,11 @@
       <c r="IJ27" s="2" t="n">
         <v>15.26</v>
       </c>
-      <c r="IK27" t="n">
+      <c r="IK27" s="2" t="n">
         <v>13.16</v>
+      </c>
+      <c r="IL27" t="n">
+        <v>15.95</v>
       </c>
     </row>
     <row r="28" ht="13.9" customHeight="1" s="3">
@@ -21148,8 +21229,11 @@
       <c r="IJ28" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IK28" t="n">
+      <c r="IK28" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IL28" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="13.9" customHeight="1" s="3">
@@ -21887,8 +21971,11 @@
       <c r="IJ29" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="IK29" t="n">
+      <c r="IK29" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="IL29" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="30" ht="13.9" customHeight="1" s="3">
@@ -22626,8 +22713,11 @@
       <c r="IJ30" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IK30" t="n">
+      <c r="IK30" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IL30" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="13.9" customHeight="1" s="3">
@@ -23365,7 +23455,10 @@
       <c r="IJ31" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="IK31" t="n">
+      <c r="IK31" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="IL31" t="n">
         <v>52</v>
       </c>
     </row>
@@ -24104,8 +24197,11 @@
       <c r="IJ32" s="2" t="n">
         <v>2.96</v>
       </c>
-      <c r="IK32" t="n">
+      <c r="IK32" s="2" t="n">
         <v>2.08</v>
+      </c>
+      <c r="IL32" t="n">
+        <v>2.36</v>
       </c>
     </row>
     <row r="33" ht="13.9" customHeight="1" s="3">
@@ -24843,8 +24939,11 @@
       <c r="IJ33" s="2" t="n">
         <v>6.18</v>
       </c>
-      <c r="IK33" t="n">
+      <c r="IK33" s="2" t="n">
         <v>4.73</v>
+      </c>
+      <c r="IL33" t="n">
+        <v>3.47</v>
       </c>
     </row>
     <row r="34" ht="13.9" customHeight="1" s="3">
@@ -25582,8 +25681,11 @@
       <c r="IJ34" s="2" t="n">
         <v>30.9</v>
       </c>
-      <c r="IK34" t="n">
+      <c r="IK34" s="2" t="n">
         <v>42.3</v>
+      </c>
+      <c r="IL34" t="n">
+        <v>40.4</v>
       </c>
     </row>
     <row r="35" ht="13.9" customHeight="1" s="3">
@@ -26321,8 +26423,11 @@
       <c r="IJ35" s="2" t="n">
         <v>16.2</v>
       </c>
-      <c r="IK35" t="n">
+      <c r="IK35" s="2" t="n">
         <v>21.2</v>
+      </c>
+      <c r="IL35" t="n">
+        <v>28.8</v>
       </c>
     </row>
     <row r="36" ht="13.9" customHeight="1" s="3">
@@ -27060,8 +27165,11 @@
       <c r="IJ36" s="2" t="n">
         <v>188.4</v>
       </c>
-      <c r="IK36" t="n">
+      <c r="IK36" s="2" t="n">
         <v>187.7</v>
+      </c>
+      <c r="IL36" t="n">
+        <v>187.9</v>
       </c>
     </row>
     <row r="37" ht="13.9" customHeight="1" s="3">
@@ -27799,8 +27907,11 @@
       <c r="IJ37" s="2" t="n">
         <v>88.3</v>
       </c>
-      <c r="IK37" t="n">
+      <c r="IK37" s="2" t="n">
         <v>88.7</v>
+      </c>
+      <c r="IL37" t="n">
+        <v>88.59999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.9" customHeight="1" s="3">
@@ -28538,8 +28649,11 @@
       <c r="IJ38" s="2" t="n">
         <v>26.41</v>
       </c>
-      <c r="IK38" t="n">
+      <c r="IK38" s="2" t="n">
         <v>26.58</v>
+      </c>
+      <c r="IL38" t="n">
+        <v>26.33</v>
       </c>
     </row>
     <row r="39" ht="13.9" customHeight="1" s="3">
@@ -29277,8 +29391,11 @@
       <c r="IJ39" s="2" t="n">
         <v>116.5</v>
       </c>
-      <c r="IK39" t="n">
+      <c r="IK39" s="2" t="n">
         <v>109.3</v>
+      </c>
+      <c r="IL39" t="n">
+        <v>104.7</v>
       </c>
     </row>
     <row r="40" ht="13.9" customHeight="1" s="3">
@@ -30016,7 +30133,10 @@
       <c r="IJ40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IK40" t="n">
+      <c r="IK40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IL40" t="n">
         <v>5</v>
       </c>
     </row>
@@ -30755,7 +30875,10 @@
       <c r="IJ41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IK41" t="n">
+      <c r="IK41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IL41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -31494,7 +31617,10 @@
       <c r="IJ42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IK42" t="n">
+      <c r="IK42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IL42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -32233,8 +32359,11 @@
       <c r="IJ43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IK43" t="n">
+      <c r="IK43" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IL43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.9" customHeight="1" s="3">
@@ -32972,8 +33101,11 @@
       <c r="IJ44" s="2" t="n">
         <v>145</v>
       </c>
-      <c r="IK44" t="n">
+      <c r="IK44" s="2" t="n">
         <v>141</v>
+      </c>
+      <c r="IL44" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="45" ht="13.9" customHeight="1" s="3">
@@ -33711,8 +33843,11 @@
       <c r="IJ45" s="2" t="n">
         <v>207</v>
       </c>
-      <c r="IK45" t="n">
+      <c r="IK45" s="2" t="n">
         <v>194</v>
+      </c>
+      <c r="IL45" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="46" ht="13.9" customHeight="1" s="3">
@@ -34450,8 +34585,11 @@
       <c r="IJ46" s="2" t="n">
         <v>247</v>
       </c>
-      <c r="IK46" t="n">
+      <c r="IK46" s="2" t="n">
         <v>224</v>
+      </c>
+      <c r="IL46" t="n">
+        <v>270</v>
       </c>
     </row>
     <row r="47" ht="13.9" customHeight="1" s="3">
@@ -35189,8 +35327,11 @@
       <c r="IJ47" s="2" t="n">
         <v>70.40000000000001</v>
       </c>
-      <c r="IK47" t="n">
+      <c r="IK47" s="2" t="n">
         <v>68.09999999999999</v>
+      </c>
+      <c r="IL47" t="n">
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.9" customHeight="1" s="3">
@@ -35928,8 +36069,11 @@
       <c r="IJ48" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="IK48" t="n">
+      <c r="IK48" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="IL48" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="49" ht="13.9" customHeight="1" s="3">
@@ -36667,8 +36811,11 @@
       <c r="IJ49" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IK49" t="n">
+      <c r="IK49" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IL49" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="50" ht="13.9" customHeight="1" s="3">
@@ -37406,8 +37553,11 @@
       <c r="IJ50" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IK50" t="n">
+      <c r="IK50" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IL50" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="13.9" customHeight="1" s="3">
@@ -38145,8 +38295,11 @@
       <c r="IJ51" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IK51" t="n">
+      <c r="IK51" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IL51" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="13.9" customHeight="1" s="3">
@@ -38884,8 +39037,11 @@
       <c r="IJ52" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IK52" t="n">
+      <c r="IK52" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IL52" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="53" ht="13.9" customHeight="1" s="3">
@@ -39623,8 +39779,11 @@
       <c r="IJ53" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="IK53" t="n">
+      <c r="IK53" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IL53" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="54" ht="13.9" customHeight="1" s="3">
@@ -40362,8 +40521,11 @@
       <c r="IJ54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IK54" t="n">
+      <c r="IK54" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IL54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.9" customHeight="1" s="3">
@@ -41101,8 +41263,11 @@
       <c r="IJ55" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IK55" t="n">
+      <c r="IK55" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IL55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.9" customHeight="1" s="3">
@@ -41840,8 +42005,11 @@
       <c r="IJ56" s="2" t="n">
         <v>90.90000000000001</v>
       </c>
-      <c r="IK56" t="n">
+      <c r="IK56" s="2" t="n">
         <v>81.8</v>
+      </c>
+      <c r="IL56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="13.9" customHeight="1" s="3">
@@ -42579,8 +42747,11 @@
       <c r="IJ57" s="2" t="n">
         <v>223</v>
       </c>
-      <c r="IK57" t="n">
+      <c r="IK57" s="2" t="n">
         <v>216</v>
+      </c>
+      <c r="IL57" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="58" ht="13.9" customHeight="1" s="3">
@@ -43318,8 +43489,11 @@
       <c r="IJ58" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="IK58" t="n">
+      <c r="IK58" s="2" t="n">
         <v>141</v>
+      </c>
+      <c r="IL58" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="59" ht="13.9" customHeight="1" s="3">
@@ -44057,8 +44231,11 @@
       <c r="IJ59" s="2" t="n">
         <v>352</v>
       </c>
-      <c r="IK59" t="n">
+      <c r="IK59" s="2" t="n">
         <v>357</v>
+      </c>
+      <c r="IL59" t="n">
+        <v>343</v>
       </c>
     </row>
     <row r="60" ht="13.9" customHeight="1" s="3">
@@ -44796,8 +44973,11 @@
       <c r="IJ60" s="2" t="n">
         <v>1.73</v>
       </c>
-      <c r="IK60" t="n">
+      <c r="IK60" s="2" t="n">
         <v>1.53</v>
+      </c>
+      <c r="IL60" t="n">
+        <v>1.49</v>
       </c>
     </row>
     <row r="61" ht="13.9" customHeight="1" s="3">
@@ -45535,8 +45715,11 @@
       <c r="IJ61" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="IK61" t="n">
+      <c r="IK61" s="2" t="n">
         <v>82</v>
+      </c>
+      <c r="IL61" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="62" ht="13.9" customHeight="1" s="3">
@@ -46274,8 +46457,11 @@
       <c r="IJ62" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="IK62" t="n">
+      <c r="IK62" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="IL62" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="63" ht="13.9" customHeight="1" s="3">
@@ -47013,8 +47199,11 @@
       <c r="IJ63" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IK63" t="n">
+      <c r="IK63" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IL63" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="64" ht="13.9" customHeight="1" s="3">
@@ -47752,8 +47941,11 @@
       <c r="IJ64" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="IK64" t="n">
+      <c r="IK64" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IL64" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="13.9" customHeight="1" s="3">
@@ -48491,8 +48683,11 @@
       <c r="IJ65" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IK65" t="n">
+      <c r="IK65" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IL65" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="13.9" customHeight="1" s="3">
@@ -49230,7 +49425,10 @@
       <c r="IJ66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IK66" t="n">
+      <c r="IK66" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IL66" t="n">
         <v>10</v>
       </c>
     </row>
@@ -49969,8 +50167,11 @@
       <c r="IJ67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IK67" t="n">
+      <c r="IK67" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IL67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.9" customHeight="1" s="3">
@@ -50708,8 +50909,11 @@
       <c r="IJ68" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IK68" t="n">
+      <c r="IK68" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IL68" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="69" ht="13.9" customHeight="1" s="3">
@@ -51447,8 +51651,11 @@
       <c r="IJ69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IK69" t="n">
+      <c r="IK69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IL69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.9" customHeight="1" s="3">
@@ -52186,8 +52393,11 @@
       <c r="IJ70" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IK70" t="n">
+      <c r="IK70" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IL70" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="13.9" customHeight="1" s="3">
@@ -52925,8 +53135,11 @@
       <c r="IJ71" s="2" t="n">
         <v>45.8</v>
       </c>
-      <c r="IK71" t="n">
+      <c r="IK71" s="2" t="n">
         <v>52.6</v>
+      </c>
+      <c r="IL71" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="72" ht="13.9" customHeight="1" s="3">
@@ -53664,8 +53877,11 @@
       <c r="IJ72" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IK72" t="n">
+      <c r="IK72" s="2" t="n">
         <v>35.7</v>
+      </c>
+      <c r="IL72" t="n">
+        <v>34.3</v>
       </c>
     </row>
     <row r="73" ht="13.9" customHeight="1" s="3">
@@ -54403,8 +54619,11 @@
       <c r="IJ73" s="2" t="n">
         <v>14.67</v>
       </c>
-      <c r="IK73" t="n">
+      <c r="IK73" s="2" t="n">
         <v>18.79</v>
+      </c>
+      <c r="IL73" t="n">
+        <v>13.72</v>
       </c>
     </row>
     <row r="74" ht="13.9" customHeight="1" s="3">
@@ -55142,8 +55361,11 @@
       <c r="IJ74" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IK74" t="n">
+      <c r="IK74" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IL74" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="75" ht="13.9" customHeight="1" s="3">
@@ -55881,8 +56103,11 @@
       <c r="IJ75" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="IK75" t="n">
+      <c r="IK75" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="IL75" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="76" ht="13.9" customHeight="1" s="3">
@@ -56620,8 +56845,11 @@
       <c r="IJ76" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="IK76" t="n">
+      <c r="IK76" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IL76" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="13.9" customHeight="1" s="3">
@@ -57359,8 +57587,11 @@
       <c r="IJ77" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IK77" t="n">
+      <c r="IK77" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="IL77" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="78" ht="13.9" customHeight="1" s="3">
@@ -58098,8 +58329,11 @@
       <c r="IJ78" s="2" t="n">
         <v>2.25</v>
       </c>
-      <c r="IK78" t="n">
+      <c r="IK78" s="2" t="n">
         <v>2.89</v>
+      </c>
+      <c r="IL78" t="n">
+        <v>2.24</v>
       </c>
     </row>
     <row r="79" ht="13.9" customHeight="1" s="3">
@@ -58837,8 +59071,11 @@
       <c r="IJ79" s="2" t="n">
         <v>4.91</v>
       </c>
-      <c r="IK79" t="n">
+      <c r="IK79" s="2" t="n">
         <v>5.5</v>
+      </c>
+      <c r="IL79" t="n">
+        <v>5.6</v>
       </c>
     </row>
     <row r="80" ht="13.9" customHeight="1" s="3">
@@ -59576,8 +59813,11 @@
       <c r="IJ80" s="2" t="n">
         <v>40.7</v>
       </c>
-      <c r="IK80" t="n">
+      <c r="IK80" s="2" t="n">
         <v>32.7</v>
+      </c>
+      <c r="IL80" t="n">
+        <v>41.1</v>
       </c>
     </row>
     <row r="81" ht="13.9" customHeight="1" s="3">
@@ -60315,8 +60555,11 @@
       <c r="IJ81" s="2" t="n">
         <v>20.4</v>
       </c>
-      <c r="IK81" t="n">
+      <c r="IK81" s="2" t="n">
         <v>18.2</v>
+      </c>
+      <c r="IL81" t="n">
+        <v>17.9</v>
       </c>
     </row>
     <row r="82" ht="13.9" customHeight="1" s="3">
@@ -61054,8 +61297,11 @@
       <c r="IJ82" s="2" t="n">
         <v>187.3</v>
       </c>
-      <c r="IK82" t="n">
+      <c r="IK82" s="2" t="n">
         <v>188</v>
+      </c>
+      <c r="IL82" t="n">
+        <v>188.9</v>
       </c>
     </row>
     <row r="83" ht="13.9" customHeight="1" s="3">
@@ -61793,8 +62039,11 @@
       <c r="IJ83" s="2" t="n">
         <v>85.3</v>
       </c>
-      <c r="IK83" t="n">
+      <c r="IK83" s="2" t="n">
         <v>87.2</v>
+      </c>
+      <c r="IL83" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="84" ht="13.9" customHeight="1" s="3">
@@ -62532,8 +62781,11 @@
       <c r="IJ84" s="2" t="n">
         <v>25.66</v>
       </c>
-      <c r="IK84" t="n">
+      <c r="IK84" s="2" t="n">
         <v>25.91</v>
+      </c>
+      <c r="IL84" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="13.9" customHeight="1" s="3">
@@ -63271,8 +63523,11 @@
       <c r="IJ85" s="2" t="n">
         <v>99.5</v>
       </c>
-      <c r="IK85" t="n">
+      <c r="IK85" s="2" t="n">
         <v>105.7</v>
+      </c>
+      <c r="IL85" t="n">
+        <v>78.90000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.9" customHeight="1" s="3">
@@ -64010,8 +64265,11 @@
       <c r="IJ86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IK86" t="n">
+      <c r="IK86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IL86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.9" customHeight="1" s="3">
@@ -64749,8 +65007,11 @@
       <c r="IJ87" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IK87" t="n">
+      <c r="IK87" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IL87" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="88" ht="13.9" customHeight="1" s="3">
@@ -65488,8 +65749,11 @@
       <c r="IJ88" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IK88" t="n">
+      <c r="IK88" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IL88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.9" customHeight="1" s="3">
@@ -66227,8 +66491,11 @@
       <c r="IJ89" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IK89" t="n">
+      <c r="IK89" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IL89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.9" customHeight="1" s="3">
@@ -66966,8 +67233,11 @@
       <c r="IJ90" s="2" t="n">
         <v>155</v>
       </c>
-      <c r="IK90" t="n">
+      <c r="IK90" s="2" t="n">
         <v>139</v>
+      </c>
+      <c r="IL90" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="91" ht="13.9" customHeight="1" s="3">
@@ -67705,7 +67975,10 @@
       <c r="IJ91" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="IK91" t="n">
+      <c r="IK91" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="IL91" t="n">
         <v>206</v>
       </c>
     </row>
@@ -68444,7 +68717,10 @@
       <c r="IJ92" s="2" t="n">
         <v>242</v>
       </c>
-      <c r="IK92" t="n">
+      <c r="IK92" s="2" t="n">
+        <v>251</v>
+      </c>
+      <c r="IL92" t="n">
         <v>251</v>
       </c>
     </row>
@@ -69183,8 +69459,11 @@
       <c r="IJ93" s="2" t="n">
         <v>68.8</v>
       </c>
-      <c r="IK93" t="n">
+      <c r="IK93" s="2" t="n">
         <v>70.3</v>
+      </c>
+      <c r="IL93" t="n">
+        <v>73.2</v>
       </c>
     </row>
     <row r="94" ht="13.9" customHeight="1" s="3">
@@ -69922,8 +70201,11 @@
       <c r="IJ94" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="IK94" t="n">
+      <c r="IK94" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="IL94" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="95" ht="13.9" customHeight="1" s="3">
@@ -70661,8 +70943,11 @@
       <c r="IJ95" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IK95" t="n">
+      <c r="IK95" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IL95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="13.9" customHeight="1" s="3">
@@ -71400,8 +71685,11 @@
       <c r="IJ96" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IK96" t="n">
+      <c r="IK96" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IL96" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="97" ht="13.9" customHeight="1" s="3">
@@ -72139,8 +72427,11 @@
       <c r="IJ97" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IK97" t="n">
+      <c r="IK97" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IL97" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="98" ht="13.9" customHeight="1" s="3">
@@ -72878,8 +73169,11 @@
       <c r="IJ98" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="IK98" t="n">
+      <c r="IK98" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IL98" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="13.9" customHeight="1" s="3">
@@ -73617,8 +73911,11 @@
       <c r="IJ99" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="IK99" t="n">
+      <c r="IK99" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="IL99" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="100" ht="13.9" customHeight="1" s="3">
@@ -74356,7 +74653,10 @@
       <c r="IJ100" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IK100" t="n">
+      <c r="IK100" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IL100" t="n">
         <v>5</v>
       </c>
     </row>
@@ -75095,8 +75395,11 @@
       <c r="IJ101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IK101" t="n">
+      <c r="IK101" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IL101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.9" customHeight="1" s="3">
@@ -75834,8 +76137,11 @@
       <c r="IJ102" s="2" t="n">
         <v>63.6</v>
       </c>
-      <c r="IK102" t="n">
+      <c r="IK102" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="IL102" t="n">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Brisbane_stats.xlsx
+++ b/django_AFL_ML/Data/Brisbane_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IL102"/>
+  <dimension ref="A1:IM102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL36" activeCellId="0" sqref="IL36"/>
@@ -1198,8 +1198,11 @@
       <c r="IK1" s="2" t="n">
         <v>10549</v>
       </c>
-      <c r="IL1" t="n">
+      <c r="IL1" s="2" t="n">
         <v>10556</v>
+      </c>
+      <c r="IM1" t="n">
+        <v>10567</v>
       </c>
     </row>
     <row r="2" ht="13.9" customHeight="1" s="3">
@@ -1940,7 +1943,10 @@
       <c r="IK2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IL2" t="n">
+      <c r="IL2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IM2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2682,8 +2688,11 @@
       <c r="IK3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IL3" t="n">
+      <c r="IL3" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="13.9" customHeight="1" s="3">
@@ -3424,8 +3433,11 @@
       <c r="IK4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IL4" t="n">
+      <c r="IL4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.9" customHeight="1" s="3">
@@ -4166,8 +4178,11 @@
       <c r="IK5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IL5" t="n">
+      <c r="IL5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IM5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.9" customHeight="1" s="3">
@@ -4908,8 +4923,11 @@
       <c r="IK6" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="IL6" t="n">
+      <c r="IL6" s="2" t="n">
         <v>97</v>
+      </c>
+      <c r="IM6" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="7" ht="13.9" customHeight="1" s="3">
@@ -5650,8 +5668,11 @@
       <c r="IK7" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="IL7" t="n">
+      <c r="IL7" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="IM7" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="8" ht="13.9" customHeight="1" s="3">
@@ -6392,8 +6413,11 @@
       <c r="IK8" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IL8" t="n">
+      <c r="IL8" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IM8" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" s="3">
@@ -7134,7 +7158,10 @@
       <c r="IK9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IL9" t="n">
+      <c r="IL9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7876,8 +7903,11 @@
       <c r="IK10" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IL10" t="n">
+      <c r="IL10" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IM10" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="13.9" customHeight="1" s="3">
@@ -8618,8 +8648,11 @@
       <c r="IK11" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="IL11" t="n">
+      <c r="IL11" s="2" t="n">
         <v>226</v>
+      </c>
+      <c r="IM11" t="n">
+        <v>263</v>
       </c>
     </row>
     <row r="12" ht="13.9" customHeight="1" s="3">
@@ -9360,8 +9393,11 @@
       <c r="IK12" s="2" t="n">
         <v>123</v>
       </c>
-      <c r="IL12" t="n">
+      <c r="IL12" s="2" t="n">
         <v>125</v>
+      </c>
+      <c r="IM12" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="13" ht="13.9" customHeight="1" s="3">
@@ -10102,8 +10138,11 @@
       <c r="IK13" s="2" t="n">
         <v>329</v>
       </c>
-      <c r="IL13" t="n">
+      <c r="IL13" s="2" t="n">
         <v>351</v>
+      </c>
+      <c r="IM13" t="n">
+        <v>398</v>
       </c>
     </row>
     <row r="14" ht="13.9" customHeight="1" s="3">
@@ -10844,8 +10883,11 @@
       <c r="IK14" s="2" t="n">
         <v>1.67</v>
       </c>
-      <c r="IL14" t="n">
+      <c r="IL14" s="2" t="n">
         <v>1.81</v>
+      </c>
+      <c r="IM14" t="n">
+        <v>1.95</v>
       </c>
     </row>
     <row r="15" ht="13.9" customHeight="1" s="3">
@@ -11586,8 +11628,11 @@
       <c r="IK15" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="IL15" t="n">
+      <c r="IL15" s="2" t="n">
         <v>104</v>
+      </c>
+      <c r="IM15" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="16" ht="13.9" customHeight="1" s="3">
@@ -12328,8 +12373,11 @@
       <c r="IK16" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="IL16" t="n">
+      <c r="IL16" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IM16" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="17" ht="13.9" customHeight="1" s="3">
@@ -13070,8 +13118,11 @@
       <c r="IK17" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="IL17" t="n">
+      <c r="IL17" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IM17" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="13.9" customHeight="1" s="3">
@@ -13812,8 +13863,11 @@
       <c r="IK18" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IL18" t="n">
+      <c r="IL18" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IM18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="13.9" customHeight="1" s="3">
@@ -14554,8 +14608,11 @@
       <c r="IK19" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IL19" t="n">
+      <c r="IL19" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="IM19" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="13.9" customHeight="1" s="3">
@@ -15296,8 +15353,11 @@
       <c r="IK20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IL20" t="n">
+      <c r="IL20" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IM20" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="21" ht="13.9" customHeight="1" s="3">
@@ -16038,8 +16098,11 @@
       <c r="IK21" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IL21" t="n">
+      <c r="IL21" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IM21" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="22" ht="13.9" customHeight="1" s="3">
@@ -16780,8 +16843,11 @@
       <c r="IK22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IL22" t="n">
+      <c r="IL22" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IM22" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="23" ht="13.9" customHeight="1" s="3">
@@ -17522,7 +17588,10 @@
       <c r="IK23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IL23" t="n">
+      <c r="IL23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -18264,8 +18333,11 @@
       <c r="IK24" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IL24" t="n">
+      <c r="IL24" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IM24" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="25" ht="13.9" customHeight="1" s="3">
@@ -19006,8 +19078,11 @@
       <c r="IK25" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IL25" t="n">
+      <c r="IL25" s="2" t="n">
         <v>68.2</v>
+      </c>
+      <c r="IM25" t="n">
+        <v>56.1</v>
       </c>
     </row>
     <row r="26" ht="13.9" customHeight="1" s="3">
@@ -19748,8 +19823,11 @@
       <c r="IK26" s="2" t="n">
         <v>29.91</v>
       </c>
-      <c r="IL26" t="n">
+      <c r="IL26" s="2" t="n">
         <v>23.4</v>
+      </c>
+      <c r="IM26" t="n">
+        <v>17.3</v>
       </c>
     </row>
     <row r="27" ht="13.9" customHeight="1" s="3">
@@ -20490,8 +20568,11 @@
       <c r="IK27" s="2" t="n">
         <v>13.16</v>
       </c>
-      <c r="IL27" t="n">
+      <c r="IL27" s="2" t="n">
         <v>15.95</v>
+      </c>
+      <c r="IM27" t="n">
+        <v>9.710000000000001</v>
       </c>
     </row>
     <row r="28" ht="13.9" customHeight="1" s="3">
@@ -21232,8 +21313,11 @@
       <c r="IK28" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IL28" t="n">
+      <c r="IL28" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IM28" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="13.9" customHeight="1" s="3">
@@ -21974,8 +22058,11 @@
       <c r="IK29" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="IL29" t="n">
+      <c r="IL29" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="IM29" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="30" ht="13.9" customHeight="1" s="3">
@@ -22716,8 +22803,11 @@
       <c r="IK30" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IL30" t="n">
+      <c r="IL30" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IM30" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="13.9" customHeight="1" s="3">
@@ -23458,8 +23548,11 @@
       <c r="IK31" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="IL31" t="n">
+      <c r="IL31" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="IM31" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="32" ht="13.9" customHeight="1" s="3">
@@ -24200,8 +24293,11 @@
       <c r="IK32" s="2" t="n">
         <v>2.08</v>
       </c>
-      <c r="IL32" t="n">
+      <c r="IL32" s="2" t="n">
         <v>2.36</v>
+      </c>
+      <c r="IM32" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="33" ht="13.9" customHeight="1" s="3">
@@ -24942,8 +25038,11 @@
       <c r="IK33" s="2" t="n">
         <v>4.73</v>
       </c>
-      <c r="IL33" t="n">
+      <c r="IL33" s="2" t="n">
         <v>3.47</v>
+      </c>
+      <c r="IM33" t="n">
+        <v>3.39</v>
       </c>
     </row>
     <row r="34" ht="13.9" customHeight="1" s="3">
@@ -25684,8 +25783,11 @@
       <c r="IK34" s="2" t="n">
         <v>42.3</v>
       </c>
-      <c r="IL34" t="n">
+      <c r="IL34" s="2" t="n">
         <v>40.4</v>
+      </c>
+      <c r="IM34" t="n">
+        <v>51.3</v>
       </c>
     </row>
     <row r="35" ht="13.9" customHeight="1" s="3">
@@ -26426,8 +26528,11 @@
       <c r="IK35" s="2" t="n">
         <v>21.2</v>
       </c>
-      <c r="IL35" t="n">
+      <c r="IL35" s="2" t="n">
         <v>28.8</v>
+      </c>
+      <c r="IM35" t="n">
+        <v>29.5</v>
       </c>
     </row>
     <row r="36" ht="13.9" customHeight="1" s="3">
@@ -27168,8 +27273,11 @@
       <c r="IK36" s="2" t="n">
         <v>187.7</v>
       </c>
-      <c r="IL36" t="n">
+      <c r="IL36" s="2" t="n">
         <v>187.9</v>
+      </c>
+      <c r="IM36" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="37" ht="13.9" customHeight="1" s="3">
@@ -27910,8 +28018,11 @@
       <c r="IK37" s="2" t="n">
         <v>88.7</v>
       </c>
-      <c r="IL37" t="n">
+      <c r="IL37" s="2" t="n">
         <v>88.59999999999999</v>
+      </c>
+      <c r="IM37" t="n">
+        <v>89.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.9" customHeight="1" s="3">
@@ -28652,8 +28763,11 @@
       <c r="IK38" s="2" t="n">
         <v>26.58</v>
       </c>
-      <c r="IL38" t="n">
+      <c r="IL38" s="2" t="n">
         <v>26.33</v>
+      </c>
+      <c r="IM38" t="n">
+        <v>26.91</v>
       </c>
     </row>
     <row r="39" ht="13.9" customHeight="1" s="3">
@@ -29394,8 +29508,11 @@
       <c r="IK39" s="2" t="n">
         <v>109.3</v>
       </c>
-      <c r="IL39" t="n">
+      <c r="IL39" s="2" t="n">
         <v>104.7</v>
+      </c>
+      <c r="IM39" t="n">
+        <v>116.1</v>
       </c>
     </row>
     <row r="40" ht="13.9" customHeight="1" s="3">
@@ -30136,8 +30253,11 @@
       <c r="IK40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IL40" t="n">
+      <c r="IL40" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IM40" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="41" ht="13.9" customHeight="1" s="3">
@@ -30878,8 +30998,11 @@
       <c r="IK41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IL41" t="n">
+      <c r="IL41" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IM41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="13.9" customHeight="1" s="3">
@@ -31620,7 +31743,10 @@
       <c r="IK42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IL42" t="n">
+      <c r="IL42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IM42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -32362,8 +32488,11 @@
       <c r="IK43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IL43" t="n">
+      <c r="IL43" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IM43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.9" customHeight="1" s="3">
@@ -33104,8 +33233,11 @@
       <c r="IK44" s="2" t="n">
         <v>141</v>
       </c>
-      <c r="IL44" t="n">
+      <c r="IL44" s="2" t="n">
         <v>133</v>
+      </c>
+      <c r="IM44" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="45" ht="13.9" customHeight="1" s="3">
@@ -33846,8 +33978,11 @@
       <c r="IK45" s="2" t="n">
         <v>194</v>
       </c>
-      <c r="IL45" t="n">
+      <c r="IL45" s="2" t="n">
         <v>205</v>
+      </c>
+      <c r="IM45" t="n">
+        <v>243</v>
       </c>
     </row>
     <row r="46" ht="13.9" customHeight="1" s="3">
@@ -34588,8 +34723,11 @@
       <c r="IK46" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="IL46" t="n">
+      <c r="IL46" s="2" t="n">
         <v>270</v>
+      </c>
+      <c r="IM46" t="n">
+        <v>299</v>
       </c>
     </row>
     <row r="47" ht="13.9" customHeight="1" s="3">
@@ -35330,8 +35468,11 @@
       <c r="IK47" s="2" t="n">
         <v>68.09999999999999</v>
       </c>
-      <c r="IL47" t="n">
+      <c r="IL47" s="2" t="n">
         <v>76.90000000000001</v>
+      </c>
+      <c r="IM47" t="n">
+        <v>75.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.9" customHeight="1" s="3">
@@ -36072,8 +36213,11 @@
       <c r="IK48" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="IL48" t="n">
+      <c r="IL48" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="IM48" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="49" ht="13.9" customHeight="1" s="3">
@@ -36814,8 +36958,11 @@
       <c r="IK49" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IL49" t="n">
+      <c r="IL49" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IM49" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="50" ht="13.9" customHeight="1" s="3">
@@ -37556,8 +37703,11 @@
       <c r="IK50" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IL50" t="n">
+      <c r="IL50" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IM50" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="13.9" customHeight="1" s="3">
@@ -38298,8 +38448,11 @@
       <c r="IK51" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IL51" t="n">
+      <c r="IL51" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IM51" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="52" ht="13.9" customHeight="1" s="3">
@@ -39040,8 +39193,11 @@
       <c r="IK52" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IL52" t="n">
+      <c r="IL52" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IM52" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="13.9" customHeight="1" s="3">
@@ -39782,8 +39938,11 @@
       <c r="IK53" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IL53" t="n">
+      <c r="IL53" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IM53" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="54" ht="13.9" customHeight="1" s="3">
@@ -40524,8 +40683,11 @@
       <c r="IK54" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IL54" t="n">
+      <c r="IL54" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IM54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.9" customHeight="1" s="3">
@@ -41266,8 +41428,11 @@
       <c r="IK55" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IL55" t="n">
+      <c r="IL55" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IM55" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="56" ht="13.9" customHeight="1" s="3">
@@ -42008,8 +42173,11 @@
       <c r="IK56" s="2" t="n">
         <v>81.8</v>
       </c>
-      <c r="IL56" t="n">
+      <c r="IL56" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="IM56" t="n">
+        <v>73.90000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.9" customHeight="1" s="3">
@@ -42750,8 +42918,11 @@
       <c r="IK57" s="2" t="n">
         <v>216</v>
       </c>
-      <c r="IL57" t="n">
+      <c r="IL57" s="2" t="n">
         <v>205</v>
+      </c>
+      <c r="IM57" t="n">
+        <v>185</v>
       </c>
     </row>
     <row r="58" ht="13.9" customHeight="1" s="3">
@@ -43492,8 +43663,11 @@
       <c r="IK58" s="2" t="n">
         <v>141</v>
       </c>
-      <c r="IL58" t="n">
+      <c r="IL58" s="2" t="n">
         <v>138</v>
+      </c>
+      <c r="IM58" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="59" ht="13.9" customHeight="1" s="3">
@@ -44234,8 +44408,11 @@
       <c r="IK59" s="2" t="n">
         <v>357</v>
       </c>
-      <c r="IL59" t="n">
+      <c r="IL59" s="2" t="n">
         <v>343</v>
+      </c>
+      <c r="IM59" t="n">
+        <v>316</v>
       </c>
     </row>
     <row r="60" ht="13.9" customHeight="1" s="3">
@@ -44976,8 +45153,11 @@
       <c r="IK60" s="2" t="n">
         <v>1.53</v>
       </c>
-      <c r="IL60" t="n">
+      <c r="IL60" s="2" t="n">
         <v>1.49</v>
+      </c>
+      <c r="IM60" t="n">
+        <v>1.41</v>
       </c>
     </row>
     <row r="61" ht="13.9" customHeight="1" s="3">
@@ -45718,8 +45898,11 @@
       <c r="IK61" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="IL61" t="n">
+      <c r="IL61" s="2" t="n">
         <v>89</v>
+      </c>
+      <c r="IM61" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="62" ht="13.9" customHeight="1" s="3">
@@ -46460,8 +46643,11 @@
       <c r="IK62" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IL62" t="n">
+      <c r="IL62" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IM62" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="63" ht="13.9" customHeight="1" s="3">
@@ -47202,8 +47388,11 @@
       <c r="IK63" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IL63" t="n">
+      <c r="IL63" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IM63" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="64" ht="13.9" customHeight="1" s="3">
@@ -47944,8 +48133,11 @@
       <c r="IK64" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IL64" t="n">
+      <c r="IL64" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="IM64" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="13.9" customHeight="1" s="3">
@@ -48686,8 +48878,11 @@
       <c r="IK65" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IL65" t="n">
+      <c r="IL65" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IM65" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="13.9" customHeight="1" s="3">
@@ -49428,8 +49623,11 @@
       <c r="IK66" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IL66" t="n">
+      <c r="IL66" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IM66" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="67" ht="13.9" customHeight="1" s="3">
@@ -50170,8 +50368,11 @@
       <c r="IK67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IL67" t="n">
+      <c r="IL67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IM67" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="68" ht="13.9" customHeight="1" s="3">
@@ -50912,8 +51113,11 @@
       <c r="IK68" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IL68" t="n">
+      <c r="IL68" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IM68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.9" customHeight="1" s="3">
@@ -51654,8 +51858,11 @@
       <c r="IK69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IL69" t="n">
+      <c r="IL69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IM69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.9" customHeight="1" s="3">
@@ -52396,8 +52603,11 @@
       <c r="IK70" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IL70" t="n">
+      <c r="IL70" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IM70" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="71" ht="13.9" customHeight="1" s="3">
@@ -53138,8 +53348,11 @@
       <c r="IK71" s="2" t="n">
         <v>52.6</v>
       </c>
-      <c r="IL71" t="n">
+      <c r="IL71" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IM71" t="n">
+        <v>53.8</v>
       </c>
     </row>
     <row r="72" ht="13.9" customHeight="1" s="3">
@@ -53880,8 +54093,11 @@
       <c r="IK72" s="2" t="n">
         <v>35.7</v>
       </c>
-      <c r="IL72" t="n">
+      <c r="IL72" s="2" t="n">
         <v>34.3</v>
+      </c>
+      <c r="IM72" t="n">
+        <v>45.14</v>
       </c>
     </row>
     <row r="73" ht="13.9" customHeight="1" s="3">
@@ -54622,8 +54838,11 @@
       <c r="IK73" s="2" t="n">
         <v>18.79</v>
       </c>
-      <c r="IL73" t="n">
+      <c r="IL73" s="2" t="n">
         <v>13.72</v>
+      </c>
+      <c r="IM73" t="n">
+        <v>24.31</v>
       </c>
     </row>
     <row r="74" ht="13.9" customHeight="1" s="3">
@@ -55364,8 +55583,11 @@
       <c r="IK74" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IL74" t="n">
+      <c r="IL74" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IM74" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="75" ht="13.9" customHeight="1" s="3">
@@ -56106,8 +56328,11 @@
       <c r="IK75" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="IL75" t="n">
+      <c r="IL75" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="IM75" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="76" ht="13.9" customHeight="1" s="3">
@@ -56848,8 +57073,11 @@
       <c r="IK76" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IL76" t="n">
+      <c r="IL76" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="IM76" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="77" ht="13.9" customHeight="1" s="3">
@@ -57590,8 +57818,11 @@
       <c r="IK77" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="IL77" t="n">
+      <c r="IL77" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IM77" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="78" ht="13.9" customHeight="1" s="3">
@@ -58332,8 +58563,11 @@
       <c r="IK78" s="2" t="n">
         <v>2.89</v>
       </c>
-      <c r="IL78" t="n">
+      <c r="IL78" s="2" t="n">
         <v>2.24</v>
+      </c>
+      <c r="IM78" t="n">
+        <v>3.08</v>
       </c>
     </row>
     <row r="79" ht="13.9" customHeight="1" s="3">
@@ -59074,8 +59308,11 @@
       <c r="IK79" s="2" t="n">
         <v>5.5</v>
       </c>
-      <c r="IL79" t="n">
+      <c r="IL79" s="2" t="n">
         <v>5.6</v>
+      </c>
+      <c r="IM79" t="n">
+        <v>5.71</v>
       </c>
     </row>
     <row r="80" ht="13.9" customHeight="1" s="3">
@@ -59816,8 +60053,11 @@
       <c r="IK80" s="2" t="n">
         <v>32.7</v>
       </c>
-      <c r="IL80" t="n">
+      <c r="IL80" s="2" t="n">
         <v>41.1</v>
+      </c>
+      <c r="IM80" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="81" ht="13.9" customHeight="1" s="3">
@@ -60558,8 +60798,11 @@
       <c r="IK81" s="2" t="n">
         <v>18.2</v>
       </c>
-      <c r="IL81" t="n">
+      <c r="IL81" s="2" t="n">
         <v>17.9</v>
+      </c>
+      <c r="IM81" t="n">
+        <v>17.5</v>
       </c>
     </row>
     <row r="82" ht="13.9" customHeight="1" s="3">
@@ -61300,8 +61543,11 @@
       <c r="IK82" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="IL82" t="n">
+      <c r="IL82" s="2" t="n">
         <v>188.9</v>
+      </c>
+      <c r="IM82" t="n">
+        <v>189.5</v>
       </c>
     </row>
     <row r="83" ht="13.9" customHeight="1" s="3">
@@ -62042,8 +62288,11 @@
       <c r="IK83" s="2" t="n">
         <v>87.2</v>
       </c>
-      <c r="IL83" t="n">
+      <c r="IL83" s="2" t="n">
         <v>86.7</v>
+      </c>
+      <c r="IM83" t="n">
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.9" customHeight="1" s="3">
@@ -62784,8 +63033,11 @@
       <c r="IK84" s="2" t="n">
         <v>25.91</v>
       </c>
-      <c r="IL84" t="n">
+      <c r="IL84" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IM84" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="85" ht="13.9" customHeight="1" s="3">
@@ -63526,8 +63778,11 @@
       <c r="IK85" s="2" t="n">
         <v>105.7</v>
       </c>
-      <c r="IL85" t="n">
+      <c r="IL85" s="2" t="n">
         <v>78.90000000000001</v>
+      </c>
+      <c r="IM85" t="n">
+        <v>82.2</v>
       </c>
     </row>
     <row r="86" ht="13.9" customHeight="1" s="3">
@@ -64268,8 +64523,11 @@
       <c r="IK86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IL86" t="n">
+      <c r="IL86" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IM86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="13.9" customHeight="1" s="3">
@@ -65010,8 +65268,11 @@
       <c r="IK87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IL87" t="n">
+      <c r="IL87" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IM87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.9" customHeight="1" s="3">
@@ -65752,8 +66013,11 @@
       <c r="IK88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IL88" t="n">
+      <c r="IL88" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IM88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.9" customHeight="1" s="3">
@@ -66494,8 +66758,11 @@
       <c r="IK89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IL89" t="n">
+      <c r="IL89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IM89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90" ht="13.9" customHeight="1" s="3">
@@ -67236,8 +67503,11 @@
       <c r="IK90" s="2" t="n">
         <v>139</v>
       </c>
-      <c r="IL90" t="n">
+      <c r="IL90" s="2" t="n">
         <v>138</v>
+      </c>
+      <c r="IM90" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="91" ht="13.9" customHeight="1" s="3">
@@ -67978,8 +68248,11 @@
       <c r="IK91" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="IL91" t="n">
+      <c r="IL91" s="2" t="n">
         <v>206</v>
+      </c>
+      <c r="IM91" t="n">
+        <v>184</v>
       </c>
     </row>
     <row r="92" ht="13.9" customHeight="1" s="3">
@@ -68720,8 +68993,11 @@
       <c r="IK92" s="2" t="n">
         <v>251</v>
       </c>
-      <c r="IL92" t="n">
+      <c r="IL92" s="2" t="n">
         <v>251</v>
+      </c>
+      <c r="IM92" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="93" ht="13.9" customHeight="1" s="3">
@@ -69462,8 +69738,11 @@
       <c r="IK93" s="2" t="n">
         <v>70.3</v>
       </c>
-      <c r="IL93" t="n">
+      <c r="IL93" s="2" t="n">
         <v>73.2</v>
+      </c>
+      <c r="IM93" t="n">
+        <v>69.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.9" customHeight="1" s="3">
@@ -70204,8 +70483,11 @@
       <c r="IK94" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="IL94" t="n">
+      <c r="IL94" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="IM94" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="95" ht="13.9" customHeight="1" s="3">
@@ -70946,8 +71228,11 @@
       <c r="IK95" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IL95" t="n">
+      <c r="IL95" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IM95" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="96" ht="13.9" customHeight="1" s="3">
@@ -71688,8 +71973,11 @@
       <c r="IK96" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IL96" t="n">
+      <c r="IL96" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IM96" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="97" ht="13.9" customHeight="1" s="3">
@@ -72430,8 +72718,11 @@
       <c r="IK97" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IL97" t="n">
+      <c r="IL97" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IM97" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="98" ht="13.9" customHeight="1" s="3">
@@ -73172,8 +73463,11 @@
       <c r="IK98" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IL98" t="n">
+      <c r="IL98" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="IM98" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="99" ht="13.9" customHeight="1" s="3">
@@ -73914,8 +74208,11 @@
       <c r="IK99" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="IL99" t="n">
+      <c r="IL99" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IM99" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="100" ht="13.9" customHeight="1" s="3">
@@ -74656,8 +74953,11 @@
       <c r="IK100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IL100" t="n">
+      <c r="IL100" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IM100" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="101" ht="13.9" customHeight="1" s="3">
@@ -75398,8 +75698,11 @@
       <c r="IK101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IL101" t="n">
+      <c r="IL101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IM101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="102" ht="13.9" customHeight="1" s="3">
@@ -76140,8 +76443,11 @@
       <c r="IK102" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IL102" t="n">
+      <c r="IL102" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="IM102" t="n">
+        <v>42.9</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Brisbane_stats.xlsx
+++ b/django_AFL_ML/Data/Brisbane_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IM102"/>
+  <dimension ref="A1:IN102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL36" activeCellId="0" sqref="IL36"/>
@@ -1201,8 +1201,11 @@
       <c r="IL1" s="2" t="n">
         <v>10556</v>
       </c>
-      <c r="IM1" t="n">
+      <c r="IM1" s="2" t="n">
         <v>10567</v>
+      </c>
+      <c r="IN1" t="n">
+        <v>10572</v>
       </c>
     </row>
     <row r="2" ht="13.9" customHeight="1" s="3">
@@ -1946,7 +1949,10 @@
       <c r="IL2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IM2" t="n">
+      <c r="IM2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IN2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2691,8 +2697,11 @@
       <c r="IL3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IM3" t="n">
+      <c r="IM3" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="13.9" customHeight="1" s="3">
@@ -3436,8 +3445,11 @@
       <c r="IL4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IM4" t="n">
+      <c r="IM4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.9" customHeight="1" s="3">
@@ -4181,7 +4193,10 @@
       <c r="IL5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IM5" t="n">
+      <c r="IM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4926,8 +4941,11 @@
       <c r="IL6" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="IM6" t="n">
+      <c r="IM6" s="2" t="n">
         <v>156</v>
+      </c>
+      <c r="IN6" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="7" ht="13.9" customHeight="1" s="3">
@@ -5671,8 +5689,11 @@
       <c r="IL7" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="IM7" t="n">
+      <c r="IM7" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="IN7" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="8" ht="13.9" customHeight="1" s="3">
@@ -6416,8 +6437,11 @@
       <c r="IL8" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IM8" t="n">
+      <c r="IM8" s="2" t="n">
         <v>108</v>
+      </c>
+      <c r="IN8" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" s="3">
@@ -7161,8 +7185,11 @@
       <c r="IL9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IM9" t="n">
+      <c r="IM9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IN9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.9" customHeight="1" s="3">
@@ -7906,8 +7933,11 @@
       <c r="IL10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IM10" t="n">
+      <c r="IM10" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IN10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11" ht="13.9" customHeight="1" s="3">
@@ -8651,8 +8681,11 @@
       <c r="IL11" s="2" t="n">
         <v>226</v>
       </c>
-      <c r="IM11" t="n">
+      <c r="IM11" s="2" t="n">
         <v>263</v>
+      </c>
+      <c r="IN11" t="n">
+        <v>222</v>
       </c>
     </row>
     <row r="12" ht="13.9" customHeight="1" s="3">
@@ -9396,8 +9429,11 @@
       <c r="IL12" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="IM12" t="n">
+      <c r="IM12" s="2" t="n">
         <v>135</v>
+      </c>
+      <c r="IN12" t="n">
+        <v>113</v>
       </c>
     </row>
     <row r="13" ht="13.9" customHeight="1" s="3">
@@ -10141,8 +10177,11 @@
       <c r="IL13" s="2" t="n">
         <v>351</v>
       </c>
-      <c r="IM13" t="n">
+      <c r="IM13" s="2" t="n">
         <v>398</v>
+      </c>
+      <c r="IN13" t="n">
+        <v>335</v>
       </c>
     </row>
     <row r="14" ht="13.9" customHeight="1" s="3">
@@ -10886,8 +10925,11 @@
       <c r="IL14" s="2" t="n">
         <v>1.81</v>
       </c>
-      <c r="IM14" t="n">
+      <c r="IM14" s="2" t="n">
         <v>1.95</v>
+      </c>
+      <c r="IN14" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="15" ht="13.9" customHeight="1" s="3">
@@ -11631,8 +11673,11 @@
       <c r="IL15" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="IM15" t="n">
+      <c r="IM15" s="2" t="n">
         <v>127</v>
+      </c>
+      <c r="IN15" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="16" ht="13.9" customHeight="1" s="3">
@@ -12376,8 +12421,11 @@
       <c r="IL16" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IM16" t="n">
+      <c r="IM16" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IN16" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="13.9" customHeight="1" s="3">
@@ -13121,8 +13169,11 @@
       <c r="IL17" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IM17" t="n">
+      <c r="IM17" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IN17" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="13.9" customHeight="1" s="3">
@@ -13866,8 +13917,11 @@
       <c r="IL18" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IM18" t="n">
+      <c r="IM18" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IN18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="13.9" customHeight="1" s="3">
@@ -14611,7 +14665,10 @@
       <c r="IL19" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="IM19" t="n">
+      <c r="IM19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="IN19" t="n">
         <v>18</v>
       </c>
     </row>
@@ -15356,8 +15413,11 @@
       <c r="IL20" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IM20" t="n">
+      <c r="IM20" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="IN20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.9" customHeight="1" s="3">
@@ -16101,8 +16161,11 @@
       <c r="IL21" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IM21" t="n">
+      <c r="IM21" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IN21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.9" customHeight="1" s="3">
@@ -16846,8 +16909,11 @@
       <c r="IL22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IM22" t="n">
+      <c r="IM22" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IN22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23" ht="13.9" customHeight="1" s="3">
@@ -17591,8 +17657,11 @@
       <c r="IL23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IM23" t="n">
+      <c r="IM23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IN23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="13.9" customHeight="1" s="3">
@@ -18336,8 +18405,11 @@
       <c r="IL24" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IM24" t="n">
+      <c r="IM24" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IN24" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="25" ht="13.9" customHeight="1" s="3">
@@ -19081,8 +19153,11 @@
       <c r="IL25" s="2" t="n">
         <v>68.2</v>
       </c>
-      <c r="IM25" t="n">
+      <c r="IM25" s="2" t="n">
         <v>56.1</v>
+      </c>
+      <c r="IN25" t="n">
+        <v>73.3</v>
       </c>
     </row>
     <row r="26" ht="13.9" customHeight="1" s="3">
@@ -19826,8 +19901,11 @@
       <c r="IL26" s="2" t="n">
         <v>23.4</v>
       </c>
-      <c r="IM26" t="n">
+      <c r="IM26" s="2" t="n">
         <v>17.3</v>
+      </c>
+      <c r="IN26" t="n">
+        <v>30.45</v>
       </c>
     </row>
     <row r="27" ht="13.9" customHeight="1" s="3">
@@ -20571,8 +20649,11 @@
       <c r="IL27" s="2" t="n">
         <v>15.95</v>
       </c>
-      <c r="IM27" t="n">
+      <c r="IM27" s="2" t="n">
         <v>9.710000000000001</v>
+      </c>
+      <c r="IN27" t="n">
+        <v>22.33</v>
       </c>
     </row>
     <row r="28" ht="13.9" customHeight="1" s="3">
@@ -21316,8 +21397,11 @@
       <c r="IL28" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IM28" t="n">
+      <c r="IM28" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IN28" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="13.9" customHeight="1" s="3">
@@ -22061,8 +22145,11 @@
       <c r="IL29" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="IM29" t="n">
+      <c r="IM29" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IN29" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="30" ht="13.9" customHeight="1" s="3">
@@ -22806,8 +22893,11 @@
       <c r="IL30" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IM30" t="n">
+      <c r="IM30" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IN30" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="31" ht="13.9" customHeight="1" s="3">
@@ -23551,8 +23641,11 @@
       <c r="IL31" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="IM31" t="n">
+      <c r="IM31" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="IN31" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="32" ht="13.9" customHeight="1" s="3">
@@ -24296,8 +24389,11 @@
       <c r="IL32" s="2" t="n">
         <v>2.36</v>
       </c>
-      <c r="IM32" t="n">
+      <c r="IM32" s="2" t="n">
         <v>1.9</v>
+      </c>
+      <c r="IN32" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="33" ht="13.9" customHeight="1" s="3">
@@ -25041,8 +25137,11 @@
       <c r="IL33" s="2" t="n">
         <v>3.47</v>
       </c>
-      <c r="IM33" t="n">
+      <c r="IM33" s="2" t="n">
         <v>3.39</v>
+      </c>
+      <c r="IN33" t="n">
+        <v>3.82</v>
       </c>
     </row>
     <row r="34" ht="13.9" customHeight="1" s="3">
@@ -25786,8 +25885,11 @@
       <c r="IL34" s="2" t="n">
         <v>40.4</v>
       </c>
-      <c r="IM34" t="n">
+      <c r="IM34" s="2" t="n">
         <v>51.3</v>
+      </c>
+      <c r="IN34" t="n">
+        <v>35.7</v>
       </c>
     </row>
     <row r="35" ht="13.9" customHeight="1" s="3">
@@ -26531,8 +26633,11 @@
       <c r="IL35" s="2" t="n">
         <v>28.8</v>
       </c>
-      <c r="IM35" t="n">
+      <c r="IM35" s="2" t="n">
         <v>29.5</v>
+      </c>
+      <c r="IN35" t="n">
+        <v>26.2</v>
       </c>
     </row>
     <row r="36" ht="13.9" customHeight="1" s="3">
@@ -27276,8 +27381,11 @@
       <c r="IL36" s="2" t="n">
         <v>187.9</v>
       </c>
-      <c r="IM36" t="n">
+      <c r="IM36" s="2" t="n">
         <v>188</v>
+      </c>
+      <c r="IN36" t="n">
+        <v>187.8</v>
       </c>
     </row>
     <row r="37" ht="13.9" customHeight="1" s="3">
@@ -28021,8 +28129,11 @@
       <c r="IL37" s="2" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="IM37" t="n">
+      <c r="IM37" s="2" t="n">
         <v>89.40000000000001</v>
+      </c>
+      <c r="IN37" t="n">
+        <v>88.7</v>
       </c>
     </row>
     <row r="38" ht="13.9" customHeight="1" s="3">
@@ -28766,8 +28877,11 @@
       <c r="IL38" s="2" t="n">
         <v>26.33</v>
       </c>
-      <c r="IM38" t="n">
+      <c r="IM38" s="2" t="n">
         <v>26.91</v>
+      </c>
+      <c r="IN38" t="n">
+        <v>26.74</v>
       </c>
     </row>
     <row r="39" ht="13.9" customHeight="1" s="3">
@@ -29511,8 +29625,11 @@
       <c r="IL39" s="2" t="n">
         <v>104.7</v>
       </c>
-      <c r="IM39" t="n">
+      <c r="IM39" s="2" t="n">
         <v>116.1</v>
+      </c>
+      <c r="IN39" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="40" ht="13.9" customHeight="1" s="3">
@@ -30256,8 +30373,11 @@
       <c r="IL40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IM40" t="n">
+      <c r="IM40" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IN40" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="41" ht="13.9" customHeight="1" s="3">
@@ -31001,8 +31121,11 @@
       <c r="IL41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IM41" t="n">
+      <c r="IM41" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IN41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.9" customHeight="1" s="3">
@@ -31746,7 +31869,10 @@
       <c r="IL42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IM42" t="n">
+      <c r="IM42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IN42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -32491,7 +32617,10 @@
       <c r="IL43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IM43" t="n">
+      <c r="IM43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IN43" t="n">
         <v>6</v>
       </c>
     </row>
@@ -33236,8 +33365,11 @@
       <c r="IL44" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="IM44" t="n">
+      <c r="IM44" s="2" t="n">
         <v>156</v>
+      </c>
+      <c r="IN44" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="45" ht="13.9" customHeight="1" s="3">
@@ -33981,8 +34113,11 @@
       <c r="IL45" s="2" t="n">
         <v>205</v>
       </c>
-      <c r="IM45" t="n">
+      <c r="IM45" s="2" t="n">
         <v>243</v>
+      </c>
+      <c r="IN45" t="n">
+        <v>195</v>
       </c>
     </row>
     <row r="46" ht="13.9" customHeight="1" s="3">
@@ -34726,8 +34861,11 @@
       <c r="IL46" s="2" t="n">
         <v>270</v>
       </c>
-      <c r="IM46" t="n">
+      <c r="IM46" s="2" t="n">
         <v>299</v>
+      </c>
+      <c r="IN46" t="n">
+        <v>244</v>
       </c>
     </row>
     <row r="47" ht="13.9" customHeight="1" s="3">
@@ -35471,8 +35609,11 @@
       <c r="IL47" s="2" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="IM47" t="n">
+      <c r="IM47" s="2" t="n">
         <v>75.09999999999999</v>
+      </c>
+      <c r="IN47" t="n">
+        <v>72.8</v>
       </c>
     </row>
     <row r="48" ht="13.9" customHeight="1" s="3">
@@ -36216,8 +36357,11 @@
       <c r="IL48" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="IM48" t="n">
+      <c r="IM48" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IN48" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="49" ht="13.9" customHeight="1" s="3">
@@ -36961,7 +37105,10 @@
       <c r="IL49" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IM49" t="n">
+      <c r="IM49" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="IN49" t="n">
         <v>20</v>
       </c>
     </row>
@@ -37706,8 +37853,11 @@
       <c r="IL50" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IM50" t="n">
+      <c r="IM50" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IN50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.9" customHeight="1" s="3">
@@ -38451,8 +38601,11 @@
       <c r="IL51" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IM51" t="n">
+      <c r="IM51" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IN51" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="13.9" customHeight="1" s="3">
@@ -39196,8 +39349,11 @@
       <c r="IL52" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IM52" t="n">
+      <c r="IM52" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IN52" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="53" ht="13.9" customHeight="1" s="3">
@@ -39941,8 +40097,11 @@
       <c r="IL53" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IM53" t="n">
+      <c r="IM53" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="IN53" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="54" ht="13.9" customHeight="1" s="3">
@@ -40686,8 +40845,11 @@
       <c r="IL54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IM54" t="n">
+      <c r="IM54" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IN54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.9" customHeight="1" s="3">
@@ -41431,8 +41593,11 @@
       <c r="IL55" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IM55" t="n">
+      <c r="IM55" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IN55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.9" customHeight="1" s="3">
@@ -42176,8 +42341,11 @@
       <c r="IL56" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="IM56" t="n">
+      <c r="IM56" s="2" t="n">
         <v>73.90000000000001</v>
+      </c>
+      <c r="IN56" t="n">
+        <v>90.90000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.9" customHeight="1" s="3">
@@ -42921,8 +43089,11 @@
       <c r="IL57" s="2" t="n">
         <v>205</v>
       </c>
-      <c r="IM57" t="n">
+      <c r="IM57" s="2" t="n">
         <v>185</v>
+      </c>
+      <c r="IN57" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="58" ht="13.9" customHeight="1" s="3">
@@ -43666,8 +43837,11 @@
       <c r="IL58" s="2" t="n">
         <v>138</v>
       </c>
-      <c r="IM58" t="n">
+      <c r="IM58" s="2" t="n">
         <v>131</v>
+      </c>
+      <c r="IN58" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="59" ht="13.9" customHeight="1" s="3">
@@ -44411,8 +44585,11 @@
       <c r="IL59" s="2" t="n">
         <v>343</v>
       </c>
-      <c r="IM59" t="n">
+      <c r="IM59" s="2" t="n">
         <v>316</v>
+      </c>
+      <c r="IN59" t="n">
+        <v>379</v>
       </c>
     </row>
     <row r="60" ht="13.9" customHeight="1" s="3">
@@ -45156,8 +45333,11 @@
       <c r="IL60" s="2" t="n">
         <v>1.49</v>
       </c>
-      <c r="IM60" t="n">
+      <c r="IM60" s="2" t="n">
         <v>1.41</v>
+      </c>
+      <c r="IN60" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row r="61" ht="13.9" customHeight="1" s="3">
@@ -45901,8 +46081,11 @@
       <c r="IL61" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="IM61" t="n">
+      <c r="IM61" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="IN61" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="62" ht="13.9" customHeight="1" s="3">
@@ -46646,8 +46829,11 @@
       <c r="IL62" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IM62" t="n">
+      <c r="IM62" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IN62" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="63" ht="13.9" customHeight="1" s="3">
@@ -47391,8 +47577,11 @@
       <c r="IL63" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IM63" t="n">
+      <c r="IM63" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IN63" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="64" ht="13.9" customHeight="1" s="3">
@@ -48136,7 +48325,10 @@
       <c r="IL64" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="IM64" t="n">
+      <c r="IM64" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="IN64" t="n">
         <v>18</v>
       </c>
     </row>
@@ -48881,8 +49073,11 @@
       <c r="IL65" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IM65" t="n">
+      <c r="IM65" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IN65" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="13.9" customHeight="1" s="3">
@@ -49626,8 +49821,11 @@
       <c r="IL66" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IM66" t="n">
+      <c r="IM66" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IN66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.9" customHeight="1" s="3">
@@ -50371,8 +50569,11 @@
       <c r="IL67" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IM67" t="n">
+      <c r="IM67" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IN67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.9" customHeight="1" s="3">
@@ -51116,8 +51317,11 @@
       <c r="IL68" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IM68" t="n">
+      <c r="IM68" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IN68" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="69" ht="13.9" customHeight="1" s="3">
@@ -51861,7 +52065,10 @@
       <c r="IL69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IM69" t="n">
+      <c r="IM69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IN69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -52606,8 +52813,11 @@
       <c r="IL70" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IM70" t="n">
+      <c r="IM70" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IN70" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="13.9" customHeight="1" s="3">
@@ -53351,8 +53561,11 @@
       <c r="IL71" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IM71" t="n">
+      <c r="IM71" s="2" t="n">
         <v>53.8</v>
+      </c>
+      <c r="IN71" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="72" ht="13.9" customHeight="1" s="3">
@@ -54096,8 +54309,11 @@
       <c r="IL72" s="2" t="n">
         <v>34.3</v>
       </c>
-      <c r="IM72" t="n">
+      <c r="IM72" s="2" t="n">
         <v>45.14</v>
+      </c>
+      <c r="IN72" t="n">
+        <v>34.45</v>
       </c>
     </row>
     <row r="73" ht="13.9" customHeight="1" s="3">
@@ -54841,8 +55057,11 @@
       <c r="IL73" s="2" t="n">
         <v>13.72</v>
       </c>
-      <c r="IM73" t="n">
+      <c r="IM73" s="2" t="n">
         <v>24.31</v>
+      </c>
+      <c r="IN73" t="n">
+        <v>15.16</v>
       </c>
     </row>
     <row r="74" ht="13.9" customHeight="1" s="3">
@@ -55586,8 +55805,11 @@
       <c r="IL74" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IM74" t="n">
+      <c r="IM74" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IN74" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="75" ht="13.9" customHeight="1" s="3">
@@ -56331,8 +56553,11 @@
       <c r="IL75" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="IM75" t="n">
+      <c r="IM75" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="IN75" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="76" ht="13.9" customHeight="1" s="3">
@@ -57076,8 +57301,11 @@
       <c r="IL76" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="IM76" t="n">
+      <c r="IM76" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IN76" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="77" ht="13.9" customHeight="1" s="3">
@@ -57821,8 +58049,11 @@
       <c r="IL77" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="IM77" t="n">
+      <c r="IM77" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IN77" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="78" ht="13.9" customHeight="1" s="3">
@@ -58566,8 +58797,11 @@
       <c r="IL78" s="2" t="n">
         <v>2.24</v>
       </c>
-      <c r="IM78" t="n">
+      <c r="IM78" s="2" t="n">
         <v>3.08</v>
+      </c>
+      <c r="IN78" t="n">
+        <v>2.36</v>
       </c>
     </row>
     <row r="79" ht="13.9" customHeight="1" s="3">
@@ -59311,8 +59545,11 @@
       <c r="IL79" s="2" t="n">
         <v>5.6</v>
       </c>
-      <c r="IM79" t="n">
+      <c r="IM79" s="2" t="n">
         <v>5.71</v>
+      </c>
+      <c r="IN79" t="n">
+        <v>5.36</v>
       </c>
     </row>
     <row r="80" ht="13.9" customHeight="1" s="3">
@@ -60056,8 +60293,11 @@
       <c r="IL80" s="2" t="n">
         <v>41.1</v>
       </c>
-      <c r="IM80" t="n">
+      <c r="IM80" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IN80" t="n">
+        <v>40.7</v>
       </c>
     </row>
     <row r="81" ht="13.9" customHeight="1" s="3">
@@ -60801,8 +61041,11 @@
       <c r="IL81" s="2" t="n">
         <v>17.9</v>
       </c>
-      <c r="IM81" t="n">
+      <c r="IM81" s="2" t="n">
         <v>17.5</v>
+      </c>
+      <c r="IN81" t="n">
+        <v>18.6</v>
       </c>
     </row>
     <row r="82" ht="13.9" customHeight="1" s="3">
@@ -61546,8 +61789,11 @@
       <c r="IL82" s="2" t="n">
         <v>188.9</v>
       </c>
-      <c r="IM82" t="n">
+      <c r="IM82" s="2" t="n">
         <v>189.5</v>
+      </c>
+      <c r="IN82" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="83" ht="13.9" customHeight="1" s="3">
@@ -62291,8 +62537,11 @@
       <c r="IL83" s="2" t="n">
         <v>86.7</v>
       </c>
-      <c r="IM83" t="n">
+      <c r="IM83" s="2" t="n">
         <v>86.09999999999999</v>
+      </c>
+      <c r="IN83" t="n">
+        <v>86.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.9" customHeight="1" s="3">
@@ -63036,8 +63285,11 @@
       <c r="IL84" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IM84" t="n">
+      <c r="IM84" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="IN84" t="n">
+        <v>27.24</v>
       </c>
     </row>
     <row r="85" ht="13.9" customHeight="1" s="3">
@@ -63781,8 +64033,11 @@
       <c r="IL85" s="2" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="IM85" t="n">
+      <c r="IM85" s="2" t="n">
         <v>82.2</v>
+      </c>
+      <c r="IN85" t="n">
+        <v>133.9</v>
       </c>
     </row>
     <row r="86" ht="13.9" customHeight="1" s="3">
@@ -64526,8 +64781,11 @@
       <c r="IL86" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IM86" t="n">
+      <c r="IM86" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IN86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.9" customHeight="1" s="3">
@@ -65271,7 +65529,10 @@
       <c r="IL87" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IM87" t="n">
+      <c r="IM87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IN87" t="n">
         <v>5</v>
       </c>
     </row>
@@ -66016,8 +66277,11 @@
       <c r="IL88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IM88" t="n">
+      <c r="IM88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IN88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.9" customHeight="1" s="3">
@@ -66761,8 +67025,11 @@
       <c r="IL89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IM89" t="n">
+      <c r="IM89" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IN89" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="90" ht="13.9" customHeight="1" s="3">
@@ -67506,8 +67773,11 @@
       <c r="IL90" s="2" t="n">
         <v>138</v>
       </c>
-      <c r="IM90" t="n">
+      <c r="IM90" s="2" t="n">
         <v>118</v>
+      </c>
+      <c r="IN90" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="91" ht="13.9" customHeight="1" s="3">
@@ -68251,8 +68521,11 @@
       <c r="IL91" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="IM91" t="n">
+      <c r="IM91" s="2" t="n">
         <v>184</v>
+      </c>
+      <c r="IN91" t="n">
+        <v>247</v>
       </c>
     </row>
     <row r="92" ht="13.9" customHeight="1" s="3">
@@ -68996,8 +69269,11 @@
       <c r="IL92" s="2" t="n">
         <v>251</v>
       </c>
-      <c r="IM92" t="n">
+      <c r="IM92" s="2" t="n">
         <v>220</v>
+      </c>
+      <c r="IN92" t="n">
+        <v>285</v>
       </c>
     </row>
     <row r="93" ht="13.9" customHeight="1" s="3">
@@ -69741,8 +70017,11 @@
       <c r="IL93" s="2" t="n">
         <v>73.2</v>
       </c>
-      <c r="IM93" t="n">
+      <c r="IM93" s="2" t="n">
         <v>69.59999999999999</v>
+      </c>
+      <c r="IN93" t="n">
+        <v>75.2</v>
       </c>
     </row>
     <row r="94" ht="13.9" customHeight="1" s="3">
@@ -70486,8 +70765,11 @@
       <c r="IL94" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="IM94" t="n">
+      <c r="IM94" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="IN94" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="95" ht="13.9" customHeight="1" s="3">
@@ -71231,8 +71513,11 @@
       <c r="IL95" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IM95" t="n">
+      <c r="IM95" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IN95" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="96" ht="13.9" customHeight="1" s="3">
@@ -71976,8 +72261,11 @@
       <c r="IL96" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IM96" t="n">
+      <c r="IM96" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IN96" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="97" ht="13.9" customHeight="1" s="3">
@@ -72721,8 +73009,11 @@
       <c r="IL97" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IM97" t="n">
+      <c r="IM97" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IN97" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="98" ht="13.9" customHeight="1" s="3">
@@ -73466,8 +73757,11 @@
       <c r="IL98" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="IM98" t="n">
+      <c r="IM98" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IN98" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="99" ht="13.9" customHeight="1" s="3">
@@ -74211,8 +74505,11 @@
       <c r="IL99" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IM99" t="n">
+      <c r="IM99" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="IN99" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="100" ht="13.9" customHeight="1" s="3">
@@ -74956,8 +75253,11 @@
       <c r="IL100" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IM100" t="n">
+      <c r="IM100" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IN100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.9" customHeight="1" s="3">
@@ -75701,8 +76001,11 @@
       <c r="IL101" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IM101" t="n">
+      <c r="IM101" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IN101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.9" customHeight="1" s="3">
@@ -76446,8 +76749,11 @@
       <c r="IL102" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="IM102" t="n">
+      <c r="IM102" s="2" t="n">
         <v>42.9</v>
+      </c>
+      <c r="IN102" t="n">
+        <v>72.7</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Brisbane_stats.xlsx
+++ b/django_AFL_ML/Data/Brisbane_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IN102"/>
+  <dimension ref="A1:IO102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL36" activeCellId="0" sqref="IL36"/>
@@ -1204,8 +1204,11 @@
       <c r="IM1" s="2" t="n">
         <v>10567</v>
       </c>
-      <c r="IN1" t="n">
+      <c r="IN1" s="2" t="n">
         <v>10572</v>
+      </c>
+      <c r="IO1" t="n">
+        <v>10580</v>
       </c>
     </row>
     <row r="2" ht="13.9" customHeight="1" s="3">
@@ -1952,7 +1955,10 @@
       <c r="IM2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IN2" t="n">
+      <c r="IN2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IO2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2700,8 +2706,11 @@
       <c r="IM3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IN3" t="n">
+      <c r="IN3" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="13.9" customHeight="1" s="3">
@@ -3448,8 +3457,11 @@
       <c r="IM4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IN4" t="n">
+      <c r="IN4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.9" customHeight="1" s="3">
@@ -4196,7 +4208,10 @@
       <c r="IM5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IN5" t="n">
+      <c r="IN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4944,8 +4959,11 @@
       <c r="IM6" s="2" t="n">
         <v>156</v>
       </c>
-      <c r="IN6" t="n">
+      <c r="IN6" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="IO6" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="7" ht="13.9" customHeight="1" s="3">
@@ -5692,8 +5710,11 @@
       <c r="IM7" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IN7" t="n">
+      <c r="IN7" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="IO7" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="8" ht="13.9" customHeight="1" s="3">
@@ -6440,8 +6461,11 @@
       <c r="IM8" s="2" t="n">
         <v>108</v>
       </c>
-      <c r="IN8" t="n">
+      <c r="IN8" s="2" t="n">
         <v>-10</v>
+      </c>
+      <c r="IO8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" s="3">
@@ -7188,8 +7212,11 @@
       <c r="IM9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IN9" t="n">
+      <c r="IN9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IO9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.9" customHeight="1" s="3">
@@ -7936,8 +7963,11 @@
       <c r="IM10" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IN10" t="n">
+      <c r="IN10" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IO10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11" ht="13.9" customHeight="1" s="3">
@@ -8684,8 +8714,11 @@
       <c r="IM11" s="2" t="n">
         <v>263</v>
       </c>
-      <c r="IN11" t="n">
+      <c r="IN11" s="2" t="n">
         <v>222</v>
+      </c>
+      <c r="IO11" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="12" ht="13.9" customHeight="1" s="3">
@@ -9432,8 +9465,11 @@
       <c r="IM12" s="2" t="n">
         <v>135</v>
       </c>
-      <c r="IN12" t="n">
+      <c r="IN12" s="2" t="n">
         <v>113</v>
+      </c>
+      <c r="IO12" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="13" ht="13.9" customHeight="1" s="3">
@@ -10180,8 +10216,11 @@
       <c r="IM13" s="2" t="n">
         <v>398</v>
       </c>
-      <c r="IN13" t="n">
+      <c r="IN13" s="2" t="n">
         <v>335</v>
+      </c>
+      <c r="IO13" t="n">
+        <v>375</v>
       </c>
     </row>
     <row r="14" ht="13.9" customHeight="1" s="3">
@@ -10928,8 +10967,11 @@
       <c r="IM14" s="2" t="n">
         <v>1.95</v>
       </c>
-      <c r="IN14" t="n">
+      <c r="IN14" s="2" t="n">
         <v>1.96</v>
+      </c>
+      <c r="IO14" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="15" ht="13.9" customHeight="1" s="3">
@@ -11676,8 +11718,11 @@
       <c r="IM15" s="2" t="n">
         <v>127</v>
       </c>
-      <c r="IN15" t="n">
+      <c r="IN15" s="2" t="n">
         <v>107</v>
+      </c>
+      <c r="IO15" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="16" ht="13.9" customHeight="1" s="3">
@@ -12424,8 +12469,11 @@
       <c r="IM16" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IN16" t="n">
+      <c r="IN16" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IO16" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="17" ht="13.9" customHeight="1" s="3">
@@ -13172,7 +13220,10 @@
       <c r="IM17" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="IN17" t="n">
+      <c r="IN17" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="IO17" t="n">
         <v>25</v>
       </c>
     </row>
@@ -13920,8 +13971,11 @@
       <c r="IM18" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IN18" t="n">
+      <c r="IN18" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IO18" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="13.9" customHeight="1" s="3">
@@ -14668,8 +14722,11 @@
       <c r="IM19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IN19" t="n">
+      <c r="IN19" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IO19" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="13.9" customHeight="1" s="3">
@@ -15416,8 +15473,11 @@
       <c r="IM20" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="IN20" t="n">
+      <c r="IN20" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IO20" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="13.9" customHeight="1" s="3">
@@ -16164,8 +16224,11 @@
       <c r="IM21" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IN21" t="n">
+      <c r="IN21" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IO21" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="13.9" customHeight="1" s="3">
@@ -16912,8 +16975,11 @@
       <c r="IM22" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IN22" t="n">
+      <c r="IN22" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IO22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="13.9" customHeight="1" s="3">
@@ -17660,8 +17726,11 @@
       <c r="IM23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IN23" t="n">
+      <c r="IN23" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IO23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.9" customHeight="1" s="3">
@@ -18408,8 +18477,11 @@
       <c r="IM24" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IN24" t="n">
+      <c r="IN24" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IO24" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="13.9" customHeight="1" s="3">
@@ -19156,8 +19228,11 @@
       <c r="IM25" s="2" t="n">
         <v>56.1</v>
       </c>
-      <c r="IN25" t="n">
+      <c r="IN25" s="2" t="n">
         <v>73.3</v>
+      </c>
+      <c r="IO25" t="n">
+        <v>65.2</v>
       </c>
     </row>
     <row r="26" ht="13.9" customHeight="1" s="3">
@@ -19904,8 +19979,11 @@
       <c r="IM26" s="2" t="n">
         <v>17.3</v>
       </c>
-      <c r="IN26" t="n">
+      <c r="IN26" s="2" t="n">
         <v>30.45</v>
+      </c>
+      <c r="IO26" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="13.9" customHeight="1" s="3">
@@ -20652,8 +20730,11 @@
       <c r="IM27" s="2" t="n">
         <v>9.710000000000001</v>
       </c>
-      <c r="IN27" t="n">
+      <c r="IN27" s="2" t="n">
         <v>22.33</v>
+      </c>
+      <c r="IO27" t="n">
+        <v>16.3</v>
       </c>
     </row>
     <row r="28" ht="13.9" customHeight="1" s="3">
@@ -21400,8 +21481,11 @@
       <c r="IM28" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IN28" t="n">
+      <c r="IN28" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IO28" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="13.9" customHeight="1" s="3">
@@ -22148,8 +22232,11 @@
       <c r="IM29" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IN29" t="n">
+      <c r="IN29" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="IO29" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="30" ht="13.9" customHeight="1" s="3">
@@ -22896,7 +22983,10 @@
       <c r="IM30" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IN30" t="n">
+      <c r="IN30" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="IO30" t="n">
         <v>47</v>
       </c>
     </row>
@@ -23644,8 +23734,11 @@
       <c r="IM31" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="IN31" t="n">
+      <c r="IN31" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IO31" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="32" ht="13.9" customHeight="1" s="3">
@@ -24392,8 +24485,11 @@
       <c r="IM32" s="2" t="n">
         <v>1.9</v>
       </c>
-      <c r="IN32" t="n">
+      <c r="IN32" s="2" t="n">
         <v>2.8</v>
+      </c>
+      <c r="IO32" t="n">
+        <v>2.35</v>
       </c>
     </row>
     <row r="33" ht="13.9" customHeight="1" s="3">
@@ -25140,8 +25236,11 @@
       <c r="IM33" s="2" t="n">
         <v>3.39</v>
       </c>
-      <c r="IN33" t="n">
+      <c r="IN33" s="2" t="n">
         <v>3.82</v>
+      </c>
+      <c r="IO33" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="34" ht="13.9" customHeight="1" s="3">
@@ -25888,8 +25987,11 @@
       <c r="IM34" s="2" t="n">
         <v>51.3</v>
       </c>
-      <c r="IN34" t="n">
+      <c r="IN34" s="2" t="n">
         <v>35.7</v>
+      </c>
+      <c r="IO34" t="n">
+        <v>40.7</v>
       </c>
     </row>
     <row r="35" ht="13.9" customHeight="1" s="3">
@@ -26636,8 +26738,11 @@
       <c r="IM35" s="2" t="n">
         <v>29.5</v>
       </c>
-      <c r="IN35" t="n">
+      <c r="IN35" s="2" t="n">
         <v>26.2</v>
+      </c>
+      <c r="IO35" t="n">
+        <v>27.8</v>
       </c>
     </row>
     <row r="36" ht="13.9" customHeight="1" s="3">
@@ -27384,8 +27489,11 @@
       <c r="IM36" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="IN36" t="n">
+      <c r="IN36" s="2" t="n">
         <v>187.8</v>
+      </c>
+      <c r="IO36" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="37" ht="13.9" customHeight="1" s="3">
@@ -28132,7 +28240,10 @@
       <c r="IM37" s="2" t="n">
         <v>89.40000000000001</v>
       </c>
-      <c r="IN37" t="n">
+      <c r="IN37" s="2" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="IO37" t="n">
         <v>88.7</v>
       </c>
     </row>
@@ -28880,8 +28991,11 @@
       <c r="IM38" s="2" t="n">
         <v>26.91</v>
       </c>
-      <c r="IN38" t="n">
+      <c r="IN38" s="2" t="n">
         <v>26.74</v>
+      </c>
+      <c r="IO38" t="n">
+        <v>26.66</v>
       </c>
     </row>
     <row r="39" ht="13.9" customHeight="1" s="3">
@@ -29628,8 +29742,11 @@
       <c r="IM39" s="2" t="n">
         <v>116.1</v>
       </c>
-      <c r="IN39" t="n">
+      <c r="IN39" s="2" t="n">
         <v>114</v>
+      </c>
+      <c r="IO39" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="40" ht="13.9" customHeight="1" s="3">
@@ -30376,8 +30493,11 @@
       <c r="IM40" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IN40" t="n">
+      <c r="IN40" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IO40" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="41" ht="13.9" customHeight="1" s="3">
@@ -31124,8 +31244,11 @@
       <c r="IM41" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IN41" t="n">
+      <c r="IN41" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IO41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="13.9" customHeight="1" s="3">
@@ -31872,7 +31995,10 @@
       <c r="IM42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IN42" t="n">
+      <c r="IN42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IO42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -32620,7 +32746,10 @@
       <c r="IM43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IN43" t="n">
+      <c r="IN43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IO43" t="n">
         <v>6</v>
       </c>
     </row>
@@ -33368,8 +33497,11 @@
       <c r="IM44" s="2" t="n">
         <v>156</v>
       </c>
-      <c r="IN44" t="n">
+      <c r="IN44" s="2" t="n">
         <v>133</v>
+      </c>
+      <c r="IO44" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="45" ht="13.9" customHeight="1" s="3">
@@ -34116,8 +34248,11 @@
       <c r="IM45" s="2" t="n">
         <v>243</v>
       </c>
-      <c r="IN45" t="n">
+      <c r="IN45" s="2" t="n">
         <v>195</v>
+      </c>
+      <c r="IO45" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="46" ht="13.9" customHeight="1" s="3">
@@ -34864,8 +34999,11 @@
       <c r="IM46" s="2" t="n">
         <v>299</v>
       </c>
-      <c r="IN46" t="n">
+      <c r="IN46" s="2" t="n">
         <v>244</v>
+      </c>
+      <c r="IO46" t="n">
+        <v>270</v>
       </c>
     </row>
     <row r="47" ht="13.9" customHeight="1" s="3">
@@ -35612,8 +35750,11 @@
       <c r="IM47" s="2" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="IN47" t="n">
+      <c r="IN47" s="2" t="n">
         <v>72.8</v>
+      </c>
+      <c r="IO47" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="48" ht="13.9" customHeight="1" s="3">
@@ -36360,8 +36501,11 @@
       <c r="IM48" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IN48" t="n">
+      <c r="IN48" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="IO48" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="49" ht="13.9" customHeight="1" s="3">
@@ -37108,8 +37252,11 @@
       <c r="IM49" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IN49" t="n">
+      <c r="IN49" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IO49" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="13.9" customHeight="1" s="3">
@@ -37856,8 +38003,11 @@
       <c r="IM50" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IN50" t="n">
+      <c r="IN50" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IO50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.9" customHeight="1" s="3">
@@ -38604,8 +38754,11 @@
       <c r="IM51" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IN51" t="n">
+      <c r="IN51" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IO51" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="13.9" customHeight="1" s="3">
@@ -39352,7 +39505,10 @@
       <c r="IM52" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IN52" t="n">
+      <c r="IN52" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="IO52" t="n">
         <v>47</v>
       </c>
     </row>
@@ -40100,8 +40256,11 @@
       <c r="IM53" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="IN53" t="n">
+      <c r="IN53" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IO53" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="54" ht="13.9" customHeight="1" s="3">
@@ -40848,8 +41007,11 @@
       <c r="IM54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IN54" t="n">
+      <c r="IN54" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IO54" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="55" ht="13.9" customHeight="1" s="3">
@@ -41596,8 +41758,11 @@
       <c r="IM55" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IN55" t="n">
+      <c r="IN55" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IO55" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="13.9" customHeight="1" s="3">
@@ -42344,8 +42509,11 @@
       <c r="IM56" s="2" t="n">
         <v>73.90000000000001</v>
       </c>
-      <c r="IN56" t="n">
+      <c r="IN56" s="2" t="n">
         <v>90.90000000000001</v>
+      </c>
+      <c r="IO56" t="n">
+        <v>73.3</v>
       </c>
     </row>
     <row r="57" ht="13.9" customHeight="1" s="3">
@@ -43092,8 +43260,11 @@
       <c r="IM57" s="2" t="n">
         <v>185</v>
       </c>
-      <c r="IN57" t="n">
+      <c r="IN57" s="2" t="n">
         <v>220</v>
+      </c>
+      <c r="IO57" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="58" ht="13.9" customHeight="1" s="3">
@@ -43840,8 +44011,11 @@
       <c r="IM58" s="2" t="n">
         <v>131</v>
       </c>
-      <c r="IN58" t="n">
+      <c r="IN58" s="2" t="n">
         <v>159</v>
+      </c>
+      <c r="IO58" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="59" ht="13.9" customHeight="1" s="3">
@@ -44588,8 +44762,11 @@
       <c r="IM59" s="2" t="n">
         <v>316</v>
       </c>
-      <c r="IN59" t="n">
+      <c r="IN59" s="2" t="n">
         <v>379</v>
+      </c>
+      <c r="IO59" t="n">
+        <v>361</v>
       </c>
     </row>
     <row r="60" ht="13.9" customHeight="1" s="3">
@@ -45336,8 +45513,11 @@
       <c r="IM60" s="2" t="n">
         <v>1.41</v>
       </c>
-      <c r="IN60" t="n">
+      <c r="IN60" s="2" t="n">
         <v>1.38</v>
+      </c>
+      <c r="IO60" t="n">
+        <v>1.16</v>
       </c>
     </row>
     <row r="61" ht="13.9" customHeight="1" s="3">
@@ -46084,8 +46264,11 @@
       <c r="IM61" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="IN61" t="n">
+      <c r="IN61" s="2" t="n">
         <v>104</v>
+      </c>
+      <c r="IO61" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="62" ht="13.9" customHeight="1" s="3">
@@ -46832,7 +47015,10 @@
       <c r="IM62" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IN62" t="n">
+      <c r="IN62" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="IO62" t="n">
         <v>62</v>
       </c>
     </row>
@@ -47580,8 +47766,11 @@
       <c r="IM63" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IN63" t="n">
+      <c r="IN63" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IO63" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="64" ht="13.9" customHeight="1" s="3">
@@ -48328,8 +48517,11 @@
       <c r="IM64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IN64" t="n">
+      <c r="IN64" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IO64" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="13.9" customHeight="1" s="3">
@@ -49076,8 +49268,11 @@
       <c r="IM65" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IN65" t="n">
+      <c r="IN65" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IO65" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="13.9" customHeight="1" s="3">
@@ -49824,8 +50019,11 @@
       <c r="IM66" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IN66" t="n">
+      <c r="IN66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IO66" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="67" ht="13.9" customHeight="1" s="3">
@@ -50572,8 +50770,11 @@
       <c r="IM67" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IN67" t="n">
+      <c r="IN67" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IO67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.9" customHeight="1" s="3">
@@ -51320,8 +51521,11 @@
       <c r="IM68" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IN68" t="n">
+      <c r="IN68" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IO68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.9" customHeight="1" s="3">
@@ -52068,8 +52272,11 @@
       <c r="IM69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IN69" t="n">
+      <c r="IN69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IO69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.9" customHeight="1" s="3">
@@ -52816,8 +53023,11 @@
       <c r="IM70" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IN70" t="n">
+      <c r="IN70" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IO70" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="13.9" customHeight="1" s="3">
@@ -53564,8 +53774,11 @@
       <c r="IM71" s="2" t="n">
         <v>53.8</v>
       </c>
-      <c r="IN71" t="n">
+      <c r="IN71" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IO71" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="72" ht="13.9" customHeight="1" s="3">
@@ -54312,8 +54525,11 @@
       <c r="IM72" s="2" t="n">
         <v>45.14</v>
       </c>
-      <c r="IN72" t="n">
+      <c r="IN72" s="2" t="n">
         <v>34.45</v>
+      </c>
+      <c r="IO72" t="n">
+        <v>25.79</v>
       </c>
     </row>
     <row r="73" ht="13.9" customHeight="1" s="3">
@@ -55060,8 +55276,11 @@
       <c r="IM73" s="2" t="n">
         <v>24.31</v>
       </c>
-      <c r="IN73" t="n">
+      <c r="IN73" s="2" t="n">
         <v>15.16</v>
+      </c>
+      <c r="IO73" t="n">
+        <v>17.19</v>
       </c>
     </row>
     <row r="74" ht="13.9" customHeight="1" s="3">
@@ -55808,7 +56027,10 @@
       <c r="IM74" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IN74" t="n">
+      <c r="IN74" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IO74" t="n">
         <v>38</v>
       </c>
     </row>
@@ -56556,8 +56778,11 @@
       <c r="IM75" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="IN75" t="n">
+      <c r="IN75" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="IO75" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="76" ht="13.9" customHeight="1" s="3">
@@ -57304,8 +57529,11 @@
       <c r="IM76" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IN76" t="n">
+      <c r="IN76" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="IO76" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="13.9" customHeight="1" s="3">
@@ -58052,8 +58280,11 @@
       <c r="IM77" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IN77" t="n">
+      <c r="IN77" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="IO77" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="78" ht="13.9" customHeight="1" s="3">
@@ -58800,8 +59031,11 @@
       <c r="IM78" s="2" t="n">
         <v>3.08</v>
       </c>
-      <c r="IN78" t="n">
+      <c r="IN78" s="2" t="n">
         <v>2.36</v>
+      </c>
+      <c r="IO78" t="n">
+        <v>2.95</v>
       </c>
     </row>
     <row r="79" ht="13.9" customHeight="1" s="3">
@@ -59548,8 +59782,11 @@
       <c r="IM79" s="2" t="n">
         <v>5.71</v>
       </c>
-      <c r="IN79" t="n">
+      <c r="IN79" s="2" t="n">
         <v>5.36</v>
+      </c>
+      <c r="IO79" t="n">
+        <v>4.43</v>
       </c>
     </row>
     <row r="80" ht="13.9" customHeight="1" s="3">
@@ -60296,8 +60533,11 @@
       <c r="IM80" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IN80" t="n">
+      <c r="IN80" s="2" t="n">
         <v>40.7</v>
+      </c>
+      <c r="IO80" t="n">
+        <v>33.9</v>
       </c>
     </row>
     <row r="81" ht="13.9" customHeight="1" s="3">
@@ -61044,8 +61284,11 @@
       <c r="IM81" s="2" t="n">
         <v>17.5</v>
       </c>
-      <c r="IN81" t="n">
+      <c r="IN81" s="2" t="n">
         <v>18.6</v>
+      </c>
+      <c r="IO81" t="n">
+        <v>22.6</v>
       </c>
     </row>
     <row r="82" ht="13.9" customHeight="1" s="3">
@@ -61792,8 +62035,11 @@
       <c r="IM82" s="2" t="n">
         <v>189.5</v>
       </c>
-      <c r="IN82" t="n">
+      <c r="IN82" s="2" t="n">
         <v>188</v>
+      </c>
+      <c r="IO82" t="n">
+        <v>190.5</v>
       </c>
     </row>
     <row r="83" ht="13.9" customHeight="1" s="3">
@@ -62540,8 +62786,11 @@
       <c r="IM83" s="2" t="n">
         <v>86.09999999999999</v>
       </c>
-      <c r="IN83" t="n">
+      <c r="IN83" s="2" t="n">
         <v>86.90000000000001</v>
+      </c>
+      <c r="IO83" t="n">
+        <v>88.8</v>
       </c>
     </row>
     <row r="84" ht="13.9" customHeight="1" s="3">
@@ -63288,8 +63537,11 @@
       <c r="IM84" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="IN84" t="n">
+      <c r="IN84" s="2" t="n">
         <v>27.24</v>
+      </c>
+      <c r="IO84" t="n">
+        <v>26.58</v>
       </c>
     </row>
     <row r="85" ht="13.9" customHeight="1" s="3">
@@ -64036,8 +64288,11 @@
       <c r="IM85" s="2" t="n">
         <v>82.2</v>
       </c>
-      <c r="IN85" t="n">
+      <c r="IN85" s="2" t="n">
         <v>133.9</v>
+      </c>
+      <c r="IO85" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="86" ht="13.9" customHeight="1" s="3">
@@ -64784,8 +65039,11 @@
       <c r="IM86" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IN86" t="n">
+      <c r="IN86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IO86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.9" customHeight="1" s="3">
@@ -65532,8 +65790,11 @@
       <c r="IM87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IN87" t="n">
+      <c r="IN87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IO87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.9" customHeight="1" s="3">
@@ -66280,8 +66541,11 @@
       <c r="IM88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IN88" t="n">
+      <c r="IN88" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IO88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.9" customHeight="1" s="3">
@@ -67028,8 +67292,11 @@
       <c r="IM89" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IN89" t="n">
+      <c r="IN89" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IO89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="13.9" customHeight="1" s="3">
@@ -67776,8 +68043,11 @@
       <c r="IM90" s="2" t="n">
         <v>118</v>
       </c>
-      <c r="IN90" t="n">
+      <c r="IN90" s="2" t="n">
         <v>132</v>
+      </c>
+      <c r="IO90" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="91" ht="13.9" customHeight="1" s="3">
@@ -68524,8 +68794,11 @@
       <c r="IM91" s="2" t="n">
         <v>184</v>
       </c>
-      <c r="IN91" t="n">
+      <c r="IN91" s="2" t="n">
         <v>247</v>
+      </c>
+      <c r="IO91" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="92" ht="13.9" customHeight="1" s="3">
@@ -69272,8 +69545,11 @@
       <c r="IM92" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="IN92" t="n">
+      <c r="IN92" s="2" t="n">
         <v>285</v>
+      </c>
+      <c r="IO92" t="n">
+        <v>260</v>
       </c>
     </row>
     <row r="93" ht="13.9" customHeight="1" s="3">
@@ -70020,8 +70296,11 @@
       <c r="IM93" s="2" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="IN93" t="n">
+      <c r="IN93" s="2" t="n">
         <v>75.2</v>
+      </c>
+      <c r="IO93" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="94" ht="13.9" customHeight="1" s="3">
@@ -70768,8 +71047,11 @@
       <c r="IM94" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="IN94" t="n">
+      <c r="IN94" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="IO94" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="95" ht="13.9" customHeight="1" s="3">
@@ -71516,8 +71798,11 @@
       <c r="IM95" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IN95" t="n">
+      <c r="IN95" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IO95" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="96" ht="13.9" customHeight="1" s="3">
@@ -72264,8 +72549,11 @@
       <c r="IM96" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IN96" t="n">
+      <c r="IN96" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IO96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="13.9" customHeight="1" s="3">
@@ -73012,7 +73300,10 @@
       <c r="IM97" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IN97" t="n">
+      <c r="IN97" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IO97" t="n">
         <v>38</v>
       </c>
     </row>
@@ -73760,8 +74051,11 @@
       <c r="IM98" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IN98" t="n">
+      <c r="IN98" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="IO98" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="99" ht="13.9" customHeight="1" s="3">
@@ -74508,8 +74802,11 @@
       <c r="IM99" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="IN99" t="n">
+      <c r="IN99" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IO99" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="100" ht="13.9" customHeight="1" s="3">
@@ -75256,7 +75553,10 @@
       <c r="IM100" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IN100" t="n">
+      <c r="IN100" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IO100" t="n">
         <v>3</v>
       </c>
     </row>
@@ -76004,8 +76304,11 @@
       <c r="IM101" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IN101" t="n">
+      <c r="IN101" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IO101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.9" customHeight="1" s="3">
@@ -76752,8 +77055,11 @@
       <c r="IM102" s="2" t="n">
         <v>42.9</v>
       </c>
-      <c r="IN102" t="n">
+      <c r="IN102" s="2" t="n">
         <v>72.7</v>
+      </c>
+      <c r="IO102" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Brisbane_stats.xlsx
+++ b/django_AFL_ML/Data/Brisbane_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IO102"/>
+  <dimension ref="A1:IP102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL36" activeCellId="0" sqref="IL36"/>
@@ -1207,8 +1207,11 @@
       <c r="IN1" s="2" t="n">
         <v>10572</v>
       </c>
-      <c r="IO1" t="n">
+      <c r="IO1" s="2" t="n">
         <v>10580</v>
+      </c>
+      <c r="IP1" t="n">
+        <v>10594</v>
       </c>
     </row>
     <row r="2" ht="13.9" customHeight="1" s="3">
@@ -1958,7 +1961,10 @@
       <c r="IN2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IO2" t="n">
+      <c r="IO2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IP2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2709,8 +2715,11 @@
       <c r="IN3" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IO3" t="n">
+      <c r="IO3" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="13.9" customHeight="1" s="3">
@@ -3460,8 +3469,11 @@
       <c r="IN4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IO4" t="n">
+      <c r="IO4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.9" customHeight="1" s="3">
@@ -4211,8 +4223,11 @@
       <c r="IN5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IO5" t="n">
+      <c r="IO5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IP5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.9" customHeight="1" s="3">
@@ -4962,8 +4977,11 @@
       <c r="IN6" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="IO6" t="n">
+      <c r="IO6" s="2" t="n">
         <v>98</v>
+      </c>
+      <c r="IP6" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="7" ht="13.9" customHeight="1" s="3">
@@ -5713,8 +5731,11 @@
       <c r="IN7" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="IO7" t="n">
+      <c r="IO7" s="2" t="n">
         <v>91</v>
+      </c>
+      <c r="IP7" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="8" ht="13.9" customHeight="1" s="3">
@@ -6464,8 +6485,11 @@
       <c r="IN8" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="IO8" t="n">
+      <c r="IO8" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IP8" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" s="3">
@@ -7215,7 +7239,10 @@
       <c r="IN9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IO9" t="n">
+      <c r="IO9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7966,8 +7993,11 @@
       <c r="IN10" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IO10" t="n">
+      <c r="IO10" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IP10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="13.9" customHeight="1" s="3">
@@ -8717,8 +8747,11 @@
       <c r="IN11" s="2" t="n">
         <v>222</v>
       </c>
-      <c r="IO11" t="n">
+      <c r="IO11" s="2" t="n">
         <v>231</v>
+      </c>
+      <c r="IP11" t="n">
+        <v>214</v>
       </c>
     </row>
     <row r="12" ht="13.9" customHeight="1" s="3">
@@ -9468,8 +9501,11 @@
       <c r="IN12" s="2" t="n">
         <v>113</v>
       </c>
-      <c r="IO12" t="n">
+      <c r="IO12" s="2" t="n">
         <v>144</v>
+      </c>
+      <c r="IP12" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="13" ht="13.9" customHeight="1" s="3">
@@ -10219,8 +10255,11 @@
       <c r="IN13" s="2" t="n">
         <v>335</v>
       </c>
-      <c r="IO13" t="n">
+      <c r="IO13" s="2" t="n">
         <v>375</v>
+      </c>
+      <c r="IP13" t="n">
+        <v>344</v>
       </c>
     </row>
     <row r="14" ht="13.9" customHeight="1" s="3">
@@ -10970,8 +11009,11 @@
       <c r="IN14" s="2" t="n">
         <v>1.96</v>
       </c>
-      <c r="IO14" t="n">
+      <c r="IO14" s="2" t="n">
         <v>1.6</v>
+      </c>
+      <c r="IP14" t="n">
+        <v>1.65</v>
       </c>
     </row>
     <row r="15" ht="13.9" customHeight="1" s="3">
@@ -11721,8 +11763,11 @@
       <c r="IN15" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="IO15" t="n">
+      <c r="IO15" s="2" t="n">
         <v>96</v>
+      </c>
+      <c r="IP15" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="16" ht="13.9" customHeight="1" s="3">
@@ -12472,8 +12517,11 @@
       <c r="IN16" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IO16" t="n">
+      <c r="IO16" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IP16" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="17" ht="13.9" customHeight="1" s="3">
@@ -13223,8 +13271,11 @@
       <c r="IN17" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IO17" t="n">
+      <c r="IO17" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IP17" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="18" ht="13.9" customHeight="1" s="3">
@@ -13974,8 +14025,11 @@
       <c r="IN18" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IO18" t="n">
+      <c r="IO18" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IP18" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="13.9" customHeight="1" s="3">
@@ -14725,7 +14779,10 @@
       <c r="IN19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IO19" t="n">
+      <c r="IO19" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IP19" t="n">
         <v>24</v>
       </c>
     </row>
@@ -15476,8 +15533,11 @@
       <c r="IN20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IO20" t="n">
+      <c r="IO20" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IP20" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="13.9" customHeight="1" s="3">
@@ -16227,8 +16287,11 @@
       <c r="IN21" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IO21" t="n">
+      <c r="IO21" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IP21" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="22" ht="13.9" customHeight="1" s="3">
@@ -16978,8 +17041,11 @@
       <c r="IN22" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IO22" t="n">
+      <c r="IO22" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IP22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="13.9" customHeight="1" s="3">
@@ -17729,7 +17795,10 @@
       <c r="IN23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IO23" t="n">
+      <c r="IO23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -18480,8 +18549,11 @@
       <c r="IN24" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IO24" t="n">
+      <c r="IO24" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="IP24" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="13.9" customHeight="1" s="3">
@@ -19231,8 +19303,11 @@
       <c r="IN25" s="2" t="n">
         <v>73.3</v>
       </c>
-      <c r="IO25" t="n">
+      <c r="IO25" s="2" t="n">
         <v>65.2</v>
+      </c>
+      <c r="IP25" t="n">
+        <v>77.8</v>
       </c>
     </row>
     <row r="26" ht="13.9" customHeight="1" s="3">
@@ -19982,8 +20057,11 @@
       <c r="IN26" s="2" t="n">
         <v>30.45</v>
       </c>
-      <c r="IO26" t="n">
+      <c r="IO26" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IP26" t="n">
+        <v>16.38</v>
       </c>
     </row>
     <row r="27" ht="13.9" customHeight="1" s="3">
@@ -20733,8 +20811,11 @@
       <c r="IN27" s="2" t="n">
         <v>22.33</v>
       </c>
-      <c r="IO27" t="n">
+      <c r="IO27" s="2" t="n">
         <v>16.3</v>
+      </c>
+      <c r="IP27" t="n">
+        <v>12.74</v>
       </c>
     </row>
     <row r="28" ht="13.9" customHeight="1" s="3">
@@ -21484,8 +21565,11 @@
       <c r="IN28" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IO28" t="n">
+      <c r="IO28" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IP28" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="29" ht="13.9" customHeight="1" s="3">
@@ -22235,8 +22319,11 @@
       <c r="IN29" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="IO29" t="n">
+      <c r="IO29" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="IP29" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="30" ht="13.9" customHeight="1" s="3">
@@ -22986,8 +23073,11 @@
       <c r="IN30" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IO30" t="n">
+      <c r="IO30" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="IP30" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="31" ht="13.9" customHeight="1" s="3">
@@ -23737,8 +23827,11 @@
       <c r="IN31" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IO31" t="n">
+      <c r="IO31" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="IP31" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="32" ht="13.9" customHeight="1" s="3">
@@ -24488,8 +24581,11 @@
       <c r="IN32" s="2" t="n">
         <v>2.8</v>
       </c>
-      <c r="IO32" t="n">
+      <c r="IO32" s="2" t="n">
         <v>2.35</v>
+      </c>
+      <c r="IP32" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="33" ht="13.9" customHeight="1" s="3">
@@ -25239,8 +25335,11 @@
       <c r="IN33" s="2" t="n">
         <v>3.82</v>
       </c>
-      <c r="IO33" t="n">
+      <c r="IO33" s="2" t="n">
         <v>3.6</v>
+      </c>
+      <c r="IP33" t="n">
+        <v>2.52</v>
       </c>
     </row>
     <row r="34" ht="13.9" customHeight="1" s="3">
@@ -25990,8 +26089,11 @@
       <c r="IN34" s="2" t="n">
         <v>35.7</v>
       </c>
-      <c r="IO34" t="n">
+      <c r="IO34" s="2" t="n">
         <v>40.7</v>
+      </c>
+      <c r="IP34" t="n">
+        <v>49.1</v>
       </c>
     </row>
     <row r="35" ht="13.9" customHeight="1" s="3">
@@ -26741,8 +26843,11 @@
       <c r="IN35" s="2" t="n">
         <v>26.2</v>
       </c>
-      <c r="IO35" t="n">
+      <c r="IO35" s="2" t="n">
         <v>27.8</v>
+      </c>
+      <c r="IP35" t="n">
+        <v>39.6</v>
       </c>
     </row>
     <row r="36" ht="13.9" customHeight="1" s="3">
@@ -27492,8 +27597,11 @@
       <c r="IN36" s="2" t="n">
         <v>187.8</v>
       </c>
-      <c r="IO36" t="n">
+      <c r="IO36" s="2" t="n">
         <v>188</v>
+      </c>
+      <c r="IP36" t="n">
+        <v>187.9</v>
       </c>
     </row>
     <row r="37" ht="13.9" customHeight="1" s="3">
@@ -28243,8 +28351,11 @@
       <c r="IN37" s="2" t="n">
         <v>88.7</v>
       </c>
-      <c r="IO37" t="n">
+      <c r="IO37" s="2" t="n">
         <v>88.7</v>
+      </c>
+      <c r="IP37" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="38" ht="13.9" customHeight="1" s="3">
@@ -28994,8 +29105,11 @@
       <c r="IN38" s="2" t="n">
         <v>26.74</v>
       </c>
-      <c r="IO38" t="n">
+      <c r="IO38" s="2" t="n">
         <v>26.66</v>
+      </c>
+      <c r="IP38" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="13.9" customHeight="1" s="3">
@@ -29745,8 +29859,11 @@
       <c r="IN39" s="2" t="n">
         <v>114</v>
       </c>
-      <c r="IO39" t="n">
+      <c r="IO39" s="2" t="n">
         <v>116</v>
+      </c>
+      <c r="IP39" t="n">
+        <v>103.3</v>
       </c>
     </row>
     <row r="40" ht="13.9" customHeight="1" s="3">
@@ -30496,8 +30613,11 @@
       <c r="IN40" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IO40" t="n">
+      <c r="IO40" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IP40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41" ht="13.9" customHeight="1" s="3">
@@ -31247,8 +31367,11 @@
       <c r="IN41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IO41" t="n">
+      <c r="IO41" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IP41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.9" customHeight="1" s="3">
@@ -31998,8 +32121,11 @@
       <c r="IN42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IO42" t="n">
+      <c r="IO42" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IP42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43" ht="13.9" customHeight="1" s="3">
@@ -32749,8 +32875,11 @@
       <c r="IN43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IO43" t="n">
+      <c r="IO43" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IP43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.9" customHeight="1" s="3">
@@ -33500,8 +33629,11 @@
       <c r="IN44" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="IO44" t="n">
+      <c r="IO44" s="2" t="n">
         <v>147</v>
+      </c>
+      <c r="IP44" t="n">
+        <v>163</v>
       </c>
     </row>
     <row r="45" ht="13.9" customHeight="1" s="3">
@@ -34251,8 +34383,11 @@
       <c r="IN45" s="2" t="n">
         <v>195</v>
       </c>
-      <c r="IO45" t="n">
+      <c r="IO45" s="2" t="n">
         <v>215</v>
+      </c>
+      <c r="IP45" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="46" ht="13.9" customHeight="1" s="3">
@@ -35002,8 +35137,11 @@
       <c r="IN46" s="2" t="n">
         <v>244</v>
       </c>
-      <c r="IO46" t="n">
+      <c r="IO46" s="2" t="n">
         <v>270</v>
+      </c>
+      <c r="IP46" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="47" ht="13.9" customHeight="1" s="3">
@@ -35753,8 +35891,11 @@
       <c r="IN47" s="2" t="n">
         <v>72.8</v>
       </c>
-      <c r="IO47" t="n">
+      <c r="IO47" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="IP47" t="n">
+        <v>69.2</v>
       </c>
     </row>
     <row r="48" ht="13.9" customHeight="1" s="3">
@@ -36504,8 +36645,11 @@
       <c r="IN48" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="IO48" t="n">
+      <c r="IO48" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="IP48" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="49" ht="13.9" customHeight="1" s="3">
@@ -37255,8 +37399,11 @@
       <c r="IN49" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IO49" t="n">
+      <c r="IO49" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IP49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="13.9" customHeight="1" s="3">
@@ -38006,8 +38153,11 @@
       <c r="IN50" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IO50" t="n">
+      <c r="IO50" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IP50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="13.9" customHeight="1" s="3">
@@ -38757,8 +38907,11 @@
       <c r="IN51" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IO51" t="n">
+      <c r="IO51" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IP51" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="52" ht="13.9" customHeight="1" s="3">
@@ -39508,8 +39661,11 @@
       <c r="IN52" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IO52" t="n">
+      <c r="IO52" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="IP52" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="53" ht="13.9" customHeight="1" s="3">
@@ -40259,8 +40415,11 @@
       <c r="IN53" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IO53" t="n">
+      <c r="IO53" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IP53" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="54" ht="13.9" customHeight="1" s="3">
@@ -41010,8 +41169,11 @@
       <c r="IN54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IO54" t="n">
+      <c r="IO54" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IP54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.9" customHeight="1" s="3">
@@ -41761,8 +41923,11 @@
       <c r="IN55" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IO55" t="n">
+      <c r="IO55" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IP55" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="56" ht="13.9" customHeight="1" s="3">
@@ -42512,8 +42677,11 @@
       <c r="IN56" s="2" t="n">
         <v>90.90000000000001</v>
       </c>
-      <c r="IO56" t="n">
+      <c r="IO56" s="2" t="n">
         <v>73.3</v>
+      </c>
+      <c r="IP56" t="n">
+        <v>61.9</v>
       </c>
     </row>
     <row r="57" ht="13.9" customHeight="1" s="3">
@@ -43263,8 +43431,11 @@
       <c r="IN57" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="IO57" t="n">
+      <c r="IO57" s="2" t="n">
         <v>194</v>
+      </c>
+      <c r="IP57" t="n">
+        <v>213</v>
       </c>
     </row>
     <row r="58" ht="13.9" customHeight="1" s="3">
@@ -44014,8 +44185,11 @@
       <c r="IN58" s="2" t="n">
         <v>159</v>
       </c>
-      <c r="IO58" t="n">
+      <c r="IO58" s="2" t="n">
         <v>167</v>
+      </c>
+      <c r="IP58" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="59" ht="13.9" customHeight="1" s="3">
@@ -44765,8 +44939,11 @@
       <c r="IN59" s="2" t="n">
         <v>379</v>
       </c>
-      <c r="IO59" t="n">
+      <c r="IO59" s="2" t="n">
         <v>361</v>
+      </c>
+      <c r="IP59" t="n">
+        <v>331</v>
       </c>
     </row>
     <row r="60" ht="13.9" customHeight="1" s="3">
@@ -45516,8 +45693,11 @@
       <c r="IN60" s="2" t="n">
         <v>1.38</v>
       </c>
-      <c r="IO60" t="n">
+      <c r="IO60" s="2" t="n">
         <v>1.16</v>
+      </c>
+      <c r="IP60" t="n">
+        <v>1.81</v>
       </c>
     </row>
     <row r="61" ht="13.9" customHeight="1" s="3">
@@ -46267,8 +46447,11 @@
       <c r="IN61" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="IO61" t="n">
+      <c r="IO61" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="IP61" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="62" ht="13.9" customHeight="1" s="3">
@@ -47018,8 +47201,11 @@
       <c r="IN62" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="IO62" t="n">
+      <c r="IO62" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="IP62" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="63" ht="13.9" customHeight="1" s="3">
@@ -47769,8 +47955,11 @@
       <c r="IN63" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IO63" t="n">
+      <c r="IO63" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IP63" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="64" ht="13.9" customHeight="1" s="3">
@@ -48520,7 +48709,10 @@
       <c r="IN64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IO64" t="n">
+      <c r="IO64" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IP64" t="n">
         <v>24</v>
       </c>
     </row>
@@ -49271,8 +49463,11 @@
       <c r="IN65" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IO65" t="n">
+      <c r="IO65" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IP65" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="13.9" customHeight="1" s="3">
@@ -50022,8 +50217,11 @@
       <c r="IN66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IO66" t="n">
+      <c r="IO66" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IP66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.9" customHeight="1" s="3">
@@ -50773,8 +50971,11 @@
       <c r="IN67" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IO67" t="n">
+      <c r="IO67" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IP67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.9" customHeight="1" s="3">
@@ -51524,8 +51725,11 @@
       <c r="IN68" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IO68" t="n">
+      <c r="IO68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IP68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.9" customHeight="1" s="3">
@@ -52275,8 +52479,11 @@
       <c r="IN69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IO69" t="n">
+      <c r="IO69" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IP69" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="70" ht="13.9" customHeight="1" s="3">
@@ -53026,8 +53233,11 @@
       <c r="IN70" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IO70" t="n">
+      <c r="IO70" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="IP70" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="13.9" customHeight="1" s="3">
@@ -53777,8 +53987,11 @@
       <c r="IN71" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IO71" t="n">
+      <c r="IO71" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="IP71" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="72" ht="13.9" customHeight="1" s="3">
@@ -54528,8 +54741,11 @@
       <c r="IN72" s="2" t="n">
         <v>34.45</v>
       </c>
-      <c r="IO72" t="n">
+      <c r="IO72" s="2" t="n">
         <v>25.79</v>
+      </c>
+      <c r="IP72" t="n">
+        <v>30.09</v>
       </c>
     </row>
     <row r="73" ht="13.9" customHeight="1" s="3">
@@ -55279,8 +55495,11 @@
       <c r="IN73" s="2" t="n">
         <v>15.16</v>
       </c>
-      <c r="IO73" t="n">
+      <c r="IO73" s="2" t="n">
         <v>17.19</v>
+      </c>
+      <c r="IP73" t="n">
+        <v>13.24</v>
       </c>
     </row>
     <row r="74" ht="13.9" customHeight="1" s="3">
@@ -56030,8 +56249,11 @@
       <c r="IN74" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IO74" t="n">
+      <c r="IO74" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IP74" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="75" ht="13.9" customHeight="1" s="3">
@@ -56781,8 +57003,11 @@
       <c r="IN75" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="IO75" t="n">
+      <c r="IO75" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="IP75" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="76" ht="13.9" customHeight="1" s="3">
@@ -57532,8 +57757,11 @@
       <c r="IN76" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="IO76" t="n">
+      <c r="IO76" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IP76" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="77" ht="13.9" customHeight="1" s="3">
@@ -58283,8 +58511,11 @@
       <c r="IN77" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="IO77" t="n">
+      <c r="IO77" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="IP77" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="78" ht="13.9" customHeight="1" s="3">
@@ -59034,8 +59265,11 @@
       <c r="IN78" s="2" t="n">
         <v>2.36</v>
       </c>
-      <c r="IO78" t="n">
+      <c r="IO78" s="2" t="n">
         <v>2.95</v>
+      </c>
+      <c r="IP78" t="n">
+        <v>2.28</v>
       </c>
     </row>
     <row r="79" ht="13.9" customHeight="1" s="3">
@@ -59785,8 +60019,11 @@
       <c r="IN79" s="2" t="n">
         <v>5.36</v>
       </c>
-      <c r="IO79" t="n">
+      <c r="IO79" s="2" t="n">
         <v>4.43</v>
+      </c>
+      <c r="IP79" t="n">
+        <v>5.18</v>
       </c>
     </row>
     <row r="80" ht="13.9" customHeight="1" s="3">
@@ -60536,8 +60773,11 @@
       <c r="IN80" s="2" t="n">
         <v>40.7</v>
       </c>
-      <c r="IO80" t="n">
+      <c r="IO80" s="2" t="n">
         <v>33.9</v>
+      </c>
+      <c r="IP80" t="n">
+        <v>36.8</v>
       </c>
     </row>
     <row r="81" ht="13.9" customHeight="1" s="3">
@@ -61287,8 +61527,11 @@
       <c r="IN81" s="2" t="n">
         <v>18.6</v>
       </c>
-      <c r="IO81" t="n">
+      <c r="IO81" s="2" t="n">
         <v>22.6</v>
+      </c>
+      <c r="IP81" t="n">
+        <v>19.3</v>
       </c>
     </row>
     <row r="82" ht="13.9" customHeight="1" s="3">
@@ -62038,8 +62281,11 @@
       <c r="IN82" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="IO82" t="n">
+      <c r="IO82" s="2" t="n">
         <v>190.5</v>
+      </c>
+      <c r="IP82" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="83" ht="13.9" customHeight="1" s="3">
@@ -62789,8 +63035,11 @@
       <c r="IN83" s="2" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="IO83" t="n">
+      <c r="IO83" s="2" t="n">
         <v>88.8</v>
+      </c>
+      <c r="IP83" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.9" customHeight="1" s="3">
@@ -63540,8 +63789,11 @@
       <c r="IN84" s="2" t="n">
         <v>27.24</v>
       </c>
-      <c r="IO84" t="n">
+      <c r="IO84" s="2" t="n">
         <v>26.58</v>
+      </c>
+      <c r="IP84" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="85" ht="13.9" customHeight="1" s="3">
@@ -64291,8 +64543,11 @@
       <c r="IN85" s="2" t="n">
         <v>133.9</v>
       </c>
-      <c r="IO85" t="n">
+      <c r="IO85" s="2" t="n">
         <v>109</v>
+      </c>
+      <c r="IP85" t="n">
+        <v>80.40000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.9" customHeight="1" s="3">
@@ -65042,8 +65297,11 @@
       <c r="IN86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IO86" t="n">
+      <c r="IO86" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IP86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.9" customHeight="1" s="3">
@@ -65793,8 +66051,11 @@
       <c r="IN87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IO87" t="n">
+      <c r="IO87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IP87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.9" customHeight="1" s="3">
@@ -66544,8 +66805,11 @@
       <c r="IN88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IO88" t="n">
+      <c r="IO88" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IP88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.9" customHeight="1" s="3">
@@ -67295,8 +67559,11 @@
       <c r="IN89" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IO89" t="n">
+      <c r="IO89" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IP89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.9" customHeight="1" s="3">
@@ -68046,8 +68313,11 @@
       <c r="IN90" s="2" t="n">
         <v>132</v>
       </c>
-      <c r="IO90" t="n">
+      <c r="IO90" s="2" t="n">
         <v>130</v>
+      </c>
+      <c r="IP90" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="91" ht="13.9" customHeight="1" s="3">
@@ -68797,8 +69067,11 @@
       <c r="IN91" s="2" t="n">
         <v>247</v>
       </c>
-      <c r="IO91" t="n">
+      <c r="IO91" s="2" t="n">
         <v>223</v>
+      </c>
+      <c r="IP91" t="n">
+        <v>169</v>
       </c>
     </row>
     <row r="92" ht="13.9" customHeight="1" s="3">
@@ -69548,8 +69821,11 @@
       <c r="IN92" s="2" t="n">
         <v>285</v>
       </c>
-      <c r="IO92" t="n">
+      <c r="IO92" s="2" t="n">
         <v>260</v>
+      </c>
+      <c r="IP92" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="93" ht="13.9" customHeight="1" s="3">
@@ -70299,8 +70575,11 @@
       <c r="IN93" s="2" t="n">
         <v>75.2</v>
       </c>
-      <c r="IO93" t="n">
+      <c r="IO93" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="IP93" t="n">
+        <v>66.8</v>
       </c>
     </row>
     <row r="94" ht="13.9" customHeight="1" s="3">
@@ -71050,8 +71329,11 @@
       <c r="IN94" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="IO94" t="n">
+      <c r="IO94" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="IP94" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="95" ht="13.9" customHeight="1" s="3">
@@ -71801,8 +72083,11 @@
       <c r="IN95" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IO95" t="n">
+      <c r="IO95" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IP95" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="96" ht="13.9" customHeight="1" s="3">
@@ -72552,8 +72837,11 @@
       <c r="IN96" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IO96" t="n">
+      <c r="IO96" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IP96" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="97" ht="13.9" customHeight="1" s="3">
@@ -73303,8 +73591,11 @@
       <c r="IN97" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IO97" t="n">
+      <c r="IO97" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IP97" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="98" ht="13.9" customHeight="1" s="3">
@@ -74054,8 +74345,11 @@
       <c r="IN98" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="IO98" t="n">
+      <c r="IO98" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IP98" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="99" ht="13.9" customHeight="1" s="3">
@@ -74805,8 +75099,11 @@
       <c r="IN99" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IO99" t="n">
+      <c r="IO99" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IP99" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="100" ht="13.9" customHeight="1" s="3">
@@ -75556,8 +75853,11 @@
       <c r="IN100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IO100" t="n">
+      <c r="IO100" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IP100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.9" customHeight="1" s="3">
@@ -76307,8 +76607,11 @@
       <c r="IN101" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IO101" t="n">
+      <c r="IO101" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IP101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.9" customHeight="1" s="3">
@@ -77058,8 +77361,11 @@
       <c r="IN102" s="2" t="n">
         <v>72.7</v>
       </c>
-      <c r="IO102" t="n">
+      <c r="IO102" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IP102" t="n">
+        <v>72.7</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Brisbane_stats.xlsx
+++ b/django_AFL_ML/Data/Brisbane_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IP102"/>
+  <dimension ref="A1:IR102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL36" activeCellId="0" sqref="IL36"/>
@@ -1210,8 +1210,14 @@
       <c r="IO1" s="2" t="n">
         <v>10580</v>
       </c>
-      <c r="IP1" t="n">
+      <c r="IP1" s="2" t="n">
         <v>10594</v>
+      </c>
+      <c r="IQ1" s="2" t="n">
+        <v>10606</v>
+      </c>
+      <c r="IR1" t="n">
+        <v>10613</v>
       </c>
     </row>
     <row r="2" ht="13.9" customHeight="1" s="3">
@@ -1964,7 +1970,13 @@
       <c r="IO2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IP2" t="n">
+      <c r="IP2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IQ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IR2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2718,8 +2730,14 @@
       <c r="IO3" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IP3" t="n">
+      <c r="IP3" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IQ3" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="13.9" customHeight="1" s="3">
@@ -3472,8 +3490,14 @@
       <c r="IO4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IP4" t="n">
+      <c r="IP4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IQ4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.9" customHeight="1" s="3">
@@ -4226,8 +4250,14 @@
       <c r="IO5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IP5" t="n">
+      <c r="IP5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IQ5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IR5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.9" customHeight="1" s="3">
@@ -4980,8 +5010,14 @@
       <c r="IO6" s="2" t="n">
         <v>98</v>
       </c>
-      <c r="IP6" t="n">
+      <c r="IP6" s="2" t="n">
         <v>132</v>
+      </c>
+      <c r="IQ6" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="IR6" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="7" ht="13.9" customHeight="1" s="3">
@@ -5734,8 +5770,14 @@
       <c r="IO7" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="IP7" t="n">
+      <c r="IP7" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="IQ7" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="IR7" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="8" ht="13.9" customHeight="1" s="3">
@@ -6488,8 +6530,14 @@
       <c r="IO8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IP8" t="n">
+      <c r="IP8" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="IQ8" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IR8" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" s="3">
@@ -7242,7 +7290,13 @@
       <c r="IO9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IP9" t="n">
+      <c r="IP9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IQ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IR9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7996,8 +8050,14 @@
       <c r="IO10" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IP10" t="n">
+      <c r="IP10" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IQ10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="IR10" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="13.9" customHeight="1" s="3">
@@ -8750,8 +8810,14 @@
       <c r="IO11" s="2" t="n">
         <v>231</v>
       </c>
-      <c r="IP11" t="n">
+      <c r="IP11" s="2" t="n">
         <v>214</v>
+      </c>
+      <c r="IQ11" s="2" t="n">
+        <v>239</v>
+      </c>
+      <c r="IR11" t="n">
+        <v>241</v>
       </c>
     </row>
     <row r="12" ht="13.9" customHeight="1" s="3">
@@ -9504,7 +9570,13 @@
       <c r="IO12" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="IP12" t="n">
+      <c r="IP12" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="IQ12" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="IR12" t="n">
         <v>130</v>
       </c>
     </row>
@@ -10258,8 +10330,14 @@
       <c r="IO13" s="2" t="n">
         <v>375</v>
       </c>
-      <c r="IP13" t="n">
+      <c r="IP13" s="2" t="n">
         <v>344</v>
+      </c>
+      <c r="IQ13" s="2" t="n">
+        <v>355</v>
+      </c>
+      <c r="IR13" t="n">
+        <v>371</v>
       </c>
     </row>
     <row r="14" ht="13.9" customHeight="1" s="3">
@@ -11012,8 +11090,14 @@
       <c r="IO14" s="2" t="n">
         <v>1.6</v>
       </c>
-      <c r="IP14" t="n">
+      <c r="IP14" s="2" t="n">
         <v>1.65</v>
+      </c>
+      <c r="IQ14" s="2" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="IR14" t="n">
+        <v>1.85</v>
       </c>
     </row>
     <row r="15" ht="13.9" customHeight="1" s="3">
@@ -11766,8 +11850,14 @@
       <c r="IO15" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="IP15" t="n">
+      <c r="IP15" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="IQ15" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="IR15" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="16" ht="13.9" customHeight="1" s="3">
@@ -12520,8 +12610,14 @@
       <c r="IO16" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="IP16" t="n">
+      <c r="IP16" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="IQ16" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="IR16" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="17" ht="13.9" customHeight="1" s="3">
@@ -13274,8 +13370,14 @@
       <c r="IO17" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IP17" t="n">
+      <c r="IP17" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IQ17" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="IR17" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="18" ht="13.9" customHeight="1" s="3">
@@ -14028,8 +14130,14 @@
       <c r="IO18" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IP18" t="n">
+      <c r="IP18" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IQ18" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="IR18" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="13.9" customHeight="1" s="3">
@@ -14782,8 +14890,14 @@
       <c r="IO19" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IP19" t="n">
+      <c r="IP19" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IQ19" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IR19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="13.9" customHeight="1" s="3">
@@ -15536,8 +15650,14 @@
       <c r="IO20" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IP20" t="n">
+      <c r="IP20" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="IQ20" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="IR20" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="13.9" customHeight="1" s="3">
@@ -16290,8 +16410,14 @@
       <c r="IO21" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IP21" t="n">
+      <c r="IP21" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IQ21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IR21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.9" customHeight="1" s="3">
@@ -17044,8 +17170,14 @@
       <c r="IO22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IP22" t="n">
+      <c r="IP22" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IQ22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IR22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="13.9" customHeight="1" s="3">
@@ -17798,8 +17930,14 @@
       <c r="IO23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IP23" t="n">
+      <c r="IP23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IQ23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IR23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="13.9" customHeight="1" s="3">
@@ -18552,8 +18690,14 @@
       <c r="IO24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="IP24" t="n">
+      <c r="IP24" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IQ24" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="IR24" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="13.9" customHeight="1" s="3">
@@ -19306,8 +19450,14 @@
       <c r="IO25" s="2" t="n">
         <v>65.2</v>
       </c>
-      <c r="IP25" t="n">
+      <c r="IP25" s="2" t="n">
         <v>77.8</v>
+      </c>
+      <c r="IQ25" s="2" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="IR25" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="26" ht="13.9" customHeight="1" s="3">
@@ -20060,8 +20210,14 @@
       <c r="IO26" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IP26" t="n">
+      <c r="IP26" s="2" t="n">
         <v>16.38</v>
+      </c>
+      <c r="IQ26" s="2" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="IR26" t="n">
+        <v>23.19</v>
       </c>
     </row>
     <row r="27" ht="13.9" customHeight="1" s="3">
@@ -20814,8 +20970,14 @@
       <c r="IO27" s="2" t="n">
         <v>16.3</v>
       </c>
-      <c r="IP27" t="n">
+      <c r="IP27" s="2" t="n">
         <v>12.74</v>
+      </c>
+      <c r="IQ27" s="2" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="IR27" t="n">
+        <v>14.84</v>
       </c>
     </row>
     <row r="28" ht="13.9" customHeight="1" s="3">
@@ -21568,8 +21730,14 @@
       <c r="IO28" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IP28" t="n">
+      <c r="IP28" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IQ28" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="IR28" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="29" ht="13.9" customHeight="1" s="3">
@@ -22322,8 +22490,14 @@
       <c r="IO29" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="IP29" t="n">
+      <c r="IP29" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="IQ29" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="IR29" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="30" ht="13.9" customHeight="1" s="3">
@@ -23076,8 +23250,14 @@
       <c r="IO30" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IP30" t="n">
+      <c r="IP30" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IQ30" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="IR30" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="13.9" customHeight="1" s="3">
@@ -23830,8 +24010,14 @@
       <c r="IO31" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IP31" t="n">
+      <c r="IP31" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IQ31" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="IR31" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="32" ht="13.9" customHeight="1" s="3">
@@ -24584,8 +24770,14 @@
       <c r="IO32" s="2" t="n">
         <v>2.35</v>
       </c>
-      <c r="IP32" t="n">
+      <c r="IP32" s="2" t="n">
         <v>1.96</v>
+      </c>
+      <c r="IQ32" s="2" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="IR32" t="n">
+        <v>2.72</v>
       </c>
     </row>
     <row r="33" ht="13.9" customHeight="1" s="3">
@@ -25338,8 +25530,14 @@
       <c r="IO33" s="2" t="n">
         <v>3.6</v>
       </c>
-      <c r="IP33" t="n">
+      <c r="IP33" s="2" t="n">
         <v>2.52</v>
+      </c>
+      <c r="IQ33" s="2" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="IR33" t="n">
+        <v>4.25</v>
       </c>
     </row>
     <row r="34" ht="13.9" customHeight="1" s="3">
@@ -26092,8 +26290,14 @@
       <c r="IO34" s="2" t="n">
         <v>40.7</v>
       </c>
-      <c r="IP34" t="n">
+      <c r="IP34" s="2" t="n">
         <v>49.1</v>
+      </c>
+      <c r="IQ34" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="IR34" t="n">
+        <v>36.8</v>
       </c>
     </row>
     <row r="35" ht="13.9" customHeight="1" s="3">
@@ -26846,8 +27050,14 @@
       <c r="IO35" s="2" t="n">
         <v>27.8</v>
       </c>
-      <c r="IP35" t="n">
+      <c r="IP35" s="2" t="n">
         <v>39.6</v>
+      </c>
+      <c r="IQ35" s="2" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="IR35" t="n">
+        <v>23.5</v>
       </c>
     </row>
     <row r="36" ht="13.9" customHeight="1" s="3">
@@ -27600,8 +27810,14 @@
       <c r="IO36" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="IP36" t="n">
+      <c r="IP36" s="2" t="n">
         <v>187.9</v>
+      </c>
+      <c r="IQ36" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="IR36" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="37" ht="13.9" customHeight="1" s="3">
@@ -28354,8 +28570,14 @@
       <c r="IO37" s="2" t="n">
         <v>88.7</v>
       </c>
-      <c r="IP37" t="n">
+      <c r="IP37" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="IQ37" s="2" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="IR37" t="n">
+        <v>88.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.9" customHeight="1" s="3">
@@ -29108,8 +29330,14 @@
       <c r="IO38" s="2" t="n">
         <v>26.66</v>
       </c>
-      <c r="IP38" t="n">
+      <c r="IP38" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IQ38" s="2" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="IR38" t="n">
+        <v>26.8</v>
       </c>
     </row>
     <row r="39" ht="13.9" customHeight="1" s="3">
@@ -29862,8 +30090,14 @@
       <c r="IO39" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="IP39" t="n">
+      <c r="IP39" s="2" t="n">
         <v>103.3</v>
+      </c>
+      <c r="IQ39" s="2" t="n">
+        <v>104.7</v>
+      </c>
+      <c r="IR39" t="n">
+        <v>101.1</v>
       </c>
     </row>
     <row r="40" ht="13.9" customHeight="1" s="3">
@@ -30616,8 +30850,14 @@
       <c r="IO40" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IP40" t="n">
+      <c r="IP40" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IQ40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IR40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.9" customHeight="1" s="3">
@@ -31370,7 +31610,13 @@
       <c r="IO41" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IP41" t="n">
+      <c r="IP41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IQ41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IR41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -32124,8 +32370,14 @@
       <c r="IO42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IP42" t="n">
+      <c r="IP42" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IQ42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IR42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.9" customHeight="1" s="3">
@@ -32878,8 +33130,14 @@
       <c r="IO43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IP43" t="n">
+      <c r="IP43" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IQ43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IR43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.9" customHeight="1" s="3">
@@ -33632,8 +33890,14 @@
       <c r="IO44" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="IP44" t="n">
+      <c r="IP44" s="2" t="n">
         <v>163</v>
+      </c>
+      <c r="IQ44" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="IR44" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="45" ht="13.9" customHeight="1" s="3">
@@ -34386,8 +34650,14 @@
       <c r="IO45" s="2" t="n">
         <v>215</v>
       </c>
-      <c r="IP45" t="n">
+      <c r="IP45" s="2" t="n">
         <v>166</v>
+      </c>
+      <c r="IQ45" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="IR45" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="46" ht="13.9" customHeight="1" s="3">
@@ -35140,8 +35410,14 @@
       <c r="IO46" s="2" t="n">
         <v>270</v>
       </c>
-      <c r="IP46" t="n">
+      <c r="IP46" s="2" t="n">
         <v>238</v>
+      </c>
+      <c r="IQ46" s="2" t="n">
+        <v>253</v>
+      </c>
+      <c r="IR46" t="n">
+        <v>278</v>
       </c>
     </row>
     <row r="47" ht="13.9" customHeight="1" s="3">
@@ -35894,8 +36170,14 @@
       <c r="IO47" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="IP47" t="n">
+      <c r="IP47" s="2" t="n">
         <v>69.2</v>
+      </c>
+      <c r="IQ47" s="2" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="IR47" t="n">
+        <v>74.90000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.9" customHeight="1" s="3">
@@ -36648,8 +36930,14 @@
       <c r="IO48" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="IP48" t="n">
+      <c r="IP48" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="IQ48" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="IR48" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="49" ht="13.9" customHeight="1" s="3">
@@ -37402,8 +37690,14 @@
       <c r="IO49" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IP49" t="n">
+      <c r="IP49" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IQ49" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IR49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="13.9" customHeight="1" s="3">
@@ -38156,8 +38450,14 @@
       <c r="IO50" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IP50" t="n">
+      <c r="IP50" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IQ50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IR50" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="51" ht="13.9" customHeight="1" s="3">
@@ -38910,8 +39210,14 @@
       <c r="IO51" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IP51" t="n">
+      <c r="IP51" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IQ51" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="IR51" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="13.9" customHeight="1" s="3">
@@ -39664,8 +39970,14 @@
       <c r="IO52" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IP52" t="n">
+      <c r="IP52" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IQ52" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="IR52" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="53" ht="13.9" customHeight="1" s="3">
@@ -40418,8 +40730,14 @@
       <c r="IO53" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IP53" t="n">
+      <c r="IP53" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="IQ53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IR53" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="13.9" customHeight="1" s="3">
@@ -41172,8 +41490,14 @@
       <c r="IO54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IP54" t="n">
+      <c r="IP54" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IQ54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IR54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55" ht="13.9" customHeight="1" s="3">
@@ -41926,8 +42250,14 @@
       <c r="IO55" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IP55" t="n">
+      <c r="IP55" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IQ55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IR55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.9" customHeight="1" s="3">
@@ -42680,8 +43010,14 @@
       <c r="IO56" s="2" t="n">
         <v>73.3</v>
       </c>
-      <c r="IP56" t="n">
+      <c r="IP56" s="2" t="n">
         <v>61.9</v>
+      </c>
+      <c r="IQ56" s="2" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="IR56" t="n">
+        <v>56.2</v>
       </c>
     </row>
     <row r="57" ht="13.9" customHeight="1" s="3">
@@ -43434,8 +43770,14 @@
       <c r="IO57" s="2" t="n">
         <v>194</v>
       </c>
-      <c r="IP57" t="n">
+      <c r="IP57" s="2" t="n">
         <v>213</v>
+      </c>
+      <c r="IQ57" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="IR57" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="58" ht="13.9" customHeight="1" s="3">
@@ -44188,8 +44530,14 @@
       <c r="IO58" s="2" t="n">
         <v>167</v>
       </c>
-      <c r="IP58" t="n">
+      <c r="IP58" s="2" t="n">
         <v>118</v>
+      </c>
+      <c r="IQ58" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="IR58" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="59" ht="13.9" customHeight="1" s="3">
@@ -44942,8 +45290,14 @@
       <c r="IO59" s="2" t="n">
         <v>361</v>
       </c>
-      <c r="IP59" t="n">
+      <c r="IP59" s="2" t="n">
         <v>331</v>
+      </c>
+      <c r="IQ59" s="2" t="n">
+        <v>357</v>
+      </c>
+      <c r="IR59" t="n">
+        <v>361</v>
       </c>
     </row>
     <row r="60" ht="13.9" customHeight="1" s="3">
@@ -45696,8 +46050,14 @@
       <c r="IO60" s="2" t="n">
         <v>1.16</v>
       </c>
-      <c r="IP60" t="n">
+      <c r="IP60" s="2" t="n">
         <v>1.81</v>
+      </c>
+      <c r="IQ60" s="2" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="IR60" t="n">
+        <v>1.52</v>
       </c>
     </row>
     <row r="61" ht="13.9" customHeight="1" s="3">
@@ -46450,8 +46810,14 @@
       <c r="IO61" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="IP61" t="n">
+      <c r="IP61" s="2" t="n">
         <v>74</v>
+      </c>
+      <c r="IQ61" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="IR61" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="62" ht="13.9" customHeight="1" s="3">
@@ -47204,8 +47570,14 @@
       <c r="IO62" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="IP62" t="n">
+      <c r="IP62" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="IQ62" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="IR62" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="63" ht="13.9" customHeight="1" s="3">
@@ -47958,8 +48330,14 @@
       <c r="IO63" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IP63" t="n">
+      <c r="IP63" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="IQ63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="IR63" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="64" ht="13.9" customHeight="1" s="3">
@@ -48712,8 +49090,14 @@
       <c r="IO64" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IP64" t="n">
+      <c r="IP64" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IQ64" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IR64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="13.9" customHeight="1" s="3">
@@ -49466,8 +49850,14 @@
       <c r="IO65" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IP65" t="n">
+      <c r="IP65" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IQ65" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="IR65" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="13.9" customHeight="1" s="3">
@@ -50220,8 +50610,14 @@
       <c r="IO66" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IP66" t="n">
+      <c r="IP66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IQ66" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IR66" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="67" ht="13.9" customHeight="1" s="3">
@@ -50974,8 +51370,14 @@
       <c r="IO67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IP67" t="n">
+      <c r="IP67" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IQ67" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IR67" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="68" ht="13.9" customHeight="1" s="3">
@@ -51728,8 +52130,14 @@
       <c r="IO68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IP68" t="n">
+      <c r="IP68" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IQ68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IR68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="13.9" customHeight="1" s="3">
@@ -52482,8 +52890,14 @@
       <c r="IO69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IP69" t="n">
+      <c r="IP69" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IQ69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IR69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.9" customHeight="1" s="3">
@@ -53236,8 +53650,14 @@
       <c r="IO70" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="IP70" t="n">
+      <c r="IP70" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IQ70" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IR70" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="71" ht="13.9" customHeight="1" s="3">
@@ -53990,8 +54410,14 @@
       <c r="IO71" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="IP71" t="n">
+      <c r="IP71" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IQ71" s="2" t="n">
+        <v>54.2</v>
+      </c>
+      <c r="IR71" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="72" ht="13.9" customHeight="1" s="3">
@@ -54744,8 +55170,14 @@
       <c r="IO72" s="2" t="n">
         <v>25.79</v>
       </c>
-      <c r="IP72" t="n">
+      <c r="IP72" s="2" t="n">
         <v>30.09</v>
+      </c>
+      <c r="IQ72" s="2" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="IR72" t="n">
+        <v>90.25</v>
       </c>
     </row>
     <row r="73" ht="13.9" customHeight="1" s="3">
@@ -55498,8 +55930,14 @@
       <c r="IO73" s="2" t="n">
         <v>17.19</v>
       </c>
-      <c r="IP73" t="n">
+      <c r="IP73" s="2" t="n">
         <v>13.24</v>
+      </c>
+      <c r="IQ73" s="2" t="n">
+        <v>14.88</v>
+      </c>
+      <c r="IR73" t="n">
+        <v>36.1</v>
       </c>
     </row>
     <row r="74" ht="13.9" customHeight="1" s="3">
@@ -56252,8 +56690,14 @@
       <c r="IO74" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IP74" t="n">
+      <c r="IP74" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IQ74" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="IR74" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="13.9" customHeight="1" s="3">
@@ -57006,8 +57450,14 @@
       <c r="IO75" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="IP75" t="n">
+      <c r="IP75" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="IQ75" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="IR75" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="76" ht="13.9" customHeight="1" s="3">
@@ -57760,8 +58210,14 @@
       <c r="IO76" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IP76" t="n">
+      <c r="IP76" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IQ76" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="IR76" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="77" ht="13.9" customHeight="1" s="3">
@@ -58514,8 +58970,14 @@
       <c r="IO77" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="IP77" t="n">
+      <c r="IP77" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="IQ77" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="IR77" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="78" ht="13.9" customHeight="1" s="3">
@@ -59268,8 +59730,14 @@
       <c r="IO78" s="2" t="n">
         <v>2.95</v>
       </c>
-      <c r="IP78" t="n">
+      <c r="IP78" s="2" t="n">
         <v>2.28</v>
+      </c>
+      <c r="IQ78" s="2" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="IR78" t="n">
+        <v>3.3</v>
       </c>
     </row>
     <row r="79" ht="13.9" customHeight="1" s="3">
@@ -60022,8 +60490,14 @@
       <c r="IO79" s="2" t="n">
         <v>4.43</v>
       </c>
-      <c r="IP79" t="n">
+      <c r="IP79" s="2" t="n">
         <v>5.18</v>
+      </c>
+      <c r="IQ79" s="2" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="IR79" t="n">
+        <v>8.25</v>
       </c>
     </row>
     <row r="80" ht="13.9" customHeight="1" s="3">
@@ -60776,8 +61250,14 @@
       <c r="IO80" s="2" t="n">
         <v>33.9</v>
       </c>
-      <c r="IP80" t="n">
+      <c r="IP80" s="2" t="n">
         <v>36.8</v>
+      </c>
+      <c r="IQ80" s="2" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="IR80" t="n">
+        <v>30.3</v>
       </c>
     </row>
     <row r="81" ht="13.9" customHeight="1" s="3">
@@ -61530,8 +62010,14 @@
       <c r="IO81" s="2" t="n">
         <v>22.6</v>
       </c>
-      <c r="IP81" t="n">
+      <c r="IP81" s="2" t="n">
         <v>19.3</v>
+      </c>
+      <c r="IQ81" s="2" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="IR81" t="n">
+        <v>12.1</v>
       </c>
     </row>
     <row r="82" ht="13.9" customHeight="1" s="3">
@@ -62284,8 +62770,14 @@
       <c r="IO82" s="2" t="n">
         <v>190.5</v>
       </c>
-      <c r="IP82" t="n">
+      <c r="IP82" s="2" t="n">
         <v>188</v>
+      </c>
+      <c r="IQ82" s="2" t="n">
+        <v>186.9</v>
+      </c>
+      <c r="IR82" t="n">
+        <v>187.4</v>
       </c>
     </row>
     <row r="83" ht="13.9" customHeight="1" s="3">
@@ -63038,8 +63530,14 @@
       <c r="IO83" s="2" t="n">
         <v>88.8</v>
       </c>
-      <c r="IP83" t="n">
+      <c r="IP83" s="2" t="n">
         <v>87.09999999999999</v>
+      </c>
+      <c r="IQ83" s="2" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="IR83" t="n">
+        <v>84.8</v>
       </c>
     </row>
     <row r="84" ht="13.9" customHeight="1" s="3">
@@ -63792,8 +64290,14 @@
       <c r="IO84" s="2" t="n">
         <v>26.58</v>
       </c>
-      <c r="IP84" t="n">
+      <c r="IP84" s="2" t="n">
         <v>25.33</v>
+      </c>
+      <c r="IQ84" s="2" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="IR84" t="n">
+        <v>26.24</v>
       </c>
     </row>
     <row r="85" ht="13.9" customHeight="1" s="3">
@@ -64546,8 +65050,14 @@
       <c r="IO85" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="IP85" t="n">
+      <c r="IP85" s="2" t="n">
         <v>80.40000000000001</v>
+      </c>
+      <c r="IQ85" s="2" t="n">
+        <v>110.3</v>
+      </c>
+      <c r="IR85" t="n">
+        <v>103.4</v>
       </c>
     </row>
     <row r="86" ht="13.9" customHeight="1" s="3">
@@ -65300,8 +65810,14 @@
       <c r="IO86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IP86" t="n">
+      <c r="IP86" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IQ86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IR86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="13.9" customHeight="1" s="3">
@@ -66054,8 +66570,14 @@
       <c r="IO87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IP87" t="n">
+      <c r="IP87" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IQ87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IR87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.9" customHeight="1" s="3">
@@ -66808,8 +67330,14 @@
       <c r="IO88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IP88" t="n">
+      <c r="IP88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IQ88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IR88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.9" customHeight="1" s="3">
@@ -67562,8 +68090,14 @@
       <c r="IO89" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IP89" t="n">
+      <c r="IP89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IQ89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IR89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.9" customHeight="1" s="3">
@@ -68316,8 +68850,14 @@
       <c r="IO90" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="IP90" t="n">
+      <c r="IP90" s="2" t="n">
         <v>159</v>
+      </c>
+      <c r="IQ90" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="IR90" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="91" ht="13.9" customHeight="1" s="3">
@@ -69070,8 +69610,14 @@
       <c r="IO91" s="2" t="n">
         <v>223</v>
       </c>
-      <c r="IP91" t="n">
+      <c r="IP91" s="2" t="n">
         <v>169</v>
+      </c>
+      <c r="IQ91" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="IR91" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="92" ht="13.9" customHeight="1" s="3">
@@ -69824,8 +70370,14 @@
       <c r="IO92" s="2" t="n">
         <v>260</v>
       </c>
-      <c r="IP92" t="n">
+      <c r="IP92" s="2" t="n">
         <v>221</v>
+      </c>
+      <c r="IQ92" s="2" t="n">
+        <v>259</v>
+      </c>
+      <c r="IR92" t="n">
+        <v>263</v>
       </c>
     </row>
     <row r="93" ht="13.9" customHeight="1" s="3">
@@ -70578,8 +71130,14 @@
       <c r="IO93" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="IP93" t="n">
+      <c r="IP93" s="2" t="n">
         <v>66.8</v>
+      </c>
+      <c r="IQ93" s="2" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="IR93" t="n">
+        <v>72.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.9" customHeight="1" s="3">
@@ -71332,8 +71890,14 @@
       <c r="IO94" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="IP94" t="n">
+      <c r="IP94" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="IQ94" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="IR94" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="95" ht="13.9" customHeight="1" s="3">
@@ -72086,8 +72650,14 @@
       <c r="IO95" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IP95" t="n">
+      <c r="IP95" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IQ95" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IR95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="13.9" customHeight="1" s="3">
@@ -72840,8 +73410,14 @@
       <c r="IO96" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IP96" t="n">
+      <c r="IP96" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IQ96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IR96" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="97" ht="13.9" customHeight="1" s="3">
@@ -73594,8 +74170,14 @@
       <c r="IO97" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IP97" t="n">
+      <c r="IP97" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IQ97" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="IR97" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="13.9" customHeight="1" s="3">
@@ -74348,8 +74930,14 @@
       <c r="IO98" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IP98" t="n">
+      <c r="IP98" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IQ98" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="IR98" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="99" ht="13.9" customHeight="1" s="3">
@@ -75102,8 +75690,14 @@
       <c r="IO99" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IP99" t="n">
+      <c r="IP99" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="IQ99" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="IR99" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="100" ht="13.9" customHeight="1" s="3">
@@ -75856,8 +76450,14 @@
       <c r="IO100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IP100" t="n">
+      <c r="IP100" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IQ100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IR100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.9" customHeight="1" s="3">
@@ -76610,8 +77210,14 @@
       <c r="IO101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IP101" t="n">
+      <c r="IP101" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IQ101" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IR101" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="102" ht="13.9" customHeight="1" s="3">
@@ -77364,8 +77970,14 @@
       <c r="IO102" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IP102" t="n">
+      <c r="IP102" s="2" t="n">
         <v>72.7</v>
+      </c>
+      <c r="IQ102" s="2" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="IR102" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Brisbane_stats.xlsx
+++ b/django_AFL_ML/Data/Brisbane_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IR102"/>
+  <dimension ref="A1:IT102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL36" activeCellId="0" sqref="IL36"/>
@@ -1216,8 +1216,14 @@
       <c r="IQ1" s="2" t="n">
         <v>10606</v>
       </c>
-      <c r="IR1" t="n">
+      <c r="IR1" s="2" t="n">
         <v>10613</v>
+      </c>
+      <c r="IS1" s="2" t="n">
+        <v>10621</v>
+      </c>
+      <c r="IT1" t="n">
+        <v>10628</v>
       </c>
     </row>
     <row r="2" ht="13.9" customHeight="1" s="3">
@@ -1976,7 +1982,13 @@
       <c r="IQ2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IR2" t="n">
+      <c r="IR2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IS2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IT2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2736,8 +2748,14 @@
       <c r="IQ3" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IR3" t="n">
+      <c r="IR3" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IS3" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="13.9" customHeight="1" s="3">
@@ -3496,8 +3514,14 @@
       <c r="IQ4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IR4" t="n">
+      <c r="IR4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IS4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.9" customHeight="1" s="3">
@@ -4256,7 +4280,13 @@
       <c r="IQ5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IR5" t="n">
+      <c r="IR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IT5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5016,8 +5046,14 @@
       <c r="IQ6" s="2" t="n">
         <v>113</v>
       </c>
-      <c r="IR6" t="n">
+      <c r="IR6" s="2" t="n">
         <v>105</v>
+      </c>
+      <c r="IS6" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="IT6" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="7" ht="13.9" customHeight="1" s="3">
@@ -5776,8 +5812,14 @@
       <c r="IQ7" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="IR7" t="n">
+      <c r="IR7" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IS7" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="IT7" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="8" ht="13.9" customHeight="1" s="3">
@@ -6536,8 +6578,14 @@
       <c r="IQ8" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IR8" t="n">
+      <c r="IR8" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="IS8" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="IT8" t="n">
+        <v>-5</v>
       </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" s="3">
@@ -7296,8 +7344,14 @@
       <c r="IQ9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IR9" t="n">
+      <c r="IR9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IS9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IT9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.9" customHeight="1" s="3">
@@ -8056,8 +8110,14 @@
       <c r="IQ10" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IR10" t="n">
+      <c r="IR10" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IS10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IT10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="13.9" customHeight="1" s="3">
@@ -8816,8 +8876,14 @@
       <c r="IQ11" s="2" t="n">
         <v>239</v>
       </c>
-      <c r="IR11" t="n">
+      <c r="IR11" s="2" t="n">
         <v>241</v>
+      </c>
+      <c r="IS11" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="IT11" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="12" ht="13.9" customHeight="1" s="3">
@@ -9576,8 +9642,14 @@
       <c r="IQ12" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="IR12" t="n">
+      <c r="IR12" s="2" t="n">
         <v>130</v>
+      </c>
+      <c r="IS12" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="IT12" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="13" ht="13.9" customHeight="1" s="3">
@@ -10336,8 +10408,14 @@
       <c r="IQ13" s="2" t="n">
         <v>355</v>
       </c>
-      <c r="IR13" t="n">
+      <c r="IR13" s="2" t="n">
         <v>371</v>
+      </c>
+      <c r="IS13" s="2" t="n">
+        <v>343</v>
+      </c>
+      <c r="IT13" t="n">
+        <v>349</v>
       </c>
     </row>
     <row r="14" ht="13.9" customHeight="1" s="3">
@@ -11096,8 +11174,14 @@
       <c r="IQ14" s="2" t="n">
         <v>2.06</v>
       </c>
-      <c r="IR14" t="n">
+      <c r="IR14" s="2" t="n">
         <v>1.85</v>
+      </c>
+      <c r="IS14" s="2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="IT14" t="n">
+        <v>1.81</v>
       </c>
     </row>
     <row r="15" ht="13.9" customHeight="1" s="3">
@@ -11856,8 +11940,14 @@
       <c r="IQ15" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="IR15" t="n">
+      <c r="IR15" s="2" t="n">
         <v>112</v>
+      </c>
+      <c r="IS15" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="IT15" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="16" ht="13.9" customHeight="1" s="3">
@@ -12616,8 +12706,14 @@
       <c r="IQ16" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IR16" t="n">
+      <c r="IR16" s="2" t="n">
         <v>74</v>
+      </c>
+      <c r="IS16" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="IT16" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="17" ht="13.9" customHeight="1" s="3">
@@ -13376,8 +13472,14 @@
       <c r="IQ17" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IR17" t="n">
+      <c r="IR17" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="IS17" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IT17" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="18" ht="13.9" customHeight="1" s="3">
@@ -14136,8 +14238,14 @@
       <c r="IQ18" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="IR18" t="n">
+      <c r="IR18" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IS18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="IT18" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="13.9" customHeight="1" s="3">
@@ -14896,8 +15004,14 @@
       <c r="IQ19" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IR19" t="n">
+      <c r="IR19" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IS19" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="IT19" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="20" ht="13.9" customHeight="1" s="3">
@@ -15656,8 +15770,14 @@
       <c r="IQ20" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IR20" t="n">
+      <c r="IR20" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IS20" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="IT20" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="13.9" customHeight="1" s="3">
@@ -16416,8 +16536,14 @@
       <c r="IQ21" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IR21" t="n">
+      <c r="IR21" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IS21" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IT21" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="13.9" customHeight="1" s="3">
@@ -17176,7 +17302,13 @@
       <c r="IQ22" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IR22" t="n">
+      <c r="IR22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IS22" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IT22" t="n">
         <v>9</v>
       </c>
     </row>
@@ -17936,8 +18068,14 @@
       <c r="IQ23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IR23" t="n">
+      <c r="IR23" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IS23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.9" customHeight="1" s="3">
@@ -18696,8 +18834,14 @@
       <c r="IQ24" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="IR24" t="n">
+      <c r="IR24" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IS24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="IT24" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="13.9" customHeight="1" s="3">
@@ -19456,8 +19600,14 @@
       <c r="IQ25" s="2" t="n">
         <v>60.7</v>
       </c>
-      <c r="IR25" t="n">
+      <c r="IR25" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="IS25" s="2" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="IT25" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="26" ht="13.9" customHeight="1" s="3">
@@ -20216,8 +20366,14 @@
       <c r="IQ26" s="2" t="n">
         <v>20.88</v>
       </c>
-      <c r="IR26" t="n">
+      <c r="IR26" s="2" t="n">
         <v>23.19</v>
+      </c>
+      <c r="IS26" s="2" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="IT26" t="n">
+        <v>20.53</v>
       </c>
     </row>
     <row r="27" ht="13.9" customHeight="1" s="3">
@@ -20976,8 +21132,14 @@
       <c r="IQ27" s="2" t="n">
         <v>12.68</v>
       </c>
-      <c r="IR27" t="n">
+      <c r="IR27" s="2" t="n">
         <v>14.84</v>
+      </c>
+      <c r="IS27" s="2" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="IT27" t="n">
+        <v>12.93</v>
       </c>
     </row>
     <row r="28" ht="13.9" customHeight="1" s="3">
@@ -21736,8 +21898,14 @@
       <c r="IQ28" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IR28" t="n">
+      <c r="IR28" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IS28" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="IT28" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="29" ht="13.9" customHeight="1" s="3">
@@ -22496,8 +22664,14 @@
       <c r="IQ29" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="IR29" t="n">
+      <c r="IR29" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IS29" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="IT29" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="30" ht="13.9" customHeight="1" s="3">
@@ -23256,8 +23430,14 @@
       <c r="IQ30" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IR30" t="n">
+      <c r="IR30" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IS30" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IT30" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="13.9" customHeight="1" s="3">
@@ -24016,8 +24196,14 @@
       <c r="IQ31" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IR31" t="n">
+      <c r="IR31" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="IS31" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="IT31" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="32" ht="13.9" customHeight="1" s="3">
@@ -24776,8 +24962,14 @@
       <c r="IQ32" s="2" t="n">
         <v>2.14</v>
       </c>
-      <c r="IR32" t="n">
+      <c r="IR32" s="2" t="n">
         <v>2.72</v>
+      </c>
+      <c r="IS32" s="2" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="IT32" t="n">
+        <v>2.26</v>
       </c>
     </row>
     <row r="33" ht="13.9" customHeight="1" s="3">
@@ -25536,8 +25728,14 @@
       <c r="IQ33" s="2" t="n">
         <v>3.53</v>
       </c>
-      <c r="IR33" t="n">
+      <c r="IR33" s="2" t="n">
         <v>4.25</v>
+      </c>
+      <c r="IS33" s="2" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="IT33" t="n">
+        <v>3.59</v>
       </c>
     </row>
     <row r="34" ht="13.9" customHeight="1" s="3">
@@ -26296,8 +26494,14 @@
       <c r="IQ34" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IR34" t="n">
+      <c r="IR34" s="2" t="n">
         <v>36.8</v>
+      </c>
+      <c r="IS34" s="2" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="IT34" t="n">
+        <v>42.6</v>
       </c>
     </row>
     <row r="35" ht="13.9" customHeight="1" s="3">
@@ -27056,8 +27260,14 @@
       <c r="IQ35" s="2" t="n">
         <v>28.3</v>
       </c>
-      <c r="IR35" t="n">
+      <c r="IR35" s="2" t="n">
         <v>23.5</v>
+      </c>
+      <c r="IS35" s="2" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="IT35" t="n">
+        <v>27.9</v>
       </c>
     </row>
     <row r="36" ht="13.9" customHeight="1" s="3">
@@ -27816,8 +28026,14 @@
       <c r="IQ36" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="IR36" t="n">
+      <c r="IR36" s="2" t="n">
         <v>187.7</v>
+      </c>
+      <c r="IS36" s="2" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="IT36" t="n">
+        <v>188.4</v>
       </c>
     </row>
     <row r="37" ht="13.9" customHeight="1" s="3">
@@ -28576,8 +28792,14 @@
       <c r="IQ37" s="2" t="n">
         <v>88.5</v>
       </c>
-      <c r="IR37" t="n">
+      <c r="IR37" s="2" t="n">
         <v>88.09999999999999</v>
+      </c>
+      <c r="IS37" s="2" t="n">
+        <v>88.5</v>
+      </c>
+      <c r="IT37" t="n">
+        <v>88.3</v>
       </c>
     </row>
     <row r="38" ht="13.9" customHeight="1" s="3">
@@ -29336,7 +29558,13 @@
       <c r="IQ38" s="2" t="n">
         <v>26.16</v>
       </c>
-      <c r="IR38" t="n">
+      <c r="IR38" s="2" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="IS38" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="IT38" t="n">
         <v>26.8</v>
       </c>
     </row>
@@ -30096,8 +30324,14 @@
       <c r="IQ39" s="2" t="n">
         <v>104.7</v>
       </c>
-      <c r="IR39" t="n">
+      <c r="IR39" s="2" t="n">
         <v>101.1</v>
+      </c>
+      <c r="IS39" s="2" t="n">
+        <v>103.6</v>
+      </c>
+      <c r="IT39" t="n">
+        <v>108.3</v>
       </c>
     </row>
     <row r="40" ht="13.9" customHeight="1" s="3">
@@ -30856,7 +31090,13 @@
       <c r="IQ40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IR40" t="n">
+      <c r="IR40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IS40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IT40" t="n">
         <v>6</v>
       </c>
     </row>
@@ -31616,8 +31856,14 @@
       <c r="IQ41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IR41" t="n">
+      <c r="IR41" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IS41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IT41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.9" customHeight="1" s="3">
@@ -32376,8 +32622,14 @@
       <c r="IQ42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IR42" t="n">
+      <c r="IR42" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IS42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IT42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="13.9" customHeight="1" s="3">
@@ -33136,7 +33388,13 @@
       <c r="IQ43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IR43" t="n">
+      <c r="IR43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IS43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IT43" t="n">
         <v>6</v>
       </c>
     </row>
@@ -33896,8 +34154,14 @@
       <c r="IQ44" s="2" t="n">
         <v>148</v>
       </c>
-      <c r="IR44" t="n">
+      <c r="IR44" s="2" t="n">
         <v>138</v>
+      </c>
+      <c r="IS44" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="IT44" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="45" ht="13.9" customHeight="1" s="3">
@@ -34656,8 +34920,14 @@
       <c r="IQ45" s="2" t="n">
         <v>186</v>
       </c>
-      <c r="IR45" t="n">
+      <c r="IR45" s="2" t="n">
         <v>233</v>
+      </c>
+      <c r="IS45" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="IT45" t="n">
+        <v>198</v>
       </c>
     </row>
     <row r="46" ht="13.9" customHeight="1" s="3">
@@ -35416,8 +35686,14 @@
       <c r="IQ46" s="2" t="n">
         <v>253</v>
       </c>
-      <c r="IR46" t="n">
+      <c r="IR46" s="2" t="n">
         <v>278</v>
+      </c>
+      <c r="IS46" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="IT46" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="47" ht="13.9" customHeight="1" s="3">
@@ -36176,8 +36452,14 @@
       <c r="IQ47" s="2" t="n">
         <v>71.3</v>
       </c>
-      <c r="IR47" t="n">
+      <c r="IR47" s="2" t="n">
         <v>74.90000000000001</v>
+      </c>
+      <c r="IS47" s="2" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="IT47" t="n">
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.9" customHeight="1" s="3">
@@ -36936,8 +37218,14 @@
       <c r="IQ48" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="IR48" t="n">
+      <c r="IR48" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IS48" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="IT48" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="49" ht="13.9" customHeight="1" s="3">
@@ -37696,8 +37984,14 @@
       <c r="IQ49" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IR49" t="n">
+      <c r="IR49" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IS49" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IT49" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="50" ht="13.9" customHeight="1" s="3">
@@ -38456,8 +38750,14 @@
       <c r="IQ50" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IR50" t="n">
+      <c r="IR50" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IS50" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IT50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.9" customHeight="1" s="3">
@@ -39216,8 +39516,14 @@
       <c r="IQ51" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IR51" t="n">
+      <c r="IR51" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IS51" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="IT51" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="52" ht="13.9" customHeight="1" s="3">
@@ -39976,8 +40282,14 @@
       <c r="IQ52" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IR52" t="n">
+      <c r="IR52" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IS52" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IT52" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="13.9" customHeight="1" s="3">
@@ -40736,8 +41048,14 @@
       <c r="IQ53" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IR53" t="n">
+      <c r="IR53" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="IS53" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="IT53" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="54" ht="13.9" customHeight="1" s="3">
@@ -41496,7 +41814,13 @@
       <c r="IQ54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IR54" t="n">
+      <c r="IR54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IT54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -42256,8 +42580,14 @@
       <c r="IQ55" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IR55" t="n">
+      <c r="IR55" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IS55" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IT55" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="13.9" customHeight="1" s="3">
@@ -43016,8 +43346,14 @@
       <c r="IQ56" s="2" t="n">
         <v>52.9</v>
       </c>
-      <c r="IR56" t="n">
+      <c r="IR56" s="2" t="n">
         <v>56.2</v>
+      </c>
+      <c r="IS56" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="IT56" t="n">
+        <v>64.7</v>
       </c>
     </row>
     <row r="57" ht="13.9" customHeight="1" s="3">
@@ -43776,8 +44112,14 @@
       <c r="IQ57" s="2" t="n">
         <v>192</v>
       </c>
-      <c r="IR57" t="n">
+      <c r="IR57" s="2" t="n">
         <v>218</v>
+      </c>
+      <c r="IS57" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="IT57" t="n">
+        <v>186</v>
       </c>
     </row>
     <row r="58" ht="13.9" customHeight="1" s="3">
@@ -44536,8 +44878,14 @@
       <c r="IQ58" s="2" t="n">
         <v>165</v>
       </c>
-      <c r="IR58" t="n">
+      <c r="IR58" s="2" t="n">
         <v>143</v>
+      </c>
+      <c r="IS58" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="IT58" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="59" ht="13.9" customHeight="1" s="3">
@@ -45296,8 +45644,14 @@
       <c r="IQ59" s="2" t="n">
         <v>357</v>
       </c>
-      <c r="IR59" t="n">
+      <c r="IR59" s="2" t="n">
         <v>361</v>
+      </c>
+      <c r="IS59" s="2" t="n">
+        <v>353</v>
+      </c>
+      <c r="IT59" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="60" ht="13.9" customHeight="1" s="3">
@@ -46056,8 +46410,14 @@
       <c r="IQ60" s="2" t="n">
         <v>1.16</v>
       </c>
-      <c r="IR60" t="n">
+      <c r="IR60" s="2" t="n">
         <v>1.52</v>
+      </c>
+      <c r="IS60" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="IT60" t="n">
+        <v>1.48</v>
       </c>
     </row>
     <row r="61" ht="13.9" customHeight="1" s="3">
@@ -46816,8 +47176,14 @@
       <c r="IQ61" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="IR61" t="n">
+      <c r="IR61" s="2" t="n">
         <v>107</v>
+      </c>
+      <c r="IS61" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="IT61" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="62" ht="13.9" customHeight="1" s="3">
@@ -47576,8 +47942,14 @@
       <c r="IQ62" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="IR62" t="n">
+      <c r="IR62" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="IS62" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="IT62" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="63" ht="13.9" customHeight="1" s="3">
@@ -48336,8 +48708,14 @@
       <c r="IQ63" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="IR63" t="n">
+      <c r="IR63" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IS63" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="IT63" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="13.9" customHeight="1" s="3">
@@ -49096,8 +49474,14 @@
       <c r="IQ64" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IR64" t="n">
+      <c r="IR64" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IS64" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="IT64" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="65" ht="13.9" customHeight="1" s="3">
@@ -49856,8 +50240,14 @@
       <c r="IQ65" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="IR65" t="n">
+      <c r="IR65" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IS65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="IT65" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="66" ht="13.9" customHeight="1" s="3">
@@ -50616,8 +51006,14 @@
       <c r="IQ66" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IR66" t="n">
+      <c r="IR66" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IS66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IT66" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="13.9" customHeight="1" s="3">
@@ -51376,8 +51772,14 @@
       <c r="IQ67" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IR67" t="n">
+      <c r="IR67" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IS67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IT67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.9" customHeight="1" s="3">
@@ -52136,8 +52538,14 @@
       <c r="IQ68" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IR68" t="n">
+      <c r="IR68" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IS68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IT68" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="69" ht="13.9" customHeight="1" s="3">
@@ -52896,8 +53304,14 @@
       <c r="IQ69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IR69" t="n">
+      <c r="IR69" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IS69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IT69" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="70" ht="13.9" customHeight="1" s="3">
@@ -53656,8 +54070,14 @@
       <c r="IQ70" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IR70" t="n">
+      <c r="IR70" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IS70" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="IT70" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="13.9" customHeight="1" s="3">
@@ -54416,8 +54836,14 @@
       <c r="IQ71" s="2" t="n">
         <v>54.2</v>
       </c>
-      <c r="IR71" t="n">
+      <c r="IR71" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IS71" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="IT71" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="72" ht="13.9" customHeight="1" s="3">
@@ -55176,8 +55602,14 @@
       <c r="IQ72" s="2" t="n">
         <v>27.46</v>
       </c>
-      <c r="IR72" t="n">
+      <c r="IR72" s="2" t="n">
         <v>90.25</v>
+      </c>
+      <c r="IS72" s="2" t="n">
+        <v>39.22</v>
+      </c>
+      <c r="IT72" t="n">
+        <v>17.33</v>
       </c>
     </row>
     <row r="73" ht="13.9" customHeight="1" s="3">
@@ -55936,8 +56368,14 @@
       <c r="IQ73" s="2" t="n">
         <v>14.88</v>
       </c>
-      <c r="IR73" t="n">
+      <c r="IR73" s="2" t="n">
         <v>36.1</v>
+      </c>
+      <c r="IS73" s="2" t="n">
+        <v>16.81</v>
+      </c>
+      <c r="IT73" t="n">
+        <v>11.56</v>
       </c>
     </row>
     <row r="74" ht="13.9" customHeight="1" s="3">
@@ -56696,8 +57134,14 @@
       <c r="IQ74" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IR74" t="n">
+      <c r="IR74" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IS74" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="IT74" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="75" ht="13.9" customHeight="1" s="3">
@@ -57456,8 +57900,14 @@
       <c r="IQ75" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="IR75" t="n">
+      <c r="IR75" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="IS75" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IT75" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="76" ht="13.9" customHeight="1" s="3">
@@ -58216,8 +58666,14 @@
       <c r="IQ76" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IR76" t="n">
+      <c r="IR76" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IS76" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="IT76" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="77" ht="13.9" customHeight="1" s="3">
@@ -58976,8 +59432,14 @@
       <c r="IQ77" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="IR77" t="n">
+      <c r="IR77" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IS77" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="IT77" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="78" ht="13.9" customHeight="1" s="3">
@@ -59736,8 +60198,14 @@
       <c r="IQ78" s="2" t="n">
         <v>2.29</v>
       </c>
-      <c r="IR78" t="n">
+      <c r="IR78" s="2" t="n">
         <v>3.3</v>
+      </c>
+      <c r="IS78" s="2" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="IT78" t="n">
+        <v>1.85</v>
       </c>
     </row>
     <row r="79" ht="13.9" customHeight="1" s="3">
@@ -60496,8 +60964,14 @@
       <c r="IQ79" s="2" t="n">
         <v>4.23</v>
       </c>
-      <c r="IR79" t="n">
+      <c r="IR79" s="2" t="n">
         <v>8.25</v>
+      </c>
+      <c r="IS79" s="2" t="n">
+        <v>5.89</v>
+      </c>
+      <c r="IT79" t="n">
+        <v>2.78</v>
       </c>
     </row>
     <row r="80" ht="13.9" customHeight="1" s="3">
@@ -61256,8 +61730,14 @@
       <c r="IQ80" s="2" t="n">
         <v>38.2</v>
       </c>
-      <c r="IR80" t="n">
+      <c r="IR80" s="2" t="n">
         <v>30.3</v>
+      </c>
+      <c r="IS80" s="2" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="IT80" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="81" ht="13.9" customHeight="1" s="3">
@@ -62016,8 +62496,14 @@
       <c r="IQ81" s="2" t="n">
         <v>23.6</v>
       </c>
-      <c r="IR81" t="n">
+      <c r="IR81" s="2" t="n">
         <v>12.1</v>
+      </c>
+      <c r="IS81" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="IT81" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="82" ht="13.9" customHeight="1" s="3">
@@ -62776,8 +63262,14 @@
       <c r="IQ82" s="2" t="n">
         <v>186.9</v>
       </c>
-      <c r="IR82" t="n">
+      <c r="IR82" s="2" t="n">
         <v>187.4</v>
+      </c>
+      <c r="IS82" s="2" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="IT82" t="n">
+        <v>187.2</v>
       </c>
     </row>
     <row r="83" ht="13.9" customHeight="1" s="3">
@@ -63536,8 +64028,14 @@
       <c r="IQ83" s="2" t="n">
         <v>86.3</v>
       </c>
-      <c r="IR83" t="n">
+      <c r="IR83" s="2" t="n">
         <v>84.8</v>
+      </c>
+      <c r="IS83" s="2" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="IT83" t="n">
+        <v>85.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.9" customHeight="1" s="3">
@@ -64296,8 +64794,14 @@
       <c r="IQ84" s="2" t="n">
         <v>25.49</v>
       </c>
-      <c r="IR84" t="n">
+      <c r="IR84" s="2" t="n">
         <v>26.24</v>
+      </c>
+      <c r="IS84" s="2" t="n">
+        <v>24.16</v>
+      </c>
+      <c r="IT84" t="n">
+        <v>25.24</v>
       </c>
     </row>
     <row r="85" ht="13.9" customHeight="1" s="3">
@@ -65056,8 +65560,14 @@
       <c r="IQ85" s="2" t="n">
         <v>110.3</v>
       </c>
-      <c r="IR85" t="n">
+      <c r="IR85" s="2" t="n">
         <v>103.4</v>
+      </c>
+      <c r="IS85" s="2" t="n">
+        <v>63.1</v>
+      </c>
+      <c r="IT85" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="86" ht="13.9" customHeight="1" s="3">
@@ -65816,8 +66326,14 @@
       <c r="IQ86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IR86" t="n">
+      <c r="IR86" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IS86" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IT86" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="13.9" customHeight="1" s="3">
@@ -66576,8 +67092,14 @@
       <c r="IQ87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IR87" t="n">
+      <c r="IR87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IS87" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IT87" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="88" ht="13.9" customHeight="1" s="3">
@@ -67336,8 +67858,14 @@
       <c r="IQ88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IR88" t="n">
+      <c r="IR88" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IS88" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.9" customHeight="1" s="3">
@@ -68096,8 +68624,14 @@
       <c r="IQ89" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IR89" t="n">
+      <c r="IR89" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IS89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IT89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.9" customHeight="1" s="3">
@@ -68856,8 +69390,14 @@
       <c r="IQ90" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="IR90" t="n">
+      <c r="IR90" s="2" t="n">
         <v>136</v>
+      </c>
+      <c r="IS90" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="IT90" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="91" ht="13.9" customHeight="1" s="3">
@@ -69616,8 +70156,14 @@
       <c r="IQ91" s="2" t="n">
         <v>205</v>
       </c>
-      <c r="IR91" t="n">
+      <c r="IR91" s="2" t="n">
         <v>218</v>
+      </c>
+      <c r="IS91" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="IT91" t="n">
+        <v>169</v>
       </c>
     </row>
     <row r="92" ht="13.9" customHeight="1" s="3">
@@ -70376,8 +70922,14 @@
       <c r="IQ92" s="2" t="n">
         <v>259</v>
       </c>
-      <c r="IR92" t="n">
+      <c r="IR92" s="2" t="n">
         <v>263</v>
+      </c>
+      <c r="IS92" s="2" t="n">
+        <v>256</v>
+      </c>
+      <c r="IT92" t="n">
+        <v>229</v>
       </c>
     </row>
     <row r="93" ht="13.9" customHeight="1" s="3">
@@ -71136,8 +71688,14 @@
       <c r="IQ93" s="2" t="n">
         <v>72.5</v>
       </c>
-      <c r="IR93" t="n">
+      <c r="IR93" s="2" t="n">
         <v>72.90000000000001</v>
+      </c>
+      <c r="IS93" s="2" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="IT93" t="n">
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.9" customHeight="1" s="3">
@@ -71896,8 +72454,14 @@
       <c r="IQ94" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="IR94" t="n">
+      <c r="IR94" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="IS94" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IT94" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="95" ht="13.9" customHeight="1" s="3">
@@ -72656,7 +73220,13 @@
       <c r="IQ95" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IR95" t="n">
+      <c r="IR95" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IS95" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IT95" t="n">
         <v>11</v>
       </c>
     </row>
@@ -73416,8 +73986,14 @@
       <c r="IQ96" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IR96" t="n">
+      <c r="IR96" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IS96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IT96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.9" customHeight="1" s="3">
@@ -74176,8 +74752,14 @@
       <c r="IQ97" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IR97" t="n">
+      <c r="IR97" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IS97" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="IT97" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="98" ht="13.9" customHeight="1" s="3">
@@ -74936,8 +75518,14 @@
       <c r="IQ98" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IR98" t="n">
+      <c r="IR98" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IS98" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="IT98" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="99" ht="13.9" customHeight="1" s="3">
@@ -75696,8 +76284,14 @@
       <c r="IQ99" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IR99" t="n">
+      <c r="IR99" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IS99" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IT99" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="100" ht="13.9" customHeight="1" s="3">
@@ -76456,8 +77050,14 @@
       <c r="IQ100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IR100" t="n">
+      <c r="IR100" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IS100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IT100" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="101" ht="13.9" customHeight="1" s="3">
@@ -77216,8 +77816,14 @@
       <c r="IQ101" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IR101" t="n">
+      <c r="IR101" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IS101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IT101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.9" customHeight="1" s="3">
@@ -77976,7 +78582,13 @@
       <c r="IQ102" s="2" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="IR102" t="n">
+      <c r="IR102" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="IS102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="IT102" t="n">
         <v>50</v>
       </c>
     </row>

--- a/django_AFL_ML/Data/Brisbane_stats.xlsx
+++ b/django_AFL_ML/Data/Brisbane_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IT102"/>
+  <dimension ref="A1:IZ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL36" activeCellId="0" sqref="IL36"/>
@@ -1222,8 +1222,26 @@
       <c r="IS1" s="2" t="n">
         <v>10621</v>
       </c>
-      <c r="IT1" t="n">
+      <c r="IT1" s="2" t="n">
         <v>10628</v>
+      </c>
+      <c r="IU1" s="2" t="n">
+        <v>10634</v>
+      </c>
+      <c r="IV1" s="2" t="n">
+        <v>10648</v>
+      </c>
+      <c r="IW1" s="2" t="n">
+        <v>10649</v>
+      </c>
+      <c r="IX1" s="2" t="n">
+        <v>10664</v>
+      </c>
+      <c r="IY1" s="2" t="n">
+        <v>10670</v>
+      </c>
+      <c r="IZ1" t="n">
+        <v>10679</v>
       </c>
     </row>
     <row r="2" ht="13.9" customHeight="1" s="3">
@@ -1988,7 +2006,25 @@
       <c r="IS2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IT2" t="n">
+      <c r="IT2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IU2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IV2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IW2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IX2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IY2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="IZ2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2754,8 +2790,26 @@
       <c r="IS3" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IT3" t="n">
+      <c r="IT3" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IU3" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IV3" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IW3" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IX3" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IY3" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="13.9" customHeight="1" s="3">
@@ -3520,8 +3574,26 @@
       <c r="IS4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IT4" t="n">
+      <c r="IT4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.9" customHeight="1" s="3">
@@ -4286,8 +4358,26 @@
       <c r="IS5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IT5" t="n">
+      <c r="IT5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.9" customHeight="1" s="3">
@@ -5052,8 +5142,26 @@
       <c r="IS6" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="IT6" t="n">
+      <c r="IT6" s="2" t="n">
         <v>112</v>
+      </c>
+      <c r="IU6" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="IV6" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="IW6" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="IX6" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="IY6" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="IZ6" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="7" ht="13.9" customHeight="1" s="3">
@@ -5818,8 +5926,26 @@
       <c r="IS7" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="IT7" t="n">
+      <c r="IT7" s="2" t="n">
         <v>117</v>
+      </c>
+      <c r="IU7" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="IV7" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="IW7" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="IX7" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="IY7" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="IZ7" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="8" ht="13.9" customHeight="1" s="3">
@@ -6584,8 +6710,26 @@
       <c r="IS8" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="IT8" t="n">
+      <c r="IT8" s="2" t="n">
         <v>-5</v>
+      </c>
+      <c r="IU8" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IV8" s="2" t="n">
+        <v>-14</v>
+      </c>
+      <c r="IW8" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="IX8" s="2" t="n">
+        <v>-64</v>
+      </c>
+      <c r="IY8" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="IZ8" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" s="3">
@@ -7350,7 +7494,25 @@
       <c r="IS9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IT9" t="n">
+      <c r="IT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IZ9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8116,8 +8278,26 @@
       <c r="IS10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IT10" t="n">
+      <c r="IT10" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IU10" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IV10" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IW10" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IX10" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IY10" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="IZ10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11" ht="13.9" customHeight="1" s="3">
@@ -8882,8 +9062,26 @@
       <c r="IS11" s="2" t="n">
         <v>224</v>
       </c>
-      <c r="IT11" t="n">
+      <c r="IT11" s="2" t="n">
         <v>225</v>
+      </c>
+      <c r="IU11" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="IV11" s="2" t="n">
+        <v>227</v>
+      </c>
+      <c r="IW11" s="2" t="n">
+        <v>253</v>
+      </c>
+      <c r="IX11" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="IY11" s="2" t="n">
+        <v>243</v>
+      </c>
+      <c r="IZ11" t="n">
+        <v>195</v>
       </c>
     </row>
     <row r="12" ht="13.9" customHeight="1" s="3">
@@ -9648,8 +9846,26 @@
       <c r="IS12" s="2" t="n">
         <v>119</v>
       </c>
-      <c r="IT12" t="n">
+      <c r="IT12" s="2" t="n">
         <v>124</v>
+      </c>
+      <c r="IU12" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="IV12" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="IW12" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="IX12" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="IY12" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="IZ12" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="13" ht="13.9" customHeight="1" s="3">
@@ -10414,8 +10630,26 @@
       <c r="IS13" s="2" t="n">
         <v>343</v>
       </c>
-      <c r="IT13" t="n">
+      <c r="IT13" s="2" t="n">
         <v>349</v>
+      </c>
+      <c r="IU13" s="2" t="n">
+        <v>363</v>
+      </c>
+      <c r="IV13" s="2" t="n">
+        <v>355</v>
+      </c>
+      <c r="IW13" s="2" t="n">
+        <v>368</v>
+      </c>
+      <c r="IX13" s="2" t="n">
+        <v>332</v>
+      </c>
+      <c r="IY13" s="2" t="n">
+        <v>344</v>
+      </c>
+      <c r="IZ13" t="n">
+        <v>301</v>
       </c>
     </row>
     <row r="14" ht="13.9" customHeight="1" s="3">
@@ -11180,8 +11414,26 @@
       <c r="IS14" s="2" t="n">
         <v>1.88</v>
       </c>
-      <c r="IT14" t="n">
+      <c r="IT14" s="2" t="n">
         <v>1.81</v>
+      </c>
+      <c r="IU14" s="2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="IV14" s="2" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="IW14" s="2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="IX14" s="2" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="IY14" s="2" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="IZ14" t="n">
+        <v>1.84</v>
       </c>
     </row>
     <row r="15" ht="13.9" customHeight="1" s="3">
@@ -11946,8 +12198,26 @@
       <c r="IS15" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="IT15" t="n">
+      <c r="IT15" s="2" t="n">
         <v>84</v>
+      </c>
+      <c r="IU15" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="IV15" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="IW15" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="IX15" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="IY15" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="IZ15" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="16" ht="13.9" customHeight="1" s="3">
@@ -12712,8 +12982,26 @@
       <c r="IS16" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="IT16" t="n">
+      <c r="IT16" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="IU16" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="IV16" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="IW16" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="IX16" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="IY16" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="IZ16" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="13.9" customHeight="1" s="3">
@@ -13478,8 +13766,26 @@
       <c r="IS17" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="IT17" t="n">
+      <c r="IT17" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="IU17" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IV17" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="IW17" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="IX17" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="IY17" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="IZ17" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="13.9" customHeight="1" s="3">
@@ -14244,8 +14550,26 @@
       <c r="IS18" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IT18" t="n">
+      <c r="IT18" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IU18" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="IV18" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="IW18" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="IX18" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IY18" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="IZ18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="13.9" customHeight="1" s="3">
@@ -15010,8 +15334,26 @@
       <c r="IS19" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IT19" t="n">
+      <c r="IT19" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IU19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="IV19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="IW19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="IX19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IY19" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IZ19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="13.9" customHeight="1" s="3">
@@ -15776,8 +16118,26 @@
       <c r="IS20" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IT20" t="n">
+      <c r="IT20" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IU20" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="IV20" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IW20" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IX20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IY20" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="IZ20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.9" customHeight="1" s="3">
@@ -16542,8 +16902,26 @@
       <c r="IS21" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IT21" t="n">
+      <c r="IT21" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IU21" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IV21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IW21" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IX21" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IY21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IZ21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.9" customHeight="1" s="3">
@@ -17308,8 +17686,26 @@
       <c r="IS22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IT22" t="n">
+      <c r="IT22" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IU22" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IV22" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IW22" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="IX22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IY22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IZ22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.9" customHeight="1" s="3">
@@ -18074,8 +18470,26 @@
       <c r="IS23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IT23" t="n">
+      <c r="IT23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IU23" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IV23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IW23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IX23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IY23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IZ23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.9" customHeight="1" s="3">
@@ -18840,8 +19254,26 @@
       <c r="IS24" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IT24" t="n">
+      <c r="IT24" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IU24" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="IV24" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="IW24" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="IX24" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="IY24" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="IZ24" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="13.9" customHeight="1" s="3">
@@ -19606,8 +20038,26 @@
       <c r="IS25" s="2" t="n">
         <v>72.7</v>
       </c>
-      <c r="IT25" t="n">
+      <c r="IT25" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="IU25" s="2" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="IV25" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="IW25" s="2" t="n">
+        <v>35.7</v>
+      </c>
+      <c r="IX25" s="2" t="n">
+        <v>38.9</v>
+      </c>
+      <c r="IY25" s="2" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="IZ25" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="26" ht="13.9" customHeight="1" s="3">
@@ -20372,8 +20822,26 @@
       <c r="IS26" s="2" t="n">
         <v>21.44</v>
       </c>
-      <c r="IT26" t="n">
+      <c r="IT26" s="2" t="n">
         <v>20.53</v>
+      </c>
+      <c r="IU26" s="2" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="IV26" s="2" t="n">
+        <v>27.31</v>
+      </c>
+      <c r="IW26" s="2" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="IX26" s="2" t="n">
+        <v>47.43</v>
+      </c>
+      <c r="IY26" s="2" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="IZ26" t="n">
+        <v>23.15</v>
       </c>
     </row>
     <row r="27" ht="13.9" customHeight="1" s="3">
@@ -21138,8 +21606,26 @@
       <c r="IS27" s="2" t="n">
         <v>15.59</v>
       </c>
-      <c r="IT27" t="n">
+      <c r="IT27" s="2" t="n">
         <v>12.93</v>
+      </c>
+      <c r="IU27" s="2" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="IV27" s="2" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="IW27" s="2" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="IX27" s="2" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="IY27" s="2" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="IZ27" t="n">
+        <v>12.04</v>
       </c>
     </row>
     <row r="28" ht="13.9" customHeight="1" s="3">
@@ -21904,8 +22390,26 @@
       <c r="IS28" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IT28" t="n">
+      <c r="IT28" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IU28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="IV28" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="IW28" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="IX28" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="IY28" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="IZ28" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="13.9" customHeight="1" s="3">
@@ -22670,8 +23174,26 @@
       <c r="IS29" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="IT29" t="n">
+      <c r="IT29" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="IU29" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IV29" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="IW29" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IX29" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IY29" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="IZ29" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="30" ht="13.9" customHeight="1" s="3">
@@ -23436,8 +23958,26 @@
       <c r="IS30" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IT30" t="n">
+      <c r="IT30" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IU30" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="IV30" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="IW30" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="IX30" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="IY30" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="IZ30" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="31" ht="13.9" customHeight="1" s="3">
@@ -24202,8 +24742,26 @@
       <c r="IS31" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="IT31" t="n">
+      <c r="IT31" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="IU31" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="IV31" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="IW31" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="IX31" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IY31" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="IZ31" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="13.9" customHeight="1" s="3">
@@ -24968,8 +25526,26 @@
       <c r="IS32" s="2" t="n">
         <v>2.59</v>
       </c>
-      <c r="IT32" t="n">
+      <c r="IT32" s="2" t="n">
         <v>2.26</v>
+      </c>
+      <c r="IU32" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IV32" s="2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="IW32" s="2" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="IX32" s="2" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="IY32" s="2" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="IZ32" t="n">
+        <v>1.96</v>
       </c>
     </row>
     <row r="33" ht="13.9" customHeight="1" s="3">
@@ -25734,8 +26310,26 @@
       <c r="IS33" s="2" t="n">
         <v>3.56</v>
       </c>
-      <c r="IT33" t="n">
+      <c r="IT33" s="2" t="n">
         <v>3.59</v>
+      </c>
+      <c r="IU33" s="2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="IV33" s="2" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="IW33" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IX33" s="2" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="IY33" s="2" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="IZ33" t="n">
+        <v>3.77</v>
       </c>
     </row>
     <row r="34" ht="13.9" customHeight="1" s="3">
@@ -26500,8 +27094,26 @@
       <c r="IS34" s="2" t="n">
         <v>38.6</v>
       </c>
-      <c r="IT34" t="n">
+      <c r="IT34" s="2" t="n">
         <v>42.6</v>
+      </c>
+      <c r="IU34" s="2" t="n">
+        <v>41.7</v>
+      </c>
+      <c r="IV34" s="2" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="IW34" s="2" t="n">
+        <v>43.3</v>
+      </c>
+      <c r="IX34" s="2" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="IY34" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="IZ34" t="n">
+        <v>46.9</v>
       </c>
     </row>
     <row r="35" ht="13.9" customHeight="1" s="3">
@@ -27266,8 +27878,26 @@
       <c r="IS35" s="2" t="n">
         <v>28.1</v>
       </c>
-      <c r="IT35" t="n">
+      <c r="IT35" s="2" t="n">
         <v>27.9</v>
+      </c>
+      <c r="IU35" s="2" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="IV35" s="2" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="IW35" s="2" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="IX35" s="2" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="IY35" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="IZ35" t="n">
+        <v>26.5</v>
       </c>
     </row>
     <row r="36" ht="13.9" customHeight="1" s="3">
@@ -28032,8 +28662,26 @@
       <c r="IS36" s="2" t="n">
         <v>188.2</v>
       </c>
-      <c r="IT36" t="n">
+      <c r="IT36" s="2" t="n">
         <v>188.4</v>
+      </c>
+      <c r="IU36" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="IV36" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="IW36" s="2" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="IX36" s="2" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="IY36" s="2" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="IZ36" t="n">
+        <v>189.3</v>
       </c>
     </row>
     <row r="37" ht="13.9" customHeight="1" s="3">
@@ -28798,7 +29446,25 @@
       <c r="IS37" s="2" t="n">
         <v>88.5</v>
       </c>
-      <c r="IT37" t="n">
+      <c r="IT37" s="2" t="n">
+        <v>88.3</v>
+      </c>
+      <c r="IU37" s="2" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="IV37" s="2" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="IW37" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="IX37" s="2" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="IY37" s="2" t="n">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="IZ37" t="n">
         <v>88.3</v>
       </c>
     </row>
@@ -29564,8 +30230,26 @@
       <c r="IS38" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IT38" t="n">
+      <c r="IT38" s="2" t="n">
         <v>26.8</v>
+      </c>
+      <c r="IU38" s="2" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="IV38" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="IW38" s="2" t="n">
+        <v>26.74</v>
+      </c>
+      <c r="IX38" s="2" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="IY38" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="IZ38" t="n">
+        <v>25.66</v>
       </c>
     </row>
     <row r="39" ht="13.9" customHeight="1" s="3">
@@ -30330,8 +31014,26 @@
       <c r="IS39" s="2" t="n">
         <v>103.6</v>
       </c>
-      <c r="IT39" t="n">
+      <c r="IT39" s="2" t="n">
         <v>108.3</v>
+      </c>
+      <c r="IU39" s="2" t="n">
+        <v>112.7</v>
+      </c>
+      <c r="IV39" s="2" t="n">
+        <v>108.4</v>
+      </c>
+      <c r="IW39" s="2" t="n">
+        <v>120.6</v>
+      </c>
+      <c r="IX39" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="IY39" s="2" t="n">
+        <v>110.1</v>
+      </c>
+      <c r="IZ39" t="n">
+        <v>88.2</v>
       </c>
     </row>
     <row r="40" ht="13.9" customHeight="1" s="3">
@@ -31096,8 +31798,26 @@
       <c r="IS40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IT40" t="n">
+      <c r="IT40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IU40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IV40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IW40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IX40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IY40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IZ40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.9" customHeight="1" s="3">
@@ -31862,7 +32582,25 @@
       <c r="IS41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IT41" t="n">
+      <c r="IT41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IU41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IV41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IW41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IX41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IY41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IZ41" t="n">
         <v>6</v>
       </c>
     </row>
@@ -32628,8 +33366,26 @@
       <c r="IS42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IT42" t="n">
+      <c r="IT42" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IU42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IV42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IW42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IX42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IY42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IZ42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.9" customHeight="1" s="3">
@@ -33394,8 +34150,26 @@
       <c r="IS43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IT43" t="n">
+      <c r="IT43" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IU43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IV43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IW43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IX43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IY43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IZ43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.9" customHeight="1" s="3">
@@ -34160,8 +34934,26 @@
       <c r="IS44" s="2" t="n">
         <v>162</v>
       </c>
-      <c r="IT44" t="n">
+      <c r="IT44" s="2" t="n">
         <v>152</v>
+      </c>
+      <c r="IU44" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="IV44" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="IW44" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="IX44" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="IY44" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="IZ44" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="45" ht="13.9" customHeight="1" s="3">
@@ -34926,8 +35718,26 @@
       <c r="IS45" s="2" t="n">
         <v>167</v>
       </c>
-      <c r="IT45" t="n">
+      <c r="IT45" s="2" t="n">
         <v>198</v>
+      </c>
+      <c r="IU45" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="IV45" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="IW45" s="2" t="n">
+        <v>233</v>
+      </c>
+      <c r="IX45" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="IY45" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="IZ45" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="46" ht="13.9" customHeight="1" s="3">
@@ -35692,8 +36502,26 @@
       <c r="IS46" s="2" t="n">
         <v>237</v>
       </c>
-      <c r="IT46" t="n">
+      <c r="IT46" s="2" t="n">
         <v>257</v>
+      </c>
+      <c r="IU46" s="2" t="n">
+        <v>259</v>
+      </c>
+      <c r="IV46" s="2" t="n">
+        <v>252</v>
+      </c>
+      <c r="IW46" s="2" t="n">
+        <v>267</v>
+      </c>
+      <c r="IX46" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="IY46" s="2" t="n">
+        <v>263</v>
+      </c>
+      <c r="IZ46" t="n">
+        <v>197</v>
       </c>
     </row>
     <row r="47" ht="13.9" customHeight="1" s="3">
@@ -36458,8 +37286,26 @@
       <c r="IS47" s="2" t="n">
         <v>69.09999999999999</v>
       </c>
-      <c r="IT47" t="n">
+      <c r="IT47" s="2" t="n">
         <v>73.59999999999999</v>
+      </c>
+      <c r="IU47" s="2" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="IV47" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="IW47" s="2" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="IX47" s="2" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="IY47" s="2" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="IZ47" t="n">
+        <v>65.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.9" customHeight="1" s="3">
@@ -37224,8 +38070,26 @@
       <c r="IS48" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="IT48" t="n">
+      <c r="IT48" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="IU48" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IV48" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="IW48" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IX48" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IY48" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="IZ48" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="49" ht="13.9" customHeight="1" s="3">
@@ -37990,7 +38854,25 @@
       <c r="IS49" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IT49" t="n">
+      <c r="IT49" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IU49" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IV49" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IW49" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IX49" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IY49" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IZ49" t="n">
         <v>13</v>
       </c>
     </row>
@@ -38756,8 +39638,26 @@
       <c r="IS50" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IT50" t="n">
+      <c r="IT50" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IU50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IV50" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IW50" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IX50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IY50" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="IZ50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="13.9" customHeight="1" s="3">
@@ -39522,8 +40422,26 @@
       <c r="IS51" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IT51" t="n">
+      <c r="IT51" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IU51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="IV51" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="IW51" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="IX51" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="IY51" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="IZ51" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="13.9" customHeight="1" s="3">
@@ -40288,8 +41206,26 @@
       <c r="IS52" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IT52" t="n">
+      <c r="IT52" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IU52" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="IV52" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="IW52" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="IX52" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="IY52" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="IZ52" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="53" ht="13.9" customHeight="1" s="3">
@@ -41054,8 +41990,26 @@
       <c r="IS53" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IT53" t="n">
+      <c r="IT53" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="IU53" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="IV53" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="IW53" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="IX53" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="IY53" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="IZ53" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="54" ht="13.9" customHeight="1" s="3">
@@ -41820,8 +42774,26 @@
       <c r="IS54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IT54" t="n">
+      <c r="IT54" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IU54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IV54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IW54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IX54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IY54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IZ54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.9" customHeight="1" s="3">
@@ -42586,8 +43558,26 @@
       <c r="IS55" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IT55" t="n">
+      <c r="IT55" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IU55" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IV55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IW55" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IX55" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IY55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IZ55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.9" customHeight="1" s="3">
@@ -43352,8 +44342,26 @@
       <c r="IS56" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="IT56" t="n">
+      <c r="IT56" s="2" t="n">
         <v>64.7</v>
+      </c>
+      <c r="IU56" s="2" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="IV56" s="2" t="n">
+        <v>69.2</v>
+      </c>
+      <c r="IW56" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="IX56" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="IY56" s="2" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="IZ56" t="n">
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.9" customHeight="1" s="3">
@@ -44118,8 +45126,26 @@
       <c r="IS57" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="IT57" t="n">
+      <c r="IT57" s="2" t="n">
         <v>186</v>
+      </c>
+      <c r="IU57" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="IV57" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="IW57" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="IX57" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="IY57" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="IZ57" t="n">
+        <v>235</v>
       </c>
     </row>
     <row r="58" ht="13.9" customHeight="1" s="3">
@@ -44884,8 +45910,26 @@
       <c r="IS58" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="IT58" t="n">
+      <c r="IT58" s="2" t="n">
         <v>126</v>
+      </c>
+      <c r="IU58" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="IV58" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="IW58" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="IX58" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="IY58" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="IZ58" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="59" ht="13.9" customHeight="1" s="3">
@@ -45650,8 +46694,26 @@
       <c r="IS59" s="2" t="n">
         <v>353</v>
       </c>
-      <c r="IT59" t="n">
+      <c r="IT59" s="2" t="n">
         <v>312</v>
+      </c>
+      <c r="IU59" s="2" t="n">
+        <v>333</v>
+      </c>
+      <c r="IV59" s="2" t="n">
+        <v>384</v>
+      </c>
+      <c r="IW59" s="2" t="n">
+        <v>325</v>
+      </c>
+      <c r="IX59" s="2" t="n">
+        <v>399</v>
+      </c>
+      <c r="IY59" s="2" t="n">
+        <v>345</v>
+      </c>
+      <c r="IZ59" t="n">
+        <v>382</v>
       </c>
     </row>
     <row r="60" ht="13.9" customHeight="1" s="3">
@@ -46416,8 +47478,26 @@
       <c r="IS60" s="2" t="n">
         <v>1.4</v>
       </c>
-      <c r="IT60" t="n">
+      <c r="IT60" s="2" t="n">
         <v>1.48</v>
+      </c>
+      <c r="IU60" s="2" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="IV60" s="2" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="IW60" s="2" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="IX60" s="2" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="IY60" s="2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="IZ60" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="61" ht="13.9" customHeight="1" s="3">
@@ -47182,8 +48262,26 @@
       <c r="IS61" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="IT61" t="n">
+      <c r="IT61" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="IU61" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="IV61" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="IW61" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="IX61" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="IY61" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="IZ61" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="62" ht="13.9" customHeight="1" s="3">
@@ -47948,8 +49046,26 @@
       <c r="IS62" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="IT62" t="n">
+      <c r="IT62" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="IU62" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="IV62" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="IW62" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="IX62" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="IY62" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="IZ62" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="63" ht="13.9" customHeight="1" s="3">
@@ -48714,8 +49830,26 @@
       <c r="IS63" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IT63" t="n">
+      <c r="IT63" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IU63" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="IV63" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IW63" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="IX63" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="IY63" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="IZ63" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="64" ht="13.9" customHeight="1" s="3">
@@ -49480,8 +50614,26 @@
       <c r="IS64" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="IT64" t="n">
+      <c r="IT64" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IU64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="IV64" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="IW64" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="IX64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IY64" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IZ64" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="13.9" customHeight="1" s="3">
@@ -50246,8 +51398,26 @@
       <c r="IS65" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IT65" t="n">
+      <c r="IT65" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IU65" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="IV65" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="IW65" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="IX65" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IY65" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="IZ65" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="13.9" customHeight="1" s="3">
@@ -51012,8 +52182,26 @@
       <c r="IS66" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IT66" t="n">
+      <c r="IT66" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IU66" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IV66" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IW66" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IX66" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="IY66" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IZ66" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="67" ht="13.9" customHeight="1" s="3">
@@ -51778,8 +52966,26 @@
       <c r="IS67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IT67" t="n">
+      <c r="IT67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IU67" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IV67" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IW67" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IX67" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IY67" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IZ67" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="13.9" customHeight="1" s="3">
@@ -52544,8 +53750,26 @@
       <c r="IS68" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IT68" t="n">
+      <c r="IT68" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IU68" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IV68" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IW68" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IX68" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IY68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IZ68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="13.9" customHeight="1" s="3">
@@ -53310,8 +54534,26 @@
       <c r="IS69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IT69" t="n">
+      <c r="IT69" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IU69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IV69" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IW69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IX69" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IY69" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IZ69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.9" customHeight="1" s="3">
@@ -54076,8 +55318,26 @@
       <c r="IS70" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="IT70" t="n">
+      <c r="IT70" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IU70" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="IV70" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="IW70" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="IX70" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="IY70" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="IZ70" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="13.9" customHeight="1" s="3">
@@ -54842,8 +56102,26 @@
       <c r="IS71" s="2" t="n">
         <v>42.9</v>
       </c>
-      <c r="IT71" t="n">
+      <c r="IT71" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="IU71" s="2" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="IV71" s="2" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="IW71" s="2" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="IX71" s="2" t="n">
+        <v>43.2</v>
+      </c>
+      <c r="IY71" s="2" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="IZ71" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="72" ht="13.9" customHeight="1" s="3">
@@ -55608,8 +56886,26 @@
       <c r="IS72" s="2" t="n">
         <v>39.22</v>
       </c>
-      <c r="IT72" t="n">
+      <c r="IT72" s="2" t="n">
         <v>17.33</v>
+      </c>
+      <c r="IU72" s="2" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="IV72" s="2" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="IW72" s="2" t="n">
+        <v>40.62</v>
+      </c>
+      <c r="IX72" s="2" t="n">
+        <v>24.94</v>
+      </c>
+      <c r="IY72" s="2" t="n">
+        <v>38.33</v>
+      </c>
+      <c r="IZ72" t="n">
+        <v>25.47</v>
       </c>
     </row>
     <row r="73" ht="13.9" customHeight="1" s="3">
@@ -56374,8 +57670,26 @@
       <c r="IS73" s="2" t="n">
         <v>16.81</v>
       </c>
-      <c r="IT73" t="n">
+      <c r="IT73" s="2" t="n">
         <v>11.56</v>
+      </c>
+      <c r="IU73" s="2" t="n">
+        <v>15.86</v>
+      </c>
+      <c r="IV73" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="IW73" s="2" t="n">
+        <v>19.12</v>
+      </c>
+      <c r="IX73" s="2" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="IY73" s="2" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="IZ73" t="n">
+        <v>15.28</v>
       </c>
     </row>
     <row r="74" ht="13.9" customHeight="1" s="3">
@@ -57140,8 +58454,26 @@
       <c r="IS74" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IT74" t="n">
+      <c r="IT74" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IU74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="IV74" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="IW74" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="IX74" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="IY74" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="IZ74" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="13.9" customHeight="1" s="3">
@@ -57906,8 +59238,26 @@
       <c r="IS75" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="IT75" t="n">
+      <c r="IT75" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="IU75" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="IV75" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="IW75" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IX75" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="IY75" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="IZ75" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="76" ht="13.9" customHeight="1" s="3">
@@ -58672,8 +60022,26 @@
       <c r="IS76" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IT76" t="n">
+      <c r="IT76" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IU76" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IV76" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="IW76" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="IX76" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="IY76" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="IZ76" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="13.9" customHeight="1" s="3">
@@ -59438,8 +60806,26 @@
       <c r="IS77" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IT77" t="n">
+      <c r="IT77" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IU77" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="IV77" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IW77" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="IX77" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="IY77" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="IZ77" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="78" ht="13.9" customHeight="1" s="3">
@@ -60204,8 +61590,26 @@
       <c r="IS78" s="2" t="n">
         <v>2.52</v>
       </c>
-      <c r="IT78" t="n">
+      <c r="IT78" s="2" t="n">
         <v>1.85</v>
+      </c>
+      <c r="IU78" s="2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="IV78" s="2" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="IW78" s="2" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="IX78" s="2" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="IY78" s="2" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="IZ78" t="n">
+        <v>2.24</v>
       </c>
     </row>
     <row r="79" ht="13.9" customHeight="1" s="3">
@@ -60970,8 +62374,26 @@
       <c r="IS79" s="2" t="n">
         <v>5.89</v>
       </c>
-      <c r="IT79" t="n">
+      <c r="IT79" s="2" t="n">
         <v>2.78</v>
+      </c>
+      <c r="IU79" s="2" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="IV79" s="2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="IW79" s="2" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="IX79" s="2" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="IY79" s="2" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="IZ79" t="n">
+        <v>3.73</v>
       </c>
     </row>
     <row r="80" ht="13.9" customHeight="1" s="3">
@@ -61736,8 +63158,26 @@
       <c r="IS80" s="2" t="n">
         <v>37.7</v>
       </c>
-      <c r="IT80" t="n">
+      <c r="IT80" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IU80" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="IV80" s="2" t="n">
+        <v>39.2</v>
+      </c>
+      <c r="IW80" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="IX80" s="2" t="n">
+        <v>48.4</v>
+      </c>
+      <c r="IY80" s="2" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="IZ80" t="n">
+        <v>42.9</v>
       </c>
     </row>
     <row r="81" ht="13.9" customHeight="1" s="3">
@@ -62502,8 +63942,26 @@
       <c r="IS81" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IT81" t="n">
+      <c r="IT81" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="IU81" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="IV81" s="2" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="IW81" s="2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="IX81" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="IY81" s="2" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="IZ81" t="n">
+        <v>26.8</v>
       </c>
     </row>
     <row r="82" ht="13.9" customHeight="1" s="3">
@@ -63268,8 +64726,26 @@
       <c r="IS82" s="2" t="n">
         <v>186.7</v>
       </c>
-      <c r="IT82" t="n">
+      <c r="IT82" s="2" t="n">
         <v>187.2</v>
+      </c>
+      <c r="IU82" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="IV82" s="2" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="IW82" s="2" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="IX82" s="2" t="n">
+        <v>186.1</v>
+      </c>
+      <c r="IY82" s="2" t="n">
+        <v>188.8</v>
+      </c>
+      <c r="IZ82" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="83" ht="13.9" customHeight="1" s="3">
@@ -64034,8 +65510,26 @@
       <c r="IS83" s="2" t="n">
         <v>86.2</v>
       </c>
-      <c r="IT83" t="n">
+      <c r="IT83" s="2" t="n">
         <v>85.59999999999999</v>
+      </c>
+      <c r="IU83" s="2" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="IV83" s="2" t="n">
+        <v>89.5</v>
+      </c>
+      <c r="IW83" s="2" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="IX83" s="2" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="IY83" s="2" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="IZ83" t="n">
+        <v>85.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.9" customHeight="1" s="3">
@@ -64800,8 +66294,26 @@
       <c r="IS84" s="2" t="n">
         <v>24.16</v>
       </c>
-      <c r="IT84" t="n">
+      <c r="IT84" s="2" t="n">
         <v>25.24</v>
+      </c>
+      <c r="IU84" s="2" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="IV84" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="IW84" s="2" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="IX84" s="2" t="n">
+        <v>25.24</v>
+      </c>
+      <c r="IY84" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="IZ84" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="85" ht="13.9" customHeight="1" s="3">
@@ -65566,8 +67078,26 @@
       <c r="IS85" s="2" t="n">
         <v>63.1</v>
       </c>
-      <c r="IT85" t="n">
+      <c r="IT85" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="IU85" s="2" t="n">
+        <v>77.59999999999999</v>
+      </c>
+      <c r="IV85" s="2" t="n">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="IW85" s="2" t="n">
+        <v>97.90000000000001</v>
+      </c>
+      <c r="IX85" s="2" t="n">
+        <v>100.2</v>
+      </c>
+      <c r="IY85" s="2" t="n">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="IZ85" t="n">
+        <v>77.2</v>
       </c>
     </row>
     <row r="86" ht="13.9" customHeight="1" s="3">
@@ -66332,8 +67862,26 @@
       <c r="IS86" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IT86" t="n">
+      <c r="IT86" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IU86" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IV86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IW86" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IX86" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IY86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IZ86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="13.9" customHeight="1" s="3">
@@ -67098,8 +68646,26 @@
       <c r="IS87" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IT87" t="n">
+      <c r="IT87" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IU87" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IV87" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IW87" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IX87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IY87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IZ87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.9" customHeight="1" s="3">
@@ -67864,8 +69430,26 @@
       <c r="IS88" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IT88" t="n">
+      <c r="IT88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IU88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IV88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IW88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IX88" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IY88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IZ88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.9" customHeight="1" s="3">
@@ -68630,7 +70214,25 @@
       <c r="IS89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IT89" t="n">
+      <c r="IT89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IU89" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IV89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IW89" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IX89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IY89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IZ89" t="n">
         <v>4</v>
       </c>
     </row>
@@ -69396,8 +70998,26 @@
       <c r="IS90" s="2" t="n">
         <v>149</v>
       </c>
-      <c r="IT90" t="n">
+      <c r="IT90" s="2" t="n">
         <v>142</v>
+      </c>
+      <c r="IU90" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="IV90" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="IW90" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="IX90" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="IY90" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="IZ90" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="91" ht="13.9" customHeight="1" s="3">
@@ -70162,8 +71782,26 @@
       <c r="IS91" s="2" t="n">
         <v>195</v>
       </c>
-      <c r="IT91" t="n">
+      <c r="IT91" s="2" t="n">
         <v>169</v>
+      </c>
+      <c r="IU91" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="IV91" s="2" t="n">
+        <v>246</v>
+      </c>
+      <c r="IW91" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="IX91" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="IY91" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="IZ91" t="n">
+        <v>237</v>
       </c>
     </row>
     <row r="92" ht="13.9" customHeight="1" s="3">
@@ -70928,8 +72566,26 @@
       <c r="IS92" s="2" t="n">
         <v>256</v>
       </c>
-      <c r="IT92" t="n">
+      <c r="IT92" s="2" t="n">
         <v>229</v>
+      </c>
+      <c r="IU92" s="2" t="n">
+        <v>242</v>
+      </c>
+      <c r="IV92" s="2" t="n">
+        <v>292</v>
+      </c>
+      <c r="IW92" s="2" t="n">
+        <v>235</v>
+      </c>
+      <c r="IX92" s="2" t="n">
+        <v>283</v>
+      </c>
+      <c r="IY92" s="2" t="n">
+        <v>241</v>
+      </c>
+      <c r="IZ92" t="n">
+        <v>287</v>
       </c>
     </row>
     <row r="93" ht="13.9" customHeight="1" s="3">
@@ -71694,8 +73350,26 @@
       <c r="IS93" s="2" t="n">
         <v>72.5</v>
       </c>
-      <c r="IT93" t="n">
+      <c r="IT93" s="2" t="n">
         <v>73.40000000000001</v>
+      </c>
+      <c r="IU93" s="2" t="n">
+        <v>72.7</v>
+      </c>
+      <c r="IV93" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="IW93" s="2" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="IX93" s="2" t="n">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="IY93" s="2" t="n">
+        <v>69.90000000000001</v>
+      </c>
+      <c r="IZ93" t="n">
+        <v>75.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.9" customHeight="1" s="3">
@@ -72460,8 +74134,26 @@
       <c r="IS94" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="IT94" t="n">
+      <c r="IT94" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="IU94" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="IV94" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="IW94" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IX94" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="IY94" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="IZ94" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="95" ht="13.9" customHeight="1" s="3">
@@ -73226,8 +74918,26 @@
       <c r="IS95" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IT95" t="n">
+      <c r="IT95" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IU95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IV95" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IW95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IX95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IY95" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IZ95" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="96" ht="13.9" customHeight="1" s="3">
@@ -73992,8 +75702,26 @@
       <c r="IS96" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IT96" t="n">
+      <c r="IT96" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IU96" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IV96" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IW96" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IX96" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IY96" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IZ96" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="13.9" customHeight="1" s="3">
@@ -74758,8 +76486,26 @@
       <c r="IS97" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IT97" t="n">
+      <c r="IT97" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IU97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="IV97" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="IW97" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="IX97" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="IY97" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="IZ97" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="13.9" customHeight="1" s="3">
@@ -75524,8 +77270,26 @@
       <c r="IS98" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IT98" t="n">
+      <c r="IT98" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IU98" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IV98" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="IW98" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="IX98" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="IY98" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="IZ98" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="99" ht="13.9" customHeight="1" s="3">
@@ -76290,8 +78054,26 @@
       <c r="IS99" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IT99" t="n">
+      <c r="IT99" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IU99" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="IV99" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="IW99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="IX99" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="IY99" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="IZ99" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="100" ht="13.9" customHeight="1" s="3">
@@ -77056,8 +78838,26 @@
       <c r="IS100" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IT100" t="n">
+      <c r="IT100" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IU100" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IV100" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IW100" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IX100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IY100" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IZ100" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="13.9" customHeight="1" s="3">
@@ -77822,8 +79622,26 @@
       <c r="IS101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IT101" t="n">
+      <c r="IT101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IU101" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IV101" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IW101" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IX101" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IY101" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IZ101" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="13.9" customHeight="1" s="3">
@@ -78588,8 +80406,26 @@
       <c r="IS102" s="2" t="n">
         <v>77.8</v>
       </c>
-      <c r="IT102" t="n">
+      <c r="IT102" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IU102" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="IV102" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="IW102" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="IX102" s="2" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="IY102" s="2" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="IZ102" t="n">
+        <v>73.3</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Brisbane_stats.xlsx
+++ b/django_AFL_ML/Data/Brisbane_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JK102"/>
+  <dimension ref="A1:JN102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL36" activeCellId="0" sqref="IL36"/>
@@ -1273,8 +1273,17 @@
       <c r="JJ1" s="2" t="n">
         <v>10728</v>
       </c>
-      <c r="JK1" t="n">
+      <c r="JK1" s="2" t="n">
         <v>10733</v>
+      </c>
+      <c r="JL1" s="2" t="n">
+        <v>10742</v>
+      </c>
+      <c r="JM1" s="2" t="n">
+        <v>10742</v>
+      </c>
+      <c r="JN1" t="n">
+        <v>10746</v>
       </c>
     </row>
     <row r="2" ht="13.9" customHeight="1" s="3">
@@ -2090,7 +2099,16 @@
       <c r="JJ2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JK2" t="n">
+      <c r="JK2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JL2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JM2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JN2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2907,8 +2925,17 @@
       <c r="JJ3" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JK3" t="n">
+      <c r="JK3" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="JL3" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JM3" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="4" ht="13.9" customHeight="1" s="3">
@@ -3724,8 +3751,17 @@
       <c r="JJ4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JK4" t="n">
+      <c r="JK4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.9" customHeight="1" s="3">
@@ -4541,7 +4577,16 @@
       <c r="JJ5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JK5" t="n">
+      <c r="JK5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5358,8 +5403,17 @@
       <c r="JJ6" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="JK6" t="n">
+      <c r="JK6" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="JL6" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="JM6" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="JN6" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="7" ht="13.9" customHeight="1" s="3">
@@ -6175,8 +6229,17 @@
       <c r="JJ7" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="JK7" t="n">
+      <c r="JK7" s="2" t="n">
         <v>115</v>
+      </c>
+      <c r="JL7" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="JM7" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="JN7" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="8" ht="13.9" customHeight="1" s="3">
@@ -6992,8 +7055,17 @@
       <c r="JJ8" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JK8" t="n">
+      <c r="JK8" s="2" t="n">
         <v>-58</v>
+      </c>
+      <c r="JL8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JM8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JN8" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="9" ht="13.9" customHeight="1" s="3">
@@ -7809,8 +7881,17 @@
       <c r="JJ9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JK9" t="n">
+      <c r="JK9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JL9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JM9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JN9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.9" customHeight="1" s="3">
@@ -8626,7 +8707,16 @@
       <c r="JJ10" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JK10" t="n">
+      <c r="JK10" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JL10" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JM10" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JN10" t="n">
         <v>11</v>
       </c>
     </row>
@@ -9443,8 +9533,17 @@
       <c r="JJ11" s="2" t="n">
         <v>205</v>
       </c>
-      <c r="JK11" t="n">
+      <c r="JK11" s="2" t="n">
         <v>225</v>
+      </c>
+      <c r="JL11" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="JM11" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="JN11" t="n">
+        <v>229</v>
       </c>
     </row>
     <row r="12" ht="13.9" customHeight="1" s="3">
@@ -10260,8 +10359,17 @@
       <c r="JJ12" s="2" t="n">
         <v>105</v>
       </c>
-      <c r="JK12" t="n">
+      <c r="JK12" s="2" t="n">
         <v>123</v>
+      </c>
+      <c r="JL12" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="JM12" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="JN12" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="13" ht="13.9" customHeight="1" s="3">
@@ -11077,8 +11185,17 @@
       <c r="JJ13" s="2" t="n">
         <v>310</v>
       </c>
-      <c r="JK13" t="n">
+      <c r="JK13" s="2" t="n">
         <v>348</v>
+      </c>
+      <c r="JL13" s="2" t="n">
+        <v>336</v>
+      </c>
+      <c r="JM13" s="2" t="n">
+        <v>336</v>
+      </c>
+      <c r="JN13" t="n">
+        <v>340</v>
       </c>
     </row>
     <row r="14" ht="13.9" customHeight="1" s="3">
@@ -11894,8 +12011,17 @@
       <c r="JJ14" s="2" t="n">
         <v>1.95</v>
       </c>
-      <c r="JK14" t="n">
+      <c r="JK14" s="2" t="n">
         <v>1.83</v>
+      </c>
+      <c r="JL14" s="2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="JM14" s="2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="JN14" t="n">
+        <v>2.06</v>
       </c>
     </row>
     <row r="15" ht="13.9" customHeight="1" s="3">
@@ -12711,8 +12837,17 @@
       <c r="JJ15" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="JK15" t="n">
+      <c r="JK15" s="2" t="n">
         <v>108</v>
+      </c>
+      <c r="JL15" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="JM15" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="JN15" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="16" ht="13.9" customHeight="1" s="3">
@@ -13528,8 +13663,17 @@
       <c r="JJ16" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="JK16" t="n">
+      <c r="JK16" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="JL16" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JM16" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="JN16" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="17" ht="13.9" customHeight="1" s="3">
@@ -14345,8 +14489,17 @@
       <c r="JJ17" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JK17" t="n">
+      <c r="JK17" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="JL17" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JM17" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JN17" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="13.9" customHeight="1" s="3">
@@ -15162,8 +15315,17 @@
       <c r="JJ18" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JK18" t="n">
+      <c r="JK18" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JL18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JM18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JN18" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="19" ht="13.9" customHeight="1" s="3">
@@ -15979,8 +16141,17 @@
       <c r="JJ19" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JK19" t="n">
+      <c r="JK19" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JL19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JM19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JN19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="13.9" customHeight="1" s="3">
@@ -16796,8 +16967,17 @@
       <c r="JJ20" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JK20" t="n">
+      <c r="JK20" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JL20" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JM20" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JN20" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="21" ht="13.9" customHeight="1" s="3">
@@ -17613,8 +17793,17 @@
       <c r="JJ21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JK21" t="n">
+      <c r="JK21" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JL21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JM21" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JN21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="13.9" customHeight="1" s="3">
@@ -18430,7 +18619,16 @@
       <c r="JJ22" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JK22" t="n">
+      <c r="JK22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JL22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JM22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JN22" t="n">
         <v>7</v>
       </c>
     </row>
@@ -19247,8 +19445,17 @@
       <c r="JJ23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JK23" t="n">
+      <c r="JK23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JL23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JM23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JN23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.9" customHeight="1" s="3">
@@ -20064,8 +20271,17 @@
       <c r="JJ24" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="JK24" t="n">
+      <c r="JK24" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JL24" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JM24" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JN24" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="13.9" customHeight="1" s="3">
@@ -20881,8 +21097,17 @@
       <c r="JJ25" s="2" t="n">
         <v>57.1</v>
       </c>
-      <c r="JK25" t="n">
+      <c r="JK25" s="2" t="n">
         <v>47.1</v>
+      </c>
+      <c r="JL25" s="2" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="JM25" s="2" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="JN25" t="n">
+        <v>63.6</v>
       </c>
     </row>
     <row r="26" ht="13.9" customHeight="1" s="3">
@@ -21698,8 +21923,17 @@
       <c r="JJ26" s="2" t="n">
         <v>25.83</v>
       </c>
-      <c r="JK26" t="n">
+      <c r="JK26" s="2" t="n">
         <v>43.5</v>
+      </c>
+      <c r="JL26" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JM26" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="JN26" t="n">
+        <v>24.29</v>
       </c>
     </row>
     <row r="27" ht="13.9" customHeight="1" s="3">
@@ -22515,8 +22749,17 @@
       <c r="JJ27" s="2" t="n">
         <v>14.76</v>
       </c>
-      <c r="JK27" t="n">
+      <c r="JK27" s="2" t="n">
         <v>20.47</v>
+      </c>
+      <c r="JL27" s="2" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="JM27" s="2" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="JN27" t="n">
+        <v>15.45</v>
       </c>
     </row>
     <row r="28" ht="13.9" customHeight="1" s="3">
@@ -23332,8 +23575,17 @@
       <c r="JJ28" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JK28" t="n">
+      <c r="JK28" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JL28" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JM28" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JN28" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="13.9" customHeight="1" s="3">
@@ -24149,8 +24401,17 @@
       <c r="JJ29" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JK29" t="n">
+      <c r="JK29" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JL29" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="JM29" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="JN29" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="30" ht="13.9" customHeight="1" s="3">
@@ -24966,8 +25227,17 @@
       <c r="JJ30" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JK30" t="n">
+      <c r="JK30" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="JL30" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JM30" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JN30" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="13.9" customHeight="1" s="3">
@@ -25783,8 +26053,17 @@
       <c r="JJ31" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JK31" t="n">
+      <c r="JK31" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="JL31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JM31" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JN31" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="32" ht="13.9" customHeight="1" s="3">
@@ -26600,8 +26879,17 @@
       <c r="JJ32" s="2" t="n">
         <v>2.33</v>
       </c>
-      <c r="JK32" t="n">
+      <c r="JK32" s="2" t="n">
         <v>3.41</v>
+      </c>
+      <c r="JL32" s="2" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="JM32" s="2" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="JN32" t="n">
+        <v>2.41</v>
       </c>
     </row>
     <row r="33" ht="13.9" customHeight="1" s="3">
@@ -27417,8 +27705,17 @@
       <c r="JJ33" s="2" t="n">
         <v>4.08</v>
       </c>
-      <c r="JK33" t="n">
+      <c r="JK33" s="2" t="n">
         <v>7.25</v>
+      </c>
+      <c r="JL33" s="2" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="JM33" s="2" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="JN33" t="n">
+        <v>3.79</v>
       </c>
     </row>
     <row r="34" ht="13.9" customHeight="1" s="3">
@@ -28234,8 +28531,17 @@
       <c r="JJ34" s="2" t="n">
         <v>34.7</v>
       </c>
-      <c r="JK34" t="n">
+      <c r="JK34" s="2" t="n">
         <v>25.9</v>
+      </c>
+      <c r="JL34" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JM34" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JN34" t="n">
+        <v>39.6</v>
       </c>
     </row>
     <row r="35" ht="13.9" customHeight="1" s="3">
@@ -29051,8 +29357,17 @@
       <c r="JJ35" s="2" t="n">
         <v>24.5</v>
       </c>
-      <c r="JK35" t="n">
+      <c r="JK35" s="2" t="n">
         <v>13.8</v>
+      </c>
+      <c r="JL35" s="2" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="JM35" s="2" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="JN35" t="n">
+        <v>26.4</v>
       </c>
     </row>
     <row r="36" ht="13.9" customHeight="1" s="3">
@@ -29868,8 +30183,17 @@
       <c r="JJ36" s="2" t="n">
         <v>188.5</v>
       </c>
-      <c r="JK36" t="n">
+      <c r="JK36" s="2" t="n">
         <v>188.2</v>
+      </c>
+      <c r="JL36" s="2" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="JM36" s="2" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="JN36" t="n">
+        <v>187.9</v>
       </c>
     </row>
     <row r="37" ht="13.9" customHeight="1" s="3">
@@ -30685,8 +31009,17 @@
       <c r="JJ37" s="2" t="n">
         <v>88.5</v>
       </c>
-      <c r="JK37" t="n">
+      <c r="JK37" s="2" t="n">
         <v>88.7</v>
+      </c>
+      <c r="JL37" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="JM37" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="JN37" t="n">
+        <v>87.3</v>
       </c>
     </row>
     <row r="38" ht="13.9" customHeight="1" s="3">
@@ -31502,8 +31835,17 @@
       <c r="JJ38" s="2" t="n">
         <v>26.33</v>
       </c>
-      <c r="JK38" t="n">
+      <c r="JK38" s="2" t="n">
         <v>26.49</v>
+      </c>
+      <c r="JL38" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JM38" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JN38" t="n">
+        <v>25.49</v>
       </c>
     </row>
     <row r="39" ht="13.9" customHeight="1" s="3">
@@ -32319,8 +32661,17 @@
       <c r="JJ39" s="2" t="n">
         <v>123.5</v>
       </c>
-      <c r="JK39" t="n">
+      <c r="JK39" s="2" t="n">
         <v>128.2</v>
+      </c>
+      <c r="JL39" s="2" t="n">
+        <v>120.9</v>
+      </c>
+      <c r="JM39" s="2" t="n">
+        <v>120.9</v>
+      </c>
+      <c r="JN39" t="n">
+        <v>106.7</v>
       </c>
     </row>
     <row r="40" ht="13.9" customHeight="1" s="3">
@@ -33136,8 +33487,17 @@
       <c r="JJ40" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JK40" t="n">
+      <c r="JK40" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JL40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JM40" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JN40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.9" customHeight="1" s="3">
@@ -33953,7 +34313,16 @@
       <c r="JJ41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JK41" t="n">
+      <c r="JK41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JL41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JM41" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JN41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -34770,7 +35139,16 @@
       <c r="JJ42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JK42" t="n">
+      <c r="JK42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JL42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JM42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JN42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -35587,8 +35965,17 @@
       <c r="JJ43" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JK43" t="n">
+      <c r="JK43" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JL43" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JM43" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JN43" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="44" ht="13.9" customHeight="1" s="3">
@@ -36404,8 +36791,17 @@
       <c r="JJ44" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="JK44" t="n">
+      <c r="JK44" s="2" t="n">
         <v>130</v>
+      </c>
+      <c r="JL44" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="JM44" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="JN44" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="45" ht="13.9" customHeight="1" s="3">
@@ -37221,8 +37617,17 @@
       <c r="JJ45" s="2" t="n">
         <v>179</v>
       </c>
-      <c r="JK45" t="n">
+      <c r="JK45" s="2" t="n">
         <v>207</v>
+      </c>
+      <c r="JL45" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="JM45" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="JN45" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="46" ht="13.9" customHeight="1" s="3">
@@ -38038,8 +38443,17 @@
       <c r="JJ46" s="2" t="n">
         <v>218</v>
       </c>
-      <c r="JK46" t="n">
+      <c r="JK46" s="2" t="n">
         <v>245</v>
+      </c>
+      <c r="JL46" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="JM46" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="JN46" t="n">
+        <v>229</v>
       </c>
     </row>
     <row r="47" ht="13.9" customHeight="1" s="3">
@@ -38855,8 +39269,17 @@
       <c r="JJ47" s="2" t="n">
         <v>70.3</v>
       </c>
-      <c r="JK47" t="n">
+      <c r="JK47" s="2" t="n">
         <v>70.40000000000001</v>
+      </c>
+      <c r="JL47" s="2" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="JM47" s="2" t="n">
+        <v>68.2</v>
+      </c>
+      <c r="JN47" t="n">
+        <v>67.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.9" customHeight="1" s="3">
@@ -39672,8 +40095,17 @@
       <c r="JJ48" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JK48" t="n">
+      <c r="JK48" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JL48" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="JM48" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="JN48" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="49" ht="13.9" customHeight="1" s="3">
@@ -40489,8 +40921,17 @@
       <c r="JJ49" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JK49" t="n">
+      <c r="JK49" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JL49" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JM49" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JN49" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="50" ht="13.9" customHeight="1" s="3">
@@ -41306,8 +41747,17 @@
       <c r="JJ50" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JK50" t="n">
+      <c r="JK50" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JL50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JM50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JN50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="13.9" customHeight="1" s="3">
@@ -42123,8 +42573,17 @@
       <c r="JJ51" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JK51" t="n">
+      <c r="JK51" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JL51" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JM51" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="JN51" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="13.9" customHeight="1" s="3">
@@ -42940,8 +43399,17 @@
       <c r="JJ52" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JK52" t="n">
+      <c r="JK52" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="JL52" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JM52" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JN52" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="53" ht="13.9" customHeight="1" s="3">
@@ -43757,8 +44225,17 @@
       <c r="JJ53" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="JK53" t="n">
+      <c r="JK53" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="JL53" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JM53" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JN53" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="54" ht="13.9" customHeight="1" s="3">
@@ -44574,7 +45051,16 @@
       <c r="JJ54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JK54" t="n">
+      <c r="JK54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JL54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM54" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN54" t="n">
         <v>4</v>
       </c>
     </row>
@@ -45391,8 +45877,17 @@
       <c r="JJ55" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JK55" t="n">
+      <c r="JK55" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JL55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JM55" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JN55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="13.9" customHeight="1" s="3">
@@ -46208,8 +46703,17 @@
       <c r="JJ56" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="JK56" t="n">
+      <c r="JK56" s="2" t="n">
         <v>87.5</v>
+      </c>
+      <c r="JL56" s="2" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="JM56" s="2" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="JN56" t="n">
+        <v>57.1</v>
       </c>
     </row>
     <row r="57" ht="13.9" customHeight="1" s="3">
@@ -47025,8 +47529,17 @@
       <c r="JJ57" s="2" t="n">
         <v>218</v>
       </c>
-      <c r="JK57" t="n">
+      <c r="JK57" s="2" t="n">
         <v>216</v>
+      </c>
+      <c r="JL57" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="JM57" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="JN57" t="n">
+        <v>213</v>
       </c>
     </row>
     <row r="58" ht="13.9" customHeight="1" s="3">
@@ -47842,8 +48355,17 @@
       <c r="JJ58" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="JK58" t="n">
+      <c r="JK58" s="2" t="n">
         <v>119</v>
+      </c>
+      <c r="JL58" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="JM58" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="JN58" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="59" ht="13.9" customHeight="1" s="3">
@@ -48659,8 +49181,17 @@
       <c r="JJ59" s="2" t="n">
         <v>327</v>
       </c>
-      <c r="JK59" t="n">
+      <c r="JK59" s="2" t="n">
         <v>335</v>
+      </c>
+      <c r="JL59" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="JM59" s="2" t="n">
+        <v>320</v>
+      </c>
+      <c r="JN59" t="n">
+        <v>316</v>
       </c>
     </row>
     <row r="60" ht="13.9" customHeight="1" s="3">
@@ -49476,8 +50007,17 @@
       <c r="JJ60" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JK60" t="n">
+      <c r="JK60" s="2" t="n">
         <v>1.82</v>
+      </c>
+      <c r="JL60" s="2" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="JM60" s="2" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="JN60" t="n">
+        <v>2.07</v>
       </c>
     </row>
     <row r="61" ht="13.9" customHeight="1" s="3">
@@ -50293,8 +50833,17 @@
       <c r="JJ61" s="2" t="n">
         <v>98</v>
       </c>
-      <c r="JK61" t="n">
+      <c r="JK61" s="2" t="n">
         <v>97</v>
+      </c>
+      <c r="JL61" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="JM61" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="JN61" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="62" ht="13.9" customHeight="1" s="3">
@@ -51110,8 +51659,17 @@
       <c r="JJ62" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="JK62" t="n">
+      <c r="JK62" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="JL62" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JM62" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="JN62" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="63" ht="13.9" customHeight="1" s="3">
@@ -51927,8 +52485,17 @@
       <c r="JJ63" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JK63" t="n">
+      <c r="JK63" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JL63" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JM63" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JN63" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="64" ht="13.9" customHeight="1" s="3">
@@ -52744,8 +53311,17 @@
       <c r="JJ64" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JK64" t="n">
+      <c r="JK64" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JL64" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JM64" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JN64" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="13.9" customHeight="1" s="3">
@@ -53561,8 +54137,17 @@
       <c r="JJ65" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JK65" t="n">
+      <c r="JK65" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JL65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JM65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JN65" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="13.9" customHeight="1" s="3">
@@ -54378,8 +54963,17 @@
       <c r="JJ66" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JK66" t="n">
+      <c r="JK66" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JL66" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JM66" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JN66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.9" customHeight="1" s="3">
@@ -55195,8 +55789,17 @@
       <c r="JJ67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JK67" t="n">
+      <c r="JK67" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JL67" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JM67" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JN67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="13.9" customHeight="1" s="3">
@@ -56012,8 +56615,17 @@
       <c r="JJ68" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JK68" t="n">
+      <c r="JK68" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JL68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JM68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JN68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.9" customHeight="1" s="3">
@@ -56829,8 +57441,17 @@
       <c r="JJ69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JK69" t="n">
+      <c r="JK69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JL69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JM69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JN69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.9" customHeight="1" s="3">
@@ -57646,8 +58267,17 @@
       <c r="JJ70" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="JK70" t="n">
+      <c r="JK70" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="JL70" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JM70" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JN70" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="13.9" customHeight="1" s="3">
@@ -58463,8 +59093,17 @@
       <c r="JJ71" s="2" t="n">
         <v>42.9</v>
       </c>
-      <c r="JK71" t="n">
+      <c r="JK71" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="JL71" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JM71" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JN71" t="n">
+        <v>45.8</v>
       </c>
     </row>
     <row r="72" ht="13.9" customHeight="1" s="3">
@@ -59280,8 +59919,17 @@
       <c r="JJ72" s="2" t="n">
         <v>36.33</v>
       </c>
-      <c r="JK72" t="n">
+      <c r="JK72" s="2" t="n">
         <v>18.61</v>
+      </c>
+      <c r="JL72" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JM72" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JN72" t="n">
+        <v>28.73</v>
       </c>
     </row>
     <row r="73" ht="13.9" customHeight="1" s="3">
@@ -60097,8 +60745,17 @@
       <c r="JJ73" s="2" t="n">
         <v>15.57</v>
       </c>
-      <c r="JK73" t="n">
+      <c r="JK73" s="2" t="n">
         <v>13.4</v>
+      </c>
+      <c r="JL73" s="2" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="JM73" s="2" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="JN73" t="n">
+        <v>13.17</v>
       </c>
     </row>
     <row r="74" ht="13.9" customHeight="1" s="3">
@@ -60914,8 +61571,17 @@
       <c r="JJ74" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JK74" t="n">
+      <c r="JK74" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JL74" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JM74" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JN74" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="75" ht="13.9" customHeight="1" s="3">
@@ -61731,8 +62397,17 @@
       <c r="JJ75" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JK75" t="n">
+      <c r="JK75" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JL75" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="JM75" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="JN75" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="76" ht="13.9" customHeight="1" s="3">
@@ -62548,8 +63223,17 @@
       <c r="JJ76" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JK76" t="n">
+      <c r="JK76" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JL76" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JM76" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JN76" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="77" ht="13.9" customHeight="1" s="3">
@@ -63365,8 +64049,17 @@
       <c r="JJ77" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JK77" t="n">
+      <c r="JK77" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JL77" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="JM77" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="JN77" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="78" ht="13.9" customHeight="1" s="3">
@@ -64182,8 +64875,17 @@
       <c r="JJ78" s="2" t="n">
         <v>2.38</v>
       </c>
-      <c r="JK78" t="n">
+      <c r="JK78" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JL78" s="2" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="JM78" s="2" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="JN78" t="n">
+        <v>2.29</v>
       </c>
     </row>
     <row r="79" ht="13.9" customHeight="1" s="3">
@@ -64999,8 +65701,17 @@
       <c r="JJ79" s="2" t="n">
         <v>5.56</v>
       </c>
-      <c r="JK79" t="n">
+      <c r="JK79" s="2" t="n">
         <v>2.78</v>
+      </c>
+      <c r="JL79" s="2" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="JM79" s="2" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="JN79" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="80" ht="13.9" customHeight="1" s="3">
@@ -65816,8 +66527,17 @@
       <c r="JJ80" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JK80" t="n">
+      <c r="JK80" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="JL80" s="2" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="JM80" s="2" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="JN80" t="n">
+        <v>38.2</v>
       </c>
     </row>
     <row r="81" ht="13.9" customHeight="1" s="3">
@@ -66633,8 +67353,17 @@
       <c r="JJ81" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JK81" t="n">
+      <c r="JK81" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JL81" s="2" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="JM81" s="2" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="JN81" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="82" ht="13.9" customHeight="1" s="3">
@@ -67450,8 +68179,17 @@
       <c r="JJ82" s="2" t="n">
         <v>188.3</v>
       </c>
-      <c r="JK82" t="n">
+      <c r="JK82" s="2" t="n">
         <v>187.2</v>
+      </c>
+      <c r="JL82" s="2" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="JM82" s="2" t="n">
+        <v>186.7</v>
+      </c>
+      <c r="JN82" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="83" ht="13.9" customHeight="1" s="3">
@@ -68267,8 +69005,17 @@
       <c r="JJ83" s="2" t="n">
         <v>85.5</v>
       </c>
-      <c r="JK83" t="n">
+      <c r="JK83" s="2" t="n">
         <v>87.09999999999999</v>
+      </c>
+      <c r="JL83" s="2" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="JM83" s="2" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="JN83" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="84" ht="13.9" customHeight="1" s="3">
@@ -69084,8 +69831,17 @@
       <c r="JJ84" s="2" t="n">
         <v>25.49</v>
       </c>
-      <c r="JK84" t="n">
+      <c r="JK84" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="JL84" s="2" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="JM84" s="2" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="JN84" t="n">
+        <v>26.33</v>
       </c>
     </row>
     <row r="85" ht="13.9" customHeight="1" s="3">
@@ -69901,8 +70657,17 @@
       <c r="JJ85" s="2" t="n">
         <v>91.7</v>
       </c>
-      <c r="JK85" t="n">
+      <c r="JK85" s="2" t="n">
         <v>116.6</v>
+      </c>
+      <c r="JL85" s="2" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="JM85" s="2" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="JN85" t="n">
+        <v>122.7</v>
       </c>
     </row>
     <row r="86" ht="13.9" customHeight="1" s="3">
@@ -70718,8 +71483,17 @@
       <c r="JJ86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JK86" t="n">
+      <c r="JK86" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JL86" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JM86" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JN86" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="87" ht="13.9" customHeight="1" s="3">
@@ -71535,8 +72309,17 @@
       <c r="JJ87" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JK87" t="n">
+      <c r="JK87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JL87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JM87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JN87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.9" customHeight="1" s="3">
@@ -72352,7 +73135,16 @@
       <c r="JJ88" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JK88" t="n">
+      <c r="JK88" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JL88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JM88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JN88" t="n">
         <v>9</v>
       </c>
     </row>
@@ -73169,8 +73961,17 @@
       <c r="JJ89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JK89" t="n">
+      <c r="JK89" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JL89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JM89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JN89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.9" customHeight="1" s="3">
@@ -73986,8 +74787,17 @@
       <c r="JJ90" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="JK90" t="n">
+      <c r="JK90" s="2" t="n">
         <v>140</v>
+      </c>
+      <c r="JL90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="JM90" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="JN90" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="91" ht="13.9" customHeight="1" s="3">
@@ -74803,8 +75613,17 @@
       <c r="JJ91" s="2" t="n">
         <v>193</v>
       </c>
-      <c r="JK91" t="n">
+      <c r="JK91" s="2" t="n">
         <v>202</v>
+      </c>
+      <c r="JL91" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="JM91" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="JN91" t="n">
+        <v>157</v>
       </c>
     </row>
     <row r="92" ht="13.9" customHeight="1" s="3">
@@ -75620,8 +76439,17 @@
       <c r="JJ92" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="JK92" t="n">
+      <c r="JK92" s="2" t="n">
         <v>249</v>
+      </c>
+      <c r="JL92" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="JM92" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="JN92" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="93" ht="13.9" customHeight="1" s="3">
@@ -76437,8 +77265,17 @@
       <c r="JJ93" s="2" t="n">
         <v>70.3</v>
       </c>
-      <c r="JK93" t="n">
+      <c r="JK93" s="2" t="n">
         <v>74.3</v>
+      </c>
+      <c r="JL93" s="2" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="JM93" s="2" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="JN93" t="n">
+        <v>65.8</v>
       </c>
     </row>
     <row r="94" ht="13.9" customHeight="1" s="3">
@@ -77254,8 +78091,17 @@
       <c r="JJ94" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JK94" t="n">
+      <c r="JK94" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JL94" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="JM94" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="JN94" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="95" ht="13.9" customHeight="1" s="3">
@@ -78071,8 +78917,17 @@
       <c r="JJ95" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JK95" t="n">
+      <c r="JK95" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JL95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JM95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JN95" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="96" ht="13.9" customHeight="1" s="3">
@@ -78888,8 +79743,17 @@
       <c r="JJ96" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JK96" t="n">
+      <c r="JK96" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JL96" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JM96" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JN96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.9" customHeight="1" s="3">
@@ -79705,8 +80569,17 @@
       <c r="JJ97" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JK97" t="n">
+      <c r="JK97" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JL97" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JM97" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JN97" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="98" ht="13.9" customHeight="1" s="3">
@@ -80522,8 +81395,17 @@
       <c r="JJ98" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JK98" t="n">
+      <c r="JK98" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JL98" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JM98" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JN98" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="99" ht="13.9" customHeight="1" s="3">
@@ -81339,8 +82221,17 @@
       <c r="JJ99" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="JK99" t="n">
+      <c r="JK99" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="JL99" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JM99" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JN99" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="100" ht="13.9" customHeight="1" s="3">
@@ -82156,8 +83047,17 @@
       <c r="JJ100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JK100" t="n">
+      <c r="JK100" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JL100" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JM100" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JN100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.9" customHeight="1" s="3">
@@ -82973,8 +83873,17 @@
       <c r="JJ101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JK101" t="n">
+      <c r="JK101" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JL101" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JM101" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JN101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="13.9" customHeight="1" s="3">
@@ -83790,8 +84699,17 @@
       <c r="JJ102" s="2" t="n">
         <v>77.8</v>
       </c>
-      <c r="JK102" t="n">
+      <c r="JK102" s="2" t="n">
         <v>72.2</v>
+      </c>
+      <c r="JL102" s="2" t="n">
+        <v>81.2</v>
+      </c>
+      <c r="JM102" s="2" t="n">
+        <v>81.2</v>
+      </c>
+      <c r="JN102" t="n">
+        <v>45.5</v>
       </c>
     </row>
   </sheetData>

--- a/django_AFL_ML/Data/Brisbane_stats.xlsx
+++ b/django_AFL_ML/Data/Brisbane_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JN102"/>
+  <dimension ref="A1:JP102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL36" activeCellId="0" sqref="IL36"/>
@@ -1282,7 +1282,13 @@
       <c r="JM1" s="2" t="n">
         <v>10742</v>
       </c>
-      <c r="JN1" t="n">
+      <c r="JN1" s="2" t="n">
+        <v>10746</v>
+      </c>
+      <c r="JO1" s="2" t="n">
+        <v>10746</v>
+      </c>
+      <c r="JP1" t="n">
         <v>10746</v>
       </c>
     </row>
@@ -2108,7 +2114,13 @@
       <c r="JM2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JN2" t="n">
+      <c r="JN2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JO2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JP2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2934,7 +2946,13 @@
       <c r="JM3" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="JN3" t="n">
+      <c r="JN3" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JO3" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JP3" t="n">
         <v>26</v>
       </c>
     </row>
@@ -3760,7 +3778,13 @@
       <c r="JM4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JN4" t="n">
+      <c r="JN4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4586,7 +4610,13 @@
       <c r="JM5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JN5" t="n">
+      <c r="JN5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5412,7 +5442,13 @@
       <c r="JM6" s="2" t="n">
         <v>106</v>
       </c>
-      <c r="JN6" t="n">
+      <c r="JN6" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="JO6" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="JP6" t="n">
         <v>92</v>
       </c>
     </row>
@@ -6238,7 +6274,13 @@
       <c r="JM7" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="JN7" t="n">
+      <c r="JN7" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="JO7" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="JP7" t="n">
         <v>79</v>
       </c>
     </row>
@@ -7064,7 +7106,13 @@
       <c r="JM8" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JN8" t="n">
+      <c r="JN8" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JO8" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JP8" t="n">
         <v>13</v>
       </c>
     </row>
@@ -7890,7 +7938,13 @@
       <c r="JM9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JN9" t="n">
+      <c r="JN9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8716,7 +8770,13 @@
       <c r="JM10" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JN10" t="n">
+      <c r="JN10" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JO10" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JP10" t="n">
         <v>11</v>
       </c>
     </row>
@@ -9542,7 +9602,13 @@
       <c r="JM11" s="2" t="n">
         <v>210</v>
       </c>
-      <c r="JN11" t="n">
+      <c r="JN11" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="JO11" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="JP11" t="n">
         <v>229</v>
       </c>
     </row>
@@ -10368,7 +10434,13 @@
       <c r="JM12" s="2" t="n">
         <v>126</v>
       </c>
-      <c r="JN12" t="n">
+      <c r="JN12" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="JO12" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="JP12" t="n">
         <v>111</v>
       </c>
     </row>
@@ -11194,7 +11266,13 @@
       <c r="JM13" s="2" t="n">
         <v>336</v>
       </c>
-      <c r="JN13" t="n">
+      <c r="JN13" s="2" t="n">
+        <v>340</v>
+      </c>
+      <c r="JO13" s="2" t="n">
+        <v>340</v>
+      </c>
+      <c r="JP13" t="n">
         <v>340</v>
       </c>
     </row>
@@ -12020,7 +12098,13 @@
       <c r="JM14" s="2" t="n">
         <v>1.67</v>
       </c>
-      <c r="JN14" t="n">
+      <c r="JN14" s="2" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="JO14" s="2" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="JP14" t="n">
         <v>2.06</v>
       </c>
     </row>
@@ -12846,7 +12930,13 @@
       <c r="JM15" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="JN15" t="n">
+      <c r="JN15" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="JO15" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="JP15" t="n">
         <v>92</v>
       </c>
     </row>
@@ -13672,7 +13762,13 @@
       <c r="JM16" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="JN16" t="n">
+      <c r="JN16" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="JO16" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="JP16" t="n">
         <v>74</v>
       </c>
     </row>
@@ -14498,7 +14594,13 @@
       <c r="JM17" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JN17" t="n">
+      <c r="JN17" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JO17" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JP17" t="n">
         <v>33</v>
       </c>
     </row>
@@ -15324,7 +15426,13 @@
       <c r="JM18" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JN18" t="n">
+      <c r="JN18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JO18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JP18" t="n">
         <v>22</v>
       </c>
     </row>
@@ -16150,7 +16258,13 @@
       <c r="JM19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JN19" t="n">
+      <c r="JN19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JO19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JP19" t="n">
         <v>19</v>
       </c>
     </row>
@@ -16976,7 +17090,13 @@
       <c r="JM20" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JN20" t="n">
+      <c r="JN20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JO20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JP20" t="n">
         <v>14</v>
       </c>
     </row>
@@ -17802,7 +17922,13 @@
       <c r="JM21" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JN21" t="n">
+      <c r="JN21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JO21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JP21" t="n">
         <v>8</v>
       </c>
     </row>
@@ -18628,7 +18754,13 @@
       <c r="JM22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JN22" t="n">
+      <c r="JN22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JO22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JP22" t="n">
         <v>7</v>
       </c>
     </row>
@@ -19454,7 +19586,13 @@
       <c r="JM23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JN23" t="n">
+      <c r="JN23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JO23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -20280,7 +20418,13 @@
       <c r="JM24" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JN24" t="n">
+      <c r="JN24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JO24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JP24" t="n">
         <v>22</v>
       </c>
     </row>
@@ -21106,7 +21250,13 @@
       <c r="JM25" s="2" t="n">
         <v>61.5</v>
       </c>
-      <c r="JN25" t="n">
+      <c r="JN25" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="JO25" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="JP25" t="n">
         <v>63.6</v>
       </c>
     </row>
@@ -21932,7 +22082,13 @@
       <c r="JM26" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="JN26" t="n">
+      <c r="JN26" s="2" t="n">
+        <v>24.29</v>
+      </c>
+      <c r="JO26" s="2" t="n">
+        <v>24.29</v>
+      </c>
+      <c r="JP26" t="n">
         <v>24.29</v>
       </c>
     </row>
@@ -22758,7 +22914,13 @@
       <c r="JM27" s="2" t="n">
         <v>12.92</v>
       </c>
-      <c r="JN27" t="n">
+      <c r="JN27" s="2" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="JO27" s="2" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="JP27" t="n">
         <v>15.45</v>
       </c>
     </row>
@@ -23584,7 +23746,13 @@
       <c r="JM28" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JN28" t="n">
+      <c r="JN28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JO28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JP28" t="n">
         <v>37</v>
       </c>
     </row>
@@ -24410,7 +24578,13 @@
       <c r="JM29" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="JN29" t="n">
+      <c r="JN29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JO29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JP29" t="n">
         <v>55</v>
       </c>
     </row>
@@ -25236,7 +25410,13 @@
       <c r="JM30" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JN30" t="n">
+      <c r="JN30" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JO30" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JP30" t="n">
         <v>44</v>
       </c>
     </row>
@@ -26062,7 +26242,13 @@
       <c r="JM31" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="JN31" t="n">
+      <c r="JN31" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JO31" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JP31" t="n">
         <v>53</v>
       </c>
     </row>
@@ -26888,7 +27074,13 @@
       <c r="JM32" s="2" t="n">
         <v>2.27</v>
       </c>
-      <c r="JN32" t="n">
+      <c r="JN32" s="2" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="JO32" s="2" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="JP32" t="n">
         <v>2.41</v>
       </c>
     </row>
@@ -27714,7 +27906,13 @@
       <c r="JM33" s="2" t="n">
         <v>3.69</v>
       </c>
-      <c r="JN33" t="n">
+      <c r="JN33" s="2" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="JO33" s="2" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="JP33" t="n">
         <v>3.79</v>
       </c>
     </row>
@@ -28540,7 +28738,13 @@
       <c r="JM34" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JN34" t="n">
+      <c r="JN34" s="2" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="JO34" s="2" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="JP34" t="n">
         <v>39.6</v>
       </c>
     </row>
@@ -29366,7 +29570,13 @@
       <c r="JM35" s="2" t="n">
         <v>27.1</v>
       </c>
-      <c r="JN35" t="n">
+      <c r="JN35" s="2" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="JO35" s="2" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="JP35" t="n">
         <v>26.4</v>
       </c>
     </row>
@@ -30192,7 +30402,13 @@
       <c r="JM36" s="2" t="n">
         <v>188.1</v>
       </c>
-      <c r="JN36" t="n">
+      <c r="JN36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="JO36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="JP36" t="n">
         <v>187.9</v>
       </c>
     </row>
@@ -31018,7 +31234,13 @@
       <c r="JM37" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="JN37" t="n">
+      <c r="JN37" s="2" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="JO37" s="2" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="JP37" t="n">
         <v>87.3</v>
       </c>
     </row>
@@ -31844,7 +32066,13 @@
       <c r="JM38" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JN38" t="n">
+      <c r="JN38" s="2" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="JO38" s="2" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="JP38" t="n">
         <v>25.49</v>
       </c>
     </row>
@@ -32670,7 +32898,13 @@
       <c r="JM39" s="2" t="n">
         <v>120.9</v>
       </c>
-      <c r="JN39" t="n">
+      <c r="JN39" s="2" t="n">
+        <v>106.7</v>
+      </c>
+      <c r="JO39" s="2" t="n">
+        <v>106.7</v>
+      </c>
+      <c r="JP39" t="n">
         <v>106.7</v>
       </c>
     </row>
@@ -33496,7 +33730,13 @@
       <c r="JM40" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JN40" t="n">
+      <c r="JN40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JO40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JP40" t="n">
         <v>6</v>
       </c>
     </row>
@@ -34322,7 +34562,13 @@
       <c r="JM41" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JN41" t="n">
+      <c r="JN41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JO41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JP41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -35148,7 +35394,13 @@
       <c r="JM42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JN42" t="n">
+      <c r="JN42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JO42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JP42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -35974,7 +36226,13 @@
       <c r="JM43" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JN43" t="n">
+      <c r="JN43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JO43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JP43" t="n">
         <v>7</v>
       </c>
     </row>
@@ -36800,7 +37058,13 @@
       <c r="JM44" s="2" t="n">
         <v>149</v>
       </c>
-      <c r="JN44" t="n">
+      <c r="JN44" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="JO44" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="JP44" t="n">
         <v>137</v>
       </c>
     </row>
@@ -37626,7 +37890,13 @@
       <c r="JM45" s="2" t="n">
         <v>182</v>
       </c>
-      <c r="JN45" t="n">
+      <c r="JN45" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="JO45" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="JP45" t="n">
         <v>194</v>
       </c>
     </row>
@@ -38452,7 +38722,13 @@
       <c r="JM46" s="2" t="n">
         <v>229</v>
       </c>
-      <c r="JN46" t="n">
+      <c r="JN46" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="JO46" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="JP46" t="n">
         <v>229</v>
       </c>
     </row>
@@ -39278,7 +39554,13 @@
       <c r="JM47" s="2" t="n">
         <v>68.2</v>
       </c>
-      <c r="JN47" t="n">
+      <c r="JN47" s="2" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="JO47" s="2" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="JP47" t="n">
         <v>67.40000000000001</v>
       </c>
     </row>
@@ -40104,7 +40386,13 @@
       <c r="JM48" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="JN48" t="n">
+      <c r="JN48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JO48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JP48" t="n">
         <v>55</v>
       </c>
     </row>
@@ -40930,7 +41218,13 @@
       <c r="JM49" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JN49" t="n">
+      <c r="JN49" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JO49" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JP49" t="n">
         <v>7</v>
       </c>
     </row>
@@ -41756,7 +42050,13 @@
       <c r="JM50" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JN50" t="n">
+      <c r="JN50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JO50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JP50" t="n">
         <v>8</v>
       </c>
     </row>
@@ -42582,7 +42882,13 @@
       <c r="JM51" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JN51" t="n">
+      <c r="JN51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JO51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JP51" t="n">
         <v>37</v>
       </c>
     </row>
@@ -43408,7 +43714,13 @@
       <c r="JM52" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JN52" t="n">
+      <c r="JN52" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JO52" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JP52" t="n">
         <v>44</v>
       </c>
     </row>
@@ -44234,7 +44546,13 @@
       <c r="JM53" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="JN53" t="n">
+      <c r="JN53" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JO53" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JP53" t="n">
         <v>70</v>
       </c>
     </row>
@@ -45060,7 +45378,13 @@
       <c r="JM54" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JN54" t="n">
+      <c r="JN54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JO54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JP54" t="n">
         <v>4</v>
       </c>
     </row>
@@ -45886,7 +46210,13 @@
       <c r="JM55" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JN55" t="n">
+      <c r="JN55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JO55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JP55" t="n">
         <v>8</v>
       </c>
     </row>
@@ -46712,7 +47042,13 @@
       <c r="JM56" s="2" t="n">
         <v>56.2</v>
       </c>
-      <c r="JN56" t="n">
+      <c r="JN56" s="2" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="JO56" s="2" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="JP56" t="n">
         <v>57.1</v>
       </c>
     </row>
@@ -47538,7 +47874,13 @@
       <c r="JM57" s="2" t="n">
         <v>216</v>
       </c>
-      <c r="JN57" t="n">
+      <c r="JN57" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="JO57" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="JP57" t="n">
         <v>213</v>
       </c>
     </row>
@@ -48364,7 +48706,13 @@
       <c r="JM58" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="JN58" t="n">
+      <c r="JN58" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="JO58" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="JP58" t="n">
         <v>103</v>
       </c>
     </row>
@@ -49190,7 +49538,13 @@
       <c r="JM59" s="2" t="n">
         <v>320</v>
       </c>
-      <c r="JN59" t="n">
+      <c r="JN59" s="2" t="n">
+        <v>316</v>
+      </c>
+      <c r="JO59" s="2" t="n">
+        <v>316</v>
+      </c>
+      <c r="JP59" t="n">
         <v>316</v>
       </c>
     </row>
@@ -50016,7 +50370,13 @@
       <c r="JM60" s="2" t="n">
         <v>2.08</v>
       </c>
-      <c r="JN60" t="n">
+      <c r="JN60" s="2" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="JO60" s="2" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="JP60" t="n">
         <v>2.07</v>
       </c>
     </row>
@@ -50842,7 +51202,13 @@
       <c r="JM61" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="JN61" t="n">
+      <c r="JN61" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="JO61" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="JP61" t="n">
         <v>78</v>
       </c>
     </row>
@@ -51668,7 +52034,13 @@
       <c r="JM62" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JN62" t="n">
+      <c r="JN62" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="JO62" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="JP62" t="n">
         <v>73</v>
       </c>
     </row>
@@ -52494,7 +52866,13 @@
       <c r="JM63" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JN63" t="n">
+      <c r="JN63" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JO63" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JP63" t="n">
         <v>48</v>
       </c>
     </row>
@@ -53320,7 +53698,13 @@
       <c r="JM64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JN64" t="n">
+      <c r="JN64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JO64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JP64" t="n">
         <v>19</v>
       </c>
     </row>
@@ -54146,7 +54530,13 @@
       <c r="JM65" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JN65" t="n">
+      <c r="JN65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JO65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JP65" t="n">
         <v>22</v>
       </c>
     </row>
@@ -54972,7 +55362,13 @@
       <c r="JM66" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JN66" t="n">
+      <c r="JN66" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JO66" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JP66" t="n">
         <v>11</v>
       </c>
     </row>
@@ -55798,7 +56194,13 @@
       <c r="JM67" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JN67" t="n">
+      <c r="JN67" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JO67" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JP67" t="n">
         <v>5</v>
       </c>
     </row>
@@ -56624,7 +57026,13 @@
       <c r="JM68" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JN68" t="n">
+      <c r="JN68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JO68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JP68" t="n">
         <v>10</v>
       </c>
     </row>
@@ -57450,7 +57858,13 @@
       <c r="JM69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JN69" t="n">
+      <c r="JN69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JO69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JP69" t="n">
         <v>3</v>
       </c>
     </row>
@@ -58276,7 +58690,13 @@
       <c r="JM70" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="JN70" t="n">
+      <c r="JN70" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JO70" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JP70" t="n">
         <v>24</v>
       </c>
     </row>
@@ -59102,7 +59522,13 @@
       <c r="JM71" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="JN71" t="n">
+      <c r="JN71" s="2" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="JO71" s="2" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="JP71" t="n">
         <v>45.8</v>
       </c>
     </row>
@@ -59928,7 +60354,13 @@
       <c r="JM72" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JN72" t="n">
+      <c r="JN72" s="2" t="n">
+        <v>28.73</v>
+      </c>
+      <c r="JO72" s="2" t="n">
+        <v>28.73</v>
+      </c>
+      <c r="JP72" t="n">
         <v>28.73</v>
       </c>
     </row>
@@ -60754,7 +61186,13 @@
       <c r="JM73" s="2" t="n">
         <v>13.33</v>
       </c>
-      <c r="JN73" t="n">
+      <c r="JN73" s="2" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="JO73" s="2" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="JP73" t="n">
         <v>13.17</v>
       </c>
     </row>
@@ -61580,7 +62018,13 @@
       <c r="JM74" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JN74" t="n">
+      <c r="JN74" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JO74" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JP74" t="n">
         <v>51</v>
       </c>
     </row>
@@ -62406,7 +62850,13 @@
       <c r="JM75" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="JN75" t="n">
+      <c r="JN75" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JO75" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JP75" t="n">
         <v>58</v>
       </c>
     </row>
@@ -63232,7 +63682,13 @@
       <c r="JM76" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JN76" t="n">
+      <c r="JN76" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JO76" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JP76" t="n">
         <v>39</v>
       </c>
     </row>
@@ -64058,7 +64514,13 @@
       <c r="JM77" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="JN77" t="n">
+      <c r="JN77" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JO77" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JP77" t="n">
         <v>55</v>
       </c>
     </row>
@@ -64884,7 +65346,13 @@
       <c r="JM78" s="2" t="n">
         <v>2.62</v>
       </c>
-      <c r="JN78" t="n">
+      <c r="JN78" s="2" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="JO78" s="2" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="JP78" t="n">
         <v>2.29</v>
       </c>
     </row>
@@ -65710,7 +66178,13 @@
       <c r="JM79" s="2" t="n">
         <v>3.94</v>
       </c>
-      <c r="JN79" t="n">
+      <c r="JN79" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JO79" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JP79" t="n">
         <v>5</v>
       </c>
     </row>
@@ -66536,7 +67010,13 @@
       <c r="JM80" s="2" t="n">
         <v>34.9</v>
       </c>
-      <c r="JN80" t="n">
+      <c r="JN80" s="2" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="JO80" s="2" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="JP80" t="n">
         <v>38.2</v>
       </c>
     </row>
@@ -67362,7 +67842,13 @@
       <c r="JM81" s="2" t="n">
         <v>25.4</v>
       </c>
-      <c r="JN81" t="n">
+      <c r="JN81" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JO81" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JP81" t="n">
         <v>20</v>
       </c>
     </row>
@@ -68188,7 +68674,13 @@
       <c r="JM82" s="2" t="n">
         <v>186.7</v>
       </c>
-      <c r="JN82" t="n">
+      <c r="JN82" s="2" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="JO82" s="2" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="JP82" t="n">
         <v>187.7</v>
       </c>
     </row>
@@ -69014,7 +69506,13 @@
       <c r="JM83" s="2" t="n">
         <v>86.09999999999999</v>
       </c>
-      <c r="JN83" t="n">
+      <c r="JN83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="JO83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="JP83" t="n">
         <v>88</v>
       </c>
     </row>
@@ -69840,7 +70338,13 @@
       <c r="JM84" s="2" t="n">
         <v>26.8</v>
       </c>
-      <c r="JN84" t="n">
+      <c r="JN84" s="2" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="JO84" s="2" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="JP84" t="n">
         <v>26.33</v>
       </c>
     </row>
@@ -70666,7 +71170,13 @@
       <c r="JM85" s="2" t="n">
         <v>131.5</v>
       </c>
-      <c r="JN85" t="n">
+      <c r="JN85" s="2" t="n">
+        <v>122.7</v>
+      </c>
+      <c r="JO85" s="2" t="n">
+        <v>122.7</v>
+      </c>
+      <c r="JP85" t="n">
         <v>122.7</v>
       </c>
     </row>
@@ -71492,7 +72002,13 @@
       <c r="JM86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JN86" t="n">
+      <c r="JN86" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JO86" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JP86" t="n">
         <v>2</v>
       </c>
     </row>
@@ -72318,7 +72834,13 @@
       <c r="JM87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JN87" t="n">
+      <c r="JN87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JO87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JP87" t="n">
         <v>5</v>
       </c>
     </row>
@@ -73144,7 +73666,13 @@
       <c r="JM88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JN88" t="n">
+      <c r="JN88" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JO88" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JP88" t="n">
         <v>9</v>
       </c>
     </row>
@@ -73970,7 +74498,13 @@
       <c r="JM89" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JN89" t="n">
+      <c r="JN89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JO89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JP89" t="n">
         <v>7</v>
       </c>
     </row>
@@ -74796,7 +75330,13 @@
       <c r="JM90" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="JN90" t="n">
+      <c r="JN90" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="JO90" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="JP90" t="n">
         <v>156</v>
       </c>
     </row>
@@ -75622,7 +76162,13 @@
       <c r="JM91" s="2" t="n">
         <v>162</v>
       </c>
-      <c r="JN91" t="n">
+      <c r="JN91" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="JO91" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="JP91" t="n">
         <v>157</v>
       </c>
     </row>
@@ -76448,7 +76994,13 @@
       <c r="JM92" s="2" t="n">
         <v>212</v>
       </c>
-      <c r="JN92" t="n">
+      <c r="JN92" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="JO92" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="JP92" t="n">
         <v>208</v>
       </c>
     </row>
@@ -77274,7 +77826,13 @@
       <c r="JM93" s="2" t="n">
         <v>66.2</v>
       </c>
-      <c r="JN93" t="n">
+      <c r="JN93" s="2" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="JO93" s="2" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="JP93" t="n">
         <v>65.8</v>
       </c>
     </row>
@@ -78100,7 +78658,13 @@
       <c r="JM94" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="JN94" t="n">
+      <c r="JN94" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JO94" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JP94" t="n">
         <v>58</v>
       </c>
     </row>
@@ -78926,7 +79490,13 @@
       <c r="JM95" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JN95" t="n">
+      <c r="JN95" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JO95" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JP95" t="n">
         <v>13</v>
       </c>
     </row>
@@ -79752,7 +80322,13 @@
       <c r="JM96" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JN96" t="n">
+      <c r="JN96" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JO96" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JP96" t="n">
         <v>10</v>
       </c>
     </row>
@@ -80578,7 +81154,13 @@
       <c r="JM97" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JN97" t="n">
+      <c r="JN97" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JO97" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JP97" t="n">
         <v>51</v>
       </c>
     </row>
@@ -81404,7 +81986,13 @@
       <c r="JM98" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JN98" t="n">
+      <c r="JN98" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JO98" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JP98" t="n">
         <v>39</v>
       </c>
     </row>
@@ -82230,7 +82818,13 @@
       <c r="JM99" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="JN99" t="n">
+      <c r="JN99" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JO99" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JP99" t="n">
         <v>44</v>
       </c>
     </row>
@@ -83056,7 +83650,13 @@
       <c r="JM100" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JN100" t="n">
+      <c r="JN100" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JO100" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JP100" t="n">
         <v>3</v>
       </c>
     </row>
@@ -83882,7 +84482,13 @@
       <c r="JM101" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JN101" t="n">
+      <c r="JN101" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JO101" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JP101" t="n">
         <v>5</v>
       </c>
     </row>
@@ -84708,7 +85314,13 @@
       <c r="JM102" s="2" t="n">
         <v>81.2</v>
       </c>
-      <c r="JN102" t="n">
+      <c r="JN102" s="2" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="JO102" s="2" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="JP102" t="n">
         <v>45.5</v>
       </c>
     </row>

--- a/django_AFL_ML/Data/Brisbane_stats.xlsx
+++ b/django_AFL_ML/Data/Brisbane_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JP102"/>
+  <dimension ref="A1:JS102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL36" activeCellId="0" sqref="IL36"/>
@@ -1288,7 +1288,16 @@
       <c r="JO1" s="2" t="n">
         <v>10746</v>
       </c>
-      <c r="JP1" t="n">
+      <c r="JP1" s="2" t="n">
+        <v>10746</v>
+      </c>
+      <c r="JQ1" s="2" t="n">
+        <v>10746</v>
+      </c>
+      <c r="JR1" s="2" t="n">
+        <v>10746</v>
+      </c>
+      <c r="JS1" t="n">
         <v>10746</v>
       </c>
     </row>
@@ -2120,7 +2129,16 @@
       <c r="JO2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JP2" t="n">
+      <c r="JP2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JQ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JR2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JS2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2952,7 +2970,16 @@
       <c r="JO3" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JP3" t="n">
+      <c r="JP3" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JQ3" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JR3" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="JS3" t="n">
         <v>26</v>
       </c>
     </row>
@@ -3784,7 +3811,16 @@
       <c r="JO4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JP4" t="n">
+      <c r="JP4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4616,7 +4652,16 @@
       <c r="JO5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JP5" t="n">
+      <c r="JP5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5448,7 +5493,16 @@
       <c r="JO6" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="JP6" t="n">
+      <c r="JP6" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="JQ6" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="JR6" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="JS6" t="n">
         <v>92</v>
       </c>
     </row>
@@ -6280,7 +6334,16 @@
       <c r="JO7" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="JP7" t="n">
+      <c r="JP7" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="JQ7" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="JR7" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="JS7" t="n">
         <v>79</v>
       </c>
     </row>
@@ -7112,7 +7175,16 @@
       <c r="JO8" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JP8" t="n">
+      <c r="JP8" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JQ8" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JR8" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JS8" t="n">
         <v>13</v>
       </c>
     </row>
@@ -7944,7 +8016,16 @@
       <c r="JO9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JP9" t="n">
+      <c r="JP9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8776,7 +8857,16 @@
       <c r="JO10" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JP10" t="n">
+      <c r="JP10" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JQ10" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JR10" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JS10" t="n">
         <v>11</v>
       </c>
     </row>
@@ -9608,7 +9698,16 @@
       <c r="JO11" s="2" t="n">
         <v>229</v>
       </c>
-      <c r="JP11" t="n">
+      <c r="JP11" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="JQ11" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="JR11" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="JS11" t="n">
         <v>229</v>
       </c>
     </row>
@@ -10440,7 +10539,16 @@
       <c r="JO12" s="2" t="n">
         <v>111</v>
       </c>
-      <c r="JP12" t="n">
+      <c r="JP12" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="JQ12" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="JR12" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="JS12" t="n">
         <v>111</v>
       </c>
     </row>
@@ -11272,7 +11380,16 @@
       <c r="JO13" s="2" t="n">
         <v>340</v>
       </c>
-      <c r="JP13" t="n">
+      <c r="JP13" s="2" t="n">
+        <v>340</v>
+      </c>
+      <c r="JQ13" s="2" t="n">
+        <v>340</v>
+      </c>
+      <c r="JR13" s="2" t="n">
+        <v>340</v>
+      </c>
+      <c r="JS13" t="n">
         <v>340</v>
       </c>
     </row>
@@ -12104,7 +12221,16 @@
       <c r="JO14" s="2" t="n">
         <v>2.06</v>
       </c>
-      <c r="JP14" t="n">
+      <c r="JP14" s="2" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="JQ14" s="2" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="JR14" s="2" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="JS14" t="n">
         <v>2.06</v>
       </c>
     </row>
@@ -12936,7 +13062,16 @@
       <c r="JO15" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="JP15" t="n">
+      <c r="JP15" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="JQ15" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="JR15" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="JS15" t="n">
         <v>92</v>
       </c>
     </row>
@@ -13768,7 +13903,16 @@
       <c r="JO16" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="JP16" t="n">
+      <c r="JP16" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="JQ16" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="JR16" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="JS16" t="n">
         <v>74</v>
       </c>
     </row>
@@ -14600,7 +14744,16 @@
       <c r="JO17" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JP17" t="n">
+      <c r="JP17" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JQ17" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JR17" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JS17" t="n">
         <v>33</v>
       </c>
     </row>
@@ -15432,7 +15585,16 @@
       <c r="JO18" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JP18" t="n">
+      <c r="JP18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JQ18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JR18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JS18" t="n">
         <v>22</v>
       </c>
     </row>
@@ -16264,7 +16426,16 @@
       <c r="JO19" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JP19" t="n">
+      <c r="JP19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JQ19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JR19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JS19" t="n">
         <v>19</v>
       </c>
     </row>
@@ -17096,7 +17267,16 @@
       <c r="JO20" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JP20" t="n">
+      <c r="JP20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JQ20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JR20" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JS20" t="n">
         <v>14</v>
       </c>
     </row>
@@ -17928,7 +18108,16 @@
       <c r="JO21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JP21" t="n">
+      <c r="JP21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JQ21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JR21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JS21" t="n">
         <v>8</v>
       </c>
     </row>
@@ -18760,7 +18949,16 @@
       <c r="JO22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JP22" t="n">
+      <c r="JP22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JQ22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JR22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JS22" t="n">
         <v>7</v>
       </c>
     </row>
@@ -19592,7 +19790,16 @@
       <c r="JO23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JP23" t="n">
+      <c r="JP23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JQ23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -20424,7 +20631,16 @@
       <c r="JO24" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JP24" t="n">
+      <c r="JP24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JQ24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JR24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JS24" t="n">
         <v>22</v>
       </c>
     </row>
@@ -21256,7 +21472,16 @@
       <c r="JO25" s="2" t="n">
         <v>63.6</v>
       </c>
-      <c r="JP25" t="n">
+      <c r="JP25" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="JQ25" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="JR25" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="JS25" t="n">
         <v>63.6</v>
       </c>
     </row>
@@ -22088,7 +22313,16 @@
       <c r="JO26" s="2" t="n">
         <v>24.29</v>
       </c>
-      <c r="JP26" t="n">
+      <c r="JP26" s="2" t="n">
+        <v>24.29</v>
+      </c>
+      <c r="JQ26" s="2" t="n">
+        <v>24.29</v>
+      </c>
+      <c r="JR26" s="2" t="n">
+        <v>24.29</v>
+      </c>
+      <c r="JS26" t="n">
         <v>24.29</v>
       </c>
     </row>
@@ -22920,7 +23154,16 @@
       <c r="JO27" s="2" t="n">
         <v>15.45</v>
       </c>
-      <c r="JP27" t="n">
+      <c r="JP27" s="2" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="JQ27" s="2" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="JR27" s="2" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="JS27" t="n">
         <v>15.45</v>
       </c>
     </row>
@@ -23752,7 +23995,16 @@
       <c r="JO28" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JP28" t="n">
+      <c r="JP28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JQ28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JR28" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JS28" t="n">
         <v>37</v>
       </c>
     </row>
@@ -24584,7 +24836,16 @@
       <c r="JO29" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JP29" t="n">
+      <c r="JP29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JQ29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JR29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JS29" t="n">
         <v>55</v>
       </c>
     </row>
@@ -25416,7 +25677,16 @@
       <c r="JO30" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JP30" t="n">
+      <c r="JP30" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JQ30" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JR30" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JS30" t="n">
         <v>44</v>
       </c>
     </row>
@@ -26248,7 +26518,16 @@
       <c r="JO31" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="JP31" t="n">
+      <c r="JP31" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JQ31" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JR31" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="JS31" t="n">
         <v>53</v>
       </c>
     </row>
@@ -27080,7 +27359,16 @@
       <c r="JO32" s="2" t="n">
         <v>2.41</v>
       </c>
-      <c r="JP32" t="n">
+      <c r="JP32" s="2" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="JQ32" s="2" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="JR32" s="2" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="JS32" t="n">
         <v>2.41</v>
       </c>
     </row>
@@ -27912,7 +28200,16 @@
       <c r="JO33" s="2" t="n">
         <v>3.79</v>
       </c>
-      <c r="JP33" t="n">
+      <c r="JP33" s="2" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="JQ33" s="2" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="JR33" s="2" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="JS33" t="n">
         <v>3.79</v>
       </c>
     </row>
@@ -28744,7 +29041,16 @@
       <c r="JO34" s="2" t="n">
         <v>39.6</v>
       </c>
-      <c r="JP34" t="n">
+      <c r="JP34" s="2" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="JQ34" s="2" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="JR34" s="2" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="JS34" t="n">
         <v>39.6</v>
       </c>
     </row>
@@ -29576,7 +29882,16 @@
       <c r="JO35" s="2" t="n">
         <v>26.4</v>
       </c>
-      <c r="JP35" t="n">
+      <c r="JP35" s="2" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="JQ35" s="2" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="JR35" s="2" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="JS35" t="n">
         <v>26.4</v>
       </c>
     </row>
@@ -30408,7 +30723,16 @@
       <c r="JO36" s="2" t="n">
         <v>187.9</v>
       </c>
-      <c r="JP36" t="n">
+      <c r="JP36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="JQ36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="JR36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="JS36" t="n">
         <v>187.9</v>
       </c>
     </row>
@@ -31240,7 +31564,16 @@
       <c r="JO37" s="2" t="n">
         <v>87.3</v>
       </c>
-      <c r="JP37" t="n">
+      <c r="JP37" s="2" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="JQ37" s="2" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="JR37" s="2" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="JS37" t="n">
         <v>87.3</v>
       </c>
     </row>
@@ -32072,7 +32405,16 @@
       <c r="JO38" s="2" t="n">
         <v>25.49</v>
       </c>
-      <c r="JP38" t="n">
+      <c r="JP38" s="2" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="JQ38" s="2" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="JR38" s="2" t="n">
+        <v>25.49</v>
+      </c>
+      <c r="JS38" t="n">
         <v>25.49</v>
       </c>
     </row>
@@ -32904,7 +33246,16 @@
       <c r="JO39" s="2" t="n">
         <v>106.7</v>
       </c>
-      <c r="JP39" t="n">
+      <c r="JP39" s="2" t="n">
+        <v>106.7</v>
+      </c>
+      <c r="JQ39" s="2" t="n">
+        <v>106.7</v>
+      </c>
+      <c r="JR39" s="2" t="n">
+        <v>106.7</v>
+      </c>
+      <c r="JS39" t="n">
         <v>106.7</v>
       </c>
     </row>
@@ -33736,7 +34087,16 @@
       <c r="JO40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JP40" t="n">
+      <c r="JP40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JQ40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JR40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JS40" t="n">
         <v>6</v>
       </c>
     </row>
@@ -34568,7 +34928,16 @@
       <c r="JO41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JP41" t="n">
+      <c r="JP41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JQ41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JR41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JS41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -35400,7 +35769,16 @@
       <c r="JO42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JP42" t="n">
+      <c r="JP42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JQ42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JR42" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JS42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -36232,7 +36610,16 @@
       <c r="JO43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JP43" t="n">
+      <c r="JP43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JQ43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JR43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JS43" t="n">
         <v>7</v>
       </c>
     </row>
@@ -37064,7 +37451,16 @@
       <c r="JO44" s="2" t="n">
         <v>137</v>
       </c>
-      <c r="JP44" t="n">
+      <c r="JP44" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="JQ44" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="JR44" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="JS44" t="n">
         <v>137</v>
       </c>
     </row>
@@ -37896,7 +38292,16 @@
       <c r="JO45" s="2" t="n">
         <v>194</v>
       </c>
-      <c r="JP45" t="n">
+      <c r="JP45" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="JQ45" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="JR45" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="JS45" t="n">
         <v>194</v>
       </c>
     </row>
@@ -38728,7 +39133,16 @@
       <c r="JO46" s="2" t="n">
         <v>229</v>
       </c>
-      <c r="JP46" t="n">
+      <c r="JP46" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="JQ46" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="JR46" s="2" t="n">
+        <v>229</v>
+      </c>
+      <c r="JS46" t="n">
         <v>229</v>
       </c>
     </row>
@@ -39560,7 +39974,16 @@
       <c r="JO47" s="2" t="n">
         <v>67.40000000000001</v>
       </c>
-      <c r="JP47" t="n">
+      <c r="JP47" s="2" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="JQ47" s="2" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="JR47" s="2" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="JS47" t="n">
         <v>67.40000000000001</v>
       </c>
     </row>
@@ -40392,7 +40815,16 @@
       <c r="JO48" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JP48" t="n">
+      <c r="JP48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JQ48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JR48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JS48" t="n">
         <v>55</v>
       </c>
     </row>
@@ -41224,7 +41656,16 @@
       <c r="JO49" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JP49" t="n">
+      <c r="JP49" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JQ49" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JR49" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JS49" t="n">
         <v>7</v>
       </c>
     </row>
@@ -42056,7 +42497,16 @@
       <c r="JO50" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JP50" t="n">
+      <c r="JP50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JQ50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JR50" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JS50" t="n">
         <v>8</v>
       </c>
     </row>
@@ -42888,7 +43338,16 @@
       <c r="JO51" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JP51" t="n">
+      <c r="JP51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JQ51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JR51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JS51" t="n">
         <v>37</v>
       </c>
     </row>
@@ -43720,7 +44179,16 @@
       <c r="JO52" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JP52" t="n">
+      <c r="JP52" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JQ52" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JR52" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JS52" t="n">
         <v>44</v>
       </c>
     </row>
@@ -44552,7 +45020,16 @@
       <c r="JO53" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="JP53" t="n">
+      <c r="JP53" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JQ53" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JR53" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="JS53" t="n">
         <v>70</v>
       </c>
     </row>
@@ -45384,7 +45861,16 @@
       <c r="JO54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JP54" t="n">
+      <c r="JP54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JQ54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JR54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JS54" t="n">
         <v>4</v>
       </c>
     </row>
@@ -46216,7 +46702,16 @@
       <c r="JO55" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JP55" t="n">
+      <c r="JP55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JQ55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JR55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JS55" t="n">
         <v>8</v>
       </c>
     </row>
@@ -47048,7 +47543,16 @@
       <c r="JO56" s="2" t="n">
         <v>57.1</v>
       </c>
-      <c r="JP56" t="n">
+      <c r="JP56" s="2" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="JQ56" s="2" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="JR56" s="2" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="JS56" t="n">
         <v>57.1</v>
       </c>
     </row>
@@ -47880,7 +48384,16 @@
       <c r="JO57" s="2" t="n">
         <v>213</v>
       </c>
-      <c r="JP57" t="n">
+      <c r="JP57" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="JQ57" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="JR57" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="JS57" t="n">
         <v>213</v>
       </c>
     </row>
@@ -48712,7 +49225,16 @@
       <c r="JO58" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="JP58" t="n">
+      <c r="JP58" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="JQ58" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="JR58" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="JS58" t="n">
         <v>103</v>
       </c>
     </row>
@@ -49544,7 +50066,16 @@
       <c r="JO59" s="2" t="n">
         <v>316</v>
       </c>
-      <c r="JP59" t="n">
+      <c r="JP59" s="2" t="n">
+        <v>316</v>
+      </c>
+      <c r="JQ59" s="2" t="n">
+        <v>316</v>
+      </c>
+      <c r="JR59" s="2" t="n">
+        <v>316</v>
+      </c>
+      <c r="JS59" t="n">
         <v>316</v>
       </c>
     </row>
@@ -50376,7 +50907,16 @@
       <c r="JO60" s="2" t="n">
         <v>2.07</v>
       </c>
-      <c r="JP60" t="n">
+      <c r="JP60" s="2" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="JQ60" s="2" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="JR60" s="2" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="JS60" t="n">
         <v>2.07</v>
       </c>
     </row>
@@ -51208,7 +51748,16 @@
       <c r="JO61" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="JP61" t="n">
+      <c r="JP61" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="JQ61" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="JR61" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="JS61" t="n">
         <v>78</v>
       </c>
     </row>
@@ -52040,7 +52589,16 @@
       <c r="JO62" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="JP62" t="n">
+      <c r="JP62" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="JQ62" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="JR62" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="JS62" t="n">
         <v>73</v>
       </c>
     </row>
@@ -52872,7 +53430,16 @@
       <c r="JO63" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JP63" t="n">
+      <c r="JP63" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JQ63" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JR63" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JS63" t="n">
         <v>48</v>
       </c>
     </row>
@@ -53704,7 +54271,16 @@
       <c r="JO64" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JP64" t="n">
+      <c r="JP64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JQ64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JR64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JS64" t="n">
         <v>19</v>
       </c>
     </row>
@@ -54536,7 +55112,16 @@
       <c r="JO65" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JP65" t="n">
+      <c r="JP65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JQ65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JR65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JS65" t="n">
         <v>22</v>
       </c>
     </row>
@@ -55368,7 +55953,16 @@
       <c r="JO66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JP66" t="n">
+      <c r="JP66" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JQ66" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JR66" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JS66" t="n">
         <v>11</v>
       </c>
     </row>
@@ -56200,7 +56794,16 @@
       <c r="JO67" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JP67" t="n">
+      <c r="JP67" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JQ67" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JR67" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JS67" t="n">
         <v>5</v>
       </c>
     </row>
@@ -57032,7 +57635,16 @@
       <c r="JO68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JP68" t="n">
+      <c r="JP68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JQ68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JR68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JS68" t="n">
         <v>10</v>
       </c>
     </row>
@@ -57864,7 +58476,16 @@
       <c r="JO69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JP69" t="n">
+      <c r="JP69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JQ69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JR69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JS69" t="n">
         <v>3</v>
       </c>
     </row>
@@ -58696,7 +59317,16 @@
       <c r="JO70" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="JP70" t="n">
+      <c r="JP70" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JQ70" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JR70" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="JS70" t="n">
         <v>24</v>
       </c>
     </row>
@@ -59528,7 +60158,16 @@
       <c r="JO71" s="2" t="n">
         <v>45.8</v>
       </c>
-      <c r="JP71" t="n">
+      <c r="JP71" s="2" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="JQ71" s="2" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="JR71" s="2" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="JS71" t="n">
         <v>45.8</v>
       </c>
     </row>
@@ -60360,7 +60999,16 @@
       <c r="JO72" s="2" t="n">
         <v>28.73</v>
       </c>
-      <c r="JP72" t="n">
+      <c r="JP72" s="2" t="n">
+        <v>28.73</v>
+      </c>
+      <c r="JQ72" s="2" t="n">
+        <v>28.73</v>
+      </c>
+      <c r="JR72" s="2" t="n">
+        <v>28.73</v>
+      </c>
+      <c r="JS72" t="n">
         <v>28.73</v>
       </c>
     </row>
@@ -61192,7 +61840,16 @@
       <c r="JO73" s="2" t="n">
         <v>13.17</v>
       </c>
-      <c r="JP73" t="n">
+      <c r="JP73" s="2" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="JQ73" s="2" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="JR73" s="2" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="JS73" t="n">
         <v>13.17</v>
       </c>
     </row>
@@ -62024,7 +62681,16 @@
       <c r="JO74" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JP74" t="n">
+      <c r="JP74" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JQ74" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JR74" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JS74" t="n">
         <v>51</v>
       </c>
     </row>
@@ -62856,7 +63522,16 @@
       <c r="JO75" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="JP75" t="n">
+      <c r="JP75" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JQ75" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JR75" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JS75" t="n">
         <v>58</v>
       </c>
     </row>
@@ -63688,7 +64363,16 @@
       <c r="JO76" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JP76" t="n">
+      <c r="JP76" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JQ76" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JR76" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JS76" t="n">
         <v>39</v>
       </c>
     </row>
@@ -64520,7 +65204,16 @@
       <c r="JO77" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JP77" t="n">
+      <c r="JP77" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JQ77" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JR77" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JS77" t="n">
         <v>55</v>
       </c>
     </row>
@@ -65352,7 +66045,16 @@
       <c r="JO78" s="2" t="n">
         <v>2.29</v>
       </c>
-      <c r="JP78" t="n">
+      <c r="JP78" s="2" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="JQ78" s="2" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="JR78" s="2" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="JS78" t="n">
         <v>2.29</v>
       </c>
     </row>
@@ -66184,7 +66886,16 @@
       <c r="JO79" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JP79" t="n">
+      <c r="JP79" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JQ79" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JR79" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JS79" t="n">
         <v>5</v>
       </c>
     </row>
@@ -67016,7 +67727,16 @@
       <c r="JO80" s="2" t="n">
         <v>38.2</v>
       </c>
-      <c r="JP80" t="n">
+      <c r="JP80" s="2" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="JQ80" s="2" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="JR80" s="2" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="JS80" t="n">
         <v>38.2</v>
       </c>
     </row>
@@ -67848,7 +68568,16 @@
       <c r="JO81" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JP81" t="n">
+      <c r="JP81" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JQ81" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JR81" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="JS81" t="n">
         <v>20</v>
       </c>
     </row>
@@ -68680,7 +69409,16 @@
       <c r="JO82" s="2" t="n">
         <v>187.7</v>
       </c>
-      <c r="JP82" t="n">
+      <c r="JP82" s="2" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="JQ82" s="2" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="JR82" s="2" t="n">
+        <v>187.7</v>
+      </c>
+      <c r="JS82" t="n">
         <v>187.7</v>
       </c>
     </row>
@@ -69512,7 +70250,16 @@
       <c r="JO83" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="JP83" t="n">
+      <c r="JP83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="JQ83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="JR83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="JS83" t="n">
         <v>88</v>
       </c>
     </row>
@@ -70344,7 +71091,16 @@
       <c r="JO84" s="2" t="n">
         <v>26.33</v>
       </c>
-      <c r="JP84" t="n">
+      <c r="JP84" s="2" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="JQ84" s="2" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="JR84" s="2" t="n">
+        <v>26.33</v>
+      </c>
+      <c r="JS84" t="n">
         <v>26.33</v>
       </c>
     </row>
@@ -71176,7 +71932,16 @@
       <c r="JO85" s="2" t="n">
         <v>122.7</v>
       </c>
-      <c r="JP85" t="n">
+      <c r="JP85" s="2" t="n">
+        <v>122.7</v>
+      </c>
+      <c r="JQ85" s="2" t="n">
+        <v>122.7</v>
+      </c>
+      <c r="JR85" s="2" t="n">
+        <v>122.7</v>
+      </c>
+      <c r="JS85" t="n">
         <v>122.7</v>
       </c>
     </row>
@@ -72008,7 +72773,16 @@
       <c r="JO86" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JP86" t="n">
+      <c r="JP86" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JQ86" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JR86" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JS86" t="n">
         <v>2</v>
       </c>
     </row>
@@ -72840,7 +73614,16 @@
       <c r="JO87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JP87" t="n">
+      <c r="JP87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JQ87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JR87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JS87" t="n">
         <v>5</v>
       </c>
     </row>
@@ -73672,7 +74455,16 @@
       <c r="JO88" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JP88" t="n">
+      <c r="JP88" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JQ88" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JR88" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JS88" t="n">
         <v>9</v>
       </c>
     </row>
@@ -74504,7 +75296,16 @@
       <c r="JO89" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JP89" t="n">
+      <c r="JP89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JQ89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JR89" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JS89" t="n">
         <v>7</v>
       </c>
     </row>
@@ -75336,7 +76137,16 @@
       <c r="JO90" s="2" t="n">
         <v>156</v>
       </c>
-      <c r="JP90" t="n">
+      <c r="JP90" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="JQ90" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="JR90" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="JS90" t="n">
         <v>156</v>
       </c>
     </row>
@@ -76168,7 +76978,16 @@
       <c r="JO91" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="JP91" t="n">
+      <c r="JP91" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="JQ91" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="JR91" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="JS91" t="n">
         <v>157</v>
       </c>
     </row>
@@ -77000,7 +77819,16 @@
       <c r="JO92" s="2" t="n">
         <v>208</v>
       </c>
-      <c r="JP92" t="n">
+      <c r="JP92" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="JQ92" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="JR92" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="JS92" t="n">
         <v>208</v>
       </c>
     </row>
@@ -77832,7 +78660,16 @@
       <c r="JO93" s="2" t="n">
         <v>65.8</v>
       </c>
-      <c r="JP93" t="n">
+      <c r="JP93" s="2" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="JQ93" s="2" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="JR93" s="2" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="JS93" t="n">
         <v>65.8</v>
       </c>
     </row>
@@ -78664,7 +79501,16 @@
       <c r="JO94" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="JP94" t="n">
+      <c r="JP94" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JQ94" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JR94" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="JS94" t="n">
         <v>58</v>
       </c>
     </row>
@@ -79496,7 +80342,16 @@
       <c r="JO95" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JP95" t="n">
+      <c r="JP95" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JQ95" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JR95" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JS95" t="n">
         <v>13</v>
       </c>
     </row>
@@ -80328,7 +81183,16 @@
       <c r="JO96" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JP96" t="n">
+      <c r="JP96" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JQ96" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JR96" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JS96" t="n">
         <v>10</v>
       </c>
     </row>
@@ -81160,7 +82024,16 @@
       <c r="JO97" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JP97" t="n">
+      <c r="JP97" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JQ97" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JR97" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JS97" t="n">
         <v>51</v>
       </c>
     </row>
@@ -81992,7 +82865,16 @@
       <c r="JO98" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JP98" t="n">
+      <c r="JP98" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JQ98" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JR98" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="JS98" t="n">
         <v>39</v>
       </c>
     </row>
@@ -82824,7 +83706,16 @@
       <c r="JO99" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JP99" t="n">
+      <c r="JP99" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JQ99" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JR99" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JS99" t="n">
         <v>44</v>
       </c>
     </row>
@@ -83656,7 +84547,16 @@
       <c r="JO100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JP100" t="n">
+      <c r="JP100" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JQ100" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JR100" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JS100" t="n">
         <v>3</v>
       </c>
     </row>
@@ -84488,7 +85388,16 @@
       <c r="JO101" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JP101" t="n">
+      <c r="JP101" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JQ101" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JR101" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JS101" t="n">
         <v>5</v>
       </c>
     </row>
@@ -85320,7 +86229,16 @@
       <c r="JO102" s="2" t="n">
         <v>45.5</v>
       </c>
-      <c r="JP102" t="n">
+      <c r="JP102" s="2" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="JQ102" s="2" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="JR102" s="2" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="JS102" t="n">
         <v>45.5</v>
       </c>
     </row>

--- a/django_AFL_ML/Data/Brisbane_stats.xlsx
+++ b/django_AFL_ML/Data/Brisbane_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JU102"/>
+  <dimension ref="A1:KP102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL36" activeCellId="0" sqref="IL36"/>
@@ -1303,7 +1303,70 @@
       <c r="JT1" s="2" t="n">
         <v>10748</v>
       </c>
-      <c r="JU1" t="n">
+      <c r="JU1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="JV1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="JW1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="JX1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="JY1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="JZ1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KA1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KB1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KC1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KD1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KE1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KF1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KG1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KH1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KI1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KJ1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KK1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KL1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KM1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KN1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KO1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KP1" t="n">
         <v>10748</v>
       </c>
     </row>
@@ -2150,7 +2213,70 @@
       <c r="JT2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="JU2" t="n">
+      <c r="JU2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JV2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JW2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JX2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JY2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="JZ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KA2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KB2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KC2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KD2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KE2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KF2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KG2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KH2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KI2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KJ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KK2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KL2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KM2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KN2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KO2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KP2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -2997,7 +3123,70 @@
       <c r="JT3" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="JU3" t="n">
+      <c r="JU3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JV3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JW3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JX3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JY3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="JZ3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KA3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KB3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KC3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KD3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KE3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KF3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KG3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KH3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KI3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KJ3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KK3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KL3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KM3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KN3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KO3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KP3" t="n">
         <v>27</v>
       </c>
     </row>
@@ -3844,7 +4033,70 @@
       <c r="JT4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JU4" t="n">
+      <c r="JU4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JV4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JX4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JY4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JZ4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KA4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KB4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KC4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KD4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KE4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KF4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KH4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KI4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KJ4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KK4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KL4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KM4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KN4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KO4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KP4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4691,7 +4943,70 @@
       <c r="JT5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JU5" t="n">
+      <c r="JU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5538,7 +5853,70 @@
       <c r="JT6" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JU6" t="n">
+      <c r="JU6" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JV6" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JW6" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JX6" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JY6" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JZ6" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KA6" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KB6" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KC6" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KD6" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KE6" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KF6" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KG6" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KH6" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KI6" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KJ6" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KK6" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KL6" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KM6" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KN6" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KO6" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KP6" t="n">
         <v>49</v>
       </c>
     </row>
@@ -6385,7 +6763,70 @@
       <c r="JT7" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="JU7" t="n">
+      <c r="JU7" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="JV7" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="JW7" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="JX7" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="JY7" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="JZ7" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KA7" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KB7" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KC7" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KD7" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KE7" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KF7" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KG7" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KH7" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KI7" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KJ7" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KK7" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KL7" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KM7" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KN7" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KO7" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KP7" t="n">
         <v>120</v>
       </c>
     </row>
@@ -7232,7 +7673,70 @@
       <c r="JT8" s="2" t="n">
         <v>-71</v>
       </c>
-      <c r="JU8" t="n">
+      <c r="JU8" s="2" t="n">
+        <v>-71</v>
+      </c>
+      <c r="JV8" s="2" t="n">
+        <v>-71</v>
+      </c>
+      <c r="JW8" s="2" t="n">
+        <v>-71</v>
+      </c>
+      <c r="JX8" s="2" t="n">
+        <v>-71</v>
+      </c>
+      <c r="JY8" s="2" t="n">
+        <v>-71</v>
+      </c>
+      <c r="JZ8" s="2" t="n">
+        <v>-71</v>
+      </c>
+      <c r="KA8" s="2" t="n">
+        <v>-71</v>
+      </c>
+      <c r="KB8" s="2" t="n">
+        <v>-71</v>
+      </c>
+      <c r="KC8" s="2" t="n">
+        <v>-71</v>
+      </c>
+      <c r="KD8" s="2" t="n">
+        <v>-71</v>
+      </c>
+      <c r="KE8" s="2" t="n">
+        <v>-71</v>
+      </c>
+      <c r="KF8" s="2" t="n">
+        <v>-71</v>
+      </c>
+      <c r="KG8" s="2" t="n">
+        <v>-71</v>
+      </c>
+      <c r="KH8" s="2" t="n">
+        <v>-71</v>
+      </c>
+      <c r="KI8" s="2" t="n">
+        <v>-71</v>
+      </c>
+      <c r="KJ8" s="2" t="n">
+        <v>-71</v>
+      </c>
+      <c r="KK8" s="2" t="n">
+        <v>-71</v>
+      </c>
+      <c r="KL8" s="2" t="n">
+        <v>-71</v>
+      </c>
+      <c r="KM8" s="2" t="n">
+        <v>-71</v>
+      </c>
+      <c r="KN8" s="2" t="n">
+        <v>-71</v>
+      </c>
+      <c r="KO8" s="2" t="n">
+        <v>-71</v>
+      </c>
+      <c r="KP8" t="n">
         <v>-71</v>
       </c>
     </row>
@@ -8079,7 +8583,70 @@
       <c r="JT9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JU9" t="n">
+      <c r="JU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8926,7 +9493,70 @@
       <c r="JT10" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JU10" t="n">
+      <c r="JU10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JV10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JW10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JX10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JY10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JZ10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KA10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KB10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KC10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KD10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KF10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KG10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KH10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KI10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KJ10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KK10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KL10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KM10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KN10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KO10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KP10" t="n">
         <v>7</v>
       </c>
     </row>
@@ -9773,7 +10403,70 @@
       <c r="JT11" s="2" t="n">
         <v>197</v>
       </c>
-      <c r="JU11" t="n">
+      <c r="JU11" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="JV11" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="JW11" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="JX11" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="JY11" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="JZ11" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KA11" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KB11" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KC11" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KD11" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KE11" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KF11" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KG11" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KH11" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KI11" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KJ11" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KK11" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KL11" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KM11" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KN11" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KO11" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KP11" t="n">
         <v>197</v>
       </c>
     </row>
@@ -10620,7 +11313,70 @@
       <c r="JT12" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="JU12" t="n">
+      <c r="JU12" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="JV12" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="JW12" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="JX12" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="JY12" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="JZ12" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KA12" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KB12" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KC12" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KD12" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KE12" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KF12" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KG12" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KH12" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KI12" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KJ12" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KK12" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KL12" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KM12" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KN12" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KO12" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KP12" t="n">
         <v>99</v>
       </c>
     </row>
@@ -11467,7 +12223,70 @@
       <c r="JT13" s="2" t="n">
         <v>296</v>
       </c>
-      <c r="JU13" t="n">
+      <c r="JU13" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="JV13" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="JW13" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="JX13" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="JY13" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="JZ13" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KA13" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KB13" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KC13" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KD13" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KE13" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KF13" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KG13" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KH13" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KI13" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KJ13" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KK13" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KL13" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KM13" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KN13" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KO13" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KP13" t="n">
         <v>296</v>
       </c>
     </row>
@@ -12314,7 +13133,70 @@
       <c r="JT14" s="2" t="n">
         <v>1.99</v>
       </c>
-      <c r="JU14" t="n">
+      <c r="JU14" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="JV14" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="JW14" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="JX14" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="JY14" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="JZ14" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KA14" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KB14" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KC14" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KD14" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KE14" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KF14" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KG14" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KH14" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KI14" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KJ14" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KK14" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KL14" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KM14" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KN14" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KO14" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KP14" t="n">
         <v>1.99</v>
       </c>
     </row>
@@ -13161,7 +14043,70 @@
       <c r="JT15" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="JU15" t="n">
+      <c r="JU15" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="JV15" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="JW15" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="JX15" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="JY15" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="JZ15" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KA15" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KB15" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KC15" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KD15" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KE15" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KF15" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KG15" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KH15" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KI15" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KJ15" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KK15" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KL15" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KM15" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KN15" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KO15" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KP15" t="n">
         <v>88</v>
       </c>
     </row>
@@ -14008,7 +14953,70 @@
       <c r="JT16" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="JU16" t="n">
+      <c r="JU16" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="JV16" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="JW16" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="JX16" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="JY16" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="JZ16" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KA16" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KB16" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KC16" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KD16" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KE16" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KF16" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KG16" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KH16" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KI16" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KJ16" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KK16" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KL16" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KM16" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KN16" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KO16" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KP16" t="n">
         <v>68</v>
       </c>
     </row>
@@ -14855,7 +15863,70 @@
       <c r="JT17" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JU17" t="n">
+      <c r="JU17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JV17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JW17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JX17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JY17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JZ17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KA17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KB17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KC17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KD17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KE17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KF17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KG17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KH17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KI17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KJ17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KK17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KL17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KM17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KN17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KO17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KP17" t="n">
         <v>41</v>
       </c>
     </row>
@@ -15702,7 +16773,70 @@
       <c r="JT18" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JU18" t="n">
+      <c r="JU18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JV18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JW18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JX18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JY18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JZ18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KA18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KB18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KC18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KD18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KE18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KF18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KG18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KH18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KI18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KJ18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KK18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KL18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KM18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KN18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KO18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KP18" t="n">
         <v>22</v>
       </c>
     </row>
@@ -16549,7 +17683,70 @@
       <c r="JT19" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JU19" t="n">
+      <c r="JU19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JV19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JW19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JX19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JY19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JZ19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KA19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KB19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KC19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KD19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KE19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KF19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KG19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KH19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KI19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KJ19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KK19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KL19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KM19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KN19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KO19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KP19" t="n">
         <v>13</v>
       </c>
     </row>
@@ -17396,7 +18593,70 @@
       <c r="JT20" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JU20" t="n">
+      <c r="JU20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JV20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JW20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JX20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JY20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JZ20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KA20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KB20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KC20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KD20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KF20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KG20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KH20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KI20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KJ20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KK20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KL20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KM20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KN20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KO20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KP20" t="n">
         <v>7</v>
       </c>
     </row>
@@ -18243,7 +19503,70 @@
       <c r="JT21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JU21" t="n">
+      <c r="JU21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JV21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JW21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JX21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JY21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JZ21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KA21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KB21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KC21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KD21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KF21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KG21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KH21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KI21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KJ21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KK21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KL21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KM21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KN21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KO21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KP21" t="n">
         <v>7</v>
       </c>
     </row>
@@ -19090,7 +20413,70 @@
       <c r="JT22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JU22" t="n">
+      <c r="JU22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JV22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JW22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JX22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JY22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JZ22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KA22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KB22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KC22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KD22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KF22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KG22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KH22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KI22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KJ22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KK22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KL22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KM22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KN22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KO22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KP22" t="n">
         <v>7</v>
       </c>
     </row>
@@ -19937,7 +21323,70 @@
       <c r="JT23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JU23" t="n">
+      <c r="JU23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20784,7 +22233,70 @@
       <c r="JT24" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JU24" t="n">
+      <c r="JU24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JV24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JW24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JX24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JY24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JZ24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KA24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KB24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KC24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KD24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KE24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KF24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KG24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KH24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KI24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KJ24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KK24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KL24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KM24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KN24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KO24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KP24" t="n">
         <v>14</v>
       </c>
     </row>
@@ -21631,7 +23143,70 @@
       <c r="JT25" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JU25" t="n">
+      <c r="JU25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JV25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JW25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JX25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JY25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JZ25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KA25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KB25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KC25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KD25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KE25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KF25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KG25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KH25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KI25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KJ25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KK25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KL25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KM25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KN25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KO25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KP25" t="n">
         <v>50</v>
       </c>
     </row>
@@ -22478,7 +24053,70 @@
       <c r="JT26" s="2" t="n">
         <v>42.29</v>
       </c>
-      <c r="JU26" t="n">
+      <c r="JU26" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="JV26" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="JW26" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="JX26" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="JY26" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="JZ26" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KA26" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KB26" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KC26" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KD26" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KE26" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KF26" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KG26" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KH26" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KI26" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KJ26" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KK26" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KL26" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KM26" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KN26" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KO26" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KP26" t="n">
         <v>42.29</v>
       </c>
     </row>
@@ -23325,7 +24963,70 @@
       <c r="JT27" s="2" t="n">
         <v>21.14</v>
       </c>
-      <c r="JU27" t="n">
+      <c r="JU27" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="JV27" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="JW27" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="JX27" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="JY27" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="JZ27" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KA27" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KB27" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KC27" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KD27" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KE27" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KF27" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KG27" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KH27" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KI27" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KJ27" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KK27" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KL27" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KM27" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KN27" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KO27" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KP27" t="n">
         <v>21.14</v>
       </c>
     </row>
@@ -24172,7 +25873,70 @@
       <c r="JT28" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JU28" t="n">
+      <c r="JU28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JV28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JW28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JX28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JY28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JZ28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KA28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KB28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KC28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KD28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KE28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KF28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KG28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KH28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KI28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KJ28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KK28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KL28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KM28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KN28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KO28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KP28" t="n">
         <v>40</v>
       </c>
     </row>
@@ -25019,7 +26783,70 @@
       <c r="JT29" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JU29" t="n">
+      <c r="JU29" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JV29" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JW29" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JX29" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JY29" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JZ29" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KA29" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KB29" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KC29" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KD29" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KE29" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KF29" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KG29" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KH29" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KI29" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KJ29" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KK29" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KL29" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KM29" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KN29" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KO29" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KP29" t="n">
         <v>50</v>
       </c>
     </row>
@@ -25866,7 +27693,70 @@
       <c r="JT30" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JU30" t="n">
+      <c r="JU30" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JV30" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JW30" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JX30" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JY30" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JZ30" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KA30" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KB30" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KC30" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KD30" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KE30" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KF30" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KG30" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KH30" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KI30" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KJ30" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KK30" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KL30" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KM30" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KN30" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KO30" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KP30" t="n">
         <v>41</v>
       </c>
     </row>
@@ -26713,7 +28603,70 @@
       <c r="JT31" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="JU31" t="n">
+      <c r="JU31" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JV31" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JW31" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JX31" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JY31" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JZ31" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KA31" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KB31" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KC31" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KD31" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KE31" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KF31" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KG31" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KH31" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KI31" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KJ31" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KK31" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KL31" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KM31" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KN31" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KO31" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KP31" t="n">
         <v>46</v>
       </c>
     </row>
@@ -27560,7 +29513,70 @@
       <c r="JT32" s="2" t="n">
         <v>3.29</v>
       </c>
-      <c r="JU32" t="n">
+      <c r="JU32" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="JV32" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="JW32" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="JX32" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="JY32" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="JZ32" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KA32" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KB32" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KC32" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KD32" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KE32" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KF32" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KG32" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KH32" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KI32" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KJ32" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KK32" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KL32" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KM32" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KN32" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KO32" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KP32" t="n">
         <v>3.29</v>
       </c>
     </row>
@@ -28407,7 +30423,70 @@
       <c r="JT33" s="2" t="n">
         <v>6.57</v>
       </c>
-      <c r="JU33" t="n">
+      <c r="JU33" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="JV33" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="JW33" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="JX33" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="JY33" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="JZ33" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KA33" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KB33" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KC33" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KD33" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KE33" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KF33" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KG33" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KH33" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KI33" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KJ33" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KK33" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KL33" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KM33" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KN33" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KO33" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KP33" t="n">
         <v>6.57</v>
       </c>
     </row>
@@ -29254,7 +31333,70 @@
       <c r="JT34" s="2" t="n">
         <v>30.4</v>
       </c>
-      <c r="JU34" t="n">
+      <c r="JU34" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="JV34" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="JW34" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="JX34" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="JY34" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="JZ34" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KA34" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KB34" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KC34" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KD34" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KE34" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KF34" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KG34" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KH34" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KI34" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KJ34" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KK34" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KL34" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KM34" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KN34" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KO34" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KP34" t="n">
         <v>30.4</v>
       </c>
     </row>
@@ -30101,7 +32243,70 @@
       <c r="JT35" s="2" t="n">
         <v>15.2</v>
       </c>
-      <c r="JU35" t="n">
+      <c r="JU35" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="JV35" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="JW35" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="JX35" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="JY35" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="JZ35" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KA35" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KB35" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KC35" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KD35" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KE35" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KF35" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KG35" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KH35" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KI35" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KJ35" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KK35" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KL35" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KM35" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KN35" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KO35" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KP35" t="n">
         <v>15.2</v>
       </c>
     </row>
@@ -30948,7 +33153,70 @@
       <c r="JT36" s="2" t="n">
         <v>187.9</v>
       </c>
-      <c r="JU36" t="n">
+      <c r="JU36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="JV36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="JW36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="JX36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="JY36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="JZ36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KA36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KB36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KC36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KD36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KE36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KF36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KG36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KH36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KI36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KJ36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KK36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KL36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KM36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KN36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KO36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KP36" t="n">
         <v>187.9</v>
       </c>
     </row>
@@ -31795,7 +34063,70 @@
       <c r="JT37" s="2" t="n">
         <v>87.8</v>
       </c>
-      <c r="JU37" t="n">
+      <c r="JU37" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="JV37" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="JW37" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="JX37" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="JY37" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="JZ37" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KA37" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KB37" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KC37" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KD37" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KE37" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KF37" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KG37" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KH37" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KI37" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KJ37" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KK37" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KL37" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KM37" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KN37" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KO37" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KP37" t="n">
         <v>87.8</v>
       </c>
     </row>
@@ -32642,7 +34973,70 @@
       <c r="JT38" s="2" t="n">
         <v>25.66</v>
       </c>
-      <c r="JU38" t="n">
+      <c r="JU38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="JV38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="JW38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="JX38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="JY38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="JZ38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KA38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KB38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KC38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KD38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KE38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KF38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KG38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KH38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KI38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KJ38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KK38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KL38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KM38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KN38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KO38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KP38" t="n">
         <v>25.66</v>
       </c>
     </row>
@@ -33489,7 +35883,70 @@
       <c r="JT39" s="2" t="n">
         <v>116.6</v>
       </c>
-      <c r="JU39" t="n">
+      <c r="JU39" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="JV39" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="JW39" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="JX39" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="JY39" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="JZ39" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KA39" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KB39" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KC39" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KD39" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KE39" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KF39" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KG39" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KH39" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KI39" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KJ39" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KK39" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KL39" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KM39" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KN39" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KO39" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KP39" t="n">
         <v>116.6</v>
       </c>
     </row>
@@ -34336,7 +36793,70 @@
       <c r="JT40" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JU40" t="n">
+      <c r="JU40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JV40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JW40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JX40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JY40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JZ40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KA40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KB40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KC40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KD40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KE40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KF40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KG40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KH40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KI40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KJ40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KK40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KL40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KM40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KN40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KO40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KP40" t="n">
         <v>4</v>
       </c>
     </row>
@@ -35183,7 +37703,70 @@
       <c r="JT41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JU41" t="n">
+      <c r="JU41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JV41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JW41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JX41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JY41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JZ41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KA41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KB41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KC41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KD41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KE41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KF41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KG41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KH41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KI41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KJ41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KK41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KL41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KM41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KN41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KO41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KP41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -36030,7 +38613,70 @@
       <c r="JT42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JU42" t="n">
+      <c r="JU42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JV42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JW42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JX42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JY42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JZ42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KA42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KB42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KC42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KD42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KE42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KF42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KG42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KH42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KI42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KJ42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KK42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KL42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KM42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KN42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KO42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KP42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -36877,7 +39523,70 @@
       <c r="JT43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JU43" t="n">
+      <c r="JU43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JV43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JW43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JX43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JY43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JZ43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KA43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KB43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KC43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KD43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KE43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KF43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KG43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KH43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KI43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KJ43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KK43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KL43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KM43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KN43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KO43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KP43" t="n">
         <v>8</v>
       </c>
     </row>
@@ -37724,7 +40433,70 @@
       <c r="JT44" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="JU44" t="n">
+      <c r="JU44" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="JV44" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="JW44" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="JX44" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="JY44" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="JZ44" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KA44" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KB44" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KC44" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KD44" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KE44" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KF44" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KG44" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KH44" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KI44" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KJ44" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KK44" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KL44" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KM44" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KN44" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KO44" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KP44" t="n">
         <v>117</v>
       </c>
     </row>
@@ -38571,7 +41343,70 @@
       <c r="JT45" s="2" t="n">
         <v>177</v>
       </c>
-      <c r="JU45" t="n">
+      <c r="JU45" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="JV45" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="JW45" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="JX45" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="JY45" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="JZ45" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KA45" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KB45" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KC45" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KD45" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KE45" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KF45" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KG45" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KH45" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KI45" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KJ45" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KK45" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KL45" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KM45" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KN45" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KO45" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KP45" t="n">
         <v>177</v>
       </c>
     </row>
@@ -39418,7 +42253,70 @@
       <c r="JT46" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="JU46" t="n">
+      <c r="JU46" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="JV46" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="JW46" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="JX46" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="JY46" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="JZ46" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KA46" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KB46" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KC46" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KD46" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KE46" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KF46" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KG46" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KH46" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KI46" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KJ46" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KK46" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KL46" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KM46" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KN46" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KO46" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KP46" t="n">
         <v>200</v>
       </c>
     </row>
@@ -40265,7 +43163,70 @@
       <c r="JT47" s="2" t="n">
         <v>67.59999999999999</v>
       </c>
-      <c r="JU47" t="n">
+      <c r="JU47" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="JV47" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="JW47" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="JX47" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="JY47" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="JZ47" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KA47" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KB47" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KC47" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KD47" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KE47" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KF47" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KG47" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KH47" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KI47" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KJ47" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KK47" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KL47" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KM47" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KN47" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KO47" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KP47" t="n">
         <v>67.59999999999999</v>
       </c>
     </row>
@@ -41112,7 +44073,70 @@
       <c r="JT48" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JU48" t="n">
+      <c r="JU48" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JV48" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JW48" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JX48" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JY48" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="JZ48" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KA48" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KB48" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KC48" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KD48" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KE48" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KF48" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KG48" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KH48" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KI48" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KJ48" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KK48" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KL48" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KM48" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KN48" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KO48" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KP48" t="n">
         <v>50</v>
       </c>
     </row>
@@ -41959,7 +44983,70 @@
       <c r="JT49" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JU49" t="n">
+      <c r="JU49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JV49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JW49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JX49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JY49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JZ49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KA49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KB49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KC49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KD49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KE49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KF49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KG49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KH49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KI49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KJ49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KK49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KL49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KM49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KN49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KO49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KP49" t="n">
         <v>8</v>
       </c>
     </row>
@@ -42806,7 +45893,70 @@
       <c r="JT50" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JU50" t="n">
+      <c r="JU50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JV50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JW50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JX50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JY50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JZ50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KA50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KB50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KC50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KD50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KE50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KF50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KG50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KH50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KI50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KJ50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KK50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KL50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KM50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KN50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KO50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KP50" t="n">
         <v>11</v>
       </c>
     </row>
@@ -43653,7 +46803,70 @@
       <c r="JT51" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JU51" t="n">
+      <c r="JU51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JV51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JW51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JX51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JY51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JZ51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KA51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KB51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KC51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KD51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KE51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KF51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KG51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KH51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KI51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KJ51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KK51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KL51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KM51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KN51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KO51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KP51" t="n">
         <v>40</v>
       </c>
     </row>
@@ -44500,7 +47713,70 @@
       <c r="JT52" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JU52" t="n">
+      <c r="JU52" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JV52" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JW52" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JX52" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JY52" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JZ52" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KA52" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KB52" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KC52" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KD52" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KE52" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KF52" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KG52" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KH52" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KI52" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KJ52" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KK52" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KL52" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KM52" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KN52" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KO52" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KP52" t="n">
         <v>41</v>
       </c>
     </row>
@@ -45347,7 +48623,70 @@
       <c r="JT53" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JU53" t="n">
+      <c r="JU53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JV53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JW53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JX53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JY53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JZ53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KA53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KB53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KC53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KD53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KE53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KF53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KG53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KH53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KI53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KJ53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KK53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KL53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KM53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KN53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KO53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KP53" t="n">
         <v>37</v>
       </c>
     </row>
@@ -46194,7 +49533,70 @@
       <c r="JT54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JU54" t="n">
+      <c r="JU54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JV54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JX54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JY54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JZ54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KA54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KB54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KC54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KD54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KE54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KF54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KH54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KI54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KJ54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KK54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KL54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KM54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KN54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KO54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KP54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -47041,7 +50443,70 @@
       <c r="JT55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JU55" t="n">
+      <c r="JU55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JV55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JW55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JX55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JY55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JZ55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KA55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KB55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KC55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KD55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KE55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KF55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KG55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KH55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KI55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KJ55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KK55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KL55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KM55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KN55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KO55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KP55" t="n">
         <v>7</v>
       </c>
     </row>
@@ -47888,7 +51353,70 @@
       <c r="JT56" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="JU56" t="n">
+      <c r="JU56" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="JV56" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="JW56" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="JX56" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="JY56" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="JZ56" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KA56" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KB56" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KC56" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KD56" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KE56" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KF56" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KG56" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KH56" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KI56" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KJ56" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KK56" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KL56" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KM56" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KN56" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KO56" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KP56" t="n">
         <v>100</v>
       </c>
     </row>
@@ -48735,7 +52263,70 @@
       <c r="JT57" s="2" t="n">
         <v>209</v>
       </c>
-      <c r="JU57" t="n">
+      <c r="JU57" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="JV57" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="JW57" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="JX57" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="JY57" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="JZ57" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KA57" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KB57" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KC57" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KD57" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KE57" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KF57" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KG57" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KH57" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KI57" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KJ57" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KK57" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KL57" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KM57" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KN57" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KO57" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KP57" t="n">
         <v>209</v>
       </c>
     </row>
@@ -49582,7 +53173,70 @@
       <c r="JT58" s="2" t="n">
         <v>152</v>
       </c>
-      <c r="JU58" t="n">
+      <c r="JU58" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="JV58" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="JW58" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="JX58" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="JY58" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="JZ58" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KA58" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KB58" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KC58" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KD58" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KE58" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KF58" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KG58" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KH58" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KI58" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KJ58" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KK58" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KL58" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KM58" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KN58" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KO58" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KP58" t="n">
         <v>152</v>
       </c>
     </row>
@@ -50429,7 +54083,70 @@
       <c r="JT59" s="2" t="n">
         <v>361</v>
       </c>
-      <c r="JU59" t="n">
+      <c r="JU59" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="JV59" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="JW59" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="JX59" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="JY59" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="JZ59" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KA59" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KB59" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KC59" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KD59" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KE59" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KF59" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KG59" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KH59" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KI59" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KJ59" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KK59" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KL59" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KM59" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KN59" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KO59" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KP59" t="n">
         <v>361</v>
       </c>
     </row>
@@ -51276,7 +54993,70 @@
       <c r="JT60" s="2" t="n">
         <v>1.38</v>
       </c>
-      <c r="JU60" t="n">
+      <c r="JU60" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="JV60" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="JW60" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="JX60" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="JY60" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="JZ60" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KA60" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KB60" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KC60" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KD60" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KE60" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KF60" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KG60" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KH60" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KI60" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KJ60" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KK60" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KL60" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KM60" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KN60" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KO60" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KP60" t="n">
         <v>1.38</v>
       </c>
     </row>
@@ -52123,7 +55903,70 @@
       <c r="JT61" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="JU61" t="n">
+      <c r="JU61" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="JV61" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="JW61" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="JX61" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="JY61" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="JZ61" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KA61" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KB61" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KC61" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KD61" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KE61" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KF61" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KG61" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KH61" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KI61" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KJ61" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KK61" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KL61" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KM61" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KN61" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KO61" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KP61" t="n">
         <v>102</v>
       </c>
     </row>
@@ -52970,7 +56813,70 @@
       <c r="JT62" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="JU62" t="n">
+      <c r="JU62" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="JV62" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="JW62" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="JX62" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="JY62" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="JZ62" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KA62" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KB62" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KC62" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KD62" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KE62" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KF62" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KG62" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KH62" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KI62" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KJ62" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KK62" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KL62" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KM62" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KN62" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KO62" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KP62" t="n">
         <v>65</v>
       </c>
     </row>
@@ -53817,7 +57723,70 @@
       <c r="JT63" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JU63" t="n">
+      <c r="JU63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JV63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JW63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JX63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JY63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JZ63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KA63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KB63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KC63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KD63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KE63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KF63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KG63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KH63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KI63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KJ63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KK63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KL63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KM63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KN63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KO63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KP63" t="n">
         <v>41</v>
       </c>
     </row>
@@ -54664,7 +58633,70 @@
       <c r="JT64" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JU64" t="n">
+      <c r="JU64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JV64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JW64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JX64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JY64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JZ64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KA64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KB64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KC64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KD64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KE64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KF64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KG64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KH64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KI64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KJ64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KK64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KL64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KM64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KN64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KO64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KP64" t="n">
         <v>13</v>
       </c>
     </row>
@@ -55511,7 +59543,70 @@
       <c r="JT65" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JU65" t="n">
+      <c r="JU65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JV65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JW65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JX65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JY65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JZ65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KA65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KB65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KC65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KD65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KE65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KF65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KG65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KH65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KI65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KJ65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KK65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KL65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KM65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KN65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KO65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KP65" t="n">
         <v>22</v>
       </c>
     </row>
@@ -56358,7 +60453,70 @@
       <c r="JT66" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JU66" t="n">
+      <c r="JU66" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JV66" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JW66" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JX66" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JY66" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="JZ66" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KA66" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KB66" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KC66" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KD66" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KE66" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KF66" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KG66" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KH66" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KI66" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KJ66" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KK66" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KL66" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KM66" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KN66" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KO66" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KP66" t="n">
         <v>18</v>
       </c>
     </row>
@@ -57205,7 +61363,70 @@
       <c r="JT67" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JU67" t="n">
+      <c r="JU67" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JV67" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JW67" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JX67" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JY67" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JZ67" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KA67" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KB67" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KC67" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KD67" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KE67" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KF67" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KG67" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KH67" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KI67" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KJ67" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KK67" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KL67" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KM67" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KN67" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KO67" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KP67" t="n">
         <v>14</v>
       </c>
     </row>
@@ -58052,7 +62273,70 @@
       <c r="JT68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JU68" t="n">
+      <c r="JU68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JV68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JW68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JX68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JY68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JZ68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KA68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KB68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KC68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KD68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KE68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KF68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KG68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KH68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KI68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KJ68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KK68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KL68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KM68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KN68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KO68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KP68" t="n">
         <v>10</v>
       </c>
     </row>
@@ -58899,7 +63183,70 @@
       <c r="JT69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JU69" t="n">
+      <c r="JU69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JV69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JW69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JX69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JY69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JZ69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KA69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KB69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KC69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KD69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KE69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KF69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KG69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KH69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KI69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KJ69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KK69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KL69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KM69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KN69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KO69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KP69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -59746,7 +64093,70 @@
       <c r="JT70" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="JU70" t="n">
+      <c r="JU70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="JV70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="JW70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="JX70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="JY70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="JZ70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KA70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KB70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KC70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KD70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KE70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KF70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KG70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KH70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KI70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KJ70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KK70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KL70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KM70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KN70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KO70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KP70" t="n">
         <v>30</v>
       </c>
     </row>
@@ -60593,7 +65003,70 @@
       <c r="JT71" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="JU71" t="n">
+      <c r="JU71" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JV71" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JW71" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JX71" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JY71" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JZ71" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KA71" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KB71" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KC71" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KD71" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KE71" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KF71" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KG71" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KH71" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KI71" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KJ71" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KK71" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KL71" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KM71" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KN71" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KO71" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KP71" t="n">
         <v>60</v>
       </c>
     </row>
@@ -61440,7 +65913,70 @@
       <c r="JT72" s="2" t="n">
         <v>20.06</v>
       </c>
-      <c r="JU72" t="n">
+      <c r="JU72" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="JV72" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="JW72" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="JX72" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="JY72" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="JZ72" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KA72" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KB72" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KC72" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KD72" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KE72" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KF72" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KG72" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KH72" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KI72" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KJ72" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KK72" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KL72" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KM72" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KN72" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KO72" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KP72" t="n">
         <v>20.06</v>
       </c>
     </row>
@@ -62287,7 +66823,70 @@
       <c r="JT73" s="2" t="n">
         <v>12.03</v>
       </c>
-      <c r="JU73" t="n">
+      <c r="JU73" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="JV73" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="JW73" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="JX73" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="JY73" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="JZ73" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KA73" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KB73" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KC73" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KD73" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KE73" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KF73" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KG73" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KH73" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KI73" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KJ73" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KK73" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KL73" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KM73" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KN73" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KO73" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KP73" t="n">
         <v>12.03</v>
       </c>
     </row>
@@ -63134,7 +67733,70 @@
       <c r="JT74" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JU74" t="n">
+      <c r="JU74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JV74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JW74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JX74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JY74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JZ74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KA74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KB74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KC74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KD74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KE74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KF74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KG74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KH74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KI74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KJ74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KK74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KL74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KM74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KN74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KO74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KP74" t="n">
         <v>37</v>
       </c>
     </row>
@@ -63981,7 +68643,70 @@
       <c r="JT75" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JU75" t="n">
+      <c r="JU75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JV75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JW75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JX75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JY75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JZ75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KA75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KB75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KC75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KD75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KE75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KF75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KG75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KH75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KI75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KJ75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KK75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KL75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KM75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KN75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KO75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KP75" t="n">
         <v>55</v>
       </c>
     </row>
@@ -64828,7 +69553,70 @@
       <c r="JT76" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JU76" t="n">
+      <c r="JU76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JV76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JW76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JX76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JY76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JZ76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KA76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KB76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KC76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KD76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KE76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KF76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KG76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KH76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KI76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KJ76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KK76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KL76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KM76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KN76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KO76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KP76" t="n">
         <v>38</v>
       </c>
     </row>
@@ -65675,7 +70463,70 @@
       <c r="JT77" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="JU77" t="n">
+      <c r="JU77" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JV77" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JW77" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JX77" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JY77" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JZ77" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KA77" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KB77" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KC77" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KD77" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KE77" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KF77" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KG77" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KH77" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KI77" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KJ77" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KK77" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KL77" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KM77" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KN77" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KO77" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KP77" t="n">
         <v>59</v>
       </c>
     </row>
@@ -66522,7 +71373,70 @@
       <c r="JT78" s="2" t="n">
         <v>1.97</v>
       </c>
-      <c r="JU78" t="n">
+      <c r="JU78" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="JV78" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="JW78" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="JX78" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="JY78" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="JZ78" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KA78" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KB78" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KC78" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KD78" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KE78" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KF78" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KG78" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KH78" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KI78" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KJ78" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KK78" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KL78" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KM78" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KN78" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KO78" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KP78" t="n">
         <v>1.97</v>
       </c>
     </row>
@@ -67369,7 +72283,70 @@
       <c r="JT79" s="2" t="n">
         <v>3.28</v>
       </c>
-      <c r="JU79" t="n">
+      <c r="JU79" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="JV79" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="JW79" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="JX79" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="JY79" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="JZ79" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KA79" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KB79" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KC79" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KD79" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KE79" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KF79" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KG79" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KH79" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KI79" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KJ79" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KK79" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KL79" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KM79" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KN79" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KO79" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KP79" t="n">
         <v>3.28</v>
       </c>
     </row>
@@ -68216,7 +73193,70 @@
       <c r="JT80" s="2" t="n">
         <v>47.5</v>
       </c>
-      <c r="JU80" t="n">
+      <c r="JU80" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="JV80" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="JW80" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="JX80" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="JY80" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="JZ80" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KA80" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KB80" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KC80" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KD80" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KE80" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KF80" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KG80" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KH80" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KI80" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KJ80" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KK80" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KL80" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KM80" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KN80" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KO80" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KP80" t="n">
         <v>47.5</v>
       </c>
     </row>
@@ -69063,7 +74103,70 @@
       <c r="JT81" s="2" t="n">
         <v>30.5</v>
       </c>
-      <c r="JU81" t="n">
+      <c r="JU81" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="JV81" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="JW81" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="JX81" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="JY81" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="JZ81" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KA81" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KB81" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KC81" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KD81" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KE81" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KF81" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KG81" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KH81" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KI81" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KJ81" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KK81" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KL81" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KM81" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KN81" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KO81" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KP81" t="n">
         <v>30.5</v>
       </c>
     </row>
@@ -69910,7 +75013,70 @@
       <c r="JT82" s="2" t="n">
         <v>188.9</v>
       </c>
-      <c r="JU82" t="n">
+      <c r="JU82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JV82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JW82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JX82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JY82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="JZ82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KA82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KB82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KC82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KD82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KE82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KF82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KG82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KH82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KI82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KJ82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KK82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KL82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KM82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KN82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KO82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KP82" t="n">
         <v>188.9</v>
       </c>
     </row>
@@ -70757,7 +75923,70 @@
       <c r="JT83" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="JU83" t="n">
+      <c r="JU83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="JV83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="JW83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="JX83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="JY83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="JZ83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KA83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KB83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KC83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KD83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KE83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KF83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KG83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KH83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KI83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KJ83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KK83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KL83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KM83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KN83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KO83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KP83" t="n">
         <v>88</v>
       </c>
     </row>
@@ -71604,7 +76833,70 @@
       <c r="JT84" s="2" t="n">
         <v>28.33</v>
       </c>
-      <c r="JU84" t="n">
+      <c r="JU84" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="JV84" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="JW84" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="JX84" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="JY84" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="JZ84" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KA84" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KB84" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KC84" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KD84" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KE84" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KF84" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KG84" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KH84" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KI84" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KJ84" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KK84" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KL84" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KM84" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KN84" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KO84" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KP84" t="n">
         <v>28.33</v>
       </c>
     </row>
@@ -72451,7 +77743,70 @@
       <c r="JT85" s="2" t="n">
         <v>163.1</v>
       </c>
-      <c r="JU85" t="n">
+      <c r="JU85" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="JV85" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="JW85" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="JX85" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="JY85" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="JZ85" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KA85" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KB85" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KC85" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KD85" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KE85" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KF85" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KG85" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KH85" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KI85" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KJ85" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KK85" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KL85" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KM85" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KN85" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KO85" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KP85" t="n">
         <v>163.1</v>
       </c>
     </row>
@@ -73298,7 +78653,70 @@
       <c r="JT86" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JU86" t="n">
+      <c r="JU86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JV86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JW86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JX86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JY86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JZ86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KA86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KB86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KC86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KD86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KE86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KF86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KG86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KH86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KI86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KJ86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KK86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KL86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KM86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KN86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KO86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KP86" t="n">
         <v>3</v>
       </c>
     </row>
@@ -74145,7 +79563,70 @@
       <c r="JT87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JU87" t="n">
+      <c r="JU87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JV87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JW87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JX87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JY87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JZ87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KA87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KB87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KC87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KD87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KE87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KF87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KG87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KH87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KI87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KJ87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KK87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KL87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KM87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KN87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KO87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KP87" t="n">
         <v>5</v>
       </c>
     </row>
@@ -74992,7 +80473,70 @@
       <c r="JT88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JU88" t="n">
+      <c r="JU88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JV88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JW88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JX88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JY88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JZ88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KA88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KB88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KC88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KD88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KE88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KF88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KG88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KH88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KI88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KJ88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KK88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KL88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KM88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KN88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KO88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KP88" t="n">
         <v>2</v>
       </c>
     </row>
@@ -75839,7 +81383,70 @@
       <c r="JT89" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JU89" t="n">
+      <c r="JU89" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JV89" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JW89" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JX89" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JY89" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JZ89" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KA89" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KB89" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KC89" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KD89" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KE89" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KF89" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KG89" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KH89" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KI89" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KJ89" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KK89" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KL89" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KM89" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KN89" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KO89" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KP89" t="n">
         <v>13</v>
       </c>
     </row>
@@ -76686,7 +82293,70 @@
       <c r="JT90" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="JU90" t="n">
+      <c r="JU90" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="JV90" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="JW90" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="JX90" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="JY90" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="JZ90" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KA90" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KB90" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KC90" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KD90" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KE90" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KF90" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KG90" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KH90" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KI90" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KJ90" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KK90" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KL90" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KM90" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KN90" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KO90" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KP90" t="n">
         <v>125</v>
       </c>
     </row>
@@ -77533,7 +83203,70 @@
       <c r="JT91" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="JU91" t="n">
+      <c r="JU91" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="JV91" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="JW91" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="JX91" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="JY91" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="JZ91" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KA91" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KB91" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KC91" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KD91" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KE91" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KF91" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KG91" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KH91" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KI91" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KJ91" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KK91" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KL91" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KM91" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KN91" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KO91" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KP91" t="n">
         <v>230</v>
       </c>
     </row>
@@ -78380,7 +84113,70 @@
       <c r="JT92" s="2" t="n">
         <v>274</v>
       </c>
-      <c r="JU92" t="n">
+      <c r="JU92" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="JV92" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="JW92" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="JX92" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="JY92" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="JZ92" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KA92" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KB92" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KC92" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KD92" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KE92" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KF92" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KG92" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KH92" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KI92" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KJ92" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KK92" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KL92" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KM92" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KN92" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KO92" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KP92" t="n">
         <v>274</v>
       </c>
     </row>
@@ -79227,7 +85023,70 @@
       <c r="JT93" s="2" t="n">
         <v>75.90000000000001</v>
       </c>
-      <c r="JU93" t="n">
+      <c r="JU93" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="JV93" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="JW93" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="JX93" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="JY93" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="JZ93" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KA93" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KB93" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KC93" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KD93" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KE93" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KF93" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KG93" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KH93" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KI93" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KJ93" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KK93" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KL93" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KM93" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KN93" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KO93" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KP93" t="n">
         <v>75.90000000000001</v>
       </c>
     </row>
@@ -80074,7 +85933,70 @@
       <c r="JT94" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JU94" t="n">
+      <c r="JU94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JV94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JW94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JX94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JY94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JZ94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KA94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KB94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KC94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KD94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KE94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KF94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KG94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KH94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KI94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KJ94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KK94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KL94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KM94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KN94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KO94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KP94" t="n">
         <v>55</v>
       </c>
     </row>
@@ -80921,7 +86843,70 @@
       <c r="JT95" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JU95" t="n">
+      <c r="JU95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JV95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JW95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JX95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JY95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JZ95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KA95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KB95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KC95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KD95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KE95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KF95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KG95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KH95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KI95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KJ95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KK95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KL95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KM95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KN95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KO95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KP95" t="n">
         <v>15</v>
       </c>
     </row>
@@ -81768,7 +87753,70 @@
       <c r="JT96" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JU96" t="n">
+      <c r="JU96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JV96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JW96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JX96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JY96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JZ96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KA96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KB96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KC96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KD96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KE96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KF96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KG96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KH96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KI96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KJ96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KK96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KL96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KM96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KN96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KO96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KP96" t="n">
         <v>15</v>
       </c>
     </row>
@@ -82615,7 +88663,70 @@
       <c r="JT97" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JU97" t="n">
+      <c r="JU97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JV97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JW97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JX97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JY97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="JZ97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KA97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KB97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KC97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KD97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KE97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KF97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KG97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KH97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KI97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KJ97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KK97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KL97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KM97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KN97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KO97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KP97" t="n">
         <v>37</v>
       </c>
     </row>
@@ -83462,7 +89573,70 @@
       <c r="JT98" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JU98" t="n">
+      <c r="JU98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JV98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JW98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JX98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JY98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JZ98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KA98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KB98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KC98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KD98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KE98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KF98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KG98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KH98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KI98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KJ98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KK98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KL98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KM98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KN98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KO98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KP98" t="n">
         <v>38</v>
       </c>
     </row>
@@ -84309,7 +90483,70 @@
       <c r="JT99" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JU99" t="n">
+      <c r="JU99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JV99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JW99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JX99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JY99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="JZ99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KA99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KB99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KC99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KD99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KE99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KF99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KG99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KH99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KI99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KJ99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KK99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KL99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KM99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KN99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KO99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KP99" t="n">
         <v>48</v>
       </c>
     </row>
@@ -85156,7 +91393,70 @@
       <c r="JT100" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JU100" t="n">
+      <c r="JU100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JV100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JW100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JX100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JY100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JZ100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KA100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KB100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KC100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KD100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KE100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KF100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KG100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KH100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KI100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KJ100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KK100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KL100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KM100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KN100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KO100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KP100" t="n">
         <v>8</v>
       </c>
     </row>
@@ -86003,7 +92303,70 @@
       <c r="JT101" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JU101" t="n">
+      <c r="JU101" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JV101" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JW101" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JX101" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JY101" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="JZ101" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KA101" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KB101" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KC101" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KD101" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KE101" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KF101" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KG101" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KH101" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KI101" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KJ101" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KK101" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KL101" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KM101" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KN101" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KO101" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KP101" t="n">
         <v>14</v>
       </c>
     </row>
@@ -86850,7 +93213,70 @@
       <c r="JT102" s="2" t="n">
         <v>77.8</v>
       </c>
-      <c r="JU102" t="n">
+      <c r="JU102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="JV102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="JW102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="JX102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="JY102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="JZ102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KA102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KB102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KC102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KD102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KE102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KF102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KG102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KH102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KI102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KJ102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KK102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KL102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KM102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KN102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KO102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KP102" t="n">
         <v>77.8</v>
       </c>
     </row>

--- a/django_AFL_ML/Data/Brisbane_stats.xlsx
+++ b/django_AFL_ML/Data/Brisbane_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KP102"/>
+  <dimension ref="A1:KU102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="IL36" activeCellId="0" sqref="IL36"/>
@@ -1366,7 +1366,22 @@
       <c r="KO1" s="2" t="n">
         <v>10748</v>
       </c>
-      <c r="KP1" t="n">
+      <c r="KP1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KQ1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KR1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KS1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KT1" s="2" t="n">
+        <v>10748</v>
+      </c>
+      <c r="KU1" t="n">
         <v>10748</v>
       </c>
     </row>
@@ -2276,7 +2291,22 @@
       <c r="KO2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="KP2" t="n">
+      <c r="KP2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KQ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KR2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KS2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KT2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="KU2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -3186,7 +3216,22 @@
       <c r="KO3" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KP3" t="n">
+      <c r="KP3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KQ3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KR3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KS3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KT3" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KU3" t="n">
         <v>27</v>
       </c>
     </row>
@@ -4096,7 +4141,22 @@
       <c r="KO4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KP4" t="n">
+      <c r="KP4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KQ4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KR4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KS4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KT4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KU4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5006,7 +5066,22 @@
       <c r="KO5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KP5" t="n">
+      <c r="KP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5916,7 +5991,22 @@
       <c r="KO6" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KP6" t="n">
+      <c r="KP6" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KQ6" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KR6" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KS6" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KT6" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KU6" t="n">
         <v>49</v>
       </c>
     </row>
@@ -6826,7 +6916,22 @@
       <c r="KO7" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="KP7" t="n">
+      <c r="KP7" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KQ7" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KR7" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KS7" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KT7" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="KU7" t="n">
         <v>120</v>
       </c>
     </row>
@@ -7736,7 +7841,22 @@
       <c r="KO8" s="2" t="n">
         <v>-71</v>
       </c>
-      <c r="KP8" t="n">
+      <c r="KP8" s="2" t="n">
+        <v>-71</v>
+      </c>
+      <c r="KQ8" s="2" t="n">
+        <v>-71</v>
+      </c>
+      <c r="KR8" s="2" t="n">
+        <v>-71</v>
+      </c>
+      <c r="KS8" s="2" t="n">
+        <v>-71</v>
+      </c>
+      <c r="KT8" s="2" t="n">
+        <v>-71</v>
+      </c>
+      <c r="KU8" t="n">
         <v>-71</v>
       </c>
     </row>
@@ -8646,7 +8766,22 @@
       <c r="KO9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KP9" t="n">
+      <c r="KP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9556,7 +9691,22 @@
       <c r="KO10" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KP10" t="n">
+      <c r="KP10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KQ10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KR10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KS10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KT10" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KU10" t="n">
         <v>7</v>
       </c>
     </row>
@@ -10466,7 +10616,22 @@
       <c r="KO11" s="2" t="n">
         <v>197</v>
       </c>
-      <c r="KP11" t="n">
+      <c r="KP11" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KQ11" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KR11" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KS11" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KT11" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="KU11" t="n">
         <v>197</v>
       </c>
     </row>
@@ -11376,7 +11541,22 @@
       <c r="KO12" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="KP12" t="n">
+      <c r="KP12" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KQ12" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KR12" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KS12" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KT12" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="KU12" t="n">
         <v>99</v>
       </c>
     </row>
@@ -12286,7 +12466,22 @@
       <c r="KO13" s="2" t="n">
         <v>296</v>
       </c>
-      <c r="KP13" t="n">
+      <c r="KP13" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KQ13" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KR13" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KS13" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KT13" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="KU13" t="n">
         <v>296</v>
       </c>
     </row>
@@ -13196,7 +13391,22 @@
       <c r="KO14" s="2" t="n">
         <v>1.99</v>
       </c>
-      <c r="KP14" t="n">
+      <c r="KP14" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KQ14" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KR14" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KS14" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KT14" s="2" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="KU14" t="n">
         <v>1.99</v>
       </c>
     </row>
@@ -14106,7 +14316,22 @@
       <c r="KO15" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="KP15" t="n">
+      <c r="KP15" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KQ15" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KR15" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KS15" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KT15" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KU15" t="n">
         <v>88</v>
       </c>
     </row>
@@ -15016,7 +15241,22 @@
       <c r="KO16" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KP16" t="n">
+      <c r="KP16" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KQ16" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KR16" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KS16" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KT16" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KU16" t="n">
         <v>68</v>
       </c>
     </row>
@@ -15926,7 +16166,22 @@
       <c r="KO17" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KP17" t="n">
+      <c r="KP17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KQ17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KR17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KS17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KT17" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KU17" t="n">
         <v>41</v>
       </c>
     </row>
@@ -16836,7 +17091,22 @@
       <c r="KO18" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KP18" t="n">
+      <c r="KP18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KQ18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KR18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KS18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KT18" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KU18" t="n">
         <v>22</v>
       </c>
     </row>
@@ -17746,7 +18016,22 @@
       <c r="KO19" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KP19" t="n">
+      <c r="KP19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KQ19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KR19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KS19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KT19" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KU19" t="n">
         <v>13</v>
       </c>
     </row>
@@ -18656,7 +18941,22 @@
       <c r="KO20" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KP20" t="n">
+      <c r="KP20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KQ20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KR20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KS20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KT20" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KU20" t="n">
         <v>7</v>
       </c>
     </row>
@@ -19566,7 +19866,22 @@
       <c r="KO21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KP21" t="n">
+      <c r="KP21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KQ21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KR21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KS21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KT21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KU21" t="n">
         <v>7</v>
       </c>
     </row>
@@ -20476,7 +20791,22 @@
       <c r="KO22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KP22" t="n">
+      <c r="KP22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KQ22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KR22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KS22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KT22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KU22" t="n">
         <v>7</v>
       </c>
     </row>
@@ -21386,7 +21716,22 @@
       <c r="KO23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KP23" t="n">
+      <c r="KP23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22296,7 +22641,22 @@
       <c r="KO24" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KP24" t="n">
+      <c r="KP24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KQ24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KR24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KS24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KT24" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KU24" t="n">
         <v>14</v>
       </c>
     </row>
@@ -23206,7 +23566,22 @@
       <c r="KO25" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KP25" t="n">
+      <c r="KP25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KQ25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KR25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KS25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KT25" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KU25" t="n">
         <v>50</v>
       </c>
     </row>
@@ -24116,7 +24491,22 @@
       <c r="KO26" s="2" t="n">
         <v>42.29</v>
       </c>
-      <c r="KP26" t="n">
+      <c r="KP26" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KQ26" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KR26" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KS26" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KT26" s="2" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="KU26" t="n">
         <v>42.29</v>
       </c>
     </row>
@@ -25026,7 +25416,22 @@
       <c r="KO27" s="2" t="n">
         <v>21.14</v>
       </c>
-      <c r="KP27" t="n">
+      <c r="KP27" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KQ27" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KR27" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KS27" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KT27" s="2" t="n">
+        <v>21.14</v>
+      </c>
+      <c r="KU27" t="n">
         <v>21.14</v>
       </c>
     </row>
@@ -25936,7 +26341,22 @@
       <c r="KO28" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KP28" t="n">
+      <c r="KP28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KQ28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KR28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KS28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KT28" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KU28" t="n">
         <v>40</v>
       </c>
     </row>
@@ -26846,7 +27266,22 @@
       <c r="KO29" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KP29" t="n">
+      <c r="KP29" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KQ29" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KR29" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KS29" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KT29" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KU29" t="n">
         <v>50</v>
       </c>
     </row>
@@ -27756,7 +28191,22 @@
       <c r="KO30" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KP30" t="n">
+      <c r="KP30" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KQ30" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KR30" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KS30" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KT30" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KU30" t="n">
         <v>41</v>
       </c>
     </row>
@@ -28666,7 +29116,22 @@
       <c r="KO31" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KP31" t="n">
+      <c r="KP31" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KQ31" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KR31" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KS31" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KT31" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="KU31" t="n">
         <v>46</v>
       </c>
     </row>
@@ -29576,7 +30041,22 @@
       <c r="KO32" s="2" t="n">
         <v>3.29</v>
       </c>
-      <c r="KP32" t="n">
+      <c r="KP32" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KQ32" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KR32" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KS32" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KT32" s="2" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="KU32" t="n">
         <v>3.29</v>
       </c>
     </row>
@@ -30486,7 +30966,22 @@
       <c r="KO33" s="2" t="n">
         <v>6.57</v>
       </c>
-      <c r="KP33" t="n">
+      <c r="KP33" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KQ33" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KR33" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KS33" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KT33" s="2" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="KU33" t="n">
         <v>6.57</v>
       </c>
     </row>
@@ -31396,7 +31891,22 @@
       <c r="KO34" s="2" t="n">
         <v>30.4</v>
       </c>
-      <c r="KP34" t="n">
+      <c r="KP34" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KQ34" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KR34" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KS34" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KT34" s="2" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="KU34" t="n">
         <v>30.4</v>
       </c>
     </row>
@@ -32306,7 +32816,22 @@
       <c r="KO35" s="2" t="n">
         <v>15.2</v>
       </c>
-      <c r="KP35" t="n">
+      <c r="KP35" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KQ35" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KR35" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KS35" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KT35" s="2" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="KU35" t="n">
         <v>15.2</v>
       </c>
     </row>
@@ -33216,7 +33741,22 @@
       <c r="KO36" s="2" t="n">
         <v>187.9</v>
       </c>
-      <c r="KP36" t="n">
+      <c r="KP36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KQ36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KR36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KS36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KT36" s="2" t="n">
+        <v>187.9</v>
+      </c>
+      <c r="KU36" t="n">
         <v>187.9</v>
       </c>
     </row>
@@ -34126,7 +34666,22 @@
       <c r="KO37" s="2" t="n">
         <v>87.8</v>
       </c>
-      <c r="KP37" t="n">
+      <c r="KP37" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KQ37" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KR37" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KS37" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KT37" s="2" t="n">
+        <v>87.8</v>
+      </c>
+      <c r="KU37" t="n">
         <v>87.8</v>
       </c>
     </row>
@@ -35036,7 +35591,22 @@
       <c r="KO38" s="2" t="n">
         <v>25.66</v>
       </c>
-      <c r="KP38" t="n">
+      <c r="KP38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KQ38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KR38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KS38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KT38" s="2" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KU38" t="n">
         <v>25.66</v>
       </c>
     </row>
@@ -35946,7 +36516,22 @@
       <c r="KO39" s="2" t="n">
         <v>116.6</v>
       </c>
-      <c r="KP39" t="n">
+      <c r="KP39" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KQ39" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KR39" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KS39" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KT39" s="2" t="n">
+        <v>116.6</v>
+      </c>
+      <c r="KU39" t="n">
         <v>116.6</v>
       </c>
     </row>
@@ -36856,7 +37441,22 @@
       <c r="KO40" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KP40" t="n">
+      <c r="KP40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KQ40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KR40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KS40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KT40" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KU40" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37766,7 +38366,22 @@
       <c r="KO41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KP41" t="n">
+      <c r="KP41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KQ41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KR41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KS41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KT41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KU41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -38676,7 +39291,22 @@
       <c r="KO42" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KP42" t="n">
+      <c r="KP42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KQ42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KR42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KS42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KT42" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KU42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -39586,7 +40216,22 @@
       <c r="KO43" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KP43" t="n">
+      <c r="KP43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KQ43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KR43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KS43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KT43" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KU43" t="n">
         <v>8</v>
       </c>
     </row>
@@ -40496,7 +41141,22 @@
       <c r="KO44" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="KP44" t="n">
+      <c r="KP44" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KQ44" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KR44" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KS44" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KT44" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KU44" t="n">
         <v>117</v>
       </c>
     </row>
@@ -41406,7 +42066,22 @@
       <c r="KO45" s="2" t="n">
         <v>177</v>
       </c>
-      <c r="KP45" t="n">
+      <c r="KP45" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KQ45" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KR45" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KS45" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KT45" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="KU45" t="n">
         <v>177</v>
       </c>
     </row>
@@ -42316,7 +42991,22 @@
       <c r="KO46" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="KP46" t="n">
+      <c r="KP46" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KQ46" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KR46" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KS46" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KT46" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="KU46" t="n">
         <v>200</v>
       </c>
     </row>
@@ -43226,7 +43916,22 @@
       <c r="KO47" s="2" t="n">
         <v>67.59999999999999</v>
       </c>
-      <c r="KP47" t="n">
+      <c r="KP47" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KQ47" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KR47" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KS47" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KT47" s="2" t="n">
+        <v>67.59999999999999</v>
+      </c>
+      <c r="KU47" t="n">
         <v>67.59999999999999</v>
       </c>
     </row>
@@ -44136,7 +44841,22 @@
       <c r="KO48" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KP48" t="n">
+      <c r="KP48" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KQ48" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KR48" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KS48" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KT48" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KU48" t="n">
         <v>50</v>
       </c>
     </row>
@@ -45046,7 +45766,22 @@
       <c r="KO49" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KP49" t="n">
+      <c r="KP49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KQ49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KR49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KS49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KT49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KU49" t="n">
         <v>8</v>
       </c>
     </row>
@@ -45956,7 +46691,22 @@
       <c r="KO50" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KP50" t="n">
+      <c r="KP50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KQ50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KR50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KS50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KT50" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KU50" t="n">
         <v>11</v>
       </c>
     </row>
@@ -46866,7 +47616,22 @@
       <c r="KO51" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KP51" t="n">
+      <c r="KP51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KQ51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KR51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KS51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KT51" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KU51" t="n">
         <v>40</v>
       </c>
     </row>
@@ -47776,7 +48541,22 @@
       <c r="KO52" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KP52" t="n">
+      <c r="KP52" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KQ52" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KR52" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KS52" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KT52" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KU52" t="n">
         <v>41</v>
       </c>
     </row>
@@ -48686,7 +49466,22 @@
       <c r="KO53" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KP53" t="n">
+      <c r="KP53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KQ53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KR53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KS53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KT53" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KU53" t="n">
         <v>37</v>
       </c>
     </row>
@@ -49596,7 +50391,22 @@
       <c r="KO54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KP54" t="n">
+      <c r="KP54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KQ54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KR54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KS54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KT54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KU54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -50506,7 +51316,22 @@
       <c r="KO55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KP55" t="n">
+      <c r="KP55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KQ55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KR55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KS55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KT55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KU55" t="n">
         <v>7</v>
       </c>
     </row>
@@ -51416,7 +52241,22 @@
       <c r="KO56" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="KP56" t="n">
+      <c r="KP56" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KQ56" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KR56" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KS56" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KT56" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="KU56" t="n">
         <v>100</v>
       </c>
     </row>
@@ -52326,7 +53166,22 @@
       <c r="KO57" s="2" t="n">
         <v>209</v>
       </c>
-      <c r="KP57" t="n">
+      <c r="KP57" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KQ57" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KR57" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KS57" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KT57" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="KU57" t="n">
         <v>209</v>
       </c>
     </row>
@@ -53236,7 +54091,22 @@
       <c r="KO58" s="2" t="n">
         <v>152</v>
       </c>
-      <c r="KP58" t="n">
+      <c r="KP58" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KQ58" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KR58" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KS58" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KT58" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KU58" t="n">
         <v>152</v>
       </c>
     </row>
@@ -54146,7 +55016,22 @@
       <c r="KO59" s="2" t="n">
         <v>361</v>
       </c>
-      <c r="KP59" t="n">
+      <c r="KP59" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KQ59" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KR59" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KS59" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KT59" s="2" t="n">
+        <v>361</v>
+      </c>
+      <c r="KU59" t="n">
         <v>361</v>
       </c>
     </row>
@@ -55056,7 +55941,22 @@
       <c r="KO60" s="2" t="n">
         <v>1.38</v>
       </c>
-      <c r="KP60" t="n">
+      <c r="KP60" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KQ60" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KR60" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KS60" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KT60" s="2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="KU60" t="n">
         <v>1.38</v>
       </c>
     </row>
@@ -55966,7 +56866,22 @@
       <c r="KO61" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="KP61" t="n">
+      <c r="KP61" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KQ61" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KR61" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KS61" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KT61" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="KU61" t="n">
         <v>102</v>
       </c>
     </row>
@@ -56876,7 +57791,22 @@
       <c r="KO62" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="KP62" t="n">
+      <c r="KP62" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KQ62" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KR62" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KS62" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KT62" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="KU62" t="n">
         <v>65</v>
       </c>
     </row>
@@ -57786,7 +58716,22 @@
       <c r="KO63" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KP63" t="n">
+      <c r="KP63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KQ63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KR63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KS63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KT63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KU63" t="n">
         <v>41</v>
       </c>
     </row>
@@ -58696,7 +59641,22 @@
       <c r="KO64" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KP64" t="n">
+      <c r="KP64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KQ64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KR64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KS64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KT64" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KU64" t="n">
         <v>13</v>
       </c>
     </row>
@@ -59606,7 +60566,22 @@
       <c r="KO65" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KP65" t="n">
+      <c r="KP65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KQ65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KR65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KS65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KT65" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="KU65" t="n">
         <v>22</v>
       </c>
     </row>
@@ -60516,7 +61491,22 @@
       <c r="KO66" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KP66" t="n">
+      <c r="KP66" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KQ66" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KR66" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KS66" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KT66" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="KU66" t="n">
         <v>18</v>
       </c>
     </row>
@@ -61426,7 +62416,22 @@
       <c r="KO67" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KP67" t="n">
+      <c r="KP67" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KQ67" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KR67" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KS67" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KT67" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KU67" t="n">
         <v>14</v>
       </c>
     </row>
@@ -62336,7 +63341,22 @@
       <c r="KO68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KP68" t="n">
+      <c r="KP68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KQ68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KR68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KS68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KT68" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KU68" t="n">
         <v>10</v>
       </c>
     </row>
@@ -63246,7 +64266,22 @@
       <c r="KO69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KP69" t="n">
+      <c r="KP69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KQ69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KR69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KS69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KT69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KU69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -64156,7 +65191,22 @@
       <c r="KO70" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KP70" t="n">
+      <c r="KP70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KQ70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KR70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KS70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KT70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KU70" t="n">
         <v>30</v>
       </c>
     </row>
@@ -65066,7 +66116,22 @@
       <c r="KO71" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KP71" t="n">
+      <c r="KP71" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KQ71" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KR71" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KS71" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KT71" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="KU71" t="n">
         <v>60</v>
       </c>
     </row>
@@ -65976,7 +67041,22 @@
       <c r="KO72" s="2" t="n">
         <v>20.06</v>
       </c>
-      <c r="KP72" t="n">
+      <c r="KP72" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KQ72" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KR72" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KS72" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KT72" s="2" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="KU72" t="n">
         <v>20.06</v>
       </c>
     </row>
@@ -66886,7 +67966,22 @@
       <c r="KO73" s="2" t="n">
         <v>12.03</v>
       </c>
-      <c r="KP73" t="n">
+      <c r="KP73" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KQ73" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KR73" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KS73" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KT73" s="2" t="n">
+        <v>12.03</v>
+      </c>
+      <c r="KU73" t="n">
         <v>12.03</v>
       </c>
     </row>
@@ -67796,7 +68891,22 @@
       <c r="KO74" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KP74" t="n">
+      <c r="KP74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KQ74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KR74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KS74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KT74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KU74" t="n">
         <v>37</v>
       </c>
     </row>
@@ -68706,7 +69816,22 @@
       <c r="KO75" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KP75" t="n">
+      <c r="KP75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KQ75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KR75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KS75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KT75" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KU75" t="n">
         <v>55</v>
       </c>
     </row>
@@ -69616,7 +70741,22 @@
       <c r="KO76" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KP76" t="n">
+      <c r="KP76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KQ76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KR76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KS76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KT76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KU76" t="n">
         <v>38</v>
       </c>
     </row>
@@ -70526,7 +71666,22 @@
       <c r="KO77" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KP77" t="n">
+      <c r="KP77" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KQ77" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KR77" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KS77" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KT77" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KU77" t="n">
         <v>59</v>
       </c>
     </row>
@@ -71436,7 +72591,22 @@
       <c r="KO78" s="2" t="n">
         <v>1.97</v>
       </c>
-      <c r="KP78" t="n">
+      <c r="KP78" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KQ78" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KR78" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KS78" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KT78" s="2" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="KU78" t="n">
         <v>1.97</v>
       </c>
     </row>
@@ -72346,7 +73516,22 @@
       <c r="KO79" s="2" t="n">
         <v>3.28</v>
       </c>
-      <c r="KP79" t="n">
+      <c r="KP79" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KQ79" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KR79" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KS79" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KT79" s="2" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="KU79" t="n">
         <v>3.28</v>
       </c>
     </row>
@@ -73256,7 +74441,22 @@
       <c r="KO80" s="2" t="n">
         <v>47.5</v>
       </c>
-      <c r="KP80" t="n">
+      <c r="KP80" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KQ80" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KR80" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KS80" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KT80" s="2" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="KU80" t="n">
         <v>47.5</v>
       </c>
     </row>
@@ -74166,7 +75366,22 @@
       <c r="KO81" s="2" t="n">
         <v>30.5</v>
       </c>
-      <c r="KP81" t="n">
+      <c r="KP81" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KQ81" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KR81" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KS81" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KT81" s="2" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="KU81" t="n">
         <v>30.5</v>
       </c>
     </row>
@@ -75076,7 +76291,22 @@
       <c r="KO82" s="2" t="n">
         <v>188.9</v>
       </c>
-      <c r="KP82" t="n">
+      <c r="KP82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KQ82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KR82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KS82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KT82" s="2" t="n">
+        <v>188.9</v>
+      </c>
+      <c r="KU82" t="n">
         <v>188.9</v>
       </c>
     </row>
@@ -75986,7 +77216,22 @@
       <c r="KO83" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="KP83" t="n">
+      <c r="KP83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KQ83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KR83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KS83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KT83" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="KU83" t="n">
         <v>88</v>
       </c>
     </row>
@@ -76896,7 +78141,22 @@
       <c r="KO84" s="2" t="n">
         <v>28.33</v>
       </c>
-      <c r="KP84" t="n">
+      <c r="KP84" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KQ84" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KR84" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KS84" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KT84" s="2" t="n">
+        <v>28.33</v>
+      </c>
+      <c r="KU84" t="n">
         <v>28.33</v>
       </c>
     </row>
@@ -77806,7 +79066,22 @@
       <c r="KO85" s="2" t="n">
         <v>163.1</v>
       </c>
-      <c r="KP85" t="n">
+      <c r="KP85" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KQ85" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KR85" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KS85" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KT85" s="2" t="n">
+        <v>163.1</v>
+      </c>
+      <c r="KU85" t="n">
         <v>163.1</v>
       </c>
     </row>
@@ -78716,7 +79991,22 @@
       <c r="KO86" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KP86" t="n">
+      <c r="KP86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KQ86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KR86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KS86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KT86" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KU86" t="n">
         <v>3</v>
       </c>
     </row>
@@ -79626,7 +80916,22 @@
       <c r="KO87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KP87" t="n">
+      <c r="KP87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KQ87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KR87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KS87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KT87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KU87" t="n">
         <v>5</v>
       </c>
     </row>
@@ -80536,7 +81841,22 @@
       <c r="KO88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KP88" t="n">
+      <c r="KP88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KQ88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KR88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KS88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KT88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KU88" t="n">
         <v>2</v>
       </c>
     </row>
@@ -81446,7 +82766,22 @@
       <c r="KO89" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KP89" t="n">
+      <c r="KP89" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KQ89" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KR89" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KS89" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KT89" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KU89" t="n">
         <v>13</v>
       </c>
     </row>
@@ -82356,7 +83691,22 @@
       <c r="KO90" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="KP90" t="n">
+      <c r="KP90" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KQ90" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KR90" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KS90" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KT90" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="KU90" t="n">
         <v>125</v>
       </c>
     </row>
@@ -83266,7 +84616,22 @@
       <c r="KO91" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="KP91" t="n">
+      <c r="KP91" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KQ91" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KR91" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KS91" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KT91" s="2" t="n">
+        <v>230</v>
+      </c>
+      <c r="KU91" t="n">
         <v>230</v>
       </c>
     </row>
@@ -84176,7 +85541,22 @@
       <c r="KO92" s="2" t="n">
         <v>274</v>
       </c>
-      <c r="KP92" t="n">
+      <c r="KP92" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KQ92" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KR92" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KS92" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KT92" s="2" t="n">
+        <v>274</v>
+      </c>
+      <c r="KU92" t="n">
         <v>274</v>
       </c>
     </row>
@@ -85086,7 +86466,22 @@
       <c r="KO93" s="2" t="n">
         <v>75.90000000000001</v>
       </c>
-      <c r="KP93" t="n">
+      <c r="KP93" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KQ93" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KR93" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KS93" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KT93" s="2" t="n">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="KU93" t="n">
         <v>75.90000000000001</v>
       </c>
     </row>
@@ -85996,7 +87391,22 @@
       <c r="KO94" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KP94" t="n">
+      <c r="KP94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KQ94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KR94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KS94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KT94" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="KU94" t="n">
         <v>55</v>
       </c>
     </row>
@@ -86906,7 +88316,22 @@
       <c r="KO95" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KP95" t="n">
+      <c r="KP95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KQ95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KR95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KS95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KT95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KU95" t="n">
         <v>15</v>
       </c>
     </row>
@@ -87816,7 +89241,22 @@
       <c r="KO96" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KP96" t="n">
+      <c r="KP96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KQ96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KR96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KS96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KT96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KU96" t="n">
         <v>15</v>
       </c>
     </row>
@@ -88726,7 +90166,22 @@
       <c r="KO97" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KP97" t="n">
+      <c r="KP97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KQ97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KR97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KS97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KT97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KU97" t="n">
         <v>37</v>
       </c>
     </row>
@@ -89636,7 +91091,22 @@
       <c r="KO98" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KP98" t="n">
+      <c r="KP98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KQ98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KR98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KS98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KT98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KU98" t="n">
         <v>38</v>
       </c>
     </row>
@@ -90546,7 +92016,22 @@
       <c r="KO99" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KP99" t="n">
+      <c r="KP99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KQ99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KR99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KS99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KT99" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KU99" t="n">
         <v>48</v>
       </c>
     </row>
@@ -91456,7 +92941,22 @@
       <c r="KO100" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KP100" t="n">
+      <c r="KP100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KQ100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KR100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KS100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KT100" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KU100" t="n">
         <v>8</v>
       </c>
     </row>
@@ -92366,7 +93866,22 @@
       <c r="KO101" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KP101" t="n">
+      <c r="KP101" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KQ101" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KR101" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KS101" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KT101" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KU101" t="n">
         <v>14</v>
       </c>
     </row>
@@ -93276,7 +94791,22 @@
       <c r="KO102" s="2" t="n">
         <v>77.8</v>
       </c>
-      <c r="KP102" t="n">
+      <c r="KP102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KQ102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KR102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KS102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KT102" s="2" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="KU102" t="n">
         <v>77.8</v>
       </c>
     </row>
